--- a/Serbia Prva Liga/Serbia Prva Liga.xlsx
+++ b/Serbia Prva Liga/Serbia Prva Liga.xlsx
@@ -2325,7 +2325,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6357673</v>
+        <v>5215880</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -2337,76 +2337,76 @@
         <v>44991.41666666666</v>
       </c>
       <c r="F21" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G21" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I21">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J21" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K21">
+        <v>2.1</v>
+      </c>
+      <c r="L21">
+        <v>2.875</v>
+      </c>
+      <c r="M21">
+        <v>3.5</v>
+      </c>
+      <c r="N21">
         <v>1.8</v>
       </c>
-      <c r="L21">
-        <v>3.4</v>
-      </c>
-      <c r="M21">
-        <v>3.8</v>
-      </c>
-      <c r="N21">
-        <v>1.65</v>
-      </c>
       <c r="O21">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="P21">
-        <v>4.5</v>
+        <v>4.333</v>
       </c>
       <c r="Q21">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R21">
+        <v>1.85</v>
+      </c>
+      <c r="S21">
         <v>1.95</v>
       </c>
-      <c r="S21">
-        <v>1.85</v>
-      </c>
       <c r="T21">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U21">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V21">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W21">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X21">
         <v>-1</v>
       </c>
       <c r="Y21">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Z21">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA21">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB21">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC21">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="22" spans="1:29">
@@ -2503,7 +2503,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5215880</v>
+        <v>6357673</v>
       </c>
       <c r="C23" t="s">
         <v>28</v>
@@ -2515,76 +2515,76 @@
         <v>44991.41666666666</v>
       </c>
       <c r="F23" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G23" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H23">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J23" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K23">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="L23">
-        <v>2.875</v>
+        <v>3.4</v>
       </c>
       <c r="M23">
+        <v>3.8</v>
+      </c>
+      <c r="N23">
+        <v>1.65</v>
+      </c>
+      <c r="O23">
         <v>3.5</v>
       </c>
-      <c r="N23">
-        <v>1.8</v>
-      </c>
-      <c r="O23">
-        <v>3</v>
-      </c>
       <c r="P23">
-        <v>4.333</v>
+        <v>4.5</v>
       </c>
       <c r="Q23">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R23">
+        <v>1.95</v>
+      </c>
+      <c r="S23">
         <v>1.85</v>
       </c>
-      <c r="S23">
+      <c r="T23">
+        <v>2.5</v>
+      </c>
+      <c r="U23">
+        <v>1.85</v>
+      </c>
+      <c r="V23">
         <v>1.95</v>
       </c>
-      <c r="T23">
-        <v>2</v>
-      </c>
-      <c r="U23">
-        <v>1.925</v>
-      </c>
-      <c r="V23">
-        <v>1.875</v>
-      </c>
       <c r="W23">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X23">
         <v>-1</v>
       </c>
       <c r="Y23">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Z23">
+        <v>-1</v>
+      </c>
+      <c r="AA23">
         <v>0.8500000000000001</v>
       </c>
-      <c r="AA23">
-        <v>-1</v>
-      </c>
       <c r="AB23">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC23">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="24" spans="1:29">
@@ -4906,7 +4906,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>5215840</v>
+        <v>5289414</v>
       </c>
       <c r="C50" t="s">
         <v>28</v>
@@ -4918,76 +4918,76 @@
         <v>45012.45833333334</v>
       </c>
       <c r="F50" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="G50" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="H50">
         <v>1</v>
       </c>
       <c r="I50">
+        <v>0</v>
+      </c>
+      <c r="J50" t="s">
+        <v>51</v>
+      </c>
+      <c r="K50">
+        <v>2.25</v>
+      </c>
+      <c r="L50">
         <v>3</v>
       </c>
-      <c r="J50" t="s">
-        <v>52</v>
-      </c>
-      <c r="K50">
-        <v>1.533</v>
-      </c>
-      <c r="L50">
-        <v>3.4</v>
-      </c>
       <c r="M50">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="N50">
-        <v>1.444</v>
+        <v>2.2</v>
       </c>
       <c r="O50">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="P50">
-        <v>6.5</v>
+        <v>3.3</v>
       </c>
       <c r="Q50">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R50">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S50">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T50">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U50">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="V50">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="W50">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X50">
         <v>-1</v>
       </c>
       <c r="Y50">
-        <v>5.5</v>
+        <v>-1</v>
       </c>
       <c r="Z50">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA50">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB50">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC50">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="51" spans="1:29">
@@ -4995,7 +4995,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>5289414</v>
+        <v>5215888</v>
       </c>
       <c r="C51" t="s">
         <v>28</v>
@@ -5007,13 +5007,13 @@
         <v>45012.45833333334</v>
       </c>
       <c r="F51" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G51" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="H51">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I51">
         <v>0</v>
@@ -5022,43 +5022,43 @@
         <v>51</v>
       </c>
       <c r="K51">
-        <v>2.25</v>
+        <v>2.6</v>
       </c>
       <c r="L51">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="M51">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="N51">
-        <v>2.2</v>
+        <v>1.727</v>
       </c>
       <c r="O51">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="P51">
-        <v>3.3</v>
+        <v>4.75</v>
       </c>
       <c r="Q51">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R51">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S51">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T51">
         <v>2</v>
       </c>
       <c r="U51">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V51">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W51">
-        <v>1.2</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X51">
         <v>-1</v>
@@ -5067,16 +5067,16 @@
         <v>-1</v>
       </c>
       <c r="Z51">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AA51">
         <v>-1</v>
       </c>
       <c r="AB51">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC51">
-        <v>0.9750000000000001</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="52" spans="1:29">
@@ -5084,7 +5084,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>5215888</v>
+        <v>5215841</v>
       </c>
       <c r="C52" t="s">
         <v>28</v>
@@ -5096,13 +5096,13 @@
         <v>45012.45833333334</v>
       </c>
       <c r="F52" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G52" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H52">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I52">
         <v>0</v>
@@ -5111,61 +5111,61 @@
         <v>51</v>
       </c>
       <c r="K52">
-        <v>2.6</v>
+        <v>1.727</v>
       </c>
       <c r="L52">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="M52">
-        <v>2.6</v>
+        <v>4.75</v>
       </c>
       <c r="N52">
-        <v>1.727</v>
+        <v>1.7</v>
       </c>
       <c r="O52">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="P52">
-        <v>4.75</v>
+        <v>5.25</v>
       </c>
       <c r="Q52">
+        <v>-0.75</v>
+      </c>
+      <c r="R52">
+        <v>1.95</v>
+      </c>
+      <c r="S52">
+        <v>1.85</v>
+      </c>
+      <c r="T52">
+        <v>2</v>
+      </c>
+      <c r="U52">
+        <v>1.825</v>
+      </c>
+      <c r="V52">
+        <v>1.975</v>
+      </c>
+      <c r="W52">
+        <v>0.7</v>
+      </c>
+      <c r="X52">
+        <v>-1</v>
+      </c>
+      <c r="Y52">
+        <v>-1</v>
+      </c>
+      <c r="Z52">
+        <v>0.475</v>
+      </c>
+      <c r="AA52">
         <v>-0.5</v>
       </c>
-      <c r="R52">
-        <v>1.8</v>
-      </c>
-      <c r="S52">
-        <v>2</v>
-      </c>
-      <c r="T52">
-        <v>2</v>
-      </c>
-      <c r="U52">
-        <v>1.875</v>
-      </c>
-      <c r="V52">
-        <v>1.925</v>
-      </c>
-      <c r="W52">
-        <v>0.7270000000000001</v>
-      </c>
-      <c r="X52">
-        <v>-1</v>
-      </c>
-      <c r="Y52">
-        <v>-1</v>
-      </c>
-      <c r="Z52">
-        <v>0.8</v>
-      </c>
-      <c r="AA52">
-        <v>-1</v>
-      </c>
       <c r="AB52">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC52">
-        <v>-0</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="53" spans="1:29">
@@ -5173,7 +5173,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>5215841</v>
+        <v>5215239</v>
       </c>
       <c r="C53" t="s">
         <v>28</v>
@@ -5185,34 +5185,34 @@
         <v>45012.45833333334</v>
       </c>
       <c r="F53" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G53" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J53" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K53">
-        <v>1.727</v>
+        <v>1.85</v>
       </c>
       <c r="L53">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="M53">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="N53">
-        <v>1.7</v>
+        <v>1.571</v>
       </c>
       <c r="O53">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="P53">
         <v>5.25</v>
@@ -5221,40 +5221,40 @@
         <v>-0.75</v>
       </c>
       <c r="R53">
+        <v>1.775</v>
+      </c>
+      <c r="S53">
+        <v>2.025</v>
+      </c>
+      <c r="T53">
+        <v>2.25</v>
+      </c>
+      <c r="U53">
         <v>1.95</v>
       </c>
-      <c r="S53">
+      <c r="V53">
         <v>1.85</v>
       </c>
-      <c r="T53">
-        <v>2</v>
-      </c>
-      <c r="U53">
-        <v>1.825</v>
-      </c>
-      <c r="V53">
-        <v>1.975</v>
-      </c>
       <c r="W53">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X53">
         <v>-1</v>
       </c>
       <c r="Y53">
-        <v>-1</v>
+        <v>4.25</v>
       </c>
       <c r="Z53">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AA53">
-        <v>-0.5</v>
+        <v>1.025</v>
       </c>
       <c r="AB53">
         <v>-1</v>
       </c>
       <c r="AC53">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="54" spans="1:29">
@@ -5262,7 +5262,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>5215239</v>
+        <v>5215840</v>
       </c>
       <c r="C54" t="s">
         <v>28</v>
@@ -5274,56 +5274,56 @@
         <v>45012.45833333334</v>
       </c>
       <c r="F54" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="G54" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I54">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J54" t="s">
         <v>52</v>
       </c>
       <c r="K54">
+        <v>1.533</v>
+      </c>
+      <c r="L54">
+        <v>3.4</v>
+      </c>
+      <c r="M54">
+        <v>6</v>
+      </c>
+      <c r="N54">
+        <v>1.444</v>
+      </c>
+      <c r="O54">
+        <v>3.75</v>
+      </c>
+      <c r="P54">
+        <v>6.5</v>
+      </c>
+      <c r="Q54">
+        <v>-1.25</v>
+      </c>
+      <c r="R54">
+        <v>1.95</v>
+      </c>
+      <c r="S54">
         <v>1.85</v>
       </c>
-      <c r="L54">
-        <v>3.25</v>
-      </c>
-      <c r="M54">
-        <v>3.75</v>
-      </c>
-      <c r="N54">
-        <v>1.571</v>
-      </c>
-      <c r="O54">
-        <v>3.6</v>
-      </c>
-      <c r="P54">
-        <v>5.25</v>
-      </c>
-      <c r="Q54">
-        <v>-0.75</v>
-      </c>
-      <c r="R54">
+      <c r="T54">
+        <v>2.5</v>
+      </c>
+      <c r="U54">
+        <v>2.025</v>
+      </c>
+      <c r="V54">
         <v>1.775</v>
       </c>
-      <c r="S54">
-        <v>2.025</v>
-      </c>
-      <c r="T54">
-        <v>2.25</v>
-      </c>
-      <c r="U54">
-        <v>1.95</v>
-      </c>
-      <c r="V54">
-        <v>1.85</v>
-      </c>
       <c r="W54">
         <v>-1</v>
       </c>
@@ -5331,19 +5331,19 @@
         <v>-1</v>
       </c>
       <c r="Y54">
-        <v>4.25</v>
+        <v>5.5</v>
       </c>
       <c r="Z54">
         <v>-1</v>
       </c>
       <c r="AA54">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AB54">
         <v>1.025</v>
       </c>
-      <c r="AB54">
-        <v>-1</v>
-      </c>
       <c r="AC54">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="55" spans="1:29">
@@ -6419,7 +6419,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>5289416</v>
+        <v>5198140</v>
       </c>
       <c r="C67" t="s">
         <v>28</v>
@@ -6431,10 +6431,10 @@
         <v>45024.45833333334</v>
       </c>
       <c r="F67" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G67" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="H67">
         <v>0</v>
@@ -6446,40 +6446,40 @@
         <v>52</v>
       </c>
       <c r="K67">
-        <v>2.3</v>
+        <v>1.909</v>
       </c>
       <c r="L67">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="M67">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="N67">
-        <v>1.8</v>
+        <v>1.909</v>
       </c>
       <c r="O67">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="P67">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="Q67">
         <v>-0.5</v>
       </c>
       <c r="R67">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S67">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T67">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U67">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="V67">
-        <v>1.725</v>
+        <v>1.925</v>
       </c>
       <c r="W67">
         <v>-1</v>
@@ -6488,19 +6488,19 @@
         <v>-1</v>
       </c>
       <c r="Y67">
-        <v>3.333</v>
+        <v>3</v>
       </c>
       <c r="Z67">
         <v>-1</v>
       </c>
       <c r="AA67">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="AB67">
         <v>-1</v>
       </c>
       <c r="AC67">
-        <v>0.7250000000000001</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="68" spans="1:29">
@@ -6508,7 +6508,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>5215551</v>
+        <v>5289416</v>
       </c>
       <c r="C68" t="s">
         <v>28</v>
@@ -6520,76 +6520,76 @@
         <v>45024.45833333334</v>
       </c>
       <c r="F68" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G68" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="H68">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J68" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K68">
-        <v>2.05</v>
+        <v>2.3</v>
       </c>
       <c r="L68">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="M68">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="N68">
-        <v>2.3</v>
+        <v>1.8</v>
       </c>
       <c r="O68">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="P68">
-        <v>2.875</v>
+        <v>4.333</v>
       </c>
       <c r="Q68">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R68">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="S68">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="T68">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U68">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="V68">
-        <v>2.05</v>
+        <v>1.725</v>
       </c>
       <c r="W68">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="X68">
         <v>-1</v>
       </c>
       <c r="Y68">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Z68">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA68">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB68">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC68">
-        <v>-0</v>
+        <v>0.7250000000000001</v>
       </c>
     </row>
     <row r="69" spans="1:29">
@@ -6597,7 +6597,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>5198140</v>
+        <v>5215551</v>
       </c>
       <c r="C69" t="s">
         <v>28</v>
@@ -6609,76 +6609,76 @@
         <v>45024.45833333334</v>
       </c>
       <c r="F69" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="G69" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J69" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K69">
-        <v>1.909</v>
+        <v>2.05</v>
       </c>
       <c r="L69">
         <v>3</v>
       </c>
       <c r="M69">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="N69">
-        <v>1.909</v>
+        <v>2.3</v>
       </c>
       <c r="O69">
         <v>3</v>
       </c>
       <c r="P69">
-        <v>4</v>
+        <v>2.875</v>
       </c>
       <c r="Q69">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R69">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="S69">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="T69">
         <v>2</v>
       </c>
       <c r="U69">
-        <v>1.875</v>
+        <v>1.75</v>
       </c>
       <c r="V69">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="W69">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="X69">
         <v>-1</v>
       </c>
       <c r="Y69">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z69">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA69">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB69">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC69">
-        <v>0.925</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="70" spans="1:29">
@@ -7309,7 +7309,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>6489182</v>
+        <v>6489180</v>
       </c>
       <c r="C77" t="s">
         <v>28</v>
@@ -7321,76 +7321,76 @@
         <v>45028.45833333334</v>
       </c>
       <c r="F77" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="G77" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H77">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I77">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J77" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K77">
+        <v>1.727</v>
+      </c>
+      <c r="L77">
+        <v>3.4</v>
+      </c>
+      <c r="M77">
+        <v>4.2</v>
+      </c>
+      <c r="N77">
         <v>2.2</v>
       </c>
-      <c r="L77">
-        <v>2.875</v>
-      </c>
-      <c r="M77">
+      <c r="O77">
         <v>3.2</v>
       </c>
-      <c r="N77">
-        <v>2.3</v>
-      </c>
-      <c r="O77">
-        <v>2.9</v>
-      </c>
       <c r="P77">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="Q77">
         <v>-0.25</v>
       </c>
       <c r="R77">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S77">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T77">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U77">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V77">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W77">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="X77">
         <v>-1</v>
       </c>
       <c r="Y77">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z77">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA77">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB77">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AC77">
-        <v>-0</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="78" spans="1:29">
@@ -7398,7 +7398,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>6489181</v>
+        <v>6489182</v>
       </c>
       <c r="C78" t="s">
         <v>28</v>
@@ -7410,58 +7410,58 @@
         <v>45028.45833333334</v>
       </c>
       <c r="F78" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G78" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="H78">
         <v>2</v>
       </c>
       <c r="I78">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J78" t="s">
         <v>51</v>
       </c>
       <c r="K78">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="L78">
-        <v>3.25</v>
+        <v>2.875</v>
       </c>
       <c r="M78">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="N78">
-        <v>1.85</v>
+        <v>2.3</v>
       </c>
       <c r="O78">
-        <v>3.25</v>
+        <v>2.9</v>
       </c>
       <c r="P78">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="Q78">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R78">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S78">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T78">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U78">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V78">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W78">
-        <v>0.8500000000000001</v>
+        <v>1.3</v>
       </c>
       <c r="X78">
         <v>-1</v>
@@ -7470,16 +7470,16 @@
         <v>-1</v>
       </c>
       <c r="Z78">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AA78">
         <v>-1</v>
       </c>
       <c r="AB78">
-        <v>0.8500000000000001</v>
+        <v>0</v>
       </c>
       <c r="AC78">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="79" spans="1:29">
@@ -7487,7 +7487,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>6489180</v>
+        <v>6489181</v>
       </c>
       <c r="C79" t="s">
         <v>28</v>
@@ -7499,76 +7499,76 @@
         <v>45028.45833333334</v>
       </c>
       <c r="F79" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G79" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="H79">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I79">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J79" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K79">
-        <v>1.727</v>
+        <v>2</v>
       </c>
       <c r="L79">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M79">
-        <v>4.2</v>
+        <v>3.3</v>
       </c>
       <c r="N79">
-        <v>2.2</v>
+        <v>1.85</v>
       </c>
       <c r="O79">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="P79">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q79">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R79">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S79">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T79">
         <v>2.25</v>
       </c>
       <c r="U79">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V79">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W79">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X79">
         <v>-1</v>
       </c>
       <c r="Y79">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z79">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA79">
+        <v>-1</v>
+      </c>
+      <c r="AB79">
         <v>0.8500000000000001</v>
       </c>
-      <c r="AB79">
-        <v>-0.5</v>
-      </c>
       <c r="AC79">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="80" spans="1:29">
@@ -9623,7 +9623,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>6552991</v>
+        <v>6552990</v>
       </c>
       <c r="C103" t="s">
         <v>28</v>
@@ -9635,70 +9635,70 @@
         <v>45042.45833333334</v>
       </c>
       <c r="F103" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G103" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H103">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I103">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J103" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K103">
-        <v>1.85</v>
+        <v>2.4</v>
       </c>
       <c r="L103">
         <v>3</v>
       </c>
       <c r="M103">
-        <v>4.2</v>
+        <v>2.8</v>
       </c>
       <c r="N103">
-        <v>2.6</v>
+        <v>2.55</v>
       </c>
       <c r="O103">
+        <v>2.7</v>
+      </c>
+      <c r="P103">
         <v>2.8</v>
       </c>
-      <c r="P103">
-        <v>2.7</v>
-      </c>
       <c r="Q103">
         <v>0</v>
       </c>
       <c r="R103">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="S103">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="T103">
         <v>2</v>
       </c>
       <c r="U103">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V103">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W103">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="X103">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Y103">
         <v>-1</v>
       </c>
       <c r="Z103">
-        <v>0</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA103">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB103">
         <v>0</v>
@@ -9712,7 +9712,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>6552990</v>
+        <v>6552991</v>
       </c>
       <c r="C104" t="s">
         <v>28</v>
@@ -9724,70 +9724,70 @@
         <v>45042.45833333334</v>
       </c>
       <c r="F104" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G104" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H104">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I104">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J104" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K104">
-        <v>2.4</v>
+        <v>1.85</v>
       </c>
       <c r="L104">
         <v>3</v>
       </c>
       <c r="M104">
+        <v>4.2</v>
+      </c>
+      <c r="N104">
+        <v>2.6</v>
+      </c>
+      <c r="O104">
         <v>2.8</v>
       </c>
-      <c r="N104">
-        <v>2.55</v>
-      </c>
-      <c r="O104">
+      <c r="P104">
         <v>2.7</v>
       </c>
-      <c r="P104">
-        <v>2.8</v>
-      </c>
       <c r="Q104">
         <v>0</v>
       </c>
       <c r="R104">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="S104">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="T104">
         <v>2</v>
       </c>
       <c r="U104">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V104">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W104">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="X104">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Y104">
         <v>-1</v>
       </c>
       <c r="Z104">
-        <v>0.7749999999999999</v>
+        <v>0</v>
       </c>
       <c r="AA104">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB104">
         <v>0</v>
@@ -12026,7 +12026,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>6989596</v>
+        <v>6989497</v>
       </c>
       <c r="C130" t="s">
         <v>28</v>
@@ -12038,13 +12038,13 @@
         <v>45143.52083333334</v>
       </c>
       <c r="F130" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="G130" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="H130">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I130">
         <v>0</v>
@@ -12053,43 +12053,43 @@
         <v>51</v>
       </c>
       <c r="K130">
-        <v>1.85</v>
+        <v>2.75</v>
       </c>
       <c r="L130">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="M130">
-        <v>4</v>
+        <v>2.55</v>
       </c>
       <c r="N130">
-        <v>1.5</v>
+        <v>2.75</v>
       </c>
       <c r="O130">
-        <v>3.8</v>
+        <v>2.8</v>
       </c>
       <c r="P130">
-        <v>5.75</v>
+        <v>2.55</v>
       </c>
       <c r="Q130">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R130">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S130">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T130">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="U130">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V130">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W130">
-        <v>0.5</v>
+        <v>1.75</v>
       </c>
       <c r="X130">
         <v>-1</v>
@@ -12098,16 +12098,16 @@
         <v>-1</v>
       </c>
       <c r="Z130">
-        <v>0.8</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA130">
         <v>-1</v>
       </c>
       <c r="AB130">
-        <v>0.925</v>
+        <v>0</v>
       </c>
       <c r="AC130">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="131" spans="1:29">
@@ -12115,7 +12115,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>6989497</v>
+        <v>6989596</v>
       </c>
       <c r="C131" t="s">
         <v>28</v>
@@ -12127,13 +12127,13 @@
         <v>45143.52083333334</v>
       </c>
       <c r="F131" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="G131" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="H131">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I131">
         <v>0</v>
@@ -12142,43 +12142,43 @@
         <v>51</v>
       </c>
       <c r="K131">
+        <v>1.85</v>
+      </c>
+      <c r="L131">
+        <v>3.1</v>
+      </c>
+      <c r="M131">
+        <v>4</v>
+      </c>
+      <c r="N131">
+        <v>1.5</v>
+      </c>
+      <c r="O131">
+        <v>3.8</v>
+      </c>
+      <c r="P131">
+        <v>5.75</v>
+      </c>
+      <c r="Q131">
+        <v>-1</v>
+      </c>
+      <c r="R131">
+        <v>1.8</v>
+      </c>
+      <c r="S131">
+        <v>2</v>
+      </c>
+      <c r="T131">
         <v>2.75</v>
       </c>
-      <c r="L131">
-        <v>2.8</v>
-      </c>
-      <c r="M131">
-        <v>2.55</v>
-      </c>
-      <c r="N131">
-        <v>2.75</v>
-      </c>
-      <c r="O131">
-        <v>2.8</v>
-      </c>
-      <c r="P131">
-        <v>2.55</v>
-      </c>
-      <c r="Q131">
-        <v>0</v>
-      </c>
-      <c r="R131">
-        <v>1.975</v>
-      </c>
-      <c r="S131">
-        <v>1.825</v>
-      </c>
-      <c r="T131">
-        <v>2</v>
-      </c>
       <c r="U131">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V131">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W131">
-        <v>1.75</v>
+        <v>0.5</v>
       </c>
       <c r="X131">
         <v>-1</v>
@@ -12187,16 +12187,16 @@
         <v>-1</v>
       </c>
       <c r="Z131">
-        <v>0.9750000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AA131">
         <v>-1</v>
       </c>
       <c r="AB131">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="AC131">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="132" spans="1:29">
@@ -13094,7 +13094,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>6989498</v>
+        <v>6989661</v>
       </c>
       <c r="C142" t="s">
         <v>28</v>
@@ -13106,76 +13106,76 @@
         <v>45151.52083333334</v>
       </c>
       <c r="F142" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="G142" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H142">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I142">
         <v>1</v>
       </c>
       <c r="J142" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K142">
-        <v>1.909</v>
+        <v>1.833</v>
       </c>
       <c r="L142">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="M142">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="N142">
-        <v>2.75</v>
+        <v>1.75</v>
       </c>
       <c r="O142">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="P142">
-        <v>2.45</v>
+        <v>4</v>
       </c>
       <c r="Q142">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R142">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="S142">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="T142">
         <v>2.25</v>
       </c>
       <c r="U142">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V142">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W142">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="X142">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Y142">
         <v>-1</v>
       </c>
       <c r="Z142">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AA142">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB142">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC142">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="143" spans="1:29">
@@ -13183,7 +13183,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>6989661</v>
+        <v>6989498</v>
       </c>
       <c r="C143" t="s">
         <v>28</v>
@@ -13195,76 +13195,76 @@
         <v>45151.52083333334</v>
       </c>
       <c r="F143" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G143" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H143">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I143">
         <v>1</v>
       </c>
       <c r="J143" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K143">
-        <v>1.833</v>
+        <v>1.909</v>
       </c>
       <c r="L143">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="M143">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="N143">
-        <v>1.75</v>
+        <v>2.75</v>
       </c>
       <c r="O143">
-        <v>3.4</v>
+        <v>2.9</v>
       </c>
       <c r="P143">
-        <v>4</v>
+        <v>2.45</v>
       </c>
       <c r="Q143">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R143">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="S143">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="T143">
         <v>2.25</v>
       </c>
       <c r="U143">
+        <v>1.875</v>
+      </c>
+      <c r="V143">
+        <v>1.925</v>
+      </c>
+      <c r="W143">
+        <v>-1</v>
+      </c>
+      <c r="X143">
         <v>1.9</v>
       </c>
-      <c r="V143">
-        <v>1.9</v>
-      </c>
-      <c r="W143">
-        <v>0.75</v>
-      </c>
-      <c r="X143">
-        <v>-1</v>
-      </c>
       <c r="Y143">
         <v>-1</v>
       </c>
       <c r="Z143">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AA143">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB143">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AC143">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="144" spans="1:29">
@@ -13450,7 +13450,7 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>7019003</v>
+        <v>6989665</v>
       </c>
       <c r="C146" t="s">
         <v>28</v>
@@ -13462,10 +13462,10 @@
         <v>45157.58333333334</v>
       </c>
       <c r="F146" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G146" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H146">
         <v>0</v>
@@ -13477,61 +13477,61 @@
         <v>53</v>
       </c>
       <c r="K146">
-        <v>2.5</v>
+        <v>1.8</v>
       </c>
       <c r="L146">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="M146">
-        <v>2.625</v>
+        <v>4</v>
       </c>
       <c r="N146">
-        <v>3</v>
+        <v>1.8</v>
       </c>
       <c r="O146">
-        <v>2.875</v>
+        <v>3.25</v>
       </c>
       <c r="P146">
-        <v>2.375</v>
+        <v>4</v>
       </c>
       <c r="Q146">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R146">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="S146">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="T146">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U146">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="V146">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="W146">
         <v>-1</v>
       </c>
       <c r="X146">
-        <v>1.875</v>
+        <v>2.25</v>
       </c>
       <c r="Y146">
         <v>-1</v>
       </c>
       <c r="Z146">
-        <v>0.375</v>
+        <v>-1</v>
       </c>
       <c r="AA146">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AB146">
         <v>-1</v>
       </c>
       <c r="AC146">
-        <v>0.825</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="147" spans="1:29">
@@ -13539,7 +13539,7 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>6989665</v>
+        <v>7019003</v>
       </c>
       <c r="C147" t="s">
         <v>28</v>
@@ -13551,10 +13551,10 @@
         <v>45157.58333333334</v>
       </c>
       <c r="F147" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G147" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="H147">
         <v>0</v>
@@ -13566,61 +13566,61 @@
         <v>53</v>
       </c>
       <c r="K147">
-        <v>1.8</v>
+        <v>2.5</v>
       </c>
       <c r="L147">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="M147">
-        <v>4</v>
+        <v>2.625</v>
       </c>
       <c r="N147">
-        <v>1.8</v>
+        <v>3</v>
       </c>
       <c r="O147">
-        <v>3.25</v>
+        <v>2.875</v>
       </c>
       <c r="P147">
-        <v>4</v>
+        <v>2.375</v>
       </c>
       <c r="Q147">
+        <v>0.25</v>
+      </c>
+      <c r="R147">
+        <v>1.75</v>
+      </c>
+      <c r="S147">
+        <v>2.05</v>
+      </c>
+      <c r="T147">
+        <v>2</v>
+      </c>
+      <c r="U147">
+        <v>1.975</v>
+      </c>
+      <c r="V147">
+        <v>1.825</v>
+      </c>
+      <c r="W147">
+        <v>-1</v>
+      </c>
+      <c r="X147">
+        <v>1.875</v>
+      </c>
+      <c r="Y147">
+        <v>-1</v>
+      </c>
+      <c r="Z147">
+        <v>0.375</v>
+      </c>
+      <c r="AA147">
         <v>-0.5</v>
       </c>
-      <c r="R147">
-        <v>1.85</v>
-      </c>
-      <c r="S147">
-        <v>1.95</v>
-      </c>
-      <c r="T147">
-        <v>2.25</v>
-      </c>
-      <c r="U147">
-        <v>2.025</v>
-      </c>
-      <c r="V147">
-        <v>1.775</v>
-      </c>
-      <c r="W147">
-        <v>-1</v>
-      </c>
-      <c r="X147">
-        <v>2.25</v>
-      </c>
-      <c r="Y147">
-        <v>-1</v>
-      </c>
-      <c r="Z147">
-        <v>-1</v>
-      </c>
-      <c r="AA147">
-        <v>0.95</v>
-      </c>
       <c r="AB147">
         <v>-1</v>
       </c>
       <c r="AC147">
-        <v>0.7749999999999999</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="148" spans="1:29">
@@ -13806,7 +13806,7 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>6989500</v>
+        <v>6989499</v>
       </c>
       <c r="C150" t="s">
         <v>28</v>
@@ -13818,76 +13818,76 @@
         <v>45158.5</v>
       </c>
       <c r="F150" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="G150" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H150">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I150">
         <v>1</v>
       </c>
       <c r="J150" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K150">
-        <v>3.5</v>
+        <v>1.727</v>
       </c>
       <c r="L150">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="M150">
-        <v>1.95</v>
+        <v>4.2</v>
       </c>
       <c r="N150">
-        <v>3.5</v>
+        <v>1.85</v>
       </c>
       <c r="O150">
         <v>3.1</v>
       </c>
       <c r="P150">
-        <v>1.95</v>
+        <v>4</v>
       </c>
       <c r="Q150">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R150">
+        <v>1.925</v>
+      </c>
+      <c r="S150">
+        <v>1.875</v>
+      </c>
+      <c r="T150">
+        <v>2</v>
+      </c>
+      <c r="U150">
+        <v>2</v>
+      </c>
+      <c r="V150">
         <v>1.8</v>
       </c>
-      <c r="S150">
-        <v>2</v>
-      </c>
-      <c r="T150">
-        <v>2.25</v>
-      </c>
-      <c r="U150">
-        <v>1.75</v>
-      </c>
-      <c r="V150">
-        <v>1.95</v>
-      </c>
       <c r="W150">
         <v>-1</v>
       </c>
       <c r="X150">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y150">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z150">
+        <v>-1</v>
+      </c>
+      <c r="AA150">
+        <v>0.875</v>
+      </c>
+      <c r="AB150">
+        <v>-1</v>
+      </c>
+      <c r="AC150">
         <v>0.8</v>
-      </c>
-      <c r="AA150">
-        <v>-1</v>
-      </c>
-      <c r="AB150">
-        <v>-0.5</v>
-      </c>
-      <c r="AC150">
-        <v>0.475</v>
       </c>
     </row>
     <row r="151" spans="1:29">
@@ -13895,7 +13895,7 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>6989499</v>
+        <v>6989500</v>
       </c>
       <c r="C151" t="s">
         <v>28</v>
@@ -13907,76 +13907,76 @@
         <v>45158.5</v>
       </c>
       <c r="F151" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="G151" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H151">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I151">
         <v>1</v>
       </c>
       <c r="J151" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K151">
-        <v>1.727</v>
+        <v>3.5</v>
       </c>
       <c r="L151">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="M151">
-        <v>4.2</v>
+        <v>1.95</v>
       </c>
       <c r="N151">
-        <v>1.85</v>
+        <v>3.5</v>
       </c>
       <c r="O151">
         <v>3.1</v>
       </c>
       <c r="P151">
-        <v>4</v>
+        <v>1.95</v>
       </c>
       <c r="Q151">
+        <v>0.5</v>
+      </c>
+      <c r="R151">
+        <v>1.8</v>
+      </c>
+      <c r="S151">
+        <v>2</v>
+      </c>
+      <c r="T151">
+        <v>2.25</v>
+      </c>
+      <c r="U151">
+        <v>1.75</v>
+      </c>
+      <c r="V151">
+        <v>1.95</v>
+      </c>
+      <c r="W151">
+        <v>-1</v>
+      </c>
+      <c r="X151">
+        <v>2.1</v>
+      </c>
+      <c r="Y151">
+        <v>-1</v>
+      </c>
+      <c r="Z151">
+        <v>0.8</v>
+      </c>
+      <c r="AA151">
+        <v>-1</v>
+      </c>
+      <c r="AB151">
         <v>-0.5</v>
       </c>
-      <c r="R151">
-        <v>1.925</v>
-      </c>
-      <c r="S151">
-        <v>1.875</v>
-      </c>
-      <c r="T151">
-        <v>2</v>
-      </c>
-      <c r="U151">
-        <v>2</v>
-      </c>
-      <c r="V151">
-        <v>1.8</v>
-      </c>
-      <c r="W151">
-        <v>-1</v>
-      </c>
-      <c r="X151">
-        <v>-1</v>
-      </c>
-      <c r="Y151">
-        <v>3</v>
-      </c>
-      <c r="Z151">
-        <v>-1</v>
-      </c>
-      <c r="AA151">
-        <v>0.875</v>
-      </c>
-      <c r="AB151">
-        <v>-1</v>
-      </c>
       <c r="AC151">
-        <v>0.8</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="152" spans="1:29">
@@ -14073,7 +14073,7 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>7121256</v>
+        <v>7121257</v>
       </c>
       <c r="C153" t="s">
         <v>28</v>
@@ -14085,16 +14085,16 @@
         <v>45164.5</v>
       </c>
       <c r="F153" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="G153" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="H153">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I153">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J153" t="s">
         <v>53</v>
@@ -14103,37 +14103,37 @@
         <v>1.833</v>
       </c>
       <c r="L153">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="M153">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="N153">
-        <v>1.833</v>
+        <v>2.15</v>
       </c>
       <c r="O153">
         <v>3.1</v>
       </c>
       <c r="P153">
-        <v>4.333</v>
+        <v>3.1</v>
       </c>
       <c r="Q153">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R153">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S153">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="T153">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U153">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V153">
-        <v>1.95</v>
+        <v>1.725</v>
       </c>
       <c r="W153">
         <v>-1</v>
@@ -14145,16 +14145,16 @@
         <v>-1</v>
       </c>
       <c r="Z153">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA153">
-        <v>0.95</v>
+        <v>0.4375</v>
       </c>
       <c r="AB153">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC153">
-        <v>-0</v>
+        <v>0.7250000000000001</v>
       </c>
     </row>
     <row r="154" spans="1:29">
@@ -14162,7 +14162,7 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>7121257</v>
+        <v>7121256</v>
       </c>
       <c r="C154" t="s">
         <v>28</v>
@@ -14174,16 +14174,16 @@
         <v>45164.5</v>
       </c>
       <c r="F154" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G154" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="H154">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I154">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J154" t="s">
         <v>53</v>
@@ -14192,37 +14192,37 @@
         <v>1.833</v>
       </c>
       <c r="L154">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="M154">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="N154">
-        <v>2.15</v>
+        <v>1.833</v>
       </c>
       <c r="O154">
         <v>3.1</v>
       </c>
       <c r="P154">
-        <v>3.1</v>
+        <v>4.333</v>
       </c>
       <c r="Q154">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R154">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="S154">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T154">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U154">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V154">
-        <v>1.725</v>
+        <v>1.95</v>
       </c>
       <c r="W154">
         <v>-1</v>
@@ -14234,16 +14234,16 @@
         <v>-1</v>
       </c>
       <c r="Z154">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA154">
-        <v>0.4375</v>
+        <v>0.95</v>
       </c>
       <c r="AB154">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC154">
-        <v>0.7250000000000001</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="155" spans="1:29">
@@ -15853,7 +15853,7 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>6989505</v>
+        <v>6989319</v>
       </c>
       <c r="C173" t="s">
         <v>28</v>
@@ -15865,58 +15865,58 @@
         <v>45179.47916666666</v>
       </c>
       <c r="F173" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G173" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="H173">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I173">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J173" t="s">
         <v>51</v>
       </c>
       <c r="K173">
-        <v>1.222</v>
+        <v>2.2</v>
       </c>
       <c r="L173">
-        <v>5</v>
+        <v>3.1</v>
       </c>
       <c r="M173">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="N173">
-        <v>1.2</v>
+        <v>1.833</v>
       </c>
       <c r="O173">
-        <v>5.25</v>
+        <v>3.3</v>
       </c>
       <c r="P173">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="Q173">
-        <v>-2</v>
+        <v>-0.5</v>
       </c>
       <c r="R173">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S173">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T173">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U173">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V173">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W173">
-        <v>0.2</v>
+        <v>0.833</v>
       </c>
       <c r="X173">
         <v>-1</v>
@@ -15925,16 +15925,16 @@
         <v>-1</v>
       </c>
       <c r="Z173">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA173">
         <v>-1</v>
       </c>
       <c r="AB173">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC173">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="174" spans="1:29">
@@ -16031,7 +16031,7 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>6989319</v>
+        <v>6989505</v>
       </c>
       <c r="C175" t="s">
         <v>28</v>
@@ -16043,58 +16043,58 @@
         <v>45179.47916666666</v>
       </c>
       <c r="F175" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G175" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="H175">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I175">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J175" t="s">
         <v>51</v>
       </c>
       <c r="K175">
-        <v>2.2</v>
+        <v>1.222</v>
       </c>
       <c r="L175">
-        <v>3.1</v>
+        <v>5</v>
       </c>
       <c r="M175">
+        <v>10</v>
+      </c>
+      <c r="N175">
+        <v>1.2</v>
+      </c>
+      <c r="O175">
+        <v>5.25</v>
+      </c>
+      <c r="P175">
+        <v>12</v>
+      </c>
+      <c r="Q175">
+        <v>-2</v>
+      </c>
+      <c r="R175">
+        <v>1.9</v>
+      </c>
+      <c r="S175">
+        <v>1.9</v>
+      </c>
+      <c r="T175">
         <v>3</v>
       </c>
-      <c r="N175">
-        <v>1.833</v>
-      </c>
-      <c r="O175">
-        <v>3.3</v>
-      </c>
-      <c r="P175">
-        <v>4</v>
-      </c>
-      <c r="Q175">
-        <v>-0.5</v>
-      </c>
-      <c r="R175">
-        <v>1.85</v>
-      </c>
-      <c r="S175">
-        <v>1.95</v>
-      </c>
-      <c r="T175">
-        <v>2</v>
-      </c>
       <c r="U175">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V175">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W175">
-        <v>0.833</v>
+        <v>0.2</v>
       </c>
       <c r="X175">
         <v>-1</v>
@@ -16103,16 +16103,16 @@
         <v>-1</v>
       </c>
       <c r="Z175">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA175">
         <v>-1</v>
       </c>
       <c r="AB175">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC175">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="176" spans="1:29">
@@ -17188,7 +17188,7 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>6989611</v>
+        <v>6989612</v>
       </c>
       <c r="C188" t="s">
         <v>28</v>
@@ -17200,76 +17200,76 @@
         <v>45192.45833333334</v>
       </c>
       <c r="F188" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="G188" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H188">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I188">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J188" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K188">
-        <v>1.909</v>
+        <v>2.1</v>
       </c>
       <c r="L188">
-        <v>3.2</v>
+        <v>2.875</v>
       </c>
       <c r="M188">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="N188">
-        <v>1.909</v>
+        <v>2.1</v>
       </c>
       <c r="O188">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="P188">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="Q188">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R188">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S188">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T188">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U188">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="V188">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="W188">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X188">
         <v>-1</v>
       </c>
       <c r="Y188">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Z188">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA188">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB188">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AC188">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="189" spans="1:29">
@@ -17277,7 +17277,7 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>6989610</v>
+        <v>6989611</v>
       </c>
       <c r="C189" t="s">
         <v>28</v>
@@ -17289,73 +17289,73 @@
         <v>45192.45833333334</v>
       </c>
       <c r="F189" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G189" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H189">
+        <v>3</v>
+      </c>
+      <c r="I189">
         <v>4</v>
       </c>
-      <c r="I189">
-        <v>0</v>
-      </c>
       <c r="J189" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K189">
-        <v>2.2</v>
+        <v>1.909</v>
       </c>
       <c r="L189">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M189">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="N189">
-        <v>2.2</v>
+        <v>1.909</v>
       </c>
       <c r="O189">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="P189">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="Q189">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R189">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S189">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T189">
         <v>2.25</v>
       </c>
       <c r="U189">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="V189">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="W189">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X189">
         <v>-1</v>
       </c>
       <c r="Y189">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Z189">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA189">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB189">
-        <v>0.825</v>
+        <v>1.05</v>
       </c>
       <c r="AC189">
         <v>-1</v>
@@ -17366,7 +17366,7 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>6989508</v>
+        <v>6989610</v>
       </c>
       <c r="C190" t="s">
         <v>28</v>
@@ -17378,58 +17378,58 @@
         <v>45192.45833333334</v>
       </c>
       <c r="F190" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G190" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H190">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I190">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J190" t="s">
         <v>51</v>
       </c>
       <c r="K190">
-        <v>1.727</v>
+        <v>2.2</v>
       </c>
       <c r="L190">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="M190">
-        <v>4.333</v>
+        <v>3</v>
       </c>
       <c r="N190">
-        <v>1.727</v>
+        <v>2.2</v>
       </c>
       <c r="O190">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="P190">
-        <v>4.333</v>
+        <v>3</v>
       </c>
       <c r="Q190">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R190">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="S190">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T190">
         <v>2.25</v>
       </c>
       <c r="U190">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V190">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W190">
-        <v>0.7270000000000001</v>
+        <v>1.2</v>
       </c>
       <c r="X190">
         <v>-1</v>
@@ -17438,13 +17438,13 @@
         <v>-1</v>
       </c>
       <c r="Z190">
-        <v>0.75</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA190">
         <v>-1</v>
       </c>
       <c r="AB190">
-        <v>0.875</v>
+        <v>0.825</v>
       </c>
       <c r="AC190">
         <v>-1</v>
@@ -17455,7 +17455,7 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>6989320</v>
+        <v>6989508</v>
       </c>
       <c r="C191" t="s">
         <v>28</v>
@@ -17467,19 +17467,19 @@
         <v>45192.45833333334</v>
       </c>
       <c r="F191" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="G191" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="H191">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I191">
         <v>1</v>
       </c>
       <c r="J191" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K191">
         <v>1.727</v>
@@ -17491,52 +17491,52 @@
         <v>4.333</v>
       </c>
       <c r="N191">
-        <v>1.533</v>
+        <v>1.727</v>
       </c>
       <c r="O191">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="P191">
-        <v>5.5</v>
+        <v>4.333</v>
       </c>
       <c r="Q191">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R191">
+        <v>1.75</v>
+      </c>
+      <c r="S191">
         <v>1.95</v>
-      </c>
-      <c r="S191">
-        <v>1.85</v>
       </c>
       <c r="T191">
         <v>2.25</v>
       </c>
       <c r="U191">
+        <v>1.875</v>
+      </c>
+      <c r="V191">
         <v>1.925</v>
       </c>
-      <c r="V191">
-        <v>1.875</v>
-      </c>
       <c r="W191">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X191">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y191">
         <v>-1</v>
       </c>
       <c r="Z191">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA191">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB191">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AC191">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="192" spans="1:29">
@@ -17544,7 +17544,7 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>6989612</v>
+        <v>6989320</v>
       </c>
       <c r="C192" t="s">
         <v>28</v>
@@ -17556,76 +17556,76 @@
         <v>45192.45833333334</v>
       </c>
       <c r="F192" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="G192" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="H192">
         <v>1</v>
       </c>
       <c r="I192">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J192" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K192">
-        <v>2.1</v>
+        <v>1.727</v>
       </c>
       <c r="L192">
-        <v>2.875</v>
+        <v>3.25</v>
       </c>
       <c r="M192">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="N192">
-        <v>2.1</v>
+        <v>1.533</v>
       </c>
       <c r="O192">
-        <v>2.9</v>
+        <v>3.6</v>
       </c>
       <c r="P192">
-        <v>3.3</v>
+        <v>5.5</v>
       </c>
       <c r="Q192">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R192">
+        <v>1.95</v>
+      </c>
+      <c r="S192">
+        <v>1.85</v>
+      </c>
+      <c r="T192">
+        <v>2.25</v>
+      </c>
+      <c r="U192">
+        <v>1.925</v>
+      </c>
+      <c r="V192">
         <v>1.875</v>
       </c>
-      <c r="S192">
-        <v>1.925</v>
-      </c>
-      <c r="T192">
-        <v>2</v>
-      </c>
-      <c r="U192">
-        <v>1.9</v>
-      </c>
-      <c r="V192">
-        <v>1.9</v>
-      </c>
       <c r="W192">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X192">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y192">
         <v>-1</v>
       </c>
       <c r="Z192">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA192">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB192">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC192">
-        <v>0.8999999999999999</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="193" spans="1:29">
@@ -17900,7 +17900,7 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>6989680</v>
+        <v>6989511</v>
       </c>
       <c r="C196" t="s">
         <v>28</v>
@@ -17912,10 +17912,10 @@
         <v>45200.41666666666</v>
       </c>
       <c r="F196" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="G196" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="H196">
         <v>1</v>
@@ -17927,61 +17927,61 @@
         <v>51</v>
       </c>
       <c r="K196">
-        <v>2</v>
+        <v>1.571</v>
       </c>
       <c r="L196">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="M196">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="N196">
-        <v>1.95</v>
+        <v>1.333</v>
       </c>
       <c r="O196">
-        <v>3</v>
+        <v>4.2</v>
       </c>
       <c r="P196">
-        <v>3.75</v>
+        <v>7.5</v>
       </c>
       <c r="Q196">
+        <v>-1.25</v>
+      </c>
+      <c r="R196">
+        <v>1.9</v>
+      </c>
+      <c r="S196">
+        <v>1.9</v>
+      </c>
+      <c r="T196">
+        <v>2.5</v>
+      </c>
+      <c r="U196">
+        <v>1.925</v>
+      </c>
+      <c r="V196">
+        <v>1.875</v>
+      </c>
+      <c r="W196">
+        <v>0.333</v>
+      </c>
+      <c r="X196">
+        <v>-1</v>
+      </c>
+      <c r="Y196">
+        <v>-1</v>
+      </c>
+      <c r="Z196">
         <v>-0.5</v>
       </c>
-      <c r="R196">
-        <v>2.025</v>
-      </c>
-      <c r="S196">
-        <v>1.775</v>
-      </c>
-      <c r="T196">
-        <v>2</v>
-      </c>
-      <c r="U196">
-        <v>1.825</v>
-      </c>
-      <c r="V196">
-        <v>1.975</v>
-      </c>
-      <c r="W196">
-        <v>0.95</v>
-      </c>
-      <c r="X196">
-        <v>-1</v>
-      </c>
-      <c r="Y196">
-        <v>-1</v>
-      </c>
-      <c r="Z196">
-        <v>1.025</v>
-      </c>
       <c r="AA196">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AB196">
         <v>-1</v>
       </c>
       <c r="AC196">
-        <v>0.9750000000000001</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="197" spans="1:29">
@@ -17989,7 +17989,7 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>6989511</v>
+        <v>6989680</v>
       </c>
       <c r="C197" t="s">
         <v>28</v>
@@ -18001,10 +18001,10 @@
         <v>45200.41666666666</v>
       </c>
       <c r="F197" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="G197" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="H197">
         <v>1</v>
@@ -18016,43 +18016,43 @@
         <v>51</v>
       </c>
       <c r="K197">
-        <v>1.571</v>
+        <v>2</v>
       </c>
       <c r="L197">
+        <v>3</v>
+      </c>
+      <c r="M197">
         <v>3.6</v>
       </c>
-      <c r="M197">
-        <v>5</v>
-      </c>
       <c r="N197">
-        <v>1.333</v>
+        <v>1.95</v>
       </c>
       <c r="O197">
-        <v>4.2</v>
+        <v>3</v>
       </c>
       <c r="P197">
-        <v>7.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q197">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R197">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="S197">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="T197">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U197">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V197">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="W197">
-        <v>0.333</v>
+        <v>0.95</v>
       </c>
       <c r="X197">
         <v>-1</v>
@@ -18061,16 +18061,16 @@
         <v>-1</v>
       </c>
       <c r="Z197">
-        <v>-0.5</v>
+        <v>1.025</v>
       </c>
       <c r="AA197">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AB197">
         <v>-1</v>
       </c>
       <c r="AC197">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="198" spans="1:29">
@@ -19324,7 +19324,7 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>6989324</v>
+        <v>6989618</v>
       </c>
       <c r="C212" t="s">
         <v>28</v>
@@ -19336,76 +19336,76 @@
         <v>45214.54166666666</v>
       </c>
       <c r="F212" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G212" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="H212">
         <v>0</v>
       </c>
       <c r="I212">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J212" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K212">
-        <v>1.95</v>
+        <v>2.2</v>
       </c>
       <c r="L212">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="M212">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="N212">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="O212">
         <v>3.1</v>
       </c>
       <c r="P212">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="Q212">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R212">
+        <v>1.9</v>
+      </c>
+      <c r="S212">
+        <v>1.9</v>
+      </c>
+      <c r="T212">
+        <v>2</v>
+      </c>
+      <c r="U212">
+        <v>1.85</v>
+      </c>
+      <c r="V212">
         <v>1.95</v>
       </c>
-      <c r="S212">
-        <v>1.75</v>
-      </c>
-      <c r="T212">
-        <v>2</v>
-      </c>
-      <c r="U212">
-        <v>1.9</v>
-      </c>
-      <c r="V212">
-        <v>1.9</v>
-      </c>
       <c r="W212">
         <v>-1</v>
       </c>
       <c r="X212">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y212">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Z212">
         <v>-1</v>
       </c>
       <c r="AA212">
-        <v>0.75</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB212">
         <v>-1</v>
       </c>
       <c r="AC212">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="213" spans="1:29">
@@ -19413,7 +19413,7 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>6989618</v>
+        <v>6989324</v>
       </c>
       <c r="C213" t="s">
         <v>28</v>
@@ -19425,76 +19425,76 @@
         <v>45214.54166666666</v>
       </c>
       <c r="F213" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G213" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="H213">
         <v>0</v>
       </c>
       <c r="I213">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J213" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K213">
-        <v>2.2</v>
+        <v>1.95</v>
       </c>
       <c r="L213">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="M213">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="N213">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="O213">
         <v>3.1</v>
       </c>
       <c r="P213">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="Q213">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R213">
+        <v>1.95</v>
+      </c>
+      <c r="S213">
+        <v>1.75</v>
+      </c>
+      <c r="T213">
+        <v>2</v>
+      </c>
+      <c r="U213">
         <v>1.9</v>
       </c>
-      <c r="S213">
+      <c r="V213">
         <v>1.9</v>
       </c>
-      <c r="T213">
-        <v>2</v>
-      </c>
-      <c r="U213">
-        <v>1.85</v>
-      </c>
-      <c r="V213">
-        <v>1.95</v>
-      </c>
       <c r="W213">
         <v>-1</v>
       </c>
       <c r="X213">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y213">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Z213">
         <v>-1</v>
       </c>
       <c r="AA213">
+        <v>0.75</v>
+      </c>
+      <c r="AB213">
+        <v>-1</v>
+      </c>
+      <c r="AC213">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AB213">
-        <v>-1</v>
-      </c>
-      <c r="AC213">
-        <v>0.95</v>
       </c>
     </row>
     <row r="214" spans="1:29">
@@ -19502,7 +19502,7 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>6989684</v>
+        <v>6989515</v>
       </c>
       <c r="C214" t="s">
         <v>28</v>
@@ -19514,10 +19514,10 @@
         <v>45215.41666666666</v>
       </c>
       <c r="F214" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="G214" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="H214">
         <v>1</v>
@@ -19529,44 +19529,44 @@
         <v>51</v>
       </c>
       <c r="K214">
-        <v>2.4</v>
+        <v>1.5</v>
       </c>
       <c r="L214">
-        <v>2.8</v>
+        <v>3.75</v>
       </c>
       <c r="M214">
-        <v>2.9</v>
+        <v>5.5</v>
       </c>
       <c r="N214">
+        <v>1.5</v>
+      </c>
+      <c r="O214">
         <v>3.75</v>
       </c>
-      <c r="O214">
-        <v>2.9</v>
-      </c>
       <c r="P214">
-        <v>1.95</v>
+        <v>6</v>
       </c>
       <c r="Q214">
+        <v>-1</v>
+      </c>
+      <c r="R214">
+        <v>1.825</v>
+      </c>
+      <c r="S214">
+        <v>1.975</v>
+      </c>
+      <c r="T214">
+        <v>2.25</v>
+      </c>
+      <c r="U214">
+        <v>2</v>
+      </c>
+      <c r="V214">
+        <v>1.8</v>
+      </c>
+      <c r="W214">
         <v>0.5</v>
       </c>
-      <c r="R214">
-        <v>1.8</v>
-      </c>
-      <c r="S214">
-        <v>2</v>
-      </c>
-      <c r="T214">
-        <v>2</v>
-      </c>
-      <c r="U214">
-        <v>1.85</v>
-      </c>
-      <c r="V214">
-        <v>1.95</v>
-      </c>
-      <c r="W214">
-        <v>2.75</v>
-      </c>
       <c r="X214">
         <v>-1</v>
       </c>
@@ -19574,16 +19574,16 @@
         <v>-1</v>
       </c>
       <c r="Z214">
+        <v>0</v>
+      </c>
+      <c r="AA214">
+        <v>-0</v>
+      </c>
+      <c r="AB214">
+        <v>-1</v>
+      </c>
+      <c r="AC214">
         <v>0.8</v>
-      </c>
-      <c r="AA214">
-        <v>-1</v>
-      </c>
-      <c r="AB214">
-        <v>-1</v>
-      </c>
-      <c r="AC214">
-        <v>0.95</v>
       </c>
     </row>
     <row r="215" spans="1:29">
@@ -19680,7 +19680,7 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>6989515</v>
+        <v>6989684</v>
       </c>
       <c r="C216" t="s">
         <v>28</v>
@@ -19692,10 +19692,10 @@
         <v>45215.41666666666</v>
       </c>
       <c r="F216" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="G216" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="H216">
         <v>1</v>
@@ -19707,43 +19707,43 @@
         <v>51</v>
       </c>
       <c r="K216">
-        <v>1.5</v>
+        <v>2.4</v>
       </c>
       <c r="L216">
+        <v>2.8</v>
+      </c>
+      <c r="M216">
+        <v>2.9</v>
+      </c>
+      <c r="N216">
         <v>3.75</v>
       </c>
-      <c r="M216">
-        <v>5.5</v>
-      </c>
-      <c r="N216">
-        <v>1.5</v>
-      </c>
       <c r="O216">
-        <v>3.75</v>
+        <v>2.9</v>
       </c>
       <c r="P216">
-        <v>6</v>
+        <v>1.95</v>
       </c>
       <c r="Q216">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="R216">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S216">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T216">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U216">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V216">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W216">
-        <v>0.5</v>
+        <v>2.75</v>
       </c>
       <c r="X216">
         <v>-1</v>
@@ -19752,16 +19752,16 @@
         <v>-1</v>
       </c>
       <c r="Z216">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AA216">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB216">
         <v>-1</v>
       </c>
       <c r="AC216">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="217" spans="1:29">
@@ -20659,7 +20659,7 @@
         <v>225</v>
       </c>
       <c r="B227">
-        <v>7018997</v>
+        <v>6989689</v>
       </c>
       <c r="C227" t="s">
         <v>28</v>
@@ -20671,10 +20671,10 @@
         <v>45227.375</v>
       </c>
       <c r="F227" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G227" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H227">
         <v>0</v>
@@ -20686,34 +20686,34 @@
         <v>53</v>
       </c>
       <c r="K227">
-        <v>2.6</v>
+        <v>2.1</v>
       </c>
       <c r="L227">
-        <v>3</v>
+        <v>2.875</v>
       </c>
       <c r="M227">
-        <v>2.5</v>
+        <v>3.4</v>
       </c>
       <c r="N227">
-        <v>2.4</v>
+        <v>2.05</v>
       </c>
       <c r="O227">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="P227">
-        <v>2.7</v>
+        <v>3.6</v>
       </c>
       <c r="Q227">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R227">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="S227">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="T227">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U227">
         <v>1.825</v>
@@ -20725,16 +20725,16 @@
         <v>-1</v>
       </c>
       <c r="X227">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="Y227">
         <v>-1</v>
       </c>
       <c r="Z227">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA227">
-        <v>-0</v>
+        <v>0.5</v>
       </c>
       <c r="AB227">
         <v>-1</v>
@@ -20748,7 +20748,7 @@
         <v>226</v>
       </c>
       <c r="B228">
-        <v>6989689</v>
+        <v>6989688</v>
       </c>
       <c r="C228" t="s">
         <v>28</v>
@@ -20760,76 +20760,76 @@
         <v>45227.375</v>
       </c>
       <c r="F228" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="G228" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="H228">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I228">
         <v>0</v>
       </c>
       <c r="J228" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K228">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="L228">
-        <v>2.875</v>
+        <v>3</v>
       </c>
       <c r="M228">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="N228">
-        <v>2.05</v>
+        <v>1.909</v>
       </c>
       <c r="O228">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="P228">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="Q228">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R228">
+        <v>1.975</v>
+      </c>
+      <c r="S228">
+        <v>1.825</v>
+      </c>
+      <c r="T228">
+        <v>2</v>
+      </c>
+      <c r="U228">
         <v>1.8</v>
       </c>
-      <c r="S228">
-        <v>2</v>
-      </c>
-      <c r="T228">
-        <v>1.75</v>
-      </c>
-      <c r="U228">
-        <v>1.825</v>
-      </c>
       <c r="V228">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W228">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X228">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Y228">
         <v>-1</v>
       </c>
       <c r="Z228">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA228">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB228">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC228">
-        <v>0.9750000000000001</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="229" spans="1:29">
@@ -20837,7 +20837,7 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>6989688</v>
+        <v>6989520</v>
       </c>
       <c r="C229" t="s">
         <v>28</v>
@@ -20849,49 +20849,49 @@
         <v>45227.375</v>
       </c>
       <c r="F229" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G229" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="H229">
         <v>2</v>
       </c>
       <c r="I229">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J229" t="s">
         <v>51</v>
       </c>
       <c r="K229">
-        <v>2</v>
+        <v>1.615</v>
       </c>
       <c r="L229">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="M229">
-        <v>3.5</v>
+        <v>4.333</v>
       </c>
       <c r="N229">
-        <v>1.909</v>
+        <v>1.55</v>
       </c>
       <c r="O229">
-        <v>3</v>
+        <v>3.8</v>
       </c>
       <c r="P229">
-        <v>3.8</v>
+        <v>4.75</v>
       </c>
       <c r="Q229">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R229">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S229">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T229">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U229">
         <v>1.8</v>
@@ -20900,7 +20900,7 @@
         <v>2</v>
       </c>
       <c r="W229">
-        <v>0.909</v>
+        <v>0.55</v>
       </c>
       <c r="X229">
         <v>-1</v>
@@ -20909,16 +20909,16 @@
         <v>-1</v>
       </c>
       <c r="Z229">
-        <v>0.9750000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA229">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB229">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AC229">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="230" spans="1:29">
@@ -20926,7 +20926,7 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>6989520</v>
+        <v>6989519</v>
       </c>
       <c r="C230" t="s">
         <v>28</v>
@@ -20938,10 +20938,10 @@
         <v>45227.375</v>
       </c>
       <c r="F230" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G230" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="H230">
         <v>2</v>
@@ -20953,43 +20953,43 @@
         <v>51</v>
       </c>
       <c r="K230">
-        <v>1.615</v>
+        <v>1.571</v>
       </c>
       <c r="L230">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M230">
-        <v>4.333</v>
+        <v>5</v>
       </c>
       <c r="N230">
-        <v>1.55</v>
+        <v>1.533</v>
       </c>
       <c r="O230">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="P230">
-        <v>4.75</v>
+        <v>5.25</v>
       </c>
       <c r="Q230">
         <v>-1</v>
       </c>
       <c r="R230">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S230">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T230">
         <v>2.25</v>
       </c>
       <c r="U230">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="V230">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W230">
-        <v>0.55</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X230">
         <v>-1</v>
@@ -21004,7 +21004,7 @@
         <v>-0</v>
       </c>
       <c r="AB230">
-        <v>0.8</v>
+        <v>0.925</v>
       </c>
       <c r="AC230">
         <v>-1</v>
@@ -21015,7 +21015,7 @@
         <v>229</v>
       </c>
       <c r="B231">
-        <v>6989519</v>
+        <v>7018997</v>
       </c>
       <c r="C231" t="s">
         <v>28</v>
@@ -21027,61 +21027,61 @@
         <v>45227.375</v>
       </c>
       <c r="F231" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="G231" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="H231">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I231">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J231" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K231">
-        <v>1.571</v>
+        <v>2.6</v>
       </c>
       <c r="L231">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="M231">
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="N231">
-        <v>1.533</v>
+        <v>2.4</v>
       </c>
       <c r="O231">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="P231">
-        <v>5.25</v>
+        <v>2.7</v>
       </c>
       <c r="Q231">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R231">
+        <v>1.775</v>
+      </c>
+      <c r="S231">
+        <v>2.025</v>
+      </c>
+      <c r="T231">
+        <v>2</v>
+      </c>
+      <c r="U231">
+        <v>1.825</v>
+      </c>
+      <c r="V231">
         <v>1.975</v>
       </c>
-      <c r="S231">
-        <v>1.825</v>
-      </c>
-      <c r="T231">
-        <v>2.25</v>
-      </c>
-      <c r="U231">
-        <v>1.925</v>
-      </c>
-      <c r="V231">
-        <v>1.875</v>
-      </c>
       <c r="W231">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X231">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y231">
         <v>-1</v>
@@ -21093,10 +21093,10 @@
         <v>-0</v>
       </c>
       <c r="AB231">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC231">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="232" spans="1:29">
@@ -21193,7 +21193,7 @@
         <v>231</v>
       </c>
       <c r="B233">
-        <v>6989690</v>
+        <v>6989625</v>
       </c>
       <c r="C233" t="s">
         <v>28</v>
@@ -21205,58 +21205,58 @@
         <v>45235.375</v>
       </c>
       <c r="F233" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G233" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="H233">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I233">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J233" t="s">
         <v>51</v>
       </c>
       <c r="K233">
-        <v>1.285</v>
+        <v>1.8</v>
       </c>
       <c r="L233">
+        <v>3</v>
+      </c>
+      <c r="M233">
         <v>4.5</v>
       </c>
-      <c r="M233">
-        <v>9</v>
-      </c>
       <c r="N233">
-        <v>1.4</v>
+        <v>1.8</v>
       </c>
       <c r="O233">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P233">
-        <v>7</v>
+        <v>4.5</v>
       </c>
       <c r="Q233">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R233">
+        <v>1.9</v>
+      </c>
+      <c r="S233">
+        <v>1.9</v>
+      </c>
+      <c r="T233">
+        <v>1.75</v>
+      </c>
+      <c r="U233">
         <v>1.95</v>
       </c>
-      <c r="S233">
+      <c r="V233">
         <v>1.85</v>
       </c>
-      <c r="T233">
-        <v>2.25</v>
-      </c>
-      <c r="U233">
-        <v>1.875</v>
-      </c>
-      <c r="V233">
-        <v>1.925</v>
-      </c>
       <c r="W233">
-        <v>0.3999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="X233">
         <v>-1</v>
@@ -21265,16 +21265,16 @@
         <v>-1</v>
       </c>
       <c r="Z233">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA233">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AB233">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC233">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="234" spans="1:29">
@@ -21282,7 +21282,7 @@
         <v>232</v>
       </c>
       <c r="B234">
-        <v>6989624</v>
+        <v>6989690</v>
       </c>
       <c r="C234" t="s">
         <v>28</v>
@@ -21294,13 +21294,13 @@
         <v>45235.375</v>
       </c>
       <c r="F234" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="G234" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="H234">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I234">
         <v>1</v>
@@ -21309,31 +21309,31 @@
         <v>51</v>
       </c>
       <c r="K234">
-        <v>1.727</v>
+        <v>1.285</v>
       </c>
       <c r="L234">
-        <v>3.2</v>
+        <v>4.5</v>
       </c>
       <c r="M234">
-        <v>4.5</v>
+        <v>9</v>
       </c>
       <c r="N234">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="O234">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="P234">
-        <v>4.5</v>
+        <v>7</v>
       </c>
       <c r="Q234">
-        <v>-0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R234">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="S234">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="T234">
         <v>2.25</v>
@@ -21345,7 +21345,7 @@
         <v>1.925</v>
       </c>
       <c r="W234">
-        <v>0.75</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X234">
         <v>-1</v>
@@ -21354,10 +21354,10 @@
         <v>-1</v>
       </c>
       <c r="Z234">
-        <v>0.7749999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AA234">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AB234">
         <v>0.875</v>
@@ -21371,7 +21371,7 @@
         <v>233</v>
       </c>
       <c r="B235">
-        <v>6989625</v>
+        <v>6989624</v>
       </c>
       <c r="C235" t="s">
         <v>28</v>
@@ -21383,34 +21383,34 @@
         <v>45235.375</v>
       </c>
       <c r="F235" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="G235" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H235">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I235">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J235" t="s">
         <v>51</v>
       </c>
       <c r="K235">
-        <v>1.8</v>
+        <v>1.727</v>
       </c>
       <c r="L235">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="M235">
         <v>4.5</v>
       </c>
       <c r="N235">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="O235">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="P235">
         <v>4.5</v>
@@ -21419,22 +21419,22 @@
         <v>-0.5</v>
       </c>
       <c r="R235">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="S235">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="T235">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="U235">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V235">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W235">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="X235">
         <v>-1</v>
@@ -21443,16 +21443,16 @@
         <v>-1</v>
       </c>
       <c r="Z235">
-        <v>0.8999999999999999</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA235">
         <v>-1</v>
       </c>
       <c r="AB235">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC235">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="236" spans="1:29">
@@ -21727,7 +21727,7 @@
         <v>237</v>
       </c>
       <c r="B239">
-        <v>6989691</v>
+        <v>6989522</v>
       </c>
       <c r="C239" t="s">
         <v>28</v>
@@ -21739,40 +21739,40 @@
         <v>45236.375</v>
       </c>
       <c r="F239" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G239" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="H239">
         <v>0</v>
       </c>
       <c r="I239">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J239" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K239">
-        <v>2</v>
+        <v>1.65</v>
       </c>
       <c r="L239">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M239">
-        <v>3.6</v>
+        <v>5.5</v>
       </c>
       <c r="N239">
-        <v>1.95</v>
+        <v>2.25</v>
       </c>
       <c r="O239">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="P239">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="Q239">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R239">
         <v>2</v>
@@ -21784,19 +21784,19 @@
         <v>2</v>
       </c>
       <c r="U239">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V239">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W239">
         <v>-1</v>
       </c>
       <c r="X239">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y239">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Z239">
         <v>-1</v>
@@ -21808,7 +21808,7 @@
         <v>-1</v>
       </c>
       <c r="AC239">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="240" spans="1:29">
@@ -21816,7 +21816,7 @@
         <v>238</v>
       </c>
       <c r="B240">
-        <v>6989522</v>
+        <v>6989691</v>
       </c>
       <c r="C240" t="s">
         <v>28</v>
@@ -21828,40 +21828,40 @@
         <v>45236.375</v>
       </c>
       <c r="F240" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G240" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="H240">
         <v>0</v>
       </c>
       <c r="I240">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J240" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K240">
-        <v>1.65</v>
+        <v>2</v>
       </c>
       <c r="L240">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M240">
-        <v>5.5</v>
+        <v>3.6</v>
       </c>
       <c r="N240">
-        <v>2.25</v>
+        <v>1.95</v>
       </c>
       <c r="O240">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="P240">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="Q240">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R240">
         <v>2</v>
@@ -21873,19 +21873,19 @@
         <v>2</v>
       </c>
       <c r="U240">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V240">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W240">
         <v>-1</v>
       </c>
       <c r="X240">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y240">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Z240">
         <v>-1</v>
@@ -21897,7 +21897,7 @@
         <v>-1</v>
       </c>
       <c r="AC240">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="241" spans="1:29">
@@ -23240,7 +23240,7 @@
         <v>254</v>
       </c>
       <c r="B256">
-        <v>7497670</v>
+        <v>7497903</v>
       </c>
       <c r="C256" t="s">
         <v>28</v>
@@ -23252,76 +23252,76 @@
         <v>45252.375</v>
       </c>
       <c r="F256" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="G256" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="H256">
         <v>2</v>
       </c>
       <c r="I256">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J256" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K256">
-        <v>3.2</v>
+        <v>1.571</v>
       </c>
       <c r="L256">
-        <v>2.9</v>
+        <v>3.75</v>
       </c>
       <c r="M256">
-        <v>2.2</v>
+        <v>4.75</v>
       </c>
       <c r="N256">
-        <v>3.3</v>
+        <v>1.5</v>
       </c>
       <c r="O256">
-        <v>2.9</v>
+        <v>3.75</v>
       </c>
       <c r="P256">
-        <v>2.15</v>
+        <v>5.5</v>
       </c>
       <c r="Q256">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R256">
+        <v>1.925</v>
+      </c>
+      <c r="S256">
         <v>1.875</v>
       </c>
-      <c r="S256">
-        <v>1.925</v>
-      </c>
       <c r="T256">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U256">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V256">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W256">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X256">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Y256">
         <v>-1</v>
       </c>
       <c r="Z256">
-        <v>0.4375</v>
+        <v>0.925</v>
       </c>
       <c r="AA256">
+        <v>-1</v>
+      </c>
+      <c r="AB256">
         <v>-0.5</v>
       </c>
-      <c r="AB256">
-        <v>0.95</v>
-      </c>
       <c r="AC256">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="257" spans="1:29">
@@ -23418,7 +23418,7 @@
         <v>256</v>
       </c>
       <c r="B258">
-        <v>7497903</v>
+        <v>7497670</v>
       </c>
       <c r="C258" t="s">
         <v>28</v>
@@ -23430,76 +23430,76 @@
         <v>45252.375</v>
       </c>
       <c r="F258" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G258" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="H258">
         <v>2</v>
       </c>
       <c r="I258">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J258" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K258">
-        <v>1.571</v>
+        <v>3.2</v>
       </c>
       <c r="L258">
-        <v>3.75</v>
+        <v>2.9</v>
       </c>
       <c r="M258">
-        <v>4.75</v>
+        <v>2.2</v>
       </c>
       <c r="N258">
-        <v>1.5</v>
+        <v>3.3</v>
       </c>
       <c r="O258">
-        <v>3.75</v>
+        <v>2.9</v>
       </c>
       <c r="P258">
-        <v>5.5</v>
+        <v>2.15</v>
       </c>
       <c r="Q258">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R258">
+        <v>1.875</v>
+      </c>
+      <c r="S258">
         <v>1.925</v>
       </c>
-      <c r="S258">
-        <v>1.875</v>
-      </c>
       <c r="T258">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U258">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V258">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W258">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X258">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Y258">
         <v>-1</v>
       </c>
       <c r="Z258">
-        <v>0.925</v>
+        <v>0.4375</v>
       </c>
       <c r="AA258">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB258">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AC258">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="259" spans="1:29">
@@ -23774,7 +23774,7 @@
         <v>260</v>
       </c>
       <c r="B262">
-        <v>6989630</v>
+        <v>6989526</v>
       </c>
       <c r="C262" t="s">
         <v>28</v>
@@ -23786,13 +23786,13 @@
         <v>45256.375</v>
       </c>
       <c r="F262" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="G262" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="H262">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I262">
         <v>0</v>
@@ -23801,43 +23801,43 @@
         <v>51</v>
       </c>
       <c r="K262">
-        <v>1.444</v>
+        <v>1.909</v>
       </c>
       <c r="L262">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="M262">
-        <v>6.5</v>
+        <v>4</v>
       </c>
       <c r="N262">
-        <v>1.533</v>
+        <v>2.1</v>
       </c>
       <c r="O262">
-        <v>3.8</v>
+        <v>2.9</v>
       </c>
       <c r="P262">
-        <v>6</v>
+        <v>3.5</v>
       </c>
       <c r="Q262">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R262">
-        <v>2.075</v>
+        <v>1.825</v>
       </c>
       <c r="S262">
-        <v>1.725</v>
+        <v>1.975</v>
       </c>
       <c r="T262">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U262">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V262">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W262">
-        <v>0.5329999999999999</v>
+        <v>1.1</v>
       </c>
       <c r="X262">
         <v>-1</v>
@@ -23846,16 +23846,16 @@
         <v>-1</v>
       </c>
       <c r="Z262">
-        <v>1.075</v>
+        <v>0.825</v>
       </c>
       <c r="AA262">
         <v>-1</v>
       </c>
       <c r="AB262">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AC262">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="263" spans="1:29">
@@ -23863,7 +23863,7 @@
         <v>261</v>
       </c>
       <c r="B263">
-        <v>6989526</v>
+        <v>6989630</v>
       </c>
       <c r="C263" t="s">
         <v>28</v>
@@ -23875,13 +23875,13 @@
         <v>45256.375</v>
       </c>
       <c r="F263" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="G263" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="H263">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I263">
         <v>0</v>
@@ -23890,43 +23890,43 @@
         <v>51</v>
       </c>
       <c r="K263">
-        <v>1.909</v>
+        <v>1.444</v>
       </c>
       <c r="L263">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="M263">
-        <v>4</v>
+        <v>6.5</v>
       </c>
       <c r="N263">
-        <v>2.1</v>
+        <v>1.533</v>
       </c>
       <c r="O263">
-        <v>2.9</v>
+        <v>3.8</v>
       </c>
       <c r="P263">
-        <v>3.5</v>
+        <v>6</v>
       </c>
       <c r="Q263">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R263">
-        <v>1.825</v>
+        <v>2.075</v>
       </c>
       <c r="S263">
-        <v>1.975</v>
+        <v>1.725</v>
       </c>
       <c r="T263">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U263">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V263">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W263">
-        <v>1.1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X263">
         <v>-1</v>
@@ -23935,16 +23935,16 @@
         <v>-1</v>
       </c>
       <c r="Z263">
-        <v>0.825</v>
+        <v>1.075</v>
       </c>
       <c r="AA263">
         <v>-1</v>
       </c>
       <c r="AB263">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC263">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="264" spans="1:29">
@@ -24041,7 +24041,7 @@
         <v>263</v>
       </c>
       <c r="B265">
-        <v>6989629</v>
+        <v>6989527</v>
       </c>
       <c r="C265" t="s">
         <v>28</v>
@@ -24053,58 +24053,58 @@
         <v>45256.375</v>
       </c>
       <c r="F265" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="G265" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H265">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I265">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J265" t="s">
         <v>51</v>
       </c>
       <c r="K265">
-        <v>2.1</v>
+        <v>1.727</v>
       </c>
       <c r="L265">
-        <v>2.875</v>
+        <v>3.3</v>
       </c>
       <c r="M265">
-        <v>3.5</v>
+        <v>4.333</v>
       </c>
       <c r="N265">
-        <v>1.75</v>
+        <v>1.444</v>
       </c>
       <c r="O265">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="P265">
-        <v>4.75</v>
+        <v>7</v>
       </c>
       <c r="Q265">
-        <v>-0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R265">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S265">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="T265">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="U265">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="V265">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="W265">
-        <v>0.75</v>
+        <v>0.444</v>
       </c>
       <c r="X265">
         <v>-1</v>
@@ -24113,16 +24113,16 @@
         <v>-1</v>
       </c>
       <c r="Z265">
-        <v>0.475</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA265">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB265">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC265">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="266" spans="1:29">
@@ -24130,7 +24130,7 @@
         <v>264</v>
       </c>
       <c r="B266">
-        <v>6989527</v>
+        <v>6989629</v>
       </c>
       <c r="C266" t="s">
         <v>28</v>
@@ -24142,58 +24142,58 @@
         <v>45256.375</v>
       </c>
       <c r="F266" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="G266" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H266">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I266">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J266" t="s">
         <v>51</v>
       </c>
       <c r="K266">
-        <v>1.727</v>
+        <v>2.1</v>
       </c>
       <c r="L266">
-        <v>3.3</v>
+        <v>2.875</v>
       </c>
       <c r="M266">
-        <v>4.333</v>
+        <v>3.5</v>
       </c>
       <c r="N266">
-        <v>1.444</v>
+        <v>1.75</v>
       </c>
       <c r="O266">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="P266">
-        <v>7</v>
+        <v>4.75</v>
       </c>
       <c r="Q266">
-        <v>-1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R266">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S266">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="T266">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="U266">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="V266">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="W266">
-        <v>0.444</v>
+        <v>0.75</v>
       </c>
       <c r="X266">
         <v>-1</v>
@@ -24202,16 +24202,16 @@
         <v>-1</v>
       </c>
       <c r="Z266">
-        <v>0.9750000000000001</v>
+        <v>0.475</v>
       </c>
       <c r="AA266">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB266">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC266">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="267" spans="1:29">
@@ -24219,7 +24219,7 @@
         <v>265</v>
       </c>
       <c r="B267">
-        <v>7523282</v>
+        <v>6989698</v>
       </c>
       <c r="C267" t="s">
         <v>28</v>
@@ -24231,76 +24231,76 @@
         <v>45257.375</v>
       </c>
       <c r="F267" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G267" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H267">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I267">
         <v>0</v>
       </c>
       <c r="J267" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K267">
-        <v>3</v>
+        <v>2.1</v>
       </c>
       <c r="L267">
-        <v>2.9</v>
+        <v>2.75</v>
       </c>
       <c r="M267">
-        <v>2.3</v>
+        <v>3.6</v>
       </c>
       <c r="N267">
-        <v>2.8</v>
+        <v>2.15</v>
       </c>
       <c r="O267">
-        <v>3.1</v>
+        <v>2.625</v>
       </c>
       <c r="P267">
-        <v>2.4</v>
+        <v>3.75</v>
       </c>
       <c r="Q267">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R267">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S267">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T267">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U267">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V267">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W267">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X267">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y267">
         <v>-1</v>
       </c>
       <c r="Z267">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AA267">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB267">
         <v>-1</v>
       </c>
       <c r="AC267">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="268" spans="1:29">
@@ -24308,7 +24308,7 @@
         <v>266</v>
       </c>
       <c r="B268">
-        <v>6989698</v>
+        <v>7523282</v>
       </c>
       <c r="C268" t="s">
         <v>28</v>
@@ -24320,76 +24320,76 @@
         <v>45257.375</v>
       </c>
       <c r="F268" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G268" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H268">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I268">
         <v>0</v>
       </c>
       <c r="J268" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K268">
+        <v>3</v>
+      </c>
+      <c r="L268">
+        <v>2.9</v>
+      </c>
+      <c r="M268">
+        <v>2.3</v>
+      </c>
+      <c r="N268">
+        <v>2.8</v>
+      </c>
+      <c r="O268">
+        <v>3.1</v>
+      </c>
+      <c r="P268">
+        <v>2.4</v>
+      </c>
+      <c r="Q268">
+        <v>0</v>
+      </c>
+      <c r="R268">
+        <v>2</v>
+      </c>
+      <c r="S268">
+        <v>1.8</v>
+      </c>
+      <c r="T268">
+        <v>2</v>
+      </c>
+      <c r="U268">
+        <v>1.875</v>
+      </c>
+      <c r="V268">
+        <v>1.925</v>
+      </c>
+      <c r="W268">
+        <v>-1</v>
+      </c>
+      <c r="X268">
         <v>2.1</v>
       </c>
-      <c r="L268">
-        <v>2.75</v>
-      </c>
-      <c r="M268">
-        <v>3.6</v>
-      </c>
-      <c r="N268">
-        <v>2.15</v>
-      </c>
-      <c r="O268">
-        <v>2.625</v>
-      </c>
-      <c r="P268">
-        <v>3.75</v>
-      </c>
-      <c r="Q268">
-        <v>-0.25</v>
-      </c>
-      <c r="R268">
-        <v>1.875</v>
-      </c>
-      <c r="S268">
-        <v>1.925</v>
-      </c>
-      <c r="T268">
-        <v>1.75</v>
-      </c>
-      <c r="U268">
-        <v>1.95</v>
-      </c>
-      <c r="V268">
-        <v>1.85</v>
-      </c>
-      <c r="W268">
-        <v>1.15</v>
-      </c>
-      <c r="X268">
-        <v>-1</v>
-      </c>
       <c r="Y268">
         <v>-1</v>
       </c>
       <c r="Z268">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="AA268">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB268">
         <v>-1</v>
       </c>
       <c r="AC268">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="269" spans="1:29">

--- a/Serbia Prva Liga/Serbia Prva Liga.xlsx
+++ b/Serbia Prva Liga/Serbia Prva Liga.xlsx
@@ -2325,7 +2325,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5215880</v>
+        <v>6357673</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -2337,76 +2337,76 @@
         <v>44991.41666666666</v>
       </c>
       <c r="F21" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G21" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H21">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J21" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K21">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="L21">
-        <v>2.875</v>
+        <v>3.4</v>
       </c>
       <c r="M21">
+        <v>3.8</v>
+      </c>
+      <c r="N21">
+        <v>1.65</v>
+      </c>
+      <c r="O21">
         <v>3.5</v>
       </c>
-      <c r="N21">
-        <v>1.8</v>
-      </c>
-      <c r="O21">
-        <v>3</v>
-      </c>
       <c r="P21">
-        <v>4.333</v>
+        <v>4.5</v>
       </c>
       <c r="Q21">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R21">
+        <v>1.95</v>
+      </c>
+      <c r="S21">
         <v>1.85</v>
       </c>
-      <c r="S21">
+      <c r="T21">
+        <v>2.5</v>
+      </c>
+      <c r="U21">
+        <v>1.85</v>
+      </c>
+      <c r="V21">
         <v>1.95</v>
       </c>
-      <c r="T21">
-        <v>2</v>
-      </c>
-      <c r="U21">
-        <v>1.925</v>
-      </c>
-      <c r="V21">
-        <v>1.875</v>
-      </c>
       <c r="W21">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X21">
         <v>-1</v>
       </c>
       <c r="Y21">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Z21">
+        <v>-1</v>
+      </c>
+      <c r="AA21">
         <v>0.8500000000000001</v>
       </c>
-      <c r="AA21">
-        <v>-1</v>
-      </c>
       <c r="AB21">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC21">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="22" spans="1:29">
@@ -2503,7 +2503,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6357673</v>
+        <v>5215880</v>
       </c>
       <c r="C23" t="s">
         <v>28</v>
@@ -2515,76 +2515,76 @@
         <v>44991.41666666666</v>
       </c>
       <c r="F23" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G23" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I23">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J23" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K23">
+        <v>2.1</v>
+      </c>
+      <c r="L23">
+        <v>2.875</v>
+      </c>
+      <c r="M23">
+        <v>3.5</v>
+      </c>
+      <c r="N23">
         <v>1.8</v>
       </c>
-      <c r="L23">
-        <v>3.4</v>
-      </c>
-      <c r="M23">
-        <v>3.8</v>
-      </c>
-      <c r="N23">
-        <v>1.65</v>
-      </c>
       <c r="O23">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="P23">
-        <v>4.5</v>
+        <v>4.333</v>
       </c>
       <c r="Q23">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R23">
+        <v>1.85</v>
+      </c>
+      <c r="S23">
         <v>1.95</v>
       </c>
-      <c r="S23">
-        <v>1.85</v>
-      </c>
       <c r="T23">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U23">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V23">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W23">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X23">
         <v>-1</v>
       </c>
       <c r="Y23">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Z23">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA23">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB23">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC23">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="24" spans="1:29">
@@ -3927,7 +3927,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>5215836</v>
+        <v>5196282</v>
       </c>
       <c r="C39" t="s">
         <v>28</v>
@@ -3939,76 +3939,76 @@
         <v>45004.45833333334</v>
       </c>
       <c r="F39" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G39" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="H39">
         <v>1</v>
       </c>
       <c r="I39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J39" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K39">
-        <v>1.444</v>
+        <v>3.75</v>
       </c>
       <c r="L39">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="M39">
-        <v>6.5</v>
+        <v>1.95</v>
       </c>
       <c r="N39">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="O39">
-        <v>3.75</v>
+        <v>2.875</v>
       </c>
       <c r="P39">
-        <v>5.5</v>
+        <v>2.3</v>
       </c>
       <c r="Q39">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R39">
+        <v>1.75</v>
+      </c>
+      <c r="S39">
+        <v>2.05</v>
+      </c>
+      <c r="T39">
+        <v>2</v>
+      </c>
+      <c r="U39">
+        <v>1.85</v>
+      </c>
+      <c r="V39">
         <v>1.95</v>
       </c>
-      <c r="S39">
-        <v>1.85</v>
-      </c>
-      <c r="T39">
-        <v>2</v>
-      </c>
-      <c r="U39">
-        <v>1.775</v>
-      </c>
-      <c r="V39">
-        <v>2.025</v>
-      </c>
       <c r="W39">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="X39">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y39">
         <v>-1</v>
       </c>
       <c r="Z39">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA39">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB39">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC39">
-        <v>-0</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="40" spans="1:29">
@@ -4016,7 +4016,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>5196282</v>
+        <v>5215836</v>
       </c>
       <c r="C40" t="s">
         <v>28</v>
@@ -4028,76 +4028,76 @@
         <v>45004.45833333334</v>
       </c>
       <c r="F40" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G40" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="H40">
         <v>1</v>
       </c>
       <c r="I40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J40" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K40">
+        <v>1.444</v>
+      </c>
+      <c r="L40">
         <v>3.75</v>
       </c>
-      <c r="L40">
-        <v>3</v>
-      </c>
       <c r="M40">
+        <v>6.5</v>
+      </c>
+      <c r="N40">
+        <v>1.5</v>
+      </c>
+      <c r="O40">
+        <v>3.75</v>
+      </c>
+      <c r="P40">
+        <v>5.5</v>
+      </c>
+      <c r="Q40">
+        <v>-1</v>
+      </c>
+      <c r="R40">
         <v>1.95</v>
       </c>
-      <c r="N40">
-        <v>3</v>
-      </c>
-      <c r="O40">
-        <v>2.875</v>
-      </c>
-      <c r="P40">
-        <v>2.3</v>
-      </c>
-      <c r="Q40">
-        <v>0.25</v>
-      </c>
-      <c r="R40">
-        <v>1.75</v>
-      </c>
       <c r="S40">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="T40">
         <v>2</v>
       </c>
       <c r="U40">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="V40">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="W40">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="X40">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y40">
         <v>-1</v>
       </c>
       <c r="Z40">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA40">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB40">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC40">
-        <v>0.95</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="41" spans="1:29">
@@ -4461,7 +4461,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>5289413</v>
+        <v>5196284</v>
       </c>
       <c r="C45" t="s">
         <v>28</v>
@@ -4473,46 +4473,46 @@
         <v>45008.45833333334</v>
       </c>
       <c r="F45" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G45" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J45" t="s">
         <v>53</v>
       </c>
       <c r="K45">
-        <v>2</v>
+        <v>2.8</v>
       </c>
       <c r="L45">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="M45">
-        <v>3.6</v>
+        <v>2.5</v>
       </c>
       <c r="N45">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="O45">
-        <v>2.9</v>
+        <v>2.625</v>
       </c>
       <c r="P45">
-        <v>3.6</v>
+        <v>2.75</v>
       </c>
       <c r="Q45">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R45">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="S45">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="T45">
         <v>2</v>
@@ -4527,22 +4527,22 @@
         <v>-1</v>
       </c>
       <c r="X45">
-        <v>1.9</v>
+        <v>1.625</v>
       </c>
       <c r="Y45">
         <v>-1</v>
       </c>
       <c r="Z45">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AA45">
-        <v>0.5249999999999999</v>
+        <v>-0</v>
       </c>
       <c r="AB45">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC45">
-        <v>-0</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="46" spans="1:29">
@@ -4550,7 +4550,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>5215839</v>
+        <v>5215546</v>
       </c>
       <c r="C46" t="s">
         <v>28</v>
@@ -4562,73 +4562,73 @@
         <v>45008.45833333334</v>
       </c>
       <c r="F46" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G46" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="H46">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I46">
         <v>2</v>
       </c>
       <c r="J46" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K46">
-        <v>1.615</v>
+        <v>1.727</v>
       </c>
       <c r="L46">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M46">
-        <v>5.5</v>
+        <v>4.25</v>
       </c>
       <c r="N46">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="O46">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="P46">
-        <v>5.75</v>
+        <v>4.5</v>
       </c>
       <c r="Q46">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R46">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S46">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="T46">
         <v>2.5</v>
       </c>
       <c r="U46">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V46">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W46">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X46">
         <v>-1</v>
       </c>
       <c r="Y46">
-        <v>4.75</v>
+        <v>-1</v>
       </c>
       <c r="Z46">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA46">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB46">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="AC46">
         <v>-1</v>
@@ -4728,7 +4728,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>5215546</v>
+        <v>5289413</v>
       </c>
       <c r="C48" t="s">
         <v>28</v>
@@ -4740,76 +4740,76 @@
         <v>45008.45833333334</v>
       </c>
       <c r="F48" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="G48" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H48">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I48">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J48" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K48">
-        <v>1.727</v>
+        <v>2</v>
       </c>
       <c r="L48">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="M48">
-        <v>4.25</v>
+        <v>3.6</v>
       </c>
       <c r="N48">
-        <v>1.7</v>
+        <v>2</v>
       </c>
       <c r="O48">
-        <v>3.3</v>
+        <v>2.9</v>
       </c>
       <c r="P48">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="Q48">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R48">
-        <v>1.925</v>
+        <v>1.75</v>
       </c>
       <c r="S48">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="T48">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U48">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V48">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W48">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X48">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Y48">
         <v>-1</v>
       </c>
       <c r="Z48">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AA48">
-        <v>-1</v>
+        <v>0.5249999999999999</v>
       </c>
       <c r="AB48">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="AC48">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="49" spans="1:29">
@@ -4817,7 +4817,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>5196284</v>
+        <v>5215839</v>
       </c>
       <c r="C49" t="s">
         <v>28</v>
@@ -4829,76 +4829,76 @@
         <v>45008.45833333334</v>
       </c>
       <c r="F49" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="G49" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I49">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J49" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K49">
-        <v>2.8</v>
+        <v>1.615</v>
       </c>
       <c r="L49">
-        <v>2.8</v>
+        <v>3.25</v>
       </c>
       <c r="M49">
+        <v>5.5</v>
+      </c>
+      <c r="N49">
+        <v>1.5</v>
+      </c>
+      <c r="O49">
+        <v>4</v>
+      </c>
+      <c r="P49">
+        <v>5.75</v>
+      </c>
+      <c r="Q49">
+        <v>-1</v>
+      </c>
+      <c r="R49">
+        <v>1.825</v>
+      </c>
+      <c r="S49">
+        <v>1.975</v>
+      </c>
+      <c r="T49">
         <v>2.5</v>
       </c>
-      <c r="N49">
-        <v>2.75</v>
-      </c>
-      <c r="O49">
-        <v>2.625</v>
-      </c>
-      <c r="P49">
-        <v>2.75</v>
-      </c>
-      <c r="Q49">
-        <v>0</v>
-      </c>
-      <c r="R49">
-        <v>1.9</v>
-      </c>
-      <c r="S49">
-        <v>1.9</v>
-      </c>
-      <c r="T49">
-        <v>2</v>
-      </c>
       <c r="U49">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="V49">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W49">
         <v>-1</v>
       </c>
       <c r="X49">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="Y49">
-        <v>-1</v>
+        <v>4.75</v>
       </c>
       <c r="Z49">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA49">
-        <v>-0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB49">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC49">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="50" spans="1:29">
@@ -4906,7 +4906,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>5289414</v>
+        <v>5215547</v>
       </c>
       <c r="C50" t="s">
         <v>28</v>
@@ -4918,76 +4918,76 @@
         <v>45012.45833333334</v>
       </c>
       <c r="F50" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="G50" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H50">
         <v>1</v>
       </c>
       <c r="I50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J50" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K50">
+        <v>6.5</v>
+      </c>
+      <c r="L50">
+        <v>3.5</v>
+      </c>
+      <c r="M50">
+        <v>1.5</v>
+      </c>
+      <c r="N50">
+        <v>5.5</v>
+      </c>
+      <c r="O50">
+        <v>3.6</v>
+      </c>
+      <c r="P50">
+        <v>1.615</v>
+      </c>
+      <c r="Q50">
+        <v>0.75</v>
+      </c>
+      <c r="R50">
+        <v>2</v>
+      </c>
+      <c r="S50">
+        <v>1.8</v>
+      </c>
+      <c r="T50">
         <v>2.25</v>
       </c>
-      <c r="L50">
-        <v>3</v>
-      </c>
-      <c r="M50">
-        <v>3</v>
-      </c>
-      <c r="N50">
-        <v>2.2</v>
-      </c>
-      <c r="O50">
-        <v>3</v>
-      </c>
-      <c r="P50">
-        <v>3.3</v>
-      </c>
-      <c r="Q50">
-        <v>-0.25</v>
-      </c>
-      <c r="R50">
-        <v>1.9</v>
-      </c>
-      <c r="S50">
-        <v>1.9</v>
-      </c>
-      <c r="T50">
-        <v>2</v>
-      </c>
       <c r="U50">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V50">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W50">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X50">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y50">
         <v>-1</v>
       </c>
       <c r="Z50">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AA50">
         <v>-1</v>
       </c>
       <c r="AB50">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC50">
-        <v>0.9750000000000001</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="51" spans="1:29">
@@ -4995,7 +4995,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>5215888</v>
+        <v>5289414</v>
       </c>
       <c r="C51" t="s">
         <v>28</v>
@@ -5007,13 +5007,13 @@
         <v>45012.45833333334</v>
       </c>
       <c r="F51" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G51" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="H51">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I51">
         <v>0</v>
@@ -5022,43 +5022,43 @@
         <v>51</v>
       </c>
       <c r="K51">
-        <v>2.6</v>
+        <v>2.25</v>
       </c>
       <c r="L51">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="M51">
-        <v>2.6</v>
+        <v>3</v>
       </c>
       <c r="N51">
-        <v>1.727</v>
+        <v>2.2</v>
       </c>
       <c r="O51">
+        <v>3</v>
+      </c>
+      <c r="P51">
         <v>3.3</v>
       </c>
-      <c r="P51">
-        <v>4.75</v>
-      </c>
       <c r="Q51">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R51">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S51">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T51">
         <v>2</v>
       </c>
       <c r="U51">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V51">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W51">
-        <v>0.7270000000000001</v>
+        <v>1.2</v>
       </c>
       <c r="X51">
         <v>-1</v>
@@ -5067,16 +5067,16 @@
         <v>-1</v>
       </c>
       <c r="Z51">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA51">
         <v>-1</v>
       </c>
       <c r="AB51">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC51">
-        <v>-0</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="52" spans="1:29">
@@ -5084,7 +5084,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>5215841</v>
+        <v>5215888</v>
       </c>
       <c r="C52" t="s">
         <v>28</v>
@@ -5096,13 +5096,13 @@
         <v>45012.45833333334</v>
       </c>
       <c r="F52" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G52" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H52">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I52">
         <v>0</v>
@@ -5111,43 +5111,43 @@
         <v>51</v>
       </c>
       <c r="K52">
+        <v>2.6</v>
+      </c>
+      <c r="L52">
+        <v>2.9</v>
+      </c>
+      <c r="M52">
+        <v>2.6</v>
+      </c>
+      <c r="N52">
         <v>1.727</v>
       </c>
-      <c r="L52">
-        <v>3.1</v>
-      </c>
-      <c r="M52">
+      <c r="O52">
+        <v>3.3</v>
+      </c>
+      <c r="P52">
         <v>4.75</v>
       </c>
-      <c r="N52">
-        <v>1.7</v>
-      </c>
-      <c r="O52">
-        <v>3.2</v>
-      </c>
-      <c r="P52">
-        <v>5.25</v>
-      </c>
       <c r="Q52">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R52">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S52">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T52">
         <v>2</v>
       </c>
       <c r="U52">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V52">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W52">
-        <v>0.7</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X52">
         <v>-1</v>
@@ -5156,16 +5156,16 @@
         <v>-1</v>
       </c>
       <c r="Z52">
-        <v>0.475</v>
+        <v>0.8</v>
       </c>
       <c r="AA52">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB52">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC52">
-        <v>0.9750000000000001</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="53" spans="1:29">
@@ -5173,7 +5173,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>5215239</v>
+        <v>5215841</v>
       </c>
       <c r="C53" t="s">
         <v>28</v>
@@ -5185,34 +5185,34 @@
         <v>45012.45833333334</v>
       </c>
       <c r="F53" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G53" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J53" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K53">
-        <v>1.85</v>
+        <v>1.727</v>
       </c>
       <c r="L53">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="M53">
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="N53">
-        <v>1.571</v>
+        <v>1.7</v>
       </c>
       <c r="O53">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="P53">
         <v>5.25</v>
@@ -5221,40 +5221,40 @@
         <v>-0.75</v>
       </c>
       <c r="R53">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="S53">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="T53">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U53">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V53">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W53">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X53">
         <v>-1</v>
       </c>
       <c r="Y53">
-        <v>4.25</v>
+        <v>-1</v>
       </c>
       <c r="Z53">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AA53">
-        <v>1.025</v>
+        <v>-0.5</v>
       </c>
       <c r="AB53">
         <v>-1</v>
       </c>
       <c r="AC53">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="54" spans="1:29">
@@ -5262,7 +5262,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>5215840</v>
+        <v>5215239</v>
       </c>
       <c r="C54" t="s">
         <v>28</v>
@@ -5274,56 +5274,56 @@
         <v>45012.45833333334</v>
       </c>
       <c r="F54" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="G54" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="H54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I54">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J54" t="s">
         <v>52</v>
       </c>
       <c r="K54">
-        <v>1.533</v>
+        <v>1.85</v>
       </c>
       <c r="L54">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M54">
-        <v>6</v>
+        <v>3.75</v>
       </c>
       <c r="N54">
-        <v>1.444</v>
+        <v>1.571</v>
       </c>
       <c r="O54">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="P54">
-        <v>6.5</v>
+        <v>5.25</v>
       </c>
       <c r="Q54">
-        <v>-1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R54">
+        <v>1.775</v>
+      </c>
+      <c r="S54">
+        <v>2.025</v>
+      </c>
+      <c r="T54">
+        <v>2.25</v>
+      </c>
+      <c r="U54">
         <v>1.95</v>
       </c>
-      <c r="S54">
+      <c r="V54">
         <v>1.85</v>
       </c>
-      <c r="T54">
-        <v>2.5</v>
-      </c>
-      <c r="U54">
-        <v>2.025</v>
-      </c>
-      <c r="V54">
-        <v>1.775</v>
-      </c>
       <c r="W54">
         <v>-1</v>
       </c>
@@ -5331,19 +5331,19 @@
         <v>-1</v>
       </c>
       <c r="Y54">
-        <v>5.5</v>
+        <v>4.25</v>
       </c>
       <c r="Z54">
         <v>-1</v>
       </c>
       <c r="AA54">
+        <v>1.025</v>
+      </c>
+      <c r="AB54">
+        <v>-1</v>
+      </c>
+      <c r="AC54">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AB54">
-        <v>1.025</v>
-      </c>
-      <c r="AC54">
-        <v>-1</v>
       </c>
     </row>
     <row r="55" spans="1:29">
@@ -5351,7 +5351,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>5215547</v>
+        <v>5215840</v>
       </c>
       <c r="C55" t="s">
         <v>28</v>
@@ -5363,76 +5363,76 @@
         <v>45012.45833333334</v>
       </c>
       <c r="F55" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G55" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="H55">
         <v>1</v>
       </c>
       <c r="I55">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J55" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K55">
+        <v>1.533</v>
+      </c>
+      <c r="L55">
+        <v>3.4</v>
+      </c>
+      <c r="M55">
+        <v>6</v>
+      </c>
+      <c r="N55">
+        <v>1.444</v>
+      </c>
+      <c r="O55">
+        <v>3.75</v>
+      </c>
+      <c r="P55">
         <v>6.5</v>
       </c>
-      <c r="L55">
-        <v>3.5</v>
-      </c>
-      <c r="M55">
-        <v>1.5</v>
-      </c>
-      <c r="N55">
+      <c r="Q55">
+        <v>-1.25</v>
+      </c>
+      <c r="R55">
+        <v>1.95</v>
+      </c>
+      <c r="S55">
+        <v>1.85</v>
+      </c>
+      <c r="T55">
+        <v>2.5</v>
+      </c>
+      <c r="U55">
+        <v>2.025</v>
+      </c>
+      <c r="V55">
+        <v>1.775</v>
+      </c>
+      <c r="W55">
+        <v>-1</v>
+      </c>
+      <c r="X55">
+        <v>-1</v>
+      </c>
+      <c r="Y55">
         <v>5.5</v>
       </c>
-      <c r="O55">
-        <v>3.6</v>
-      </c>
-      <c r="P55">
-        <v>1.615</v>
-      </c>
-      <c r="Q55">
-        <v>0.75</v>
-      </c>
-      <c r="R55">
-        <v>2</v>
-      </c>
-      <c r="S55">
-        <v>1.8</v>
-      </c>
-      <c r="T55">
-        <v>2.25</v>
-      </c>
-      <c r="U55">
-        <v>1.95</v>
-      </c>
-      <c r="V55">
-        <v>1.85</v>
-      </c>
-      <c r="W55">
-        <v>-1</v>
-      </c>
-      <c r="X55">
-        <v>2.6</v>
-      </c>
-      <c r="Y55">
-        <v>-1</v>
-      </c>
       <c r="Z55">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA55">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB55">
-        <v>-0.5</v>
+        <v>1.025</v>
       </c>
       <c r="AC55">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="56" spans="1:29">
@@ -5974,7 +5974,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>5215844</v>
+        <v>5215549</v>
       </c>
       <c r="C62" t="s">
         <v>28</v>
@@ -5986,76 +5986,76 @@
         <v>45017.45833333334</v>
       </c>
       <c r="F62" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="G62" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I62">
         <v>0</v>
       </c>
       <c r="J62" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K62">
+        <v>1.25</v>
+      </c>
+      <c r="L62">
+        <v>5</v>
+      </c>
+      <c r="M62">
+        <v>10</v>
+      </c>
+      <c r="N62">
+        <v>1.222</v>
+      </c>
+      <c r="O62">
+        <v>5.25</v>
+      </c>
+      <c r="P62">
+        <v>10</v>
+      </c>
+      <c r="Q62">
+        <v>-1.75</v>
+      </c>
+      <c r="R62">
+        <v>1.825</v>
+      </c>
+      <c r="S62">
+        <v>1.975</v>
+      </c>
+      <c r="T62">
         <v>2.75</v>
       </c>
-      <c r="L62">
-        <v>2.875</v>
-      </c>
-      <c r="M62">
-        <v>2.5</v>
-      </c>
-      <c r="N62">
-        <v>2.3</v>
-      </c>
-      <c r="O62">
-        <v>2.875</v>
-      </c>
-      <c r="P62">
-        <v>3</v>
-      </c>
-      <c r="Q62">
-        <v>-0.25</v>
-      </c>
-      <c r="R62">
-        <v>2.025</v>
-      </c>
-      <c r="S62">
-        <v>1.775</v>
-      </c>
-      <c r="T62">
-        <v>2</v>
-      </c>
       <c r="U62">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V62">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W62">
-        <v>-1</v>
+        <v>0.222</v>
       </c>
       <c r="X62">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Y62">
         <v>-1</v>
       </c>
       <c r="Z62">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AA62">
-        <v>0.3875</v>
+        <v>-1</v>
       </c>
       <c r="AB62">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC62">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="63" spans="1:29">
@@ -6063,7 +6063,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>5289415</v>
+        <v>5215844</v>
       </c>
       <c r="C63" t="s">
         <v>28</v>
@@ -6075,46 +6075,46 @@
         <v>45017.45833333334</v>
       </c>
       <c r="F63" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G63" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I63">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J63" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K63">
-        <v>2.05</v>
+        <v>2.75</v>
       </c>
       <c r="L63">
-        <v>2.9</v>
+        <v>2.875</v>
       </c>
       <c r="M63">
-        <v>3.4</v>
+        <v>2.5</v>
       </c>
       <c r="N63">
-        <v>2.05</v>
+        <v>2.3</v>
       </c>
       <c r="O63">
-        <v>2.75</v>
+        <v>2.875</v>
       </c>
       <c r="P63">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="Q63">
         <v>-0.25</v>
       </c>
       <c r="R63">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="S63">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="T63">
         <v>2</v>
@@ -6129,22 +6129,22 @@
         <v>-1</v>
       </c>
       <c r="X63">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Y63">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Z63">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA63">
-        <v>0.9750000000000001</v>
+        <v>0.3875</v>
       </c>
       <c r="AB63">
+        <v>-1</v>
+      </c>
+      <c r="AC63">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AC63">
-        <v>-1</v>
       </c>
     </row>
     <row r="64" spans="1:29">
@@ -6152,7 +6152,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>5215549</v>
+        <v>5289415</v>
       </c>
       <c r="C64" t="s">
         <v>28</v>
@@ -6164,40 +6164,40 @@
         <v>45017.45833333334</v>
       </c>
       <c r="F64" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G64" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H64">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I64">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J64" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K64">
-        <v>1.25</v>
+        <v>2.05</v>
       </c>
       <c r="L64">
-        <v>5</v>
+        <v>2.9</v>
       </c>
       <c r="M64">
-        <v>10</v>
+        <v>3.4</v>
       </c>
       <c r="N64">
-        <v>1.222</v>
+        <v>2.05</v>
       </c>
       <c r="O64">
-        <v>5.25</v>
+        <v>2.75</v>
       </c>
       <c r="P64">
-        <v>10</v>
+        <v>3.75</v>
       </c>
       <c r="Q64">
-        <v>-1.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R64">
         <v>1.825</v>
@@ -6206,31 +6206,31 @@
         <v>1.975</v>
       </c>
       <c r="T64">
+        <v>2</v>
+      </c>
+      <c r="U64">
+        <v>1.9</v>
+      </c>
+      <c r="V64">
+        <v>1.9</v>
+      </c>
+      <c r="W64">
+        <v>-1</v>
+      </c>
+      <c r="X64">
+        <v>-1</v>
+      </c>
+      <c r="Y64">
         <v>2.75</v>
       </c>
-      <c r="U64">
-        <v>1.8</v>
-      </c>
-      <c r="V64">
-        <v>2</v>
-      </c>
-      <c r="W64">
-        <v>0.222</v>
-      </c>
-      <c r="X64">
-        <v>-1</v>
-      </c>
-      <c r="Y64">
-        <v>-1</v>
-      </c>
       <c r="Z64">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA64">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB64">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC64">
         <v>-1</v>
@@ -9623,7 +9623,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>6552990</v>
+        <v>6552991</v>
       </c>
       <c r="C103" t="s">
         <v>28</v>
@@ -9635,70 +9635,70 @@
         <v>45042.45833333334</v>
       </c>
       <c r="F103" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G103" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H103">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I103">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J103" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K103">
-        <v>2.4</v>
+        <v>1.85</v>
       </c>
       <c r="L103">
         <v>3</v>
       </c>
       <c r="M103">
+        <v>4.2</v>
+      </c>
+      <c r="N103">
+        <v>2.6</v>
+      </c>
+      <c r="O103">
         <v>2.8</v>
       </c>
-      <c r="N103">
-        <v>2.55</v>
-      </c>
-      <c r="O103">
+      <c r="P103">
         <v>2.7</v>
       </c>
-      <c r="P103">
-        <v>2.8</v>
-      </c>
       <c r="Q103">
         <v>0</v>
       </c>
       <c r="R103">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="S103">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="T103">
         <v>2</v>
       </c>
       <c r="U103">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V103">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W103">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="X103">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Y103">
         <v>-1</v>
       </c>
       <c r="Z103">
-        <v>0.7749999999999999</v>
+        <v>0</v>
       </c>
       <c r="AA103">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB103">
         <v>0</v>
@@ -9712,7 +9712,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>6552991</v>
+        <v>6552990</v>
       </c>
       <c r="C104" t="s">
         <v>28</v>
@@ -9724,70 +9724,70 @@
         <v>45042.45833333334</v>
       </c>
       <c r="F104" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G104" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H104">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I104">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J104" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K104">
-        <v>1.85</v>
+        <v>2.4</v>
       </c>
       <c r="L104">
         <v>3</v>
       </c>
       <c r="M104">
-        <v>4.2</v>
+        <v>2.8</v>
       </c>
       <c r="N104">
-        <v>2.6</v>
+        <v>2.55</v>
       </c>
       <c r="O104">
+        <v>2.7</v>
+      </c>
+      <c r="P104">
         <v>2.8</v>
       </c>
-      <c r="P104">
-        <v>2.7</v>
-      </c>
       <c r="Q104">
         <v>0</v>
       </c>
       <c r="R104">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="S104">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="T104">
         <v>2</v>
       </c>
       <c r="U104">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V104">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W104">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="X104">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Y104">
         <v>-1</v>
       </c>
       <c r="Z104">
-        <v>0</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA104">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB104">
         <v>0</v>
@@ -10780,7 +10780,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>6553524</v>
+        <v>6553515</v>
       </c>
       <c r="C116" t="s">
         <v>28</v>
@@ -10792,13 +10792,13 @@
         <v>45052.5</v>
       </c>
       <c r="F116" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="G116" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H116">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I116">
         <v>0</v>
@@ -10807,43 +10807,43 @@
         <v>51</v>
       </c>
       <c r="K116">
-        <v>2.45</v>
+        <v>2</v>
       </c>
       <c r="L116">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="M116">
-        <v>2.55</v>
+        <v>3.6</v>
       </c>
       <c r="N116">
-        <v>2.9</v>
+        <v>1.85</v>
       </c>
       <c r="O116">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="P116">
-        <v>2.15</v>
+        <v>4</v>
       </c>
       <c r="Q116">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R116">
+        <v>1.925</v>
+      </c>
+      <c r="S116">
+        <v>1.875</v>
+      </c>
+      <c r="T116">
+        <v>2.25</v>
+      </c>
+      <c r="U116">
         <v>1.85</v>
       </c>
-      <c r="S116">
+      <c r="V116">
         <v>1.95</v>
       </c>
-      <c r="T116">
-        <v>2.5</v>
-      </c>
-      <c r="U116">
-        <v>1.925</v>
-      </c>
-      <c r="V116">
-        <v>1.875</v>
-      </c>
       <c r="W116">
-        <v>1.9</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X116">
         <v>-1</v>
@@ -10852,16 +10852,16 @@
         <v>-1</v>
       </c>
       <c r="Z116">
+        <v>0.925</v>
+      </c>
+      <c r="AA116">
+        <v>-1</v>
+      </c>
+      <c r="AB116">
         <v>0.8500000000000001</v>
       </c>
-      <c r="AA116">
-        <v>-1</v>
-      </c>
-      <c r="AB116">
-        <v>-1</v>
-      </c>
       <c r="AC116">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="117" spans="1:29">
@@ -10869,7 +10869,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>6553515</v>
+        <v>6553006</v>
       </c>
       <c r="C117" t="s">
         <v>28</v>
@@ -10881,73 +10881,73 @@
         <v>45052.5</v>
       </c>
       <c r="F117" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="G117" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H117">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I117">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J117" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K117">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="L117">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="M117">
         <v>3.6</v>
       </c>
       <c r="N117">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="O117">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="P117">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="Q117">
         <v>-0.5</v>
       </c>
       <c r="R117">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="S117">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="T117">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U117">
+        <v>1.95</v>
+      </c>
+      <c r="V117">
         <v>1.85</v>
       </c>
-      <c r="V117">
-        <v>1.95</v>
-      </c>
       <c r="W117">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X117">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y117">
         <v>-1</v>
       </c>
       <c r="Z117">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA117">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB117">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AC117">
         <v>-1</v>
@@ -10958,7 +10958,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>6553006</v>
+        <v>6552994</v>
       </c>
       <c r="C118" t="s">
         <v>28</v>
@@ -10970,61 +10970,61 @@
         <v>45052.5</v>
       </c>
       <c r="F118" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G118" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="H118">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I118">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J118" t="s">
         <v>53</v>
       </c>
       <c r="K118">
+        <v>1.65</v>
+      </c>
+      <c r="L118">
+        <v>3.6</v>
+      </c>
+      <c r="M118">
+        <v>4.5</v>
+      </c>
+      <c r="N118">
+        <v>1.615</v>
+      </c>
+      <c r="O118">
+        <v>3.6</v>
+      </c>
+      <c r="P118">
+        <v>4.75</v>
+      </c>
+      <c r="Q118">
+        <v>-1</v>
+      </c>
+      <c r="R118">
         <v>2.05</v>
       </c>
-      <c r="L118">
-        <v>2.9</v>
-      </c>
-      <c r="M118">
-        <v>3.6</v>
-      </c>
-      <c r="N118">
-        <v>1.95</v>
-      </c>
-      <c r="O118">
-        <v>3</v>
-      </c>
-      <c r="P118">
-        <v>3.8</v>
-      </c>
-      <c r="Q118">
-        <v>-0.5</v>
-      </c>
-      <c r="R118">
-        <v>2.025</v>
-      </c>
       <c r="S118">
-        <v>1.775</v>
+        <v>1.75</v>
       </c>
       <c r="T118">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U118">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V118">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W118">
         <v>-1</v>
       </c>
       <c r="X118">
-        <v>2</v>
+        <v>2.6</v>
       </c>
       <c r="Y118">
         <v>-1</v>
@@ -11033,13 +11033,13 @@
         <v>-1</v>
       </c>
       <c r="AA118">
-        <v>0.7749999999999999</v>
+        <v>0.75</v>
       </c>
       <c r="AB118">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC118">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="119" spans="1:29">
@@ -11047,7 +11047,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>6552994</v>
+        <v>6553524</v>
       </c>
       <c r="C119" t="s">
         <v>28</v>
@@ -11059,46 +11059,46 @@
         <v>45052.5</v>
       </c>
       <c r="F119" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G119" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="H119">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I119">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J119" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K119">
-        <v>1.65</v>
+        <v>2.45</v>
       </c>
       <c r="L119">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="M119">
-        <v>4.5</v>
+        <v>2.55</v>
       </c>
       <c r="N119">
-        <v>1.615</v>
+        <v>2.9</v>
       </c>
       <c r="O119">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="P119">
-        <v>4.75</v>
+        <v>2.15</v>
       </c>
       <c r="Q119">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R119">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="S119">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="T119">
         <v>2.5</v>
@@ -11110,19 +11110,19 @@
         <v>1.875</v>
       </c>
       <c r="W119">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="X119">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y119">
         <v>-1</v>
       </c>
       <c r="Z119">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA119">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AB119">
         <v>-1</v>
@@ -12738,7 +12738,7 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>6989315</v>
+        <v>6989598</v>
       </c>
       <c r="C138" t="s">
         <v>28</v>
@@ -12750,16 +12750,16 @@
         <v>45150.52083333334</v>
       </c>
       <c r="F138" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="G138" t="s">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="H138">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I138">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J138" t="s">
         <v>53</v>
@@ -12777,7 +12777,7 @@
         <v>1.909</v>
       </c>
       <c r="O138">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="P138">
         <v>3.6</v>
@@ -12792,19 +12792,19 @@
         <v>1.825</v>
       </c>
       <c r="T138">
+        <v>2</v>
+      </c>
+      <c r="U138">
+        <v>1.775</v>
+      </c>
+      <c r="V138">
+        <v>2.025</v>
+      </c>
+      <c r="W138">
+        <v>-1</v>
+      </c>
+      <c r="X138">
         <v>2.25</v>
-      </c>
-      <c r="U138">
-        <v>1.825</v>
-      </c>
-      <c r="V138">
-        <v>1.975</v>
-      </c>
-      <c r="W138">
-        <v>-1</v>
-      </c>
-      <c r="X138">
-        <v>2.2</v>
       </c>
       <c r="Y138">
         <v>-1</v>
@@ -12816,10 +12816,10 @@
         <v>0.825</v>
       </c>
       <c r="AB138">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC138">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="139" spans="1:29">
@@ -12827,7 +12827,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>6989598</v>
+        <v>6989662</v>
       </c>
       <c r="C139" t="s">
         <v>28</v>
@@ -12839,76 +12839,76 @@
         <v>45150.52083333334</v>
       </c>
       <c r="F139" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="G139" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H139">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I139">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J139" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K139">
-        <v>1.909</v>
+        <v>2.5</v>
       </c>
       <c r="L139">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="M139">
-        <v>3.6</v>
+        <v>2.625</v>
       </c>
       <c r="N139">
-        <v>1.909</v>
+        <v>2</v>
       </c>
       <c r="O139">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="P139">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="Q139">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R139">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S139">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T139">
         <v>2</v>
       </c>
       <c r="U139">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="V139">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="W139">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X139">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y139">
         <v>-1</v>
       </c>
       <c r="Z139">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA139">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB139">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC139">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="140" spans="1:29">
@@ -12916,7 +12916,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>6989662</v>
+        <v>6989663</v>
       </c>
       <c r="C140" t="s">
         <v>28</v>
@@ -12928,76 +12928,76 @@
         <v>45150.52083333334</v>
       </c>
       <c r="F140" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G140" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="H140">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I140">
         <v>1</v>
       </c>
       <c r="J140" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K140">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="L140">
         <v>3</v>
       </c>
       <c r="M140">
-        <v>2.625</v>
+        <v>3</v>
       </c>
       <c r="N140">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="O140">
-        <v>3</v>
+        <v>2.875</v>
       </c>
       <c r="P140">
-        <v>3.4</v>
+        <v>2.9</v>
       </c>
       <c r="Q140">
         <v>-0.25</v>
       </c>
       <c r="R140">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="S140">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="T140">
         <v>2</v>
       </c>
       <c r="U140">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V140">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W140">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X140">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Y140">
         <v>-1</v>
       </c>
       <c r="Z140">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AA140">
-        <v>-1</v>
+        <v>0.35</v>
       </c>
       <c r="AB140">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AC140">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="141" spans="1:29">
@@ -13005,7 +13005,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>6989663</v>
+        <v>6989315</v>
       </c>
       <c r="C141" t="s">
         <v>28</v>
@@ -13017,76 +13017,76 @@
         <v>45150.52083333334</v>
       </c>
       <c r="F141" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="G141" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="H141">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I141">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J141" t="s">
         <v>53</v>
       </c>
       <c r="K141">
+        <v>1.909</v>
+      </c>
+      <c r="L141">
+        <v>3.2</v>
+      </c>
+      <c r="M141">
+        <v>3.6</v>
+      </c>
+      <c r="N141">
+        <v>1.909</v>
+      </c>
+      <c r="O141">
+        <v>3.2</v>
+      </c>
+      <c r="P141">
+        <v>3.6</v>
+      </c>
+      <c r="Q141">
+        <v>-0.5</v>
+      </c>
+      <c r="R141">
+        <v>1.975</v>
+      </c>
+      <c r="S141">
+        <v>1.825</v>
+      </c>
+      <c r="T141">
         <v>2.25</v>
       </c>
-      <c r="L141">
-        <v>3</v>
-      </c>
-      <c r="M141">
-        <v>3</v>
-      </c>
-      <c r="N141">
-        <v>2.4</v>
-      </c>
-      <c r="O141">
-        <v>2.875</v>
-      </c>
-      <c r="P141">
-        <v>2.9</v>
-      </c>
-      <c r="Q141">
-        <v>-0.25</v>
-      </c>
-      <c r="R141">
-        <v>2</v>
-      </c>
-      <c r="S141">
-        <v>1.7</v>
-      </c>
-      <c r="T141">
-        <v>2</v>
-      </c>
       <c r="U141">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V141">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W141">
         <v>-1</v>
       </c>
       <c r="X141">
-        <v>1.875</v>
+        <v>2.2</v>
       </c>
       <c r="Y141">
         <v>-1</v>
       </c>
       <c r="Z141">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA141">
-        <v>0.35</v>
+        <v>0.825</v>
       </c>
       <c r="AB141">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AC141">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="142" spans="1:29">
@@ -14073,7 +14073,7 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>7121257</v>
+        <v>7121256</v>
       </c>
       <c r="C153" t="s">
         <v>28</v>
@@ -14085,16 +14085,16 @@
         <v>45164.5</v>
       </c>
       <c r="F153" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G153" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="H153">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I153">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J153" t="s">
         <v>53</v>
@@ -14103,37 +14103,37 @@
         <v>1.833</v>
       </c>
       <c r="L153">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="M153">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="N153">
-        <v>2.15</v>
+        <v>1.833</v>
       </c>
       <c r="O153">
         <v>3.1</v>
       </c>
       <c r="P153">
-        <v>3.1</v>
+        <v>4.333</v>
       </c>
       <c r="Q153">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R153">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="S153">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T153">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U153">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V153">
-        <v>1.725</v>
+        <v>1.95</v>
       </c>
       <c r="W153">
         <v>-1</v>
@@ -14145,16 +14145,16 @@
         <v>-1</v>
       </c>
       <c r="Z153">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA153">
-        <v>0.4375</v>
+        <v>0.95</v>
       </c>
       <c r="AB153">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC153">
-        <v>0.7250000000000001</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="154" spans="1:29">
@@ -14162,7 +14162,7 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>7121256</v>
+        <v>7121257</v>
       </c>
       <c r="C154" t="s">
         <v>28</v>
@@ -14174,16 +14174,16 @@
         <v>45164.5</v>
       </c>
       <c r="F154" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="G154" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="H154">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I154">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J154" t="s">
         <v>53</v>
@@ -14192,37 +14192,37 @@
         <v>1.833</v>
       </c>
       <c r="L154">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="M154">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="N154">
-        <v>1.833</v>
+        <v>2.15</v>
       </c>
       <c r="O154">
         <v>3.1</v>
       </c>
       <c r="P154">
-        <v>4.333</v>
+        <v>3.1</v>
       </c>
       <c r="Q154">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R154">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S154">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="T154">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U154">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V154">
-        <v>1.95</v>
+        <v>1.725</v>
       </c>
       <c r="W154">
         <v>-1</v>
@@ -14234,16 +14234,16 @@
         <v>-1</v>
       </c>
       <c r="Z154">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA154">
-        <v>0.95</v>
+        <v>0.4375</v>
       </c>
       <c r="AB154">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC154">
-        <v>-0</v>
+        <v>0.7250000000000001</v>
       </c>
     </row>
     <row r="155" spans="1:29">
@@ -15853,7 +15853,7 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>6989319</v>
+        <v>6989505</v>
       </c>
       <c r="C173" t="s">
         <v>28</v>
@@ -15865,58 +15865,58 @@
         <v>45179.47916666666</v>
       </c>
       <c r="F173" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G173" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="H173">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I173">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J173" t="s">
         <v>51</v>
       </c>
       <c r="K173">
-        <v>2.2</v>
+        <v>1.222</v>
       </c>
       <c r="L173">
-        <v>3.1</v>
+        <v>5</v>
       </c>
       <c r="M173">
+        <v>10</v>
+      </c>
+      <c r="N173">
+        <v>1.2</v>
+      </c>
+      <c r="O173">
+        <v>5.25</v>
+      </c>
+      <c r="P173">
+        <v>12</v>
+      </c>
+      <c r="Q173">
+        <v>-2</v>
+      </c>
+      <c r="R173">
+        <v>1.9</v>
+      </c>
+      <c r="S173">
+        <v>1.9</v>
+      </c>
+      <c r="T173">
         <v>3</v>
       </c>
-      <c r="N173">
-        <v>1.833</v>
-      </c>
-      <c r="O173">
-        <v>3.3</v>
-      </c>
-      <c r="P173">
-        <v>4</v>
-      </c>
-      <c r="Q173">
-        <v>-0.5</v>
-      </c>
-      <c r="R173">
-        <v>1.85</v>
-      </c>
-      <c r="S173">
-        <v>1.95</v>
-      </c>
-      <c r="T173">
-        <v>2</v>
-      </c>
       <c r="U173">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V173">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W173">
-        <v>0.833</v>
+        <v>0.2</v>
       </c>
       <c r="X173">
         <v>-1</v>
@@ -15925,16 +15925,16 @@
         <v>-1</v>
       </c>
       <c r="Z173">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA173">
         <v>-1</v>
       </c>
       <c r="AB173">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC173">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="174" spans="1:29">
@@ -16031,7 +16031,7 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>6989505</v>
+        <v>6989319</v>
       </c>
       <c r="C175" t="s">
         <v>28</v>
@@ -16043,58 +16043,58 @@
         <v>45179.47916666666</v>
       </c>
       <c r="F175" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G175" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="H175">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I175">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J175" t="s">
         <v>51</v>
       </c>
       <c r="K175">
-        <v>1.222</v>
+        <v>2.2</v>
       </c>
       <c r="L175">
-        <v>5</v>
+        <v>3.1</v>
       </c>
       <c r="M175">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="N175">
-        <v>1.2</v>
+        <v>1.833</v>
       </c>
       <c r="O175">
-        <v>5.25</v>
+        <v>3.3</v>
       </c>
       <c r="P175">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="Q175">
-        <v>-2</v>
+        <v>-0.5</v>
       </c>
       <c r="R175">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S175">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T175">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U175">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V175">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W175">
-        <v>0.2</v>
+        <v>0.833</v>
       </c>
       <c r="X175">
         <v>-1</v>
@@ -16103,16 +16103,16 @@
         <v>-1</v>
       </c>
       <c r="Z175">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA175">
         <v>-1</v>
       </c>
       <c r="AB175">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC175">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="176" spans="1:29">
@@ -17722,7 +17722,7 @@
         <v>192</v>
       </c>
       <c r="B194">
-        <v>6989614</v>
+        <v>6989512</v>
       </c>
       <c r="C194" t="s">
         <v>28</v>
@@ -17734,40 +17734,40 @@
         <v>45200.41666666666</v>
       </c>
       <c r="F194" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="G194" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H194">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I194">
         <v>1</v>
       </c>
       <c r="J194" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K194">
-        <v>2.1</v>
+        <v>1.666</v>
       </c>
       <c r="L194">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="M194">
-        <v>3</v>
+        <v>4.75</v>
       </c>
       <c r="N194">
-        <v>2.2</v>
+        <v>1.5</v>
       </c>
       <c r="O194">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="P194">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="Q194">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R194">
         <v>1.975</v>
@@ -17779,31 +17779,31 @@
         <v>2.25</v>
       </c>
       <c r="U194">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="V194">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="W194">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X194">
         <v>-1</v>
       </c>
       <c r="Y194">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="Z194">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA194">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB194">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC194">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="195" spans="1:29">
@@ -17811,7 +17811,7 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>6989512</v>
+        <v>6989614</v>
       </c>
       <c r="C195" t="s">
         <v>28</v>
@@ -17823,40 +17823,40 @@
         <v>45200.41666666666</v>
       </c>
       <c r="F195" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="G195" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H195">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I195">
         <v>1</v>
       </c>
       <c r="J195" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K195">
-        <v>1.666</v>
+        <v>2.1</v>
       </c>
       <c r="L195">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="M195">
-        <v>4.75</v>
+        <v>3</v>
       </c>
       <c r="N195">
-        <v>1.5</v>
+        <v>2.2</v>
       </c>
       <c r="O195">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="P195">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="Q195">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R195">
         <v>1.975</v>
@@ -17868,31 +17868,31 @@
         <v>2.25</v>
       </c>
       <c r="U195">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="V195">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="W195">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X195">
         <v>-1</v>
       </c>
       <c r="Y195">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="Z195">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA195">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB195">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC195">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="196" spans="1:29">
@@ -17900,7 +17900,7 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>6989511</v>
+        <v>6989680</v>
       </c>
       <c r="C196" t="s">
         <v>28</v>
@@ -17912,10 +17912,10 @@
         <v>45200.41666666666</v>
       </c>
       <c r="F196" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="G196" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="H196">
         <v>1</v>
@@ -17927,43 +17927,43 @@
         <v>51</v>
       </c>
       <c r="K196">
-        <v>1.571</v>
+        <v>2</v>
       </c>
       <c r="L196">
+        <v>3</v>
+      </c>
+      <c r="M196">
         <v>3.6</v>
       </c>
-      <c r="M196">
-        <v>5</v>
-      </c>
       <c r="N196">
-        <v>1.333</v>
+        <v>1.95</v>
       </c>
       <c r="O196">
-        <v>4.2</v>
+        <v>3</v>
       </c>
       <c r="P196">
-        <v>7.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q196">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R196">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="S196">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="T196">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U196">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V196">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="W196">
-        <v>0.333</v>
+        <v>0.95</v>
       </c>
       <c r="X196">
         <v>-1</v>
@@ -17972,16 +17972,16 @@
         <v>-1</v>
       </c>
       <c r="Z196">
-        <v>-0.5</v>
+        <v>1.025</v>
       </c>
       <c r="AA196">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AB196">
         <v>-1</v>
       </c>
       <c r="AC196">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="197" spans="1:29">
@@ -17989,7 +17989,7 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>6989680</v>
+        <v>6989511</v>
       </c>
       <c r="C197" t="s">
         <v>28</v>
@@ -18001,10 +18001,10 @@
         <v>45200.41666666666</v>
       </c>
       <c r="F197" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="G197" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="H197">
         <v>1</v>
@@ -18016,61 +18016,61 @@
         <v>51</v>
       </c>
       <c r="K197">
-        <v>2</v>
+        <v>1.571</v>
       </c>
       <c r="L197">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="M197">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="N197">
-        <v>1.95</v>
+        <v>1.333</v>
       </c>
       <c r="O197">
-        <v>3</v>
+        <v>4.2</v>
       </c>
       <c r="P197">
-        <v>3.75</v>
+        <v>7.5</v>
       </c>
       <c r="Q197">
+        <v>-1.25</v>
+      </c>
+      <c r="R197">
+        <v>1.9</v>
+      </c>
+      <c r="S197">
+        <v>1.9</v>
+      </c>
+      <c r="T197">
+        <v>2.5</v>
+      </c>
+      <c r="U197">
+        <v>1.925</v>
+      </c>
+      <c r="V197">
+        <v>1.875</v>
+      </c>
+      <c r="W197">
+        <v>0.333</v>
+      </c>
+      <c r="X197">
+        <v>-1</v>
+      </c>
+      <c r="Y197">
+        <v>-1</v>
+      </c>
+      <c r="Z197">
         <v>-0.5</v>
       </c>
-      <c r="R197">
-        <v>2.025</v>
-      </c>
-      <c r="S197">
-        <v>1.775</v>
-      </c>
-      <c r="T197">
-        <v>2</v>
-      </c>
-      <c r="U197">
-        <v>1.825</v>
-      </c>
-      <c r="V197">
-        <v>1.975</v>
-      </c>
-      <c r="W197">
-        <v>0.95</v>
-      </c>
-      <c r="X197">
-        <v>-1</v>
-      </c>
-      <c r="Y197">
-        <v>-1</v>
-      </c>
-      <c r="Z197">
-        <v>1.025</v>
-      </c>
       <c r="AA197">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AB197">
         <v>-1</v>
       </c>
       <c r="AC197">
-        <v>0.9750000000000001</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="198" spans="1:29">
@@ -20659,7 +20659,7 @@
         <v>225</v>
       </c>
       <c r="B227">
-        <v>6989689</v>
+        <v>7018997</v>
       </c>
       <c r="C227" t="s">
         <v>28</v>
@@ -20671,10 +20671,10 @@
         <v>45227.375</v>
       </c>
       <c r="F227" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G227" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="H227">
         <v>0</v>
@@ -20686,34 +20686,34 @@
         <v>53</v>
       </c>
       <c r="K227">
-        <v>2.1</v>
+        <v>2.6</v>
       </c>
       <c r="L227">
-        <v>2.875</v>
+        <v>3</v>
       </c>
       <c r="M227">
-        <v>3.4</v>
+        <v>2.5</v>
       </c>
       <c r="N227">
-        <v>2.05</v>
+        <v>2.4</v>
       </c>
       <c r="O227">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="P227">
-        <v>3.6</v>
+        <v>2.7</v>
       </c>
       <c r="Q227">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R227">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="S227">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="T227">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U227">
         <v>1.825</v>
@@ -20725,16 +20725,16 @@
         <v>-1</v>
       </c>
       <c r="X227">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="Y227">
         <v>-1</v>
       </c>
       <c r="Z227">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AA227">
-        <v>0.5</v>
+        <v>-0</v>
       </c>
       <c r="AB227">
         <v>-1</v>
@@ -20748,7 +20748,7 @@
         <v>226</v>
       </c>
       <c r="B228">
-        <v>6989688</v>
+        <v>6989689</v>
       </c>
       <c r="C228" t="s">
         <v>28</v>
@@ -20760,76 +20760,76 @@
         <v>45227.375</v>
       </c>
       <c r="F228" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="G228" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="H228">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I228">
         <v>0</v>
       </c>
       <c r="J228" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K228">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="L228">
-        <v>3</v>
+        <v>2.875</v>
       </c>
       <c r="M228">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="N228">
-        <v>1.909</v>
+        <v>2.05</v>
       </c>
       <c r="O228">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="P228">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="Q228">
+        <v>-0.25</v>
+      </c>
+      <c r="R228">
+        <v>1.8</v>
+      </c>
+      <c r="S228">
+        <v>2</v>
+      </c>
+      <c r="T228">
+        <v>1.75</v>
+      </c>
+      <c r="U228">
+        <v>1.825</v>
+      </c>
+      <c r="V228">
+        <v>1.975</v>
+      </c>
+      <c r="W228">
+        <v>-1</v>
+      </c>
+      <c r="X228">
+        <v>1.75</v>
+      </c>
+      <c r="Y228">
+        <v>-1</v>
+      </c>
+      <c r="Z228">
         <v>-0.5</v>
       </c>
-      <c r="R228">
-        <v>1.975</v>
-      </c>
-      <c r="S228">
-        <v>1.825</v>
-      </c>
-      <c r="T228">
-        <v>2</v>
-      </c>
-      <c r="U228">
-        <v>1.8</v>
-      </c>
-      <c r="V228">
-        <v>2</v>
-      </c>
-      <c r="W228">
-        <v>0.909</v>
-      </c>
-      <c r="X228">
-        <v>-1</v>
-      </c>
-      <c r="Y228">
-        <v>-1</v>
-      </c>
-      <c r="Z228">
+      <c r="AA228">
+        <v>0.5</v>
+      </c>
+      <c r="AB228">
+        <v>-1</v>
+      </c>
+      <c r="AC228">
         <v>0.9750000000000001</v>
-      </c>
-      <c r="AA228">
-        <v>-1</v>
-      </c>
-      <c r="AB228">
-        <v>0</v>
-      </c>
-      <c r="AC228">
-        <v>-0</v>
       </c>
     </row>
     <row r="229" spans="1:29">
@@ -20837,7 +20837,7 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>6989520</v>
+        <v>6989688</v>
       </c>
       <c r="C229" t="s">
         <v>28</v>
@@ -20849,49 +20849,49 @@
         <v>45227.375</v>
       </c>
       <c r="F229" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G229" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="H229">
         <v>2</v>
       </c>
       <c r="I229">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J229" t="s">
         <v>51</v>
       </c>
       <c r="K229">
-        <v>1.615</v>
+        <v>2</v>
       </c>
       <c r="L229">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="M229">
-        <v>4.333</v>
+        <v>3.5</v>
       </c>
       <c r="N229">
-        <v>1.55</v>
+        <v>1.909</v>
       </c>
       <c r="O229">
+        <v>3</v>
+      </c>
+      <c r="P229">
         <v>3.8</v>
       </c>
-      <c r="P229">
-        <v>4.75</v>
-      </c>
       <c r="Q229">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R229">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S229">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T229">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U229">
         <v>1.8</v>
@@ -20900,7 +20900,7 @@
         <v>2</v>
       </c>
       <c r="W229">
-        <v>0.55</v>
+        <v>0.909</v>
       </c>
       <c r="X229">
         <v>-1</v>
@@ -20909,16 +20909,16 @@
         <v>-1</v>
       </c>
       <c r="Z229">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA229">
+        <v>-1</v>
+      </c>
+      <c r="AB229">
+        <v>0</v>
+      </c>
+      <c r="AC229">
         <v>-0</v>
-      </c>
-      <c r="AB229">
-        <v>0.8</v>
-      </c>
-      <c r="AC229">
-        <v>-1</v>
       </c>
     </row>
     <row r="230" spans="1:29">
@@ -20926,7 +20926,7 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>6989519</v>
+        <v>6989520</v>
       </c>
       <c r="C230" t="s">
         <v>28</v>
@@ -20938,10 +20938,10 @@
         <v>45227.375</v>
       </c>
       <c r="F230" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G230" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="H230">
         <v>2</v>
@@ -20953,43 +20953,43 @@
         <v>51</v>
       </c>
       <c r="K230">
-        <v>1.571</v>
+        <v>1.615</v>
       </c>
       <c r="L230">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M230">
-        <v>5</v>
+        <v>4.333</v>
       </c>
       <c r="N230">
-        <v>1.533</v>
+        <v>1.55</v>
       </c>
       <c r="O230">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P230">
-        <v>5.25</v>
+        <v>4.75</v>
       </c>
       <c r="Q230">
         <v>-1</v>
       </c>
       <c r="R230">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S230">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T230">
         <v>2.25</v>
       </c>
       <c r="U230">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="V230">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W230">
-        <v>0.5329999999999999</v>
+        <v>0.55</v>
       </c>
       <c r="X230">
         <v>-1</v>
@@ -21004,7 +21004,7 @@
         <v>-0</v>
       </c>
       <c r="AB230">
-        <v>0.925</v>
+        <v>0.8</v>
       </c>
       <c r="AC230">
         <v>-1</v>
@@ -21015,7 +21015,7 @@
         <v>229</v>
       </c>
       <c r="B231">
-        <v>7018997</v>
+        <v>6989519</v>
       </c>
       <c r="C231" t="s">
         <v>28</v>
@@ -21027,61 +21027,61 @@
         <v>45227.375</v>
       </c>
       <c r="F231" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="G231" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="H231">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I231">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J231" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K231">
-        <v>2.6</v>
+        <v>1.571</v>
       </c>
       <c r="L231">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="M231">
-        <v>2.5</v>
+        <v>5</v>
       </c>
       <c r="N231">
-        <v>2.4</v>
+        <v>1.533</v>
       </c>
       <c r="O231">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="P231">
-        <v>2.7</v>
+        <v>5.25</v>
       </c>
       <c r="Q231">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R231">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="S231">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="T231">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U231">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V231">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="W231">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X231">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y231">
         <v>-1</v>
@@ -21093,10 +21093,10 @@
         <v>-0</v>
       </c>
       <c r="AB231">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC231">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="232" spans="1:29">
@@ -21638,7 +21638,7 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>6989521</v>
+        <v>6989691</v>
       </c>
       <c r="C238" t="s">
         <v>28</v>
@@ -21650,76 +21650,76 @@
         <v>45236.375</v>
       </c>
       <c r="F238" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="G238" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="H238">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I238">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J238" t="s">
         <v>53</v>
       </c>
       <c r="K238">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="L238">
         <v>3</v>
       </c>
       <c r="M238">
-        <v>2.75</v>
+        <v>3.6</v>
       </c>
       <c r="N238">
-        <v>2.875</v>
+        <v>1.95</v>
       </c>
       <c r="O238">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="P238">
-        <v>2.45</v>
+        <v>3.75</v>
       </c>
       <c r="Q238">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R238">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S238">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="T238">
         <v>2</v>
       </c>
       <c r="U238">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V238">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W238">
         <v>-1</v>
       </c>
       <c r="X238">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="Y238">
         <v>-1</v>
       </c>
       <c r="Z238">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA238">
-        <v>-0</v>
+        <v>0.8</v>
       </c>
       <c r="AB238">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC238">
-        <v>-0</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="239" spans="1:29">
@@ -21816,7 +21816,7 @@
         <v>238</v>
       </c>
       <c r="B240">
-        <v>6989691</v>
+        <v>6989521</v>
       </c>
       <c r="C240" t="s">
         <v>28</v>
@@ -21828,76 +21828,76 @@
         <v>45236.375</v>
       </c>
       <c r="F240" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="G240" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="H240">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I240">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J240" t="s">
         <v>53</v>
       </c>
       <c r="K240">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="L240">
         <v>3</v>
       </c>
       <c r="M240">
-        <v>3.6</v>
+        <v>2.75</v>
       </c>
       <c r="N240">
-        <v>1.95</v>
+        <v>2.875</v>
       </c>
       <c r="O240">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="P240">
-        <v>3.75</v>
+        <v>2.45</v>
       </c>
       <c r="Q240">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R240">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="S240">
+        <v>1.75</v>
+      </c>
+      <c r="T240">
+        <v>2</v>
+      </c>
+      <c r="U240">
         <v>1.8</v>
       </c>
-      <c r="T240">
-        <v>2</v>
-      </c>
-      <c r="U240">
-        <v>1.9</v>
-      </c>
       <c r="V240">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W240">
         <v>-1</v>
       </c>
       <c r="X240">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="Y240">
         <v>-1</v>
       </c>
       <c r="Z240">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA240">
-        <v>0.8</v>
+        <v>-0</v>
       </c>
       <c r="AB240">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC240">
-        <v>0.8999999999999999</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="241" spans="1:29">
@@ -23774,7 +23774,7 @@
         <v>260</v>
       </c>
       <c r="B262">
-        <v>6989526</v>
+        <v>6989630</v>
       </c>
       <c r="C262" t="s">
         <v>28</v>
@@ -23786,13 +23786,13 @@
         <v>45256.375</v>
       </c>
       <c r="F262" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="G262" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="H262">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I262">
         <v>0</v>
@@ -23801,43 +23801,43 @@
         <v>51</v>
       </c>
       <c r="K262">
-        <v>1.909</v>
+        <v>1.444</v>
       </c>
       <c r="L262">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="M262">
-        <v>4</v>
+        <v>6.5</v>
       </c>
       <c r="N262">
-        <v>2.1</v>
+        <v>1.533</v>
       </c>
       <c r="O262">
-        <v>2.9</v>
+        <v>3.8</v>
       </c>
       <c r="P262">
-        <v>3.5</v>
+        <v>6</v>
       </c>
       <c r="Q262">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R262">
-        <v>1.825</v>
+        <v>2.075</v>
       </c>
       <c r="S262">
-        <v>1.975</v>
+        <v>1.725</v>
       </c>
       <c r="T262">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U262">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V262">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W262">
-        <v>1.1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X262">
         <v>-1</v>
@@ -23846,16 +23846,16 @@
         <v>-1</v>
       </c>
       <c r="Z262">
-        <v>0.825</v>
+        <v>1.075</v>
       </c>
       <c r="AA262">
         <v>-1</v>
       </c>
       <c r="AB262">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC262">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="263" spans="1:29">
@@ -23863,7 +23863,7 @@
         <v>261</v>
       </c>
       <c r="B263">
-        <v>6989630</v>
+        <v>6989526</v>
       </c>
       <c r="C263" t="s">
         <v>28</v>
@@ -23875,13 +23875,13 @@
         <v>45256.375</v>
       </c>
       <c r="F263" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="G263" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="H263">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I263">
         <v>0</v>
@@ -23890,43 +23890,43 @@
         <v>51</v>
       </c>
       <c r="K263">
-        <v>1.444</v>
+        <v>1.909</v>
       </c>
       <c r="L263">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="M263">
-        <v>6.5</v>
+        <v>4</v>
       </c>
       <c r="N263">
-        <v>1.533</v>
+        <v>2.1</v>
       </c>
       <c r="O263">
-        <v>3.8</v>
+        <v>2.9</v>
       </c>
       <c r="P263">
-        <v>6</v>
+        <v>3.5</v>
       </c>
       <c r="Q263">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R263">
-        <v>2.075</v>
+        <v>1.825</v>
       </c>
       <c r="S263">
-        <v>1.725</v>
+        <v>1.975</v>
       </c>
       <c r="T263">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U263">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V263">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W263">
-        <v>0.5329999999999999</v>
+        <v>1.1</v>
       </c>
       <c r="X263">
         <v>-1</v>
@@ -23935,16 +23935,16 @@
         <v>-1</v>
       </c>
       <c r="Z263">
-        <v>1.075</v>
+        <v>0.825</v>
       </c>
       <c r="AA263">
         <v>-1</v>
       </c>
       <c r="AB263">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AC263">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="264" spans="1:29">
@@ -24041,7 +24041,7 @@
         <v>263</v>
       </c>
       <c r="B265">
-        <v>6989527</v>
+        <v>6989629</v>
       </c>
       <c r="C265" t="s">
         <v>28</v>
@@ -24053,58 +24053,58 @@
         <v>45256.375</v>
       </c>
       <c r="F265" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="G265" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H265">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I265">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J265" t="s">
         <v>51</v>
       </c>
       <c r="K265">
-        <v>1.727</v>
+        <v>2.1</v>
       </c>
       <c r="L265">
-        <v>3.3</v>
+        <v>2.875</v>
       </c>
       <c r="M265">
-        <v>4.333</v>
+        <v>3.5</v>
       </c>
       <c r="N265">
-        <v>1.444</v>
+        <v>1.75</v>
       </c>
       <c r="O265">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="P265">
-        <v>7</v>
+        <v>4.75</v>
       </c>
       <c r="Q265">
-        <v>-1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R265">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S265">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="T265">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="U265">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="V265">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="W265">
-        <v>0.444</v>
+        <v>0.75</v>
       </c>
       <c r="X265">
         <v>-1</v>
@@ -24113,16 +24113,16 @@
         <v>-1</v>
       </c>
       <c r="Z265">
-        <v>0.9750000000000001</v>
+        <v>0.475</v>
       </c>
       <c r="AA265">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB265">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC265">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="266" spans="1:29">
@@ -24130,7 +24130,7 @@
         <v>264</v>
       </c>
       <c r="B266">
-        <v>6989629</v>
+        <v>6989527</v>
       </c>
       <c r="C266" t="s">
         <v>28</v>
@@ -24142,58 +24142,58 @@
         <v>45256.375</v>
       </c>
       <c r="F266" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="G266" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H266">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I266">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J266" t="s">
         <v>51</v>
       </c>
       <c r="K266">
-        <v>2.1</v>
+        <v>1.727</v>
       </c>
       <c r="L266">
-        <v>2.875</v>
+        <v>3.3</v>
       </c>
       <c r="M266">
-        <v>3.5</v>
+        <v>4.333</v>
       </c>
       <c r="N266">
-        <v>1.75</v>
+        <v>1.444</v>
       </c>
       <c r="O266">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="P266">
-        <v>4.75</v>
+        <v>7</v>
       </c>
       <c r="Q266">
-        <v>-0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R266">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S266">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="T266">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="U266">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="V266">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="W266">
-        <v>0.75</v>
+        <v>0.444</v>
       </c>
       <c r="X266">
         <v>-1</v>
@@ -24202,16 +24202,16 @@
         <v>-1</v>
       </c>
       <c r="Z266">
-        <v>0.475</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA266">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB266">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC266">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="267" spans="1:29">
@@ -25821,7 +25821,7 @@
         <v>283</v>
       </c>
       <c r="B285">
-        <v>6989530</v>
+        <v>6989531</v>
       </c>
       <c r="C285" t="s">
         <v>28</v>
@@ -25833,49 +25833,49 @@
         <v>45271.375</v>
       </c>
       <c r="F285" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="G285" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="H285">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I285">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J285" t="s">
         <v>51</v>
       </c>
       <c r="K285">
-        <v>1.666</v>
+        <v>1.571</v>
       </c>
       <c r="L285">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M285">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="N285">
         <v>1.444</v>
       </c>
       <c r="O285">
-        <v>4.333</v>
+        <v>4.2</v>
       </c>
       <c r="P285">
-        <v>5.25</v>
+        <v>5.75</v>
       </c>
       <c r="Q285">
-        <v>-1</v>
+        <v>-1.25</v>
       </c>
       <c r="R285">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="S285">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T285">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U285">
         <v>1.85</v>
@@ -25893,16 +25893,16 @@
         <v>-1</v>
       </c>
       <c r="Z285">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AA285">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AB285">
-        <v>0.8500000000000001</v>
+        <v>0.425</v>
       </c>
       <c r="AC285">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="286" spans="1:29">
@@ -25910,7 +25910,7 @@
         <v>284</v>
       </c>
       <c r="B286">
-        <v>6989531</v>
+        <v>6989530</v>
       </c>
       <c r="C286" t="s">
         <v>28</v>
@@ -25922,49 +25922,49 @@
         <v>45271.375</v>
       </c>
       <c r="F286" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="G286" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="H286">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I286">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J286" t="s">
         <v>51</v>
       </c>
       <c r="K286">
-        <v>1.571</v>
+        <v>1.666</v>
       </c>
       <c r="L286">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M286">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="N286">
         <v>1.444</v>
       </c>
       <c r="O286">
-        <v>4.2</v>
+        <v>4.333</v>
       </c>
       <c r="P286">
-        <v>5.75</v>
+        <v>5.25</v>
       </c>
       <c r="Q286">
-        <v>-1.25</v>
+        <v>-1</v>
       </c>
       <c r="R286">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="S286">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T286">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U286">
         <v>1.85</v>
@@ -25982,16 +25982,16 @@
         <v>-1</v>
       </c>
       <c r="Z286">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AA286">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AB286">
-        <v>0.425</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC286">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="287" spans="1:29">

--- a/Serbia Prva Liga/Serbia Prva Liga.xlsx
+++ b/Serbia Prva Liga/Serbia Prva Liga.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1463" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1471" uniqueCount="54">
   <si>
     <t>id</t>
   </si>
@@ -106,22 +106,22 @@
     <t>OFK Vrsac</t>
   </si>
   <si>
+    <t>Sloboda Uzice</t>
+  </si>
+  <si>
     <t>FK Graficar Beograd</t>
   </si>
   <si>
     <t>Jedinstvo UB</t>
   </si>
   <si>
-    <t>Sloboda Uzice</t>
-  </si>
-  <si>
     <t>FK Indija</t>
   </si>
   <si>
-    <t>Metalac Gornji</t>
+    <t>FK Radnicki Beograd</t>
   </si>
   <si>
-    <t>FK Radnicki Beograd</t>
+    <t>Metalac Gornji</t>
   </si>
   <si>
     <t>FK Trayal Krusevac</t>
@@ -537,7 +537,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC288"/>
+  <dimension ref="A1:AC290"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -723,7 +723,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>5215878</v>
+        <v>5215535</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -738,37 +738,37 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J3" t="s">
         <v>52</v>
       </c>
       <c r="K3">
-        <v>2.2</v>
+        <v>5</v>
       </c>
       <c r="L3">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M3">
-        <v>3</v>
+        <v>1.65</v>
       </c>
       <c r="N3">
-        <v>2.7</v>
+        <v>4.75</v>
       </c>
       <c r="O3">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="P3">
-        <v>2.45</v>
+        <v>1.75</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R3">
         <v>2</v>
@@ -777,13 +777,13 @@
         <v>1.8</v>
       </c>
       <c r="T3">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U3">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V3">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W3">
         <v>-1</v>
@@ -792,7 +792,7 @@
         <v>-1</v>
       </c>
       <c r="Y3">
-        <v>1.45</v>
+        <v>0.75</v>
       </c>
       <c r="Z3">
         <v>-1</v>
@@ -801,10 +801,10 @@
         <v>0.8</v>
       </c>
       <c r="AB3">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC3">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="4" spans="1:29">
@@ -812,7 +812,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>5215829</v>
+        <v>5215878</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -827,73 +827,73 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K4">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="L4">
-        <v>2.875</v>
+        <v>3.1</v>
       </c>
       <c r="M4">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="N4">
-        <v>1.65</v>
+        <v>2.7</v>
       </c>
       <c r="O4">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="P4">
-        <v>5.25</v>
+        <v>2.45</v>
       </c>
       <c r="Q4">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R4">
+        <v>2</v>
+      </c>
+      <c r="S4">
+        <v>1.8</v>
+      </c>
+      <c r="T4">
+        <v>2.5</v>
+      </c>
+      <c r="U4">
         <v>1.9</v>
       </c>
-      <c r="S4">
+      <c r="V4">
         <v>1.9</v>
       </c>
-      <c r="T4">
-        <v>2.25</v>
-      </c>
-      <c r="U4">
-        <v>1.975</v>
-      </c>
-      <c r="V4">
-        <v>1.725</v>
-      </c>
       <c r="W4">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X4">
         <v>-1</v>
       </c>
       <c r="Y4">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="Z4">
+        <v>-1</v>
+      </c>
+      <c r="AA4">
+        <v>0.8</v>
+      </c>
+      <c r="AB4">
+        <v>-1</v>
+      </c>
+      <c r="AC4">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AA4">
-        <v>-1</v>
-      </c>
-      <c r="AB4">
-        <v>-0.5</v>
-      </c>
-      <c r="AC4">
-        <v>0.3625</v>
       </c>
     </row>
     <row r="5" spans="1:29">
@@ -901,7 +901,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>5215535</v>
+        <v>5215829</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -916,73 +916,73 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K5">
-        <v>5</v>
+        <v>2.05</v>
       </c>
       <c r="L5">
-        <v>3.2</v>
+        <v>2.875</v>
       </c>
       <c r="M5">
+        <v>3.6</v>
+      </c>
+      <c r="N5">
         <v>1.65</v>
-      </c>
-      <c r="N5">
-        <v>4.75</v>
       </c>
       <c r="O5">
         <v>3.2</v>
       </c>
       <c r="P5">
-        <v>1.75</v>
+        <v>5.25</v>
       </c>
       <c r="Q5">
-        <v>0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R5">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S5">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T5">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U5">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="V5">
-        <v>1.975</v>
+        <v>1.725</v>
       </c>
       <c r="W5">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X5">
         <v>-1</v>
       </c>
       <c r="Y5">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="Z5">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA5">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB5">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AC5">
-        <v>-1</v>
+        <v>0.3625</v>
       </c>
     </row>
     <row r="6" spans="1:29">
@@ -1079,7 +1079,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>5196275</v>
+        <v>5215234</v>
       </c>
       <c r="C7" t="s">
         <v>28</v>
@@ -1094,73 +1094,73 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I7">
         <v>1</v>
       </c>
       <c r="J7" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K7">
-        <v>2.1</v>
+        <v>2.45</v>
       </c>
       <c r="L7">
+        <v>2.8</v>
+      </c>
+      <c r="M7">
         <v>2.875</v>
       </c>
-      <c r="M7">
-        <v>3.5</v>
-      </c>
       <c r="N7">
-        <v>1.85</v>
+        <v>2.375</v>
       </c>
       <c r="O7">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="P7">
-        <v>4.333</v>
+        <v>2.9</v>
       </c>
       <c r="Q7">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R7">
-        <v>1.9</v>
+        <v>2.075</v>
       </c>
       <c r="S7">
-        <v>1.9</v>
+        <v>1.725</v>
       </c>
       <c r="T7">
         <v>2</v>
       </c>
       <c r="U7">
+        <v>1.925</v>
+      </c>
+      <c r="V7">
         <v>1.875</v>
       </c>
-      <c r="V7">
-        <v>1.925</v>
-      </c>
       <c r="W7">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="X7">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y7">
         <v>-1</v>
       </c>
       <c r="Z7">
-        <v>-1</v>
+        <v>1.075</v>
       </c>
       <c r="AA7">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB7">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="AC7">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="8" spans="1:29">
@@ -1168,7 +1168,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>5215234</v>
+        <v>5196275</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
@@ -1183,73 +1183,73 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I8">
         <v>1</v>
       </c>
       <c r="J8" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K8">
-        <v>2.45</v>
+        <v>2.1</v>
       </c>
       <c r="L8">
-        <v>2.8</v>
+        <v>2.875</v>
       </c>
       <c r="M8">
-        <v>2.875</v>
+        <v>3.5</v>
       </c>
       <c r="N8">
-        <v>2.375</v>
+        <v>1.85</v>
       </c>
       <c r="O8">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="P8">
-        <v>2.9</v>
+        <v>4.333</v>
       </c>
       <c r="Q8">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R8">
-        <v>2.075</v>
+        <v>1.9</v>
       </c>
       <c r="S8">
-        <v>1.725</v>
+        <v>1.9</v>
       </c>
       <c r="T8">
         <v>2</v>
       </c>
       <c r="U8">
+        <v>1.875</v>
+      </c>
+      <c r="V8">
         <v>1.925</v>
       </c>
-      <c r="V8">
-        <v>1.875</v>
-      </c>
       <c r="W8">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="X8">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y8">
         <v>-1</v>
       </c>
       <c r="Z8">
-        <v>1.075</v>
+        <v>-1</v>
       </c>
       <c r="AA8">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB8">
-        <v>0.925</v>
+        <v>0</v>
       </c>
       <c r="AC8">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="9" spans="1:29">
@@ -1361,7 +1361,7 @@
         <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H10">
         <v>1</v>
@@ -1450,7 +1450,7 @@
         <v>38</v>
       </c>
       <c r="G11" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H11">
         <v>6</v>
@@ -1806,7 +1806,7 @@
         <v>41</v>
       </c>
       <c r="G15" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H15">
         <v>2</v>
@@ -1892,7 +1892,7 @@
         <v>44990.41666666666</v>
       </c>
       <c r="F16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G16" t="s">
         <v>38</v>
@@ -1981,7 +1981,7 @@
         <v>44990.41666666666</v>
       </c>
       <c r="F17" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G17" t="s">
         <v>44</v>
@@ -2159,7 +2159,7 @@
         <v>44990.41666666666</v>
       </c>
       <c r="F19" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G19" t="s">
         <v>39</v>
@@ -2426,7 +2426,7 @@
         <v>44991.41666666666</v>
       </c>
       <c r="F22" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G22" t="s">
         <v>41</v>
@@ -2515,7 +2515,7 @@
         <v>44991.41666666666</v>
       </c>
       <c r="F23" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G23" t="s">
         <v>36</v>
@@ -2607,7 +2607,7 @@
         <v>43</v>
       </c>
       <c r="G24" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H24">
         <v>1</v>
@@ -2874,7 +2874,7 @@
         <v>44</v>
       </c>
       <c r="G27" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H27">
         <v>1</v>
@@ -3052,7 +3052,7 @@
         <v>37</v>
       </c>
       <c r="G29" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H29">
         <v>2</v>
@@ -3138,7 +3138,7 @@
         <v>44997.41666666666</v>
       </c>
       <c r="F30" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G30" t="s">
         <v>29</v>
@@ -3230,7 +3230,7 @@
         <v>41</v>
       </c>
       <c r="G31" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H31">
         <v>0</v>
@@ -3319,7 +3319,7 @@
         <v>36</v>
       </c>
       <c r="G32" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H32">
         <v>2</v>
@@ -3408,7 +3408,7 @@
         <v>44</v>
       </c>
       <c r="G33" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H33">
         <v>1</v>
@@ -3583,7 +3583,7 @@
         <v>45003.45833333334</v>
       </c>
       <c r="F35" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G35" t="s">
         <v>41</v>
@@ -3761,7 +3761,7 @@
         <v>45003.45833333334</v>
       </c>
       <c r="F37" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G37" t="s">
         <v>36</v>
@@ -3850,10 +3850,10 @@
         <v>45004.375</v>
       </c>
       <c r="F38" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G38" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H38">
         <v>2</v>
@@ -3939,7 +3939,7 @@
         <v>45004.45833333334</v>
       </c>
       <c r="F39" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G39" t="s">
         <v>38</v>
@@ -4194,7 +4194,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>5215543</v>
+        <v>5215238</v>
       </c>
       <c r="C42" t="s">
         <v>28</v>
@@ -4206,49 +4206,49 @@
         <v>45007.45833333334</v>
       </c>
       <c r="F42" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G42" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H42">
         <v>1</v>
       </c>
       <c r="I42">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J42" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K42">
-        <v>1.363</v>
+        <v>1.615</v>
       </c>
       <c r="L42">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="M42">
-        <v>7</v>
+        <v>4.75</v>
       </c>
       <c r="N42">
-        <v>1.125</v>
+        <v>1.85</v>
       </c>
       <c r="O42">
-        <v>7</v>
+        <v>3.25</v>
       </c>
       <c r="P42">
-        <v>17</v>
+        <v>3.75</v>
       </c>
       <c r="Q42">
-        <v>-2</v>
+        <v>-0.5</v>
       </c>
       <c r="R42">
-        <v>1.7</v>
+        <v>1.925</v>
       </c>
       <c r="S42">
-        <v>2.1</v>
+        <v>1.875</v>
       </c>
       <c r="T42">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U42">
         <v>1.9</v>
@@ -4260,22 +4260,22 @@
         <v>-1</v>
       </c>
       <c r="X42">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y42">
-        <v>16</v>
+        <v>-1</v>
       </c>
       <c r="Z42">
         <v>-1</v>
       </c>
       <c r="AA42">
-        <v>1.1</v>
+        <v>0.875</v>
       </c>
       <c r="AB42">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AC42">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="43" spans="1:29">
@@ -4283,7 +4283,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>5215238</v>
+        <v>5215543</v>
       </c>
       <c r="C43" t="s">
         <v>28</v>
@@ -4295,49 +4295,49 @@
         <v>45007.45833333334</v>
       </c>
       <c r="F43" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G43" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H43">
         <v>1</v>
       </c>
       <c r="I43">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J43" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K43">
-        <v>1.615</v>
+        <v>1.363</v>
       </c>
       <c r="L43">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="M43">
-        <v>4.75</v>
+        <v>7</v>
       </c>
       <c r="N43">
-        <v>1.85</v>
+        <v>1.125</v>
       </c>
       <c r="O43">
-        <v>3.25</v>
+        <v>7</v>
       </c>
       <c r="P43">
-        <v>3.75</v>
+        <v>17</v>
       </c>
       <c r="Q43">
-        <v>-0.5</v>
+        <v>-2</v>
       </c>
       <c r="R43">
-        <v>1.925</v>
+        <v>1.7</v>
       </c>
       <c r="S43">
-        <v>1.875</v>
+        <v>2.1</v>
       </c>
       <c r="T43">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="U43">
         <v>1.9</v>
@@ -4349,22 +4349,22 @@
         <v>-1</v>
       </c>
       <c r="X43">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y43">
-        <v>-1</v>
+        <v>16</v>
       </c>
       <c r="Z43">
         <v>-1</v>
       </c>
       <c r="AA43">
-        <v>0.875</v>
+        <v>1.1</v>
       </c>
       <c r="AB43">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC43">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="44" spans="1:29">
@@ -4387,7 +4387,7 @@
         <v>36</v>
       </c>
       <c r="G44" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H44">
         <v>3</v>
@@ -4461,7 +4461,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>5196284</v>
+        <v>5289413</v>
       </c>
       <c r="C45" t="s">
         <v>28</v>
@@ -4473,46 +4473,46 @@
         <v>45008.45833333334</v>
       </c>
       <c r="F45" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G45" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J45" t="s">
         <v>53</v>
       </c>
       <c r="K45">
-        <v>2.8</v>
+        <v>2</v>
       </c>
       <c r="L45">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="M45">
-        <v>2.5</v>
+        <v>3.6</v>
       </c>
       <c r="N45">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="O45">
-        <v>2.625</v>
+        <v>2.9</v>
       </c>
       <c r="P45">
-        <v>2.75</v>
+        <v>3.6</v>
       </c>
       <c r="Q45">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R45">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="S45">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="T45">
         <v>2</v>
@@ -4527,22 +4527,22 @@
         <v>-1</v>
       </c>
       <c r="X45">
-        <v>1.625</v>
+        <v>1.9</v>
       </c>
       <c r="Y45">
         <v>-1</v>
       </c>
       <c r="Z45">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA45">
+        <v>0.5249999999999999</v>
+      </c>
+      <c r="AB45">
+        <v>0</v>
+      </c>
+      <c r="AC45">
         <v>-0</v>
-      </c>
-      <c r="AB45">
-        <v>-1</v>
-      </c>
-      <c r="AC45">
-        <v>0.8</v>
       </c>
     </row>
     <row r="46" spans="1:29">
@@ -4550,7 +4550,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>5215838</v>
+        <v>5215546</v>
       </c>
       <c r="C46" t="s">
         <v>28</v>
@@ -4565,73 +4565,73 @@
         <v>31</v>
       </c>
       <c r="G46" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H46">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I46">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J46" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K46">
-        <v>2</v>
+        <v>1.727</v>
       </c>
       <c r="L46">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M46">
-        <v>3.4</v>
+        <v>4.25</v>
       </c>
       <c r="N46">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="O46">
-        <v>2.9</v>
+        <v>3.3</v>
       </c>
       <c r="P46">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="Q46">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R46">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="S46">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="T46">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U46">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V46">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W46">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X46">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Y46">
         <v>-1</v>
       </c>
       <c r="Z46">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA46">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AB46">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AC46">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="47" spans="1:29">
@@ -4639,7 +4639,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>5215546</v>
+        <v>5215838</v>
       </c>
       <c r="C47" t="s">
         <v>28</v>
@@ -4651,76 +4651,76 @@
         <v>45008.45833333334</v>
       </c>
       <c r="F47" t="s">
+        <v>32</v>
+      </c>
+      <c r="G47" t="s">
         <v>30</v>
       </c>
-      <c r="G47" t="s">
-        <v>29</v>
-      </c>
       <c r="H47">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I47">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J47" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K47">
-        <v>1.727</v>
+        <v>2</v>
       </c>
       <c r="L47">
+        <v>3.2</v>
+      </c>
+      <c r="M47">
         <v>3.4</v>
       </c>
-      <c r="M47">
-        <v>4.25</v>
-      </c>
       <c r="N47">
-        <v>1.7</v>
+        <v>2</v>
       </c>
       <c r="O47">
-        <v>3.3</v>
+        <v>2.9</v>
       </c>
       <c r="P47">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q47">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R47">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="S47">
-        <v>1.875</v>
+        <v>1.75</v>
       </c>
       <c r="T47">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U47">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V47">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W47">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X47">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Y47">
         <v>-1</v>
       </c>
       <c r="Z47">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA47">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AB47">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="AC47">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="48" spans="1:29">
@@ -4728,7 +4728,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>5289413</v>
+        <v>5215839</v>
       </c>
       <c r="C48" t="s">
         <v>28</v>
@@ -4740,76 +4740,76 @@
         <v>45008.45833333334</v>
       </c>
       <c r="F48" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G48" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="H48">
         <v>1</v>
       </c>
       <c r="I48">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J48" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K48">
-        <v>2</v>
+        <v>1.615</v>
       </c>
       <c r="L48">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="M48">
-        <v>3.6</v>
+        <v>5.5</v>
       </c>
       <c r="N48">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="O48">
-        <v>2.9</v>
+        <v>4</v>
       </c>
       <c r="P48">
-        <v>3.6</v>
+        <v>5.75</v>
       </c>
       <c r="Q48">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R48">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="S48">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="T48">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U48">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="V48">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W48">
         <v>-1</v>
       </c>
       <c r="X48">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Y48">
-        <v>-1</v>
+        <v>4.75</v>
       </c>
       <c r="Z48">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA48">
-        <v>0.5249999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB48">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AC48">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="49" spans="1:29">
@@ -4817,7 +4817,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>5215839</v>
+        <v>5196284</v>
       </c>
       <c r="C49" t="s">
         <v>28</v>
@@ -4829,76 +4829,76 @@
         <v>45008.45833333334</v>
       </c>
       <c r="F49" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="G49" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="H49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I49">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J49" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K49">
-        <v>1.615</v>
+        <v>2.8</v>
       </c>
       <c r="L49">
-        <v>3.25</v>
+        <v>2.8</v>
       </c>
       <c r="M49">
-        <v>5.5</v>
+        <v>2.5</v>
       </c>
       <c r="N49">
-        <v>1.5</v>
+        <v>2.75</v>
       </c>
       <c r="O49">
-        <v>4</v>
+        <v>2.625</v>
       </c>
       <c r="P49">
-        <v>5.75</v>
+        <v>2.75</v>
       </c>
       <c r="Q49">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R49">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S49">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T49">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U49">
+        <v>2</v>
+      </c>
+      <c r="V49">
         <v>1.8</v>
       </c>
-      <c r="V49">
-        <v>2</v>
-      </c>
       <c r="W49">
         <v>-1</v>
       </c>
       <c r="X49">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="Y49">
-        <v>4.75</v>
+        <v>-1</v>
       </c>
       <c r="Z49">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA49">
-        <v>0.9750000000000001</v>
+        <v>-0</v>
       </c>
       <c r="AB49">
+        <v>-1</v>
+      </c>
+      <c r="AC49">
         <v>0.8</v>
-      </c>
-      <c r="AC49">
-        <v>-1</v>
       </c>
     </row>
     <row r="50" spans="1:29">
@@ -5007,10 +5007,10 @@
         <v>45012.45833333334</v>
       </c>
       <c r="F51" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G51" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H51">
         <v>2</v>
@@ -5084,7 +5084,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>5215841</v>
+        <v>5289414</v>
       </c>
       <c r="C52" t="s">
         <v>28</v>
@@ -5096,10 +5096,10 @@
         <v>45012.45833333334</v>
       </c>
       <c r="F52" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G52" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="H52">
         <v>1</v>
@@ -5111,31 +5111,31 @@
         <v>51</v>
       </c>
       <c r="K52">
-        <v>1.727</v>
+        <v>2.25</v>
       </c>
       <c r="L52">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M52">
-        <v>4.75</v>
+        <v>3</v>
       </c>
       <c r="N52">
-        <v>1.7</v>
+        <v>2.2</v>
       </c>
       <c r="O52">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="P52">
-        <v>5.25</v>
+        <v>3.3</v>
       </c>
       <c r="Q52">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R52">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S52">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T52">
         <v>2</v>
@@ -5147,7 +5147,7 @@
         <v>1.975</v>
       </c>
       <c r="W52">
-        <v>0.7</v>
+        <v>1.2</v>
       </c>
       <c r="X52">
         <v>-1</v>
@@ -5156,10 +5156,10 @@
         <v>-1</v>
       </c>
       <c r="Z52">
-        <v>0.475</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA52">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB52">
         <v>-1</v>
@@ -5351,7 +5351,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>5289414</v>
+        <v>5215841</v>
       </c>
       <c r="C55" t="s">
         <v>28</v>
@@ -5363,10 +5363,10 @@
         <v>45012.45833333334</v>
       </c>
       <c r="F55" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G55" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="H55">
         <v>1</v>
@@ -5378,31 +5378,31 @@
         <v>51</v>
       </c>
       <c r="K55">
-        <v>2.25</v>
+        <v>1.727</v>
       </c>
       <c r="L55">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M55">
-        <v>3</v>
+        <v>4.75</v>
       </c>
       <c r="N55">
-        <v>2.2</v>
+        <v>1.7</v>
       </c>
       <c r="O55">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="P55">
-        <v>3.3</v>
+        <v>5.25</v>
       </c>
       <c r="Q55">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R55">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S55">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T55">
         <v>2</v>
@@ -5414,7 +5414,7 @@
         <v>1.975</v>
       </c>
       <c r="W55">
-        <v>1.2</v>
+        <v>0.7</v>
       </c>
       <c r="X55">
         <v>-1</v>
@@ -5423,10 +5423,10 @@
         <v>-1</v>
       </c>
       <c r="Z55">
-        <v>0.8999999999999999</v>
+        <v>0.475</v>
       </c>
       <c r="AA55">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB55">
         <v>-1</v>
@@ -5452,10 +5452,10 @@
         <v>45012.5</v>
       </c>
       <c r="F56" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G56" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H56">
         <v>2</v>
@@ -5630,10 +5630,10 @@
         <v>45017.33333333334</v>
       </c>
       <c r="F58" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G58" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H58">
         <v>0</v>
@@ -5722,7 +5722,7 @@
         <v>36</v>
       </c>
       <c r="G59" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H59">
         <v>1</v>
@@ -5897,7 +5897,7 @@
         <v>45017.45833333334</v>
       </c>
       <c r="F61" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G61" t="s">
         <v>29</v>
@@ -6075,7 +6075,7 @@
         <v>45017.45833333334</v>
       </c>
       <c r="F63" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G63" t="s">
         <v>33</v>
@@ -6342,10 +6342,10 @@
         <v>45024.45833333334</v>
       </c>
       <c r="F66" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G66" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H66">
         <v>0</v>
@@ -6790,7 +6790,7 @@
         <v>33</v>
       </c>
       <c r="G71" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H71">
         <v>0</v>
@@ -6876,10 +6876,10 @@
         <v>45024.45833333334</v>
       </c>
       <c r="F72" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G72" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H72">
         <v>1</v>
@@ -7321,7 +7321,7 @@
         <v>45028.45833333334</v>
       </c>
       <c r="F77" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G77" t="s">
         <v>29</v>
@@ -7398,7 +7398,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>6489182</v>
+        <v>6489178</v>
       </c>
       <c r="C78" t="s">
         <v>28</v>
@@ -7413,7 +7413,7 @@
         <v>31</v>
       </c>
       <c r="G78" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="H78">
         <v>2</v>
@@ -7425,43 +7425,43 @@
         <v>51</v>
       </c>
       <c r="K78">
-        <v>2.2</v>
+        <v>1.615</v>
       </c>
       <c r="L78">
-        <v>2.875</v>
+        <v>3.6</v>
       </c>
       <c r="M78">
-        <v>3.2</v>
+        <v>4.6</v>
       </c>
       <c r="N78">
-        <v>2.3</v>
+        <v>1.8</v>
       </c>
       <c r="O78">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="P78">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="Q78">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R78">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="S78">
+        <v>1.75</v>
+      </c>
+      <c r="T78">
+        <v>2.5</v>
+      </c>
+      <c r="U78">
+        <v>2</v>
+      </c>
+      <c r="V78">
         <v>1.8</v>
       </c>
-      <c r="T78">
-        <v>2</v>
-      </c>
-      <c r="U78">
-        <v>1.925</v>
-      </c>
-      <c r="V78">
-        <v>1.875</v>
-      </c>
       <c r="W78">
-        <v>1.3</v>
+        <v>0.8</v>
       </c>
       <c r="X78">
         <v>-1</v>
@@ -7470,16 +7470,16 @@
         <v>-1</v>
       </c>
       <c r="Z78">
-        <v>1</v>
+        <v>1.05</v>
       </c>
       <c r="AA78">
         <v>-1</v>
       </c>
       <c r="AB78">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC78">
-        <v>-0</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="79" spans="1:29">
@@ -7487,7 +7487,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>6489178</v>
+        <v>6489182</v>
       </c>
       <c r="C79" t="s">
         <v>28</v>
@@ -7499,10 +7499,10 @@
         <v>45028.45833333334</v>
       </c>
       <c r="F79" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G79" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="H79">
         <v>2</v>
@@ -7514,43 +7514,43 @@
         <v>51</v>
       </c>
       <c r="K79">
-        <v>1.615</v>
+        <v>2.2</v>
       </c>
       <c r="L79">
-        <v>3.6</v>
+        <v>2.875</v>
       </c>
       <c r="M79">
-        <v>4.6</v>
+        <v>3.2</v>
       </c>
       <c r="N79">
+        <v>2.3</v>
+      </c>
+      <c r="O79">
+        <v>2.9</v>
+      </c>
+      <c r="P79">
+        <v>3.1</v>
+      </c>
+      <c r="Q79">
+        <v>-0.25</v>
+      </c>
+      <c r="R79">
+        <v>2</v>
+      </c>
+      <c r="S79">
         <v>1.8</v>
       </c>
-      <c r="O79">
-        <v>3.4</v>
-      </c>
-      <c r="P79">
-        <v>3.75</v>
-      </c>
-      <c r="Q79">
-        <v>-0.75</v>
-      </c>
-      <c r="R79">
-        <v>2.05</v>
-      </c>
-      <c r="S79">
-        <v>1.75</v>
-      </c>
       <c r="T79">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U79">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V79">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W79">
-        <v>0.8</v>
+        <v>1.3</v>
       </c>
       <c r="X79">
         <v>-1</v>
@@ -7559,16 +7559,16 @@
         <v>-1</v>
       </c>
       <c r="Z79">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="AA79">
         <v>-1</v>
       </c>
       <c r="AB79">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC79">
-        <v>0.8</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="80" spans="1:29">
@@ -7588,7 +7588,7 @@
         <v>45028.54166666666</v>
       </c>
       <c r="F80" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G80" t="s">
         <v>33</v>
@@ -7754,7 +7754,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>5215850</v>
+        <v>5215553</v>
       </c>
       <c r="C82" t="s">
         <v>28</v>
@@ -7766,61 +7766,61 @@
         <v>45031.45833333334</v>
       </c>
       <c r="F82" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="G82" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="H82">
         <v>1</v>
       </c>
       <c r="I82">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J82" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K82">
-        <v>2.25</v>
+        <v>1.222</v>
       </c>
       <c r="L82">
-        <v>2.9</v>
+        <v>5.5</v>
       </c>
       <c r="M82">
-        <v>3.1</v>
+        <v>9</v>
       </c>
       <c r="N82">
-        <v>1.95</v>
+        <v>1.222</v>
       </c>
       <c r="O82">
-        <v>3</v>
+        <v>5.75</v>
       </c>
       <c r="P82">
-        <v>3.8</v>
+        <v>8.5</v>
       </c>
       <c r="Q82">
-        <v>-0.5</v>
+        <v>-1.75</v>
       </c>
       <c r="R82">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S82">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T82">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="U82">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V82">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W82">
-        <v>-1</v>
+        <v>0.222</v>
       </c>
       <c r="X82">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y82">
         <v>-1</v>
@@ -7829,13 +7829,13 @@
         <v>-1</v>
       </c>
       <c r="AA82">
-        <v>0.8</v>
+        <v>0.925</v>
       </c>
       <c r="AB82">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC82">
-        <v>-0</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="83" spans="1:29">
@@ -7843,7 +7843,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>5215553</v>
+        <v>5215850</v>
       </c>
       <c r="C83" t="s">
         <v>28</v>
@@ -7855,61 +7855,61 @@
         <v>45031.45833333334</v>
       </c>
       <c r="F83" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="G83" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="H83">
         <v>1</v>
       </c>
       <c r="I83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J83" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K83">
-        <v>1.222</v>
+        <v>2.25</v>
       </c>
       <c r="L83">
-        <v>5.5</v>
+        <v>2.9</v>
       </c>
       <c r="M83">
-        <v>9</v>
+        <v>3.1</v>
       </c>
       <c r="N83">
-        <v>1.222</v>
+        <v>1.95</v>
       </c>
       <c r="O83">
-        <v>5.75</v>
+        <v>3</v>
       </c>
       <c r="P83">
-        <v>8.5</v>
+        <v>3.8</v>
       </c>
       <c r="Q83">
-        <v>-1.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R83">
+        <v>2</v>
+      </c>
+      <c r="S83">
+        <v>1.8</v>
+      </c>
+      <c r="T83">
+        <v>2</v>
+      </c>
+      <c r="U83">
         <v>1.875</v>
       </c>
-      <c r="S83">
+      <c r="V83">
         <v>1.925</v>
       </c>
-      <c r="T83">
-        <v>2.75</v>
-      </c>
-      <c r="U83">
-        <v>1.825</v>
-      </c>
-      <c r="V83">
-        <v>1.975</v>
-      </c>
       <c r="W83">
-        <v>0.222</v>
+        <v>-1</v>
       </c>
       <c r="X83">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y83">
         <v>-1</v>
@@ -7918,13 +7918,13 @@
         <v>-1</v>
       </c>
       <c r="AA83">
-        <v>0.925</v>
+        <v>0.8</v>
       </c>
       <c r="AB83">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC83">
-        <v>0.9750000000000001</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="84" spans="1:29">
@@ -7947,7 +7947,7 @@
         <v>42</v>
       </c>
       <c r="G84" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H84">
         <v>3</v>
@@ -8036,7 +8036,7 @@
         <v>33</v>
       </c>
       <c r="G85" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H85">
         <v>3</v>
@@ -8122,10 +8122,10 @@
         <v>45031.45833333334</v>
       </c>
       <c r="F86" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G86" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H86">
         <v>4</v>
@@ -8199,7 +8199,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>5215893</v>
+        <v>5289418</v>
       </c>
       <c r="C87" t="s">
         <v>28</v>
@@ -8211,61 +8211,61 @@
         <v>45031.45833333334</v>
       </c>
       <c r="F87" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G87" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="H87">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I87">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J87" t="s">
         <v>53</v>
       </c>
       <c r="K87">
-        <v>2</v>
+        <v>1.909</v>
       </c>
       <c r="L87">
+        <v>3.1</v>
+      </c>
+      <c r="M87">
+        <v>3.75</v>
+      </c>
+      <c r="N87">
+        <v>1.909</v>
+      </c>
+      <c r="O87">
         <v>3</v>
       </c>
-      <c r="M87">
-        <v>3.6</v>
-      </c>
-      <c r="N87">
-        <v>1.8</v>
-      </c>
-      <c r="O87">
-        <v>3.1</v>
-      </c>
       <c r="P87">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="Q87">
         <v>-0.5</v>
       </c>
       <c r="R87">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="S87">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T87">
         <v>2</v>
       </c>
       <c r="U87">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="V87">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="W87">
         <v>-1</v>
       </c>
       <c r="X87">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="Y87">
         <v>-1</v>
@@ -8274,13 +8274,13 @@
         <v>-1</v>
       </c>
       <c r="AA87">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
       <c r="AB87">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC87">
-        <v>-0</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="88" spans="1:29">
@@ -8288,7 +8288,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>5215892</v>
+        <v>5215893</v>
       </c>
       <c r="C88" t="s">
         <v>28</v>
@@ -8300,10 +8300,10 @@
         <v>45031.45833333334</v>
       </c>
       <c r="F88" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="G88" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="H88">
         <v>1</v>
@@ -8315,61 +8315,61 @@
         <v>53</v>
       </c>
       <c r="K88">
+        <v>2</v>
+      </c>
+      <c r="L88">
+        <v>3</v>
+      </c>
+      <c r="M88">
         <v>3.6</v>
       </c>
-      <c r="L88">
-        <v>2.9</v>
-      </c>
-      <c r="M88">
-        <v>2.05</v>
-      </c>
       <c r="N88">
-        <v>1.666</v>
+        <v>1.8</v>
       </c>
       <c r="O88">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="P88">
-        <v>5</v>
+        <v>4.2</v>
       </c>
       <c r="Q88">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R88">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S88">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T88">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U88">
-        <v>1.7</v>
+        <v>1.925</v>
       </c>
       <c r="V88">
+        <v>1.875</v>
+      </c>
+      <c r="W88">
+        <v>-1</v>
+      </c>
+      <c r="X88">
         <v>2.1</v>
       </c>
-      <c r="W88">
-        <v>-1</v>
-      </c>
-      <c r="X88">
-        <v>2.2</v>
-      </c>
       <c r="Y88">
         <v>-1</v>
       </c>
       <c r="Z88">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA88">
+        <v>0.925</v>
+      </c>
+      <c r="AB88">
+        <v>0</v>
+      </c>
+      <c r="AC88">
         <v>-0</v>
-      </c>
-      <c r="AB88">
-        <v>0.35</v>
-      </c>
-      <c r="AC88">
-        <v>-0.5</v>
       </c>
     </row>
     <row r="89" spans="1:29">
@@ -8377,7 +8377,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>5289418</v>
+        <v>5215892</v>
       </c>
       <c r="C89" t="s">
         <v>28</v>
@@ -8389,76 +8389,76 @@
         <v>45031.45833333334</v>
       </c>
       <c r="F89" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="G89" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H89">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I89">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J89" t="s">
         <v>53</v>
       </c>
       <c r="K89">
-        <v>1.909</v>
+        <v>3.6</v>
       </c>
       <c r="L89">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="M89">
-        <v>3.75</v>
+        <v>2.05</v>
       </c>
       <c r="N89">
-        <v>1.909</v>
+        <v>1.666</v>
       </c>
       <c r="O89">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="P89">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="Q89">
+        <v>0</v>
+      </c>
+      <c r="R89">
+        <v>1.9</v>
+      </c>
+      <c r="S89">
+        <v>1.9</v>
+      </c>
+      <c r="T89">
+        <v>1.75</v>
+      </c>
+      <c r="U89">
+        <v>1.7</v>
+      </c>
+      <c r="V89">
+        <v>2.1</v>
+      </c>
+      <c r="W89">
+        <v>-1</v>
+      </c>
+      <c r="X89">
+        <v>2.2</v>
+      </c>
+      <c r="Y89">
+        <v>-1</v>
+      </c>
+      <c r="Z89">
+        <v>0</v>
+      </c>
+      <c r="AA89">
+        <v>-0</v>
+      </c>
+      <c r="AB89">
+        <v>0.35</v>
+      </c>
+      <c r="AC89">
         <v>-0.5</v>
-      </c>
-      <c r="R89">
-        <v>1.975</v>
-      </c>
-      <c r="S89">
-        <v>1.825</v>
-      </c>
-      <c r="T89">
-        <v>2</v>
-      </c>
-      <c r="U89">
-        <v>1.775</v>
-      </c>
-      <c r="V89">
-        <v>2.025</v>
-      </c>
-      <c r="W89">
-        <v>-1</v>
-      </c>
-      <c r="X89">
-        <v>2</v>
-      </c>
-      <c r="Y89">
-        <v>-1</v>
-      </c>
-      <c r="Z89">
-        <v>-1</v>
-      </c>
-      <c r="AA89">
-        <v>0.825</v>
-      </c>
-      <c r="AB89">
-        <v>-1</v>
-      </c>
-      <c r="AC89">
-        <v>1.025</v>
       </c>
     </row>
     <row r="90" spans="1:29">
@@ -8567,7 +8567,7 @@
         <v>45037.45833333334</v>
       </c>
       <c r="F91" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G91" t="s">
         <v>41</v>
@@ -8656,7 +8656,7 @@
         <v>45038.375</v>
       </c>
       <c r="F92" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G92" t="s">
         <v>42</v>
@@ -8837,7 +8837,7 @@
         <v>33</v>
       </c>
       <c r="G94" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H94">
         <v>0</v>
@@ -8923,7 +8923,7 @@
         <v>45038.45833333334</v>
       </c>
       <c r="F95" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G95" t="s">
         <v>43</v>
@@ -9000,7 +9000,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>6541049</v>
+        <v>6541255</v>
       </c>
       <c r="C96" t="s">
         <v>28</v>
@@ -9012,76 +9012,76 @@
         <v>45038.45833333334</v>
       </c>
       <c r="F96" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G96" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="H96">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I96">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J96" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K96">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="L96">
-        <v>3.1</v>
+        <v>2.875</v>
       </c>
       <c r="M96">
         <v>3.4</v>
       </c>
       <c r="N96">
-        <v>1.444</v>
+        <v>1.7</v>
       </c>
       <c r="O96">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="P96">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Q96">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R96">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="S96">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T96">
         <v>2.25</v>
       </c>
       <c r="U96">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V96">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="W96">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X96">
         <v>-1</v>
       </c>
       <c r="Y96">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="Z96">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA96">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB96">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AC96">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="97" spans="1:29">
@@ -9089,7 +9089,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>6541255</v>
+        <v>6541049</v>
       </c>
       <c r="C97" t="s">
         <v>28</v>
@@ -9101,76 +9101,76 @@
         <v>45038.45833333334</v>
       </c>
       <c r="F97" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G97" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="H97">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I97">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J97" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K97">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="L97">
-        <v>2.875</v>
+        <v>3.1</v>
       </c>
       <c r="M97">
         <v>3.4</v>
       </c>
       <c r="N97">
-        <v>1.7</v>
+        <v>1.444</v>
       </c>
       <c r="O97">
-        <v>3.1</v>
+        <v>3.8</v>
       </c>
       <c r="P97">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Q97">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R97">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="S97">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T97">
         <v>2.25</v>
       </c>
       <c r="U97">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V97">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W97">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X97">
         <v>-1</v>
       </c>
       <c r="Y97">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="Z97">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA97">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB97">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC97">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="98" spans="1:29">
@@ -9178,7 +9178,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>6556926</v>
+        <v>6557388</v>
       </c>
       <c r="C98" t="s">
         <v>28</v>
@@ -9190,73 +9190,73 @@
         <v>45042.45833333334</v>
       </c>
       <c r="F98" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G98" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H98">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I98">
         <v>2</v>
       </c>
       <c r="J98" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K98">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="L98">
+        <v>2.9</v>
+      </c>
+      <c r="M98">
+        <v>3.75</v>
+      </c>
+      <c r="N98">
+        <v>2.2</v>
+      </c>
+      <c r="O98">
+        <v>2.9</v>
+      </c>
+      <c r="P98">
         <v>3.1</v>
       </c>
-      <c r="M98">
-        <v>4</v>
-      </c>
-      <c r="N98">
-        <v>1.333</v>
-      </c>
-      <c r="O98">
-        <v>5</v>
-      </c>
-      <c r="P98">
-        <v>7</v>
-      </c>
       <c r="Q98">
-        <v>-1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R98">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S98">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T98">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U98">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="V98">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="W98">
         <v>-1</v>
       </c>
       <c r="X98">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="Y98">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z98">
         <v>-1</v>
       </c>
       <c r="AA98">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AB98">
-        <v>0.8</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC98">
         <v>-1</v>
@@ -9356,7 +9356,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>6557388</v>
+        <v>6556926</v>
       </c>
       <c r="C100" t="s">
         <v>28</v>
@@ -9368,73 +9368,73 @@
         <v>45042.45833333334</v>
       </c>
       <c r="F100" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G100" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="H100">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I100">
         <v>2</v>
       </c>
       <c r="J100" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K100">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="L100">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="M100">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="N100">
-        <v>2.2</v>
+        <v>1.333</v>
       </c>
       <c r="O100">
-        <v>2.9</v>
+        <v>5</v>
       </c>
       <c r="P100">
-        <v>3.1</v>
+        <v>7</v>
       </c>
       <c r="Q100">
-        <v>-0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R100">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S100">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="T100">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U100">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="V100">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="W100">
         <v>-1</v>
       </c>
       <c r="X100">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="Y100">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z100">
         <v>-1</v>
       </c>
       <c r="AA100">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB100">
-        <v>0.7749999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AC100">
         <v>-1</v>
@@ -9445,7 +9445,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>6553003</v>
+        <v>6552991</v>
       </c>
       <c r="C101" t="s">
         <v>28</v>
@@ -9457,31 +9457,31 @@
         <v>45042.45833333334</v>
       </c>
       <c r="F101" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="G101" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H101">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I101">
         <v>1</v>
       </c>
       <c r="J101" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K101">
-        <v>2.25</v>
+        <v>1.85</v>
       </c>
       <c r="L101">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="M101">
-        <v>3.1</v>
+        <v>4.2</v>
       </c>
       <c r="N101">
-        <v>2.55</v>
+        <v>2.6</v>
       </c>
       <c r="O101">
         <v>2.8</v>
@@ -9502,31 +9502,31 @@
         <v>2</v>
       </c>
       <c r="U101">
+        <v>1.875</v>
+      </c>
+      <c r="V101">
         <v>1.925</v>
       </c>
-      <c r="V101">
-        <v>1.875</v>
-      </c>
       <c r="W101">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="X101">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Y101">
         <v>-1</v>
       </c>
       <c r="Z101">
-        <v>0.8500000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA101">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB101">
-        <v>0.925</v>
+        <v>0</v>
       </c>
       <c r="AC101">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="102" spans="1:29">
@@ -9534,7 +9534,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>6556925</v>
+        <v>6553003</v>
       </c>
       <c r="C102" t="s">
         <v>28</v>
@@ -9546,73 +9546,73 @@
         <v>45042.45833333334</v>
       </c>
       <c r="F102" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G102" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="H102">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I102">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J102" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K102">
+        <v>2.25</v>
+      </c>
+      <c r="L102">
         <v>2.9</v>
       </c>
-      <c r="L102">
-        <v>3.2</v>
-      </c>
       <c r="M102">
-        <v>2.2</v>
+        <v>3.1</v>
       </c>
       <c r="N102">
+        <v>2.55</v>
+      </c>
+      <c r="O102">
+        <v>2.8</v>
+      </c>
+      <c r="P102">
         <v>2.7</v>
       </c>
-      <c r="O102">
-        <v>3.1</v>
-      </c>
-      <c r="P102">
-        <v>2.45</v>
-      </c>
       <c r="Q102">
         <v>0</v>
       </c>
       <c r="R102">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S102">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T102">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U102">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V102">
-        <v>1.725</v>
+        <v>1.875</v>
       </c>
       <c r="W102">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="X102">
         <v>-1</v>
       </c>
       <c r="Y102">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="Z102">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA102">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB102">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AC102">
         <v>-1</v>
@@ -9623,7 +9623,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>6557387</v>
+        <v>6556925</v>
       </c>
       <c r="C103" t="s">
         <v>28</v>
@@ -9635,55 +9635,55 @@
         <v>45042.45833333334</v>
       </c>
       <c r="F103" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G103" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="H103">
         <v>1</v>
       </c>
       <c r="I103">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J103" t="s">
         <v>52</v>
       </c>
       <c r="K103">
-        <v>2.625</v>
+        <v>2.9</v>
       </c>
       <c r="L103">
-        <v>2.875</v>
+        <v>3.2</v>
       </c>
       <c r="M103">
-        <v>2.6</v>
+        <v>2.2</v>
       </c>
       <c r="N103">
-        <v>2.625</v>
+        <v>2.7</v>
       </c>
       <c r="O103">
-        <v>2.875</v>
+        <v>3.1</v>
       </c>
       <c r="P103">
-        <v>2.6</v>
+        <v>2.45</v>
       </c>
       <c r="Q103">
         <v>0</v>
       </c>
       <c r="R103">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="S103">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="T103">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U103">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V103">
-        <v>2</v>
+        <v>1.725</v>
       </c>
       <c r="W103">
         <v>-1</v>
@@ -9692,16 +9692,16 @@
         <v>-1</v>
       </c>
       <c r="Y103">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="Z103">
         <v>-1</v>
       </c>
       <c r="AA103">
-        <v>0.875</v>
+        <v>0.8</v>
       </c>
       <c r="AB103">
-        <v>0.8</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC103">
         <v>-1</v>
@@ -9712,7 +9712,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>6552991</v>
+        <v>6557387</v>
       </c>
       <c r="C104" t="s">
         <v>28</v>
@@ -9724,76 +9724,76 @@
         <v>45042.45833333334</v>
       </c>
       <c r="F104" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="G104" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H104">
         <v>1</v>
       </c>
       <c r="I104">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J104" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K104">
-        <v>1.85</v>
+        <v>2.625</v>
       </c>
       <c r="L104">
-        <v>3</v>
+        <v>2.875</v>
       </c>
       <c r="M104">
-        <v>4.2</v>
+        <v>2.6</v>
       </c>
       <c r="N104">
+        <v>2.625</v>
+      </c>
+      <c r="O104">
+        <v>2.875</v>
+      </c>
+      <c r="P104">
         <v>2.6</v>
       </c>
-      <c r="O104">
-        <v>2.8</v>
-      </c>
-      <c r="P104">
-        <v>2.7</v>
-      </c>
       <c r="Q104">
         <v>0</v>
       </c>
       <c r="R104">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S104">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="T104">
         <v>2</v>
       </c>
       <c r="U104">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="V104">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W104">
         <v>-1</v>
       </c>
       <c r="X104">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Y104">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="Z104">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA104">
-        <v>-0</v>
+        <v>0.875</v>
       </c>
       <c r="AB104">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AC104">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="105" spans="1:29">
@@ -9816,7 +9816,7 @@
         <v>36</v>
       </c>
       <c r="G105" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H105">
         <v>1</v>
@@ -9905,7 +9905,7 @@
         <v>37</v>
       </c>
       <c r="G106" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H106">
         <v>0</v>
@@ -10080,7 +10080,7 @@
         <v>45046.45833333334</v>
       </c>
       <c r="F108" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G108" t="s">
         <v>33</v>
@@ -10169,7 +10169,7 @@
         <v>45046.45833333334</v>
       </c>
       <c r="F109" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G109" t="s">
         <v>44</v>
@@ -10258,7 +10258,7 @@
         <v>45046.54166666666</v>
       </c>
       <c r="F110" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G110" t="s">
         <v>36</v>
@@ -10424,7 +10424,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>6553523</v>
+        <v>6552993</v>
       </c>
       <c r="C112" t="s">
         <v>28</v>
@@ -10436,73 +10436,73 @@
         <v>45047.45833333334</v>
       </c>
       <c r="F112" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G112" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="H112">
+        <v>2</v>
+      </c>
+      <c r="I112">
+        <v>2</v>
+      </c>
+      <c r="J112" t="s">
+        <v>53</v>
+      </c>
+      <c r="K112">
+        <v>2.1</v>
+      </c>
+      <c r="L112">
         <v>3</v>
       </c>
-      <c r="I112">
-        <v>0</v>
-      </c>
-      <c r="J112" t="s">
-        <v>51</v>
-      </c>
-      <c r="K112">
-        <v>1.833</v>
-      </c>
-      <c r="L112">
+      <c r="M112">
         <v>3.25</v>
       </c>
-      <c r="M112">
-        <v>3.75</v>
-      </c>
       <c r="N112">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="O112">
-        <v>3.8</v>
+        <v>3</v>
       </c>
       <c r="P112">
-        <v>6</v>
+        <v>3.4</v>
       </c>
       <c r="Q112">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R112">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="S112">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="T112">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U112">
+        <v>1.825</v>
+      </c>
+      <c r="V112">
         <v>1.975</v>
       </c>
-      <c r="V112">
-        <v>1.825</v>
-      </c>
       <c r="W112">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X112">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y112">
         <v>-1</v>
       </c>
       <c r="Z112">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AA112">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
       <c r="AB112">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AC112">
         <v>-1</v>
@@ -10513,7 +10513,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>6552993</v>
+        <v>6553523</v>
       </c>
       <c r="C113" t="s">
         <v>28</v>
@@ -10525,73 +10525,73 @@
         <v>45047.45833333334</v>
       </c>
       <c r="F113" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G113" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="H113">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I113">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J113" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K113">
-        <v>2.1</v>
+        <v>1.833</v>
       </c>
       <c r="L113">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="M113">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="N113">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="O113">
-        <v>3</v>
+        <v>3.8</v>
       </c>
       <c r="P113">
-        <v>3.4</v>
+        <v>6</v>
       </c>
       <c r="Q113">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R113">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="S113">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="T113">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U113">
+        <v>1.975</v>
+      </c>
+      <c r="V113">
         <v>1.825</v>
       </c>
-      <c r="V113">
-        <v>1.975</v>
-      </c>
       <c r="W113">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X113">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y113">
         <v>-1</v>
       </c>
       <c r="Z113">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA113">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
       <c r="AB113">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC113">
         <v>-1</v>
@@ -10792,10 +10792,10 @@
         <v>45052.5</v>
       </c>
       <c r="F116" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G116" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H116">
         <v>1</v>
@@ -10881,7 +10881,7 @@
         <v>45052.5</v>
       </c>
       <c r="F117" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G117" t="s">
         <v>38</v>
@@ -11148,10 +11148,10 @@
         <v>45053.5</v>
       </c>
       <c r="F120" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G120" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H120">
         <v>1</v>
@@ -11225,7 +11225,7 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>6553525</v>
+        <v>6552997</v>
       </c>
       <c r="C121" t="s">
         <v>28</v>
@@ -11237,13 +11237,13 @@
         <v>45058.5</v>
       </c>
       <c r="F121" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="G121" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="H121">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I121">
         <v>0</v>
@@ -11252,43 +11252,43 @@
         <v>51</v>
       </c>
       <c r="K121">
-        <v>1.8</v>
+        <v>1.727</v>
       </c>
       <c r="L121">
         <v>3.25</v>
       </c>
       <c r="M121">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="N121">
-        <v>1.363</v>
+        <v>1.615</v>
       </c>
       <c r="O121">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="P121">
-        <v>7.5</v>
+        <v>5</v>
       </c>
       <c r="Q121">
-        <v>-1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R121">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S121">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T121">
         <v>2.5</v>
       </c>
       <c r="U121">
+        <v>1.85</v>
+      </c>
+      <c r="V121">
         <v>1.95</v>
       </c>
-      <c r="V121">
-        <v>1.85</v>
-      </c>
       <c r="W121">
-        <v>0.363</v>
+        <v>0.615</v>
       </c>
       <c r="X121">
         <v>-1</v>
@@ -11297,16 +11297,16 @@
         <v>-1</v>
       </c>
       <c r="Z121">
+        <v>0.825</v>
+      </c>
+      <c r="AA121">
+        <v>-1</v>
+      </c>
+      <c r="AB121">
+        <v>-1</v>
+      </c>
+      <c r="AC121">
         <v>0.95</v>
-      </c>
-      <c r="AA121">
-        <v>-1</v>
-      </c>
-      <c r="AB121">
-        <v>0.95</v>
-      </c>
-      <c r="AC121">
-        <v>-1</v>
       </c>
     </row>
     <row r="122" spans="1:29">
@@ -11314,7 +11314,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>6552997</v>
+        <v>6553525</v>
       </c>
       <c r="C122" t="s">
         <v>28</v>
@@ -11326,13 +11326,13 @@
         <v>45058.5</v>
       </c>
       <c r="F122" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="G122" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="H122">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I122">
         <v>0</v>
@@ -11341,43 +11341,43 @@
         <v>51</v>
       </c>
       <c r="K122">
-        <v>1.727</v>
+        <v>1.8</v>
       </c>
       <c r="L122">
         <v>3.25</v>
       </c>
       <c r="M122">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="N122">
-        <v>1.615</v>
+        <v>1.363</v>
       </c>
       <c r="O122">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="P122">
-        <v>5</v>
+        <v>7.5</v>
       </c>
       <c r="Q122">
-        <v>-0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R122">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S122">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T122">
         <v>2.5</v>
       </c>
       <c r="U122">
+        <v>1.95</v>
+      </c>
+      <c r="V122">
         <v>1.85</v>
       </c>
-      <c r="V122">
-        <v>1.95</v>
-      </c>
       <c r="W122">
-        <v>0.615</v>
+        <v>0.363</v>
       </c>
       <c r="X122">
         <v>-1</v>
@@ -11386,16 +11386,16 @@
         <v>-1</v>
       </c>
       <c r="Z122">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
       <c r="AA122">
         <v>-1</v>
       </c>
       <c r="AB122">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC122">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="123" spans="1:29">
@@ -11507,7 +11507,7 @@
         <v>40</v>
       </c>
       <c r="G124" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H124">
         <v>1</v>
@@ -11593,7 +11593,7 @@
         <v>45066.58333333334</v>
       </c>
       <c r="F125" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G125" t="s">
         <v>43</v>
@@ -11774,7 +11774,7 @@
         <v>29</v>
       </c>
       <c r="G127" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H127">
         <v>1</v>
@@ -11937,7 +11937,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>6989497</v>
+        <v>7018401</v>
       </c>
       <c r="C129" t="s">
         <v>28</v>
@@ -11949,13 +11949,13 @@
         <v>45143.52083333334</v>
       </c>
       <c r="F129" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="G129" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="H129">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I129">
         <v>0</v>
@@ -11964,19 +11964,19 @@
         <v>51</v>
       </c>
       <c r="K129">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="L129">
-        <v>2.8</v>
+        <v>2.875</v>
       </c>
       <c r="M129">
         <v>2.55</v>
       </c>
       <c r="N129">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="O129">
-        <v>2.8</v>
+        <v>2.875</v>
       </c>
       <c r="P129">
         <v>2.55</v>
@@ -11994,13 +11994,13 @@
         <v>2</v>
       </c>
       <c r="U129">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="V129">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="W129">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="X129">
         <v>-1</v>
@@ -12015,10 +12015,10 @@
         <v>-1</v>
       </c>
       <c r="AB129">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC129">
-        <v>-0</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="130" spans="1:29">
@@ -12026,7 +12026,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>7018401</v>
+        <v>6989497</v>
       </c>
       <c r="C130" t="s">
         <v>28</v>
@@ -12038,13 +12038,13 @@
         <v>45143.52083333334</v>
       </c>
       <c r="F130" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="G130" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="H130">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I130">
         <v>0</v>
@@ -12053,19 +12053,19 @@
         <v>51</v>
       </c>
       <c r="K130">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="L130">
-        <v>2.875</v>
+        <v>2.8</v>
       </c>
       <c r="M130">
         <v>2.55</v>
       </c>
       <c r="N130">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="O130">
-        <v>2.875</v>
+        <v>2.8</v>
       </c>
       <c r="P130">
         <v>2.55</v>
@@ -12083,13 +12083,13 @@
         <v>2</v>
       </c>
       <c r="U130">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="V130">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="W130">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="X130">
         <v>-1</v>
@@ -12104,10 +12104,10 @@
         <v>-1</v>
       </c>
       <c r="AB130">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC130">
-        <v>1.025</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="131" spans="1:29">
@@ -12127,7 +12127,7 @@
         <v>45143.52083333334</v>
       </c>
       <c r="F131" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G131" t="s">
         <v>41</v>
@@ -12216,10 +12216,10 @@
         <v>45143.625</v>
       </c>
       <c r="F132" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G132" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H132">
         <v>1</v>
@@ -12305,7 +12305,7 @@
         <v>45143.625</v>
       </c>
       <c r="F133" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G133" t="s">
         <v>48</v>
@@ -12394,7 +12394,7 @@
         <v>45144.52083333334</v>
       </c>
       <c r="F134" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G134" t="s">
         <v>50</v>
@@ -12661,10 +12661,10 @@
         <v>45149.52083333334</v>
       </c>
       <c r="F137" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G137" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H137">
         <v>3</v>
@@ -12842,7 +12842,7 @@
         <v>47</v>
       </c>
       <c r="G139" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H139">
         <v>3</v>
@@ -13109,7 +13109,7 @@
         <v>48</v>
       </c>
       <c r="G142" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H142">
         <v>4</v>
@@ -13198,7 +13198,7 @@
         <v>41</v>
       </c>
       <c r="G143" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H143">
         <v>1</v>
@@ -13462,7 +13462,7 @@
         <v>45157.58333333334</v>
       </c>
       <c r="F146" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G146" t="s">
         <v>47</v>
@@ -13539,7 +13539,7 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>6989664</v>
+        <v>7019003</v>
       </c>
       <c r="C147" t="s">
         <v>28</v>
@@ -13551,76 +13551,76 @@
         <v>45157.58333333334</v>
       </c>
       <c r="F147" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G147" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="H147">
+        <v>0</v>
+      </c>
+      <c r="I147">
+        <v>0</v>
+      </c>
+      <c r="J147" t="s">
+        <v>53</v>
+      </c>
+      <c r="K147">
+        <v>2.5</v>
+      </c>
+      <c r="L147">
         <v>3</v>
       </c>
-      <c r="I147">
-        <v>0</v>
-      </c>
-      <c r="J147" t="s">
-        <v>51</v>
-      </c>
-      <c r="K147">
-        <v>2.3</v>
-      </c>
-      <c r="L147">
+      <c r="M147">
+        <v>2.625</v>
+      </c>
+      <c r="N147">
+        <v>3</v>
+      </c>
+      <c r="O147">
         <v>2.875</v>
       </c>
-      <c r="M147">
-        <v>3</v>
-      </c>
-      <c r="N147">
-        <v>2.15</v>
-      </c>
-      <c r="O147">
-        <v>2.9</v>
-      </c>
       <c r="P147">
-        <v>3.25</v>
+        <v>2.375</v>
       </c>
       <c r="Q147">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R147">
-        <v>1.925</v>
+        <v>1.75</v>
       </c>
       <c r="S147">
+        <v>2.05</v>
+      </c>
+      <c r="T147">
+        <v>2</v>
+      </c>
+      <c r="U147">
+        <v>1.975</v>
+      </c>
+      <c r="V147">
+        <v>1.825</v>
+      </c>
+      <c r="W147">
+        <v>-1</v>
+      </c>
+      <c r="X147">
         <v>1.875</v>
       </c>
-      <c r="T147">
-        <v>2</v>
-      </c>
-      <c r="U147">
-        <v>1.925</v>
-      </c>
-      <c r="V147">
-        <v>1.875</v>
-      </c>
-      <c r="W147">
-        <v>1.15</v>
-      </c>
-      <c r="X147">
-        <v>-1</v>
-      </c>
       <c r="Y147">
         <v>-1</v>
       </c>
       <c r="Z147">
-        <v>0.925</v>
+        <v>0.375</v>
       </c>
       <c r="AA147">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB147">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC147">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="148" spans="1:29">
@@ -13628,7 +13628,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>7019003</v>
+        <v>6989664</v>
       </c>
       <c r="C148" t="s">
         <v>28</v>
@@ -13640,76 +13640,76 @@
         <v>45157.58333333334</v>
       </c>
       <c r="F148" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G148" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="H148">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I148">
         <v>0</v>
       </c>
       <c r="J148" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K148">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="L148">
+        <v>2.875</v>
+      </c>
+      <c r="M148">
         <v>3</v>
       </c>
-      <c r="M148">
-        <v>2.625</v>
-      </c>
       <c r="N148">
-        <v>3</v>
+        <v>2.15</v>
       </c>
       <c r="O148">
-        <v>2.875</v>
+        <v>2.9</v>
       </c>
       <c r="P148">
-        <v>2.375</v>
+        <v>3.25</v>
       </c>
       <c r="Q148">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R148">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="S148">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="T148">
         <v>2</v>
       </c>
       <c r="U148">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V148">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W148">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X148">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Y148">
         <v>-1</v>
       </c>
       <c r="Z148">
-        <v>0.375</v>
+        <v>0.925</v>
       </c>
       <c r="AA148">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB148">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC148">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="149" spans="1:29">
@@ -13729,10 +13729,10 @@
         <v>45158.5</v>
       </c>
       <c r="F149" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G149" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H149">
         <v>1</v>
@@ -13818,7 +13818,7 @@
         <v>45158.5</v>
       </c>
       <c r="F150" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G150" t="s">
         <v>48</v>
@@ -14088,7 +14088,7 @@
         <v>42</v>
       </c>
       <c r="G153" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H153">
         <v>1</v>
@@ -14352,7 +14352,7 @@
         <v>45165.5</v>
       </c>
       <c r="F156" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G156" t="s">
         <v>50</v>
@@ -14429,7 +14429,7 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>6989601</v>
+        <v>6989602</v>
       </c>
       <c r="C157" t="s">
         <v>28</v>
@@ -14441,76 +14441,76 @@
         <v>45165.5</v>
       </c>
       <c r="F157" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G157" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H157">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I157">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J157" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K157">
-        <v>2.3</v>
+        <v>1.666</v>
       </c>
       <c r="L157">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="M157">
-        <v>2.8</v>
+        <v>4.5</v>
       </c>
       <c r="N157">
-        <v>2.3</v>
+        <v>1.666</v>
       </c>
       <c r="O157">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="P157">
-        <v>2.8</v>
+        <v>4.5</v>
       </c>
       <c r="Q157">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R157">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S157">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T157">
         <v>2</v>
       </c>
       <c r="U157">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="V157">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="W157">
         <v>-1</v>
       </c>
       <c r="X157">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y157">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Z157">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA157">
-        <v>0.4</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB157">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AC157">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="158" spans="1:29">
@@ -14518,7 +14518,7 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>6989502</v>
+        <v>6989601</v>
       </c>
       <c r="C158" t="s">
         <v>28</v>
@@ -14530,76 +14530,76 @@
         <v>45165.5</v>
       </c>
       <c r="F158" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G158" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H158">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I158">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J158" t="s">
         <v>53</v>
       </c>
       <c r="K158">
-        <v>1.7</v>
+        <v>2.3</v>
       </c>
       <c r="L158">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="M158">
-        <v>4.5</v>
+        <v>2.8</v>
       </c>
       <c r="N158">
-        <v>1.4</v>
+        <v>2.3</v>
       </c>
       <c r="O158">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="P158">
-        <v>6.5</v>
+        <v>2.8</v>
       </c>
       <c r="Q158">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R158">
-        <v>1.725</v>
+        <v>2</v>
       </c>
       <c r="S158">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="T158">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U158">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V158">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W158">
         <v>-1</v>
       </c>
       <c r="X158">
-        <v>2.8</v>
+        <v>2.1</v>
       </c>
       <c r="Y158">
         <v>-1</v>
       </c>
       <c r="Z158">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA158">
-        <v>0.9750000000000001</v>
+        <v>0.4</v>
       </c>
       <c r="AB158">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC158">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="159" spans="1:29">
@@ -14607,7 +14607,7 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>6989602</v>
+        <v>6989502</v>
       </c>
       <c r="C159" t="s">
         <v>28</v>
@@ -14619,73 +14619,73 @@
         <v>45165.5</v>
       </c>
       <c r="F159" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G159" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H159">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I159">
         <v>2</v>
       </c>
       <c r="J159" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K159">
-        <v>1.666</v>
+        <v>1.7</v>
       </c>
       <c r="L159">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M159">
         <v>4.5</v>
       </c>
       <c r="N159">
-        <v>1.666</v>
+        <v>1.4</v>
       </c>
       <c r="O159">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="P159">
-        <v>4.5</v>
+        <v>6.5</v>
       </c>
       <c r="Q159">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R159">
-        <v>1.95</v>
+        <v>1.725</v>
       </c>
       <c r="S159">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T159">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U159">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="V159">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="W159">
         <v>-1</v>
       </c>
       <c r="X159">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y159">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Z159">
         <v>-1</v>
       </c>
       <c r="AA159">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB159">
-        <v>0.75</v>
+        <v>0.825</v>
       </c>
       <c r="AC159">
         <v>-1</v>
@@ -14711,7 +14711,7 @@
         <v>49</v>
       </c>
       <c r="G160" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H160">
         <v>1</v>
@@ -14886,7 +14886,7 @@
         <v>45171.5</v>
       </c>
       <c r="F162" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G162" t="s">
         <v>49</v>
@@ -14963,7 +14963,7 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>6989668</v>
+        <v>6989669</v>
       </c>
       <c r="C163" t="s">
         <v>28</v>
@@ -14975,76 +14975,76 @@
         <v>45171.58333333334</v>
       </c>
       <c r="F163" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G163" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H163">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I163">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J163" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K163">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="L163">
         <v>3.2</v>
       </c>
       <c r="M163">
-        <v>2.75</v>
+        <v>2.875</v>
       </c>
       <c r="N163">
-        <v>1.95</v>
+        <v>2.2</v>
       </c>
       <c r="O163">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="P163">
-        <v>3.5</v>
+        <v>2.9</v>
       </c>
       <c r="Q163">
+        <v>-0.25</v>
+      </c>
+      <c r="R163">
+        <v>1.975</v>
+      </c>
+      <c r="S163">
+        <v>1.825</v>
+      </c>
+      <c r="T163">
+        <v>2.25</v>
+      </c>
+      <c r="U163">
+        <v>2.025</v>
+      </c>
+      <c r="V163">
+        <v>1.775</v>
+      </c>
+      <c r="W163">
+        <v>-1</v>
+      </c>
+      <c r="X163">
+        <v>2.2</v>
+      </c>
+      <c r="Y163">
+        <v>-1</v>
+      </c>
+      <c r="Z163">
         <v>-0.5</v>
       </c>
-      <c r="R163">
-        <v>2</v>
-      </c>
-      <c r="S163">
-        <v>1.8</v>
-      </c>
-      <c r="T163">
-        <v>2</v>
-      </c>
-      <c r="U163">
-        <v>1.95</v>
-      </c>
-      <c r="V163">
-        <v>1.85</v>
-      </c>
-      <c r="W163">
-        <v>0.95</v>
-      </c>
-      <c r="X163">
-        <v>-1</v>
-      </c>
-      <c r="Y163">
-        <v>-1</v>
-      </c>
-      <c r="Z163">
-        <v>1</v>
-      </c>
       <c r="AA163">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AB163">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AC163">
-        <v>-0</v>
+        <v>0.3875</v>
       </c>
     </row>
     <row r="164" spans="1:29">
@@ -15052,7 +15052,7 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>6989669</v>
+        <v>6989668</v>
       </c>
       <c r="C164" t="s">
         <v>28</v>
@@ -15064,76 +15064,76 @@
         <v>45171.58333333334</v>
       </c>
       <c r="F164" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G164" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H164">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I164">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J164" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K164">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="L164">
         <v>3.2</v>
       </c>
       <c r="M164">
-        <v>2.875</v>
+        <v>2.75</v>
       </c>
       <c r="N164">
-        <v>2.2</v>
+        <v>1.95</v>
       </c>
       <c r="O164">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="P164">
-        <v>2.9</v>
+        <v>3.5</v>
       </c>
       <c r="Q164">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R164">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S164">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T164">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U164">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="V164">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="W164">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="X164">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y164">
         <v>-1</v>
       </c>
       <c r="Z164">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AA164">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AB164">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AC164">
-        <v>0.3875</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="165" spans="1:29">
@@ -15141,7 +15141,7 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>6989504</v>
+        <v>6989503</v>
       </c>
       <c r="C165" t="s">
         <v>28</v>
@@ -15153,73 +15153,73 @@
         <v>45172.5</v>
       </c>
       <c r="F165" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="G165" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="H165">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I165">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J165" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K165">
+        <v>1.85</v>
+      </c>
+      <c r="L165">
+        <v>2.8</v>
+      </c>
+      <c r="M165">
+        <v>4.75</v>
+      </c>
+      <c r="N165">
+        <v>2.3</v>
+      </c>
+      <c r="O165">
+        <v>2.75</v>
+      </c>
+      <c r="P165">
         <v>3.4</v>
       </c>
-      <c r="L165">
-        <v>3.4</v>
-      </c>
-      <c r="M165">
-        <v>1.909</v>
-      </c>
-      <c r="N165">
-        <v>6</v>
-      </c>
-      <c r="O165">
-        <v>3.6</v>
-      </c>
-      <c r="P165">
-        <v>1.5</v>
-      </c>
       <c r="Q165">
-        <v>1</v>
+        <v>-0.25</v>
       </c>
       <c r="R165">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S165">
+        <v>1.85</v>
+      </c>
+      <c r="T165">
+        <v>2</v>
+      </c>
+      <c r="U165">
+        <v>2</v>
+      </c>
+      <c r="V165">
         <v>1.8</v>
       </c>
-      <c r="T165">
-        <v>2.5</v>
-      </c>
-      <c r="U165">
-        <v>1.975</v>
-      </c>
-      <c r="V165">
-        <v>1.825</v>
-      </c>
       <c r="W165">
         <v>-1</v>
       </c>
       <c r="X165">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y165">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Z165">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA165">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB165">
-        <v>0.9750000000000001</v>
+        <v>1</v>
       </c>
       <c r="AC165">
         <v>-1</v>
@@ -15230,7 +15230,7 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>6989503</v>
+        <v>6989504</v>
       </c>
       <c r="C166" t="s">
         <v>28</v>
@@ -15242,73 +15242,73 @@
         <v>45172.5</v>
       </c>
       <c r="F166" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G166" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="H166">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I166">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J166" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K166">
-        <v>1.85</v>
+        <v>3.4</v>
       </c>
       <c r="L166">
-        <v>2.8</v>
+        <v>3.4</v>
       </c>
       <c r="M166">
-        <v>4.75</v>
+        <v>1.909</v>
       </c>
       <c r="N166">
-        <v>2.3</v>
+        <v>6</v>
       </c>
       <c r="O166">
-        <v>2.75</v>
+        <v>3.6</v>
       </c>
       <c r="P166">
-        <v>3.4</v>
+        <v>1.5</v>
       </c>
       <c r="Q166">
-        <v>-0.25</v>
+        <v>1</v>
       </c>
       <c r="R166">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S166">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T166">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U166">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V166">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W166">
         <v>-1</v>
       </c>
       <c r="X166">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y166">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Z166">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA166">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB166">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC166">
         <v>-1</v>
@@ -15420,7 +15420,7 @@
         <v>45172.58333333334</v>
       </c>
       <c r="F168" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G168" t="s">
         <v>42</v>
@@ -15586,7 +15586,7 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>6989604</v>
+        <v>6989671</v>
       </c>
       <c r="C170" t="s">
         <v>28</v>
@@ -15598,76 +15598,76 @@
         <v>45178.47916666666</v>
       </c>
       <c r="F170" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="G170" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H170">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I170">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J170" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K170">
-        <v>2.05</v>
+        <v>2.3</v>
       </c>
       <c r="L170">
+        <v>2.8</v>
+      </c>
+      <c r="M170">
         <v>3.25</v>
       </c>
-      <c r="M170">
-        <v>3.3</v>
-      </c>
       <c r="N170">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="O170">
-        <v>3.25</v>
+        <v>2.8</v>
       </c>
       <c r="P170">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="Q170">
         <v>-0.25</v>
       </c>
       <c r="R170">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S170">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="T170">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U170">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V170">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="W170">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="X170">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y170">
         <v>-1</v>
       </c>
       <c r="Z170">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AA170">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AB170">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC170">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="171" spans="1:29">
@@ -15690,7 +15690,7 @@
         <v>42</v>
       </c>
       <c r="G171" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H171">
         <v>4</v>
@@ -15764,7 +15764,7 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>6989671</v>
+        <v>6989604</v>
       </c>
       <c r="C172" t="s">
         <v>28</v>
@@ -15776,76 +15776,76 @@
         <v>45178.47916666666</v>
       </c>
       <c r="F172" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="G172" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H172">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I172">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J172" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K172">
-        <v>2.3</v>
+        <v>2.05</v>
       </c>
       <c r="L172">
-        <v>2.8</v>
+        <v>3.25</v>
       </c>
       <c r="M172">
+        <v>3.3</v>
+      </c>
+      <c r="N172">
+        <v>2.1</v>
+      </c>
+      <c r="O172">
         <v>3.25</v>
       </c>
-      <c r="N172">
-        <v>2.3</v>
-      </c>
-      <c r="O172">
-        <v>2.8</v>
-      </c>
       <c r="P172">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="Q172">
         <v>-0.25</v>
       </c>
       <c r="R172">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S172">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="T172">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U172">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V172">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W172">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="X172">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y172">
         <v>-1</v>
       </c>
       <c r="Z172">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA172">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AB172">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC172">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="173" spans="1:29">
@@ -15853,7 +15853,7 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>6989505</v>
+        <v>6989319</v>
       </c>
       <c r="C173" t="s">
         <v>28</v>
@@ -15865,58 +15865,58 @@
         <v>45179.47916666666</v>
       </c>
       <c r="F173" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G173" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="H173">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I173">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J173" t="s">
         <v>51</v>
       </c>
       <c r="K173">
-        <v>1.222</v>
+        <v>2.2</v>
       </c>
       <c r="L173">
-        <v>5</v>
+        <v>3.1</v>
       </c>
       <c r="M173">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="N173">
-        <v>1.2</v>
+        <v>1.833</v>
       </c>
       <c r="O173">
-        <v>5.25</v>
+        <v>3.3</v>
       </c>
       <c r="P173">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="Q173">
-        <v>-2</v>
+        <v>-0.5</v>
       </c>
       <c r="R173">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S173">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T173">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U173">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V173">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W173">
-        <v>0.2</v>
+        <v>0.833</v>
       </c>
       <c r="X173">
         <v>-1</v>
@@ -15925,16 +15925,16 @@
         <v>-1</v>
       </c>
       <c r="Z173">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA173">
         <v>-1</v>
       </c>
       <c r="AB173">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC173">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="174" spans="1:29">
@@ -15957,7 +15957,7 @@
         <v>46</v>
       </c>
       <c r="G174" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H174">
         <v>0</v>
@@ -16031,7 +16031,7 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>6989319</v>
+        <v>6989505</v>
       </c>
       <c r="C175" t="s">
         <v>28</v>
@@ -16043,58 +16043,58 @@
         <v>45179.47916666666</v>
       </c>
       <c r="F175" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G175" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="H175">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I175">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J175" t="s">
         <v>51</v>
       </c>
       <c r="K175">
-        <v>2.2</v>
+        <v>1.222</v>
       </c>
       <c r="L175">
-        <v>3.1</v>
+        <v>5</v>
       </c>
       <c r="M175">
+        <v>10</v>
+      </c>
+      <c r="N175">
+        <v>1.2</v>
+      </c>
+      <c r="O175">
+        <v>5.25</v>
+      </c>
+      <c r="P175">
+        <v>12</v>
+      </c>
+      <c r="Q175">
+        <v>-2</v>
+      </c>
+      <c r="R175">
+        <v>1.9</v>
+      </c>
+      <c r="S175">
+        <v>1.9</v>
+      </c>
+      <c r="T175">
         <v>3</v>
       </c>
-      <c r="N175">
-        <v>1.833</v>
-      </c>
-      <c r="O175">
-        <v>3.3</v>
-      </c>
-      <c r="P175">
-        <v>4</v>
-      </c>
-      <c r="Q175">
-        <v>-0.5</v>
-      </c>
-      <c r="R175">
-        <v>1.85</v>
-      </c>
-      <c r="S175">
-        <v>1.95</v>
-      </c>
-      <c r="T175">
-        <v>2</v>
-      </c>
       <c r="U175">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V175">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W175">
-        <v>0.833</v>
+        <v>0.2</v>
       </c>
       <c r="X175">
         <v>-1</v>
@@ -16103,16 +16103,16 @@
         <v>-1</v>
       </c>
       <c r="Z175">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA175">
         <v>-1</v>
       </c>
       <c r="AB175">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC175">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="176" spans="1:29">
@@ -16135,7 +16135,7 @@
         <v>49</v>
       </c>
       <c r="G176" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H176">
         <v>2</v>
@@ -16221,7 +16221,7 @@
         <v>45185.58333333334</v>
       </c>
       <c r="F177" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G177" t="s">
         <v>29</v>
@@ -16488,7 +16488,7 @@
         <v>45186.45833333334</v>
       </c>
       <c r="F180" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G180" t="s">
         <v>42</v>
@@ -16666,7 +16666,7 @@
         <v>45186.45833333334</v>
       </c>
       <c r="F182" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G182" t="s">
         <v>48</v>
@@ -16755,7 +16755,7 @@
         <v>45186.58333333334</v>
       </c>
       <c r="F183" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G183" t="s">
         <v>46</v>
@@ -16844,7 +16844,7 @@
         <v>45187.45833333334</v>
       </c>
       <c r="F184" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G184" t="s">
         <v>45</v>
@@ -17025,7 +17025,7 @@
         <v>40</v>
       </c>
       <c r="G186" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H186">
         <v>0</v>
@@ -17203,7 +17203,7 @@
         <v>47</v>
       </c>
       <c r="G188" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H188">
         <v>4</v>
@@ -17381,7 +17381,7 @@
         <v>45</v>
       </c>
       <c r="G190" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H190">
         <v>2</v>
@@ -17470,7 +17470,7 @@
         <v>29</v>
       </c>
       <c r="G191" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H191">
         <v>1</v>
@@ -17559,7 +17559,7 @@
         <v>46</v>
       </c>
       <c r="G192" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H192">
         <v>3</v>
@@ -17648,7 +17648,7 @@
         <v>40</v>
       </c>
       <c r="G193" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H193">
         <v>1</v>
@@ -17722,7 +17722,7 @@
         <v>192</v>
       </c>
       <c r="B194">
-        <v>6989511</v>
+        <v>6989680</v>
       </c>
       <c r="C194" t="s">
         <v>28</v>
@@ -17734,10 +17734,10 @@
         <v>45200.41666666666</v>
       </c>
       <c r="F194" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="G194" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="H194">
         <v>1</v>
@@ -17749,43 +17749,43 @@
         <v>51</v>
       </c>
       <c r="K194">
-        <v>1.571</v>
+        <v>2</v>
       </c>
       <c r="L194">
+        <v>3</v>
+      </c>
+      <c r="M194">
         <v>3.6</v>
       </c>
-      <c r="M194">
-        <v>5</v>
-      </c>
       <c r="N194">
-        <v>1.333</v>
+        <v>1.95</v>
       </c>
       <c r="O194">
-        <v>4.2</v>
+        <v>3</v>
       </c>
       <c r="P194">
-        <v>7.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q194">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R194">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="S194">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="T194">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U194">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V194">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="W194">
-        <v>0.333</v>
+        <v>0.95</v>
       </c>
       <c r="X194">
         <v>-1</v>
@@ -17794,16 +17794,16 @@
         <v>-1</v>
       </c>
       <c r="Z194">
-        <v>-0.5</v>
+        <v>1.025</v>
       </c>
       <c r="AA194">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AB194">
         <v>-1</v>
       </c>
       <c r="AC194">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="195" spans="1:29">
@@ -17811,7 +17811,7 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>6989680</v>
+        <v>6989614</v>
       </c>
       <c r="C195" t="s">
         <v>28</v>
@@ -17823,58 +17823,58 @@
         <v>45200.41666666666</v>
       </c>
       <c r="F195" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="G195" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="H195">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I195">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J195" t="s">
         <v>51</v>
       </c>
       <c r="K195">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="L195">
+        <v>3.25</v>
+      </c>
+      <c r="M195">
         <v>3</v>
       </c>
-      <c r="M195">
-        <v>3.6</v>
-      </c>
       <c r="N195">
-        <v>1.95</v>
+        <v>2.2</v>
       </c>
       <c r="O195">
+        <v>3.1</v>
+      </c>
+      <c r="P195">
         <v>3</v>
       </c>
-      <c r="P195">
-        <v>3.75</v>
-      </c>
       <c r="Q195">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R195">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="S195">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="T195">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U195">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V195">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W195">
-        <v>0.95</v>
+        <v>1.2</v>
       </c>
       <c r="X195">
         <v>-1</v>
@@ -17883,16 +17883,16 @@
         <v>-1</v>
       </c>
       <c r="Z195">
-        <v>1.025</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA195">
         <v>-1</v>
       </c>
       <c r="AB195">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC195">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="196" spans="1:29">
@@ -17900,7 +17900,7 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>6989614</v>
+        <v>6989512</v>
       </c>
       <c r="C196" t="s">
         <v>28</v>
@@ -17912,40 +17912,40 @@
         <v>45200.41666666666</v>
       </c>
       <c r="F196" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="G196" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H196">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I196">
         <v>1</v>
       </c>
       <c r="J196" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K196">
-        <v>2.1</v>
+        <v>1.666</v>
       </c>
       <c r="L196">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="M196">
-        <v>3</v>
+        <v>4.75</v>
       </c>
       <c r="N196">
-        <v>2.2</v>
+        <v>1.5</v>
       </c>
       <c r="O196">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="P196">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="Q196">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R196">
         <v>1.975</v>
@@ -17957,31 +17957,31 @@
         <v>2.25</v>
       </c>
       <c r="U196">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="V196">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="W196">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X196">
         <v>-1</v>
       </c>
       <c r="Y196">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="Z196">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA196">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB196">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC196">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="197" spans="1:29">
@@ -17989,7 +17989,7 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>6989512</v>
+        <v>6989511</v>
       </c>
       <c r="C197" t="s">
         <v>28</v>
@@ -18001,76 +18001,76 @@
         <v>45200.41666666666</v>
       </c>
       <c r="F197" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="G197" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="H197">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I197">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J197" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K197">
-        <v>1.666</v>
+        <v>1.571</v>
       </c>
       <c r="L197">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="M197">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="N197">
-        <v>1.5</v>
+        <v>1.333</v>
       </c>
       <c r="O197">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="P197">
-        <v>6</v>
+        <v>7.5</v>
       </c>
       <c r="Q197">
-        <v>-1</v>
+        <v>-1.25</v>
       </c>
       <c r="R197">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S197">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="T197">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U197">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="V197">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="W197">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="X197">
         <v>-1</v>
       </c>
       <c r="Y197">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="Z197">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA197">
-        <v>0.825</v>
+        <v>0.45</v>
       </c>
       <c r="AB197">
         <v>-1</v>
       </c>
       <c r="AC197">
-        <v>0.7749999999999999</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="198" spans="1:29">
@@ -18090,10 +18090,10 @@
         <v>45200.58333333334</v>
       </c>
       <c r="F198" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G198" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H198">
         <v>0</v>
@@ -18357,10 +18357,10 @@
         <v>45206.41666666666</v>
       </c>
       <c r="F201" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G201" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H201">
         <v>1</v>
@@ -18446,7 +18446,7 @@
         <v>45206.54166666666</v>
       </c>
       <c r="F202" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G202" t="s">
         <v>33</v>
@@ -18624,7 +18624,7 @@
         <v>45207.41666666666</v>
       </c>
       <c r="F204" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G204" t="s">
         <v>40</v>
@@ -18980,7 +18980,7 @@
         <v>45208.41666666666</v>
       </c>
       <c r="F208" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G208" t="s">
         <v>45</v>
@@ -19069,10 +19069,10 @@
         <v>45213.41666666666</v>
       </c>
       <c r="F209" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G209" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H209">
         <v>3</v>
@@ -19425,10 +19425,10 @@
         <v>45214.54166666666</v>
       </c>
       <c r="F213" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G213" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H213">
         <v>0</v>
@@ -19695,7 +19695,7 @@
         <v>46</v>
       </c>
       <c r="G216" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H216">
         <v>0</v>
@@ -19781,7 +19781,7 @@
         <v>45220.375</v>
       </c>
       <c r="F217" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G217" t="s">
         <v>33</v>
@@ -19959,10 +19959,10 @@
         <v>45220.375</v>
       </c>
       <c r="F219" t="s">
+        <v>34</v>
+      </c>
+      <c r="G219" t="s">
         <v>35</v>
-      </c>
-      <c r="G219" t="s">
-        <v>34</v>
       </c>
       <c r="H219">
         <v>2</v>
@@ -20051,7 +20051,7 @@
         <v>50</v>
       </c>
       <c r="G220" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H220">
         <v>1</v>
@@ -20226,7 +20226,7 @@
         <v>45221.375</v>
       </c>
       <c r="F222" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G222" t="s">
         <v>29</v>
@@ -20582,7 +20582,7 @@
         <v>45226.5</v>
       </c>
       <c r="F226" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G226" t="s">
         <v>50</v>
@@ -20659,7 +20659,7 @@
         <v>225</v>
       </c>
       <c r="B227">
-        <v>6989520</v>
+        <v>6989519</v>
       </c>
       <c r="C227" t="s">
         <v>28</v>
@@ -20671,10 +20671,10 @@
         <v>45227.375</v>
       </c>
       <c r="F227" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G227" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="H227">
         <v>2</v>
@@ -20686,43 +20686,43 @@
         <v>51</v>
       </c>
       <c r="K227">
-        <v>1.615</v>
+        <v>1.571</v>
       </c>
       <c r="L227">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M227">
-        <v>4.333</v>
+        <v>5</v>
       </c>
       <c r="N227">
-        <v>1.55</v>
+        <v>1.533</v>
       </c>
       <c r="O227">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="P227">
-        <v>4.75</v>
+        <v>5.25</v>
       </c>
       <c r="Q227">
         <v>-1</v>
       </c>
       <c r="R227">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S227">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T227">
         <v>2.25</v>
       </c>
       <c r="U227">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="V227">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W227">
-        <v>0.55</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X227">
         <v>-1</v>
@@ -20737,7 +20737,7 @@
         <v>-0</v>
       </c>
       <c r="AB227">
-        <v>0.8</v>
+        <v>0.925</v>
       </c>
       <c r="AC227">
         <v>-1</v>
@@ -20748,7 +20748,7 @@
         <v>226</v>
       </c>
       <c r="B228">
-        <v>6989519</v>
+        <v>6989520</v>
       </c>
       <c r="C228" t="s">
         <v>28</v>
@@ -20763,7 +20763,7 @@
         <v>32</v>
       </c>
       <c r="G228" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="H228">
         <v>2</v>
@@ -20775,43 +20775,43 @@
         <v>51</v>
       </c>
       <c r="K228">
-        <v>1.571</v>
+        <v>1.615</v>
       </c>
       <c r="L228">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M228">
-        <v>5</v>
+        <v>4.333</v>
       </c>
       <c r="N228">
-        <v>1.533</v>
+        <v>1.55</v>
       </c>
       <c r="O228">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P228">
-        <v>5.25</v>
+        <v>4.75</v>
       </c>
       <c r="Q228">
         <v>-1</v>
       </c>
       <c r="R228">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S228">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T228">
         <v>2.25</v>
       </c>
       <c r="U228">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="V228">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W228">
-        <v>0.5329999999999999</v>
+        <v>0.55</v>
       </c>
       <c r="X228">
         <v>-1</v>
@@ -20826,7 +20826,7 @@
         <v>-0</v>
       </c>
       <c r="AB228">
-        <v>0.925</v>
+        <v>0.8</v>
       </c>
       <c r="AC228">
         <v>-1</v>
@@ -21119,7 +21119,7 @@
         <v>40</v>
       </c>
       <c r="G232" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H232">
         <v>0</v>
@@ -21383,10 +21383,10 @@
         <v>45235.375</v>
       </c>
       <c r="F235" t="s">
+        <v>31</v>
+      </c>
+      <c r="G235" t="s">
         <v>30</v>
-      </c>
-      <c r="G235" t="s">
-        <v>32</v>
       </c>
       <c r="H235">
         <v>5</v>
@@ -21475,7 +21475,7 @@
         <v>50</v>
       </c>
       <c r="G236" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H236">
         <v>1</v>
@@ -21638,7 +21638,7 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>6989691</v>
+        <v>6989521</v>
       </c>
       <c r="C238" t="s">
         <v>28</v>
@@ -21650,76 +21650,76 @@
         <v>45236.375</v>
       </c>
       <c r="F238" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="G238" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="H238">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I238">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J238" t="s">
         <v>53</v>
       </c>
       <c r="K238">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="L238">
         <v>3</v>
       </c>
       <c r="M238">
-        <v>3.6</v>
+        <v>2.75</v>
       </c>
       <c r="N238">
-        <v>1.95</v>
+        <v>2.875</v>
       </c>
       <c r="O238">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="P238">
-        <v>3.75</v>
+        <v>2.45</v>
       </c>
       <c r="Q238">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R238">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="S238">
+        <v>1.75</v>
+      </c>
+      <c r="T238">
+        <v>2</v>
+      </c>
+      <c r="U238">
         <v>1.8</v>
       </c>
-      <c r="T238">
-        <v>2</v>
-      </c>
-      <c r="U238">
-        <v>1.9</v>
-      </c>
       <c r="V238">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W238">
         <v>-1</v>
       </c>
       <c r="X238">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="Y238">
         <v>-1</v>
       </c>
       <c r="Z238">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA238">
-        <v>0.8</v>
+        <v>-0</v>
       </c>
       <c r="AB238">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC238">
-        <v>0.8999999999999999</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="239" spans="1:29">
@@ -21742,7 +21742,7 @@
         <v>41</v>
       </c>
       <c r="G239" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H239">
         <v>0</v>
@@ -21816,7 +21816,7 @@
         <v>238</v>
       </c>
       <c r="B240">
-        <v>6989521</v>
+        <v>6989691</v>
       </c>
       <c r="C240" t="s">
         <v>28</v>
@@ -21828,76 +21828,76 @@
         <v>45236.375</v>
       </c>
       <c r="F240" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="G240" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="H240">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I240">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J240" t="s">
         <v>53</v>
       </c>
       <c r="K240">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="L240">
         <v>3</v>
       </c>
       <c r="M240">
-        <v>2.75</v>
+        <v>3.6</v>
       </c>
       <c r="N240">
-        <v>2.875</v>
+        <v>1.95</v>
       </c>
       <c r="O240">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="P240">
-        <v>2.45</v>
+        <v>3.75</v>
       </c>
       <c r="Q240">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R240">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S240">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="T240">
         <v>2</v>
       </c>
       <c r="U240">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V240">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W240">
         <v>-1</v>
       </c>
       <c r="X240">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="Y240">
         <v>-1</v>
       </c>
       <c r="Z240">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA240">
-        <v>-0</v>
+        <v>0.8</v>
       </c>
       <c r="AB240">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC240">
-        <v>-0</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="241" spans="1:29">
@@ -22187,7 +22187,7 @@
         <v>48</v>
       </c>
       <c r="G244" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H244">
         <v>1</v>
@@ -22273,10 +22273,10 @@
         <v>45242.375</v>
       </c>
       <c r="F245" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G245" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H245">
         <v>1</v>
@@ -22365,7 +22365,7 @@
         <v>41</v>
       </c>
       <c r="G246" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H246">
         <v>0</v>
@@ -22540,7 +22540,7 @@
         <v>45247.375</v>
       </c>
       <c r="F248" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G248" t="s">
         <v>41</v>
@@ -22718,10 +22718,10 @@
         <v>45248.375</v>
       </c>
       <c r="F250" t="s">
+        <v>32</v>
+      </c>
+      <c r="G250" t="s">
         <v>31</v>
-      </c>
-      <c r="G250" t="s">
-        <v>30</v>
       </c>
       <c r="H250">
         <v>3</v>
@@ -22807,7 +22807,7 @@
         <v>45248.375</v>
       </c>
       <c r="F251" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G251" t="s">
         <v>48</v>
@@ -22896,7 +22896,7 @@
         <v>45248.375</v>
       </c>
       <c r="F252" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G252" t="s">
         <v>47</v>
@@ -23074,7 +23074,7 @@
         <v>45251.375</v>
       </c>
       <c r="F254" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G254" t="s">
         <v>46</v>
@@ -23240,7 +23240,7 @@
         <v>254</v>
       </c>
       <c r="B256">
-        <v>7497904</v>
+        <v>7497903</v>
       </c>
       <c r="C256" t="s">
         <v>28</v>
@@ -23252,76 +23252,76 @@
         <v>45252.375</v>
       </c>
       <c r="F256" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="G256" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="H256">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I256">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J256" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K256">
-        <v>2.4</v>
+        <v>1.571</v>
       </c>
       <c r="L256">
-        <v>2.875</v>
+        <v>3.75</v>
       </c>
       <c r="M256">
-        <v>2.875</v>
+        <v>4.75</v>
       </c>
       <c r="N256">
-        <v>2.875</v>
+        <v>1.5</v>
       </c>
       <c r="O256">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="P256">
-        <v>2.3</v>
+        <v>5.5</v>
       </c>
       <c r="Q256">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R256">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="S256">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="T256">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U256">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V256">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W256">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X256">
         <v>-1</v>
       </c>
       <c r="Y256">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z256">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA256">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB256">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC256">
-        <v>0.875</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="257" spans="1:29">
@@ -23329,7 +23329,7 @@
         <v>255</v>
       </c>
       <c r="B257">
-        <v>7497902</v>
+        <v>7497374</v>
       </c>
       <c r="C257" t="s">
         <v>28</v>
@@ -23344,73 +23344,73 @@
         <v>31</v>
       </c>
       <c r="G257" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="H257">
         <v>1</v>
       </c>
       <c r="I257">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J257" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K257">
-        <v>1.909</v>
+        <v>2.5</v>
       </c>
       <c r="L257">
         <v>3</v>
       </c>
       <c r="M257">
-        <v>4</v>
+        <v>2.625</v>
       </c>
       <c r="N257">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="O257">
         <v>3.1</v>
       </c>
       <c r="P257">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="Q257">
         <v>-0.5</v>
       </c>
       <c r="R257">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="S257">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="T257">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U257">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V257">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W257">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X257">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y257">
         <v>-1</v>
       </c>
       <c r="Z257">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA257">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB257">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC257">
-        <v>-0</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="258" spans="1:29">
@@ -23507,7 +23507,7 @@
         <v>257</v>
       </c>
       <c r="B259">
-        <v>7497374</v>
+        <v>7497902</v>
       </c>
       <c r="C259" t="s">
         <v>28</v>
@@ -23519,76 +23519,76 @@
         <v>45252.375</v>
       </c>
       <c r="F259" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G259" t="s">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="H259">
         <v>1</v>
       </c>
       <c r="I259">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J259" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K259">
-        <v>2.5</v>
+        <v>1.909</v>
       </c>
       <c r="L259">
         <v>3</v>
       </c>
       <c r="M259">
-        <v>2.625</v>
+        <v>4</v>
       </c>
       <c r="N259">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="O259">
         <v>3.1</v>
       </c>
       <c r="P259">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="Q259">
         <v>-0.5</v>
       </c>
       <c r="R259">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="S259">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="T259">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U259">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V259">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W259">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X259">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y259">
         <v>-1</v>
       </c>
       <c r="Z259">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA259">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB259">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC259">
-        <v>0.8500000000000001</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="260" spans="1:29">
@@ -23596,7 +23596,7 @@
         <v>258</v>
       </c>
       <c r="B260">
-        <v>7497903</v>
+        <v>7497904</v>
       </c>
       <c r="C260" t="s">
         <v>28</v>
@@ -23608,76 +23608,76 @@
         <v>45252.375</v>
       </c>
       <c r="F260" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="G260" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="H260">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I260">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J260" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K260">
-        <v>1.571</v>
+        <v>2.4</v>
       </c>
       <c r="L260">
-        <v>3.75</v>
+        <v>2.875</v>
       </c>
       <c r="M260">
-        <v>4.75</v>
+        <v>2.875</v>
       </c>
       <c r="N260">
-        <v>1.5</v>
+        <v>2.875</v>
       </c>
       <c r="O260">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="P260">
-        <v>5.5</v>
+        <v>2.3</v>
       </c>
       <c r="Q260">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R260">
+        <v>1.75</v>
+      </c>
+      <c r="S260">
+        <v>2.05</v>
+      </c>
+      <c r="T260">
+        <v>2</v>
+      </c>
+      <c r="U260">
         <v>1.925</v>
       </c>
-      <c r="S260">
+      <c r="V260">
         <v>1.875</v>
       </c>
-      <c r="T260">
-        <v>2.25</v>
-      </c>
-      <c r="U260">
-        <v>1.975</v>
-      </c>
-      <c r="V260">
-        <v>1.825</v>
-      </c>
       <c r="W260">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X260">
         <v>-1</v>
       </c>
       <c r="Y260">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z260">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA260">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AB260">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC260">
-        <v>0.4125</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="261" spans="1:29">
@@ -23697,7 +23697,7 @@
         <v>45253.45833333334</v>
       </c>
       <c r="F261" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G261" t="s">
         <v>40</v>
@@ -23774,7 +23774,7 @@
         <v>260</v>
       </c>
       <c r="B262">
-        <v>6989629</v>
+        <v>6989527</v>
       </c>
       <c r="C262" t="s">
         <v>28</v>
@@ -23786,58 +23786,58 @@
         <v>45256.375</v>
       </c>
       <c r="F262" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="G262" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H262">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I262">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J262" t="s">
         <v>51</v>
       </c>
       <c r="K262">
-        <v>2.1</v>
+        <v>1.727</v>
       </c>
       <c r="L262">
-        <v>2.875</v>
+        <v>3.3</v>
       </c>
       <c r="M262">
-        <v>3.5</v>
+        <v>4.333</v>
       </c>
       <c r="N262">
-        <v>1.75</v>
+        <v>1.444</v>
       </c>
       <c r="O262">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="P262">
-        <v>4.75</v>
+        <v>7</v>
       </c>
       <c r="Q262">
-        <v>-0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R262">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S262">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="T262">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="U262">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="V262">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="W262">
-        <v>0.75</v>
+        <v>0.444</v>
       </c>
       <c r="X262">
         <v>-1</v>
@@ -23846,16 +23846,16 @@
         <v>-1</v>
       </c>
       <c r="Z262">
-        <v>0.475</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA262">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB262">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC262">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="263" spans="1:29">
@@ -23863,7 +23863,7 @@
         <v>261</v>
       </c>
       <c r="B263">
-        <v>6989630</v>
+        <v>6989629</v>
       </c>
       <c r="C263" t="s">
         <v>28</v>
@@ -23875,13 +23875,13 @@
         <v>45256.375</v>
       </c>
       <c r="F263" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="G263" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H263">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I263">
         <v>0</v>
@@ -23890,43 +23890,43 @@
         <v>51</v>
       </c>
       <c r="K263">
-        <v>1.444</v>
+        <v>2.1</v>
       </c>
       <c r="L263">
-        <v>3.75</v>
+        <v>2.875</v>
       </c>
       <c r="M263">
-        <v>6.5</v>
+        <v>3.5</v>
       </c>
       <c r="N263">
-        <v>1.533</v>
+        <v>1.75</v>
       </c>
       <c r="O263">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="P263">
-        <v>6</v>
+        <v>4.75</v>
       </c>
       <c r="Q263">
-        <v>-1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R263">
-        <v>2.075</v>
+        <v>1.95</v>
       </c>
       <c r="S263">
-        <v>1.725</v>
+        <v>1.75</v>
       </c>
       <c r="T263">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U263">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="V263">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="W263">
-        <v>0.5329999999999999</v>
+        <v>0.75</v>
       </c>
       <c r="X263">
         <v>-1</v>
@@ -23935,16 +23935,16 @@
         <v>-1</v>
       </c>
       <c r="Z263">
-        <v>1.075</v>
+        <v>0.475</v>
       </c>
       <c r="AA263">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB263">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC263">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="264" spans="1:29">
@@ -23952,7 +23952,7 @@
         <v>262</v>
       </c>
       <c r="B264">
-        <v>6989526</v>
+        <v>6989630</v>
       </c>
       <c r="C264" t="s">
         <v>28</v>
@@ -23964,13 +23964,13 @@
         <v>45256.375</v>
       </c>
       <c r="F264" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="G264" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="H264">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I264">
         <v>0</v>
@@ -23979,43 +23979,43 @@
         <v>51</v>
       </c>
       <c r="K264">
-        <v>1.909</v>
+        <v>1.444</v>
       </c>
       <c r="L264">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="M264">
-        <v>4</v>
+        <v>6.5</v>
       </c>
       <c r="N264">
-        <v>2.1</v>
+        <v>1.533</v>
       </c>
       <c r="O264">
-        <v>2.9</v>
+        <v>3.8</v>
       </c>
       <c r="P264">
-        <v>3.5</v>
+        <v>6</v>
       </c>
       <c r="Q264">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R264">
-        <v>1.825</v>
+        <v>2.075</v>
       </c>
       <c r="S264">
-        <v>1.975</v>
+        <v>1.725</v>
       </c>
       <c r="T264">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U264">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V264">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W264">
-        <v>1.1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X264">
         <v>-1</v>
@@ -24024,16 +24024,16 @@
         <v>-1</v>
       </c>
       <c r="Z264">
-        <v>0.825</v>
+        <v>1.075</v>
       </c>
       <c r="AA264">
         <v>-1</v>
       </c>
       <c r="AB264">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC264">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="265" spans="1:29">
@@ -24041,7 +24041,7 @@
         <v>263</v>
       </c>
       <c r="B265">
-        <v>6989527</v>
+        <v>6989526</v>
       </c>
       <c r="C265" t="s">
         <v>28</v>
@@ -24053,58 +24053,58 @@
         <v>45256.375</v>
       </c>
       <c r="F265" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G265" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="H265">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I265">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J265" t="s">
         <v>51</v>
       </c>
       <c r="K265">
-        <v>1.727</v>
+        <v>1.909</v>
       </c>
       <c r="L265">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="M265">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="N265">
-        <v>1.444</v>
+        <v>2.1</v>
       </c>
       <c r="O265">
-        <v>3.8</v>
+        <v>2.9</v>
       </c>
       <c r="P265">
-        <v>7</v>
+        <v>3.5</v>
       </c>
       <c r="Q265">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R265">
+        <v>1.825</v>
+      </c>
+      <c r="S265">
         <v>1.975</v>
       </c>
-      <c r="S265">
+      <c r="T265">
+        <v>2</v>
+      </c>
+      <c r="U265">
+        <v>1.975</v>
+      </c>
+      <c r="V265">
         <v>1.825</v>
       </c>
-      <c r="T265">
-        <v>2.75</v>
-      </c>
-      <c r="U265">
-        <v>1.875</v>
-      </c>
-      <c r="V265">
-        <v>1.925</v>
-      </c>
       <c r="W265">
-        <v>0.444</v>
+        <v>1.1</v>
       </c>
       <c r="X265">
         <v>-1</v>
@@ -24113,16 +24113,16 @@
         <v>-1</v>
       </c>
       <c r="Z265">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AA265">
         <v>-1</v>
       </c>
       <c r="AB265">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="AC265">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="266" spans="1:29">
@@ -24145,7 +24145,7 @@
         <v>47</v>
       </c>
       <c r="G266" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H266">
         <v>1</v>
@@ -24219,7 +24219,7 @@
         <v>265</v>
       </c>
       <c r="B267">
-        <v>6989698</v>
+        <v>7523282</v>
       </c>
       <c r="C267" t="s">
         <v>28</v>
@@ -24231,76 +24231,76 @@
         <v>45257.375</v>
       </c>
       <c r="F267" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G267" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H267">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I267">
         <v>0</v>
       </c>
       <c r="J267" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K267">
+        <v>3</v>
+      </c>
+      <c r="L267">
+        <v>2.9</v>
+      </c>
+      <c r="M267">
+        <v>2.3</v>
+      </c>
+      <c r="N267">
+        <v>2.8</v>
+      </c>
+      <c r="O267">
+        <v>3.1</v>
+      </c>
+      <c r="P267">
+        <v>2.4</v>
+      </c>
+      <c r="Q267">
+        <v>0</v>
+      </c>
+      <c r="R267">
+        <v>2</v>
+      </c>
+      <c r="S267">
+        <v>1.8</v>
+      </c>
+      <c r="T267">
+        <v>2</v>
+      </c>
+      <c r="U267">
+        <v>1.875</v>
+      </c>
+      <c r="V267">
+        <v>1.925</v>
+      </c>
+      <c r="W267">
+        <v>-1</v>
+      </c>
+      <c r="X267">
         <v>2.1</v>
       </c>
-      <c r="L267">
-        <v>2.75</v>
-      </c>
-      <c r="M267">
-        <v>3.6</v>
-      </c>
-      <c r="N267">
-        <v>2.15</v>
-      </c>
-      <c r="O267">
-        <v>2.625</v>
-      </c>
-      <c r="P267">
-        <v>3.75</v>
-      </c>
-      <c r="Q267">
-        <v>-0.25</v>
-      </c>
-      <c r="R267">
-        <v>1.875</v>
-      </c>
-      <c r="S267">
-        <v>1.925</v>
-      </c>
-      <c r="T267">
-        <v>1.75</v>
-      </c>
-      <c r="U267">
-        <v>1.95</v>
-      </c>
-      <c r="V267">
-        <v>1.85</v>
-      </c>
-      <c r="W267">
-        <v>1.15</v>
-      </c>
-      <c r="X267">
-        <v>-1</v>
-      </c>
       <c r="Y267">
         <v>-1</v>
       </c>
       <c r="Z267">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="AA267">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB267">
         <v>-1</v>
       </c>
       <c r="AC267">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="268" spans="1:29">
@@ -24308,7 +24308,7 @@
         <v>266</v>
       </c>
       <c r="B268">
-        <v>7523282</v>
+        <v>6989698</v>
       </c>
       <c r="C268" t="s">
         <v>28</v>
@@ -24320,76 +24320,76 @@
         <v>45257.375</v>
       </c>
       <c r="F268" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G268" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H268">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I268">
         <v>0</v>
       </c>
       <c r="J268" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K268">
-        <v>3</v>
+        <v>2.1</v>
       </c>
       <c r="L268">
-        <v>2.9</v>
+        <v>2.75</v>
       </c>
       <c r="M268">
-        <v>2.3</v>
+        <v>3.6</v>
       </c>
       <c r="N268">
-        <v>2.8</v>
+        <v>2.15</v>
       </c>
       <c r="O268">
-        <v>3.1</v>
+        <v>2.625</v>
       </c>
       <c r="P268">
-        <v>2.4</v>
+        <v>3.75</v>
       </c>
       <c r="Q268">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R268">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S268">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T268">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U268">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V268">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W268">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X268">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y268">
         <v>-1</v>
       </c>
       <c r="Z268">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AA268">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB268">
         <v>-1</v>
       </c>
       <c r="AC268">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="269" spans="1:29">
@@ -24412,7 +24412,7 @@
         <v>49</v>
       </c>
       <c r="G269" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H269">
         <v>0</v>
@@ -24587,7 +24587,7 @@
         <v>45262.375</v>
       </c>
       <c r="F271" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G271" t="s">
         <v>47</v>
@@ -24676,7 +24676,7 @@
         <v>45262.375</v>
       </c>
       <c r="F272" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G272" t="s">
         <v>48</v>
@@ -24765,7 +24765,7 @@
         <v>45262.375</v>
       </c>
       <c r="F273" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G273" t="s">
         <v>42</v>
@@ -24854,7 +24854,7 @@
         <v>45262.375</v>
       </c>
       <c r="F274" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G274" t="s">
         <v>49</v>
@@ -24931,7 +24931,7 @@
         <v>273</v>
       </c>
       <c r="B275">
-        <v>7544627</v>
+        <v>6989701</v>
       </c>
       <c r="C275" t="s">
         <v>28</v>
@@ -24943,10 +24943,10 @@
         <v>45262.45833333334</v>
       </c>
       <c r="F275" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="G275" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="H275">
         <v>2</v>
@@ -24958,43 +24958,43 @@
         <v>51</v>
       </c>
       <c r="K275">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
       <c r="L275">
         <v>3.2</v>
       </c>
       <c r="M275">
+        <v>2.625</v>
+      </c>
+      <c r="N275">
+        <v>1.95</v>
+      </c>
+      <c r="O275">
         <v>3.1</v>
       </c>
-      <c r="N275">
-        <v>2.45</v>
-      </c>
-      <c r="O275">
-        <v>3</v>
-      </c>
       <c r="P275">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q275">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R275">
+        <v>2.025</v>
+      </c>
+      <c r="S275">
         <v>1.775</v>
       </c>
-      <c r="S275">
+      <c r="T275">
+        <v>1.75</v>
+      </c>
+      <c r="U275">
+        <v>1.775</v>
+      </c>
+      <c r="V275">
         <v>2.025</v>
       </c>
-      <c r="T275">
-        <v>2.25</v>
-      </c>
-      <c r="U275">
-        <v>1.875</v>
-      </c>
-      <c r="V275">
-        <v>1.925</v>
-      </c>
       <c r="W275">
-        <v>1.45</v>
+        <v>0.95</v>
       </c>
       <c r="X275">
         <v>-1</v>
@@ -25003,13 +25003,13 @@
         <v>-1</v>
       </c>
       <c r="Z275">
+        <v>1.025</v>
+      </c>
+      <c r="AA275">
+        <v>-1</v>
+      </c>
+      <c r="AB275">
         <v>0.7749999999999999</v>
-      </c>
-      <c r="AA275">
-        <v>-1</v>
-      </c>
-      <c r="AB275">
-        <v>0.875</v>
       </c>
       <c r="AC275">
         <v>-1</v>
@@ -25020,7 +25020,7 @@
         <v>274</v>
       </c>
       <c r="B276">
-        <v>6989701</v>
+        <v>7544627</v>
       </c>
       <c r="C276" t="s">
         <v>28</v>
@@ -25032,10 +25032,10 @@
         <v>45262.45833333334</v>
       </c>
       <c r="F276" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G276" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="H276">
         <v>2</v>
@@ -25047,43 +25047,43 @@
         <v>51</v>
       </c>
       <c r="K276">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="L276">
         <v>3.2</v>
       </c>
       <c r="M276">
-        <v>2.625</v>
+        <v>3.1</v>
       </c>
       <c r="N276">
-        <v>1.95</v>
+        <v>2.45</v>
       </c>
       <c r="O276">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="P276">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="Q276">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R276">
+        <v>1.775</v>
+      </c>
+      <c r="S276">
         <v>2.025</v>
       </c>
-      <c r="S276">
-        <v>1.775</v>
-      </c>
       <c r="T276">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="U276">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="V276">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="W276">
-        <v>0.95</v>
+        <v>1.45</v>
       </c>
       <c r="X276">
         <v>-1</v>
@@ -25092,13 +25092,13 @@
         <v>-1</v>
       </c>
       <c r="Z276">
-        <v>1.025</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA276">
         <v>-1</v>
       </c>
       <c r="AB276">
-        <v>0.7749999999999999</v>
+        <v>0.875</v>
       </c>
       <c r="AC276">
         <v>-1</v>
@@ -25213,7 +25213,7 @@
         <v>50</v>
       </c>
       <c r="G278" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H278">
         <v>1</v>
@@ -25302,7 +25302,7 @@
         <v>49</v>
       </c>
       <c r="G279" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H279">
         <v>1</v>
@@ -25391,7 +25391,7 @@
         <v>42</v>
       </c>
       <c r="G280" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H280">
         <v>0</v>
@@ -25569,7 +25569,7 @@
         <v>45</v>
       </c>
       <c r="G282" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H282">
         <v>0</v>
@@ -25836,7 +25836,7 @@
         <v>47</v>
       </c>
       <c r="G285" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H285">
         <v>5</v>
@@ -25922,7 +25922,7 @@
         <v>45271.375</v>
       </c>
       <c r="F286" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G286" t="s">
         <v>41</v>
@@ -26170,6 +26170,154 @@
       </c>
       <c r="AC288">
         <v>-1</v>
+      </c>
+    </row>
+    <row r="289" spans="1:27">
+      <c r="A289" s="1">
+        <v>287</v>
+      </c>
+      <c r="B289">
+        <v>6989636</v>
+      </c>
+      <c r="C289" t="s">
+        <v>28</v>
+      </c>
+      <c r="D289" t="s">
+        <v>28</v>
+      </c>
+      <c r="E289" s="2">
+        <v>45346.5</v>
+      </c>
+      <c r="F289" t="s">
+        <v>40</v>
+      </c>
+      <c r="G289" t="s">
+        <v>29</v>
+      </c>
+      <c r="K289">
+        <v>2</v>
+      </c>
+      <c r="L289">
+        <v>2.875</v>
+      </c>
+      <c r="M289">
+        <v>3.75</v>
+      </c>
+      <c r="N289">
+        <v>1.833</v>
+      </c>
+      <c r="O289">
+        <v>3</v>
+      </c>
+      <c r="P289">
+        <v>4.2</v>
+      </c>
+      <c r="Q289">
+        <v>-0.5</v>
+      </c>
+      <c r="R289">
+        <v>1.8</v>
+      </c>
+      <c r="S289">
+        <v>2</v>
+      </c>
+      <c r="T289">
+        <v>1.75</v>
+      </c>
+      <c r="U289">
+        <v>1.9</v>
+      </c>
+      <c r="V289">
+        <v>1.9</v>
+      </c>
+      <c r="W289">
+        <v>0</v>
+      </c>
+      <c r="X289">
+        <v>0</v>
+      </c>
+      <c r="Y289">
+        <v>0</v>
+      </c>
+      <c r="Z289">
+        <v>0</v>
+      </c>
+      <c r="AA289">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="290" spans="1:27">
+      <c r="A290" s="1">
+        <v>288</v>
+      </c>
+      <c r="B290">
+        <v>6989333</v>
+      </c>
+      <c r="C290" t="s">
+        <v>28</v>
+      </c>
+      <c r="D290" t="s">
+        <v>28</v>
+      </c>
+      <c r="E290" s="2">
+        <v>45346.5</v>
+      </c>
+      <c r="F290" t="s">
+        <v>50</v>
+      </c>
+      <c r="G290" t="s">
+        <v>47</v>
+      </c>
+      <c r="K290">
+        <v>2.5</v>
+      </c>
+      <c r="L290">
+        <v>3</v>
+      </c>
+      <c r="M290">
+        <v>2.625</v>
+      </c>
+      <c r="N290">
+        <v>2.375</v>
+      </c>
+      <c r="O290">
+        <v>3</v>
+      </c>
+      <c r="P290">
+        <v>2.75</v>
+      </c>
+      <c r="Q290">
+        <v>0</v>
+      </c>
+      <c r="R290">
+        <v>1.75</v>
+      </c>
+      <c r="S290">
+        <v>2.05</v>
+      </c>
+      <c r="T290">
+        <v>1.75</v>
+      </c>
+      <c r="U290">
+        <v>1.85</v>
+      </c>
+      <c r="V290">
+        <v>1.95</v>
+      </c>
+      <c r="W290">
+        <v>0</v>
+      </c>
+      <c r="X290">
+        <v>0</v>
+      </c>
+      <c r="Y290">
+        <v>0</v>
+      </c>
+      <c r="Z290">
+        <v>0</v>
+      </c>
+      <c r="AA290">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Serbia Prva Liga/Serbia Prva Liga.xlsx
+++ b/Serbia Prva Liga/Serbia Prva Liga.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1488" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1492" uniqueCount="54">
   <si>
     <t>id</t>
   </si>
@@ -537,7 +537,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC293"/>
+  <dimension ref="A1:AC294"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -25554,7 +25554,7 @@
         <v>280</v>
       </c>
       <c r="B282">
-        <v>6989332</v>
+        <v>6989704</v>
       </c>
       <c r="C282" t="s">
         <v>28</v>
@@ -25566,76 +25566,76 @@
         <v>45270.375</v>
       </c>
       <c r="F282" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="G282" t="s">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="H282">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I282">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J282" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K282">
-        <v>1.4</v>
+        <v>1.666</v>
       </c>
       <c r="L282">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M282">
-        <v>7</v>
+        <v>4.5</v>
       </c>
       <c r="N282">
-        <v>1.285</v>
+        <v>2.05</v>
       </c>
       <c r="O282">
-        <v>4.333</v>
+        <v>3.2</v>
       </c>
       <c r="P282">
-        <v>11</v>
+        <v>3.3</v>
       </c>
       <c r="Q282">
-        <v>-1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R282">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S282">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T282">
-        <v>2.5</v>
+        <v>1.75</v>
       </c>
       <c r="U282">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V282">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W282">
-        <v>0.2849999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X282">
         <v>-1</v>
       </c>
       <c r="Y282">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Z282">
         <v>-1</v>
       </c>
       <c r="AA282">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB282">
         <v>-1</v>
       </c>
       <c r="AC282">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="283" spans="1:29">
@@ -25643,7 +25643,7 @@
         <v>281</v>
       </c>
       <c r="B283">
-        <v>6989633</v>
+        <v>6989332</v>
       </c>
       <c r="C283" t="s">
         <v>28</v>
@@ -25655,58 +25655,58 @@
         <v>45270.375</v>
       </c>
       <c r="F283" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="G283" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="H283">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I283">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J283" t="s">
         <v>51</v>
       </c>
       <c r="K283">
-        <v>1.8</v>
+        <v>1.4</v>
       </c>
       <c r="L283">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="M283">
-        <v>4.2</v>
+        <v>7</v>
       </c>
       <c r="N283">
-        <v>1.75</v>
+        <v>1.285</v>
       </c>
       <c r="O283">
-        <v>3.2</v>
+        <v>4.333</v>
       </c>
       <c r="P283">
-        <v>4.75</v>
+        <v>11</v>
       </c>
       <c r="Q283">
-        <v>-0.75</v>
+        <v>-1.5</v>
       </c>
       <c r="R283">
+        <v>1.85</v>
+      </c>
+      <c r="S283">
         <v>1.95</v>
       </c>
-      <c r="S283">
-        <v>1.75</v>
-      </c>
       <c r="T283">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U283">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V283">
-        <v>1.725</v>
+        <v>1.85</v>
       </c>
       <c r="W283">
-        <v>0.75</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="X283">
         <v>-1</v>
@@ -25715,16 +25715,16 @@
         <v>-1</v>
       </c>
       <c r="Z283">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AA283">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AB283">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC283">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="284" spans="1:29">
@@ -25732,7 +25732,7 @@
         <v>282</v>
       </c>
       <c r="B284">
-        <v>6989704</v>
+        <v>6989633</v>
       </c>
       <c r="C284" t="s">
         <v>28</v>
@@ -25744,76 +25744,76 @@
         <v>45270.375</v>
       </c>
       <c r="F284" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="G284" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H284">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I284">
         <v>1</v>
       </c>
       <c r="J284" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K284">
-        <v>1.666</v>
+        <v>1.8</v>
       </c>
       <c r="L284">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="M284">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="N284">
-        <v>2.05</v>
+        <v>1.75</v>
       </c>
       <c r="O284">
         <v>3.2</v>
       </c>
       <c r="P284">
-        <v>3.3</v>
+        <v>4.75</v>
       </c>
       <c r="Q284">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R284">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S284">
+        <v>1.75</v>
+      </c>
+      <c r="T284">
+        <v>2</v>
+      </c>
+      <c r="U284">
         <v>1.975</v>
       </c>
-      <c r="T284">
-        <v>1.75</v>
-      </c>
-      <c r="U284">
-        <v>1.8</v>
-      </c>
       <c r="V284">
-        <v>2</v>
+        <v>1.725</v>
       </c>
       <c r="W284">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="X284">
         <v>-1</v>
       </c>
       <c r="Y284">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Z284">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AA284">
+        <v>-0.5</v>
+      </c>
+      <c r="AB284">
         <v>0.9750000000000001</v>
       </c>
-      <c r="AB284">
-        <v>-1</v>
-      </c>
       <c r="AC284">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="285" spans="1:29">
@@ -25821,7 +25821,7 @@
         <v>283</v>
       </c>
       <c r="B285">
-        <v>6989531</v>
+        <v>6989530</v>
       </c>
       <c r="C285" t="s">
         <v>28</v>
@@ -25833,49 +25833,49 @@
         <v>45271.375</v>
       </c>
       <c r="F285" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="G285" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="H285">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I285">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J285" t="s">
         <v>51</v>
       </c>
       <c r="K285">
-        <v>1.571</v>
+        <v>1.666</v>
       </c>
       <c r="L285">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M285">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="N285">
         <v>1.444</v>
       </c>
       <c r="O285">
-        <v>4.2</v>
+        <v>4.333</v>
       </c>
       <c r="P285">
-        <v>5.75</v>
+        <v>5.25</v>
       </c>
       <c r="Q285">
-        <v>-1.25</v>
+        <v>-1</v>
       </c>
       <c r="R285">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="S285">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T285">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U285">
         <v>1.85</v>
@@ -25893,16 +25893,16 @@
         <v>-1</v>
       </c>
       <c r="Z285">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AA285">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AB285">
-        <v>0.425</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC285">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="286" spans="1:29">
@@ -25910,7 +25910,7 @@
         <v>284</v>
       </c>
       <c r="B286">
-        <v>6989530</v>
+        <v>6989531</v>
       </c>
       <c r="C286" t="s">
         <v>28</v>
@@ -25922,49 +25922,49 @@
         <v>45271.375</v>
       </c>
       <c r="F286" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="G286" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="H286">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I286">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J286" t="s">
         <v>51</v>
       </c>
       <c r="K286">
-        <v>1.666</v>
+        <v>1.571</v>
       </c>
       <c r="L286">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M286">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="N286">
         <v>1.444</v>
       </c>
       <c r="O286">
-        <v>4.333</v>
+        <v>4.2</v>
       </c>
       <c r="P286">
-        <v>5.25</v>
+        <v>5.75</v>
       </c>
       <c r="Q286">
-        <v>-1</v>
+        <v>-1.25</v>
       </c>
       <c r="R286">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="S286">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T286">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U286">
         <v>1.85</v>
@@ -25982,16 +25982,16 @@
         <v>-1</v>
       </c>
       <c r="Z286">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AA286">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AB286">
-        <v>0.8500000000000001</v>
+        <v>0.425</v>
       </c>
       <c r="AC286">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="287" spans="1:29">
@@ -26615,6 +26615,80 @@
       </c>
       <c r="AC293">
         <v>0.95</v>
+      </c>
+    </row>
+    <row r="294" spans="1:29">
+      <c r="A294" s="1">
+        <v>292</v>
+      </c>
+      <c r="B294">
+        <v>6989634</v>
+      </c>
+      <c r="C294" t="s">
+        <v>28</v>
+      </c>
+      <c r="D294" t="s">
+        <v>28</v>
+      </c>
+      <c r="E294" s="2">
+        <v>45347.375</v>
+      </c>
+      <c r="F294" t="s">
+        <v>35</v>
+      </c>
+      <c r="G294" t="s">
+        <v>32</v>
+      </c>
+      <c r="K294">
+        <v>2.5</v>
+      </c>
+      <c r="L294">
+        <v>3</v>
+      </c>
+      <c r="M294">
+        <v>2.625</v>
+      </c>
+      <c r="N294">
+        <v>2.15</v>
+      </c>
+      <c r="O294">
+        <v>3.1</v>
+      </c>
+      <c r="P294">
+        <v>3.1</v>
+      </c>
+      <c r="Q294">
+        <v>-0.25</v>
+      </c>
+      <c r="R294">
+        <v>1.9</v>
+      </c>
+      <c r="S294">
+        <v>1.9</v>
+      </c>
+      <c r="T294">
+        <v>2.25</v>
+      </c>
+      <c r="U294">
+        <v>1.875</v>
+      </c>
+      <c r="V294">
+        <v>1.925</v>
+      </c>
+      <c r="W294">
+        <v>0</v>
+      </c>
+      <c r="X294">
+        <v>0</v>
+      </c>
+      <c r="Y294">
+        <v>0</v>
+      </c>
+      <c r="Z294">
+        <v>0</v>
+      </c>
+      <c r="AA294">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Serbia Prva Liga/Serbia Prva Liga.xlsx
+++ b/Serbia Prva Liga/Serbia Prva Liga.xlsx
@@ -106,22 +106,22 @@
     <t>Jedinstvo UB</t>
   </si>
   <si>
+    <t>OFK Vrsac</t>
+  </si>
+  <si>
     <t>Smederevo</t>
   </si>
   <si>
-    <t>OFK Vrsac</t>
+    <t>Metalac Gornji</t>
   </si>
   <si>
     <t>Sloboda Uzice</t>
   </si>
   <si>
-    <t>Metalac Gornji</t>
+    <t>FK Radnicki Beograd</t>
   </si>
   <si>
     <t>FK Mladost Gat Novi Sad</t>
-  </si>
-  <si>
-    <t>FK Radnicki Beograd</t>
   </si>
   <si>
     <t>FK Macva Sabac</t>
@@ -130,13 +130,13 @@
     <t>FK Graficar Beograd</t>
   </si>
   <si>
-    <t>FK Tekstilac Odzaci</t>
+    <t>Radnicki Sremska Mitrovica</t>
   </si>
   <si>
     <t>FK Indija</t>
   </si>
   <si>
-    <t>Radnicki Sremska Mitrovica</t>
+    <t>FK Tekstilac Odzaci</t>
   </si>
   <si>
     <t>OFK Belgrade</t>
@@ -705,7 +705,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6989497</v>
+        <v>7018401</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -720,10 +720,10 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -732,19 +732,19 @@
         <v>45</v>
       </c>
       <c r="K3">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="L3">
-        <v>2.8</v>
+        <v>2.875</v>
       </c>
       <c r="M3">
         <v>2.55</v>
       </c>
       <c r="N3">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="O3">
-        <v>2.8</v>
+        <v>2.875</v>
       </c>
       <c r="P3">
         <v>2.55</v>
@@ -762,13 +762,13 @@
         <v>2</v>
       </c>
       <c r="U3">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="V3">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="W3">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="X3">
         <v>-1</v>
@@ -783,10 +783,10 @@
         <v>-1</v>
       </c>
       <c r="AB3">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC3">
-        <v>-0</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="4" spans="1:29">
@@ -794,7 +794,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>7018401</v>
+        <v>6989497</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -809,10 +809,10 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -821,19 +821,19 @@
         <v>45</v>
       </c>
       <c r="K4">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="L4">
-        <v>2.875</v>
+        <v>2.8</v>
       </c>
       <c r="M4">
         <v>2.55</v>
       </c>
       <c r="N4">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="O4">
-        <v>2.875</v>
+        <v>2.8</v>
       </c>
       <c r="P4">
         <v>2.55</v>
@@ -851,13 +851,13 @@
         <v>2</v>
       </c>
       <c r="U4">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="V4">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="W4">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="X4">
         <v>-1</v>
@@ -872,10 +872,10 @@
         <v>-1</v>
       </c>
       <c r="AB4">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC4">
-        <v>1.025</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="5" spans="1:29">
@@ -883,7 +883,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6989660</v>
+        <v>6989595</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -898,52 +898,52 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J5" t="s">
         <v>46</v>
       </c>
       <c r="K5">
-        <v>1.8</v>
+        <v>2.45</v>
       </c>
       <c r="L5">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M5">
-        <v>4</v>
+        <v>2.55</v>
       </c>
       <c r="N5">
-        <v>1.8</v>
+        <v>2.15</v>
       </c>
       <c r="O5">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="P5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q5">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R5">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S5">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="T5">
         <v>2.25</v>
       </c>
       <c r="U5">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="V5">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="W5">
         <v>-1</v>
@@ -952,19 +952,19 @@
         <v>-1</v>
       </c>
       <c r="Y5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Z5">
         <v>-1</v>
       </c>
       <c r="AA5">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
       <c r="AB5">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AC5">
-        <v>0.3875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="6" spans="1:29">
@@ -972,7 +972,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6989595</v>
+        <v>6989660</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
@@ -987,52 +987,52 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J6" t="s">
         <v>46</v>
       </c>
       <c r="K6">
-        <v>2.45</v>
+        <v>1.8</v>
       </c>
       <c r="L6">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M6">
-        <v>2.55</v>
+        <v>4</v>
       </c>
       <c r="N6">
-        <v>2.15</v>
+        <v>1.8</v>
       </c>
       <c r="O6">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="P6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q6">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R6">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="S6">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T6">
         <v>2.25</v>
       </c>
       <c r="U6">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="V6">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="W6">
         <v>-1</v>
@@ -1041,19 +1041,19 @@
         <v>-1</v>
       </c>
       <c r="Y6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Z6">
         <v>-1</v>
       </c>
       <c r="AA6">
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
       <c r="AB6">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AC6">
-        <v>-1</v>
+        <v>0.3875</v>
       </c>
     </row>
     <row r="7" spans="1:29">
@@ -1061,7 +1061,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6989658</v>
+        <v>6989313</v>
       </c>
       <c r="C7" t="s">
         <v>28</v>
@@ -1076,73 +1076,73 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K7">
-        <v>1.727</v>
+        <v>1.85</v>
       </c>
       <c r="L7">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M7">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="N7">
-        <v>1.65</v>
+        <v>2.05</v>
       </c>
       <c r="O7">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="P7">
-        <v>4.75</v>
+        <v>3.2</v>
       </c>
       <c r="Q7">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R7">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S7">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T7">
         <v>2.25</v>
       </c>
       <c r="U7">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="V7">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="W7">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X7">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y7">
         <v>-1</v>
       </c>
       <c r="Z7">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA7">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB7">
         <v>-0.5</v>
       </c>
       <c r="AC7">
-        <v>0.3875</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="8" spans="1:29">
@@ -1150,7 +1150,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6989313</v>
+        <v>6989658</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
@@ -1165,73 +1165,73 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K8">
-        <v>1.85</v>
+        <v>1.727</v>
       </c>
       <c r="L8">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M8">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="N8">
-        <v>2.05</v>
+        <v>1.65</v>
       </c>
       <c r="O8">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="P8">
-        <v>3.2</v>
+        <v>4.75</v>
       </c>
       <c r="Q8">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R8">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S8">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T8">
         <v>2.25</v>
       </c>
       <c r="U8">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="V8">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="W8">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X8">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y8">
         <v>-1</v>
       </c>
       <c r="Z8">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA8">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB8">
         <v>-0.5</v>
       </c>
       <c r="AC8">
-        <v>0.425</v>
+        <v>0.3875</v>
       </c>
     </row>
     <row r="9" spans="1:29">
@@ -1254,7 +1254,7 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -1417,7 +1417,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6989663</v>
+        <v>6989598</v>
       </c>
       <c r="C11" t="s">
         <v>28</v>
@@ -1429,76 +1429,76 @@
         <v>45150.52083333334</v>
       </c>
       <c r="F11" t="s">
+        <v>38</v>
+      </c>
+      <c r="G11" t="s">
         <v>30</v>
       </c>
-      <c r="G11" t="s">
-        <v>34</v>
-      </c>
       <c r="H11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11" t="s">
         <v>47</v>
       </c>
       <c r="K11">
+        <v>1.909</v>
+      </c>
+      <c r="L11">
+        <v>3.2</v>
+      </c>
+      <c r="M11">
+        <v>3.6</v>
+      </c>
+      <c r="N11">
+        <v>1.909</v>
+      </c>
+      <c r="O11">
+        <v>3.25</v>
+      </c>
+      <c r="P11">
+        <v>3.6</v>
+      </c>
+      <c r="Q11">
+        <v>-0.5</v>
+      </c>
+      <c r="R11">
+        <v>1.975</v>
+      </c>
+      <c r="S11">
+        <v>1.825</v>
+      </c>
+      <c r="T11">
+        <v>2</v>
+      </c>
+      <c r="U11">
+        <v>1.775</v>
+      </c>
+      <c r="V11">
+        <v>2.025</v>
+      </c>
+      <c r="W11">
+        <v>-1</v>
+      </c>
+      <c r="X11">
         <v>2.25</v>
       </c>
-      <c r="L11">
-        <v>3</v>
-      </c>
-      <c r="M11">
-        <v>3</v>
-      </c>
-      <c r="N11">
-        <v>2.4</v>
-      </c>
-      <c r="O11">
-        <v>2.875</v>
-      </c>
-      <c r="P11">
-        <v>2.9</v>
-      </c>
-      <c r="Q11">
-        <v>-0.25</v>
-      </c>
-      <c r="R11">
-        <v>2</v>
-      </c>
-      <c r="S11">
-        <v>1.7</v>
-      </c>
-      <c r="T11">
-        <v>2</v>
-      </c>
-      <c r="U11">
-        <v>1.95</v>
-      </c>
-      <c r="V11">
-        <v>1.85</v>
-      </c>
-      <c r="W11">
-        <v>-1</v>
-      </c>
-      <c r="X11">
-        <v>1.875</v>
-      </c>
       <c r="Y11">
         <v>-1</v>
       </c>
       <c r="Z11">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA11">
-        <v>0.35</v>
+        <v>0.825</v>
       </c>
       <c r="AB11">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC11">
-        <v>-0</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="12" spans="1:29">
@@ -1506,7 +1506,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6989662</v>
+        <v>6989315</v>
       </c>
       <c r="C12" t="s">
         <v>28</v>
@@ -1518,73 +1518,73 @@
         <v>45150.52083333334</v>
       </c>
       <c r="F12" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G12" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="H12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J12" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K12">
-        <v>2.5</v>
+        <v>1.909</v>
       </c>
       <c r="L12">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="M12">
-        <v>2.625</v>
+        <v>3.6</v>
       </c>
       <c r="N12">
-        <v>2</v>
+        <v>1.909</v>
       </c>
       <c r="O12">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="P12">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="Q12">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R12">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S12">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T12">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U12">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V12">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W12">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X12">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y12">
         <v>-1</v>
       </c>
       <c r="Z12">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA12">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB12">
-        <v>0.8</v>
+        <v>0.825</v>
       </c>
       <c r="AC12">
         <v>-1</v>
@@ -1595,7 +1595,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6989315</v>
+        <v>6989662</v>
       </c>
       <c r="C13" t="s">
         <v>28</v>
@@ -1607,73 +1607,73 @@
         <v>45150.52083333334</v>
       </c>
       <c r="F13" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G13" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J13" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K13">
-        <v>1.909</v>
+        <v>2.5</v>
       </c>
       <c r="L13">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="M13">
-        <v>3.6</v>
+        <v>2.625</v>
       </c>
       <c r="N13">
-        <v>1.909</v>
+        <v>2</v>
       </c>
       <c r="O13">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="P13">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="Q13">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R13">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S13">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T13">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U13">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V13">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W13">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X13">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y13">
         <v>-1</v>
       </c>
       <c r="Z13">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA13">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB13">
-        <v>0.825</v>
+        <v>0.8</v>
       </c>
       <c r="AC13">
         <v>-1</v>
@@ -1684,7 +1684,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6989598</v>
+        <v>6989663</v>
       </c>
       <c r="C14" t="s">
         <v>28</v>
@@ -1696,76 +1696,76 @@
         <v>45150.52083333334</v>
       </c>
       <c r="F14" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="G14" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14" t="s">
         <v>47</v>
       </c>
       <c r="K14">
-        <v>1.909</v>
+        <v>2.25</v>
       </c>
       <c r="L14">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="M14">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="N14">
-        <v>1.909</v>
+        <v>2.4</v>
       </c>
       <c r="O14">
-        <v>3.25</v>
+        <v>2.875</v>
       </c>
       <c r="P14">
-        <v>3.6</v>
+        <v>2.9</v>
       </c>
       <c r="Q14">
+        <v>-0.25</v>
+      </c>
+      <c r="R14">
+        <v>2</v>
+      </c>
+      <c r="S14">
+        <v>1.7</v>
+      </c>
+      <c r="T14">
+        <v>2</v>
+      </c>
+      <c r="U14">
+        <v>1.95</v>
+      </c>
+      <c r="V14">
+        <v>1.85</v>
+      </c>
+      <c r="W14">
+        <v>-1</v>
+      </c>
+      <c r="X14">
+        <v>1.875</v>
+      </c>
+      <c r="Y14">
+        <v>-1</v>
+      </c>
+      <c r="Z14">
         <v>-0.5</v>
       </c>
-      <c r="R14">
-        <v>1.975</v>
-      </c>
-      <c r="S14">
-        <v>1.825</v>
-      </c>
-      <c r="T14">
-        <v>2</v>
-      </c>
-      <c r="U14">
-        <v>1.775</v>
-      </c>
-      <c r="V14">
-        <v>2.025</v>
-      </c>
-      <c r="W14">
-        <v>-1</v>
-      </c>
-      <c r="X14">
-        <v>2.25</v>
-      </c>
-      <c r="Y14">
-        <v>-1</v>
-      </c>
-      <c r="Z14">
-        <v>-1</v>
-      </c>
       <c r="AA14">
-        <v>0.825</v>
+        <v>0.35</v>
       </c>
       <c r="AB14">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC14">
-        <v>1.025</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="15" spans="1:29">
@@ -1788,7 +1788,7 @@
         <v>41</v>
       </c>
       <c r="G15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H15">
         <v>4</v>
@@ -1877,7 +1877,7 @@
         <v>42</v>
       </c>
       <c r="G16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H16">
         <v>1</v>
@@ -2052,10 +2052,10 @@
         <v>45156.5</v>
       </c>
       <c r="F18" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" t="s">
         <v>31</v>
-      </c>
-      <c r="G18" t="s">
-        <v>30</v>
       </c>
       <c r="H18">
         <v>1</v>
@@ -2129,7 +2129,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>7019003</v>
+        <v>6989664</v>
       </c>
       <c r="C19" t="s">
         <v>28</v>
@@ -2141,76 +2141,76 @@
         <v>45157.58333333334</v>
       </c>
       <c r="F19" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G19" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K19">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="L19">
+        <v>2.875</v>
+      </c>
+      <c r="M19">
         <v>3</v>
       </c>
-      <c r="M19">
-        <v>2.625</v>
-      </c>
       <c r="N19">
-        <v>3</v>
+        <v>2.15</v>
       </c>
       <c r="O19">
-        <v>2.875</v>
+        <v>2.9</v>
       </c>
       <c r="P19">
-        <v>2.375</v>
+        <v>3.25</v>
       </c>
       <c r="Q19">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R19">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="S19">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="T19">
         <v>2</v>
       </c>
       <c r="U19">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V19">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W19">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X19">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Y19">
         <v>-1</v>
       </c>
       <c r="Z19">
-        <v>0.375</v>
+        <v>0.925</v>
       </c>
       <c r="AA19">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB19">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC19">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="20" spans="1:29">
@@ -2230,10 +2230,10 @@
         <v>45157.58333333334</v>
       </c>
       <c r="F20" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G20" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -2307,7 +2307,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6989664</v>
+        <v>7019003</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -2319,76 +2319,76 @@
         <v>45157.58333333334</v>
       </c>
       <c r="F21" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G21" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21" t="s">
+        <v>47</v>
+      </c>
+      <c r="K21">
+        <v>2.5</v>
+      </c>
+      <c r="L21">
         <v>3</v>
       </c>
-      <c r="I21">
-        <v>0</v>
-      </c>
-      <c r="J21" t="s">
-        <v>45</v>
-      </c>
-      <c r="K21">
-        <v>2.3</v>
-      </c>
-      <c r="L21">
+      <c r="M21">
+        <v>2.625</v>
+      </c>
+      <c r="N21">
+        <v>3</v>
+      </c>
+      <c r="O21">
         <v>2.875</v>
       </c>
-      <c r="M21">
-        <v>3</v>
-      </c>
-      <c r="N21">
-        <v>2.15</v>
-      </c>
-      <c r="O21">
-        <v>2.9</v>
-      </c>
       <c r="P21">
-        <v>3.25</v>
+        <v>2.375</v>
       </c>
       <c r="Q21">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R21">
-        <v>1.925</v>
+        <v>1.75</v>
       </c>
       <c r="S21">
+        <v>2.05</v>
+      </c>
+      <c r="T21">
+        <v>2</v>
+      </c>
+      <c r="U21">
+        <v>1.975</v>
+      </c>
+      <c r="V21">
+        <v>1.825</v>
+      </c>
+      <c r="W21">
+        <v>-1</v>
+      </c>
+      <c r="X21">
         <v>1.875</v>
       </c>
-      <c r="T21">
-        <v>2</v>
-      </c>
-      <c r="U21">
-        <v>1.925</v>
-      </c>
-      <c r="V21">
-        <v>1.875</v>
-      </c>
-      <c r="W21">
-        <v>1.15</v>
-      </c>
-      <c r="X21">
-        <v>-1</v>
-      </c>
       <c r="Y21">
         <v>-1</v>
       </c>
       <c r="Z21">
-        <v>0.925</v>
+        <v>0.375</v>
       </c>
       <c r="AA21">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB21">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC21">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="22" spans="1:29">
@@ -2408,7 +2408,7 @@
         <v>45158.5</v>
       </c>
       <c r="F22" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G22" t="s">
         <v>37</v>
@@ -2485,7 +2485,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6989499</v>
+        <v>6989600</v>
       </c>
       <c r="C23" t="s">
         <v>28</v>
@@ -2497,56 +2497,56 @@
         <v>45158.5</v>
       </c>
       <c r="F23" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G23" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J23" t="s">
         <v>46</v>
       </c>
       <c r="K23">
-        <v>1.727</v>
+        <v>1.95</v>
       </c>
       <c r="L23">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M23">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="N23">
-        <v>1.85</v>
+        <v>2.375</v>
       </c>
       <c r="O23">
         <v>3.1</v>
       </c>
       <c r="P23">
-        <v>4</v>
+        <v>2.75</v>
       </c>
       <c r="Q23">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R23">
+        <v>1.75</v>
+      </c>
+      <c r="S23">
+        <v>2.05</v>
+      </c>
+      <c r="T23">
+        <v>2.25</v>
+      </c>
+      <c r="U23">
         <v>1.925</v>
       </c>
-      <c r="S23">
+      <c r="V23">
         <v>1.875</v>
       </c>
-      <c r="T23">
-        <v>2</v>
-      </c>
-      <c r="U23">
-        <v>2</v>
-      </c>
-      <c r="V23">
-        <v>1.8</v>
-      </c>
       <c r="W23">
         <v>-1</v>
       </c>
@@ -2554,19 +2554,19 @@
         <v>-1</v>
       </c>
       <c r="Y23">
-        <v>3</v>
+        <v>1.75</v>
       </c>
       <c r="Z23">
         <v>-1</v>
       </c>
       <c r="AA23">
-        <v>0.875</v>
+        <v>1.05</v>
       </c>
       <c r="AB23">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC23">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="24" spans="1:29">
@@ -2574,7 +2574,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6989600</v>
+        <v>6989499</v>
       </c>
       <c r="C24" t="s">
         <v>28</v>
@@ -2586,55 +2586,55 @@
         <v>45158.5</v>
       </c>
       <c r="F24" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G24" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J24" t="s">
         <v>46</v>
       </c>
       <c r="K24">
-        <v>1.95</v>
+        <v>1.727</v>
       </c>
       <c r="L24">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M24">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="N24">
-        <v>2.375</v>
+        <v>1.85</v>
       </c>
       <c r="O24">
         <v>3.1</v>
       </c>
       <c r="P24">
-        <v>2.75</v>
+        <v>4</v>
       </c>
       <c r="Q24">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R24">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="S24">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="T24">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U24">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V24">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="W24">
         <v>-1</v>
@@ -2643,19 +2643,19 @@
         <v>-1</v>
       </c>
       <c r="Y24">
-        <v>1.75</v>
+        <v>3</v>
       </c>
       <c r="Z24">
         <v>-1</v>
       </c>
       <c r="AA24">
-        <v>1.05</v>
+        <v>0.875</v>
       </c>
       <c r="AB24">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC24">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="25" spans="1:29">
@@ -2853,10 +2853,10 @@
         <v>45164.5</v>
       </c>
       <c r="F27" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G27" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H27">
         <v>1</v>
@@ -2942,7 +2942,7 @@
         <v>45164.5</v>
       </c>
       <c r="F28" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G28" t="s">
         <v>36</v>
@@ -3019,7 +3019,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>6989317</v>
+        <v>6989602</v>
       </c>
       <c r="C29" t="s">
         <v>28</v>
@@ -3031,10 +3031,10 @@
         <v>45165.5</v>
       </c>
       <c r="F29" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G29" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="H29">
         <v>1</v>
@@ -3046,40 +3046,40 @@
         <v>46</v>
       </c>
       <c r="K29">
-        <v>1.727</v>
+        <v>1.666</v>
       </c>
       <c r="L29">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M29">
-        <v>4.333</v>
+        <v>4.5</v>
       </c>
       <c r="N29">
-        <v>1.727</v>
+        <v>1.666</v>
       </c>
       <c r="O29">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="P29">
-        <v>4.333</v>
+        <v>4.5</v>
       </c>
       <c r="Q29">
         <v>-0.75</v>
       </c>
       <c r="R29">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S29">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T29">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U29">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="V29">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="W29">
         <v>-1</v>
@@ -3088,16 +3088,16 @@
         <v>-1</v>
       </c>
       <c r="Y29">
-        <v>3.333</v>
+        <v>3.5</v>
       </c>
       <c r="Z29">
         <v>-1</v>
       </c>
       <c r="AA29">
-        <v>0.825</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB29">
-        <v>0.8999999999999999</v>
+        <v>0.75</v>
       </c>
       <c r="AC29">
         <v>-1</v>
@@ -3108,7 +3108,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>6989502</v>
+        <v>6989317</v>
       </c>
       <c r="C30" t="s">
         <v>28</v>
@@ -3120,73 +3120,73 @@
         <v>45165.5</v>
       </c>
       <c r="F30" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G30" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="H30">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I30">
         <v>2</v>
       </c>
       <c r="J30" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K30">
-        <v>1.7</v>
+        <v>1.727</v>
       </c>
       <c r="L30">
         <v>3.3</v>
       </c>
       <c r="M30">
-        <v>4.5</v>
+        <v>4.333</v>
       </c>
       <c r="N30">
-        <v>1.4</v>
+        <v>1.727</v>
       </c>
       <c r="O30">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="P30">
-        <v>6.5</v>
+        <v>4.333</v>
       </c>
       <c r="Q30">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R30">
-        <v>1.725</v>
+        <v>1.975</v>
       </c>
       <c r="S30">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="T30">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U30">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V30">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W30">
         <v>-1</v>
       </c>
       <c r="X30">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y30">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Z30">
         <v>-1</v>
       </c>
       <c r="AA30">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AB30">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC30">
         <v>-1</v>
@@ -3197,7 +3197,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>6989602</v>
+        <v>6989502</v>
       </c>
       <c r="C31" t="s">
         <v>28</v>
@@ -3209,73 +3209,73 @@
         <v>45165.5</v>
       </c>
       <c r="F31" t="s">
+        <v>41</v>
+      </c>
+      <c r="G31" t="s">
         <v>34</v>
       </c>
-      <c r="G31" t="s">
-        <v>31</v>
-      </c>
       <c r="H31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I31">
         <v>2</v>
       </c>
       <c r="J31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K31">
-        <v>1.666</v>
+        <v>1.7</v>
       </c>
       <c r="L31">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M31">
         <v>4.5</v>
       </c>
       <c r="N31">
-        <v>1.666</v>
+        <v>1.4</v>
       </c>
       <c r="O31">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="P31">
-        <v>4.5</v>
+        <v>6.5</v>
       </c>
       <c r="Q31">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R31">
-        <v>1.95</v>
+        <v>1.725</v>
       </c>
       <c r="S31">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T31">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U31">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="V31">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="W31">
         <v>-1</v>
       </c>
       <c r="X31">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y31">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Z31">
         <v>-1</v>
       </c>
       <c r="AA31">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB31">
-        <v>0.75</v>
+        <v>0.825</v>
       </c>
       <c r="AC31">
         <v>-1</v>
@@ -3298,7 +3298,7 @@
         <v>45165.5</v>
       </c>
       <c r="F32" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G32" t="s">
         <v>29</v>
@@ -3390,7 +3390,7 @@
         <v>43</v>
       </c>
       <c r="G33" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H33">
         <v>1</v>
@@ -3476,7 +3476,7 @@
         <v>45171.5</v>
       </c>
       <c r="F34" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G34" t="s">
         <v>39</v>
@@ -3642,7 +3642,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>6989669</v>
+        <v>6989668</v>
       </c>
       <c r="C36" t="s">
         <v>28</v>
@@ -3654,76 +3654,76 @@
         <v>45171.58333333334</v>
       </c>
       <c r="F36" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G36" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J36" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K36">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="L36">
         <v>3.2</v>
       </c>
       <c r="M36">
-        <v>2.875</v>
+        <v>2.75</v>
       </c>
       <c r="N36">
-        <v>2.2</v>
+        <v>1.95</v>
       </c>
       <c r="O36">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="P36">
-        <v>2.9</v>
+        <v>3.5</v>
       </c>
       <c r="Q36">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R36">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S36">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T36">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U36">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="V36">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="W36">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="X36">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y36">
         <v>-1</v>
       </c>
       <c r="Z36">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AA36">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AB36">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AC36">
-        <v>0.3875</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="37" spans="1:29">
@@ -3731,7 +3731,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>6989668</v>
+        <v>6989669</v>
       </c>
       <c r="C37" t="s">
         <v>28</v>
@@ -3743,76 +3743,76 @@
         <v>45171.58333333334</v>
       </c>
       <c r="F37" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G37" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J37" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K37">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="L37">
         <v>3.2</v>
       </c>
       <c r="M37">
-        <v>2.75</v>
+        <v>2.875</v>
       </c>
       <c r="N37">
-        <v>1.95</v>
+        <v>2.2</v>
       </c>
       <c r="O37">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="P37">
-        <v>3.5</v>
+        <v>2.9</v>
       </c>
       <c r="Q37">
+        <v>-0.25</v>
+      </c>
+      <c r="R37">
+        <v>1.975</v>
+      </c>
+      <c r="S37">
+        <v>1.825</v>
+      </c>
+      <c r="T37">
+        <v>2.25</v>
+      </c>
+      <c r="U37">
+        <v>2.025</v>
+      </c>
+      <c r="V37">
+        <v>1.775</v>
+      </c>
+      <c r="W37">
+        <v>-1</v>
+      </c>
+      <c r="X37">
+        <v>2.2</v>
+      </c>
+      <c r="Y37">
+        <v>-1</v>
+      </c>
+      <c r="Z37">
         <v>-0.5</v>
       </c>
-      <c r="R37">
-        <v>2</v>
-      </c>
-      <c r="S37">
-        <v>1.8</v>
-      </c>
-      <c r="T37">
-        <v>2</v>
-      </c>
-      <c r="U37">
-        <v>1.95</v>
-      </c>
-      <c r="V37">
-        <v>1.85</v>
-      </c>
-      <c r="W37">
-        <v>0.95</v>
-      </c>
-      <c r="X37">
-        <v>-1</v>
-      </c>
-      <c r="Y37">
-        <v>-1</v>
-      </c>
-      <c r="Z37">
-        <v>1</v>
-      </c>
       <c r="AA37">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AB37">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AC37">
-        <v>-0</v>
+        <v>0.3875</v>
       </c>
     </row>
     <row r="38" spans="1:29">
@@ -3820,7 +3820,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>6989504</v>
+        <v>6989503</v>
       </c>
       <c r="C38" t="s">
         <v>28</v>
@@ -3832,73 +3832,73 @@
         <v>45172.5</v>
       </c>
       <c r="F38" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="G38" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H38">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I38">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J38" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K38">
+        <v>1.85</v>
+      </c>
+      <c r="L38">
+        <v>2.8</v>
+      </c>
+      <c r="M38">
+        <v>4.75</v>
+      </c>
+      <c r="N38">
+        <v>2.3</v>
+      </c>
+      <c r="O38">
+        <v>2.75</v>
+      </c>
+      <c r="P38">
         <v>3.4</v>
       </c>
-      <c r="L38">
-        <v>3.4</v>
-      </c>
-      <c r="M38">
-        <v>1.909</v>
-      </c>
-      <c r="N38">
-        <v>6</v>
-      </c>
-      <c r="O38">
-        <v>3.6</v>
-      </c>
-      <c r="P38">
-        <v>1.5</v>
-      </c>
       <c r="Q38">
+        <v>-0.25</v>
+      </c>
+      <c r="R38">
+        <v>1.95</v>
+      </c>
+      <c r="S38">
+        <v>1.85</v>
+      </c>
+      <c r="T38">
+        <v>2</v>
+      </c>
+      <c r="U38">
+        <v>2</v>
+      </c>
+      <c r="V38">
+        <v>1.8</v>
+      </c>
+      <c r="W38">
+        <v>-1</v>
+      </c>
+      <c r="X38">
+        <v>-1</v>
+      </c>
+      <c r="Y38">
+        <v>2.4</v>
+      </c>
+      <c r="Z38">
+        <v>-1</v>
+      </c>
+      <c r="AA38">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AB38">
         <v>1</v>
-      </c>
-      <c r="R38">
-        <v>2</v>
-      </c>
-      <c r="S38">
-        <v>1.8</v>
-      </c>
-      <c r="T38">
-        <v>2.5</v>
-      </c>
-      <c r="U38">
-        <v>1.975</v>
-      </c>
-      <c r="V38">
-        <v>1.825</v>
-      </c>
-      <c r="W38">
-        <v>-1</v>
-      </c>
-      <c r="X38">
-        <v>2.6</v>
-      </c>
-      <c r="Y38">
-        <v>-1</v>
-      </c>
-      <c r="Z38">
-        <v>1</v>
-      </c>
-      <c r="AA38">
-        <v>-1</v>
-      </c>
-      <c r="AB38">
-        <v>0.9750000000000001</v>
       </c>
       <c r="AC38">
         <v>-1</v>
@@ -3909,7 +3909,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>6989503</v>
+        <v>6989504</v>
       </c>
       <c r="C39" t="s">
         <v>28</v>
@@ -3921,73 +3921,73 @@
         <v>45172.5</v>
       </c>
       <c r="F39" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="G39" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H39">
+        <v>2</v>
+      </c>
+      <c r="I39">
+        <v>2</v>
+      </c>
+      <c r="J39" t="s">
+        <v>47</v>
+      </c>
+      <c r="K39">
+        <v>3.4</v>
+      </c>
+      <c r="L39">
+        <v>3.4</v>
+      </c>
+      <c r="M39">
+        <v>1.909</v>
+      </c>
+      <c r="N39">
+        <v>6</v>
+      </c>
+      <c r="O39">
+        <v>3.6</v>
+      </c>
+      <c r="P39">
+        <v>1.5</v>
+      </c>
+      <c r="Q39">
         <v>1</v>
       </c>
-      <c r="I39">
-        <v>3</v>
-      </c>
-      <c r="J39" t="s">
-        <v>46</v>
-      </c>
-      <c r="K39">
-        <v>1.85</v>
-      </c>
-      <c r="L39">
-        <v>2.8</v>
-      </c>
-      <c r="M39">
-        <v>4.75</v>
-      </c>
-      <c r="N39">
-        <v>2.3</v>
-      </c>
-      <c r="O39">
-        <v>2.75</v>
-      </c>
-      <c r="P39">
-        <v>3.4</v>
-      </c>
-      <c r="Q39">
-        <v>-0.25</v>
-      </c>
       <c r="R39">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S39">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T39">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U39">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V39">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W39">
         <v>-1</v>
       </c>
       <c r="X39">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y39">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Z39">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA39">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB39">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC39">
         <v>-1</v>
@@ -3998,7 +3998,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>6989318</v>
+        <v>6989670</v>
       </c>
       <c r="C40" t="s">
         <v>28</v>
@@ -4010,76 +4010,76 @@
         <v>45172.58333333334</v>
       </c>
       <c r="F40" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="G40" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H40">
+        <v>1</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="J40" t="s">
+        <v>45</v>
+      </c>
+      <c r="K40">
+        <v>2.1</v>
+      </c>
+      <c r="L40">
         <v>3</v>
       </c>
-      <c r="I40">
-        <v>5</v>
-      </c>
-      <c r="J40" t="s">
-        <v>46</v>
-      </c>
-      <c r="K40">
-        <v>2.55</v>
-      </c>
-      <c r="L40">
-        <v>3.25</v>
-      </c>
       <c r="M40">
-        <v>2.45</v>
+        <v>3.3</v>
       </c>
       <c r="N40">
-        <v>3.1</v>
+        <v>2.05</v>
       </c>
       <c r="O40">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="P40">
-        <v>2.15</v>
+        <v>3.4</v>
       </c>
       <c r="Q40">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R40">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S40">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T40">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U40">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V40">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W40">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X40">
         <v>-1</v>
       </c>
       <c r="Y40">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="Z40">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA40">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB40">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC40">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="41" spans="1:29">
@@ -4087,7 +4087,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>6989670</v>
+        <v>6989318</v>
       </c>
       <c r="C41" t="s">
         <v>28</v>
@@ -4099,76 +4099,76 @@
         <v>45172.58333333334</v>
       </c>
       <c r="F41" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="G41" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H41">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I41">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J41" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K41">
-        <v>2.1</v>
+        <v>2.55</v>
       </c>
       <c r="L41">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="M41">
-        <v>3.3</v>
+        <v>2.45</v>
       </c>
       <c r="N41">
-        <v>2.05</v>
+        <v>3.1</v>
       </c>
       <c r="O41">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="P41">
-        <v>3.4</v>
+        <v>2.15</v>
       </c>
       <c r="Q41">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R41">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S41">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T41">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U41">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V41">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W41">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X41">
         <v>-1</v>
       </c>
       <c r="Y41">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="Z41">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA41">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB41">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC41">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="42" spans="1:29">
@@ -4188,7 +4188,7 @@
         <v>45177.47916666666</v>
       </c>
       <c r="F42" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G42" t="s">
         <v>36</v>
@@ -4265,7 +4265,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>6989671</v>
+        <v>6989605</v>
       </c>
       <c r="C43" t="s">
         <v>28</v>
@@ -4277,13 +4277,13 @@
         <v>45178.47916666666</v>
       </c>
       <c r="F43" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="G43" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H43">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I43">
         <v>1</v>
@@ -4292,34 +4292,34 @@
         <v>45</v>
       </c>
       <c r="K43">
-        <v>2.3</v>
+        <v>2.15</v>
       </c>
       <c r="L43">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="M43">
         <v>3.25</v>
       </c>
       <c r="N43">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="O43">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="P43">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="Q43">
         <v>-0.25</v>
       </c>
       <c r="R43">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S43">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="T43">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U43">
         <v>2</v>
@@ -4328,7 +4328,7 @@
         <v>1.8</v>
       </c>
       <c r="W43">
-        <v>1.3</v>
+        <v>1.1</v>
       </c>
       <c r="X43">
         <v>-1</v>
@@ -4337,7 +4337,7 @@
         <v>-1</v>
       </c>
       <c r="Z43">
-        <v>1</v>
+        <v>0.825</v>
       </c>
       <c r="AA43">
         <v>-1</v>
@@ -4354,7 +4354,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>6989605</v>
+        <v>6989671</v>
       </c>
       <c r="C44" t="s">
         <v>28</v>
@@ -4366,13 +4366,13 @@
         <v>45178.47916666666</v>
       </c>
       <c r="F44" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="G44" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H44">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I44">
         <v>1</v>
@@ -4381,34 +4381,34 @@
         <v>45</v>
       </c>
       <c r="K44">
-        <v>2.15</v>
+        <v>2.3</v>
       </c>
       <c r="L44">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="M44">
         <v>3.25</v>
       </c>
       <c r="N44">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="O44">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="P44">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="Q44">
         <v>-0.25</v>
       </c>
       <c r="R44">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S44">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="T44">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U44">
         <v>2</v>
@@ -4417,7 +4417,7 @@
         <v>1.8</v>
       </c>
       <c r="W44">
-        <v>1.1</v>
+        <v>1.3</v>
       </c>
       <c r="X44">
         <v>-1</v>
@@ -4426,7 +4426,7 @@
         <v>-1</v>
       </c>
       <c r="Z44">
-        <v>0.825</v>
+        <v>1</v>
       </c>
       <c r="AA44">
         <v>-1</v>
@@ -4532,7 +4532,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>6989505</v>
+        <v>6989672</v>
       </c>
       <c r="C46" t="s">
         <v>28</v>
@@ -4544,76 +4544,76 @@
         <v>45179.47916666666</v>
       </c>
       <c r="F46" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G46" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="H46">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I46">
         <v>1</v>
       </c>
       <c r="J46" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K46">
-        <v>1.222</v>
+        <v>1.615</v>
       </c>
       <c r="L46">
-        <v>5</v>
+        <v>3.3</v>
       </c>
       <c r="M46">
-        <v>10</v>
+        <v>5.2</v>
       </c>
       <c r="N46">
-        <v>1.2</v>
+        <v>1.615</v>
       </c>
       <c r="O46">
+        <v>3.3</v>
+      </c>
+      <c r="P46">
         <v>5.25</v>
       </c>
-      <c r="P46">
-        <v>12</v>
-      </c>
       <c r="Q46">
-        <v>-2</v>
+        <v>-0.75</v>
       </c>
       <c r="R46">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S46">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T46">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U46">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="V46">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="W46">
-        <v>0.2</v>
+        <v>-1</v>
       </c>
       <c r="X46">
         <v>-1</v>
       </c>
       <c r="Y46">
-        <v>-1</v>
+        <v>4.25</v>
       </c>
       <c r="Z46">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA46">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB46">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC46">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="47" spans="1:29">
@@ -4621,7 +4621,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>6989672</v>
+        <v>6989319</v>
       </c>
       <c r="C47" t="s">
         <v>28</v>
@@ -4633,76 +4633,76 @@
         <v>45179.47916666666</v>
       </c>
       <c r="F47" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G47" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J47" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K47">
-        <v>1.615</v>
+        <v>2.2</v>
       </c>
       <c r="L47">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="M47">
-        <v>5.2</v>
+        <v>3</v>
       </c>
       <c r="N47">
-        <v>1.615</v>
+        <v>1.833</v>
       </c>
       <c r="O47">
         <v>3.3</v>
       </c>
       <c r="P47">
-        <v>5.25</v>
+        <v>4</v>
       </c>
       <c r="Q47">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R47">
+        <v>1.85</v>
+      </c>
+      <c r="S47">
+        <v>1.95</v>
+      </c>
+      <c r="T47">
+        <v>2</v>
+      </c>
+      <c r="U47">
         <v>1.825</v>
       </c>
-      <c r="S47">
+      <c r="V47">
         <v>1.975</v>
       </c>
-      <c r="T47">
-        <v>2.25</v>
-      </c>
-      <c r="U47">
-        <v>2.025</v>
-      </c>
-      <c r="V47">
-        <v>1.775</v>
-      </c>
       <c r="W47">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="X47">
         <v>-1</v>
       </c>
       <c r="Y47">
-        <v>4.25</v>
+        <v>-1</v>
       </c>
       <c r="Z47">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA47">
+        <v>-1</v>
+      </c>
+      <c r="AB47">
+        <v>-1</v>
+      </c>
+      <c r="AC47">
         <v>0.9750000000000001</v>
-      </c>
-      <c r="AB47">
-        <v>-1</v>
-      </c>
-      <c r="AC47">
-        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="48" spans="1:29">
@@ -4710,7 +4710,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>6989319</v>
+        <v>6989505</v>
       </c>
       <c r="C48" t="s">
         <v>28</v>
@@ -4722,58 +4722,58 @@
         <v>45179.47916666666</v>
       </c>
       <c r="F48" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G48" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H48">
+        <v>4</v>
+      </c>
+      <c r="I48">
         <v>1</v>
-      </c>
-      <c r="I48">
-        <v>0</v>
       </c>
       <c r="J48" t="s">
         <v>45</v>
       </c>
       <c r="K48">
-        <v>2.2</v>
+        <v>1.222</v>
       </c>
       <c r="L48">
-        <v>3.1</v>
+        <v>5</v>
       </c>
       <c r="M48">
+        <v>10</v>
+      </c>
+      <c r="N48">
+        <v>1.2</v>
+      </c>
+      <c r="O48">
+        <v>5.25</v>
+      </c>
+      <c r="P48">
+        <v>12</v>
+      </c>
+      <c r="Q48">
+        <v>-2</v>
+      </c>
+      <c r="R48">
+        <v>1.9</v>
+      </c>
+      <c r="S48">
+        <v>1.9</v>
+      </c>
+      <c r="T48">
         <v>3</v>
       </c>
-      <c r="N48">
-        <v>1.833</v>
-      </c>
-      <c r="O48">
-        <v>3.3</v>
-      </c>
-      <c r="P48">
-        <v>4</v>
-      </c>
-      <c r="Q48">
-        <v>-0.5</v>
-      </c>
-      <c r="R48">
-        <v>1.85</v>
-      </c>
-      <c r="S48">
-        <v>1.95</v>
-      </c>
-      <c r="T48">
-        <v>2</v>
-      </c>
       <c r="U48">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V48">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W48">
-        <v>0.833</v>
+        <v>0.2</v>
       </c>
       <c r="X48">
         <v>-1</v>
@@ -4782,16 +4782,16 @@
         <v>-1</v>
       </c>
       <c r="Z48">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA48">
         <v>-1</v>
       </c>
       <c r="AB48">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC48">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="49" spans="1:29">
@@ -4814,7 +4814,7 @@
         <v>43</v>
       </c>
       <c r="G49" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H49">
         <v>2</v>
@@ -4888,7 +4888,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>6989607</v>
+        <v>6989673</v>
       </c>
       <c r="C50" t="s">
         <v>28</v>
@@ -4900,40 +4900,40 @@
         <v>45185.58333333334</v>
       </c>
       <c r="F50" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G50" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="H50">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I50">
         <v>1</v>
       </c>
       <c r="J50" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K50">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="L50">
-        <v>3</v>
+        <v>2.875</v>
       </c>
       <c r="M50">
         <v>3</v>
       </c>
       <c r="N50">
-        <v>2.2</v>
+        <v>2.7</v>
       </c>
       <c r="O50">
-        <v>3</v>
+        <v>2.875</v>
       </c>
       <c r="P50">
-        <v>3.1</v>
+        <v>2.6</v>
       </c>
       <c r="Q50">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R50">
         <v>1.95</v>
@@ -4942,34 +4942,34 @@
         <v>1.85</v>
       </c>
       <c r="T50">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U50">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V50">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W50">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="X50">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y50">
         <v>-1</v>
       </c>
       <c r="Z50">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AA50">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AB50">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AC50">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="51" spans="1:29">
@@ -4977,7 +4977,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>6989673</v>
+        <v>6989607</v>
       </c>
       <c r="C51" t="s">
         <v>28</v>
@@ -4989,40 +4989,40 @@
         <v>45185.58333333334</v>
       </c>
       <c r="F51" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G51" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="H51">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I51">
         <v>1</v>
       </c>
       <c r="J51" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K51">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="L51">
-        <v>2.875</v>
+        <v>3</v>
       </c>
       <c r="M51">
         <v>3</v>
       </c>
       <c r="N51">
-        <v>2.7</v>
+        <v>2.2</v>
       </c>
       <c r="O51">
-        <v>2.875</v>
+        <v>3</v>
       </c>
       <c r="P51">
-        <v>2.6</v>
+        <v>3.1</v>
       </c>
       <c r="Q51">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R51">
         <v>1.95</v>
@@ -5031,34 +5031,34 @@
         <v>1.85</v>
       </c>
       <c r="T51">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U51">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V51">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W51">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="X51">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y51">
         <v>-1</v>
       </c>
       <c r="Z51">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AA51">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AB51">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AC51">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="52" spans="1:29">
@@ -5170,7 +5170,7 @@
         <v>42</v>
       </c>
       <c r="G53" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H53">
         <v>1</v>
@@ -5345,10 +5345,10 @@
         <v>45186.45833333334</v>
       </c>
       <c r="F55" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G55" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H55">
         <v>0</v>
@@ -5434,10 +5434,10 @@
         <v>45186.58333333334</v>
       </c>
       <c r="F56" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G56" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H56">
         <v>0</v>
@@ -5526,7 +5526,7 @@
         <v>29</v>
       </c>
       <c r="G57" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H57">
         <v>0</v>
@@ -5793,7 +5793,7 @@
         <v>36</v>
       </c>
       <c r="G60" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H60">
         <v>0</v>
@@ -5867,7 +5867,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>6989320</v>
+        <v>6989611</v>
       </c>
       <c r="C61" t="s">
         <v>28</v>
@@ -5879,40 +5879,40 @@
         <v>45192.45833333334</v>
       </c>
       <c r="F61" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G61" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="H61">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I61">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J61" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K61">
-        <v>1.727</v>
+        <v>1.909</v>
       </c>
       <c r="L61">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M61">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="N61">
-        <v>1.533</v>
+        <v>1.909</v>
       </c>
       <c r="O61">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="P61">
-        <v>5.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q61">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R61">
         <v>1.95</v>
@@ -5924,19 +5924,19 @@
         <v>2.25</v>
       </c>
       <c r="U61">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="V61">
-        <v>1.875</v>
+        <v>1.75</v>
       </c>
       <c r="W61">
         <v>-1</v>
       </c>
       <c r="X61">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y61">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Z61">
         <v>-1</v>
@@ -5945,10 +5945,10 @@
         <v>0.8500000000000001</v>
       </c>
       <c r="AB61">
-        <v>-0.5</v>
+        <v>1.05</v>
       </c>
       <c r="AC61">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="62" spans="1:29">
@@ -5956,7 +5956,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>6989508</v>
+        <v>6989320</v>
       </c>
       <c r="C62" t="s">
         <v>28</v>
@@ -5968,19 +5968,19 @@
         <v>45192.45833333334</v>
       </c>
       <c r="F62" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="G62" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="H62">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I62">
         <v>1</v>
       </c>
       <c r="J62" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K62">
         <v>1.727</v>
@@ -5992,52 +5992,52 @@
         <v>4.333</v>
       </c>
       <c r="N62">
-        <v>1.727</v>
+        <v>1.533</v>
       </c>
       <c r="O62">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="P62">
-        <v>4.333</v>
+        <v>5.5</v>
       </c>
       <c r="Q62">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R62">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="S62">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="T62">
         <v>2.25</v>
       </c>
       <c r="U62">
+        <v>1.925</v>
+      </c>
+      <c r="V62">
         <v>1.875</v>
       </c>
-      <c r="V62">
-        <v>1.925</v>
-      </c>
       <c r="W62">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X62">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y62">
         <v>-1</v>
       </c>
       <c r="Z62">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA62">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB62">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AC62">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="63" spans="1:29">
@@ -6045,7 +6045,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>6989610</v>
+        <v>6989508</v>
       </c>
       <c r="C63" t="s">
         <v>28</v>
@@ -6057,58 +6057,58 @@
         <v>45192.45833333334</v>
       </c>
       <c r="F63" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G63" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H63">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J63" t="s">
         <v>45</v>
       </c>
       <c r="K63">
-        <v>2.2</v>
+        <v>1.727</v>
       </c>
       <c r="L63">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="M63">
-        <v>3</v>
+        <v>4.333</v>
       </c>
       <c r="N63">
-        <v>2.2</v>
+        <v>1.727</v>
       </c>
       <c r="O63">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="P63">
-        <v>3</v>
+        <v>4.333</v>
       </c>
       <c r="Q63">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R63">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="S63">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T63">
         <v>2.25</v>
       </c>
       <c r="U63">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V63">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W63">
-        <v>1.2</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X63">
         <v>-1</v>
@@ -6117,13 +6117,13 @@
         <v>-1</v>
       </c>
       <c r="Z63">
-        <v>0.9750000000000001</v>
+        <v>0.75</v>
       </c>
       <c r="AA63">
         <v>-1</v>
       </c>
       <c r="AB63">
-        <v>0.825</v>
+        <v>0.875</v>
       </c>
       <c r="AC63">
         <v>-1</v>
@@ -6134,7 +6134,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>6989612</v>
+        <v>6989610</v>
       </c>
       <c r="C64" t="s">
         <v>28</v>
@@ -6146,13 +6146,13 @@
         <v>45192.45833333334</v>
       </c>
       <c r="F64" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="G64" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="H64">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I64">
         <v>0</v>
@@ -6161,43 +6161,43 @@
         <v>45</v>
       </c>
       <c r="K64">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L64">
-        <v>2.875</v>
+        <v>3.1</v>
       </c>
       <c r="M64">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="N64">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="O64">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="P64">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="Q64">
         <v>-0.25</v>
       </c>
       <c r="R64">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="S64">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T64">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U64">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V64">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W64">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
       <c r="X64">
         <v>-1</v>
@@ -6206,16 +6206,16 @@
         <v>-1</v>
       </c>
       <c r="Z64">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA64">
         <v>-1</v>
       </c>
       <c r="AB64">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC64">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="65" spans="1:29">
@@ -6223,7 +6223,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>6989611</v>
+        <v>6989612</v>
       </c>
       <c r="C65" t="s">
         <v>28</v>
@@ -6235,76 +6235,76 @@
         <v>45192.45833333334</v>
       </c>
       <c r="F65" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G65" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H65">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I65">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J65" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K65">
-        <v>1.909</v>
+        <v>2.1</v>
       </c>
       <c r="L65">
-        <v>3.2</v>
+        <v>2.875</v>
       </c>
       <c r="M65">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="N65">
-        <v>1.909</v>
+        <v>2.1</v>
       </c>
       <c r="O65">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="P65">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="Q65">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R65">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S65">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T65">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U65">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="V65">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="W65">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X65">
         <v>-1</v>
       </c>
       <c r="Y65">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Z65">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA65">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB65">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AC65">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="66" spans="1:29">
@@ -6401,7 +6401,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>6989680</v>
+        <v>6989512</v>
       </c>
       <c r="C67" t="s">
         <v>28</v>
@@ -6413,76 +6413,76 @@
         <v>45200.41666666666</v>
       </c>
       <c r="F67" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="G67" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H67">
+        <v>0</v>
+      </c>
+      <c r="I67">
         <v>1</v>
       </c>
-      <c r="I67">
-        <v>0</v>
-      </c>
       <c r="J67" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K67">
-        <v>2</v>
+        <v>1.666</v>
       </c>
       <c r="L67">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="M67">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="N67">
-        <v>1.95</v>
+        <v>1.5</v>
       </c>
       <c r="O67">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="P67">
-        <v>3.75</v>
+        <v>6</v>
       </c>
       <c r="Q67">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R67">
+        <v>1.975</v>
+      </c>
+      <c r="S67">
+        <v>1.825</v>
+      </c>
+      <c r="T67">
+        <v>2.25</v>
+      </c>
+      <c r="U67">
         <v>2.025</v>
       </c>
-      <c r="S67">
+      <c r="V67">
         <v>1.775</v>
       </c>
-      <c r="T67">
-        <v>2</v>
-      </c>
-      <c r="U67">
-        <v>1.825</v>
-      </c>
-      <c r="V67">
-        <v>1.975</v>
-      </c>
       <c r="W67">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="X67">
         <v>-1</v>
       </c>
       <c r="Y67">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="Z67">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA67">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB67">
         <v>-1</v>
       </c>
       <c r="AC67">
-        <v>0.9750000000000001</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="68" spans="1:29">
@@ -6490,7 +6490,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>6989614</v>
+        <v>6989511</v>
       </c>
       <c r="C68" t="s">
         <v>28</v>
@@ -6502,58 +6502,58 @@
         <v>45200.41666666666</v>
       </c>
       <c r="F68" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="G68" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="H68">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J68" t="s">
         <v>45</v>
       </c>
       <c r="K68">
-        <v>2.1</v>
+        <v>1.571</v>
       </c>
       <c r="L68">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="M68">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N68">
-        <v>2.2</v>
+        <v>1.333</v>
       </c>
       <c r="O68">
-        <v>3.1</v>
+        <v>4.2</v>
       </c>
       <c r="P68">
-        <v>3</v>
+        <v>7.5</v>
       </c>
       <c r="Q68">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R68">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S68">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="T68">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U68">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="V68">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W68">
-        <v>1.2</v>
+        <v>0.333</v>
       </c>
       <c r="X68">
         <v>-1</v>
@@ -6562,16 +6562,16 @@
         <v>-1</v>
       </c>
       <c r="Z68">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AA68">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AB68">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC68">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="69" spans="1:29">
@@ -6579,7 +6579,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>6989512</v>
+        <v>6989614</v>
       </c>
       <c r="C69" t="s">
         <v>28</v>
@@ -6591,40 +6591,40 @@
         <v>45200.41666666666</v>
       </c>
       <c r="F69" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G69" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I69">
         <v>1</v>
       </c>
       <c r="J69" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K69">
-        <v>1.666</v>
+        <v>2.1</v>
       </c>
       <c r="L69">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="M69">
-        <v>4.75</v>
+        <v>3</v>
       </c>
       <c r="N69">
-        <v>1.5</v>
+        <v>2.2</v>
       </c>
       <c r="O69">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="P69">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="Q69">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R69">
         <v>1.975</v>
@@ -6636,31 +6636,31 @@
         <v>2.25</v>
       </c>
       <c r="U69">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="V69">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="W69">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X69">
         <v>-1</v>
       </c>
       <c r="Y69">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="Z69">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA69">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB69">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC69">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="70" spans="1:29">
@@ -6668,7 +6668,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>6989511</v>
+        <v>6989680</v>
       </c>
       <c r="C70" t="s">
         <v>28</v>
@@ -6680,10 +6680,10 @@
         <v>45200.41666666666</v>
       </c>
       <c r="F70" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="G70" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H70">
         <v>1</v>
@@ -6695,43 +6695,43 @@
         <v>45</v>
       </c>
       <c r="K70">
-        <v>1.571</v>
+        <v>2</v>
       </c>
       <c r="L70">
+        <v>3</v>
+      </c>
+      <c r="M70">
         <v>3.6</v>
       </c>
-      <c r="M70">
-        <v>5</v>
-      </c>
       <c r="N70">
-        <v>1.333</v>
+        <v>1.95</v>
       </c>
       <c r="O70">
-        <v>4.2</v>
+        <v>3</v>
       </c>
       <c r="P70">
-        <v>7.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q70">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R70">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="S70">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="T70">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U70">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V70">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="W70">
-        <v>0.333</v>
+        <v>0.95</v>
       </c>
       <c r="X70">
         <v>-1</v>
@@ -6740,16 +6740,16 @@
         <v>-1</v>
       </c>
       <c r="Z70">
-        <v>-0.5</v>
+        <v>1.025</v>
       </c>
       <c r="AA70">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AB70">
         <v>-1</v>
       </c>
       <c r="AC70">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="71" spans="1:29">
@@ -6769,10 +6769,10 @@
         <v>45200.58333333334</v>
       </c>
       <c r="F71" t="s">
+        <v>33</v>
+      </c>
+      <c r="G71" t="s">
         <v>32</v>
-      </c>
-      <c r="G71" t="s">
-        <v>33</v>
       </c>
       <c r="H71">
         <v>0</v>
@@ -6858,7 +6858,7 @@
         <v>45201.41666666666</v>
       </c>
       <c r="F72" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G72" t="s">
         <v>44</v>
@@ -7039,7 +7039,7 @@
         <v>29</v>
       </c>
       <c r="G74" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H74">
         <v>1</v>
@@ -7125,7 +7125,7 @@
         <v>45206.54166666666</v>
       </c>
       <c r="F75" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G75" t="s">
         <v>39</v>
@@ -7202,7 +7202,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>7308447</v>
+        <v>6989513</v>
       </c>
       <c r="C76" t="s">
         <v>28</v>
@@ -7214,76 +7214,76 @@
         <v>45207.41666666666</v>
       </c>
       <c r="F76" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="G76" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H76">
         <v>1</v>
       </c>
       <c r="I76">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J76" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K76">
-        <v>1.444</v>
+        <v>2.625</v>
       </c>
       <c r="L76">
-        <v>3.75</v>
+        <v>2.875</v>
       </c>
       <c r="M76">
-        <v>6.5</v>
+        <v>2.625</v>
       </c>
       <c r="N76">
-        <v>1.45</v>
+        <v>2.8</v>
       </c>
       <c r="O76">
-        <v>3.8</v>
+        <v>2.875</v>
       </c>
       <c r="P76">
-        <v>6</v>
+        <v>2.45</v>
       </c>
       <c r="Q76">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R76">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="S76">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="T76">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U76">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V76">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="W76">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="X76">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Y76">
         <v>-1</v>
       </c>
       <c r="Z76">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AA76">
-        <v>0.4</v>
+        <v>-0</v>
       </c>
       <c r="AB76">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC76">
-        <v>0.9750000000000001</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="77" spans="1:29">
@@ -7291,7 +7291,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>6989513</v>
+        <v>7018994</v>
       </c>
       <c r="C77" t="s">
         <v>28</v>
@@ -7303,76 +7303,76 @@
         <v>45207.41666666666</v>
       </c>
       <c r="F77" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G77" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="H77">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I77">
         <v>1</v>
       </c>
       <c r="J77" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K77">
-        <v>2.625</v>
+        <v>2.25</v>
       </c>
       <c r="L77">
-        <v>2.875</v>
+        <v>3</v>
       </c>
       <c r="M77">
-        <v>2.625</v>
+        <v>3</v>
       </c>
       <c r="N77">
-        <v>2.8</v>
+        <v>2.15</v>
       </c>
       <c r="O77">
-        <v>2.875</v>
+        <v>3</v>
       </c>
       <c r="P77">
-        <v>2.45</v>
+        <v>3.2</v>
       </c>
       <c r="Q77">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R77">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="S77">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="T77">
         <v>2</v>
       </c>
       <c r="U77">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V77">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W77">
         <v>-1</v>
       </c>
       <c r="X77">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Y77">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Z77">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA77">
-        <v>-0</v>
+        <v>0.875</v>
       </c>
       <c r="AB77">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC77">
-        <v>-0</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="78" spans="1:29">
@@ -7380,7 +7380,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>7018994</v>
+        <v>7308447</v>
       </c>
       <c r="C78" t="s">
         <v>28</v>
@@ -7392,76 +7392,76 @@
         <v>45207.41666666666</v>
       </c>
       <c r="F78" t="s">
+        <v>41</v>
+      </c>
+      <c r="G78" t="s">
         <v>38</v>
       </c>
-      <c r="G78" t="s">
-        <v>43</v>
-      </c>
       <c r="H78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I78">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J78" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K78">
-        <v>2.25</v>
+        <v>1.444</v>
       </c>
       <c r="L78">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="M78">
-        <v>3</v>
+        <v>6.5</v>
       </c>
       <c r="N78">
-        <v>2.15</v>
+        <v>1.45</v>
       </c>
       <c r="O78">
-        <v>3</v>
+        <v>3.8</v>
       </c>
       <c r="P78">
-        <v>3.2</v>
+        <v>6</v>
       </c>
       <c r="Q78">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R78">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="S78">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="T78">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U78">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V78">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W78">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="X78">
         <v>-1</v>
       </c>
       <c r="Y78">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Z78">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA78">
-        <v>0.875</v>
+        <v>0.4</v>
       </c>
       <c r="AB78">
         <v>-1</v>
       </c>
       <c r="AC78">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="79" spans="1:29">
@@ -7484,7 +7484,7 @@
         <v>44</v>
       </c>
       <c r="G79" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H79">
         <v>1</v>
@@ -7573,7 +7573,7 @@
         <v>42</v>
       </c>
       <c r="G80" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H80">
         <v>3</v>
@@ -7662,7 +7662,7 @@
         <v>37</v>
       </c>
       <c r="G81" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H81">
         <v>1</v>
@@ -7736,7 +7736,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>6989516</v>
+        <v>7018995</v>
       </c>
       <c r="C82" t="s">
         <v>28</v>
@@ -7748,40 +7748,40 @@
         <v>45213.41666666666</v>
       </c>
       <c r="F82" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="G82" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="H82">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I82">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J82" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K82">
-        <v>1.833</v>
+        <v>2.1</v>
       </c>
       <c r="L82">
         <v>3.1</v>
       </c>
       <c r="M82">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="N82">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
       <c r="O82">
         <v>3.1</v>
       </c>
       <c r="P82">
-        <v>4.2</v>
+        <v>3.25</v>
       </c>
       <c r="Q82">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R82">
         <v>1.825</v>
@@ -7793,31 +7793,31 @@
         <v>2</v>
       </c>
       <c r="U82">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V82">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W82">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X82">
         <v>-1</v>
       </c>
       <c r="Y82">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Z82">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA82">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB82">
-        <v>0.8500000000000001</v>
+        <v>0</v>
       </c>
       <c r="AC82">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="83" spans="1:29">
@@ -7825,7 +7825,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>7018995</v>
+        <v>6989516</v>
       </c>
       <c r="C83" t="s">
         <v>28</v>
@@ -7837,40 +7837,40 @@
         <v>45213.41666666666</v>
       </c>
       <c r="F83" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G83" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I83">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J83" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K83">
-        <v>2.1</v>
+        <v>1.833</v>
       </c>
       <c r="L83">
         <v>3.1</v>
       </c>
       <c r="M83">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="N83">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="O83">
         <v>3.1</v>
       </c>
       <c r="P83">
-        <v>3.25</v>
+        <v>4.2</v>
       </c>
       <c r="Q83">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R83">
         <v>1.825</v>
@@ -7882,31 +7882,31 @@
         <v>2</v>
       </c>
       <c r="U83">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V83">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W83">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X83">
         <v>-1</v>
       </c>
       <c r="Y83">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Z83">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA83">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB83">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC83">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="84" spans="1:29">
@@ -7926,7 +7926,7 @@
         <v>45214.41666666666</v>
       </c>
       <c r="F84" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G84" t="s">
         <v>41</v>
@@ -8015,7 +8015,7 @@
         <v>45214.54166666666</v>
       </c>
       <c r="F85" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G85" t="s">
         <v>29</v>
@@ -8181,7 +8181,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>6989515</v>
+        <v>6989684</v>
       </c>
       <c r="C87" t="s">
         <v>28</v>
@@ -8193,10 +8193,10 @@
         <v>45215.41666666666</v>
       </c>
       <c r="F87" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G87" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H87">
         <v>1</v>
@@ -8208,43 +8208,43 @@
         <v>45</v>
       </c>
       <c r="K87">
-        <v>1.5</v>
+        <v>2.4</v>
       </c>
       <c r="L87">
+        <v>2.8</v>
+      </c>
+      <c r="M87">
+        <v>2.9</v>
+      </c>
+      <c r="N87">
         <v>3.75</v>
       </c>
-      <c r="M87">
-        <v>5.5</v>
-      </c>
-      <c r="N87">
-        <v>1.5</v>
-      </c>
       <c r="O87">
-        <v>3.75</v>
+        <v>2.9</v>
       </c>
       <c r="P87">
-        <v>6</v>
+        <v>1.95</v>
       </c>
       <c r="Q87">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="R87">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S87">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T87">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U87">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V87">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W87">
-        <v>0.5</v>
+        <v>2.75</v>
       </c>
       <c r="X87">
         <v>-1</v>
@@ -8253,16 +8253,16 @@
         <v>-1</v>
       </c>
       <c r="Z87">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AA87">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB87">
         <v>-1</v>
       </c>
       <c r="AC87">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="88" spans="1:29">
@@ -8282,7 +8282,7 @@
         <v>45215.41666666666</v>
       </c>
       <c r="F88" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G88" t="s">
         <v>37</v>
@@ -8359,7 +8359,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>6989684</v>
+        <v>6989515</v>
       </c>
       <c r="C89" t="s">
         <v>28</v>
@@ -8371,10 +8371,10 @@
         <v>45215.41666666666</v>
       </c>
       <c r="F89" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G89" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="H89">
         <v>1</v>
@@ -8386,44 +8386,44 @@
         <v>45</v>
       </c>
       <c r="K89">
-        <v>2.4</v>
+        <v>1.5</v>
       </c>
       <c r="L89">
-        <v>2.8</v>
+        <v>3.75</v>
       </c>
       <c r="M89">
-        <v>2.9</v>
+        <v>5.5</v>
       </c>
       <c r="N89">
+        <v>1.5</v>
+      </c>
+      <c r="O89">
         <v>3.75</v>
       </c>
-      <c r="O89">
-        <v>2.9</v>
-      </c>
       <c r="P89">
-        <v>1.95</v>
+        <v>6</v>
       </c>
       <c r="Q89">
+        <v>-1</v>
+      </c>
+      <c r="R89">
+        <v>1.825</v>
+      </c>
+      <c r="S89">
+        <v>1.975</v>
+      </c>
+      <c r="T89">
+        <v>2.25</v>
+      </c>
+      <c r="U89">
+        <v>2</v>
+      </c>
+      <c r="V89">
+        <v>1.8</v>
+      </c>
+      <c r="W89">
         <v>0.5</v>
       </c>
-      <c r="R89">
-        <v>1.8</v>
-      </c>
-      <c r="S89">
-        <v>2</v>
-      </c>
-      <c r="T89">
-        <v>2</v>
-      </c>
-      <c r="U89">
-        <v>1.85</v>
-      </c>
-      <c r="V89">
-        <v>1.95</v>
-      </c>
-      <c r="W89">
-        <v>2.75</v>
-      </c>
       <c r="X89">
         <v>-1</v>
       </c>
@@ -8431,16 +8431,16 @@
         <v>-1</v>
       </c>
       <c r="Z89">
+        <v>0</v>
+      </c>
+      <c r="AA89">
+        <v>-0</v>
+      </c>
+      <c r="AB89">
+        <v>-1</v>
+      </c>
+      <c r="AC89">
         <v>0.8</v>
-      </c>
-      <c r="AA89">
-        <v>-1</v>
-      </c>
-      <c r="AB89">
-        <v>-1</v>
-      </c>
-      <c r="AC89">
-        <v>0.95</v>
       </c>
     </row>
     <row r="90" spans="1:29">
@@ -8448,7 +8448,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>7367631</v>
+        <v>6989517</v>
       </c>
       <c r="C90" t="s">
         <v>28</v>
@@ -8460,46 +8460,46 @@
         <v>45220.375</v>
       </c>
       <c r="F90" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G90" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H90">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I90">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J90" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K90">
-        <v>2.1</v>
+        <v>2.625</v>
       </c>
       <c r="L90">
-        <v>3.1</v>
+        <v>2.875</v>
       </c>
       <c r="M90">
-        <v>3.2</v>
+        <v>2.6</v>
       </c>
       <c r="N90">
-        <v>2.1</v>
+        <v>3.6</v>
       </c>
       <c r="O90">
         <v>3.1</v>
       </c>
       <c r="P90">
-        <v>3.2</v>
+        <v>2.05</v>
       </c>
       <c r="Q90">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R90">
-        <v>1.875</v>
+        <v>1.725</v>
       </c>
       <c r="S90">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T90">
         <v>2</v>
@@ -8511,19 +8511,19 @@
         <v>2</v>
       </c>
       <c r="W90">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="X90">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y90">
         <v>-1</v>
       </c>
       <c r="Z90">
-        <v>-0.5</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AA90">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AB90">
         <v>0</v>
@@ -8552,7 +8552,7 @@
         <v>41</v>
       </c>
       <c r="G91" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H91">
         <v>2</v>
@@ -8626,7 +8626,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>6989517</v>
+        <v>7367631</v>
       </c>
       <c r="C92" t="s">
         <v>28</v>
@@ -8638,46 +8638,46 @@
         <v>45220.375</v>
       </c>
       <c r="F92" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G92" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="H92">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I92">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J92" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K92">
-        <v>2.625</v>
+        <v>2.1</v>
       </c>
       <c r="L92">
-        <v>2.875</v>
+        <v>3.1</v>
       </c>
       <c r="M92">
-        <v>2.6</v>
+        <v>3.2</v>
       </c>
       <c r="N92">
-        <v>3.6</v>
+        <v>2.1</v>
       </c>
       <c r="O92">
         <v>3.1</v>
       </c>
       <c r="P92">
-        <v>2.05</v>
+        <v>3.2</v>
       </c>
       <c r="Q92">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R92">
-        <v>1.725</v>
+        <v>1.875</v>
       </c>
       <c r="S92">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T92">
         <v>2</v>
@@ -8689,19 +8689,19 @@
         <v>2</v>
       </c>
       <c r="W92">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="X92">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y92">
         <v>-1</v>
       </c>
       <c r="Z92">
-        <v>0.7250000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AA92">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AB92">
         <v>0</v>
@@ -8730,7 +8730,7 @@
         <v>44</v>
       </c>
       <c r="G93" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H93">
         <v>1</v>
@@ -8908,7 +8908,7 @@
         <v>37</v>
       </c>
       <c r="G95" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H95">
         <v>1</v>
@@ -8997,7 +8997,7 @@
         <v>43</v>
       </c>
       <c r="G96" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H96">
         <v>1</v>
@@ -9083,10 +9083,10 @@
         <v>45222.375</v>
       </c>
       <c r="F97" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G97" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H97">
         <v>1</v>
@@ -9172,7 +9172,7 @@
         <v>45226.375</v>
       </c>
       <c r="F98" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G98" t="s">
         <v>41</v>
@@ -9261,7 +9261,7 @@
         <v>45226.5</v>
       </c>
       <c r="F99" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G99" t="s">
         <v>44</v>
@@ -9338,7 +9338,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>7018997</v>
+        <v>6989520</v>
       </c>
       <c r="C100" t="s">
         <v>28</v>
@@ -9350,61 +9350,61 @@
         <v>45227.375</v>
       </c>
       <c r="F100" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G100" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I100">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J100" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K100">
-        <v>2.6</v>
+        <v>1.615</v>
       </c>
       <c r="L100">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="M100">
-        <v>2.5</v>
+        <v>4.333</v>
       </c>
       <c r="N100">
-        <v>2.4</v>
+        <v>1.55</v>
       </c>
       <c r="O100">
-        <v>3</v>
+        <v>3.8</v>
       </c>
       <c r="P100">
-        <v>2.7</v>
+        <v>4.75</v>
       </c>
       <c r="Q100">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R100">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="S100">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="T100">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U100">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V100">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W100">
-        <v>-1</v>
+        <v>0.55</v>
       </c>
       <c r="X100">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y100">
         <v>-1</v>
@@ -9416,10 +9416,10 @@
         <v>-0</v>
       </c>
       <c r="AB100">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC100">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="101" spans="1:29">
@@ -9427,7 +9427,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>6989689</v>
+        <v>6989519</v>
       </c>
       <c r="C101" t="s">
         <v>28</v>
@@ -9439,76 +9439,76 @@
         <v>45227.375</v>
       </c>
       <c r="F101" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G101" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I101">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J101" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K101">
-        <v>2.1</v>
+        <v>1.571</v>
       </c>
       <c r="L101">
-        <v>2.875</v>
+        <v>3.6</v>
       </c>
       <c r="M101">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="N101">
-        <v>2.05</v>
+        <v>1.533</v>
       </c>
       <c r="O101">
-        <v>2.75</v>
+        <v>3.6</v>
       </c>
       <c r="P101">
-        <v>3.6</v>
+        <v>5.25</v>
       </c>
       <c r="Q101">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R101">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S101">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T101">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="U101">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V101">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="W101">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X101">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Y101">
         <v>-1</v>
       </c>
       <c r="Z101">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AA101">
-        <v>0.5</v>
+        <v>-0</v>
       </c>
       <c r="AB101">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC101">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="102" spans="1:29">
@@ -9516,7 +9516,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>6989688</v>
+        <v>7018997</v>
       </c>
       <c r="C102" t="s">
         <v>28</v>
@@ -9528,76 +9528,76 @@
         <v>45227.375</v>
       </c>
       <c r="F102" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="G102" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H102">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I102">
         <v>0</v>
       </c>
       <c r="J102" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K102">
-        <v>2</v>
+        <v>2.6</v>
       </c>
       <c r="L102">
         <v>3</v>
       </c>
       <c r="M102">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="N102">
-        <v>1.909</v>
+        <v>2.4</v>
       </c>
       <c r="O102">
         <v>3</v>
       </c>
       <c r="P102">
-        <v>3.8</v>
+        <v>2.7</v>
       </c>
       <c r="Q102">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R102">
+        <v>1.775</v>
+      </c>
+      <c r="S102">
+        <v>2.025</v>
+      </c>
+      <c r="T102">
+        <v>2</v>
+      </c>
+      <c r="U102">
+        <v>1.825</v>
+      </c>
+      <c r="V102">
         <v>1.975</v>
       </c>
-      <c r="S102">
-        <v>1.825</v>
-      </c>
-      <c r="T102">
-        <v>2</v>
-      </c>
-      <c r="U102">
-        <v>1.8</v>
-      </c>
-      <c r="V102">
-        <v>2</v>
-      </c>
       <c r="W102">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X102">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y102">
         <v>-1</v>
       </c>
       <c r="Z102">
+        <v>0</v>
+      </c>
+      <c r="AA102">
+        <v>-0</v>
+      </c>
+      <c r="AB102">
+        <v>-1</v>
+      </c>
+      <c r="AC102">
         <v>0.9750000000000001</v>
-      </c>
-      <c r="AA102">
-        <v>-1</v>
-      </c>
-      <c r="AB102">
-        <v>0</v>
-      </c>
-      <c r="AC102">
-        <v>-0</v>
       </c>
     </row>
     <row r="103" spans="1:29">
@@ -9605,7 +9605,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>6989520</v>
+        <v>6989689</v>
       </c>
       <c r="C103" t="s">
         <v>28</v>
@@ -9617,76 +9617,76 @@
         <v>45227.375</v>
       </c>
       <c r="F103" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G103" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="H103">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I103">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J103" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K103">
-        <v>1.615</v>
+        <v>2.1</v>
       </c>
       <c r="L103">
-        <v>3.75</v>
+        <v>2.875</v>
       </c>
       <c r="M103">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="N103">
-        <v>1.55</v>
+        <v>2.05</v>
       </c>
       <c r="O103">
-        <v>3.8</v>
+        <v>2.75</v>
       </c>
       <c r="P103">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="Q103">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R103">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S103">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T103">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
       <c r="U103">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V103">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W103">
-        <v>0.55</v>
+        <v>-1</v>
       </c>
       <c r="X103">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="Y103">
         <v>-1</v>
       </c>
       <c r="Z103">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA103">
-        <v>-0</v>
+        <v>0.5</v>
       </c>
       <c r="AB103">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC103">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="104" spans="1:29">
@@ -9694,7 +9694,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>6989519</v>
+        <v>6989688</v>
       </c>
       <c r="C104" t="s">
         <v>28</v>
@@ -9706,40 +9706,40 @@
         <v>45227.375</v>
       </c>
       <c r="F104" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="G104" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="H104">
         <v>2</v>
       </c>
       <c r="I104">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J104" t="s">
         <v>45</v>
       </c>
       <c r="K104">
-        <v>1.571</v>
+        <v>2</v>
       </c>
       <c r="L104">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="M104">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="N104">
-        <v>1.533</v>
+        <v>1.909</v>
       </c>
       <c r="O104">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="P104">
-        <v>5.25</v>
+        <v>3.8</v>
       </c>
       <c r="Q104">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R104">
         <v>1.975</v>
@@ -9748,16 +9748,16 @@
         <v>1.825</v>
       </c>
       <c r="T104">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U104">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="V104">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W104">
-        <v>0.5329999999999999</v>
+        <v>0.909</v>
       </c>
       <c r="X104">
         <v>-1</v>
@@ -9766,16 +9766,16 @@
         <v>-1</v>
       </c>
       <c r="Z104">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA104">
+        <v>-1</v>
+      </c>
+      <c r="AB104">
+        <v>0</v>
+      </c>
+      <c r="AC104">
         <v>-0</v>
-      </c>
-      <c r="AB104">
-        <v>0.925</v>
-      </c>
-      <c r="AC104">
-        <v>-1</v>
       </c>
     </row>
     <row r="105" spans="1:29">
@@ -9872,7 +9872,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>6989625</v>
+        <v>6989624</v>
       </c>
       <c r="C106" t="s">
         <v>28</v>
@@ -9884,34 +9884,34 @@
         <v>45235.375</v>
       </c>
       <c r="F106" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G106" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H106">
+        <v>5</v>
+      </c>
+      <c r="I106">
         <v>1</v>
-      </c>
-      <c r="I106">
-        <v>0</v>
       </c>
       <c r="J106" t="s">
         <v>45</v>
       </c>
       <c r="K106">
-        <v>1.8</v>
+        <v>1.727</v>
       </c>
       <c r="L106">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="M106">
         <v>4.5</v>
       </c>
       <c r="N106">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="O106">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="P106">
         <v>4.5</v>
@@ -9920,22 +9920,22 @@
         <v>-0.5</v>
       </c>
       <c r="R106">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="S106">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="T106">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="U106">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V106">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W106">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="X106">
         <v>-1</v>
@@ -9944,16 +9944,16 @@
         <v>-1</v>
       </c>
       <c r="Z106">
-        <v>0.8999999999999999</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA106">
         <v>-1</v>
       </c>
       <c r="AB106">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC106">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="107" spans="1:29">
@@ -9961,7 +9961,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>6989690</v>
+        <v>6989625</v>
       </c>
       <c r="C107" t="s">
         <v>28</v>
@@ -9973,58 +9973,58 @@
         <v>45235.375</v>
       </c>
       <c r="F107" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G107" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="H107">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I107">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J107" t="s">
         <v>45</v>
       </c>
       <c r="K107">
-        <v>1.285</v>
+        <v>1.8</v>
       </c>
       <c r="L107">
+        <v>3</v>
+      </c>
+      <c r="M107">
         <v>4.5</v>
       </c>
-      <c r="M107">
-        <v>9</v>
-      </c>
       <c r="N107">
-        <v>1.4</v>
+        <v>1.8</v>
       </c>
       <c r="O107">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P107">
-        <v>7</v>
+        <v>4.5</v>
       </c>
       <c r="Q107">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R107">
+        <v>1.9</v>
+      </c>
+      <c r="S107">
+        <v>1.9</v>
+      </c>
+      <c r="T107">
+        <v>1.75</v>
+      </c>
+      <c r="U107">
         <v>1.95</v>
       </c>
-      <c r="S107">
+      <c r="V107">
         <v>1.85</v>
       </c>
-      <c r="T107">
-        <v>2.25</v>
-      </c>
-      <c r="U107">
-        <v>1.875</v>
-      </c>
-      <c r="V107">
-        <v>1.925</v>
-      </c>
       <c r="W107">
-        <v>0.3999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="X107">
         <v>-1</v>
@@ -10033,16 +10033,16 @@
         <v>-1</v>
       </c>
       <c r="Z107">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA107">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AB107">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC107">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="108" spans="1:29">
@@ -10050,7 +10050,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>6989624</v>
+        <v>6989690</v>
       </c>
       <c r="C108" t="s">
         <v>28</v>
@@ -10062,13 +10062,13 @@
         <v>45235.375</v>
       </c>
       <c r="F108" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G108" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H108">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I108">
         <v>1</v>
@@ -10077,31 +10077,31 @@
         <v>45</v>
       </c>
       <c r="K108">
-        <v>1.727</v>
+        <v>1.285</v>
       </c>
       <c r="L108">
-        <v>3.2</v>
+        <v>4.5</v>
       </c>
       <c r="M108">
-        <v>4.5</v>
+        <v>9</v>
       </c>
       <c r="N108">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="O108">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="P108">
-        <v>4.5</v>
+        <v>7</v>
       </c>
       <c r="Q108">
-        <v>-0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R108">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="S108">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="T108">
         <v>2.25</v>
@@ -10113,7 +10113,7 @@
         <v>1.925</v>
       </c>
       <c r="W108">
-        <v>0.75</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X108">
         <v>-1</v>
@@ -10122,10 +10122,10 @@
         <v>-1</v>
       </c>
       <c r="Z108">
-        <v>0.7749999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AA108">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AB108">
         <v>0.875</v>
@@ -10139,7 +10139,7 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>7018998</v>
+        <v>6989327</v>
       </c>
       <c r="C109" t="s">
         <v>28</v>
@@ -10151,76 +10151,76 @@
         <v>45235.54166666666</v>
       </c>
       <c r="F109" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G109" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H109">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I109">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J109" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K109">
-        <v>1.909</v>
+        <v>2.375</v>
       </c>
       <c r="L109">
-        <v>3.1</v>
+        <v>2.75</v>
       </c>
       <c r="M109">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="N109">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="O109">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="P109">
-        <v>3.8</v>
+        <v>3</v>
       </c>
       <c r="Q109">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R109">
-        <v>2.05</v>
+        <v>2.075</v>
       </c>
       <c r="S109">
-        <v>1.75</v>
+        <v>1.725</v>
       </c>
       <c r="T109">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U109">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V109">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W109">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="X109">
         <v>-1</v>
       </c>
       <c r="Y109">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Z109">
-        <v>-1</v>
+        <v>1.075</v>
       </c>
       <c r="AA109">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AB109">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AC109">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="110" spans="1:29">
@@ -10228,7 +10228,7 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>6989327</v>
+        <v>7018998</v>
       </c>
       <c r="C110" t="s">
         <v>28</v>
@@ -10240,76 +10240,76 @@
         <v>45235.54166666666</v>
       </c>
       <c r="F110" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G110" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H110">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I110">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J110" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K110">
-        <v>2.375</v>
+        <v>1.909</v>
       </c>
       <c r="L110">
-        <v>2.75</v>
+        <v>3.1</v>
       </c>
       <c r="M110">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="N110">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="O110">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="P110">
-        <v>3</v>
+        <v>3.8</v>
       </c>
       <c r="Q110">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R110">
-        <v>2.075</v>
+        <v>2.05</v>
       </c>
       <c r="S110">
-        <v>1.725</v>
+        <v>1.75</v>
       </c>
       <c r="T110">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U110">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V110">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W110">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="X110">
         <v>-1</v>
       </c>
       <c r="Y110">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Z110">
-        <v>1.075</v>
+        <v>-1</v>
       </c>
       <c r="AA110">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AB110">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AC110">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="111" spans="1:29">
@@ -10332,7 +10332,7 @@
         <v>42</v>
       </c>
       <c r="G111" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H111">
         <v>0</v>
@@ -10406,7 +10406,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>6989691</v>
+        <v>6989521</v>
       </c>
       <c r="C112" t="s">
         <v>28</v>
@@ -10418,76 +10418,76 @@
         <v>45236.375</v>
       </c>
       <c r="F112" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G112" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="H112">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I112">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J112" t="s">
         <v>47</v>
       </c>
       <c r="K112">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="L112">
         <v>3</v>
       </c>
       <c r="M112">
-        <v>3.6</v>
+        <v>2.75</v>
       </c>
       <c r="N112">
-        <v>1.95</v>
+        <v>2.875</v>
       </c>
       <c r="O112">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="P112">
-        <v>3.75</v>
+        <v>2.45</v>
       </c>
       <c r="Q112">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R112">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="S112">
+        <v>1.75</v>
+      </c>
+      <c r="T112">
+        <v>2</v>
+      </c>
+      <c r="U112">
         <v>1.8</v>
       </c>
-      <c r="T112">
-        <v>2</v>
-      </c>
-      <c r="U112">
-        <v>1.9</v>
-      </c>
       <c r="V112">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W112">
         <v>-1</v>
       </c>
       <c r="X112">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="Y112">
         <v>-1</v>
       </c>
       <c r="Z112">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA112">
-        <v>0.8</v>
+        <v>-0</v>
       </c>
       <c r="AB112">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC112">
-        <v>0.8999999999999999</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="113" spans="1:29">
@@ -10495,7 +10495,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>6989521</v>
+        <v>6989691</v>
       </c>
       <c r="C113" t="s">
         <v>28</v>
@@ -10507,76 +10507,76 @@
         <v>45236.375</v>
       </c>
       <c r="F113" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G113" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="H113">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I113">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J113" t="s">
         <v>47</v>
       </c>
       <c r="K113">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="L113">
         <v>3</v>
       </c>
       <c r="M113">
-        <v>2.75</v>
+        <v>3.6</v>
       </c>
       <c r="N113">
-        <v>2.875</v>
+        <v>1.95</v>
       </c>
       <c r="O113">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="P113">
-        <v>2.45</v>
+        <v>3.75</v>
       </c>
       <c r="Q113">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R113">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S113">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="T113">
         <v>2</v>
       </c>
       <c r="U113">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V113">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W113">
         <v>-1</v>
       </c>
       <c r="X113">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="Y113">
         <v>-1</v>
       </c>
       <c r="Z113">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA113">
-        <v>-0</v>
+        <v>0.8</v>
       </c>
       <c r="AB113">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC113">
-        <v>-0</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="114" spans="1:29">
@@ -10584,7 +10584,7 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>6989693</v>
+        <v>6989692</v>
       </c>
       <c r="C114" t="s">
         <v>28</v>
@@ -10599,73 +10599,73 @@
         <v>38</v>
       </c>
       <c r="G114" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H114">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I114">
         <v>0</v>
       </c>
       <c r="J114" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K114">
-        <v>1.909</v>
+        <v>2.2</v>
       </c>
       <c r="L114">
         <v>3</v>
       </c>
       <c r="M114">
-        <v>3.9</v>
+        <v>3.1</v>
       </c>
       <c r="N114">
-        <v>2</v>
+        <v>2.375</v>
       </c>
       <c r="O114">
-        <v>2.7</v>
+        <v>2.55</v>
       </c>
       <c r="P114">
-        <v>4.2</v>
+        <v>3.3</v>
       </c>
       <c r="Q114">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R114">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
       <c r="S114">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="T114">
         <v>1.5</v>
       </c>
       <c r="U114">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V114">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W114">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X114">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="Y114">
         <v>-1</v>
       </c>
       <c r="Z114">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA114">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AB114">
         <v>-1</v>
       </c>
       <c r="AC114">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="115" spans="1:29">
@@ -10673,7 +10673,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>6989692</v>
+        <v>6989523</v>
       </c>
       <c r="C115" t="s">
         <v>28</v>
@@ -10685,76 +10685,76 @@
         <v>45241.375</v>
       </c>
       <c r="F115" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G115" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H115">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I115">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J115" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K115">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="L115">
         <v>3</v>
       </c>
       <c r="M115">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="N115">
-        <v>2.375</v>
+        <v>1.95</v>
       </c>
       <c r="O115">
-        <v>2.55</v>
+        <v>2.875</v>
       </c>
       <c r="P115">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="Q115">
         <v>-0.5</v>
       </c>
       <c r="R115">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="S115">
+        <v>1.775</v>
+      </c>
+      <c r="T115">
         <v>1.75</v>
       </c>
-      <c r="T115">
-        <v>1.5</v>
-      </c>
       <c r="U115">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V115">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W115">
         <v>-1</v>
       </c>
       <c r="X115">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="Y115">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z115">
         <v>-1</v>
       </c>
       <c r="AA115">
-        <v>0.75</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB115">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC115">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="116" spans="1:29">
@@ -10762,7 +10762,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>6989523</v>
+        <v>6989693</v>
       </c>
       <c r="C116" t="s">
         <v>28</v>
@@ -10774,76 +10774,76 @@
         <v>45241.375</v>
       </c>
       <c r="F116" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G116" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="H116">
         <v>1</v>
       </c>
       <c r="I116">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J116" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K116">
-        <v>2</v>
+        <v>1.909</v>
       </c>
       <c r="L116">
         <v>3</v>
       </c>
       <c r="M116">
-        <v>3.6</v>
+        <v>3.9</v>
       </c>
       <c r="N116">
+        <v>2</v>
+      </c>
+      <c r="O116">
+        <v>2.7</v>
+      </c>
+      <c r="P116">
+        <v>4.2</v>
+      </c>
+      <c r="Q116">
+        <v>-0.25</v>
+      </c>
+      <c r="R116">
+        <v>1.8</v>
+      </c>
+      <c r="S116">
+        <v>2</v>
+      </c>
+      <c r="T116">
+        <v>1.5</v>
+      </c>
+      <c r="U116">
         <v>1.95</v>
       </c>
-      <c r="O116">
-        <v>2.875</v>
-      </c>
-      <c r="P116">
-        <v>4</v>
-      </c>
-      <c r="Q116">
-        <v>-0.5</v>
-      </c>
-      <c r="R116">
-        <v>2.025</v>
-      </c>
-      <c r="S116">
-        <v>1.775</v>
-      </c>
-      <c r="T116">
-        <v>1.75</v>
-      </c>
-      <c r="U116">
-        <v>1.8</v>
-      </c>
       <c r="V116">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W116">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X116">
         <v>-1</v>
       </c>
       <c r="Y116">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z116">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA116">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB116">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC116">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="117" spans="1:29">
@@ -10955,7 +10955,7 @@
         <v>37</v>
       </c>
       <c r="G118" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H118">
         <v>1</v>
@@ -11044,7 +11044,7 @@
         <v>41</v>
       </c>
       <c r="G119" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H119">
         <v>1</v>
@@ -11133,7 +11133,7 @@
         <v>43</v>
       </c>
       <c r="G120" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H120">
         <v>4</v>
@@ -11219,7 +11219,7 @@
         <v>45247.375</v>
       </c>
       <c r="F121" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G121" t="s">
         <v>42</v>
@@ -11296,7 +11296,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>6989696</v>
+        <v>6989627</v>
       </c>
       <c r="C122" t="s">
         <v>28</v>
@@ -11308,73 +11308,73 @@
         <v>45248.375</v>
       </c>
       <c r="F122" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G122" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H122">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I122">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J122" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K122">
+        <v>1.909</v>
+      </c>
+      <c r="L122">
+        <v>3.2</v>
+      </c>
+      <c r="M122">
+        <v>3.6</v>
+      </c>
+      <c r="N122">
+        <v>2</v>
+      </c>
+      <c r="O122">
+        <v>3.4</v>
+      </c>
+      <c r="P122">
+        <v>3.1</v>
+      </c>
+      <c r="Q122">
+        <v>-0.25</v>
+      </c>
+      <c r="R122">
+        <v>1.75</v>
+      </c>
+      <c r="S122">
+        <v>1.95</v>
+      </c>
+      <c r="T122">
         <v>2.5</v>
       </c>
-      <c r="L122">
-        <v>3</v>
-      </c>
-      <c r="M122">
-        <v>2.625</v>
-      </c>
-      <c r="N122">
-        <v>2.8</v>
-      </c>
-      <c r="O122">
-        <v>2.8</v>
-      </c>
-      <c r="P122">
-        <v>2.6</v>
-      </c>
-      <c r="Q122">
-        <v>0</v>
-      </c>
-      <c r="R122">
+      <c r="U122">
         <v>1.975</v>
       </c>
-      <c r="S122">
+      <c r="V122">
         <v>1.825</v>
       </c>
-      <c r="T122">
-        <v>1.5</v>
-      </c>
-      <c r="U122">
-        <v>1.775</v>
-      </c>
-      <c r="V122">
-        <v>2.025</v>
-      </c>
       <c r="W122">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X122">
         <v>-1</v>
       </c>
       <c r="Y122">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="Z122">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA122">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB122">
-        <v>0.7749999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC122">
         <v>-1</v>
@@ -11397,7 +11397,7 @@
         <v>45248.375</v>
       </c>
       <c r="F123" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G123" t="s">
         <v>41</v>
@@ -11474,7 +11474,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>6989627</v>
+        <v>6989696</v>
       </c>
       <c r="C124" t="s">
         <v>28</v>
@@ -11486,73 +11486,73 @@
         <v>45248.375</v>
       </c>
       <c r="F124" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G124" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H124">
+        <v>0</v>
+      </c>
+      <c r="I124">
+        <v>2</v>
+      </c>
+      <c r="J124" t="s">
+        <v>46</v>
+      </c>
+      <c r="K124">
+        <v>2.5</v>
+      </c>
+      <c r="L124">
         <v>3</v>
       </c>
-      <c r="I124">
-        <v>1</v>
-      </c>
-      <c r="J124" t="s">
-        <v>45</v>
-      </c>
-      <c r="K124">
-        <v>1.909</v>
-      </c>
-      <c r="L124">
-        <v>3.2</v>
-      </c>
       <c r="M124">
-        <v>3.6</v>
+        <v>2.625</v>
       </c>
       <c r="N124">
-        <v>2</v>
+        <v>2.8</v>
       </c>
       <c r="O124">
-        <v>3.4</v>
+        <v>2.8</v>
       </c>
       <c r="P124">
-        <v>3.1</v>
+        <v>2.6</v>
       </c>
       <c r="Q124">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R124">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="S124">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T124">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="U124">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="V124">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="W124">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X124">
         <v>-1</v>
       </c>
       <c r="Y124">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="Z124">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA124">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB124">
-        <v>0.9750000000000001</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC124">
         <v>-1</v>
@@ -11575,10 +11575,10 @@
         <v>45248.375</v>
       </c>
       <c r="F125" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G125" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H125">
         <v>1</v>
@@ -11753,10 +11753,10 @@
         <v>45251.375</v>
       </c>
       <c r="F127" t="s">
+        <v>34</v>
+      </c>
+      <c r="G127" t="s">
         <v>35</v>
-      </c>
-      <c r="G127" t="s">
-        <v>34</v>
       </c>
       <c r="H127">
         <v>2</v>
@@ -11845,7 +11845,7 @@
         <v>44</v>
       </c>
       <c r="G128" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H128">
         <v>2</v>
@@ -11919,7 +11919,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>7497902</v>
+        <v>7497904</v>
       </c>
       <c r="C129" t="s">
         <v>28</v>
@@ -11931,76 +11931,76 @@
         <v>45252.375</v>
       </c>
       <c r="F129" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G129" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="H129">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I129">
         <v>1</v>
       </c>
       <c r="J129" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K129">
-        <v>1.909</v>
+        <v>2.4</v>
       </c>
       <c r="L129">
+        <v>2.875</v>
+      </c>
+      <c r="M129">
+        <v>2.875</v>
+      </c>
+      <c r="N129">
+        <v>2.875</v>
+      </c>
+      <c r="O129">
         <v>3</v>
       </c>
-      <c r="M129">
-        <v>4</v>
-      </c>
-      <c r="N129">
+      <c r="P129">
+        <v>2.3</v>
+      </c>
+      <c r="Q129">
+        <v>0.25</v>
+      </c>
+      <c r="R129">
         <v>1.75</v>
       </c>
-      <c r="O129">
-        <v>3.1</v>
-      </c>
-      <c r="P129">
-        <v>4.75</v>
-      </c>
-      <c r="Q129">
-        <v>-0.5</v>
-      </c>
-      <c r="R129">
-        <v>1.8</v>
-      </c>
       <c r="S129">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="T129">
         <v>2</v>
       </c>
       <c r="U129">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="V129">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W129">
         <v>-1</v>
       </c>
       <c r="X129">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y129">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z129">
         <v>-1</v>
       </c>
       <c r="AA129">
-        <v>1</v>
+        <v>1.05</v>
       </c>
       <c r="AB129">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC129">
-        <v>-0</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="130" spans="1:29">
@@ -12008,7 +12008,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>7497374</v>
+        <v>7497902</v>
       </c>
       <c r="C130" t="s">
         <v>28</v>
@@ -12020,76 +12020,76 @@
         <v>45252.375</v>
       </c>
       <c r="F130" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G130" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="H130">
         <v>1</v>
       </c>
       <c r="I130">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J130" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K130">
-        <v>2.5</v>
+        <v>1.909</v>
       </c>
       <c r="L130">
         <v>3</v>
       </c>
       <c r="M130">
-        <v>2.625</v>
+        <v>4</v>
       </c>
       <c r="N130">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="O130">
         <v>3.1</v>
       </c>
       <c r="P130">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="Q130">
         <v>-0.5</v>
       </c>
       <c r="R130">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="S130">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="T130">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U130">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V130">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W130">
+        <v>-1</v>
+      </c>
+      <c r="X130">
+        <v>2.1</v>
+      </c>
+      <c r="Y130">
+        <v>-1</v>
+      </c>
+      <c r="Z130">
+        <v>-1</v>
+      </c>
+      <c r="AA130">
         <v>1</v>
       </c>
-      <c r="X130">
-        <v>-1</v>
-      </c>
-      <c r="Y130">
-        <v>-1</v>
-      </c>
-      <c r="Z130">
-        <v>1.025</v>
-      </c>
-      <c r="AA130">
-        <v>-1</v>
-      </c>
       <c r="AB130">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC130">
-        <v>0.8500000000000001</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="131" spans="1:29">
@@ -12112,7 +12112,7 @@
         <v>42</v>
       </c>
       <c r="G131" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H131">
         <v>2</v>
@@ -12186,7 +12186,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>7497903</v>
+        <v>7497374</v>
       </c>
       <c r="C132" t="s">
         <v>28</v>
@@ -12198,13 +12198,13 @@
         <v>45252.375</v>
       </c>
       <c r="F132" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G132" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="H132">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I132">
         <v>0</v>
@@ -12213,43 +12213,43 @@
         <v>45</v>
       </c>
       <c r="K132">
-        <v>1.571</v>
+        <v>2.5</v>
       </c>
       <c r="L132">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="M132">
-        <v>4.75</v>
+        <v>2.625</v>
       </c>
       <c r="N132">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="O132">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="P132">
-        <v>5.5</v>
+        <v>3.6</v>
       </c>
       <c r="Q132">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R132">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="S132">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="T132">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U132">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V132">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W132">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="X132">
         <v>-1</v>
@@ -12258,16 +12258,16 @@
         <v>-1</v>
       </c>
       <c r="Z132">
-        <v>0.925</v>
+        <v>1.025</v>
       </c>
       <c r="AA132">
         <v>-1</v>
       </c>
       <c r="AB132">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC132">
-        <v>0.4125</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="133" spans="1:29">
@@ -12275,7 +12275,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>7497904</v>
+        <v>7497903</v>
       </c>
       <c r="C133" t="s">
         <v>28</v>
@@ -12287,76 +12287,76 @@
         <v>45252.375</v>
       </c>
       <c r="F133" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="G133" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H133">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I133">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J133" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K133">
-        <v>2.4</v>
+        <v>1.571</v>
       </c>
       <c r="L133">
-        <v>2.875</v>
+        <v>3.75</v>
       </c>
       <c r="M133">
-        <v>2.875</v>
+        <v>4.75</v>
       </c>
       <c r="N133">
-        <v>2.875</v>
+        <v>1.5</v>
       </c>
       <c r="O133">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="P133">
-        <v>2.3</v>
+        <v>5.5</v>
       </c>
       <c r="Q133">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R133">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="S133">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="T133">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U133">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V133">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W133">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X133">
         <v>-1</v>
       </c>
       <c r="Y133">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z133">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA133">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB133">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC133">
-        <v>0.875</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="134" spans="1:29">
@@ -12376,7 +12376,7 @@
         <v>45253.45833333334</v>
       </c>
       <c r="F134" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G134" t="s">
         <v>36</v>
@@ -12453,7 +12453,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>6989699</v>
+        <v>6989630</v>
       </c>
       <c r="C135" t="s">
         <v>28</v>
@@ -12465,73 +12465,73 @@
         <v>45256.375</v>
       </c>
       <c r="F135" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G135" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H135">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I135">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J135" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K135">
-        <v>1.833</v>
+        <v>1.444</v>
       </c>
       <c r="L135">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="M135">
-        <v>4</v>
+        <v>6.5</v>
       </c>
       <c r="N135">
-        <v>1.666</v>
+        <v>1.533</v>
       </c>
       <c r="O135">
-        <v>3.25</v>
+        <v>3.8</v>
       </c>
       <c r="P135">
-        <v>4.75</v>
+        <v>6</v>
       </c>
       <c r="Q135">
-        <v>-0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R135">
-        <v>1.95</v>
+        <v>2.075</v>
       </c>
       <c r="S135">
-        <v>1.85</v>
+        <v>1.725</v>
       </c>
       <c r="T135">
-        <v>1.75</v>
+        <v>2.5</v>
       </c>
       <c r="U135">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V135">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W135">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X135">
         <v>-1</v>
       </c>
       <c r="Y135">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Z135">
-        <v>-1</v>
+        <v>1.075</v>
       </c>
       <c r="AA135">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB135">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC135">
         <v>-1</v>
@@ -12542,7 +12542,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>6989527</v>
+        <v>6989629</v>
       </c>
       <c r="C136" t="s">
         <v>28</v>
@@ -12554,58 +12554,58 @@
         <v>45256.375</v>
       </c>
       <c r="F136" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G136" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H136">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I136">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J136" t="s">
         <v>45</v>
       </c>
       <c r="K136">
-        <v>1.727</v>
+        <v>2.1</v>
       </c>
       <c r="L136">
-        <v>3.3</v>
+        <v>2.875</v>
       </c>
       <c r="M136">
-        <v>4.333</v>
+        <v>3.5</v>
       </c>
       <c r="N136">
-        <v>1.444</v>
+        <v>1.75</v>
       </c>
       <c r="O136">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="P136">
-        <v>7</v>
+        <v>4.75</v>
       </c>
       <c r="Q136">
-        <v>-1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R136">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S136">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="T136">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="U136">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="V136">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="W136">
-        <v>0.444</v>
+        <v>0.75</v>
       </c>
       <c r="X136">
         <v>-1</v>
@@ -12614,16 +12614,16 @@
         <v>-1</v>
       </c>
       <c r="Z136">
-        <v>0.9750000000000001</v>
+        <v>0.475</v>
       </c>
       <c r="AA136">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB136">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC136">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="137" spans="1:29">
@@ -12631,7 +12631,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>6989629</v>
+        <v>6989527</v>
       </c>
       <c r="C137" t="s">
         <v>28</v>
@@ -12643,58 +12643,58 @@
         <v>45256.375</v>
       </c>
       <c r="F137" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G137" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H137">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I137">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J137" t="s">
         <v>45</v>
       </c>
       <c r="K137">
-        <v>2.1</v>
+        <v>1.727</v>
       </c>
       <c r="L137">
-        <v>2.875</v>
+        <v>3.3</v>
       </c>
       <c r="M137">
-        <v>3.5</v>
+        <v>4.333</v>
       </c>
       <c r="N137">
-        <v>1.75</v>
+        <v>1.444</v>
       </c>
       <c r="O137">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="P137">
-        <v>4.75</v>
+        <v>7</v>
       </c>
       <c r="Q137">
-        <v>-0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R137">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S137">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="T137">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="U137">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="V137">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="W137">
-        <v>0.75</v>
+        <v>0.444</v>
       </c>
       <c r="X137">
         <v>-1</v>
@@ -12703,16 +12703,16 @@
         <v>-1</v>
       </c>
       <c r="Z137">
-        <v>0.475</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA137">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB137">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC137">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="138" spans="1:29">
@@ -12720,7 +12720,7 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>6989630</v>
+        <v>6989526</v>
       </c>
       <c r="C138" t="s">
         <v>28</v>
@@ -12732,13 +12732,13 @@
         <v>45256.375</v>
       </c>
       <c r="F138" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G138" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H138">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I138">
         <v>0</v>
@@ -12747,43 +12747,43 @@
         <v>45</v>
       </c>
       <c r="K138">
-        <v>1.444</v>
+        <v>1.909</v>
       </c>
       <c r="L138">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="M138">
-        <v>6.5</v>
+        <v>4</v>
       </c>
       <c r="N138">
-        <v>1.533</v>
+        <v>2.1</v>
       </c>
       <c r="O138">
-        <v>3.8</v>
+        <v>2.9</v>
       </c>
       <c r="P138">
-        <v>6</v>
+        <v>3.5</v>
       </c>
       <c r="Q138">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R138">
-        <v>2.075</v>
+        <v>1.825</v>
       </c>
       <c r="S138">
-        <v>1.725</v>
+        <v>1.975</v>
       </c>
       <c r="T138">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U138">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V138">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W138">
-        <v>0.5329999999999999</v>
+        <v>1.1</v>
       </c>
       <c r="X138">
         <v>-1</v>
@@ -12792,16 +12792,16 @@
         <v>-1</v>
       </c>
       <c r="Z138">
-        <v>1.075</v>
+        <v>0.825</v>
       </c>
       <c r="AA138">
         <v>-1</v>
       </c>
       <c r="AB138">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AC138">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="139" spans="1:29">
@@ -12809,7 +12809,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>6989526</v>
+        <v>6989699</v>
       </c>
       <c r="C139" t="s">
         <v>28</v>
@@ -12821,76 +12821,76 @@
         <v>45256.375</v>
       </c>
       <c r="F139" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G139" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H139">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I139">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J139" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K139">
-        <v>1.909</v>
+        <v>1.833</v>
       </c>
       <c r="L139">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M139">
         <v>4</v>
       </c>
       <c r="N139">
-        <v>2.1</v>
+        <v>1.666</v>
       </c>
       <c r="O139">
-        <v>2.9</v>
+        <v>3.25</v>
       </c>
       <c r="P139">
-        <v>3.5</v>
+        <v>4.75</v>
       </c>
       <c r="Q139">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R139">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S139">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T139">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U139">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V139">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W139">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X139">
         <v>-1</v>
       </c>
       <c r="Y139">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Z139">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA139">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB139">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC139">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="140" spans="1:29">
@@ -12898,7 +12898,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>7523282</v>
+        <v>6989698</v>
       </c>
       <c r="C140" t="s">
         <v>28</v>
@@ -12910,76 +12910,76 @@
         <v>45257.375</v>
       </c>
       <c r="F140" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G140" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="H140">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I140">
         <v>0</v>
       </c>
       <c r="J140" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K140">
-        <v>3</v>
+        <v>2.1</v>
       </c>
       <c r="L140">
-        <v>2.9</v>
+        <v>2.75</v>
       </c>
       <c r="M140">
-        <v>2.3</v>
+        <v>3.6</v>
       </c>
       <c r="N140">
-        <v>2.8</v>
+        <v>2.15</v>
       </c>
       <c r="O140">
-        <v>3.1</v>
+        <v>2.625</v>
       </c>
       <c r="P140">
-        <v>2.4</v>
+        <v>3.75</v>
       </c>
       <c r="Q140">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R140">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S140">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T140">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U140">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V140">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W140">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X140">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y140">
         <v>-1</v>
       </c>
       <c r="Z140">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AA140">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB140">
         <v>-1</v>
       </c>
       <c r="AC140">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="141" spans="1:29">
@@ -12987,7 +12987,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>6989698</v>
+        <v>7523282</v>
       </c>
       <c r="C141" t="s">
         <v>28</v>
@@ -12999,76 +12999,76 @@
         <v>45257.375</v>
       </c>
       <c r="F141" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G141" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="H141">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I141">
         <v>0</v>
       </c>
       <c r="J141" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K141">
+        <v>3</v>
+      </c>
+      <c r="L141">
+        <v>2.9</v>
+      </c>
+      <c r="M141">
+        <v>2.3</v>
+      </c>
+      <c r="N141">
+        <v>2.8</v>
+      </c>
+      <c r="O141">
+        <v>3.1</v>
+      </c>
+      <c r="P141">
+        <v>2.4</v>
+      </c>
+      <c r="Q141">
+        <v>0</v>
+      </c>
+      <c r="R141">
+        <v>2</v>
+      </c>
+      <c r="S141">
+        <v>1.8</v>
+      </c>
+      <c r="T141">
+        <v>2</v>
+      </c>
+      <c r="U141">
+        <v>1.875</v>
+      </c>
+      <c r="V141">
+        <v>1.925</v>
+      </c>
+      <c r="W141">
+        <v>-1</v>
+      </c>
+      <c r="X141">
         <v>2.1</v>
       </c>
-      <c r="L141">
-        <v>2.75</v>
-      </c>
-      <c r="M141">
-        <v>3.6</v>
-      </c>
-      <c r="N141">
-        <v>2.15</v>
-      </c>
-      <c r="O141">
-        <v>2.625</v>
-      </c>
-      <c r="P141">
-        <v>3.75</v>
-      </c>
-      <c r="Q141">
-        <v>-0.25</v>
-      </c>
-      <c r="R141">
-        <v>1.875</v>
-      </c>
-      <c r="S141">
-        <v>1.925</v>
-      </c>
-      <c r="T141">
-        <v>1.75</v>
-      </c>
-      <c r="U141">
-        <v>1.95</v>
-      </c>
-      <c r="V141">
-        <v>1.85</v>
-      </c>
-      <c r="W141">
-        <v>1.15</v>
-      </c>
-      <c r="X141">
-        <v>-1</v>
-      </c>
       <c r="Y141">
         <v>-1</v>
       </c>
       <c r="Z141">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="AA141">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB141">
         <v>-1</v>
       </c>
       <c r="AC141">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="142" spans="1:29">
@@ -13091,7 +13091,7 @@
         <v>43</v>
       </c>
       <c r="G142" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H142">
         <v>0</v>
@@ -13254,7 +13254,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>6989631</v>
+        <v>6989700</v>
       </c>
       <c r="C144" t="s">
         <v>28</v>
@@ -13266,76 +13266,76 @@
         <v>45262.375</v>
       </c>
       <c r="F144" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G144" t="s">
         <v>38</v>
       </c>
       <c r="H144">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I144">
         <v>1</v>
       </c>
       <c r="J144" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K144">
-        <v>2.25</v>
+        <v>2.625</v>
       </c>
       <c r="L144">
         <v>3</v>
       </c>
       <c r="M144">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="N144">
-        <v>2.25</v>
+        <v>2.375</v>
       </c>
       <c r="O144">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="P144">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Q144">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R144">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="S144">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
       <c r="T144">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U144">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="V144">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="W144">
         <v>-1</v>
       </c>
       <c r="X144">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y144">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="Z144">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA144">
-        <v>0.4</v>
+        <v>1.05</v>
       </c>
       <c r="AB144">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC144">
-        <v>0.4</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="145" spans="1:29">
@@ -13355,7 +13355,7 @@
         <v>45262.375</v>
       </c>
       <c r="F145" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G145" t="s">
         <v>41</v>
@@ -13432,7 +13432,7 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>7019002</v>
+        <v>6989631</v>
       </c>
       <c r="C146" t="s">
         <v>28</v>
@@ -13444,76 +13444,76 @@
         <v>45262.375</v>
       </c>
       <c r="F146" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G146" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H146">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I146">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J146" t="s">
         <v>47</v>
       </c>
       <c r="K146">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="L146">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="M146">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="N146">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="O146">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="P146">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="Q146">
+        <v>-0.25</v>
+      </c>
+      <c r="R146">
+        <v>2</v>
+      </c>
+      <c r="S146">
+        <v>1.8</v>
+      </c>
+      <c r="T146">
+        <v>2.25</v>
+      </c>
+      <c r="U146">
+        <v>2</v>
+      </c>
+      <c r="V146">
+        <v>1.8</v>
+      </c>
+      <c r="W146">
+        <v>-1</v>
+      </c>
+      <c r="X146">
+        <v>2</v>
+      </c>
+      <c r="Y146">
+        <v>-1</v>
+      </c>
+      <c r="Z146">
         <v>-0.5</v>
       </c>
-      <c r="R146">
-        <v>1.8</v>
-      </c>
-      <c r="S146">
-        <v>2</v>
-      </c>
-      <c r="T146">
-        <v>2</v>
-      </c>
-      <c r="U146">
-        <v>1.9</v>
-      </c>
-      <c r="V146">
-        <v>1.9</v>
-      </c>
-      <c r="W146">
-        <v>-1</v>
-      </c>
-      <c r="X146">
-        <v>2.1</v>
-      </c>
-      <c r="Y146">
-        <v>-1</v>
-      </c>
-      <c r="Z146">
-        <v>-1</v>
-      </c>
       <c r="AA146">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="AB146">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AC146">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="147" spans="1:29">
@@ -13521,7 +13521,7 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>6989700</v>
+        <v>7019002</v>
       </c>
       <c r="C147" t="s">
         <v>28</v>
@@ -13536,73 +13536,73 @@
         <v>32</v>
       </c>
       <c r="G147" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H147">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I147">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J147" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K147">
-        <v>2.625</v>
+        <v>2.5</v>
       </c>
       <c r="L147">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="M147">
         <v>2.5</v>
       </c>
       <c r="N147">
-        <v>2.375</v>
+        <v>1.75</v>
       </c>
       <c r="O147">
         <v>3.1</v>
       </c>
       <c r="P147">
-        <v>2.75</v>
+        <v>4.5</v>
       </c>
       <c r="Q147">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R147">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="S147">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="T147">
         <v>2</v>
       </c>
       <c r="U147">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="V147">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="W147">
         <v>-1</v>
       </c>
       <c r="X147">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y147">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Z147">
         <v>-1</v>
       </c>
       <c r="AA147">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="AB147">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC147">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="148" spans="1:29">
@@ -13714,7 +13714,7 @@
         <v>36</v>
       </c>
       <c r="G149" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H149">
         <v>2</v>
@@ -13800,10 +13800,10 @@
         <v>45263.375</v>
       </c>
       <c r="F150" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G150" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H150">
         <v>2</v>
@@ -13892,7 +13892,7 @@
         <v>44</v>
       </c>
       <c r="G151" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H151">
         <v>1</v>
@@ -14055,7 +14055,7 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>6989704</v>
+        <v>6989702</v>
       </c>
       <c r="C153" t="s">
         <v>28</v>
@@ -14067,76 +14067,76 @@
         <v>45270.375</v>
       </c>
       <c r="F153" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G153" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H153">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I153">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J153" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K153">
-        <v>1.666</v>
+        <v>2.875</v>
       </c>
       <c r="L153">
+        <v>2.875</v>
+      </c>
+      <c r="M153">
+        <v>2.4</v>
+      </c>
+      <c r="N153">
+        <v>2.2</v>
+      </c>
+      <c r="O153">
+        <v>2.8</v>
+      </c>
+      <c r="P153">
         <v>3.4</v>
-      </c>
-      <c r="M153">
-        <v>4.5</v>
-      </c>
-      <c r="N153">
-        <v>2.05</v>
-      </c>
-      <c r="O153">
-        <v>3.2</v>
-      </c>
-      <c r="P153">
-        <v>3.3</v>
       </c>
       <c r="Q153">
         <v>-0.25</v>
       </c>
       <c r="R153">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S153">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T153">
-        <v>1.75</v>
+        <v>1.5</v>
       </c>
       <c r="U153">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V153">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W153">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X153">
         <v>-1</v>
       </c>
       <c r="Y153">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Z153">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA153">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB153">
         <v>-1</v>
       </c>
       <c r="AC153">
-        <v>1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="154" spans="1:29">
@@ -14144,7 +14144,7 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>6989332</v>
+        <v>6989703</v>
       </c>
       <c r="C154" t="s">
         <v>28</v>
@@ -14156,61 +14156,61 @@
         <v>45270.375</v>
       </c>
       <c r="F154" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="G154" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="H154">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I154">
         <v>0</v>
       </c>
       <c r="J154" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K154">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="L154">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M154">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="N154">
-        <v>1.285</v>
+        <v>1.533</v>
       </c>
       <c r="O154">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="P154">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="Q154">
-        <v>-1.5</v>
+        <v>-1</v>
       </c>
       <c r="R154">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S154">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T154">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U154">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="V154">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="W154">
-        <v>0.2849999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X154">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y154">
         <v>-1</v>
@@ -14219,13 +14219,13 @@
         <v>-1</v>
       </c>
       <c r="AA154">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="AB154">
         <v>-1</v>
       </c>
       <c r="AC154">
-        <v>0.8500000000000001</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="155" spans="1:29">
@@ -14248,7 +14248,7 @@
         <v>39</v>
       </c>
       <c r="G155" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H155">
         <v>2</v>
@@ -14322,7 +14322,7 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>6989703</v>
+        <v>6989332</v>
       </c>
       <c r="C156" t="s">
         <v>28</v>
@@ -14334,61 +14334,61 @@
         <v>45270.375</v>
       </c>
       <c r="F156" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="G156" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="H156">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I156">
         <v>0</v>
       </c>
       <c r="J156" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K156">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="L156">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M156">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="N156">
-        <v>1.533</v>
+        <v>1.285</v>
       </c>
       <c r="O156">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="P156">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="Q156">
-        <v>-1</v>
+        <v>-1.5</v>
       </c>
       <c r="R156">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S156">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T156">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U156">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="V156">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="W156">
-        <v>-1</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="X156">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y156">
         <v>-1</v>
@@ -14397,13 +14397,13 @@
         <v>-1</v>
       </c>
       <c r="AA156">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
       <c r="AB156">
         <v>-1</v>
       </c>
       <c r="AC156">
-        <v>0.7749999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="157" spans="1:29">
@@ -14411,7 +14411,7 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>6989702</v>
+        <v>6989704</v>
       </c>
       <c r="C157" t="s">
         <v>28</v>
@@ -14423,76 +14423,76 @@
         <v>45270.375</v>
       </c>
       <c r="F157" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G157" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H157">
+        <v>0</v>
+      </c>
+      <c r="I157">
         <v>1</v>
       </c>
-      <c r="I157">
-        <v>0</v>
-      </c>
       <c r="J157" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K157">
-        <v>2.875</v>
+        <v>1.666</v>
       </c>
       <c r="L157">
-        <v>2.875</v>
+        <v>3.4</v>
       </c>
       <c r="M157">
-        <v>2.4</v>
+        <v>4.5</v>
       </c>
       <c r="N157">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="O157">
-        <v>2.8</v>
+        <v>3.2</v>
       </c>
       <c r="P157">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="Q157">
         <v>-0.25</v>
       </c>
       <c r="R157">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S157">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T157">
-        <v>1.5</v>
+        <v>1.75</v>
       </c>
       <c r="U157">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="V157">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W157">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X157">
         <v>-1</v>
       </c>
       <c r="Y157">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Z157">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA157">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB157">
         <v>-1</v>
       </c>
       <c r="AC157">
-        <v>0.925</v>
+        <v>1</v>
       </c>
     </row>
     <row r="158" spans="1:29">
@@ -14512,10 +14512,10 @@
         <v>45271.375</v>
       </c>
       <c r="F158" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G158" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H158">
         <v>5</v>
@@ -14690,10 +14690,10 @@
         <v>45274.375</v>
       </c>
       <c r="F160" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G160" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H160">
         <v>1</v>
@@ -14868,7 +14868,7 @@
         <v>45346.375</v>
       </c>
       <c r="F162" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G162" t="s">
         <v>43</v>
@@ -14960,7 +14960,7 @@
         <v>29</v>
       </c>
       <c r="G163" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H163">
         <v>1</v>
@@ -15046,10 +15046,10 @@
         <v>45346.375</v>
       </c>
       <c r="F164" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G164" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H164">
         <v>0</v>
@@ -15138,7 +15138,7 @@
         <v>36</v>
       </c>
       <c r="G165" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H165">
         <v>0</v>
@@ -15227,7 +15227,7 @@
         <v>44</v>
       </c>
       <c r="G166" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H166">
         <v>0</v>
@@ -15491,10 +15491,10 @@
         <v>45347.54166666666</v>
       </c>
       <c r="F169" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G169" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H169">
         <v>0</v>

--- a/Serbia Prva Liga/Serbia Prva Liga.xlsx
+++ b/Serbia Prva Liga/Serbia Prva Liga.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="868" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="901" uniqueCount="48">
   <si>
     <t>id</t>
   </si>
@@ -112,10 +112,10 @@
     <t>Smederevo</t>
   </si>
   <si>
-    <t>Metalac Gornji</t>
+    <t>Sloboda Uzice</t>
   </si>
   <si>
-    <t>Sloboda Uzice</t>
+    <t>Metalac Gornji</t>
   </si>
   <si>
     <t>FK Mladost Gat Novi Sad</t>
@@ -139,10 +139,10 @@
     <t>FK Indija</t>
   </si>
   <si>
-    <t>OFK Belgrade</t>
+    <t>RFK Novi Sad 1921</t>
   </si>
   <si>
-    <t>RFK Novi Sad 1921</t>
+    <t>OFK Belgrade</t>
   </si>
   <si>
     <t>FK Kolubara</t>
@@ -519,7 +519,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC169"/>
+  <dimension ref="A1:AC177"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -720,7 +720,7 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H3">
         <v>4</v>
@@ -883,7 +883,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6989595</v>
+        <v>6989660</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -898,52 +898,52 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J5" t="s">
         <v>46</v>
       </c>
       <c r="K5">
-        <v>2.45</v>
+        <v>1.8</v>
       </c>
       <c r="L5">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M5">
-        <v>2.55</v>
+        <v>4</v>
       </c>
       <c r="N5">
-        <v>2.15</v>
+        <v>1.8</v>
       </c>
       <c r="O5">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="P5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q5">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R5">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="S5">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T5">
         <v>2.25</v>
       </c>
       <c r="U5">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="V5">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="W5">
         <v>-1</v>
@@ -952,19 +952,19 @@
         <v>-1</v>
       </c>
       <c r="Y5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Z5">
         <v>-1</v>
       </c>
       <c r="AA5">
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
       <c r="AB5">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AC5">
-        <v>-1</v>
+        <v>0.3875</v>
       </c>
     </row>
     <row r="6" spans="1:29">
@@ -972,7 +972,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6989660</v>
+        <v>6989595</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
@@ -987,52 +987,52 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J6" t="s">
         <v>46</v>
       </c>
       <c r="K6">
-        <v>1.8</v>
+        <v>2.45</v>
       </c>
       <c r="L6">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M6">
-        <v>4</v>
+        <v>2.55</v>
       </c>
       <c r="N6">
-        <v>1.8</v>
+        <v>2.15</v>
       </c>
       <c r="O6">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="P6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q6">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R6">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S6">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="T6">
         <v>2.25</v>
       </c>
       <c r="U6">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="V6">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="W6">
         <v>-1</v>
@@ -1041,19 +1041,19 @@
         <v>-1</v>
       </c>
       <c r="Y6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Z6">
         <v>-1</v>
       </c>
       <c r="AA6">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
       <c r="AB6">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AC6">
-        <v>0.3875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="7" spans="1:29">
@@ -1506,7 +1506,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6989663</v>
+        <v>6989662</v>
       </c>
       <c r="C12" t="s">
         <v>28</v>
@@ -1518,76 +1518,76 @@
         <v>45150.52083333334</v>
       </c>
       <c r="F12" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="G12" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I12">
         <v>1</v>
       </c>
       <c r="J12" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K12">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="L12">
         <v>3</v>
       </c>
       <c r="M12">
+        <v>2.625</v>
+      </c>
+      <c r="N12">
+        <v>2</v>
+      </c>
+      <c r="O12">
         <v>3</v>
       </c>
-      <c r="N12">
-        <v>2.4</v>
-      </c>
-      <c r="O12">
-        <v>2.875</v>
-      </c>
       <c r="P12">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="Q12">
         <v>-0.25</v>
       </c>
       <c r="R12">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S12">
-        <v>1.7</v>
+        <v>2</v>
       </c>
       <c r="T12">
         <v>2</v>
       </c>
       <c r="U12">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V12">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W12">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X12">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Y12">
         <v>-1</v>
       </c>
       <c r="Z12">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AA12">
-        <v>0.35</v>
+        <v>-1</v>
       </c>
       <c r="AB12">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AC12">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="13" spans="1:29">
@@ -1595,7 +1595,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6989662</v>
+        <v>6989663</v>
       </c>
       <c r="C13" t="s">
         <v>28</v>
@@ -1607,76 +1607,76 @@
         <v>45150.52083333334</v>
       </c>
       <c r="F13" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="G13" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I13">
         <v>1</v>
       </c>
       <c r="J13" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K13">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="L13">
         <v>3</v>
       </c>
       <c r="M13">
-        <v>2.625</v>
+        <v>3</v>
       </c>
       <c r="N13">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="O13">
-        <v>3</v>
+        <v>2.875</v>
       </c>
       <c r="P13">
-        <v>3.4</v>
+        <v>2.9</v>
       </c>
       <c r="Q13">
         <v>-0.25</v>
       </c>
       <c r="R13">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="S13">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="T13">
         <v>2</v>
       </c>
       <c r="U13">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V13">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W13">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X13">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Y13">
         <v>-1</v>
       </c>
       <c r="Z13">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AA13">
-        <v>-1</v>
+        <v>0.35</v>
       </c>
       <c r="AB13">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AC13">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="14" spans="1:29">
@@ -1773,7 +1773,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6989661</v>
+        <v>6989498</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
@@ -1788,73 +1788,73 @@
         <v>41</v>
       </c>
       <c r="G15" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H15">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I15">
         <v>1</v>
       </c>
       <c r="J15" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K15">
-        <v>1.833</v>
+        <v>1.909</v>
       </c>
       <c r="L15">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="M15">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="N15">
-        <v>1.75</v>
+        <v>2.75</v>
       </c>
       <c r="O15">
-        <v>3.4</v>
+        <v>2.9</v>
       </c>
       <c r="P15">
-        <v>4</v>
+        <v>2.45</v>
       </c>
       <c r="Q15">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R15">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="S15">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="T15">
         <v>2.25</v>
       </c>
       <c r="U15">
+        <v>1.875</v>
+      </c>
+      <c r="V15">
+        <v>1.925</v>
+      </c>
+      <c r="W15">
+        <v>-1</v>
+      </c>
+      <c r="X15">
         <v>1.9</v>
       </c>
-      <c r="V15">
-        <v>1.9</v>
-      </c>
-      <c r="W15">
-        <v>0.75</v>
-      </c>
-      <c r="X15">
-        <v>-1</v>
-      </c>
       <c r="Y15">
         <v>-1</v>
       </c>
       <c r="Z15">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AA15">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB15">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AC15">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="16" spans="1:29">
@@ -1862,7 +1862,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6989498</v>
+        <v>6989661</v>
       </c>
       <c r="C16" t="s">
         <v>28</v>
@@ -1877,73 +1877,73 @@
         <v>42</v>
       </c>
       <c r="G16" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H16">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I16">
         <v>1</v>
       </c>
       <c r="J16" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K16">
-        <v>1.909</v>
+        <v>1.833</v>
       </c>
       <c r="L16">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="M16">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="N16">
-        <v>2.75</v>
+        <v>1.75</v>
       </c>
       <c r="O16">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="P16">
-        <v>2.45</v>
+        <v>4</v>
       </c>
       <c r="Q16">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R16">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="S16">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="T16">
         <v>2.25</v>
       </c>
       <c r="U16">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V16">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W16">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="X16">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Y16">
         <v>-1</v>
       </c>
       <c r="Z16">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AA16">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB16">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC16">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="17" spans="1:29">
@@ -2141,7 +2141,7 @@
         <v>45157.58333333334</v>
       </c>
       <c r="F19" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G19" t="s">
         <v>39</v>
@@ -2218,7 +2218,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6989664</v>
+        <v>7019003</v>
       </c>
       <c r="C20" t="s">
         <v>28</v>
@@ -2230,76 +2230,76 @@
         <v>45157.58333333334</v>
       </c>
       <c r="F20" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G20" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20" t="s">
+        <v>47</v>
+      </c>
+      <c r="K20">
+        <v>2.5</v>
+      </c>
+      <c r="L20">
         <v>3</v>
       </c>
-      <c r="I20">
-        <v>0</v>
-      </c>
-      <c r="J20" t="s">
-        <v>45</v>
-      </c>
-      <c r="K20">
-        <v>2.3</v>
-      </c>
-      <c r="L20">
+      <c r="M20">
+        <v>2.625</v>
+      </c>
+      <c r="N20">
+        <v>3</v>
+      </c>
+      <c r="O20">
         <v>2.875</v>
       </c>
-      <c r="M20">
-        <v>3</v>
-      </c>
-      <c r="N20">
-        <v>2.15</v>
-      </c>
-      <c r="O20">
-        <v>2.9</v>
-      </c>
       <c r="P20">
-        <v>3.25</v>
+        <v>2.375</v>
       </c>
       <c r="Q20">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R20">
-        <v>1.925</v>
+        <v>1.75</v>
       </c>
       <c r="S20">
+        <v>2.05</v>
+      </c>
+      <c r="T20">
+        <v>2</v>
+      </c>
+      <c r="U20">
+        <v>1.975</v>
+      </c>
+      <c r="V20">
+        <v>1.825</v>
+      </c>
+      <c r="W20">
+        <v>-1</v>
+      </c>
+      <c r="X20">
         <v>1.875</v>
       </c>
-      <c r="T20">
-        <v>2</v>
-      </c>
-      <c r="U20">
-        <v>1.925</v>
-      </c>
-      <c r="V20">
-        <v>1.875</v>
-      </c>
-      <c r="W20">
-        <v>1.15</v>
-      </c>
-      <c r="X20">
-        <v>-1</v>
-      </c>
       <c r="Y20">
         <v>-1</v>
       </c>
       <c r="Z20">
-        <v>0.925</v>
+        <v>0.375</v>
       </c>
       <c r="AA20">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB20">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC20">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="21" spans="1:29">
@@ -2307,7 +2307,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>7019003</v>
+        <v>6989664</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -2319,76 +2319,76 @@
         <v>45157.58333333334</v>
       </c>
       <c r="F21" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G21" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K21">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="L21">
+        <v>2.875</v>
+      </c>
+      <c r="M21">
         <v>3</v>
       </c>
-      <c r="M21">
-        <v>2.625</v>
-      </c>
       <c r="N21">
-        <v>3</v>
+        <v>2.15</v>
       </c>
       <c r="O21">
-        <v>2.875</v>
+        <v>2.9</v>
       </c>
       <c r="P21">
-        <v>2.375</v>
+        <v>3.25</v>
       </c>
       <c r="Q21">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R21">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="S21">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="T21">
         <v>2</v>
       </c>
       <c r="U21">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V21">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W21">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X21">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Y21">
         <v>-1</v>
       </c>
       <c r="Z21">
-        <v>0.375</v>
+        <v>0.925</v>
       </c>
       <c r="AA21">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB21">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC21">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="22" spans="1:29">
@@ -2396,7 +2396,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6989500</v>
+        <v>6989499</v>
       </c>
       <c r="C22" t="s">
         <v>28</v>
@@ -2408,76 +2408,76 @@
         <v>45158.5</v>
       </c>
       <c r="F22" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G22" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I22">
         <v>1</v>
       </c>
       <c r="J22" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K22">
-        <v>3.5</v>
+        <v>1.727</v>
       </c>
       <c r="L22">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="M22">
-        <v>1.95</v>
+        <v>4.2</v>
       </c>
       <c r="N22">
-        <v>3.5</v>
+        <v>1.85</v>
       </c>
       <c r="O22">
         <v>3.1</v>
       </c>
       <c r="P22">
-        <v>1.95</v>
+        <v>4</v>
       </c>
       <c r="Q22">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R22">
+        <v>1.925</v>
+      </c>
+      <c r="S22">
+        <v>1.875</v>
+      </c>
+      <c r="T22">
+        <v>2</v>
+      </c>
+      <c r="U22">
+        <v>2</v>
+      </c>
+      <c r="V22">
         <v>1.8</v>
       </c>
-      <c r="S22">
-        <v>2</v>
-      </c>
-      <c r="T22">
-        <v>2.25</v>
-      </c>
-      <c r="U22">
-        <v>1.75</v>
-      </c>
-      <c r="V22">
-        <v>1.95</v>
-      </c>
       <c r="W22">
         <v>-1</v>
       </c>
       <c r="X22">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y22">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z22">
+        <v>-1</v>
+      </c>
+      <c r="AA22">
+        <v>0.875</v>
+      </c>
+      <c r="AB22">
+        <v>-1</v>
+      </c>
+      <c r="AC22">
         <v>0.8</v>
-      </c>
-      <c r="AA22">
-        <v>-1</v>
-      </c>
-      <c r="AB22">
-        <v>-0.5</v>
-      </c>
-      <c r="AC22">
-        <v>0.475</v>
       </c>
     </row>
     <row r="23" spans="1:29">
@@ -2485,7 +2485,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6989499</v>
+        <v>6989500</v>
       </c>
       <c r="C23" t="s">
         <v>28</v>
@@ -2497,76 +2497,76 @@
         <v>45158.5</v>
       </c>
       <c r="F23" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G23" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I23">
         <v>1</v>
       </c>
       <c r="J23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K23">
-        <v>1.727</v>
+        <v>3.5</v>
       </c>
       <c r="L23">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="M23">
-        <v>4.2</v>
+        <v>1.95</v>
       </c>
       <c r="N23">
-        <v>1.85</v>
+        <v>3.5</v>
       </c>
       <c r="O23">
         <v>3.1</v>
       </c>
       <c r="P23">
-        <v>4</v>
+        <v>1.95</v>
       </c>
       <c r="Q23">
+        <v>0.5</v>
+      </c>
+      <c r="R23">
+        <v>1.8</v>
+      </c>
+      <c r="S23">
+        <v>2</v>
+      </c>
+      <c r="T23">
+        <v>2.25</v>
+      </c>
+      <c r="U23">
+        <v>1.75</v>
+      </c>
+      <c r="V23">
+        <v>1.95</v>
+      </c>
+      <c r="W23">
+        <v>-1</v>
+      </c>
+      <c r="X23">
+        <v>2.1</v>
+      </c>
+      <c r="Y23">
+        <v>-1</v>
+      </c>
+      <c r="Z23">
+        <v>0.8</v>
+      </c>
+      <c r="AA23">
+        <v>-1</v>
+      </c>
+      <c r="AB23">
         <v>-0.5</v>
       </c>
-      <c r="R23">
-        <v>1.925</v>
-      </c>
-      <c r="S23">
-        <v>1.875</v>
-      </c>
-      <c r="T23">
-        <v>2</v>
-      </c>
-      <c r="U23">
-        <v>2</v>
-      </c>
-      <c r="V23">
-        <v>1.8</v>
-      </c>
-      <c r="W23">
-        <v>-1</v>
-      </c>
-      <c r="X23">
-        <v>-1</v>
-      </c>
-      <c r="Y23">
-        <v>3</v>
-      </c>
-      <c r="Z23">
-        <v>-1</v>
-      </c>
-      <c r="AA23">
-        <v>0.875</v>
-      </c>
-      <c r="AB23">
-        <v>-1</v>
-      </c>
       <c r="AC23">
-        <v>0.8</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="24" spans="1:29">
@@ -2589,7 +2589,7 @@
         <v>30</v>
       </c>
       <c r="G24" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -2678,7 +2678,7 @@
         <v>44</v>
       </c>
       <c r="G25" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H25">
         <v>2</v>
@@ -2767,7 +2767,7 @@
         <v>38</v>
       </c>
       <c r="G26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H26">
         <v>1</v>
@@ -2945,7 +2945,7 @@
         <v>40</v>
       </c>
       <c r="G28" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H28">
         <v>2</v>
@@ -3019,7 +3019,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>6989601</v>
+        <v>6989317</v>
       </c>
       <c r="C29" t="s">
         <v>28</v>
@@ -3031,76 +3031,76 @@
         <v>45165.5</v>
       </c>
       <c r="F29" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G29" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I29">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K29">
-        <v>2.3</v>
+        <v>1.727</v>
       </c>
       <c r="L29">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="M29">
-        <v>2.8</v>
+        <v>4.333</v>
       </c>
       <c r="N29">
-        <v>2.3</v>
+        <v>1.727</v>
       </c>
       <c r="O29">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="P29">
-        <v>2.8</v>
+        <v>4.333</v>
       </c>
       <c r="Q29">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R29">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S29">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T29">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U29">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V29">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W29">
         <v>-1</v>
       </c>
       <c r="X29">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y29">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Z29">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA29">
-        <v>0.4</v>
+        <v>0.825</v>
       </c>
       <c r="AB29">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC29">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="30" spans="1:29">
@@ -3108,7 +3108,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>6989602</v>
+        <v>6989502</v>
       </c>
       <c r="C30" t="s">
         <v>28</v>
@@ -3120,73 +3120,73 @@
         <v>45165.5</v>
       </c>
       <c r="F30" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="G30" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I30">
         <v>2</v>
       </c>
       <c r="J30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K30">
-        <v>1.666</v>
+        <v>1.7</v>
       </c>
       <c r="L30">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M30">
         <v>4.5</v>
       </c>
       <c r="N30">
-        <v>1.666</v>
+        <v>1.4</v>
       </c>
       <c r="O30">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="P30">
-        <v>4.5</v>
+        <v>6.5</v>
       </c>
       <c r="Q30">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R30">
-        <v>1.95</v>
+        <v>1.725</v>
       </c>
       <c r="S30">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T30">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U30">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="V30">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="W30">
         <v>-1</v>
       </c>
       <c r="X30">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y30">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Z30">
         <v>-1</v>
       </c>
       <c r="AA30">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB30">
-        <v>0.75</v>
+        <v>0.825</v>
       </c>
       <c r="AC30">
         <v>-1</v>
@@ -3197,7 +3197,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>6989317</v>
+        <v>6989601</v>
       </c>
       <c r="C31" t="s">
         <v>28</v>
@@ -3209,76 +3209,76 @@
         <v>45165.5</v>
       </c>
       <c r="F31" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G31" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31" t="s">
+        <v>47</v>
+      </c>
+      <c r="K31">
+        <v>2.3</v>
+      </c>
+      <c r="L31">
+        <v>3.1</v>
+      </c>
+      <c r="M31">
+        <v>2.8</v>
+      </c>
+      <c r="N31">
+        <v>2.3</v>
+      </c>
+      <c r="O31">
+        <v>3.1</v>
+      </c>
+      <c r="P31">
+        <v>2.8</v>
+      </c>
+      <c r="Q31">
+        <v>-0.25</v>
+      </c>
+      <c r="R31">
+        <v>2</v>
+      </c>
+      <c r="S31">
+        <v>1.8</v>
+      </c>
+      <c r="T31">
+        <v>2</v>
+      </c>
+      <c r="U31">
+        <v>1.8</v>
+      </c>
+      <c r="V31">
+        <v>2</v>
+      </c>
+      <c r="W31">
+        <v>-1</v>
+      </c>
+      <c r="X31">
+        <v>2.1</v>
+      </c>
+      <c r="Y31">
+        <v>-1</v>
+      </c>
+      <c r="Z31">
+        <v>-0.5</v>
+      </c>
+      <c r="AA31">
+        <v>0.4</v>
+      </c>
+      <c r="AB31">
+        <v>-1</v>
+      </c>
+      <c r="AC31">
         <v>1</v>
-      </c>
-      <c r="I31">
-        <v>2</v>
-      </c>
-      <c r="J31" t="s">
-        <v>46</v>
-      </c>
-      <c r="K31">
-        <v>1.727</v>
-      </c>
-      <c r="L31">
-        <v>3.3</v>
-      </c>
-      <c r="M31">
-        <v>4.333</v>
-      </c>
-      <c r="N31">
-        <v>1.727</v>
-      </c>
-      <c r="O31">
-        <v>3.3</v>
-      </c>
-      <c r="P31">
-        <v>4.333</v>
-      </c>
-      <c r="Q31">
-        <v>-0.75</v>
-      </c>
-      <c r="R31">
-        <v>1.975</v>
-      </c>
-      <c r="S31">
-        <v>1.825</v>
-      </c>
-      <c r="T31">
-        <v>2.25</v>
-      </c>
-      <c r="U31">
-        <v>1.9</v>
-      </c>
-      <c r="V31">
-        <v>1.9</v>
-      </c>
-      <c r="W31">
-        <v>-1</v>
-      </c>
-      <c r="X31">
-        <v>-1</v>
-      </c>
-      <c r="Y31">
-        <v>3.333</v>
-      </c>
-      <c r="Z31">
-        <v>-1</v>
-      </c>
-      <c r="AA31">
-        <v>0.825</v>
-      </c>
-      <c r="AB31">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="AC31">
-        <v>-1</v>
       </c>
     </row>
     <row r="32" spans="1:29">
@@ -3286,7 +3286,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>6989502</v>
+        <v>6989602</v>
       </c>
       <c r="C32" t="s">
         <v>28</v>
@@ -3298,73 +3298,73 @@
         <v>45165.5</v>
       </c>
       <c r="F32" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="G32" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H32">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I32">
         <v>2</v>
       </c>
       <c r="J32" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K32">
-        <v>1.7</v>
+        <v>1.666</v>
       </c>
       <c r="L32">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M32">
         <v>4.5</v>
       </c>
       <c r="N32">
-        <v>1.4</v>
+        <v>1.666</v>
       </c>
       <c r="O32">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="P32">
-        <v>6.5</v>
+        <v>4.5</v>
       </c>
       <c r="Q32">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R32">
-        <v>1.725</v>
+        <v>1.95</v>
       </c>
       <c r="S32">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T32">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U32">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="V32">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="W32">
         <v>-1</v>
       </c>
       <c r="X32">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y32">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Z32">
         <v>-1</v>
       </c>
       <c r="AA32">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB32">
-        <v>0.825</v>
+        <v>0.75</v>
       </c>
       <c r="AC32">
         <v>-1</v>
@@ -3390,7 +3390,7 @@
         <v>43</v>
       </c>
       <c r="G33" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H33">
         <v>1</v>
@@ -3464,7 +3464,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>7018990</v>
+        <v>6989603</v>
       </c>
       <c r="C34" t="s">
         <v>28</v>
@@ -3476,76 +3476,76 @@
         <v>45171.5</v>
       </c>
       <c r="F34" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G34" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H34">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I34">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J34" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K34">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="L34">
         <v>3.2</v>
       </c>
       <c r="M34">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="N34">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="O34">
         <v>3.2</v>
       </c>
       <c r="P34">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="Q34">
         <v>-0.25</v>
       </c>
       <c r="R34">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="S34">
-        <v>1.75</v>
+        <v>1.775</v>
       </c>
       <c r="T34">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U34">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="V34">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="W34">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="X34">
         <v>-1</v>
       </c>
       <c r="Y34">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Z34">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA34">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB34">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC34">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="35" spans="1:29">
@@ -3553,7 +3553,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>6989603</v>
+        <v>7018990</v>
       </c>
       <c r="C35" t="s">
         <v>28</v>
@@ -3565,76 +3565,76 @@
         <v>45171.5</v>
       </c>
       <c r="F35" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G35" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J35" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K35">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="L35">
         <v>3.2</v>
       </c>
       <c r="M35">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="N35">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="O35">
         <v>3.2</v>
       </c>
       <c r="P35">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="Q35">
         <v>-0.25</v>
       </c>
       <c r="R35">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="S35">
-        <v>1.775</v>
+        <v>1.75</v>
       </c>
       <c r="T35">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U35">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="V35">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="W35">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="X35">
         <v>-1</v>
       </c>
       <c r="Y35">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Z35">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA35">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB35">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC35">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="36" spans="1:29">
@@ -3642,7 +3642,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>6989669</v>
+        <v>6989668</v>
       </c>
       <c r="C36" t="s">
         <v>28</v>
@@ -3654,76 +3654,76 @@
         <v>45171.58333333334</v>
       </c>
       <c r="F36" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G36" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J36" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K36">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="L36">
         <v>3.2</v>
       </c>
       <c r="M36">
-        <v>2.875</v>
+        <v>2.75</v>
       </c>
       <c r="N36">
-        <v>2.2</v>
+        <v>1.95</v>
       </c>
       <c r="O36">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="P36">
-        <v>2.9</v>
+        <v>3.5</v>
       </c>
       <c r="Q36">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R36">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S36">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T36">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U36">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="V36">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="W36">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="X36">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y36">
         <v>-1</v>
       </c>
       <c r="Z36">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AA36">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AB36">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AC36">
-        <v>0.3875</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="37" spans="1:29">
@@ -3731,7 +3731,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>6989668</v>
+        <v>6989669</v>
       </c>
       <c r="C37" t="s">
         <v>28</v>
@@ -3743,76 +3743,76 @@
         <v>45171.58333333334</v>
       </c>
       <c r="F37" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G37" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J37" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K37">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="L37">
         <v>3.2</v>
       </c>
       <c r="M37">
-        <v>2.75</v>
+        <v>2.875</v>
       </c>
       <c r="N37">
-        <v>1.95</v>
+        <v>2.2</v>
       </c>
       <c r="O37">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="P37">
-        <v>3.5</v>
+        <v>2.9</v>
       </c>
       <c r="Q37">
+        <v>-0.25</v>
+      </c>
+      <c r="R37">
+        <v>1.975</v>
+      </c>
+      <c r="S37">
+        <v>1.825</v>
+      </c>
+      <c r="T37">
+        <v>2.25</v>
+      </c>
+      <c r="U37">
+        <v>2.025</v>
+      </c>
+      <c r="V37">
+        <v>1.775</v>
+      </c>
+      <c r="W37">
+        <v>-1</v>
+      </c>
+      <c r="X37">
+        <v>2.2</v>
+      </c>
+      <c r="Y37">
+        <v>-1</v>
+      </c>
+      <c r="Z37">
         <v>-0.5</v>
       </c>
-      <c r="R37">
-        <v>2</v>
-      </c>
-      <c r="S37">
-        <v>1.8</v>
-      </c>
-      <c r="T37">
-        <v>2</v>
-      </c>
-      <c r="U37">
-        <v>1.95</v>
-      </c>
-      <c r="V37">
-        <v>1.85</v>
-      </c>
-      <c r="W37">
-        <v>0.95</v>
-      </c>
-      <c r="X37">
-        <v>-1</v>
-      </c>
-      <c r="Y37">
-        <v>-1</v>
-      </c>
-      <c r="Z37">
-        <v>1</v>
-      </c>
       <c r="AA37">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AB37">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AC37">
-        <v>-0</v>
+        <v>0.3875</v>
       </c>
     </row>
     <row r="38" spans="1:29">
@@ -3820,7 +3820,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>6989504</v>
+        <v>6989503</v>
       </c>
       <c r="C38" t="s">
         <v>28</v>
@@ -3832,73 +3832,73 @@
         <v>45172.5</v>
       </c>
       <c r="F38" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="G38" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H38">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I38">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J38" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K38">
+        <v>1.85</v>
+      </c>
+      <c r="L38">
+        <v>2.8</v>
+      </c>
+      <c r="M38">
+        <v>4.75</v>
+      </c>
+      <c r="N38">
+        <v>2.3</v>
+      </c>
+      <c r="O38">
+        <v>2.75</v>
+      </c>
+      <c r="P38">
         <v>3.4</v>
       </c>
-      <c r="L38">
-        <v>3.4</v>
-      </c>
-      <c r="M38">
-        <v>1.909</v>
-      </c>
-      <c r="N38">
-        <v>6</v>
-      </c>
-      <c r="O38">
-        <v>3.6</v>
-      </c>
-      <c r="P38">
-        <v>1.5</v>
-      </c>
       <c r="Q38">
+        <v>-0.25</v>
+      </c>
+      <c r="R38">
+        <v>1.95</v>
+      </c>
+      <c r="S38">
+        <v>1.85</v>
+      </c>
+      <c r="T38">
+        <v>2</v>
+      </c>
+      <c r="U38">
+        <v>2</v>
+      </c>
+      <c r="V38">
+        <v>1.8</v>
+      </c>
+      <c r="W38">
+        <v>-1</v>
+      </c>
+      <c r="X38">
+        <v>-1</v>
+      </c>
+      <c r="Y38">
+        <v>2.4</v>
+      </c>
+      <c r="Z38">
+        <v>-1</v>
+      </c>
+      <c r="AA38">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AB38">
         <v>1</v>
-      </c>
-      <c r="R38">
-        <v>2</v>
-      </c>
-      <c r="S38">
-        <v>1.8</v>
-      </c>
-      <c r="T38">
-        <v>2.5</v>
-      </c>
-      <c r="U38">
-        <v>1.975</v>
-      </c>
-      <c r="V38">
-        <v>1.825</v>
-      </c>
-      <c r="W38">
-        <v>-1</v>
-      </c>
-      <c r="X38">
-        <v>2.6</v>
-      </c>
-      <c r="Y38">
-        <v>-1</v>
-      </c>
-      <c r="Z38">
-        <v>1</v>
-      </c>
-      <c r="AA38">
-        <v>-1</v>
-      </c>
-      <c r="AB38">
-        <v>0.9750000000000001</v>
       </c>
       <c r="AC38">
         <v>-1</v>
@@ -3909,7 +3909,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>6989503</v>
+        <v>6989504</v>
       </c>
       <c r="C39" t="s">
         <v>28</v>
@@ -3921,73 +3921,73 @@
         <v>45172.5</v>
       </c>
       <c r="F39" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G39" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H39">
+        <v>2</v>
+      </c>
+      <c r="I39">
+        <v>2</v>
+      </c>
+      <c r="J39" t="s">
+        <v>47</v>
+      </c>
+      <c r="K39">
+        <v>3.4</v>
+      </c>
+      <c r="L39">
+        <v>3.4</v>
+      </c>
+      <c r="M39">
+        <v>1.909</v>
+      </c>
+      <c r="N39">
+        <v>6</v>
+      </c>
+      <c r="O39">
+        <v>3.6</v>
+      </c>
+      <c r="P39">
+        <v>1.5</v>
+      </c>
+      <c r="Q39">
         <v>1</v>
       </c>
-      <c r="I39">
-        <v>3</v>
-      </c>
-      <c r="J39" t="s">
-        <v>46</v>
-      </c>
-      <c r="K39">
-        <v>1.85</v>
-      </c>
-      <c r="L39">
-        <v>2.8</v>
-      </c>
-      <c r="M39">
-        <v>4.75</v>
-      </c>
-      <c r="N39">
-        <v>2.3</v>
-      </c>
-      <c r="O39">
-        <v>2.75</v>
-      </c>
-      <c r="P39">
-        <v>3.4</v>
-      </c>
-      <c r="Q39">
-        <v>-0.25</v>
-      </c>
       <c r="R39">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S39">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T39">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U39">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V39">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W39">
         <v>-1</v>
       </c>
       <c r="X39">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y39">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Z39">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA39">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB39">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC39">
         <v>-1</v>
@@ -4010,7 +4010,7 @@
         <v>45172.58333333334</v>
       </c>
       <c r="F40" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G40" t="s">
         <v>38</v>
@@ -4102,7 +4102,7 @@
         <v>44</v>
       </c>
       <c r="G41" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H41">
         <v>3</v>
@@ -4354,7 +4354,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>6989671</v>
+        <v>6989605</v>
       </c>
       <c r="C44" t="s">
         <v>28</v>
@@ -4366,13 +4366,13 @@
         <v>45178.47916666666</v>
       </c>
       <c r="F44" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G44" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H44">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I44">
         <v>1</v>
@@ -4381,34 +4381,34 @@
         <v>45</v>
       </c>
       <c r="K44">
-        <v>2.3</v>
+        <v>2.15</v>
       </c>
       <c r="L44">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="M44">
         <v>3.25</v>
       </c>
       <c r="N44">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="O44">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="P44">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="Q44">
         <v>-0.25</v>
       </c>
       <c r="R44">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S44">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="T44">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U44">
         <v>2</v>
@@ -4417,7 +4417,7 @@
         <v>1.8</v>
       </c>
       <c r="W44">
-        <v>1.3</v>
+        <v>1.1</v>
       </c>
       <c r="X44">
         <v>-1</v>
@@ -4426,7 +4426,7 @@
         <v>-1</v>
       </c>
       <c r="Z44">
-        <v>1</v>
+        <v>0.825</v>
       </c>
       <c r="AA44">
         <v>-1</v>
@@ -4443,7 +4443,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>6989605</v>
+        <v>6989671</v>
       </c>
       <c r="C45" t="s">
         <v>28</v>
@@ -4455,13 +4455,13 @@
         <v>45178.47916666666</v>
       </c>
       <c r="F45" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G45" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H45">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I45">
         <v>1</v>
@@ -4470,34 +4470,34 @@
         <v>45</v>
       </c>
       <c r="K45">
-        <v>2.15</v>
+        <v>2.3</v>
       </c>
       <c r="L45">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="M45">
         <v>3.25</v>
       </c>
       <c r="N45">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="O45">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="P45">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="Q45">
         <v>-0.25</v>
       </c>
       <c r="R45">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S45">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="T45">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U45">
         <v>2</v>
@@ -4506,7 +4506,7 @@
         <v>1.8</v>
       </c>
       <c r="W45">
-        <v>1.1</v>
+        <v>1.3</v>
       </c>
       <c r="X45">
         <v>-1</v>
@@ -4515,7 +4515,7 @@
         <v>-1</v>
       </c>
       <c r="Z45">
-        <v>0.825</v>
+        <v>1</v>
       </c>
       <c r="AA45">
         <v>-1</v>
@@ -4532,7 +4532,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>6989319</v>
+        <v>6989672</v>
       </c>
       <c r="C46" t="s">
         <v>28</v>
@@ -4544,76 +4544,76 @@
         <v>45179.47916666666</v>
       </c>
       <c r="F46" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G46" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="H46">
+        <v>0</v>
+      </c>
+      <c r="I46">
         <v>1</v>
       </c>
-      <c r="I46">
-        <v>0</v>
-      </c>
       <c r="J46" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K46">
-        <v>2.2</v>
+        <v>1.615</v>
       </c>
       <c r="L46">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="M46">
-        <v>3</v>
+        <v>5.2</v>
       </c>
       <c r="N46">
-        <v>1.833</v>
+        <v>1.615</v>
       </c>
       <c r="O46">
         <v>3.3</v>
       </c>
       <c r="P46">
-        <v>4</v>
+        <v>5.25</v>
       </c>
       <c r="Q46">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R46">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S46">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T46">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U46">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="V46">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="W46">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="X46">
         <v>-1</v>
       </c>
       <c r="Y46">
-        <v>-1</v>
+        <v>4.25</v>
       </c>
       <c r="Z46">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA46">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB46">
         <v>-1</v>
       </c>
       <c r="AC46">
-        <v>0.9750000000000001</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="47" spans="1:29">
@@ -4621,7 +4621,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>6989672</v>
+        <v>6989505</v>
       </c>
       <c r="C47" t="s">
         <v>28</v>
@@ -4633,76 +4633,76 @@
         <v>45179.47916666666</v>
       </c>
       <c r="F47" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="G47" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I47">
         <v>1</v>
       </c>
       <c r="J47" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K47">
-        <v>1.615</v>
+        <v>1.222</v>
       </c>
       <c r="L47">
-        <v>3.3</v>
+        <v>5</v>
       </c>
       <c r="M47">
-        <v>5.2</v>
+        <v>10</v>
       </c>
       <c r="N47">
-        <v>1.615</v>
+        <v>1.2</v>
       </c>
       <c r="O47">
-        <v>3.3</v>
+        <v>5.25</v>
       </c>
       <c r="P47">
-        <v>5.25</v>
+        <v>12</v>
       </c>
       <c r="Q47">
-        <v>-0.75</v>
+        <v>-2</v>
       </c>
       <c r="R47">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S47">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T47">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="U47">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="V47">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="W47">
-        <v>-1</v>
+        <v>0.2</v>
       </c>
       <c r="X47">
         <v>-1</v>
       </c>
       <c r="Y47">
-        <v>4.25</v>
+        <v>-1</v>
       </c>
       <c r="Z47">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA47">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB47">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC47">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="48" spans="1:29">
@@ -4710,7 +4710,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>6989505</v>
+        <v>6989319</v>
       </c>
       <c r="C48" t="s">
         <v>28</v>
@@ -4722,58 +4722,58 @@
         <v>45179.47916666666</v>
       </c>
       <c r="F48" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G48" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H48">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J48" t="s">
         <v>45</v>
       </c>
       <c r="K48">
-        <v>1.222</v>
+        <v>2.2</v>
       </c>
       <c r="L48">
-        <v>5</v>
+        <v>3.1</v>
       </c>
       <c r="M48">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="N48">
-        <v>1.2</v>
+        <v>1.833</v>
       </c>
       <c r="O48">
-        <v>5.25</v>
+        <v>3.3</v>
       </c>
       <c r="P48">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="Q48">
-        <v>-2</v>
+        <v>-0.5</v>
       </c>
       <c r="R48">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S48">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T48">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U48">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V48">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W48">
-        <v>0.2</v>
+        <v>0.833</v>
       </c>
       <c r="X48">
         <v>-1</v>
@@ -4782,16 +4782,16 @@
         <v>-1</v>
       </c>
       <c r="Z48">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA48">
         <v>-1</v>
       </c>
       <c r="AB48">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC48">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="49" spans="1:29">
@@ -4900,7 +4900,7 @@
         <v>45185.58333333334</v>
       </c>
       <c r="F50" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G50" t="s">
         <v>29</v>
@@ -5155,7 +5155,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>6989506</v>
+        <v>6989507</v>
       </c>
       <c r="C53" t="s">
         <v>28</v>
@@ -5167,76 +5167,76 @@
         <v>45186.45833333334</v>
       </c>
       <c r="F53" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G53" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J53" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K53">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="L53">
         <v>3</v>
       </c>
       <c r="M53">
-        <v>2.625</v>
+        <v>2.25</v>
       </c>
       <c r="N53">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="O53">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="P53">
-        <v>2.625</v>
+        <v>1.8</v>
       </c>
       <c r="Q53">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R53">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S53">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T53">
         <v>2.25</v>
       </c>
       <c r="U53">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V53">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W53">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="X53">
         <v>-1</v>
       </c>
       <c r="Y53">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="Z53">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA53">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB53">
         <v>-1</v>
       </c>
       <c r="AC53">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="54" spans="1:29">
@@ -5244,7 +5244,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>6989507</v>
+        <v>6989609</v>
       </c>
       <c r="C54" t="s">
         <v>28</v>
@@ -5256,76 +5256,76 @@
         <v>45186.45833333334</v>
       </c>
       <c r="F54" t="s">
+        <v>37</v>
+      </c>
+      <c r="G54" t="s">
         <v>42</v>
       </c>
-      <c r="G54" t="s">
-        <v>39</v>
-      </c>
       <c r="H54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I54">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J54" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K54">
-        <v>3</v>
+        <v>2.3</v>
       </c>
       <c r="L54">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="M54">
-        <v>2.25</v>
+        <v>2.55</v>
       </c>
       <c r="N54">
-        <v>4</v>
+        <v>2.9</v>
       </c>
       <c r="O54">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="P54">
-        <v>1.8</v>
+        <v>2.15</v>
       </c>
       <c r="Q54">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R54">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S54">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T54">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U54">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V54">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W54">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="X54">
         <v>-1</v>
       </c>
       <c r="Y54">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="Z54">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA54">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB54">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC54">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="55" spans="1:29">
@@ -5333,7 +5333,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>6989609</v>
+        <v>6989506</v>
       </c>
       <c r="C55" t="s">
         <v>28</v>
@@ -5345,40 +5345,40 @@
         <v>45186.45833333334</v>
       </c>
       <c r="F55" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G55" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H55">
         <v>0</v>
       </c>
       <c r="I55">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J55" t="s">
         <v>46</v>
       </c>
       <c r="K55">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="L55">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="M55">
-        <v>2.55</v>
+        <v>2.625</v>
       </c>
       <c r="N55">
-        <v>2.9</v>
+        <v>2.5</v>
       </c>
       <c r="O55">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="P55">
-        <v>2.15</v>
+        <v>2.625</v>
       </c>
       <c r="Q55">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R55">
         <v>1.85</v>
@@ -5387,13 +5387,13 @@
         <v>1.95</v>
       </c>
       <c r="T55">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U55">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V55">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="W55">
         <v>-1</v>
@@ -5402,7 +5402,7 @@
         <v>-1</v>
       </c>
       <c r="Y55">
-        <v>1.15</v>
+        <v>1.625</v>
       </c>
       <c r="Z55">
         <v>-1</v>
@@ -5411,10 +5411,10 @@
         <v>0.95</v>
       </c>
       <c r="AB55">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC55">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="56" spans="1:29">
@@ -5434,7 +5434,7 @@
         <v>45186.58333333334</v>
       </c>
       <c r="F56" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G56" t="s">
         <v>34</v>
@@ -5615,7 +5615,7 @@
         <v>40</v>
       </c>
       <c r="G58" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H58">
         <v>0</v>
@@ -5689,7 +5689,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>6989676</v>
+        <v>7018992</v>
       </c>
       <c r="C59" t="s">
         <v>28</v>
@@ -5701,76 +5701,76 @@
         <v>45191.58333333334</v>
       </c>
       <c r="F59" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="G59" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J59" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K59">
+        <v>1.4</v>
+      </c>
+      <c r="L59">
+        <v>4.2</v>
+      </c>
+      <c r="M59">
+        <v>6.5</v>
+      </c>
+      <c r="N59">
+        <v>1.4</v>
+      </c>
+      <c r="O59">
+        <v>4</v>
+      </c>
+      <c r="P59">
+        <v>7</v>
+      </c>
+      <c r="Q59">
+        <v>-1.25</v>
+      </c>
+      <c r="R59">
+        <v>1.85</v>
+      </c>
+      <c r="S59">
         <v>1.95</v>
       </c>
-      <c r="L59">
-        <v>3.1</v>
-      </c>
-      <c r="M59">
-        <v>3.6</v>
-      </c>
-      <c r="N59">
-        <v>1.75</v>
-      </c>
-      <c r="O59">
-        <v>3.25</v>
-      </c>
-      <c r="P59">
-        <v>4.2</v>
-      </c>
-      <c r="Q59">
-        <v>-0.5</v>
-      </c>
-      <c r="R59">
-        <v>1.8</v>
-      </c>
-      <c r="S59">
-        <v>2</v>
-      </c>
       <c r="T59">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U59">
+        <v>1.85</v>
+      </c>
+      <c r="V59">
         <v>1.95</v>
       </c>
-      <c r="V59">
-        <v>1.85</v>
-      </c>
       <c r="W59">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X59">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y59">
         <v>-1</v>
       </c>
       <c r="Z59">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA59">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB59">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC59">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="60" spans="1:29">
@@ -5778,7 +5778,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>7018992</v>
+        <v>6989676</v>
       </c>
       <c r="C60" t="s">
         <v>28</v>
@@ -5790,76 +5790,76 @@
         <v>45191.58333333334</v>
       </c>
       <c r="F60" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="G60" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="H60">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I60">
+        <v>0</v>
+      </c>
+      <c r="J60" t="s">
+        <v>47</v>
+      </c>
+      <c r="K60">
+        <v>1.95</v>
+      </c>
+      <c r="L60">
+        <v>3.1</v>
+      </c>
+      <c r="M60">
+        <v>3.6</v>
+      </c>
+      <c r="N60">
+        <v>1.75</v>
+      </c>
+      <c r="O60">
+        <v>3.25</v>
+      </c>
+      <c r="P60">
+        <v>4.2</v>
+      </c>
+      <c r="Q60">
+        <v>-0.5</v>
+      </c>
+      <c r="R60">
+        <v>1.8</v>
+      </c>
+      <c r="S60">
+        <v>2</v>
+      </c>
+      <c r="T60">
+        <v>2</v>
+      </c>
+      <c r="U60">
+        <v>1.95</v>
+      </c>
+      <c r="V60">
+        <v>1.85</v>
+      </c>
+      <c r="W60">
+        <v>-1</v>
+      </c>
+      <c r="X60">
+        <v>2.25</v>
+      </c>
+      <c r="Y60">
+        <v>-1</v>
+      </c>
+      <c r="Z60">
+        <v>-1</v>
+      </c>
+      <c r="AA60">
         <v>1</v>
       </c>
-      <c r="J60" t="s">
-        <v>45</v>
-      </c>
-      <c r="K60">
-        <v>1.4</v>
-      </c>
-      <c r="L60">
-        <v>4.2</v>
-      </c>
-      <c r="M60">
-        <v>6.5</v>
-      </c>
-      <c r="N60">
-        <v>1.4</v>
-      </c>
-      <c r="O60">
-        <v>4</v>
-      </c>
-      <c r="P60">
-        <v>7</v>
-      </c>
-      <c r="Q60">
-        <v>-1.25</v>
-      </c>
-      <c r="R60">
-        <v>1.85</v>
-      </c>
-      <c r="S60">
-        <v>1.95</v>
-      </c>
-      <c r="T60">
-        <v>2.5</v>
-      </c>
-      <c r="U60">
-        <v>1.85</v>
-      </c>
-      <c r="V60">
-        <v>1.95</v>
-      </c>
-      <c r="W60">
-        <v>0.3999999999999999</v>
-      </c>
-      <c r="X60">
-        <v>-1</v>
-      </c>
-      <c r="Y60">
-        <v>-1</v>
-      </c>
-      <c r="Z60">
+      <c r="AB60">
+        <v>-1</v>
+      </c>
+      <c r="AC60">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AA60">
-        <v>-1</v>
-      </c>
-      <c r="AB60">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="AC60">
-        <v>-1</v>
       </c>
     </row>
     <row r="61" spans="1:29">
@@ -5882,7 +5882,7 @@
         <v>29</v>
       </c>
       <c r="G61" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H61">
         <v>1</v>
@@ -6045,7 +6045,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>6989610</v>
+        <v>6989320</v>
       </c>
       <c r="C63" t="s">
         <v>28</v>
@@ -6057,76 +6057,76 @@
         <v>45192.45833333334</v>
       </c>
       <c r="F63" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G63" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="H63">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J63" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K63">
-        <v>2.2</v>
+        <v>1.727</v>
       </c>
       <c r="L63">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="M63">
-        <v>3</v>
+        <v>4.333</v>
       </c>
       <c r="N63">
-        <v>2.2</v>
+        <v>1.533</v>
       </c>
       <c r="O63">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="P63">
-        <v>3</v>
+        <v>5.5</v>
       </c>
       <c r="Q63">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R63">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S63">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T63">
         <v>2.25</v>
       </c>
       <c r="U63">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V63">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="W63">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X63">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y63">
         <v>-1</v>
       </c>
       <c r="Z63">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA63">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB63">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AC63">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="64" spans="1:29">
@@ -6134,7 +6134,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>6989320</v>
+        <v>6989508</v>
       </c>
       <c r="C64" t="s">
         <v>28</v>
@@ -6146,19 +6146,19 @@
         <v>45192.45833333334</v>
       </c>
       <c r="F64" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G64" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="H64">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I64">
         <v>1</v>
       </c>
       <c r="J64" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K64">
         <v>1.727</v>
@@ -6170,52 +6170,52 @@
         <v>4.333</v>
       </c>
       <c r="N64">
-        <v>1.533</v>
+        <v>1.727</v>
       </c>
       <c r="O64">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="P64">
-        <v>5.5</v>
+        <v>4.333</v>
       </c>
       <c r="Q64">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R64">
+        <v>1.75</v>
+      </c>
+      <c r="S64">
         <v>1.95</v>
-      </c>
-      <c r="S64">
-        <v>1.85</v>
       </c>
       <c r="T64">
         <v>2.25</v>
       </c>
       <c r="U64">
+        <v>1.875</v>
+      </c>
+      <c r="V64">
         <v>1.925</v>
       </c>
-      <c r="V64">
-        <v>1.875</v>
-      </c>
       <c r="W64">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X64">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y64">
         <v>-1</v>
       </c>
       <c r="Z64">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA64">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB64">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AC64">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="65" spans="1:29">
@@ -6223,7 +6223,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>6989508</v>
+        <v>6989610</v>
       </c>
       <c r="C65" t="s">
         <v>28</v>
@@ -6235,58 +6235,58 @@
         <v>45192.45833333334</v>
       </c>
       <c r="F65" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="G65" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H65">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J65" t="s">
         <v>45</v>
       </c>
       <c r="K65">
-        <v>1.727</v>
+        <v>2.2</v>
       </c>
       <c r="L65">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="M65">
-        <v>4.333</v>
+        <v>3</v>
       </c>
       <c r="N65">
-        <v>1.727</v>
+        <v>2.2</v>
       </c>
       <c r="O65">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="P65">
-        <v>4.333</v>
+        <v>3</v>
       </c>
       <c r="Q65">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R65">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="S65">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T65">
         <v>2.25</v>
       </c>
       <c r="U65">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V65">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W65">
-        <v>0.7270000000000001</v>
+        <v>1.2</v>
       </c>
       <c r="X65">
         <v>-1</v>
@@ -6295,13 +6295,13 @@
         <v>-1</v>
       </c>
       <c r="Z65">
-        <v>0.75</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA65">
         <v>-1</v>
       </c>
       <c r="AB65">
-        <v>0.875</v>
+        <v>0.825</v>
       </c>
       <c r="AC65">
         <v>-1</v>
@@ -6401,7 +6401,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>6989680</v>
+        <v>6989511</v>
       </c>
       <c r="C67" t="s">
         <v>28</v>
@@ -6413,10 +6413,10 @@
         <v>45200.41666666666</v>
       </c>
       <c r="F67" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="G67" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H67">
         <v>1</v>
@@ -6428,61 +6428,61 @@
         <v>45</v>
       </c>
       <c r="K67">
-        <v>2</v>
+        <v>1.571</v>
       </c>
       <c r="L67">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="M67">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="N67">
-        <v>1.95</v>
+        <v>1.333</v>
       </c>
       <c r="O67">
-        <v>3</v>
+        <v>4.2</v>
       </c>
       <c r="P67">
-        <v>3.75</v>
+        <v>7.5</v>
       </c>
       <c r="Q67">
+        <v>-1.25</v>
+      </c>
+      <c r="R67">
+        <v>1.9</v>
+      </c>
+      <c r="S67">
+        <v>1.9</v>
+      </c>
+      <c r="T67">
+        <v>2.5</v>
+      </c>
+      <c r="U67">
+        <v>1.925</v>
+      </c>
+      <c r="V67">
+        <v>1.875</v>
+      </c>
+      <c r="W67">
+        <v>0.333</v>
+      </c>
+      <c r="X67">
+        <v>-1</v>
+      </c>
+      <c r="Y67">
+        <v>-1</v>
+      </c>
+      <c r="Z67">
         <v>-0.5</v>
       </c>
-      <c r="R67">
-        <v>2.025</v>
-      </c>
-      <c r="S67">
-        <v>1.775</v>
-      </c>
-      <c r="T67">
-        <v>2</v>
-      </c>
-      <c r="U67">
-        <v>1.825</v>
-      </c>
-      <c r="V67">
-        <v>1.975</v>
-      </c>
-      <c r="W67">
-        <v>0.95</v>
-      </c>
-      <c r="X67">
-        <v>-1</v>
-      </c>
-      <c r="Y67">
-        <v>-1</v>
-      </c>
-      <c r="Z67">
-        <v>1.025</v>
-      </c>
       <c r="AA67">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AB67">
         <v>-1</v>
       </c>
       <c r="AC67">
-        <v>0.9750000000000001</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="68" spans="1:29">
@@ -6668,7 +6668,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>6989511</v>
+        <v>6989680</v>
       </c>
       <c r="C70" t="s">
         <v>28</v>
@@ -6680,10 +6680,10 @@
         <v>45200.41666666666</v>
       </c>
       <c r="F70" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="G70" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H70">
         <v>1</v>
@@ -6695,43 +6695,43 @@
         <v>45</v>
       </c>
       <c r="K70">
-        <v>1.571</v>
+        <v>2</v>
       </c>
       <c r="L70">
+        <v>3</v>
+      </c>
+      <c r="M70">
         <v>3.6</v>
       </c>
-      <c r="M70">
-        <v>5</v>
-      </c>
       <c r="N70">
-        <v>1.333</v>
+        <v>1.95</v>
       </c>
       <c r="O70">
-        <v>4.2</v>
+        <v>3</v>
       </c>
       <c r="P70">
-        <v>7.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q70">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R70">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="S70">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="T70">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U70">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V70">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="W70">
-        <v>0.333</v>
+        <v>0.95</v>
       </c>
       <c r="X70">
         <v>-1</v>
@@ -6740,16 +6740,16 @@
         <v>-1</v>
       </c>
       <c r="Z70">
-        <v>-0.5</v>
+        <v>1.025</v>
       </c>
       <c r="AA70">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AB70">
         <v>-1</v>
       </c>
       <c r="AC70">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="71" spans="1:29">
@@ -6769,10 +6769,10 @@
         <v>45200.58333333334</v>
       </c>
       <c r="F71" t="s">
+        <v>32</v>
+      </c>
+      <c r="G71" t="s">
         <v>33</v>
-      </c>
-      <c r="G71" t="s">
-        <v>32</v>
       </c>
       <c r="H71">
         <v>0</v>
@@ -6950,7 +6950,7 @@
         <v>43</v>
       </c>
       <c r="G73" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H73">
         <v>1</v>
@@ -7039,7 +7039,7 @@
         <v>30</v>
       </c>
       <c r="G74" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H74">
         <v>1</v>
@@ -7125,7 +7125,7 @@
         <v>45206.54166666666</v>
       </c>
       <c r="F75" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G75" t="s">
         <v>40</v>
@@ -7214,7 +7214,7 @@
         <v>45207.41666666666</v>
       </c>
       <c r="F76" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G76" t="s">
         <v>38</v>
@@ -7291,7 +7291,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>6989513</v>
+        <v>7018994</v>
       </c>
       <c r="C77" t="s">
         <v>28</v>
@@ -7303,76 +7303,76 @@
         <v>45207.41666666666</v>
       </c>
       <c r="F77" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G77" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="H77">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I77">
         <v>1</v>
       </c>
       <c r="J77" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K77">
-        <v>2.625</v>
+        <v>2.25</v>
       </c>
       <c r="L77">
-        <v>2.875</v>
+        <v>3</v>
       </c>
       <c r="M77">
-        <v>2.625</v>
+        <v>3</v>
       </c>
       <c r="N77">
-        <v>2.8</v>
+        <v>2.15</v>
       </c>
       <c r="O77">
-        <v>2.875</v>
+        <v>3</v>
       </c>
       <c r="P77">
-        <v>2.45</v>
+        <v>3.2</v>
       </c>
       <c r="Q77">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R77">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="S77">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="T77">
         <v>2</v>
       </c>
       <c r="U77">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V77">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W77">
         <v>-1</v>
       </c>
       <c r="X77">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Y77">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Z77">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA77">
-        <v>-0</v>
+        <v>0.875</v>
       </c>
       <c r="AB77">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC77">
-        <v>-0</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="78" spans="1:29">
@@ -7380,7 +7380,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>7018994</v>
+        <v>6989513</v>
       </c>
       <c r="C78" t="s">
         <v>28</v>
@@ -7392,76 +7392,76 @@
         <v>45207.41666666666</v>
       </c>
       <c r="F78" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G78" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="H78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I78">
         <v>1</v>
       </c>
       <c r="J78" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K78">
-        <v>2.25</v>
+        <v>2.625</v>
       </c>
       <c r="L78">
-        <v>3</v>
+        <v>2.875</v>
       </c>
       <c r="M78">
-        <v>3</v>
+        <v>2.625</v>
       </c>
       <c r="N78">
-        <v>2.15</v>
+        <v>2.8</v>
       </c>
       <c r="O78">
-        <v>3</v>
+        <v>2.875</v>
       </c>
       <c r="P78">
-        <v>3.2</v>
+        <v>2.45</v>
       </c>
       <c r="Q78">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R78">
+        <v>2.025</v>
+      </c>
+      <c r="S78">
+        <v>1.775</v>
+      </c>
+      <c r="T78">
+        <v>2</v>
+      </c>
+      <c r="U78">
         <v>1.925</v>
       </c>
-      <c r="S78">
+      <c r="V78">
         <v>1.875</v>
       </c>
-      <c r="T78">
-        <v>2</v>
-      </c>
-      <c r="U78">
-        <v>1.85</v>
-      </c>
-      <c r="V78">
-        <v>1.95</v>
-      </c>
       <c r="W78">
         <v>-1</v>
       </c>
       <c r="X78">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Y78">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Z78">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA78">
-        <v>0.875</v>
+        <v>-0</v>
       </c>
       <c r="AB78">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC78">
-        <v>0.95</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="79" spans="1:29">
@@ -7570,7 +7570,7 @@
         <v>45208.41666666666</v>
       </c>
       <c r="F80" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G80" t="s">
         <v>34</v>
@@ -7748,7 +7748,7 @@
         <v>45213.41666666666</v>
       </c>
       <c r="F82" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G82" t="s">
         <v>35</v>
@@ -7929,7 +7929,7 @@
         <v>31</v>
       </c>
       <c r="G84" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H84">
         <v>1</v>
@@ -8015,7 +8015,7 @@
         <v>45214.54166666666</v>
       </c>
       <c r="F85" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G85" t="s">
         <v>30</v>
@@ -8181,7 +8181,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>6989619</v>
+        <v>6989515</v>
       </c>
       <c r="C87" t="s">
         <v>28</v>
@@ -8193,49 +8193,49 @@
         <v>45215.41666666666</v>
       </c>
       <c r="F87" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G87" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I87">
         <v>0</v>
       </c>
       <c r="J87" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K87">
-        <v>1.95</v>
+        <v>1.5</v>
       </c>
       <c r="L87">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="M87">
-        <v>3.4</v>
+        <v>5.5</v>
       </c>
       <c r="N87">
-        <v>1.85</v>
+        <v>1.5</v>
       </c>
       <c r="O87">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="P87">
-        <v>3.75</v>
+        <v>6</v>
       </c>
       <c r="Q87">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R87">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S87">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T87">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U87">
         <v>2</v>
@@ -8244,19 +8244,19 @@
         <v>1.8</v>
       </c>
       <c r="W87">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X87">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y87">
         <v>-1</v>
       </c>
       <c r="Z87">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA87">
-        <v>0.8999999999999999</v>
+        <v>-0</v>
       </c>
       <c r="AB87">
         <v>-1</v>
@@ -8270,7 +8270,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>6989684</v>
+        <v>6989619</v>
       </c>
       <c r="C88" t="s">
         <v>28</v>
@@ -8282,76 +8282,76 @@
         <v>45215.41666666666</v>
       </c>
       <c r="F88" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G88" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H88">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I88">
         <v>0</v>
       </c>
       <c r="J88" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K88">
-        <v>2.4</v>
+        <v>1.95</v>
       </c>
       <c r="L88">
-        <v>2.8</v>
+        <v>3.2</v>
       </c>
       <c r="M88">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="N88">
+        <v>1.85</v>
+      </c>
+      <c r="O88">
+        <v>3.2</v>
+      </c>
+      <c r="P88">
         <v>3.75</v>
       </c>
-      <c r="O88">
-        <v>2.9</v>
-      </c>
-      <c r="P88">
-        <v>1.95</v>
-      </c>
       <c r="Q88">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R88">
+        <v>1.9</v>
+      </c>
+      <c r="S88">
+        <v>1.9</v>
+      </c>
+      <c r="T88">
+        <v>2.5</v>
+      </c>
+      <c r="U88">
+        <v>2</v>
+      </c>
+      <c r="V88">
         <v>1.8</v>
       </c>
-      <c r="S88">
-        <v>2</v>
-      </c>
-      <c r="T88">
-        <v>2</v>
-      </c>
-      <c r="U88">
-        <v>1.85</v>
-      </c>
-      <c r="V88">
-        <v>1.95</v>
-      </c>
       <c r="W88">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="X88">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y88">
         <v>-1</v>
       </c>
       <c r="Z88">
+        <v>-1</v>
+      </c>
+      <c r="AA88">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AB88">
+        <v>-1</v>
+      </c>
+      <c r="AC88">
         <v>0.8</v>
-      </c>
-      <c r="AA88">
-        <v>-1</v>
-      </c>
-      <c r="AB88">
-        <v>-1</v>
-      </c>
-      <c r="AC88">
-        <v>0.95</v>
       </c>
     </row>
     <row r="89" spans="1:29">
@@ -8359,7 +8359,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>6989515</v>
+        <v>6989684</v>
       </c>
       <c r="C89" t="s">
         <v>28</v>
@@ -8371,10 +8371,10 @@
         <v>45215.41666666666</v>
       </c>
       <c r="F89" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="G89" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H89">
         <v>1</v>
@@ -8386,43 +8386,43 @@
         <v>45</v>
       </c>
       <c r="K89">
-        <v>1.5</v>
+        <v>2.4</v>
       </c>
       <c r="L89">
+        <v>2.8</v>
+      </c>
+      <c r="M89">
+        <v>2.9</v>
+      </c>
+      <c r="N89">
         <v>3.75</v>
       </c>
-      <c r="M89">
-        <v>5.5</v>
-      </c>
-      <c r="N89">
-        <v>1.5</v>
-      </c>
       <c r="O89">
-        <v>3.75</v>
+        <v>2.9</v>
       </c>
       <c r="P89">
-        <v>6</v>
+        <v>1.95</v>
       </c>
       <c r="Q89">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="R89">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S89">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T89">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U89">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V89">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W89">
-        <v>0.5</v>
+        <v>2.75</v>
       </c>
       <c r="X89">
         <v>-1</v>
@@ -8431,16 +8431,16 @@
         <v>-1</v>
       </c>
       <c r="Z89">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AA89">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB89">
         <v>-1</v>
       </c>
       <c r="AC89">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="90" spans="1:29">
@@ -8463,7 +8463,7 @@
         <v>35</v>
       </c>
       <c r="G90" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H90">
         <v>2</v>
@@ -8549,7 +8549,7 @@
         <v>45220.375</v>
       </c>
       <c r="F91" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G91" t="s">
         <v>34</v>
@@ -8730,7 +8730,7 @@
         <v>44</v>
       </c>
       <c r="G93" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H93">
         <v>1</v>
@@ -8905,7 +8905,7 @@
         <v>45221.375</v>
       </c>
       <c r="F95" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G95" t="s">
         <v>36</v>
@@ -9175,7 +9175,7 @@
         <v>29</v>
       </c>
       <c r="G98" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H98">
         <v>1</v>
@@ -9261,7 +9261,7 @@
         <v>45226.5</v>
       </c>
       <c r="F99" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G99" t="s">
         <v>44</v>
@@ -9338,7 +9338,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>6989688</v>
+        <v>6989519</v>
       </c>
       <c r="C100" t="s">
         <v>28</v>
@@ -9350,40 +9350,40 @@
         <v>45227.375</v>
       </c>
       <c r="F100" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G100" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H100">
         <v>2</v>
       </c>
       <c r="I100">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J100" t="s">
         <v>45</v>
       </c>
       <c r="K100">
-        <v>2</v>
+        <v>1.571</v>
       </c>
       <c r="L100">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="M100">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="N100">
-        <v>1.909</v>
+        <v>1.533</v>
       </c>
       <c r="O100">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="P100">
-        <v>3.8</v>
+        <v>5.25</v>
       </c>
       <c r="Q100">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R100">
         <v>1.975</v>
@@ -9392,16 +9392,16 @@
         <v>1.825</v>
       </c>
       <c r="T100">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U100">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="V100">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W100">
-        <v>0.909</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X100">
         <v>-1</v>
@@ -9410,16 +9410,16 @@
         <v>-1</v>
       </c>
       <c r="Z100">
-        <v>0.9750000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA100">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB100">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="AC100">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="101" spans="1:29">
@@ -9516,7 +9516,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>6989519</v>
+        <v>6989688</v>
       </c>
       <c r="C102" t="s">
         <v>28</v>
@@ -9528,40 +9528,40 @@
         <v>45227.375</v>
       </c>
       <c r="F102" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="G102" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="H102">
         <v>2</v>
       </c>
       <c r="I102">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J102" t="s">
         <v>45</v>
       </c>
       <c r="K102">
-        <v>1.571</v>
+        <v>2</v>
       </c>
       <c r="L102">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="M102">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="N102">
-        <v>1.533</v>
+        <v>1.909</v>
       </c>
       <c r="O102">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="P102">
-        <v>5.25</v>
+        <v>3.8</v>
       </c>
       <c r="Q102">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R102">
         <v>1.975</v>
@@ -9570,16 +9570,16 @@
         <v>1.825</v>
       </c>
       <c r="T102">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U102">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="V102">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W102">
-        <v>0.5329999999999999</v>
+        <v>0.909</v>
       </c>
       <c r="X102">
         <v>-1</v>
@@ -9588,16 +9588,16 @@
         <v>-1</v>
       </c>
       <c r="Z102">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA102">
+        <v>-1</v>
+      </c>
+      <c r="AB102">
+        <v>0</v>
+      </c>
+      <c r="AC102">
         <v>-0</v>
-      </c>
-      <c r="AB102">
-        <v>0.925</v>
-      </c>
-      <c r="AC102">
-        <v>-1</v>
       </c>
     </row>
     <row r="103" spans="1:29">
@@ -9887,7 +9887,7 @@
         <v>37</v>
       </c>
       <c r="G106" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H106">
         <v>5</v>
@@ -10062,7 +10062,7 @@
         <v>45235.375</v>
       </c>
       <c r="F108" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G108" t="s">
         <v>36</v>
@@ -10418,10 +10418,10 @@
         <v>45236.375</v>
       </c>
       <c r="F112" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G112" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H112">
         <v>0</v>
@@ -10584,7 +10584,7 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>6989692</v>
+        <v>6989523</v>
       </c>
       <c r="C114" t="s">
         <v>28</v>
@@ -10596,76 +10596,76 @@
         <v>45241.375</v>
       </c>
       <c r="F114" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G114" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H114">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I114">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J114" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K114">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="L114">
         <v>3</v>
       </c>
       <c r="M114">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="N114">
-        <v>2.375</v>
+        <v>1.95</v>
       </c>
       <c r="O114">
-        <v>2.55</v>
+        <v>2.875</v>
       </c>
       <c r="P114">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="Q114">
         <v>-0.5</v>
       </c>
       <c r="R114">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="S114">
+        <v>1.775</v>
+      </c>
+      <c r="T114">
         <v>1.75</v>
       </c>
-      <c r="T114">
-        <v>1.5</v>
-      </c>
       <c r="U114">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V114">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W114">
         <v>-1</v>
       </c>
       <c r="X114">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="Y114">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z114">
         <v>-1</v>
       </c>
       <c r="AA114">
-        <v>0.75</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB114">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC114">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="115" spans="1:29">
@@ -10673,7 +10673,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>6989693</v>
+        <v>6989692</v>
       </c>
       <c r="C115" t="s">
         <v>28</v>
@@ -10685,76 +10685,76 @@
         <v>45241.375</v>
       </c>
       <c r="F115" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G115" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H115">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I115">
         <v>0</v>
       </c>
       <c r="J115" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K115">
-        <v>1.909</v>
+        <v>2.2</v>
       </c>
       <c r="L115">
         <v>3</v>
       </c>
       <c r="M115">
-        <v>3.9</v>
+        <v>3.1</v>
       </c>
       <c r="N115">
-        <v>2</v>
+        <v>2.375</v>
       </c>
       <c r="O115">
-        <v>2.7</v>
+        <v>2.55</v>
       </c>
       <c r="P115">
-        <v>4.2</v>
+        <v>3.3</v>
       </c>
       <c r="Q115">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R115">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
       <c r="S115">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="T115">
         <v>1.5</v>
       </c>
       <c r="U115">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V115">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W115">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X115">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="Y115">
         <v>-1</v>
       </c>
       <c r="Z115">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA115">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AB115">
         <v>-1</v>
       </c>
       <c r="AC115">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="116" spans="1:29">
@@ -10762,7 +10762,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>6989523</v>
+        <v>6989693</v>
       </c>
       <c r="C116" t="s">
         <v>28</v>
@@ -10774,76 +10774,76 @@
         <v>45241.375</v>
       </c>
       <c r="F116" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G116" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H116">
         <v>1</v>
       </c>
       <c r="I116">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J116" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K116">
-        <v>2</v>
+        <v>1.909</v>
       </c>
       <c r="L116">
         <v>3</v>
       </c>
       <c r="M116">
-        <v>3.6</v>
+        <v>3.9</v>
       </c>
       <c r="N116">
+        <v>2</v>
+      </c>
+      <c r="O116">
+        <v>2.7</v>
+      </c>
+      <c r="P116">
+        <v>4.2</v>
+      </c>
+      <c r="Q116">
+        <v>-0.25</v>
+      </c>
+      <c r="R116">
+        <v>1.8</v>
+      </c>
+      <c r="S116">
+        <v>2</v>
+      </c>
+      <c r="T116">
+        <v>1.5</v>
+      </c>
+      <c r="U116">
         <v>1.95</v>
       </c>
-      <c r="O116">
-        <v>2.875</v>
-      </c>
-      <c r="P116">
-        <v>4</v>
-      </c>
-      <c r="Q116">
-        <v>-0.5</v>
-      </c>
-      <c r="R116">
-        <v>2.025</v>
-      </c>
-      <c r="S116">
-        <v>1.775</v>
-      </c>
-      <c r="T116">
-        <v>1.75</v>
-      </c>
-      <c r="U116">
-        <v>1.8</v>
-      </c>
       <c r="V116">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W116">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X116">
         <v>-1</v>
       </c>
       <c r="Y116">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z116">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA116">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB116">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC116">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="117" spans="1:29">
@@ -10863,10 +10863,10 @@
         <v>45242.375</v>
       </c>
       <c r="F117" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G117" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H117">
         <v>1</v>
@@ -10940,7 +10940,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>6989626</v>
+        <v>6989524</v>
       </c>
       <c r="C118" t="s">
         <v>28</v>
@@ -10952,76 +10952,76 @@
         <v>45242.375</v>
       </c>
       <c r="F118" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G118" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H118">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I118">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J118" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K118">
-        <v>1.75</v>
+        <v>3</v>
       </c>
       <c r="L118">
-        <v>3.3</v>
+        <v>2.9</v>
       </c>
       <c r="M118">
-        <v>4.2</v>
+        <v>2.3</v>
       </c>
       <c r="N118">
-        <v>1.75</v>
+        <v>3.2</v>
       </c>
       <c r="O118">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="P118">
-        <v>4</v>
+        <v>2.1</v>
       </c>
       <c r="Q118">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R118">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S118">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="T118">
         <v>2.25</v>
       </c>
       <c r="U118">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V118">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W118">
         <v>-1</v>
       </c>
       <c r="X118">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y118">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Z118">
         <v>-1</v>
       </c>
       <c r="AA118">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB118">
         <v>-0.5</v>
       </c>
       <c r="AC118">
-        <v>0.45</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="119" spans="1:29">
@@ -11029,7 +11029,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>6989524</v>
+        <v>6989626</v>
       </c>
       <c r="C119" t="s">
         <v>28</v>
@@ -11041,76 +11041,76 @@
         <v>45242.375</v>
       </c>
       <c r="F119" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G119" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H119">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I119">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J119" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K119">
-        <v>3</v>
+        <v>1.75</v>
       </c>
       <c r="L119">
-        <v>2.9</v>
+        <v>3.3</v>
       </c>
       <c r="M119">
-        <v>2.3</v>
+        <v>4.2</v>
       </c>
       <c r="N119">
-        <v>3.2</v>
+        <v>1.75</v>
       </c>
       <c r="O119">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="P119">
-        <v>2.1</v>
+        <v>4</v>
       </c>
       <c r="Q119">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R119">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S119">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T119">
         <v>2.25</v>
       </c>
       <c r="U119">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V119">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W119">
         <v>-1</v>
       </c>
       <c r="X119">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y119">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Z119">
         <v>-1</v>
       </c>
       <c r="AA119">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
       <c r="AB119">
         <v>-0.5</v>
       </c>
       <c r="AC119">
-        <v>0.425</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="120" spans="1:29">
@@ -11222,7 +11222,7 @@
         <v>35</v>
       </c>
       <c r="G121" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H121">
         <v>3</v>
@@ -11296,7 +11296,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>6989696</v>
+        <v>6989695</v>
       </c>
       <c r="C122" t="s">
         <v>28</v>
@@ -11311,73 +11311,73 @@
         <v>33</v>
       </c>
       <c r="G122" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H122">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I122">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J122" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K122">
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="L122">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="M122">
-        <v>2.625</v>
+        <v>1.615</v>
       </c>
       <c r="N122">
-        <v>2.8</v>
+        <v>3.6</v>
       </c>
       <c r="O122">
-        <v>2.8</v>
+        <v>3.4</v>
       </c>
       <c r="P122">
+        <v>1.833</v>
+      </c>
+      <c r="Q122">
+        <v>0.5</v>
+      </c>
+      <c r="R122">
+        <v>1.9</v>
+      </c>
+      <c r="S122">
+        <v>1.9</v>
+      </c>
+      <c r="T122">
+        <v>2.25</v>
+      </c>
+      <c r="U122">
+        <v>2</v>
+      </c>
+      <c r="V122">
+        <v>1.8</v>
+      </c>
+      <c r="W122">
         <v>2.6</v>
       </c>
-      <c r="Q122">
-        <v>0</v>
-      </c>
-      <c r="R122">
-        <v>1.975</v>
-      </c>
-      <c r="S122">
-        <v>1.825</v>
-      </c>
-      <c r="T122">
-        <v>1.5</v>
-      </c>
-      <c r="U122">
-        <v>1.775</v>
-      </c>
-      <c r="V122">
-        <v>2.025</v>
-      </c>
-      <c r="W122">
-        <v>-1</v>
-      </c>
       <c r="X122">
         <v>-1</v>
       </c>
       <c r="Y122">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="Z122">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA122">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB122">
-        <v>0.7749999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AC122">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="123" spans="1:29">
@@ -11385,7 +11385,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>6989695</v>
+        <v>6989696</v>
       </c>
       <c r="C123" t="s">
         <v>28</v>
@@ -11400,73 +11400,73 @@
         <v>32</v>
       </c>
       <c r="G123" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H123">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I123">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J123" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K123">
-        <v>4.5</v>
+        <v>2.5</v>
       </c>
       <c r="L123">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="M123">
-        <v>1.615</v>
+        <v>2.625</v>
       </c>
       <c r="N123">
-        <v>3.6</v>
+        <v>2.8</v>
       </c>
       <c r="O123">
-        <v>3.4</v>
+        <v>2.8</v>
       </c>
       <c r="P123">
-        <v>1.833</v>
+        <v>2.6</v>
       </c>
       <c r="Q123">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R123">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S123">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T123">
-        <v>2.25</v>
+        <v>1.5</v>
       </c>
       <c r="U123">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="V123">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="W123">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="X123">
         <v>-1</v>
       </c>
       <c r="Y123">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="Z123">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA123">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB123">
-        <v>-0.5</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC123">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="124" spans="1:29">
@@ -11474,7 +11474,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>6989628</v>
+        <v>6989627</v>
       </c>
       <c r="C124" t="s">
         <v>28</v>
@@ -11486,58 +11486,58 @@
         <v>45248.375</v>
       </c>
       <c r="F124" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G124" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H124">
+        <v>3</v>
+      </c>
+      <c r="I124">
         <v>1</v>
-      </c>
-      <c r="I124">
-        <v>0</v>
       </c>
       <c r="J124" t="s">
         <v>45</v>
       </c>
       <c r="K124">
-        <v>2.2</v>
+        <v>1.909</v>
       </c>
       <c r="L124">
+        <v>3.2</v>
+      </c>
+      <c r="M124">
+        <v>3.6</v>
+      </c>
+      <c r="N124">
+        <v>2</v>
+      </c>
+      <c r="O124">
+        <v>3.4</v>
+      </c>
+      <c r="P124">
         <v>3.1</v>
-      </c>
-      <c r="M124">
-        <v>3</v>
-      </c>
-      <c r="N124">
-        <v>2.3</v>
-      </c>
-      <c r="O124">
-        <v>2.9</v>
-      </c>
-      <c r="P124">
-        <v>2.9</v>
       </c>
       <c r="Q124">
         <v>-0.25</v>
       </c>
       <c r="R124">
-        <v>2.05</v>
+        <v>1.75</v>
       </c>
       <c r="S124">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="T124">
-        <v>1.75</v>
+        <v>2.5</v>
       </c>
       <c r="U124">
+        <v>1.975</v>
+      </c>
+      <c r="V124">
         <v>1.825</v>
       </c>
-      <c r="V124">
-        <v>1.975</v>
-      </c>
       <c r="W124">
-        <v>1.3</v>
+        <v>1</v>
       </c>
       <c r="X124">
         <v>-1</v>
@@ -11546,16 +11546,16 @@
         <v>-1</v>
       </c>
       <c r="Z124">
-        <v>1.05</v>
+        <v>0.75</v>
       </c>
       <c r="AA124">
         <v>-1</v>
       </c>
       <c r="AB124">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC124">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="125" spans="1:29">
@@ -11563,7 +11563,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>6989627</v>
+        <v>6989628</v>
       </c>
       <c r="C125" t="s">
         <v>28</v>
@@ -11575,58 +11575,58 @@
         <v>45248.375</v>
       </c>
       <c r="F125" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G125" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H125">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I125">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J125" t="s">
         <v>45</v>
       </c>
       <c r="K125">
-        <v>1.909</v>
+        <v>2.2</v>
       </c>
       <c r="L125">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M125">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="N125">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="O125">
-        <v>3.4</v>
+        <v>2.9</v>
       </c>
       <c r="P125">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="Q125">
         <v>-0.25</v>
       </c>
       <c r="R125">
+        <v>2.05</v>
+      </c>
+      <c r="S125">
         <v>1.75</v>
       </c>
-      <c r="S125">
-        <v>1.95</v>
-      </c>
       <c r="T125">
-        <v>2.5</v>
+        <v>1.75</v>
       </c>
       <c r="U125">
+        <v>1.825</v>
+      </c>
+      <c r="V125">
         <v>1.975</v>
       </c>
-      <c r="V125">
-        <v>1.825</v>
-      </c>
       <c r="W125">
-        <v>1</v>
+        <v>1.3</v>
       </c>
       <c r="X125">
         <v>-1</v>
@@ -11635,16 +11635,16 @@
         <v>-1</v>
       </c>
       <c r="Z125">
-        <v>0.75</v>
+        <v>1.05</v>
       </c>
       <c r="AA125">
         <v>-1</v>
       </c>
       <c r="AB125">
+        <v>-1</v>
+      </c>
+      <c r="AC125">
         <v>0.9750000000000001</v>
-      </c>
-      <c r="AC125">
-        <v>-1</v>
       </c>
     </row>
     <row r="126" spans="1:29">
@@ -11919,7 +11919,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>7497904</v>
+        <v>7497902</v>
       </c>
       <c r="C129" t="s">
         <v>28</v>
@@ -11931,76 +11931,76 @@
         <v>45252.375</v>
       </c>
       <c r="F129" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G129" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="H129">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I129">
         <v>1</v>
       </c>
       <c r="J129" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K129">
-        <v>2.4</v>
+        <v>1.909</v>
       </c>
       <c r="L129">
-        <v>2.875</v>
+        <v>3</v>
       </c>
       <c r="M129">
-        <v>2.875</v>
+        <v>4</v>
       </c>
       <c r="N129">
-        <v>2.875</v>
+        <v>1.75</v>
       </c>
       <c r="O129">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="P129">
-        <v>2.3</v>
+        <v>4.75</v>
       </c>
       <c r="Q129">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R129">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="S129">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="T129">
         <v>2</v>
       </c>
       <c r="U129">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="V129">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W129">
         <v>-1</v>
       </c>
       <c r="X129">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y129">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z129">
         <v>-1</v>
       </c>
       <c r="AA129">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="AB129">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC129">
-        <v>0.875</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="130" spans="1:29">
@@ -12020,7 +12020,7 @@
         <v>45252.375</v>
       </c>
       <c r="F130" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G130" t="s">
         <v>39</v>
@@ -12097,7 +12097,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>7497374</v>
+        <v>7497904</v>
       </c>
       <c r="C131" t="s">
         <v>28</v>
@@ -12109,76 +12109,76 @@
         <v>45252.375</v>
       </c>
       <c r="F131" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G131" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H131">
+        <v>0</v>
+      </c>
+      <c r="I131">
         <v>1</v>
       </c>
-      <c r="I131">
-        <v>0</v>
-      </c>
       <c r="J131" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K131">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="L131">
+        <v>2.875</v>
+      </c>
+      <c r="M131">
+        <v>2.875</v>
+      </c>
+      <c r="N131">
+        <v>2.875</v>
+      </c>
+      <c r="O131">
         <v>3</v>
       </c>
-      <c r="M131">
-        <v>2.625</v>
-      </c>
-      <c r="N131">
-        <v>2</v>
-      </c>
-      <c r="O131">
-        <v>3.1</v>
-      </c>
       <c r="P131">
-        <v>3.6</v>
+        <v>2.3</v>
       </c>
       <c r="Q131">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R131">
-        <v>2.025</v>
+        <v>1.75</v>
       </c>
       <c r="S131">
-        <v>1.775</v>
+        <v>2.05</v>
       </c>
       <c r="T131">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U131">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V131">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W131">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X131">
         <v>-1</v>
       </c>
       <c r="Y131">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z131">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA131">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AB131">
         <v>-1</v>
       </c>
       <c r="AC131">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="132" spans="1:29">
@@ -12198,7 +12198,7 @@
         <v>45252.375</v>
       </c>
       <c r="F132" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G132" t="s">
         <v>38</v>
@@ -12275,7 +12275,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>7497902</v>
+        <v>7497374</v>
       </c>
       <c r="C133" t="s">
         <v>28</v>
@@ -12287,76 +12287,76 @@
         <v>45252.375</v>
       </c>
       <c r="F133" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G133" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="H133">
         <v>1</v>
       </c>
       <c r="I133">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J133" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K133">
-        <v>1.909</v>
+        <v>2.5</v>
       </c>
       <c r="L133">
         <v>3</v>
       </c>
       <c r="M133">
-        <v>4</v>
+        <v>2.625</v>
       </c>
       <c r="N133">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="O133">
         <v>3.1</v>
       </c>
       <c r="P133">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="Q133">
         <v>-0.5</v>
       </c>
       <c r="R133">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="S133">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="T133">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U133">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V133">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W133">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X133">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y133">
         <v>-1</v>
       </c>
       <c r="Z133">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA133">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB133">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC133">
-        <v>-0</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="134" spans="1:29">
@@ -12376,7 +12376,7 @@
         <v>45253.45833333334</v>
       </c>
       <c r="F134" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G134" t="s">
         <v>36</v>
@@ -12465,7 +12465,7 @@
         <v>45256.375</v>
       </c>
       <c r="F135" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G135" t="s">
         <v>30</v>
@@ -12542,7 +12542,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>6989629</v>
+        <v>6989526</v>
       </c>
       <c r="C136" t="s">
         <v>28</v>
@@ -12554,13 +12554,13 @@
         <v>45256.375</v>
       </c>
       <c r="F136" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="G136" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H136">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I136">
         <v>0</v>
@@ -12569,43 +12569,43 @@
         <v>45</v>
       </c>
       <c r="K136">
+        <v>1.909</v>
+      </c>
+      <c r="L136">
+        <v>3</v>
+      </c>
+      <c r="M136">
+        <v>4</v>
+      </c>
+      <c r="N136">
         <v>2.1</v>
       </c>
-      <c r="L136">
-        <v>2.875</v>
-      </c>
-      <c r="M136">
+      <c r="O136">
+        <v>2.9</v>
+      </c>
+      <c r="P136">
         <v>3.5</v>
       </c>
-      <c r="N136">
-        <v>1.75</v>
-      </c>
-      <c r="O136">
-        <v>3.2</v>
-      </c>
-      <c r="P136">
-        <v>4.75</v>
-      </c>
       <c r="Q136">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R136">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S136">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="T136">
         <v>2</v>
       </c>
       <c r="U136">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="V136">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="W136">
-        <v>0.75</v>
+        <v>1.1</v>
       </c>
       <c r="X136">
         <v>-1</v>
@@ -12614,16 +12614,16 @@
         <v>-1</v>
       </c>
       <c r="Z136">
-        <v>0.475</v>
+        <v>0.825</v>
       </c>
       <c r="AA136">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB136">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC136">
-        <v>0.7749999999999999</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="137" spans="1:29">
@@ -12631,7 +12631,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>6989699</v>
+        <v>6989527</v>
       </c>
       <c r="C137" t="s">
         <v>28</v>
@@ -12643,73 +12643,73 @@
         <v>45256.375</v>
       </c>
       <c r="F137" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G137" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H137">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I137">
         <v>2</v>
       </c>
       <c r="J137" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K137">
-        <v>1.833</v>
+        <v>1.727</v>
       </c>
       <c r="L137">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="M137">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="N137">
-        <v>1.666</v>
+        <v>1.444</v>
       </c>
       <c r="O137">
-        <v>3.25</v>
+        <v>3.8</v>
       </c>
       <c r="P137">
-        <v>4.75</v>
+        <v>7</v>
       </c>
       <c r="Q137">
-        <v>-0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R137">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S137">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T137">
-        <v>1.75</v>
+        <v>2.75</v>
       </c>
       <c r="U137">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V137">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W137">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="X137">
         <v>-1</v>
       </c>
       <c r="Y137">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Z137">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA137">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB137">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AC137">
         <v>-1</v>
@@ -12720,7 +12720,7 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>6989527</v>
+        <v>6989629</v>
       </c>
       <c r="C138" t="s">
         <v>28</v>
@@ -12732,58 +12732,58 @@
         <v>45256.375</v>
       </c>
       <c r="F138" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G138" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H138">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I138">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J138" t="s">
         <v>45</v>
       </c>
       <c r="K138">
-        <v>1.727</v>
+        <v>2.1</v>
       </c>
       <c r="L138">
-        <v>3.3</v>
+        <v>2.875</v>
       </c>
       <c r="M138">
-        <v>4.333</v>
+        <v>3.5</v>
       </c>
       <c r="N138">
-        <v>1.444</v>
+        <v>1.75</v>
       </c>
       <c r="O138">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="P138">
-        <v>7</v>
+        <v>4.75</v>
       </c>
       <c r="Q138">
-        <v>-1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R138">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S138">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="T138">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="U138">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="V138">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="W138">
-        <v>0.444</v>
+        <v>0.75</v>
       </c>
       <c r="X138">
         <v>-1</v>
@@ -12792,16 +12792,16 @@
         <v>-1</v>
       </c>
       <c r="Z138">
-        <v>0.9750000000000001</v>
+        <v>0.475</v>
       </c>
       <c r="AA138">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB138">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC138">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="139" spans="1:29">
@@ -12809,7 +12809,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>6989526</v>
+        <v>6989699</v>
       </c>
       <c r="C139" t="s">
         <v>28</v>
@@ -12821,76 +12821,76 @@
         <v>45256.375</v>
       </c>
       <c r="F139" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G139" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H139">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I139">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J139" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K139">
-        <v>1.909</v>
+        <v>1.833</v>
       </c>
       <c r="L139">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M139">
         <v>4</v>
       </c>
       <c r="N139">
-        <v>2.1</v>
+        <v>1.666</v>
       </c>
       <c r="O139">
-        <v>2.9</v>
+        <v>3.25</v>
       </c>
       <c r="P139">
-        <v>3.5</v>
+        <v>4.75</v>
       </c>
       <c r="Q139">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R139">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S139">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T139">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U139">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V139">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W139">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X139">
         <v>-1</v>
       </c>
       <c r="Y139">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Z139">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA139">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB139">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC139">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="140" spans="1:29">
@@ -12910,7 +12910,7 @@
         <v>45257.375</v>
       </c>
       <c r="F140" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G140" t="s">
         <v>44</v>
@@ -13091,7 +13091,7 @@
         <v>43</v>
       </c>
       <c r="G142" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H142">
         <v>0</v>
@@ -13177,7 +13177,7 @@
         <v>45261.375</v>
       </c>
       <c r="F143" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G143" t="s">
         <v>40</v>
@@ -13266,7 +13266,7 @@
         <v>45262.375</v>
       </c>
       <c r="F144" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G144" t="s">
         <v>43</v>
@@ -13355,7 +13355,7 @@
         <v>45262.375</v>
       </c>
       <c r="F145" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G145" t="s">
         <v>38</v>
@@ -13536,7 +13536,7 @@
         <v>35</v>
       </c>
       <c r="G147" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H147">
         <v>1</v>
@@ -14055,7 +14055,7 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>6989332</v>
+        <v>6989633</v>
       </c>
       <c r="C153" t="s">
         <v>28</v>
@@ -14067,58 +14067,58 @@
         <v>45270.375</v>
       </c>
       <c r="F153" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G153" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="H153">
+        <v>2</v>
+      </c>
+      <c r="I153">
         <v>1</v>
-      </c>
-      <c r="I153">
-        <v>0</v>
       </c>
       <c r="J153" t="s">
         <v>45</v>
       </c>
       <c r="K153">
-        <v>1.4</v>
+        <v>1.8</v>
       </c>
       <c r="L153">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="M153">
-        <v>7</v>
+        <v>4.2</v>
       </c>
       <c r="N153">
-        <v>1.285</v>
+        <v>1.75</v>
       </c>
       <c r="O153">
-        <v>4.333</v>
+        <v>3.2</v>
       </c>
       <c r="P153">
-        <v>11</v>
+        <v>4.75</v>
       </c>
       <c r="Q153">
-        <v>-1.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R153">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="S153">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="T153">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U153">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V153">
-        <v>1.85</v>
+        <v>1.725</v>
       </c>
       <c r="W153">
-        <v>0.2849999999999999</v>
+        <v>0.75</v>
       </c>
       <c r="X153">
         <v>-1</v>
@@ -14127,16 +14127,16 @@
         <v>-1</v>
       </c>
       <c r="Z153">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AA153">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AB153">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC153">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="154" spans="1:29">
@@ -14144,7 +14144,7 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>6989633</v>
+        <v>6989332</v>
       </c>
       <c r="C154" t="s">
         <v>28</v>
@@ -14156,58 +14156,58 @@
         <v>45270.375</v>
       </c>
       <c r="F154" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G154" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="H154">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I154">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J154" t="s">
         <v>45</v>
       </c>
       <c r="K154">
-        <v>1.8</v>
+        <v>1.4</v>
       </c>
       <c r="L154">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="M154">
-        <v>4.2</v>
+        <v>7</v>
       </c>
       <c r="N154">
-        <v>1.75</v>
+        <v>1.285</v>
       </c>
       <c r="O154">
-        <v>3.2</v>
+        <v>4.333</v>
       </c>
       <c r="P154">
-        <v>4.75</v>
+        <v>11</v>
       </c>
       <c r="Q154">
-        <v>-0.75</v>
+        <v>-1.5</v>
       </c>
       <c r="R154">
+        <v>1.85</v>
+      </c>
+      <c r="S154">
         <v>1.95</v>
       </c>
-      <c r="S154">
-        <v>1.75</v>
-      </c>
       <c r="T154">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U154">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V154">
-        <v>1.725</v>
+        <v>1.85</v>
       </c>
       <c r="W154">
-        <v>0.75</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="X154">
         <v>-1</v>
@@ -14216,16 +14216,16 @@
         <v>-1</v>
       </c>
       <c r="Z154">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AA154">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AB154">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC154">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="155" spans="1:29">
@@ -14248,7 +14248,7 @@
         <v>38</v>
       </c>
       <c r="G155" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H155">
         <v>0</v>
@@ -14337,7 +14337,7 @@
         <v>31</v>
       </c>
       <c r="G156" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H156">
         <v>0</v>
@@ -14515,7 +14515,7 @@
         <v>37</v>
       </c>
       <c r="G158" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H158">
         <v>2</v>
@@ -14856,7 +14856,7 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>6989635</v>
+        <v>7018979</v>
       </c>
       <c r="C162" t="s">
         <v>28</v>
@@ -14868,76 +14868,76 @@
         <v>45346.375</v>
       </c>
       <c r="F162" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G162" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="H162">
+        <v>0</v>
+      </c>
+      <c r="I162">
+        <v>4</v>
+      </c>
+      <c r="J162" t="s">
+        <v>46</v>
+      </c>
+      <c r="K162">
+        <v>2.4</v>
+      </c>
+      <c r="L162">
+        <v>3</v>
+      </c>
+      <c r="M162">
+        <v>2.75</v>
+      </c>
+      <c r="N162">
+        <v>2.5</v>
+      </c>
+      <c r="O162">
+        <v>3</v>
+      </c>
+      <c r="P162">
+        <v>2.75</v>
+      </c>
+      <c r="Q162">
+        <v>0</v>
+      </c>
+      <c r="R162">
+        <v>1.8</v>
+      </c>
+      <c r="S162">
+        <v>2</v>
+      </c>
+      <c r="T162">
+        <v>2.25</v>
+      </c>
+      <c r="U162">
+        <v>1.975</v>
+      </c>
+      <c r="V162">
+        <v>1.725</v>
+      </c>
+      <c r="W162">
+        <v>-1</v>
+      </c>
+      <c r="X162">
+        <v>-1</v>
+      </c>
+      <c r="Y162">
+        <v>1.75</v>
+      </c>
+      <c r="Z162">
+        <v>-1</v>
+      </c>
+      <c r="AA162">
         <v>1</v>
       </c>
-      <c r="I162">
-        <v>0</v>
-      </c>
-      <c r="J162" t="s">
-        <v>45</v>
-      </c>
-      <c r="K162">
-        <v>1.909</v>
-      </c>
-      <c r="L162">
-        <v>3.1</v>
-      </c>
-      <c r="M162">
-        <v>3.75</v>
-      </c>
-      <c r="N162">
-        <v>1.909</v>
-      </c>
-      <c r="O162">
-        <v>3.2</v>
-      </c>
-      <c r="P162">
-        <v>3.6</v>
-      </c>
-      <c r="Q162">
-        <v>-0.5</v>
-      </c>
-      <c r="R162">
-        <v>1.975</v>
-      </c>
-      <c r="S162">
-        <v>1.825</v>
-      </c>
-      <c r="T162">
-        <v>2</v>
-      </c>
-      <c r="U162">
-        <v>1.9</v>
-      </c>
-      <c r="V162">
-        <v>1.9</v>
-      </c>
-      <c r="W162">
-        <v>0.909</v>
-      </c>
-      <c r="X162">
-        <v>-1</v>
-      </c>
-      <c r="Y162">
-        <v>-1</v>
-      </c>
-      <c r="Z162">
+      <c r="AB162">
         <v>0.9750000000000001</v>
       </c>
-      <c r="AA162">
-        <v>-1</v>
-      </c>
-      <c r="AB162">
-        <v>-1</v>
-      </c>
       <c r="AC162">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="163" spans="1:29">
@@ -14945,7 +14945,7 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>7018979</v>
+        <v>6989635</v>
       </c>
       <c r="C163" t="s">
         <v>28</v>
@@ -14957,76 +14957,76 @@
         <v>45346.375</v>
       </c>
       <c r="F163" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G163" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="H163">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I163">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J163" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K163">
-        <v>2.4</v>
+        <v>1.909</v>
       </c>
       <c r="L163">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M163">
-        <v>2.75</v>
+        <v>3.75</v>
       </c>
       <c r="N163">
-        <v>2.5</v>
+        <v>1.909</v>
       </c>
       <c r="O163">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="P163">
-        <v>2.75</v>
+        <v>3.6</v>
       </c>
       <c r="Q163">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R163">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S163">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T163">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U163">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V163">
-        <v>1.725</v>
+        <v>1.9</v>
       </c>
       <c r="W163">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X163">
         <v>-1</v>
       </c>
       <c r="Y163">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Z163">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA163">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB163">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC163">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="164" spans="1:29">
@@ -15046,7 +15046,7 @@
         <v>45346.375</v>
       </c>
       <c r="F164" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G164" t="s">
         <v>31</v>
@@ -15123,7 +15123,7 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>6989636</v>
+        <v>6989333</v>
       </c>
       <c r="C165" t="s">
         <v>28</v>
@@ -15135,10 +15135,10 @@
         <v>45346.5</v>
       </c>
       <c r="F165" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="G165" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="H165">
         <v>0</v>
@@ -15150,40 +15150,40 @@
         <v>47</v>
       </c>
       <c r="K165">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="L165">
-        <v>2.875</v>
+        <v>3</v>
       </c>
       <c r="M165">
-        <v>3.75</v>
+        <v>2.625</v>
       </c>
       <c r="N165">
-        <v>1.833</v>
+        <v>2.375</v>
       </c>
       <c r="O165">
         <v>3</v>
       </c>
       <c r="P165">
-        <v>4.2</v>
+        <v>2.75</v>
       </c>
       <c r="Q165">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R165">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="S165">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="T165">
         <v>1.75</v>
       </c>
       <c r="U165">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V165">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W165">
         <v>-1</v>
@@ -15195,16 +15195,16 @@
         <v>-1</v>
       </c>
       <c r="Z165">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA165">
-        <v>1</v>
+        <v>-0</v>
       </c>
       <c r="AB165">
         <v>-1</v>
       </c>
       <c r="AC165">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="166" spans="1:29">
@@ -15212,7 +15212,7 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>6989333</v>
+        <v>6989636</v>
       </c>
       <c r="C166" t="s">
         <v>28</v>
@@ -15224,10 +15224,10 @@
         <v>45346.5</v>
       </c>
       <c r="F166" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="G166" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="H166">
         <v>0</v>
@@ -15239,40 +15239,40 @@
         <v>47</v>
       </c>
       <c r="K166">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="L166">
-        <v>3</v>
+        <v>2.875</v>
       </c>
       <c r="M166">
-        <v>2.625</v>
+        <v>3.75</v>
       </c>
       <c r="N166">
-        <v>2.375</v>
+        <v>1.833</v>
       </c>
       <c r="O166">
         <v>3</v>
       </c>
       <c r="P166">
-        <v>2.75</v>
+        <v>4.2</v>
       </c>
       <c r="Q166">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R166">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="S166">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="T166">
         <v>1.75</v>
       </c>
       <c r="U166">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V166">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W166">
         <v>-1</v>
@@ -15284,16 +15284,16 @@
         <v>-1</v>
       </c>
       <c r="Z166">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA166">
-        <v>-0</v>
+        <v>1</v>
       </c>
       <c r="AB166">
         <v>-1</v>
       </c>
       <c r="AC166">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="167" spans="1:29">
@@ -15301,7 +15301,7 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>6989634</v>
+        <v>6989532</v>
       </c>
       <c r="C167" t="s">
         <v>28</v>
@@ -15313,10 +15313,10 @@
         <v>45347.375</v>
       </c>
       <c r="F167" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G167" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H167">
         <v>1</v>
@@ -15328,43 +15328,43 @@
         <v>45</v>
       </c>
       <c r="K167">
-        <v>2.5</v>
+        <v>7.5</v>
       </c>
       <c r="L167">
-        <v>3</v>
+        <v>4.333</v>
       </c>
       <c r="M167">
-        <v>2.625</v>
+        <v>1.333</v>
       </c>
       <c r="N167">
-        <v>2.15</v>
+        <v>5</v>
       </c>
       <c r="O167">
-        <v>3.1</v>
+        <v>3.8</v>
       </c>
       <c r="P167">
-        <v>3.1</v>
+        <v>1.533</v>
       </c>
       <c r="Q167">
-        <v>-0.25</v>
+        <v>1</v>
       </c>
       <c r="R167">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S167">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T167">
         <v>2.25</v>
       </c>
       <c r="U167">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V167">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W167">
-        <v>1.15</v>
+        <v>4</v>
       </c>
       <c r="X167">
         <v>-1</v>
@@ -15373,7 +15373,7 @@
         <v>-1</v>
       </c>
       <c r="Z167">
-        <v>0.8999999999999999</v>
+        <v>0.875</v>
       </c>
       <c r="AA167">
         <v>-1</v>
@@ -15382,7 +15382,7 @@
         <v>-1</v>
       </c>
       <c r="AC167">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="168" spans="1:29">
@@ -15390,7 +15390,7 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>6989532</v>
+        <v>6989634</v>
       </c>
       <c r="C168" t="s">
         <v>28</v>
@@ -15402,10 +15402,10 @@
         <v>45347.375</v>
       </c>
       <c r="F168" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G168" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H168">
         <v>1</v>
@@ -15417,43 +15417,43 @@
         <v>45</v>
       </c>
       <c r="K168">
-        <v>7.5</v>
+        <v>2.5</v>
       </c>
       <c r="L168">
-        <v>4.333</v>
+        <v>3</v>
       </c>
       <c r="M168">
-        <v>1.333</v>
+        <v>2.625</v>
       </c>
       <c r="N168">
-        <v>5</v>
+        <v>2.15</v>
       </c>
       <c r="O168">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="P168">
-        <v>1.533</v>
+        <v>3.1</v>
       </c>
       <c r="Q168">
-        <v>1</v>
+        <v>-0.25</v>
       </c>
       <c r="R168">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S168">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T168">
         <v>2.25</v>
       </c>
       <c r="U168">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V168">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W168">
-        <v>4</v>
+        <v>1.15</v>
       </c>
       <c r="X168">
         <v>-1</v>
@@ -15462,7 +15462,7 @@
         <v>-1</v>
       </c>
       <c r="Z168">
-        <v>0.875</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA168">
         <v>-1</v>
@@ -15471,7 +15471,7 @@
         <v>-1</v>
       </c>
       <c r="AC168">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="169" spans="1:29">
@@ -15491,7 +15491,7 @@
         <v>45347.54166666666</v>
       </c>
       <c r="F169" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G169" t="s">
         <v>34</v>
@@ -15561,6 +15561,613 @@
       </c>
       <c r="AC169">
         <v>-0.5</v>
+      </c>
+    </row>
+    <row r="170" spans="1:29">
+      <c r="A170" s="1">
+        <v>168</v>
+      </c>
+      <c r="B170">
+        <v>7898977</v>
+      </c>
+      <c r="C170" t="s">
+        <v>28</v>
+      </c>
+      <c r="D170" t="s">
+        <v>28</v>
+      </c>
+      <c r="E170" s="2">
+        <v>45352.375</v>
+      </c>
+      <c r="F170" t="s">
+        <v>39</v>
+      </c>
+      <c r="G170" t="s">
+        <v>41</v>
+      </c>
+      <c r="H170">
+        <v>1</v>
+      </c>
+      <c r="I170">
+        <v>0</v>
+      </c>
+      <c r="J170" t="s">
+        <v>45</v>
+      </c>
+      <c r="K170">
+        <v>1.333</v>
+      </c>
+      <c r="L170">
+        <v>4</v>
+      </c>
+      <c r="M170">
+        <v>9</v>
+      </c>
+      <c r="N170">
+        <v>1.65</v>
+      </c>
+      <c r="O170">
+        <v>3.3</v>
+      </c>
+      <c r="P170">
+        <v>4.75</v>
+      </c>
+      <c r="Q170">
+        <v>-0.75</v>
+      </c>
+      <c r="R170">
+        <v>1.9</v>
+      </c>
+      <c r="S170">
+        <v>1.9</v>
+      </c>
+      <c r="T170">
+        <v>2.25</v>
+      </c>
+      <c r="U170">
+        <v>1.95</v>
+      </c>
+      <c r="V170">
+        <v>1.85</v>
+      </c>
+      <c r="W170">
+        <v>0.6499999999999999</v>
+      </c>
+      <c r="X170">
+        <v>-1</v>
+      </c>
+      <c r="Y170">
+        <v>-1</v>
+      </c>
+      <c r="Z170">
+        <v>0.45</v>
+      </c>
+      <c r="AA170">
+        <v>-0.5</v>
+      </c>
+      <c r="AB170">
+        <v>-1</v>
+      </c>
+      <c r="AC170">
+        <v>0.8500000000000001</v>
+      </c>
+    </row>
+    <row r="171" spans="1:29">
+      <c r="A171" s="1">
+        <v>169</v>
+      </c>
+      <c r="B171">
+        <v>7898976</v>
+      </c>
+      <c r="C171" t="s">
+        <v>28</v>
+      </c>
+      <c r="D171" t="s">
+        <v>28</v>
+      </c>
+      <c r="E171" s="2">
+        <v>45353.375</v>
+      </c>
+      <c r="F171" t="s">
+        <v>31</v>
+      </c>
+      <c r="G171" t="s">
+        <v>30</v>
+      </c>
+      <c r="K171">
+        <v>2</v>
+      </c>
+      <c r="L171">
+        <v>2.875</v>
+      </c>
+      <c r="M171">
+        <v>3.75</v>
+      </c>
+      <c r="N171">
+        <v>2.15</v>
+      </c>
+      <c r="O171">
+        <v>2.75</v>
+      </c>
+      <c r="P171">
+        <v>3.4</v>
+      </c>
+      <c r="Q171">
+        <v>-0.25</v>
+      </c>
+      <c r="R171">
+        <v>1.9</v>
+      </c>
+      <c r="S171">
+        <v>1.9</v>
+      </c>
+      <c r="T171">
+        <v>2</v>
+      </c>
+      <c r="U171">
+        <v>2</v>
+      </c>
+      <c r="V171">
+        <v>1.8</v>
+      </c>
+      <c r="W171">
+        <v>0</v>
+      </c>
+      <c r="X171">
+        <v>0</v>
+      </c>
+      <c r="Y171">
+        <v>0</v>
+      </c>
+      <c r="Z171">
+        <v>0</v>
+      </c>
+      <c r="AA171">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:29">
+      <c r="A172" s="1">
+        <v>170</v>
+      </c>
+      <c r="B172">
+        <v>7901793</v>
+      </c>
+      <c r="C172" t="s">
+        <v>28</v>
+      </c>
+      <c r="D172" t="s">
+        <v>28</v>
+      </c>
+      <c r="E172" s="2">
+        <v>45353.375</v>
+      </c>
+      <c r="F172" t="s">
+        <v>29</v>
+      </c>
+      <c r="G172" t="s">
+        <v>32</v>
+      </c>
+      <c r="K172">
+        <v>1.666</v>
+      </c>
+      <c r="L172">
+        <v>3.25</v>
+      </c>
+      <c r="M172">
+        <v>4.75</v>
+      </c>
+      <c r="N172">
+        <v>1.666</v>
+      </c>
+      <c r="O172">
+        <v>3.25</v>
+      </c>
+      <c r="P172">
+        <v>4.75</v>
+      </c>
+      <c r="Q172">
+        <v>-0.75</v>
+      </c>
+      <c r="R172">
+        <v>1.925</v>
+      </c>
+      <c r="S172">
+        <v>1.875</v>
+      </c>
+      <c r="T172">
+        <v>2.25</v>
+      </c>
+      <c r="U172">
+        <v>2</v>
+      </c>
+      <c r="V172">
+        <v>1.8</v>
+      </c>
+      <c r="W172">
+        <v>0</v>
+      </c>
+      <c r="X172">
+        <v>0</v>
+      </c>
+      <c r="Y172">
+        <v>0</v>
+      </c>
+      <c r="Z172">
+        <v>0</v>
+      </c>
+      <c r="AA172">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:29">
+      <c r="A173" s="1">
+        <v>171</v>
+      </c>
+      <c r="B173">
+        <v>7901794</v>
+      </c>
+      <c r="C173" t="s">
+        <v>28</v>
+      </c>
+      <c r="D173" t="s">
+        <v>28</v>
+      </c>
+      <c r="E173" s="2">
+        <v>45353.375</v>
+      </c>
+      <c r="F173" t="s">
+        <v>34</v>
+      </c>
+      <c r="G173" t="s">
+        <v>33</v>
+      </c>
+      <c r="K173">
+        <v>2.25</v>
+      </c>
+      <c r="L173">
+        <v>2.8</v>
+      </c>
+      <c r="M173">
+        <v>3.2</v>
+      </c>
+      <c r="N173">
+        <v>2</v>
+      </c>
+      <c r="O173">
+        <v>2.8</v>
+      </c>
+      <c r="P173">
+        <v>3.8</v>
+      </c>
+      <c r="Q173">
+        <v>-0.25</v>
+      </c>
+      <c r="R173">
+        <v>1.75</v>
+      </c>
+      <c r="S173">
+        <v>2.05</v>
+      </c>
+      <c r="T173">
+        <v>2</v>
+      </c>
+      <c r="U173">
+        <v>2.025</v>
+      </c>
+      <c r="V173">
+        <v>1.775</v>
+      </c>
+      <c r="W173">
+        <v>0</v>
+      </c>
+      <c r="X173">
+        <v>0</v>
+      </c>
+      <c r="Y173">
+        <v>0</v>
+      </c>
+      <c r="Z173">
+        <v>0</v>
+      </c>
+      <c r="AA173">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:29">
+      <c r="A174" s="1">
+        <v>172</v>
+      </c>
+      <c r="B174">
+        <v>7901796</v>
+      </c>
+      <c r="C174" t="s">
+        <v>28</v>
+      </c>
+      <c r="D174" t="s">
+        <v>28</v>
+      </c>
+      <c r="E174" s="2">
+        <v>45353.375</v>
+      </c>
+      <c r="F174" t="s">
+        <v>42</v>
+      </c>
+      <c r="G174" t="s">
+        <v>37</v>
+      </c>
+      <c r="K174">
+        <v>1.4</v>
+      </c>
+      <c r="L174">
+        <v>3.6</v>
+      </c>
+      <c r="M174">
+        <v>8</v>
+      </c>
+      <c r="N174">
+        <v>1.65</v>
+      </c>
+      <c r="O174">
+        <v>3.5</v>
+      </c>
+      <c r="P174">
+        <v>4.75</v>
+      </c>
+      <c r="Q174">
+        <v>-0.75</v>
+      </c>
+      <c r="R174">
+        <v>1.825</v>
+      </c>
+      <c r="S174">
+        <v>1.975</v>
+      </c>
+      <c r="T174">
+        <v>2.5</v>
+      </c>
+      <c r="U174">
+        <v>1.975</v>
+      </c>
+      <c r="V174">
+        <v>1.825</v>
+      </c>
+      <c r="W174">
+        <v>0</v>
+      </c>
+      <c r="X174">
+        <v>0</v>
+      </c>
+      <c r="Y174">
+        <v>0</v>
+      </c>
+      <c r="Z174">
+        <v>0</v>
+      </c>
+      <c r="AA174">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:29">
+      <c r="A175" s="1">
+        <v>173</v>
+      </c>
+      <c r="B175">
+        <v>7901795</v>
+      </c>
+      <c r="C175" t="s">
+        <v>28</v>
+      </c>
+      <c r="D175" t="s">
+        <v>28</v>
+      </c>
+      <c r="E175" s="2">
+        <v>45353.375</v>
+      </c>
+      <c r="F175" t="s">
+        <v>38</v>
+      </c>
+      <c r="G175" t="s">
+        <v>35</v>
+      </c>
+      <c r="K175">
+        <v>1.666</v>
+      </c>
+      <c r="L175">
+        <v>3.4</v>
+      </c>
+      <c r="M175">
+        <v>4.5</v>
+      </c>
+      <c r="N175">
+        <v>1.444</v>
+      </c>
+      <c r="O175">
+        <v>3.75</v>
+      </c>
+      <c r="P175">
+        <v>7</v>
+      </c>
+      <c r="Q175">
+        <v>-1.25</v>
+      </c>
+      <c r="R175">
+        <v>2.025</v>
+      </c>
+      <c r="S175">
+        <v>1.775</v>
+      </c>
+      <c r="T175">
+        <v>2.25</v>
+      </c>
+      <c r="U175">
+        <v>1.9</v>
+      </c>
+      <c r="V175">
+        <v>1.9</v>
+      </c>
+      <c r="W175">
+        <v>0</v>
+      </c>
+      <c r="X175">
+        <v>0</v>
+      </c>
+      <c r="Y175">
+        <v>0</v>
+      </c>
+      <c r="Z175">
+        <v>0</v>
+      </c>
+      <c r="AA175">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:29">
+      <c r="A176" s="1">
+        <v>174</v>
+      </c>
+      <c r="B176">
+        <v>7901792</v>
+      </c>
+      <c r="C176" t="s">
+        <v>28</v>
+      </c>
+      <c r="D176" t="s">
+        <v>28</v>
+      </c>
+      <c r="E176" s="2">
+        <v>45353.375</v>
+      </c>
+      <c r="F176" t="s">
+        <v>40</v>
+      </c>
+      <c r="G176" t="s">
+        <v>36</v>
+      </c>
+      <c r="K176">
+        <v>1.833</v>
+      </c>
+      <c r="L176">
+        <v>3.1</v>
+      </c>
+      <c r="M176">
+        <v>4</v>
+      </c>
+      <c r="N176">
+        <v>1.833</v>
+      </c>
+      <c r="O176">
+        <v>3.1</v>
+      </c>
+      <c r="P176">
+        <v>4</v>
+      </c>
+      <c r="Q176">
+        <v>-0.5</v>
+      </c>
+      <c r="R176">
+        <v>1.9</v>
+      </c>
+      <c r="S176">
+        <v>1.9</v>
+      </c>
+      <c r="T176">
+        <v>2</v>
+      </c>
+      <c r="U176">
+        <v>1.8</v>
+      </c>
+      <c r="V176">
+        <v>2</v>
+      </c>
+      <c r="W176">
+        <v>0</v>
+      </c>
+      <c r="X176">
+        <v>0</v>
+      </c>
+      <c r="Y176">
+        <v>0</v>
+      </c>
+      <c r="Z176">
+        <v>0</v>
+      </c>
+      <c r="AA176">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:27">
+      <c r="A177" s="1">
+        <v>175</v>
+      </c>
+      <c r="B177">
+        <v>7901797</v>
+      </c>
+      <c r="C177" t="s">
+        <v>28</v>
+      </c>
+      <c r="D177" t="s">
+        <v>28</v>
+      </c>
+      <c r="E177" s="2">
+        <v>45353.54166666666</v>
+      </c>
+      <c r="F177" t="s">
+        <v>43</v>
+      </c>
+      <c r="G177" t="s">
+        <v>44</v>
+      </c>
+      <c r="K177">
+        <v>2</v>
+      </c>
+      <c r="L177">
+        <v>3</v>
+      </c>
+      <c r="M177">
+        <v>3.6</v>
+      </c>
+      <c r="N177">
+        <v>1.7</v>
+      </c>
+      <c r="O177">
+        <v>3.2</v>
+      </c>
+      <c r="P177">
+        <v>4.75</v>
+      </c>
+      <c r="Q177">
+        <v>-0.75</v>
+      </c>
+      <c r="R177">
+        <v>2</v>
+      </c>
+      <c r="S177">
+        <v>1.8</v>
+      </c>
+      <c r="T177">
+        <v>2</v>
+      </c>
+      <c r="U177">
+        <v>1.95</v>
+      </c>
+      <c r="V177">
+        <v>1.85</v>
+      </c>
+      <c r="W177">
+        <v>0</v>
+      </c>
+      <c r="X177">
+        <v>0</v>
+      </c>
+      <c r="Y177">
+        <v>0</v>
+      </c>
+      <c r="Z177">
+        <v>0</v>
+      </c>
+      <c r="AA177">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Serbia Prva Liga/Serbia Prva Liga.xlsx
+++ b/Serbia Prva Liga/Serbia Prva Liga.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="901" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="908" uniqueCount="48">
   <si>
     <t>id</t>
   </si>
@@ -112,10 +112,10 @@
     <t>Smederevo</t>
   </si>
   <si>
-    <t>Sloboda Uzice</t>
+    <t>Metalac Gornji</t>
   </si>
   <si>
-    <t>Metalac Gornji</t>
+    <t>Sloboda Uzice</t>
   </si>
   <si>
     <t>FK Mladost Gat Novi Sad</t>
@@ -139,10 +139,10 @@
     <t>FK Indija</t>
   </si>
   <si>
-    <t>RFK Novi Sad 1921</t>
+    <t>OFK Belgrade</t>
   </si>
   <si>
-    <t>OFK Belgrade</t>
+    <t>RFK Novi Sad 1921</t>
   </si>
   <si>
     <t>FK Kolubara</t>
@@ -720,7 +720,7 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H3">
         <v>4</v>
@@ -883,7 +883,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6989660</v>
+        <v>6989595</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -898,52 +898,52 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J5" t="s">
         <v>46</v>
       </c>
       <c r="K5">
-        <v>1.8</v>
+        <v>2.45</v>
       </c>
       <c r="L5">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M5">
-        <v>4</v>
+        <v>2.55</v>
       </c>
       <c r="N5">
-        <v>1.8</v>
+        <v>2.15</v>
       </c>
       <c r="O5">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="P5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q5">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R5">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S5">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="T5">
         <v>2.25</v>
       </c>
       <c r="U5">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="V5">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="W5">
         <v>-1</v>
@@ -952,19 +952,19 @@
         <v>-1</v>
       </c>
       <c r="Y5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Z5">
         <v>-1</v>
       </c>
       <c r="AA5">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
       <c r="AB5">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AC5">
-        <v>0.3875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="6" spans="1:29">
@@ -972,7 +972,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6989595</v>
+        <v>6989660</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
@@ -987,52 +987,52 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J6" t="s">
         <v>46</v>
       </c>
       <c r="K6">
-        <v>2.45</v>
+        <v>1.8</v>
       </c>
       <c r="L6">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M6">
-        <v>2.55</v>
+        <v>4</v>
       </c>
       <c r="N6">
-        <v>2.15</v>
+        <v>1.8</v>
       </c>
       <c r="O6">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="P6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q6">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R6">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="S6">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T6">
         <v>2.25</v>
       </c>
       <c r="U6">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="V6">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="W6">
         <v>-1</v>
@@ -1041,19 +1041,19 @@
         <v>-1</v>
       </c>
       <c r="Y6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Z6">
         <v>-1</v>
       </c>
       <c r="AA6">
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
       <c r="AB6">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AC6">
-        <v>-1</v>
+        <v>0.3875</v>
       </c>
     </row>
     <row r="7" spans="1:29">
@@ -1506,7 +1506,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6989662</v>
+        <v>6989663</v>
       </c>
       <c r="C12" t="s">
         <v>28</v>
@@ -1518,76 +1518,76 @@
         <v>45150.52083333334</v>
       </c>
       <c r="F12" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="G12" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I12">
         <v>1</v>
       </c>
       <c r="J12" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K12">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="L12">
         <v>3</v>
       </c>
       <c r="M12">
-        <v>2.625</v>
+        <v>3</v>
       </c>
       <c r="N12">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="O12">
-        <v>3</v>
+        <v>2.875</v>
       </c>
       <c r="P12">
-        <v>3.4</v>
+        <v>2.9</v>
       </c>
       <c r="Q12">
         <v>-0.25</v>
       </c>
       <c r="R12">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="S12">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="T12">
         <v>2</v>
       </c>
       <c r="U12">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V12">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W12">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X12">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Y12">
         <v>-1</v>
       </c>
       <c r="Z12">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AA12">
-        <v>-1</v>
+        <v>0.35</v>
       </c>
       <c r="AB12">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AC12">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="13" spans="1:29">
@@ -1595,7 +1595,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6989663</v>
+        <v>6989662</v>
       </c>
       <c r="C13" t="s">
         <v>28</v>
@@ -1607,76 +1607,76 @@
         <v>45150.52083333334</v>
       </c>
       <c r="F13" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="G13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I13">
         <v>1</v>
       </c>
       <c r="J13" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K13">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="L13">
         <v>3</v>
       </c>
       <c r="M13">
+        <v>2.625</v>
+      </c>
+      <c r="N13">
+        <v>2</v>
+      </c>
+      <c r="O13">
         <v>3</v>
       </c>
-      <c r="N13">
-        <v>2.4</v>
-      </c>
-      <c r="O13">
-        <v>2.875</v>
-      </c>
       <c r="P13">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="Q13">
         <v>-0.25</v>
       </c>
       <c r="R13">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S13">
-        <v>1.7</v>
+        <v>2</v>
       </c>
       <c r="T13">
         <v>2</v>
       </c>
       <c r="U13">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V13">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W13">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X13">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Y13">
         <v>-1</v>
       </c>
       <c r="Z13">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AA13">
-        <v>0.35</v>
+        <v>-1</v>
       </c>
       <c r="AB13">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AC13">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="14" spans="1:29">
@@ -1773,7 +1773,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6989498</v>
+        <v>6989661</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
@@ -1788,73 +1788,73 @@
         <v>41</v>
       </c>
       <c r="G15" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H15">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I15">
         <v>1</v>
       </c>
       <c r="J15" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K15">
-        <v>1.909</v>
+        <v>1.833</v>
       </c>
       <c r="L15">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="M15">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="N15">
-        <v>2.75</v>
+        <v>1.75</v>
       </c>
       <c r="O15">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="P15">
-        <v>2.45</v>
+        <v>4</v>
       </c>
       <c r="Q15">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R15">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="S15">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="T15">
         <v>2.25</v>
       </c>
       <c r="U15">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V15">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W15">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="X15">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Y15">
         <v>-1</v>
       </c>
       <c r="Z15">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AA15">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB15">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC15">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="16" spans="1:29">
@@ -1862,7 +1862,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6989661</v>
+        <v>6989498</v>
       </c>
       <c r="C16" t="s">
         <v>28</v>
@@ -1877,73 +1877,73 @@
         <v>42</v>
       </c>
       <c r="G16" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H16">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I16">
         <v>1</v>
       </c>
       <c r="J16" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K16">
-        <v>1.833</v>
+        <v>1.909</v>
       </c>
       <c r="L16">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="M16">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="N16">
-        <v>1.75</v>
+        <v>2.75</v>
       </c>
       <c r="O16">
-        <v>3.4</v>
+        <v>2.9</v>
       </c>
       <c r="P16">
-        <v>4</v>
+        <v>2.45</v>
       </c>
       <c r="Q16">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R16">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="S16">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="T16">
         <v>2.25</v>
       </c>
       <c r="U16">
+        <v>1.875</v>
+      </c>
+      <c r="V16">
+        <v>1.925</v>
+      </c>
+      <c r="W16">
+        <v>-1</v>
+      </c>
+      <c r="X16">
         <v>1.9</v>
       </c>
-      <c r="V16">
-        <v>1.9</v>
-      </c>
-      <c r="W16">
-        <v>0.75</v>
-      </c>
-      <c r="X16">
-        <v>-1</v>
-      </c>
       <c r="Y16">
         <v>-1</v>
       </c>
       <c r="Z16">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AA16">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB16">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AC16">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="17" spans="1:29">
@@ -2141,7 +2141,7 @@
         <v>45157.58333333334</v>
       </c>
       <c r="F19" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G19" t="s">
         <v>39</v>
@@ -2218,7 +2218,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>7019003</v>
+        <v>6989664</v>
       </c>
       <c r="C20" t="s">
         <v>28</v>
@@ -2230,76 +2230,76 @@
         <v>45157.58333333334</v>
       </c>
       <c r="F20" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G20" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K20">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="L20">
+        <v>2.875</v>
+      </c>
+      <c r="M20">
         <v>3</v>
       </c>
-      <c r="M20">
-        <v>2.625</v>
-      </c>
       <c r="N20">
-        <v>3</v>
+        <v>2.15</v>
       </c>
       <c r="O20">
-        <v>2.875</v>
+        <v>2.9</v>
       </c>
       <c r="P20">
-        <v>2.375</v>
+        <v>3.25</v>
       </c>
       <c r="Q20">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R20">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="S20">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="T20">
         <v>2</v>
       </c>
       <c r="U20">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V20">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W20">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X20">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Y20">
         <v>-1</v>
       </c>
       <c r="Z20">
-        <v>0.375</v>
+        <v>0.925</v>
       </c>
       <c r="AA20">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB20">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC20">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="21" spans="1:29">
@@ -2307,7 +2307,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6989664</v>
+        <v>7019003</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -2319,76 +2319,76 @@
         <v>45157.58333333334</v>
       </c>
       <c r="F21" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G21" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21" t="s">
+        <v>47</v>
+      </c>
+      <c r="K21">
+        <v>2.5</v>
+      </c>
+      <c r="L21">
         <v>3</v>
       </c>
-      <c r="I21">
-        <v>0</v>
-      </c>
-      <c r="J21" t="s">
-        <v>45</v>
-      </c>
-      <c r="K21">
-        <v>2.3</v>
-      </c>
-      <c r="L21">
+      <c r="M21">
+        <v>2.625</v>
+      </c>
+      <c r="N21">
+        <v>3</v>
+      </c>
+      <c r="O21">
         <v>2.875</v>
       </c>
-      <c r="M21">
-        <v>3</v>
-      </c>
-      <c r="N21">
-        <v>2.15</v>
-      </c>
-      <c r="O21">
-        <v>2.9</v>
-      </c>
       <c r="P21">
-        <v>3.25</v>
+        <v>2.375</v>
       </c>
       <c r="Q21">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R21">
-        <v>1.925</v>
+        <v>1.75</v>
       </c>
       <c r="S21">
+        <v>2.05</v>
+      </c>
+      <c r="T21">
+        <v>2</v>
+      </c>
+      <c r="U21">
+        <v>1.975</v>
+      </c>
+      <c r="V21">
+        <v>1.825</v>
+      </c>
+      <c r="W21">
+        <v>-1</v>
+      </c>
+      <c r="X21">
         <v>1.875</v>
       </c>
-      <c r="T21">
-        <v>2</v>
-      </c>
-      <c r="U21">
-        <v>1.925</v>
-      </c>
-      <c r="V21">
-        <v>1.875</v>
-      </c>
-      <c r="W21">
-        <v>1.15</v>
-      </c>
-      <c r="X21">
-        <v>-1</v>
-      </c>
       <c r="Y21">
         <v>-1</v>
       </c>
       <c r="Z21">
-        <v>0.925</v>
+        <v>0.375</v>
       </c>
       <c r="AA21">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB21">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC21">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="22" spans="1:29">
@@ -2396,7 +2396,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6989499</v>
+        <v>6989600</v>
       </c>
       <c r="C22" t="s">
         <v>28</v>
@@ -2408,56 +2408,56 @@
         <v>45158.5</v>
       </c>
       <c r="F22" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G22" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J22" t="s">
         <v>46</v>
       </c>
       <c r="K22">
-        <v>1.727</v>
+        <v>1.95</v>
       </c>
       <c r="L22">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M22">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="N22">
-        <v>1.85</v>
+        <v>2.375</v>
       </c>
       <c r="O22">
         <v>3.1</v>
       </c>
       <c r="P22">
-        <v>4</v>
+        <v>2.75</v>
       </c>
       <c r="Q22">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R22">
+        <v>1.75</v>
+      </c>
+      <c r="S22">
+        <v>2.05</v>
+      </c>
+      <c r="T22">
+        <v>2.25</v>
+      </c>
+      <c r="U22">
         <v>1.925</v>
       </c>
-      <c r="S22">
+      <c r="V22">
         <v>1.875</v>
       </c>
-      <c r="T22">
-        <v>2</v>
-      </c>
-      <c r="U22">
-        <v>2</v>
-      </c>
-      <c r="V22">
-        <v>1.8</v>
-      </c>
       <c r="W22">
         <v>-1</v>
       </c>
@@ -2465,19 +2465,19 @@
         <v>-1</v>
       </c>
       <c r="Y22">
-        <v>3</v>
+        <v>1.75</v>
       </c>
       <c r="Z22">
         <v>-1</v>
       </c>
       <c r="AA22">
-        <v>0.875</v>
+        <v>1.05</v>
       </c>
       <c r="AB22">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC22">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="23" spans="1:29">
@@ -2574,7 +2574,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6989600</v>
+        <v>6989499</v>
       </c>
       <c r="C24" t="s">
         <v>28</v>
@@ -2586,55 +2586,55 @@
         <v>45158.5</v>
       </c>
       <c r="F24" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G24" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J24" t="s">
         <v>46</v>
       </c>
       <c r="K24">
-        <v>1.95</v>
+        <v>1.727</v>
       </c>
       <c r="L24">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M24">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="N24">
-        <v>2.375</v>
+        <v>1.85</v>
       </c>
       <c r="O24">
         <v>3.1</v>
       </c>
       <c r="P24">
-        <v>2.75</v>
+        <v>4</v>
       </c>
       <c r="Q24">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R24">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="S24">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="T24">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U24">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V24">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="W24">
         <v>-1</v>
@@ -2643,19 +2643,19 @@
         <v>-1</v>
       </c>
       <c r="Y24">
-        <v>1.75</v>
+        <v>3</v>
       </c>
       <c r="Z24">
         <v>-1</v>
       </c>
       <c r="AA24">
-        <v>1.05</v>
+        <v>0.875</v>
       </c>
       <c r="AB24">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC24">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="25" spans="1:29">
@@ -2678,7 +2678,7 @@
         <v>44</v>
       </c>
       <c r="G25" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H25">
         <v>2</v>
@@ -2752,7 +2752,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>7121256</v>
+        <v>7121255</v>
       </c>
       <c r="C26" t="s">
         <v>28</v>
@@ -2764,49 +2764,49 @@
         <v>45164.5</v>
       </c>
       <c r="F26" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G26" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="H26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I26">
         <v>1</v>
       </c>
       <c r="J26" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K26">
-        <v>1.833</v>
+        <v>1.45</v>
       </c>
       <c r="L26">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="M26">
+        <v>6</v>
+      </c>
+      <c r="N26">
+        <v>1.4</v>
+      </c>
+      <c r="O26">
         <v>4.2</v>
       </c>
-      <c r="N26">
-        <v>1.833</v>
-      </c>
-      <c r="O26">
-        <v>3.1</v>
-      </c>
       <c r="P26">
-        <v>4.333</v>
+        <v>6.5</v>
       </c>
       <c r="Q26">
-        <v>-0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R26">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S26">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T26">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U26">
         <v>1.85</v>
@@ -2815,25 +2815,25 @@
         <v>1.95</v>
       </c>
       <c r="W26">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X26">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y26">
         <v>-1</v>
       </c>
       <c r="Z26">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA26">
-        <v>0.95</v>
+        <v>0.4625</v>
       </c>
       <c r="AB26">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC26">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="27" spans="1:29">
@@ -2930,7 +2930,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>7121255</v>
+        <v>7121256</v>
       </c>
       <c r="C28" t="s">
         <v>28</v>
@@ -2942,49 +2942,49 @@
         <v>45164.5</v>
       </c>
       <c r="F28" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G28" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="H28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I28">
         <v>1</v>
       </c>
       <c r="J28" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K28">
-        <v>1.45</v>
+        <v>1.833</v>
       </c>
       <c r="L28">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="M28">
-        <v>6</v>
+        <v>4.2</v>
       </c>
       <c r="N28">
-        <v>1.4</v>
+        <v>1.833</v>
       </c>
       <c r="O28">
-        <v>4.2</v>
+        <v>3.1</v>
       </c>
       <c r="P28">
-        <v>6.5</v>
+        <v>4.333</v>
       </c>
       <c r="Q28">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R28">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S28">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T28">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U28">
         <v>1.85</v>
@@ -2993,25 +2993,25 @@
         <v>1.95</v>
       </c>
       <c r="W28">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X28">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y28">
         <v>-1</v>
       </c>
       <c r="Z28">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA28">
-        <v>0.4625</v>
+        <v>0.95</v>
       </c>
       <c r="AB28">
-        <v>0.8500000000000001</v>
+        <v>0</v>
       </c>
       <c r="AC28">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="29" spans="1:29">
@@ -3108,7 +3108,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>6989502</v>
+        <v>6989601</v>
       </c>
       <c r="C30" t="s">
         <v>28</v>
@@ -3120,76 +3120,76 @@
         <v>45165.5</v>
       </c>
       <c r="F30" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G30" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H30">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I30">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J30" t="s">
         <v>47</v>
       </c>
       <c r="K30">
-        <v>1.7</v>
+        <v>2.3</v>
       </c>
       <c r="L30">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="M30">
-        <v>4.5</v>
+        <v>2.8</v>
       </c>
       <c r="N30">
-        <v>1.4</v>
+        <v>2.3</v>
       </c>
       <c r="O30">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="P30">
-        <v>6.5</v>
+        <v>2.8</v>
       </c>
       <c r="Q30">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R30">
-        <v>1.725</v>
+        <v>2</v>
       </c>
       <c r="S30">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="T30">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U30">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V30">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W30">
         <v>-1</v>
       </c>
       <c r="X30">
-        <v>2.8</v>
+        <v>2.1</v>
       </c>
       <c r="Y30">
         <v>-1</v>
       </c>
       <c r="Z30">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA30">
-        <v>0.9750000000000001</v>
+        <v>0.4</v>
       </c>
       <c r="AB30">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC30">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:29">
@@ -3197,7 +3197,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>6989601</v>
+        <v>6989602</v>
       </c>
       <c r="C31" t="s">
         <v>28</v>
@@ -3209,76 +3209,76 @@
         <v>45165.5</v>
       </c>
       <c r="F31" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G31" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I31">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K31">
-        <v>2.3</v>
+        <v>1.666</v>
       </c>
       <c r="L31">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="M31">
-        <v>2.8</v>
+        <v>4.5</v>
       </c>
       <c r="N31">
-        <v>2.3</v>
+        <v>1.666</v>
       </c>
       <c r="O31">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="P31">
-        <v>2.8</v>
+        <v>4.5</v>
       </c>
       <c r="Q31">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R31">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S31">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T31">
         <v>2</v>
       </c>
       <c r="U31">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="V31">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="W31">
         <v>-1</v>
       </c>
       <c r="X31">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y31">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Z31">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA31">
-        <v>0.4</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB31">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AC31">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="32" spans="1:29">
@@ -3286,7 +3286,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>6989602</v>
+        <v>6989502</v>
       </c>
       <c r="C32" t="s">
         <v>28</v>
@@ -3298,73 +3298,73 @@
         <v>45165.5</v>
       </c>
       <c r="F32" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="G32" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I32">
         <v>2</v>
       </c>
       <c r="J32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K32">
-        <v>1.666</v>
+        <v>1.7</v>
       </c>
       <c r="L32">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M32">
         <v>4.5</v>
       </c>
       <c r="N32">
-        <v>1.666</v>
+        <v>1.4</v>
       </c>
       <c r="O32">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="P32">
-        <v>4.5</v>
+        <v>6.5</v>
       </c>
       <c r="Q32">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R32">
-        <v>1.95</v>
+        <v>1.725</v>
       </c>
       <c r="S32">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T32">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U32">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="V32">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="W32">
         <v>-1</v>
       </c>
       <c r="X32">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y32">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Z32">
         <v>-1</v>
       </c>
       <c r="AA32">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB32">
-        <v>0.75</v>
+        <v>0.825</v>
       </c>
       <c r="AC32">
         <v>-1</v>
@@ -3390,7 +3390,7 @@
         <v>43</v>
       </c>
       <c r="G33" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H33">
         <v>1</v>
@@ -3743,7 +3743,7 @@
         <v>45171.58333333334</v>
       </c>
       <c r="F37" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G37" t="s">
         <v>31</v>
@@ -3921,7 +3921,7 @@
         <v>45172.5</v>
       </c>
       <c r="F39" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G39" t="s">
         <v>37</v>
@@ -4010,7 +4010,7 @@
         <v>45172.58333333334</v>
       </c>
       <c r="F40" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G40" t="s">
         <v>38</v>
@@ -4102,7 +4102,7 @@
         <v>44</v>
       </c>
       <c r="G41" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H41">
         <v>3</v>
@@ -4265,7 +4265,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>6989604</v>
+        <v>6989605</v>
       </c>
       <c r="C43" t="s">
         <v>28</v>
@@ -4277,37 +4277,37 @@
         <v>45178.47916666666</v>
       </c>
       <c r="F43" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G43" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J43" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K43">
-        <v>2.05</v>
+        <v>2.15</v>
       </c>
       <c r="L43">
+        <v>3.1</v>
+      </c>
+      <c r="M43">
         <v>3.25</v>
-      </c>
-      <c r="M43">
-        <v>3.3</v>
       </c>
       <c r="N43">
         <v>2.1</v>
       </c>
       <c r="O43">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="P43">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="Q43">
         <v>-0.25</v>
@@ -4319,34 +4319,34 @@
         <v>1.975</v>
       </c>
       <c r="T43">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U43">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V43">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="W43">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X43">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y43">
         <v>-1</v>
       </c>
       <c r="Z43">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AA43">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AB43">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC43">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="44" spans="1:29">
@@ -4354,7 +4354,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>6989605</v>
+        <v>6989671</v>
       </c>
       <c r="C44" t="s">
         <v>28</v>
@@ -4366,13 +4366,13 @@
         <v>45178.47916666666</v>
       </c>
       <c r="F44" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G44" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H44">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I44">
         <v>1</v>
@@ -4381,34 +4381,34 @@
         <v>45</v>
       </c>
       <c r="K44">
-        <v>2.15</v>
+        <v>2.3</v>
       </c>
       <c r="L44">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="M44">
         <v>3.25</v>
       </c>
       <c r="N44">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="O44">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="P44">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="Q44">
         <v>-0.25</v>
       </c>
       <c r="R44">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S44">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="T44">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U44">
         <v>2</v>
@@ -4417,7 +4417,7 @@
         <v>1.8</v>
       </c>
       <c r="W44">
-        <v>1.1</v>
+        <v>1.3</v>
       </c>
       <c r="X44">
         <v>-1</v>
@@ -4426,7 +4426,7 @@
         <v>-1</v>
       </c>
       <c r="Z44">
-        <v>0.825</v>
+        <v>1</v>
       </c>
       <c r="AA44">
         <v>-1</v>
@@ -4443,7 +4443,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>6989671</v>
+        <v>6989604</v>
       </c>
       <c r="C45" t="s">
         <v>28</v>
@@ -4455,76 +4455,76 @@
         <v>45178.47916666666</v>
       </c>
       <c r="F45" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="G45" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="H45">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J45" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K45">
-        <v>2.3</v>
+        <v>2.05</v>
       </c>
       <c r="L45">
-        <v>2.8</v>
+        <v>3.25</v>
       </c>
       <c r="M45">
+        <v>3.3</v>
+      </c>
+      <c r="N45">
+        <v>2.1</v>
+      </c>
+      <c r="O45">
         <v>3.25</v>
       </c>
-      <c r="N45">
-        <v>2.3</v>
-      </c>
-      <c r="O45">
-        <v>2.8</v>
-      </c>
       <c r="P45">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="Q45">
         <v>-0.25</v>
       </c>
       <c r="R45">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S45">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="T45">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U45">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V45">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W45">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="X45">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y45">
         <v>-1</v>
       </c>
       <c r="Z45">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA45">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AB45">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC45">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="46" spans="1:29">
@@ -4547,7 +4547,7 @@
         <v>34</v>
       </c>
       <c r="G46" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H46">
         <v>0</v>
@@ -4633,10 +4633,10 @@
         <v>45179.47916666666</v>
       </c>
       <c r="F47" t="s">
+        <v>41</v>
+      </c>
+      <c r="G47" t="s">
         <v>42</v>
-      </c>
-      <c r="G47" t="s">
-        <v>41</v>
       </c>
       <c r="H47">
         <v>4</v>
@@ -4900,7 +4900,7 @@
         <v>45185.58333333334</v>
       </c>
       <c r="F50" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G50" t="s">
         <v>29</v>
@@ -5155,7 +5155,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>6989507</v>
+        <v>6989609</v>
       </c>
       <c r="C53" t="s">
         <v>28</v>
@@ -5167,76 +5167,76 @@
         <v>45186.45833333334</v>
       </c>
       <c r="F53" t="s">
+        <v>37</v>
+      </c>
+      <c r="G53" t="s">
         <v>41</v>
       </c>
-      <c r="G53" t="s">
-        <v>39</v>
-      </c>
       <c r="H53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I53">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J53" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K53">
-        <v>3</v>
+        <v>2.3</v>
       </c>
       <c r="L53">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="M53">
-        <v>2.25</v>
+        <v>2.55</v>
       </c>
       <c r="N53">
-        <v>4</v>
+        <v>2.9</v>
       </c>
       <c r="O53">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="P53">
-        <v>1.8</v>
+        <v>2.15</v>
       </c>
       <c r="Q53">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R53">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S53">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T53">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U53">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V53">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W53">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="X53">
         <v>-1</v>
       </c>
       <c r="Y53">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="Z53">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA53">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB53">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC53">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="54" spans="1:29">
@@ -5244,7 +5244,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>6989609</v>
+        <v>6989507</v>
       </c>
       <c r="C54" t="s">
         <v>28</v>
@@ -5256,76 +5256,76 @@
         <v>45186.45833333334</v>
       </c>
       <c r="F54" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="G54" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I54">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J54" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K54">
-        <v>2.3</v>
+        <v>3</v>
       </c>
       <c r="L54">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="M54">
-        <v>2.55</v>
+        <v>2.25</v>
       </c>
       <c r="N54">
-        <v>2.9</v>
+        <v>4</v>
       </c>
       <c r="O54">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="P54">
-        <v>2.15</v>
+        <v>1.8</v>
       </c>
       <c r="Q54">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R54">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S54">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T54">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U54">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V54">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W54">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="X54">
         <v>-1</v>
       </c>
       <c r="Y54">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="Z54">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA54">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB54">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC54">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="55" spans="1:29">
@@ -5434,7 +5434,7 @@
         <v>45186.58333333334</v>
       </c>
       <c r="F56" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G56" t="s">
         <v>34</v>
@@ -5615,7 +5615,7 @@
         <v>40</v>
       </c>
       <c r="G58" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H58">
         <v>0</v>
@@ -5689,7 +5689,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>7018992</v>
+        <v>6989676</v>
       </c>
       <c r="C59" t="s">
         <v>28</v>
@@ -5701,76 +5701,76 @@
         <v>45191.58333333334</v>
       </c>
       <c r="F59" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="G59" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="H59">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I59">
+        <v>0</v>
+      </c>
+      <c r="J59" t="s">
+        <v>47</v>
+      </c>
+      <c r="K59">
+        <v>1.95</v>
+      </c>
+      <c r="L59">
+        <v>3.1</v>
+      </c>
+      <c r="M59">
+        <v>3.6</v>
+      </c>
+      <c r="N59">
+        <v>1.75</v>
+      </c>
+      <c r="O59">
+        <v>3.25</v>
+      </c>
+      <c r="P59">
+        <v>4.2</v>
+      </c>
+      <c r="Q59">
+        <v>-0.5</v>
+      </c>
+      <c r="R59">
+        <v>1.8</v>
+      </c>
+      <c r="S59">
+        <v>2</v>
+      </c>
+      <c r="T59">
+        <v>2</v>
+      </c>
+      <c r="U59">
+        <v>1.95</v>
+      </c>
+      <c r="V59">
+        <v>1.85</v>
+      </c>
+      <c r="W59">
+        <v>-1</v>
+      </c>
+      <c r="X59">
+        <v>2.25</v>
+      </c>
+      <c r="Y59">
+        <v>-1</v>
+      </c>
+      <c r="Z59">
+        <v>-1</v>
+      </c>
+      <c r="AA59">
         <v>1</v>
       </c>
-      <c r="J59" t="s">
-        <v>45</v>
-      </c>
-      <c r="K59">
-        <v>1.4</v>
-      </c>
-      <c r="L59">
-        <v>4.2</v>
-      </c>
-      <c r="M59">
-        <v>6.5</v>
-      </c>
-      <c r="N59">
-        <v>1.4</v>
-      </c>
-      <c r="O59">
-        <v>4</v>
-      </c>
-      <c r="P59">
-        <v>7</v>
-      </c>
-      <c r="Q59">
-        <v>-1.25</v>
-      </c>
-      <c r="R59">
-        <v>1.85</v>
-      </c>
-      <c r="S59">
-        <v>1.95</v>
-      </c>
-      <c r="T59">
-        <v>2.5</v>
-      </c>
-      <c r="U59">
-        <v>1.85</v>
-      </c>
-      <c r="V59">
-        <v>1.95</v>
-      </c>
-      <c r="W59">
-        <v>0.3999999999999999</v>
-      </c>
-      <c r="X59">
-        <v>-1</v>
-      </c>
-      <c r="Y59">
-        <v>-1</v>
-      </c>
-      <c r="Z59">
+      <c r="AB59">
+        <v>-1</v>
+      </c>
+      <c r="AC59">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AA59">
-        <v>-1</v>
-      </c>
-      <c r="AB59">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="AC59">
-        <v>-1</v>
       </c>
     </row>
     <row r="60" spans="1:29">
@@ -5778,7 +5778,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>6989676</v>
+        <v>7018992</v>
       </c>
       <c r="C60" t="s">
         <v>28</v>
@@ -5790,76 +5790,76 @@
         <v>45191.58333333334</v>
       </c>
       <c r="F60" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="G60" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J60" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K60">
+        <v>1.4</v>
+      </c>
+      <c r="L60">
+        <v>4.2</v>
+      </c>
+      <c r="M60">
+        <v>6.5</v>
+      </c>
+      <c r="N60">
+        <v>1.4</v>
+      </c>
+      <c r="O60">
+        <v>4</v>
+      </c>
+      <c r="P60">
+        <v>7</v>
+      </c>
+      <c r="Q60">
+        <v>-1.25</v>
+      </c>
+      <c r="R60">
+        <v>1.85</v>
+      </c>
+      <c r="S60">
         <v>1.95</v>
       </c>
-      <c r="L60">
-        <v>3.1</v>
-      </c>
-      <c r="M60">
-        <v>3.6</v>
-      </c>
-      <c r="N60">
-        <v>1.75</v>
-      </c>
-      <c r="O60">
-        <v>3.25</v>
-      </c>
-      <c r="P60">
-        <v>4.2</v>
-      </c>
-      <c r="Q60">
-        <v>-0.5</v>
-      </c>
-      <c r="R60">
-        <v>1.8</v>
-      </c>
-      <c r="S60">
-        <v>2</v>
-      </c>
       <c r="T60">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U60">
+        <v>1.85</v>
+      </c>
+      <c r="V60">
         <v>1.95</v>
       </c>
-      <c r="V60">
-        <v>1.85</v>
-      </c>
       <c r="W60">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X60">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y60">
         <v>-1</v>
       </c>
       <c r="Z60">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA60">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB60">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC60">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="61" spans="1:29">
@@ -5867,7 +5867,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>6989612</v>
+        <v>6989611</v>
       </c>
       <c r="C61" t="s">
         <v>28</v>
@@ -5879,76 +5879,76 @@
         <v>45192.45833333334</v>
       </c>
       <c r="F61" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G61" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H61">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I61">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J61" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K61">
-        <v>2.1</v>
+        <v>1.909</v>
       </c>
       <c r="L61">
-        <v>2.875</v>
+        <v>3.2</v>
       </c>
       <c r="M61">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="N61">
-        <v>2.1</v>
+        <v>1.909</v>
       </c>
       <c r="O61">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="P61">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="Q61">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R61">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S61">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T61">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U61">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="V61">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="W61">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X61">
         <v>-1</v>
       </c>
       <c r="Y61">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Z61">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA61">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB61">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AC61">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="62" spans="1:29">
@@ -5956,7 +5956,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>6989611</v>
+        <v>6989610</v>
       </c>
       <c r="C62" t="s">
         <v>28</v>
@@ -5968,73 +5968,73 @@
         <v>45192.45833333334</v>
       </c>
       <c r="F62" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G62" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="H62">
+        <v>4</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+      <c r="J62" t="s">
+        <v>45</v>
+      </c>
+      <c r="K62">
+        <v>2.2</v>
+      </c>
+      <c r="L62">
+        <v>3.1</v>
+      </c>
+      <c r="M62">
         <v>3</v>
       </c>
-      <c r="I62">
-        <v>4</v>
-      </c>
-      <c r="J62" t="s">
-        <v>46</v>
-      </c>
-      <c r="K62">
-        <v>1.909</v>
-      </c>
-      <c r="L62">
-        <v>3.2</v>
-      </c>
-      <c r="M62">
-        <v>3.6</v>
-      </c>
       <c r="N62">
-        <v>1.909</v>
+        <v>2.2</v>
       </c>
       <c r="O62">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="P62">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="Q62">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R62">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S62">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T62">
         <v>2.25</v>
       </c>
       <c r="U62">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="V62">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="W62">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X62">
         <v>-1</v>
       </c>
       <c r="Y62">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Z62">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA62">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB62">
-        <v>1.05</v>
+        <v>0.825</v>
       </c>
       <c r="AC62">
         <v>-1</v>
@@ -6223,7 +6223,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>6989610</v>
+        <v>6989612</v>
       </c>
       <c r="C65" t="s">
         <v>28</v>
@@ -6235,13 +6235,13 @@
         <v>45192.45833333334</v>
       </c>
       <c r="F65" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="G65" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="H65">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I65">
         <v>0</v>
@@ -6250,43 +6250,43 @@
         <v>45</v>
       </c>
       <c r="K65">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L65">
-        <v>3.1</v>
+        <v>2.875</v>
       </c>
       <c r="M65">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="N65">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="O65">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="P65">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="Q65">
         <v>-0.25</v>
       </c>
       <c r="R65">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="S65">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T65">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U65">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V65">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W65">
-        <v>1.2</v>
+        <v>1.1</v>
       </c>
       <c r="X65">
         <v>-1</v>
@@ -6295,16 +6295,16 @@
         <v>-1</v>
       </c>
       <c r="Z65">
-        <v>0.9750000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AA65">
         <v>-1</v>
       </c>
       <c r="AB65">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC65">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="66" spans="1:29">
@@ -6401,7 +6401,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>6989511</v>
+        <v>6989614</v>
       </c>
       <c r="C67" t="s">
         <v>28</v>
@@ -6413,58 +6413,58 @@
         <v>45200.41666666666</v>
       </c>
       <c r="F67" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G67" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="H67">
+        <v>2</v>
+      </c>
+      <c r="I67">
         <v>1</v>
-      </c>
-      <c r="I67">
-        <v>0</v>
       </c>
       <c r="J67" t="s">
         <v>45</v>
       </c>
       <c r="K67">
-        <v>1.571</v>
+        <v>2.1</v>
       </c>
       <c r="L67">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="M67">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N67">
-        <v>1.333</v>
+        <v>2.2</v>
       </c>
       <c r="O67">
-        <v>4.2</v>
+        <v>3.1</v>
       </c>
       <c r="P67">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="Q67">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R67">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S67">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T67">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U67">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="V67">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W67">
-        <v>0.333</v>
+        <v>1.2</v>
       </c>
       <c r="X67">
         <v>-1</v>
@@ -6473,16 +6473,16 @@
         <v>-1</v>
       </c>
       <c r="Z67">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA67">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AB67">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC67">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="68" spans="1:29">
@@ -6579,7 +6579,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>6989614</v>
+        <v>6989511</v>
       </c>
       <c r="C69" t="s">
         <v>28</v>
@@ -6591,58 +6591,58 @@
         <v>45200.41666666666</v>
       </c>
       <c r="F69" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G69" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="H69">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J69" t="s">
         <v>45</v>
       </c>
       <c r="K69">
-        <v>2.1</v>
+        <v>1.571</v>
       </c>
       <c r="L69">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="M69">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N69">
-        <v>2.2</v>
+        <v>1.333</v>
       </c>
       <c r="O69">
-        <v>3.1</v>
+        <v>4.2</v>
       </c>
       <c r="P69">
-        <v>3</v>
+        <v>7.5</v>
       </c>
       <c r="Q69">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R69">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S69">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="T69">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U69">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="V69">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W69">
-        <v>1.2</v>
+        <v>0.333</v>
       </c>
       <c r="X69">
         <v>-1</v>
@@ -6651,16 +6651,16 @@
         <v>-1</v>
       </c>
       <c r="Z69">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AA69">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AB69">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC69">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="70" spans="1:29">
@@ -6769,10 +6769,10 @@
         <v>45200.58333333334</v>
       </c>
       <c r="F71" t="s">
+        <v>33</v>
+      </c>
+      <c r="G71" t="s">
         <v>32</v>
-      </c>
-      <c r="G71" t="s">
-        <v>33</v>
       </c>
       <c r="H71">
         <v>0</v>
@@ -6950,7 +6950,7 @@
         <v>43</v>
       </c>
       <c r="G73" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H73">
         <v>1</v>
@@ -7039,7 +7039,7 @@
         <v>30</v>
       </c>
       <c r="G74" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H74">
         <v>1</v>
@@ -7125,7 +7125,7 @@
         <v>45206.54166666666</v>
       </c>
       <c r="F75" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G75" t="s">
         <v>40</v>
@@ -7202,7 +7202,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>7308447</v>
+        <v>6989513</v>
       </c>
       <c r="C76" t="s">
         <v>28</v>
@@ -7214,76 +7214,76 @@
         <v>45207.41666666666</v>
       </c>
       <c r="F76" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="G76" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H76">
         <v>1</v>
       </c>
       <c r="I76">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J76" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K76">
-        <v>1.444</v>
+        <v>2.625</v>
       </c>
       <c r="L76">
-        <v>3.75</v>
+        <v>2.875</v>
       </c>
       <c r="M76">
-        <v>6.5</v>
+        <v>2.625</v>
       </c>
       <c r="N76">
-        <v>1.45</v>
+        <v>2.8</v>
       </c>
       <c r="O76">
-        <v>3.8</v>
+        <v>2.875</v>
       </c>
       <c r="P76">
-        <v>6</v>
+        <v>2.45</v>
       </c>
       <c r="Q76">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R76">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="S76">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="T76">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U76">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V76">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="W76">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="X76">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Y76">
         <v>-1</v>
       </c>
       <c r="Z76">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AA76">
-        <v>0.4</v>
+        <v>-0</v>
       </c>
       <c r="AB76">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC76">
-        <v>0.9750000000000001</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="77" spans="1:29">
@@ -7291,7 +7291,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>7018994</v>
+        <v>7308447</v>
       </c>
       <c r="C77" t="s">
         <v>28</v>
@@ -7303,76 +7303,76 @@
         <v>45207.41666666666</v>
       </c>
       <c r="F77" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G77" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="H77">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I77">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J77" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K77">
-        <v>2.25</v>
+        <v>1.444</v>
       </c>
       <c r="L77">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="M77">
-        <v>3</v>
+        <v>6.5</v>
       </c>
       <c r="N77">
-        <v>2.15</v>
+        <v>1.45</v>
       </c>
       <c r="O77">
-        <v>3</v>
+        <v>3.8</v>
       </c>
       <c r="P77">
-        <v>3.2</v>
+        <v>6</v>
       </c>
       <c r="Q77">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R77">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="S77">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="T77">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U77">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V77">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W77">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="X77">
         <v>-1</v>
       </c>
       <c r="Y77">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Z77">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA77">
-        <v>0.875</v>
+        <v>0.4</v>
       </c>
       <c r="AB77">
         <v>-1</v>
       </c>
       <c r="AC77">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="78" spans="1:29">
@@ -7380,7 +7380,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>6989513</v>
+        <v>7018994</v>
       </c>
       <c r="C78" t="s">
         <v>28</v>
@@ -7392,76 +7392,76 @@
         <v>45207.41666666666</v>
       </c>
       <c r="F78" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G78" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="H78">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I78">
         <v>1</v>
       </c>
       <c r="J78" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K78">
-        <v>2.625</v>
+        <v>2.25</v>
       </c>
       <c r="L78">
-        <v>2.875</v>
+        <v>3</v>
       </c>
       <c r="M78">
-        <v>2.625</v>
+        <v>3</v>
       </c>
       <c r="N78">
-        <v>2.8</v>
+        <v>2.15</v>
       </c>
       <c r="O78">
-        <v>2.875</v>
+        <v>3</v>
       </c>
       <c r="P78">
-        <v>2.45</v>
+        <v>3.2</v>
       </c>
       <c r="Q78">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R78">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="S78">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="T78">
         <v>2</v>
       </c>
       <c r="U78">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V78">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W78">
         <v>-1</v>
       </c>
       <c r="X78">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Y78">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Z78">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA78">
-        <v>-0</v>
+        <v>0.875</v>
       </c>
       <c r="AB78">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC78">
-        <v>-0</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="79" spans="1:29">
@@ -7570,7 +7570,7 @@
         <v>45208.41666666666</v>
       </c>
       <c r="F80" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G80" t="s">
         <v>34</v>
@@ -7736,7 +7736,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>6989516</v>
+        <v>7018995</v>
       </c>
       <c r="C82" t="s">
         <v>28</v>
@@ -7748,40 +7748,40 @@
         <v>45213.41666666666</v>
       </c>
       <c r="F82" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G82" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="H82">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I82">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J82" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K82">
-        <v>1.833</v>
+        <v>2.1</v>
       </c>
       <c r="L82">
         <v>3.1</v>
       </c>
       <c r="M82">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="N82">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
       <c r="O82">
         <v>3.1</v>
       </c>
       <c r="P82">
-        <v>4.2</v>
+        <v>3.25</v>
       </c>
       <c r="Q82">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R82">
         <v>1.825</v>
@@ -7793,31 +7793,31 @@
         <v>2</v>
       </c>
       <c r="U82">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V82">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W82">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X82">
         <v>-1</v>
       </c>
       <c r="Y82">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Z82">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA82">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB82">
-        <v>0.8500000000000001</v>
+        <v>0</v>
       </c>
       <c r="AC82">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="83" spans="1:29">
@@ -7825,7 +7825,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>7018995</v>
+        <v>6989516</v>
       </c>
       <c r="C83" t="s">
         <v>28</v>
@@ -7837,40 +7837,40 @@
         <v>45213.41666666666</v>
       </c>
       <c r="F83" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="G83" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I83">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J83" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K83">
-        <v>2.1</v>
+        <v>1.833</v>
       </c>
       <c r="L83">
         <v>3.1</v>
       </c>
       <c r="M83">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="N83">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="O83">
         <v>3.1</v>
       </c>
       <c r="P83">
-        <v>3.25</v>
+        <v>4.2</v>
       </c>
       <c r="Q83">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R83">
         <v>1.825</v>
@@ -7882,31 +7882,31 @@
         <v>2</v>
       </c>
       <c r="U83">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V83">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W83">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X83">
         <v>-1</v>
       </c>
       <c r="Y83">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Z83">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA83">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB83">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC83">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="84" spans="1:29">
@@ -7929,7 +7929,7 @@
         <v>31</v>
       </c>
       <c r="G84" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H84">
         <v>1</v>
@@ -8003,7 +8003,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>6989618</v>
+        <v>6989324</v>
       </c>
       <c r="C85" t="s">
         <v>28</v>
@@ -8015,76 +8015,76 @@
         <v>45214.54166666666</v>
       </c>
       <c r="F85" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G85" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="H85">
         <v>0</v>
       </c>
       <c r="I85">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J85" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K85">
-        <v>2.2</v>
+        <v>1.95</v>
       </c>
       <c r="L85">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="M85">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="N85">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="O85">
         <v>3.1</v>
       </c>
       <c r="P85">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="Q85">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R85">
+        <v>1.95</v>
+      </c>
+      <c r="S85">
+        <v>1.75</v>
+      </c>
+      <c r="T85">
+        <v>2</v>
+      </c>
+      <c r="U85">
         <v>1.9</v>
       </c>
-      <c r="S85">
+      <c r="V85">
         <v>1.9</v>
       </c>
-      <c r="T85">
-        <v>2</v>
-      </c>
-      <c r="U85">
-        <v>1.85</v>
-      </c>
-      <c r="V85">
-        <v>1.95</v>
-      </c>
       <c r="W85">
         <v>-1</v>
       </c>
       <c r="X85">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y85">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Z85">
         <v>-1</v>
       </c>
       <c r="AA85">
+        <v>0.75</v>
+      </c>
+      <c r="AB85">
+        <v>-1</v>
+      </c>
+      <c r="AC85">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AB85">
-        <v>-1</v>
-      </c>
-      <c r="AC85">
-        <v>0.95</v>
       </c>
     </row>
     <row r="86" spans="1:29">
@@ -8092,7 +8092,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>6989324</v>
+        <v>6989618</v>
       </c>
       <c r="C86" t="s">
         <v>28</v>
@@ -8104,76 +8104,76 @@
         <v>45214.54166666666</v>
       </c>
       <c r="F86" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G86" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="H86">
         <v>0</v>
       </c>
       <c r="I86">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J86" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K86">
-        <v>1.95</v>
+        <v>2.2</v>
       </c>
       <c r="L86">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="M86">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="N86">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="O86">
         <v>3.1</v>
       </c>
       <c r="P86">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="Q86">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R86">
+        <v>1.9</v>
+      </c>
+      <c r="S86">
+        <v>1.9</v>
+      </c>
+      <c r="T86">
+        <v>2</v>
+      </c>
+      <c r="U86">
+        <v>1.85</v>
+      </c>
+      <c r="V86">
         <v>1.95</v>
       </c>
-      <c r="S86">
-        <v>1.75</v>
-      </c>
-      <c r="T86">
-        <v>2</v>
-      </c>
-      <c r="U86">
-        <v>1.9</v>
-      </c>
-      <c r="V86">
-        <v>1.9</v>
-      </c>
       <c r="W86">
         <v>-1</v>
       </c>
       <c r="X86">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y86">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Z86">
         <v>-1</v>
       </c>
       <c r="AA86">
-        <v>0.75</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB86">
         <v>-1</v>
       </c>
       <c r="AC86">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="87" spans="1:29">
@@ -8181,7 +8181,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>6989515</v>
+        <v>6989684</v>
       </c>
       <c r="C87" t="s">
         <v>28</v>
@@ -8193,10 +8193,10 @@
         <v>45215.41666666666</v>
       </c>
       <c r="F87" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="G87" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H87">
         <v>1</v>
@@ -8208,43 +8208,43 @@
         <v>45</v>
       </c>
       <c r="K87">
-        <v>1.5</v>
+        <v>2.4</v>
       </c>
       <c r="L87">
+        <v>2.8</v>
+      </c>
+      <c r="M87">
+        <v>2.9</v>
+      </c>
+      <c r="N87">
         <v>3.75</v>
       </c>
-      <c r="M87">
-        <v>5.5</v>
-      </c>
-      <c r="N87">
-        <v>1.5</v>
-      </c>
       <c r="O87">
-        <v>3.75</v>
+        <v>2.9</v>
       </c>
       <c r="P87">
-        <v>6</v>
+        <v>1.95</v>
       </c>
       <c r="Q87">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="R87">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S87">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T87">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U87">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V87">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W87">
-        <v>0.5</v>
+        <v>2.75</v>
       </c>
       <c r="X87">
         <v>-1</v>
@@ -8253,16 +8253,16 @@
         <v>-1</v>
       </c>
       <c r="Z87">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AA87">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB87">
         <v>-1</v>
       </c>
       <c r="AC87">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="88" spans="1:29">
@@ -8359,7 +8359,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>6989684</v>
+        <v>6989515</v>
       </c>
       <c r="C89" t="s">
         <v>28</v>
@@ -8371,10 +8371,10 @@
         <v>45215.41666666666</v>
       </c>
       <c r="F89" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="G89" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H89">
         <v>1</v>
@@ -8386,44 +8386,44 @@
         <v>45</v>
       </c>
       <c r="K89">
-        <v>2.4</v>
+        <v>1.5</v>
       </c>
       <c r="L89">
-        <v>2.8</v>
+        <v>3.75</v>
       </c>
       <c r="M89">
-        <v>2.9</v>
+        <v>5.5</v>
       </c>
       <c r="N89">
+        <v>1.5</v>
+      </c>
+      <c r="O89">
         <v>3.75</v>
       </c>
-      <c r="O89">
-        <v>2.9</v>
-      </c>
       <c r="P89">
-        <v>1.95</v>
+        <v>6</v>
       </c>
       <c r="Q89">
+        <v>-1</v>
+      </c>
+      <c r="R89">
+        <v>1.825</v>
+      </c>
+      <c r="S89">
+        <v>1.975</v>
+      </c>
+      <c r="T89">
+        <v>2.25</v>
+      </c>
+      <c r="U89">
+        <v>2</v>
+      </c>
+      <c r="V89">
+        <v>1.8</v>
+      </c>
+      <c r="W89">
         <v>0.5</v>
       </c>
-      <c r="R89">
-        <v>1.8</v>
-      </c>
-      <c r="S89">
-        <v>2</v>
-      </c>
-      <c r="T89">
-        <v>2</v>
-      </c>
-      <c r="U89">
-        <v>1.85</v>
-      </c>
-      <c r="V89">
-        <v>1.95</v>
-      </c>
-      <c r="W89">
-        <v>2.75</v>
-      </c>
       <c r="X89">
         <v>-1</v>
       </c>
@@ -8431,16 +8431,16 @@
         <v>-1</v>
       </c>
       <c r="Z89">
+        <v>0</v>
+      </c>
+      <c r="AA89">
+        <v>-0</v>
+      </c>
+      <c r="AB89">
+        <v>-1</v>
+      </c>
+      <c r="AC89">
         <v>0.8</v>
-      </c>
-      <c r="AA89">
-        <v>-1</v>
-      </c>
-      <c r="AB89">
-        <v>-1</v>
-      </c>
-      <c r="AC89">
-        <v>0.95</v>
       </c>
     </row>
     <row r="90" spans="1:29">
@@ -8448,7 +8448,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>6989517</v>
+        <v>6989686</v>
       </c>
       <c r="C90" t="s">
         <v>28</v>
@@ -8460,10 +8460,10 @@
         <v>45220.375</v>
       </c>
       <c r="F90" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G90" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H90">
         <v>2</v>
@@ -8475,43 +8475,43 @@
         <v>45</v>
       </c>
       <c r="K90">
-        <v>2.625</v>
+        <v>1.333</v>
       </c>
       <c r="L90">
-        <v>2.875</v>
+        <v>4.333</v>
       </c>
       <c r="M90">
-        <v>2.6</v>
+        <v>7.5</v>
       </c>
       <c r="N90">
-        <v>3.6</v>
+        <v>1.45</v>
       </c>
       <c r="O90">
-        <v>3.1</v>
+        <v>4.2</v>
       </c>
       <c r="P90">
-        <v>2.05</v>
+        <v>5.75</v>
       </c>
       <c r="Q90">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="R90">
-        <v>1.725</v>
+        <v>1.75</v>
       </c>
       <c r="S90">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T90">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U90">
+        <v>2</v>
+      </c>
+      <c r="V90">
         <v>1.8</v>
       </c>
-      <c r="V90">
-        <v>2</v>
-      </c>
       <c r="W90">
-        <v>2.6</v>
+        <v>0.45</v>
       </c>
       <c r="X90">
         <v>-1</v>
@@ -8520,16 +8520,16 @@
         <v>-1</v>
       </c>
       <c r="Z90">
-        <v>0.7250000000000001</v>
+        <v>0.75</v>
       </c>
       <c r="AA90">
         <v>-1</v>
       </c>
       <c r="AB90">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC90">
-        <v>-0</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="91" spans="1:29">
@@ -8537,7 +8537,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>6989686</v>
+        <v>6989517</v>
       </c>
       <c r="C91" t="s">
         <v>28</v>
@@ -8549,10 +8549,10 @@
         <v>45220.375</v>
       </c>
       <c r="F91" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="G91" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H91">
         <v>2</v>
@@ -8564,43 +8564,43 @@
         <v>45</v>
       </c>
       <c r="K91">
-        <v>1.333</v>
+        <v>2.625</v>
       </c>
       <c r="L91">
-        <v>4.333</v>
+        <v>2.875</v>
       </c>
       <c r="M91">
-        <v>7.5</v>
+        <v>2.6</v>
       </c>
       <c r="N91">
-        <v>1.45</v>
+        <v>3.6</v>
       </c>
       <c r="O91">
-        <v>4.2</v>
+        <v>3.1</v>
       </c>
       <c r="P91">
-        <v>5.75</v>
+        <v>2.05</v>
       </c>
       <c r="Q91">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="R91">
-        <v>1.75</v>
+        <v>1.725</v>
       </c>
       <c r="S91">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T91">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U91">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="V91">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W91">
-        <v>0.45</v>
+        <v>2.6</v>
       </c>
       <c r="X91">
         <v>-1</v>
@@ -8609,16 +8609,16 @@
         <v>-1</v>
       </c>
       <c r="Z91">
-        <v>0.75</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AA91">
         <v>-1</v>
       </c>
       <c r="AB91">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC91">
-        <v>0.8</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="92" spans="1:29">
@@ -8730,7 +8730,7 @@
         <v>44</v>
       </c>
       <c r="G93" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H93">
         <v>1</v>
@@ -8905,7 +8905,7 @@
         <v>45221.375</v>
       </c>
       <c r="F95" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G95" t="s">
         <v>36</v>
@@ -9175,7 +9175,7 @@
         <v>29</v>
       </c>
       <c r="G98" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H98">
         <v>1</v>
@@ -9261,7 +9261,7 @@
         <v>45226.5</v>
       </c>
       <c r="F99" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G99" t="s">
         <v>44</v>
@@ -9338,7 +9338,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>6989519</v>
+        <v>6989520</v>
       </c>
       <c r="C100" t="s">
         <v>28</v>
@@ -9350,10 +9350,10 @@
         <v>45227.375</v>
       </c>
       <c r="F100" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G100" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="H100">
         <v>2</v>
@@ -9365,43 +9365,43 @@
         <v>45</v>
       </c>
       <c r="K100">
-        <v>1.571</v>
+        <v>1.615</v>
       </c>
       <c r="L100">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M100">
-        <v>5</v>
+        <v>4.333</v>
       </c>
       <c r="N100">
-        <v>1.533</v>
+        <v>1.55</v>
       </c>
       <c r="O100">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P100">
-        <v>5.25</v>
+        <v>4.75</v>
       </c>
       <c r="Q100">
         <v>-1</v>
       </c>
       <c r="R100">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S100">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T100">
         <v>2.25</v>
       </c>
       <c r="U100">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="V100">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W100">
-        <v>0.5329999999999999</v>
+        <v>0.55</v>
       </c>
       <c r="X100">
         <v>-1</v>
@@ -9416,7 +9416,7 @@
         <v>-0</v>
       </c>
       <c r="AB100">
-        <v>0.925</v>
+        <v>0.8</v>
       </c>
       <c r="AC100">
         <v>-1</v>
@@ -9427,7 +9427,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>6989520</v>
+        <v>6989688</v>
       </c>
       <c r="C101" t="s">
         <v>28</v>
@@ -9439,49 +9439,49 @@
         <v>45227.375</v>
       </c>
       <c r="F101" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G101" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H101">
         <v>2</v>
       </c>
       <c r="I101">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J101" t="s">
         <v>45</v>
       </c>
       <c r="K101">
-        <v>1.615</v>
+        <v>2</v>
       </c>
       <c r="L101">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="M101">
-        <v>4.333</v>
+        <v>3.5</v>
       </c>
       <c r="N101">
-        <v>1.55</v>
+        <v>1.909</v>
       </c>
       <c r="O101">
+        <v>3</v>
+      </c>
+      <c r="P101">
         <v>3.8</v>
       </c>
-      <c r="P101">
-        <v>4.75</v>
-      </c>
       <c r="Q101">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R101">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S101">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T101">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U101">
         <v>1.8</v>
@@ -9490,7 +9490,7 @@
         <v>2</v>
       </c>
       <c r="W101">
-        <v>0.55</v>
+        <v>0.909</v>
       </c>
       <c r="X101">
         <v>-1</v>
@@ -9499,16 +9499,16 @@
         <v>-1</v>
       </c>
       <c r="Z101">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA101">
+        <v>-1</v>
+      </c>
+      <c r="AB101">
+        <v>0</v>
+      </c>
+      <c r="AC101">
         <v>-0</v>
-      </c>
-      <c r="AB101">
-        <v>0.8</v>
-      </c>
-      <c r="AC101">
-        <v>-1</v>
       </c>
     </row>
     <row r="102" spans="1:29">
@@ -9516,7 +9516,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>6989688</v>
+        <v>6989519</v>
       </c>
       <c r="C102" t="s">
         <v>28</v>
@@ -9528,40 +9528,40 @@
         <v>45227.375</v>
       </c>
       <c r="F102" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="G102" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="H102">
         <v>2</v>
       </c>
       <c r="I102">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J102" t="s">
         <v>45</v>
       </c>
       <c r="K102">
-        <v>2</v>
+        <v>1.571</v>
       </c>
       <c r="L102">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="M102">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="N102">
-        <v>1.909</v>
+        <v>1.533</v>
       </c>
       <c r="O102">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="P102">
-        <v>3.8</v>
+        <v>5.25</v>
       </c>
       <c r="Q102">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R102">
         <v>1.975</v>
@@ -9570,16 +9570,16 @@
         <v>1.825</v>
       </c>
       <c r="T102">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U102">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="V102">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W102">
-        <v>0.909</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X102">
         <v>-1</v>
@@ -9588,16 +9588,16 @@
         <v>-1</v>
       </c>
       <c r="Z102">
-        <v>0.9750000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA102">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB102">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="AC102">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="103" spans="1:29">
@@ -9605,7 +9605,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>6989689</v>
+        <v>7018997</v>
       </c>
       <c r="C103" t="s">
         <v>28</v>
@@ -9617,10 +9617,10 @@
         <v>45227.375</v>
       </c>
       <c r="F103" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G103" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="H103">
         <v>0</v>
@@ -9632,34 +9632,34 @@
         <v>47</v>
       </c>
       <c r="K103">
-        <v>2.1</v>
+        <v>2.6</v>
       </c>
       <c r="L103">
-        <v>2.875</v>
+        <v>3</v>
       </c>
       <c r="M103">
-        <v>3.4</v>
+        <v>2.5</v>
       </c>
       <c r="N103">
-        <v>2.05</v>
+        <v>2.4</v>
       </c>
       <c r="O103">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="P103">
-        <v>3.6</v>
+        <v>2.7</v>
       </c>
       <c r="Q103">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R103">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="S103">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="T103">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U103">
         <v>1.825</v>
@@ -9671,16 +9671,16 @@
         <v>-1</v>
       </c>
       <c r="X103">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="Y103">
         <v>-1</v>
       </c>
       <c r="Z103">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AA103">
-        <v>0.5</v>
+        <v>-0</v>
       </c>
       <c r="AB103">
         <v>-1</v>
@@ -9694,7 +9694,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>7018997</v>
+        <v>6989689</v>
       </c>
       <c r="C104" t="s">
         <v>28</v>
@@ -9706,10 +9706,10 @@
         <v>45227.375</v>
       </c>
       <c r="F104" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G104" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="H104">
         <v>0</v>
@@ -9721,34 +9721,34 @@
         <v>47</v>
       </c>
       <c r="K104">
-        <v>2.6</v>
+        <v>2.1</v>
       </c>
       <c r="L104">
-        <v>3</v>
+        <v>2.875</v>
       </c>
       <c r="M104">
-        <v>2.5</v>
+        <v>3.4</v>
       </c>
       <c r="N104">
-        <v>2.4</v>
+        <v>2.05</v>
       </c>
       <c r="O104">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="P104">
-        <v>2.7</v>
+        <v>3.6</v>
       </c>
       <c r="Q104">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R104">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="S104">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="T104">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U104">
         <v>1.825</v>
@@ -9760,16 +9760,16 @@
         <v>-1</v>
       </c>
       <c r="X104">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="Y104">
         <v>-1</v>
       </c>
       <c r="Z104">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA104">
-        <v>-0</v>
+        <v>0.5</v>
       </c>
       <c r="AB104">
         <v>-1</v>
@@ -9872,7 +9872,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>6989624</v>
+        <v>6989625</v>
       </c>
       <c r="C106" t="s">
         <v>28</v>
@@ -9884,34 +9884,34 @@
         <v>45235.375</v>
       </c>
       <c r="F106" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G106" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H106">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I106">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J106" t="s">
         <v>45</v>
       </c>
       <c r="K106">
-        <v>1.727</v>
+        <v>1.8</v>
       </c>
       <c r="L106">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="M106">
         <v>4.5</v>
       </c>
       <c r="N106">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="O106">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="P106">
         <v>4.5</v>
@@ -9920,22 +9920,22 @@
         <v>-0.5</v>
       </c>
       <c r="R106">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="S106">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="T106">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
       <c r="U106">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V106">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W106">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="X106">
         <v>-1</v>
@@ -9944,16 +9944,16 @@
         <v>-1</v>
       </c>
       <c r="Z106">
-        <v>0.7749999999999999</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA106">
         <v>-1</v>
       </c>
       <c r="AB106">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC106">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="107" spans="1:29">
@@ -9961,7 +9961,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>6989625</v>
+        <v>6989690</v>
       </c>
       <c r="C107" t="s">
         <v>28</v>
@@ -9973,76 +9973,76 @@
         <v>45235.375</v>
       </c>
       <c r="F107" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G107" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="H107">
+        <v>2</v>
+      </c>
+      <c r="I107">
         <v>1</v>
-      </c>
-      <c r="I107">
-        <v>0</v>
       </c>
       <c r="J107" t="s">
         <v>45</v>
       </c>
       <c r="K107">
-        <v>1.8</v>
+        <v>1.285</v>
       </c>
       <c r="L107">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="M107">
-        <v>4.5</v>
+        <v>9</v>
       </c>
       <c r="N107">
-        <v>1.8</v>
+        <v>1.4</v>
       </c>
       <c r="O107">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P107">
-        <v>4.5</v>
+        <v>7</v>
       </c>
       <c r="Q107">
+        <v>-1.25</v>
+      </c>
+      <c r="R107">
+        <v>1.95</v>
+      </c>
+      <c r="S107">
+        <v>1.85</v>
+      </c>
+      <c r="T107">
+        <v>2.25</v>
+      </c>
+      <c r="U107">
+        <v>1.875</v>
+      </c>
+      <c r="V107">
+        <v>1.925</v>
+      </c>
+      <c r="W107">
+        <v>0.3999999999999999</v>
+      </c>
+      <c r="X107">
+        <v>-1</v>
+      </c>
+      <c r="Y107">
+        <v>-1</v>
+      </c>
+      <c r="Z107">
         <v>-0.5</v>
       </c>
-      <c r="R107">
-        <v>1.9</v>
-      </c>
-      <c r="S107">
-        <v>1.9</v>
-      </c>
-      <c r="T107">
-        <v>1.75</v>
-      </c>
-      <c r="U107">
-        <v>1.95</v>
-      </c>
-      <c r="V107">
-        <v>1.85</v>
-      </c>
-      <c r="W107">
-        <v>0.8</v>
-      </c>
-      <c r="X107">
-        <v>-1</v>
-      </c>
-      <c r="Y107">
-        <v>-1</v>
-      </c>
-      <c r="Z107">
-        <v>0.8999999999999999</v>
-      </c>
       <c r="AA107">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AB107">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC107">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="108" spans="1:29">
@@ -10050,7 +10050,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>6989690</v>
+        <v>6989624</v>
       </c>
       <c r="C108" t="s">
         <v>28</v>
@@ -10062,13 +10062,13 @@
         <v>45235.375</v>
       </c>
       <c r="F108" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G108" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H108">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I108">
         <v>1</v>
@@ -10077,31 +10077,31 @@
         <v>45</v>
       </c>
       <c r="K108">
-        <v>1.285</v>
+        <v>1.727</v>
       </c>
       <c r="L108">
+        <v>3.2</v>
+      </c>
+      <c r="M108">
         <v>4.5</v>
       </c>
-      <c r="M108">
-        <v>9</v>
-      </c>
       <c r="N108">
-        <v>1.4</v>
+        <v>1.75</v>
       </c>
       <c r="O108">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="P108">
-        <v>7</v>
+        <v>4.5</v>
       </c>
       <c r="Q108">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R108">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="S108">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="T108">
         <v>2.25</v>
@@ -10113,7 +10113,7 @@
         <v>1.925</v>
       </c>
       <c r="W108">
-        <v>0.3999999999999999</v>
+        <v>0.75</v>
       </c>
       <c r="X108">
         <v>-1</v>
@@ -10122,10 +10122,10 @@
         <v>-1</v>
       </c>
       <c r="Z108">
-        <v>-0.5</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA108">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AB108">
         <v>0.875</v>
@@ -10317,7 +10317,7 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>6989691</v>
+        <v>6989522</v>
       </c>
       <c r="C111" t="s">
         <v>28</v>
@@ -10329,40 +10329,40 @@
         <v>45236.375</v>
       </c>
       <c r="F111" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="G111" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H111">
         <v>0</v>
       </c>
       <c r="I111">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J111" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K111">
-        <v>2</v>
+        <v>1.65</v>
       </c>
       <c r="L111">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M111">
-        <v>3.6</v>
+        <v>5.5</v>
       </c>
       <c r="N111">
-        <v>1.95</v>
+        <v>2.25</v>
       </c>
       <c r="O111">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="P111">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="Q111">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R111">
         <v>2</v>
@@ -10374,19 +10374,19 @@
         <v>2</v>
       </c>
       <c r="U111">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V111">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W111">
         <v>-1</v>
       </c>
       <c r="X111">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y111">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Z111">
         <v>-1</v>
@@ -10398,7 +10398,7 @@
         <v>-1</v>
       </c>
       <c r="AC111">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="112" spans="1:29">
@@ -10406,7 +10406,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>6989522</v>
+        <v>6989691</v>
       </c>
       <c r="C112" t="s">
         <v>28</v>
@@ -10418,40 +10418,40 @@
         <v>45236.375</v>
       </c>
       <c r="F112" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G112" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H112">
         <v>0</v>
       </c>
       <c r="I112">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J112" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K112">
-        <v>1.65</v>
+        <v>2</v>
       </c>
       <c r="L112">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M112">
-        <v>5.5</v>
+        <v>3.6</v>
       </c>
       <c r="N112">
-        <v>2.25</v>
+        <v>1.95</v>
       </c>
       <c r="O112">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="P112">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="Q112">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R112">
         <v>2</v>
@@ -10463,19 +10463,19 @@
         <v>2</v>
       </c>
       <c r="U112">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V112">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W112">
         <v>-1</v>
       </c>
       <c r="X112">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y112">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Z112">
         <v>-1</v>
@@ -10487,7 +10487,7 @@
         <v>-1</v>
       </c>
       <c r="AC112">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="113" spans="1:29">
@@ -10584,7 +10584,7 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>6989523</v>
+        <v>6989693</v>
       </c>
       <c r="C114" t="s">
         <v>28</v>
@@ -10596,76 +10596,76 @@
         <v>45241.375</v>
       </c>
       <c r="F114" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G114" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H114">
         <v>1</v>
       </c>
       <c r="I114">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J114" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K114">
-        <v>2</v>
+        <v>1.909</v>
       </c>
       <c r="L114">
         <v>3</v>
       </c>
       <c r="M114">
-        <v>3.6</v>
+        <v>3.9</v>
       </c>
       <c r="N114">
+        <v>2</v>
+      </c>
+      <c r="O114">
+        <v>2.7</v>
+      </c>
+      <c r="P114">
+        <v>4.2</v>
+      </c>
+      <c r="Q114">
+        <v>-0.25</v>
+      </c>
+      <c r="R114">
+        <v>1.8</v>
+      </c>
+      <c r="S114">
+        <v>2</v>
+      </c>
+      <c r="T114">
+        <v>1.5</v>
+      </c>
+      <c r="U114">
         <v>1.95</v>
       </c>
-      <c r="O114">
-        <v>2.875</v>
-      </c>
-      <c r="P114">
-        <v>4</v>
-      </c>
-      <c r="Q114">
-        <v>-0.5</v>
-      </c>
-      <c r="R114">
-        <v>2.025</v>
-      </c>
-      <c r="S114">
-        <v>1.775</v>
-      </c>
-      <c r="T114">
-        <v>1.75</v>
-      </c>
-      <c r="U114">
-        <v>1.8</v>
-      </c>
       <c r="V114">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W114">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X114">
         <v>-1</v>
       </c>
       <c r="Y114">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z114">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA114">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB114">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC114">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="115" spans="1:29">
@@ -10762,7 +10762,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>6989693</v>
+        <v>6989523</v>
       </c>
       <c r="C116" t="s">
         <v>28</v>
@@ -10774,76 +10774,76 @@
         <v>45241.375</v>
       </c>
       <c r="F116" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G116" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H116">
         <v>1</v>
       </c>
       <c r="I116">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J116" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K116">
-        <v>1.909</v>
+        <v>2</v>
       </c>
       <c r="L116">
         <v>3</v>
       </c>
       <c r="M116">
-        <v>3.9</v>
+        <v>3.6</v>
       </c>
       <c r="N116">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="O116">
-        <v>2.7</v>
+        <v>2.875</v>
       </c>
       <c r="P116">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="Q116">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R116">
+        <v>2.025</v>
+      </c>
+      <c r="S116">
+        <v>1.775</v>
+      </c>
+      <c r="T116">
+        <v>1.75</v>
+      </c>
+      <c r="U116">
         <v>1.8</v>
       </c>
-      <c r="S116">
-        <v>2</v>
-      </c>
-      <c r="T116">
-        <v>1.5</v>
-      </c>
-      <c r="U116">
-        <v>1.95</v>
-      </c>
       <c r="V116">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W116">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X116">
         <v>-1</v>
       </c>
       <c r="Y116">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z116">
+        <v>-1</v>
+      </c>
+      <c r="AA116">
+        <v>0.7749999999999999</v>
+      </c>
+      <c r="AB116">
         <v>0.8</v>
       </c>
-      <c r="AA116">
-        <v>-1</v>
-      </c>
-      <c r="AB116">
-        <v>-1</v>
-      </c>
       <c r="AC116">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="117" spans="1:29">
@@ -10863,10 +10863,10 @@
         <v>45242.375</v>
       </c>
       <c r="F117" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G117" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H117">
         <v>1</v>
@@ -10952,7 +10952,7 @@
         <v>45242.375</v>
       </c>
       <c r="F118" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G118" t="s">
         <v>30</v>
@@ -11044,7 +11044,7 @@
         <v>37</v>
       </c>
       <c r="G119" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H119">
         <v>1</v>
@@ -11222,7 +11222,7 @@
         <v>35</v>
       </c>
       <c r="G121" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H121">
         <v>3</v>
@@ -11296,7 +11296,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>6989695</v>
+        <v>6989696</v>
       </c>
       <c r="C122" t="s">
         <v>28</v>
@@ -11311,73 +11311,73 @@
         <v>33</v>
       </c>
       <c r="G122" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H122">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I122">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J122" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K122">
-        <v>4.5</v>
+        <v>2.5</v>
       </c>
       <c r="L122">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="M122">
-        <v>1.615</v>
+        <v>2.625</v>
       </c>
       <c r="N122">
-        <v>3.6</v>
+        <v>2.8</v>
       </c>
       <c r="O122">
-        <v>3.4</v>
+        <v>2.8</v>
       </c>
       <c r="P122">
-        <v>1.833</v>
+        <v>2.6</v>
       </c>
       <c r="Q122">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R122">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S122">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T122">
-        <v>2.25</v>
+        <v>1.5</v>
       </c>
       <c r="U122">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="V122">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="W122">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="X122">
         <v>-1</v>
       </c>
       <c r="Y122">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="Z122">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA122">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB122">
-        <v>-0.5</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC122">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="123" spans="1:29">
@@ -11385,7 +11385,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>6989696</v>
+        <v>6989695</v>
       </c>
       <c r="C123" t="s">
         <v>28</v>
@@ -11400,73 +11400,73 @@
         <v>32</v>
       </c>
       <c r="G123" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H123">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I123">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J123" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K123">
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="L123">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="M123">
-        <v>2.625</v>
+        <v>1.615</v>
       </c>
       <c r="N123">
-        <v>2.8</v>
+        <v>3.6</v>
       </c>
       <c r="O123">
-        <v>2.8</v>
+        <v>3.4</v>
       </c>
       <c r="P123">
+        <v>1.833</v>
+      </c>
+      <c r="Q123">
+        <v>0.5</v>
+      </c>
+      <c r="R123">
+        <v>1.9</v>
+      </c>
+      <c r="S123">
+        <v>1.9</v>
+      </c>
+      <c r="T123">
+        <v>2.25</v>
+      </c>
+      <c r="U123">
+        <v>2</v>
+      </c>
+      <c r="V123">
+        <v>1.8</v>
+      </c>
+      <c r="W123">
         <v>2.6</v>
       </c>
-      <c r="Q123">
-        <v>0</v>
-      </c>
-      <c r="R123">
-        <v>1.975</v>
-      </c>
-      <c r="S123">
-        <v>1.825</v>
-      </c>
-      <c r="T123">
-        <v>1.5</v>
-      </c>
-      <c r="U123">
-        <v>1.775</v>
-      </c>
-      <c r="V123">
-        <v>2.025</v>
-      </c>
-      <c r="W123">
-        <v>-1</v>
-      </c>
       <c r="X123">
         <v>-1</v>
       </c>
       <c r="Y123">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="Z123">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA123">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB123">
-        <v>0.7749999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AC123">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="124" spans="1:29">
@@ -11474,7 +11474,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>6989627</v>
+        <v>6989628</v>
       </c>
       <c r="C124" t="s">
         <v>28</v>
@@ -11486,58 +11486,58 @@
         <v>45248.375</v>
       </c>
       <c r="F124" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G124" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H124">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I124">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J124" t="s">
         <v>45</v>
       </c>
       <c r="K124">
-        <v>1.909</v>
+        <v>2.2</v>
       </c>
       <c r="L124">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M124">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="N124">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="O124">
-        <v>3.4</v>
+        <v>2.9</v>
       </c>
       <c r="P124">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="Q124">
         <v>-0.25</v>
       </c>
       <c r="R124">
+        <v>2.05</v>
+      </c>
+      <c r="S124">
         <v>1.75</v>
       </c>
-      <c r="S124">
-        <v>1.95</v>
-      </c>
       <c r="T124">
-        <v>2.5</v>
+        <v>1.75</v>
       </c>
       <c r="U124">
+        <v>1.825</v>
+      </c>
+      <c r="V124">
         <v>1.975</v>
       </c>
-      <c r="V124">
-        <v>1.825</v>
-      </c>
       <c r="W124">
-        <v>1</v>
+        <v>1.3</v>
       </c>
       <c r="X124">
         <v>-1</v>
@@ -11546,16 +11546,16 @@
         <v>-1</v>
       </c>
       <c r="Z124">
-        <v>0.75</v>
+        <v>1.05</v>
       </c>
       <c r="AA124">
         <v>-1</v>
       </c>
       <c r="AB124">
+        <v>-1</v>
+      </c>
+      <c r="AC124">
         <v>0.9750000000000001</v>
-      </c>
-      <c r="AC124">
-        <v>-1</v>
       </c>
     </row>
     <row r="125" spans="1:29">
@@ -11563,7 +11563,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>6989628</v>
+        <v>6989627</v>
       </c>
       <c r="C125" t="s">
         <v>28</v>
@@ -11575,58 +11575,58 @@
         <v>45248.375</v>
       </c>
       <c r="F125" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G125" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H125">
+        <v>3</v>
+      </c>
+      <c r="I125">
         <v>1</v>
-      </c>
-      <c r="I125">
-        <v>0</v>
       </c>
       <c r="J125" t="s">
         <v>45</v>
       </c>
       <c r="K125">
-        <v>2.2</v>
+        <v>1.909</v>
       </c>
       <c r="L125">
+        <v>3.2</v>
+      </c>
+      <c r="M125">
+        <v>3.6</v>
+      </c>
+      <c r="N125">
+        <v>2</v>
+      </c>
+      <c r="O125">
+        <v>3.4</v>
+      </c>
+      <c r="P125">
         <v>3.1</v>
-      </c>
-      <c r="M125">
-        <v>3</v>
-      </c>
-      <c r="N125">
-        <v>2.3</v>
-      </c>
-      <c r="O125">
-        <v>2.9</v>
-      </c>
-      <c r="P125">
-        <v>2.9</v>
       </c>
       <c r="Q125">
         <v>-0.25</v>
       </c>
       <c r="R125">
-        <v>2.05</v>
+        <v>1.75</v>
       </c>
       <c r="S125">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="T125">
-        <v>1.75</v>
+        <v>2.5</v>
       </c>
       <c r="U125">
+        <v>1.975</v>
+      </c>
+      <c r="V125">
         <v>1.825</v>
       </c>
-      <c r="V125">
-        <v>1.975</v>
-      </c>
       <c r="W125">
-        <v>1.3</v>
+        <v>1</v>
       </c>
       <c r="X125">
         <v>-1</v>
@@ -11635,16 +11635,16 @@
         <v>-1</v>
       </c>
       <c r="Z125">
-        <v>1.05</v>
+        <v>0.75</v>
       </c>
       <c r="AA125">
         <v>-1</v>
       </c>
       <c r="AB125">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC125">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="126" spans="1:29">
@@ -11919,7 +11919,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>7497902</v>
+        <v>7497903</v>
       </c>
       <c r="C129" t="s">
         <v>28</v>
@@ -11931,76 +11931,76 @@
         <v>45252.375</v>
       </c>
       <c r="F129" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="G129" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="H129">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I129">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J129" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K129">
-        <v>1.909</v>
+        <v>1.571</v>
       </c>
       <c r="L129">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="M129">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="N129">
-        <v>1.75</v>
+        <v>1.5</v>
       </c>
       <c r="O129">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="P129">
-        <v>4.75</v>
+        <v>5.5</v>
       </c>
       <c r="Q129">
+        <v>-1</v>
+      </c>
+      <c r="R129">
+        <v>1.925</v>
+      </c>
+      <c r="S129">
+        <v>1.875</v>
+      </c>
+      <c r="T129">
+        <v>2.25</v>
+      </c>
+      <c r="U129">
+        <v>1.975</v>
+      </c>
+      <c r="V129">
+        <v>1.825</v>
+      </c>
+      <c r="W129">
+        <v>0.5</v>
+      </c>
+      <c r="X129">
+        <v>-1</v>
+      </c>
+      <c r="Y129">
+        <v>-1</v>
+      </c>
+      <c r="Z129">
+        <v>0.925</v>
+      </c>
+      <c r="AA129">
+        <v>-1</v>
+      </c>
+      <c r="AB129">
         <v>-0.5</v>
       </c>
-      <c r="R129">
-        <v>1.8</v>
-      </c>
-      <c r="S129">
-        <v>2</v>
-      </c>
-      <c r="T129">
-        <v>2</v>
-      </c>
-      <c r="U129">
-        <v>1.8</v>
-      </c>
-      <c r="V129">
-        <v>2</v>
-      </c>
-      <c r="W129">
-        <v>-1</v>
-      </c>
-      <c r="X129">
-        <v>2.1</v>
-      </c>
-      <c r="Y129">
-        <v>-1</v>
-      </c>
-      <c r="Z129">
-        <v>-1</v>
-      </c>
-      <c r="AA129">
-        <v>1</v>
-      </c>
-      <c r="AB129">
-        <v>0</v>
-      </c>
       <c r="AC129">
-        <v>-0</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="130" spans="1:29">
@@ -12008,7 +12008,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>7497903</v>
+        <v>7497374</v>
       </c>
       <c r="C130" t="s">
         <v>28</v>
@@ -12020,13 +12020,13 @@
         <v>45252.375</v>
       </c>
       <c r="F130" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G130" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="H130">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I130">
         <v>0</v>
@@ -12035,43 +12035,43 @@
         <v>45</v>
       </c>
       <c r="K130">
-        <v>1.571</v>
+        <v>2.5</v>
       </c>
       <c r="L130">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="M130">
-        <v>4.75</v>
+        <v>2.625</v>
       </c>
       <c r="N130">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="O130">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="P130">
-        <v>5.5</v>
+        <v>3.6</v>
       </c>
       <c r="Q130">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R130">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="S130">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="T130">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U130">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V130">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W130">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="X130">
         <v>-1</v>
@@ -12080,16 +12080,16 @@
         <v>-1</v>
       </c>
       <c r="Z130">
-        <v>0.925</v>
+        <v>1.025</v>
       </c>
       <c r="AA130">
         <v>-1</v>
       </c>
       <c r="AB130">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC130">
-        <v>0.4125</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="131" spans="1:29">
@@ -12097,7 +12097,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>7497904</v>
+        <v>7497670</v>
       </c>
       <c r="C131" t="s">
         <v>28</v>
@@ -12109,76 +12109,76 @@
         <v>45252.375</v>
       </c>
       <c r="F131" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="G131" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H131">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I131">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J131" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K131">
-        <v>2.4</v>
+        <v>3.2</v>
       </c>
       <c r="L131">
-        <v>2.875</v>
+        <v>2.9</v>
       </c>
       <c r="M131">
-        <v>2.875</v>
+        <v>2.2</v>
       </c>
       <c r="N131">
-        <v>2.875</v>
+        <v>3.3</v>
       </c>
       <c r="O131">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="P131">
-        <v>2.3</v>
+        <v>2.15</v>
       </c>
       <c r="Q131">
         <v>0.25</v>
       </c>
       <c r="R131">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="S131">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="T131">
         <v>2</v>
       </c>
       <c r="U131">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V131">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W131">
         <v>-1</v>
       </c>
       <c r="X131">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Y131">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z131">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AA131">
-        <v>1.05</v>
+        <v>-0.5</v>
       </c>
       <c r="AB131">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC131">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="132" spans="1:29">
@@ -12186,7 +12186,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>7497670</v>
+        <v>7497902</v>
       </c>
       <c r="C132" t="s">
         <v>28</v>
@@ -12198,76 +12198,76 @@
         <v>45252.375</v>
       </c>
       <c r="F132" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="G132" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="H132">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I132">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J132" t="s">
         <v>47</v>
       </c>
       <c r="K132">
-        <v>3.2</v>
+        <v>1.909</v>
       </c>
       <c r="L132">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="M132">
-        <v>2.2</v>
+        <v>4</v>
       </c>
       <c r="N132">
-        <v>3.3</v>
+        <v>1.75</v>
       </c>
       <c r="O132">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="P132">
-        <v>2.15</v>
+        <v>4.75</v>
       </c>
       <c r="Q132">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R132">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="S132">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T132">
         <v>2</v>
       </c>
       <c r="U132">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V132">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W132">
         <v>-1</v>
       </c>
       <c r="X132">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="Y132">
         <v>-1</v>
       </c>
       <c r="Z132">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AA132">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AB132">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="AC132">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="133" spans="1:29">
@@ -12275,7 +12275,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>7497374</v>
+        <v>7497904</v>
       </c>
       <c r="C133" t="s">
         <v>28</v>
@@ -12287,76 +12287,76 @@
         <v>45252.375</v>
       </c>
       <c r="F133" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G133" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H133">
+        <v>0</v>
+      </c>
+      <c r="I133">
         <v>1</v>
       </c>
-      <c r="I133">
-        <v>0</v>
-      </c>
       <c r="J133" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K133">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="L133">
+        <v>2.875</v>
+      </c>
+      <c r="M133">
+        <v>2.875</v>
+      </c>
+      <c r="N133">
+        <v>2.875</v>
+      </c>
+      <c r="O133">
         <v>3</v>
       </c>
-      <c r="M133">
-        <v>2.625</v>
-      </c>
-      <c r="N133">
-        <v>2</v>
-      </c>
-      <c r="O133">
-        <v>3.1</v>
-      </c>
       <c r="P133">
-        <v>3.6</v>
+        <v>2.3</v>
       </c>
       <c r="Q133">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R133">
-        <v>2.025</v>
+        <v>1.75</v>
       </c>
       <c r="S133">
-        <v>1.775</v>
+        <v>2.05</v>
       </c>
       <c r="T133">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U133">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V133">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W133">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X133">
         <v>-1</v>
       </c>
       <c r="Y133">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z133">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA133">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AB133">
         <v>-1</v>
       </c>
       <c r="AC133">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="134" spans="1:29">
@@ -12376,7 +12376,7 @@
         <v>45253.45833333334</v>
       </c>
       <c r="F134" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G134" t="s">
         <v>36</v>
@@ -12453,7 +12453,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>6989630</v>
+        <v>6989526</v>
       </c>
       <c r="C135" t="s">
         <v>28</v>
@@ -12465,13 +12465,13 @@
         <v>45256.375</v>
       </c>
       <c r="F135" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G135" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H135">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I135">
         <v>0</v>
@@ -12480,43 +12480,43 @@
         <v>45</v>
       </c>
       <c r="K135">
-        <v>1.444</v>
+        <v>1.909</v>
       </c>
       <c r="L135">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="M135">
-        <v>6.5</v>
+        <v>4</v>
       </c>
       <c r="N135">
-        <v>1.533</v>
+        <v>2.1</v>
       </c>
       <c r="O135">
-        <v>3.8</v>
+        <v>2.9</v>
       </c>
       <c r="P135">
-        <v>6</v>
+        <v>3.5</v>
       </c>
       <c r="Q135">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R135">
-        <v>2.075</v>
+        <v>1.825</v>
       </c>
       <c r="S135">
-        <v>1.725</v>
+        <v>1.975</v>
       </c>
       <c r="T135">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U135">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V135">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W135">
-        <v>0.5329999999999999</v>
+        <v>1.1</v>
       </c>
       <c r="X135">
         <v>-1</v>
@@ -12525,16 +12525,16 @@
         <v>-1</v>
       </c>
       <c r="Z135">
-        <v>1.075</v>
+        <v>0.825</v>
       </c>
       <c r="AA135">
         <v>-1</v>
       </c>
       <c r="AB135">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AC135">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="136" spans="1:29">
@@ -12542,7 +12542,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>6989526</v>
+        <v>6989527</v>
       </c>
       <c r="C136" t="s">
         <v>28</v>
@@ -12554,58 +12554,58 @@
         <v>45256.375</v>
       </c>
       <c r="F136" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G136" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H136">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I136">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J136" t="s">
         <v>45</v>
       </c>
       <c r="K136">
-        <v>1.909</v>
+        <v>1.727</v>
       </c>
       <c r="L136">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="M136">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="N136">
-        <v>2.1</v>
+        <v>1.444</v>
       </c>
       <c r="O136">
-        <v>2.9</v>
+        <v>3.8</v>
       </c>
       <c r="P136">
-        <v>3.5</v>
+        <v>7</v>
       </c>
       <c r="Q136">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R136">
+        <v>1.975</v>
+      </c>
+      <c r="S136">
         <v>1.825</v>
       </c>
-      <c r="S136">
-        <v>1.975</v>
-      </c>
       <c r="T136">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="U136">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="V136">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W136">
-        <v>1.1</v>
+        <v>0.444</v>
       </c>
       <c r="X136">
         <v>-1</v>
@@ -12614,16 +12614,16 @@
         <v>-1</v>
       </c>
       <c r="Z136">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA136">
         <v>-1</v>
       </c>
       <c r="AB136">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AC136">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="137" spans="1:29">
@@ -12631,7 +12631,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>6989527</v>
+        <v>6989629</v>
       </c>
       <c r="C137" t="s">
         <v>28</v>
@@ -12643,58 +12643,58 @@
         <v>45256.375</v>
       </c>
       <c r="F137" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G137" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H137">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I137">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J137" t="s">
         <v>45</v>
       </c>
       <c r="K137">
-        <v>1.727</v>
+        <v>2.1</v>
       </c>
       <c r="L137">
-        <v>3.3</v>
+        <v>2.875</v>
       </c>
       <c r="M137">
-        <v>4.333</v>
+        <v>3.5</v>
       </c>
       <c r="N137">
-        <v>1.444</v>
+        <v>1.75</v>
       </c>
       <c r="O137">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="P137">
-        <v>7</v>
+        <v>4.75</v>
       </c>
       <c r="Q137">
-        <v>-1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R137">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S137">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="T137">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="U137">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="V137">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="W137">
-        <v>0.444</v>
+        <v>0.75</v>
       </c>
       <c r="X137">
         <v>-1</v>
@@ -12703,16 +12703,16 @@
         <v>-1</v>
       </c>
       <c r="Z137">
-        <v>0.9750000000000001</v>
+        <v>0.475</v>
       </c>
       <c r="AA137">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB137">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC137">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="138" spans="1:29">
@@ -12720,7 +12720,7 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>6989629</v>
+        <v>6989630</v>
       </c>
       <c r="C138" t="s">
         <v>28</v>
@@ -12732,13 +12732,13 @@
         <v>45256.375</v>
       </c>
       <c r="F138" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="G138" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H138">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I138">
         <v>0</v>
@@ -12747,43 +12747,43 @@
         <v>45</v>
       </c>
       <c r="K138">
-        <v>2.1</v>
+        <v>1.444</v>
       </c>
       <c r="L138">
-        <v>2.875</v>
+        <v>3.75</v>
       </c>
       <c r="M138">
-        <v>3.5</v>
+        <v>6.5</v>
       </c>
       <c r="N138">
-        <v>1.75</v>
+        <v>1.533</v>
       </c>
       <c r="O138">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="P138">
-        <v>4.75</v>
+        <v>6</v>
       </c>
       <c r="Q138">
-        <v>-0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R138">
-        <v>1.95</v>
+        <v>2.075</v>
       </c>
       <c r="S138">
-        <v>1.75</v>
+        <v>1.725</v>
       </c>
       <c r="T138">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U138">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="V138">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="W138">
-        <v>0.75</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X138">
         <v>-1</v>
@@ -12792,16 +12792,16 @@
         <v>-1</v>
       </c>
       <c r="Z138">
-        <v>0.475</v>
+        <v>1.075</v>
       </c>
       <c r="AA138">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB138">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC138">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="139" spans="1:29">
@@ -12824,7 +12824,7 @@
         <v>39</v>
       </c>
       <c r="G139" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H139">
         <v>1</v>
@@ -12910,7 +12910,7 @@
         <v>45257.375</v>
       </c>
       <c r="F140" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G140" t="s">
         <v>44</v>
@@ -13091,7 +13091,7 @@
         <v>43</v>
       </c>
       <c r="G142" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H142">
         <v>0</v>
@@ -13177,7 +13177,7 @@
         <v>45261.375</v>
       </c>
       <c r="F143" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G143" t="s">
         <v>40</v>
@@ -13266,7 +13266,7 @@
         <v>45262.375</v>
       </c>
       <c r="F144" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G144" t="s">
         <v>43</v>
@@ -13343,7 +13343,7 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>6989700</v>
+        <v>6989631</v>
       </c>
       <c r="C145" t="s">
         <v>28</v>
@@ -13355,76 +13355,76 @@
         <v>45262.375</v>
       </c>
       <c r="F145" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G145" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H145">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I145">
         <v>1</v>
       </c>
       <c r="J145" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K145">
-        <v>2.625</v>
+        <v>2.25</v>
       </c>
       <c r="L145">
         <v>3</v>
       </c>
       <c r="M145">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="N145">
-        <v>2.375</v>
+        <v>2.25</v>
       </c>
       <c r="O145">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="P145">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="Q145">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R145">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="S145">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="T145">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U145">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="V145">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="W145">
         <v>-1</v>
       </c>
       <c r="X145">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y145">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Z145">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA145">
-        <v>1.05</v>
+        <v>0.4</v>
       </c>
       <c r="AB145">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC145">
-        <v>0.7749999999999999</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="146" spans="1:29">
@@ -13432,7 +13432,7 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>6989631</v>
+        <v>6989700</v>
       </c>
       <c r="C146" t="s">
         <v>28</v>
@@ -13444,76 +13444,76 @@
         <v>45262.375</v>
       </c>
       <c r="F146" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G146" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H146">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I146">
         <v>1</v>
       </c>
       <c r="J146" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K146">
-        <v>2.25</v>
+        <v>2.625</v>
       </c>
       <c r="L146">
         <v>3</v>
       </c>
       <c r="M146">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="N146">
-        <v>2.25</v>
+        <v>2.375</v>
       </c>
       <c r="O146">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="P146">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Q146">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R146">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="S146">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
       <c r="T146">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U146">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="V146">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="W146">
         <v>-1</v>
       </c>
       <c r="X146">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y146">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="Z146">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA146">
-        <v>0.4</v>
+        <v>1.05</v>
       </c>
       <c r="AB146">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC146">
-        <v>0.4</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="147" spans="1:29">
@@ -13536,7 +13536,7 @@
         <v>35</v>
       </c>
       <c r="G147" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H147">
         <v>1</v>
@@ -14144,7 +14144,7 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>6989332</v>
+        <v>6989702</v>
       </c>
       <c r="C154" t="s">
         <v>28</v>
@@ -14156,10 +14156,10 @@
         <v>45270.375</v>
       </c>
       <c r="F154" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="G154" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="H154">
         <v>1</v>
@@ -14171,43 +14171,43 @@
         <v>45</v>
       </c>
       <c r="K154">
-        <v>1.4</v>
+        <v>2.875</v>
       </c>
       <c r="L154">
-        <v>4</v>
+        <v>2.875</v>
       </c>
       <c r="M154">
-        <v>7</v>
+        <v>2.4</v>
       </c>
       <c r="N154">
-        <v>1.285</v>
+        <v>2.2</v>
       </c>
       <c r="O154">
-        <v>4.333</v>
+        <v>2.8</v>
       </c>
       <c r="P154">
-        <v>11</v>
+        <v>3.4</v>
       </c>
       <c r="Q154">
-        <v>-1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R154">
+        <v>1.95</v>
+      </c>
+      <c r="S154">
         <v>1.85</v>
       </c>
-      <c r="S154">
-        <v>1.95</v>
-      </c>
       <c r="T154">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="U154">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V154">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W154">
-        <v>0.2849999999999999</v>
+        <v>1.2</v>
       </c>
       <c r="X154">
         <v>-1</v>
@@ -14216,16 +14216,16 @@
         <v>-1</v>
       </c>
       <c r="Z154">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA154">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB154">
         <v>-1</v>
       </c>
       <c r="AC154">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="155" spans="1:29">
@@ -14233,7 +14233,7 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>6989704</v>
+        <v>6989703</v>
       </c>
       <c r="C155" t="s">
         <v>28</v>
@@ -14245,7 +14245,7 @@
         <v>45270.375</v>
       </c>
       <c r="F155" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G155" t="s">
         <v>33</v>
@@ -14254,67 +14254,67 @@
         <v>0</v>
       </c>
       <c r="I155">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J155" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K155">
-        <v>1.666</v>
+        <v>1.5</v>
       </c>
       <c r="L155">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M155">
-        <v>4.5</v>
+        <v>6</v>
       </c>
       <c r="N155">
-        <v>2.05</v>
+        <v>1.533</v>
       </c>
       <c r="O155">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="P155">
-        <v>3.3</v>
+        <v>6</v>
       </c>
       <c r="Q155">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R155">
+        <v>1.975</v>
+      </c>
+      <c r="S155">
         <v>1.825</v>
       </c>
-      <c r="S155">
-        <v>1.975</v>
-      </c>
       <c r="T155">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="U155">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="V155">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="W155">
         <v>-1</v>
       </c>
       <c r="X155">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y155">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Z155">
         <v>-1</v>
       </c>
       <c r="AA155">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AB155">
         <v>-1</v>
       </c>
       <c r="AC155">
-        <v>1</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="156" spans="1:29">
@@ -14322,7 +14322,7 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>6989703</v>
+        <v>6989332</v>
       </c>
       <c r="C156" t="s">
         <v>28</v>
@@ -14334,61 +14334,61 @@
         <v>45270.375</v>
       </c>
       <c r="F156" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="G156" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="H156">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I156">
         <v>0</v>
       </c>
       <c r="J156" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K156">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="L156">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M156">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="N156">
-        <v>1.533</v>
+        <v>1.285</v>
       </c>
       <c r="O156">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="P156">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="Q156">
-        <v>-1</v>
+        <v>-1.5</v>
       </c>
       <c r="R156">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S156">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T156">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U156">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="V156">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="W156">
-        <v>-1</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="X156">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y156">
         <v>-1</v>
@@ -14397,13 +14397,13 @@
         <v>-1</v>
       </c>
       <c r="AA156">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
       <c r="AB156">
         <v>-1</v>
       </c>
       <c r="AC156">
-        <v>0.7749999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="157" spans="1:29">
@@ -14411,7 +14411,7 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>6989702</v>
+        <v>6989704</v>
       </c>
       <c r="C157" t="s">
         <v>28</v>
@@ -14423,76 +14423,76 @@
         <v>45270.375</v>
       </c>
       <c r="F157" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G157" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H157">
+        <v>0</v>
+      </c>
+      <c r="I157">
         <v>1</v>
       </c>
-      <c r="I157">
-        <v>0</v>
-      </c>
       <c r="J157" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K157">
-        <v>2.875</v>
+        <v>1.666</v>
       </c>
       <c r="L157">
-        <v>2.875</v>
+        <v>3.4</v>
       </c>
       <c r="M157">
-        <v>2.4</v>
+        <v>4.5</v>
       </c>
       <c r="N157">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="O157">
-        <v>2.8</v>
+        <v>3.2</v>
       </c>
       <c r="P157">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="Q157">
         <v>-0.25</v>
       </c>
       <c r="R157">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S157">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T157">
-        <v>1.5</v>
+        <v>1.75</v>
       </c>
       <c r="U157">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="V157">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W157">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X157">
         <v>-1</v>
       </c>
       <c r="Y157">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Z157">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA157">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB157">
         <v>-1</v>
       </c>
       <c r="AC157">
-        <v>0.925</v>
+        <v>1</v>
       </c>
     </row>
     <row r="158" spans="1:29">
@@ -14500,7 +14500,7 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>6989531</v>
+        <v>6989530</v>
       </c>
       <c r="C158" t="s">
         <v>28</v>
@@ -14512,49 +14512,49 @@
         <v>45271.375</v>
       </c>
       <c r="F158" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G158" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="H158">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I158">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J158" t="s">
         <v>45</v>
       </c>
       <c r="K158">
-        <v>1.571</v>
+        <v>1.666</v>
       </c>
       <c r="L158">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M158">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="N158">
         <v>1.444</v>
       </c>
       <c r="O158">
-        <v>4.2</v>
+        <v>4.333</v>
       </c>
       <c r="P158">
-        <v>5.75</v>
+        <v>5.25</v>
       </c>
       <c r="Q158">
-        <v>-1.25</v>
+        <v>-1</v>
       </c>
       <c r="R158">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="S158">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T158">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U158">
         <v>1.85</v>
@@ -14572,16 +14572,16 @@
         <v>-1</v>
       </c>
       <c r="Z158">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AA158">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AB158">
-        <v>0.425</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC158">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="159" spans="1:29">
@@ -14589,7 +14589,7 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>6989530</v>
+        <v>6989531</v>
       </c>
       <c r="C159" t="s">
         <v>28</v>
@@ -14601,49 +14601,49 @@
         <v>45271.375</v>
       </c>
       <c r="F159" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G159" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="H159">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I159">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J159" t="s">
         <v>45</v>
       </c>
       <c r="K159">
-        <v>1.666</v>
+        <v>1.571</v>
       </c>
       <c r="L159">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M159">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="N159">
         <v>1.444</v>
       </c>
       <c r="O159">
-        <v>4.333</v>
+        <v>4.2</v>
       </c>
       <c r="P159">
-        <v>5.25</v>
+        <v>5.75</v>
       </c>
       <c r="Q159">
-        <v>-1</v>
+        <v>-1.25</v>
       </c>
       <c r="R159">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="S159">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T159">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U159">
         <v>1.85</v>
@@ -14661,16 +14661,16 @@
         <v>-1</v>
       </c>
       <c r="Z159">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AA159">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AB159">
-        <v>0.8500000000000001</v>
+        <v>0.425</v>
       </c>
       <c r="AC159">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="160" spans="1:29">
@@ -14945,7 +14945,7 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>6989635</v>
+        <v>6989705</v>
       </c>
       <c r="C163" t="s">
         <v>28</v>
@@ -14957,76 +14957,76 @@
         <v>45346.375</v>
       </c>
       <c r="F163" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G163" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="H163">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I163">
         <v>0</v>
       </c>
       <c r="J163" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K163">
-        <v>1.909</v>
+        <v>2.25</v>
       </c>
       <c r="L163">
+        <v>2.875</v>
+      </c>
+      <c r="M163">
         <v>3.1</v>
       </c>
-      <c r="M163">
-        <v>3.75</v>
-      </c>
       <c r="N163">
-        <v>1.909</v>
+        <v>2.05</v>
       </c>
       <c r="O163">
-        <v>3.2</v>
+        <v>2.875</v>
       </c>
       <c r="P163">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="Q163">
+        <v>-0.25</v>
+      </c>
+      <c r="R163">
+        <v>1.8</v>
+      </c>
+      <c r="S163">
+        <v>2</v>
+      </c>
+      <c r="T163">
+        <v>1.75</v>
+      </c>
+      <c r="U163">
+        <v>1.95</v>
+      </c>
+      <c r="V163">
+        <v>1.85</v>
+      </c>
+      <c r="W163">
+        <v>-1</v>
+      </c>
+      <c r="X163">
+        <v>1.875</v>
+      </c>
+      <c r="Y163">
+        <v>-1</v>
+      </c>
+      <c r="Z163">
         <v>-0.5</v>
       </c>
-      <c r="R163">
-        <v>1.975</v>
-      </c>
-      <c r="S163">
-        <v>1.825</v>
-      </c>
-      <c r="T163">
-        <v>2</v>
-      </c>
-      <c r="U163">
-        <v>1.9</v>
-      </c>
-      <c r="V163">
-        <v>1.9</v>
-      </c>
-      <c r="W163">
-        <v>0.909</v>
-      </c>
-      <c r="X163">
-        <v>-1</v>
-      </c>
-      <c r="Y163">
-        <v>-1</v>
-      </c>
-      <c r="Z163">
-        <v>0.9750000000000001</v>
-      </c>
       <c r="AA163">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="AB163">
         <v>-1</v>
       </c>
       <c r="AC163">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="164" spans="1:29">
@@ -15034,7 +15034,7 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>6989705</v>
+        <v>6989635</v>
       </c>
       <c r="C164" t="s">
         <v>28</v>
@@ -15046,76 +15046,76 @@
         <v>45346.375</v>
       </c>
       <c r="F164" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G164" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="H164">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I164">
         <v>0</v>
       </c>
       <c r="J164" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K164">
-        <v>2.25</v>
+        <v>1.909</v>
       </c>
       <c r="L164">
-        <v>2.875</v>
+        <v>3.1</v>
       </c>
       <c r="M164">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="N164">
-        <v>2.05</v>
+        <v>1.909</v>
       </c>
       <c r="O164">
-        <v>2.875</v>
+        <v>3.2</v>
       </c>
       <c r="P164">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="Q164">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R164">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S164">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T164">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U164">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V164">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W164">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X164">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Y164">
         <v>-1</v>
       </c>
       <c r="Z164">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA164">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB164">
         <v>-1</v>
       </c>
       <c r="AC164">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="165" spans="1:29">
@@ -15123,7 +15123,7 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>6989333</v>
+        <v>6989636</v>
       </c>
       <c r="C165" t="s">
         <v>28</v>
@@ -15135,10 +15135,10 @@
         <v>45346.5</v>
       </c>
       <c r="F165" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="G165" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="H165">
         <v>0</v>
@@ -15150,40 +15150,40 @@
         <v>47</v>
       </c>
       <c r="K165">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="L165">
-        <v>3</v>
+        <v>2.875</v>
       </c>
       <c r="M165">
-        <v>2.625</v>
+        <v>3.75</v>
       </c>
       <c r="N165">
-        <v>2.375</v>
+        <v>1.833</v>
       </c>
       <c r="O165">
         <v>3</v>
       </c>
       <c r="P165">
-        <v>2.75</v>
+        <v>4.2</v>
       </c>
       <c r="Q165">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R165">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="S165">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="T165">
         <v>1.75</v>
       </c>
       <c r="U165">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V165">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W165">
         <v>-1</v>
@@ -15195,16 +15195,16 @@
         <v>-1</v>
       </c>
       <c r="Z165">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA165">
-        <v>-0</v>
+        <v>1</v>
       </c>
       <c r="AB165">
         <v>-1</v>
       </c>
       <c r="AC165">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="166" spans="1:29">
@@ -15212,7 +15212,7 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>6989636</v>
+        <v>6989333</v>
       </c>
       <c r="C166" t="s">
         <v>28</v>
@@ -15224,10 +15224,10 @@
         <v>45346.5</v>
       </c>
       <c r="F166" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="G166" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="H166">
         <v>0</v>
@@ -15239,40 +15239,40 @@
         <v>47</v>
       </c>
       <c r="K166">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="L166">
-        <v>2.875</v>
+        <v>3</v>
       </c>
       <c r="M166">
-        <v>3.75</v>
+        <v>2.625</v>
       </c>
       <c r="N166">
-        <v>1.833</v>
+        <v>2.375</v>
       </c>
       <c r="O166">
         <v>3</v>
       </c>
       <c r="P166">
-        <v>4.2</v>
+        <v>2.75</v>
       </c>
       <c r="Q166">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R166">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="S166">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="T166">
         <v>1.75</v>
       </c>
       <c r="U166">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V166">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W166">
         <v>-1</v>
@@ -15284,16 +15284,16 @@
         <v>-1</v>
       </c>
       <c r="Z166">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA166">
-        <v>1</v>
+        <v>-0</v>
       </c>
       <c r="AB166">
         <v>-1</v>
       </c>
       <c r="AC166">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="167" spans="1:29">
@@ -15301,7 +15301,7 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>6989532</v>
+        <v>6989634</v>
       </c>
       <c r="C167" t="s">
         <v>28</v>
@@ -15313,10 +15313,10 @@
         <v>45347.375</v>
       </c>
       <c r="F167" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G167" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H167">
         <v>1</v>
@@ -15328,43 +15328,43 @@
         <v>45</v>
       </c>
       <c r="K167">
-        <v>7.5</v>
+        <v>2.5</v>
       </c>
       <c r="L167">
-        <v>4.333</v>
+        <v>3</v>
       </c>
       <c r="M167">
-        <v>1.333</v>
+        <v>2.625</v>
       </c>
       <c r="N167">
-        <v>5</v>
+        <v>2.15</v>
       </c>
       <c r="O167">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="P167">
-        <v>1.533</v>
+        <v>3.1</v>
       </c>
       <c r="Q167">
-        <v>1</v>
+        <v>-0.25</v>
       </c>
       <c r="R167">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S167">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T167">
         <v>2.25</v>
       </c>
       <c r="U167">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V167">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W167">
-        <v>4</v>
+        <v>1.15</v>
       </c>
       <c r="X167">
         <v>-1</v>
@@ -15373,7 +15373,7 @@
         <v>-1</v>
       </c>
       <c r="Z167">
-        <v>0.875</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA167">
         <v>-1</v>
@@ -15382,7 +15382,7 @@
         <v>-1</v>
       </c>
       <c r="AC167">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="168" spans="1:29">
@@ -15390,7 +15390,7 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>6989634</v>
+        <v>6989532</v>
       </c>
       <c r="C168" t="s">
         <v>28</v>
@@ -15402,10 +15402,10 @@
         <v>45347.375</v>
       </c>
       <c r="F168" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="G168" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H168">
         <v>1</v>
@@ -15417,43 +15417,43 @@
         <v>45</v>
       </c>
       <c r="K168">
-        <v>2.5</v>
+        <v>7.5</v>
       </c>
       <c r="L168">
-        <v>3</v>
+        <v>4.333</v>
       </c>
       <c r="M168">
-        <v>2.625</v>
+        <v>1.333</v>
       </c>
       <c r="N168">
-        <v>2.15</v>
+        <v>5</v>
       </c>
       <c r="O168">
-        <v>3.1</v>
+        <v>3.8</v>
       </c>
       <c r="P168">
-        <v>3.1</v>
+        <v>1.533</v>
       </c>
       <c r="Q168">
-        <v>-0.25</v>
+        <v>1</v>
       </c>
       <c r="R168">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S168">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T168">
         <v>2.25</v>
       </c>
       <c r="U168">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V168">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W168">
-        <v>1.15</v>
+        <v>4</v>
       </c>
       <c r="X168">
         <v>-1</v>
@@ -15462,7 +15462,7 @@
         <v>-1</v>
       </c>
       <c r="Z168">
-        <v>0.8999999999999999</v>
+        <v>0.875</v>
       </c>
       <c r="AA168">
         <v>-1</v>
@@ -15471,7 +15471,7 @@
         <v>-1</v>
       </c>
       <c r="AC168">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="169" spans="1:29">
@@ -15491,7 +15491,7 @@
         <v>45347.54166666666</v>
       </c>
       <c r="F169" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G169" t="s">
         <v>34</v>
@@ -15583,7 +15583,7 @@
         <v>39</v>
       </c>
       <c r="G170" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H170">
         <v>1</v>
@@ -15657,7 +15657,7 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>7898976</v>
+        <v>7901796</v>
       </c>
       <c r="C171" t="s">
         <v>28</v>
@@ -15669,61 +15669,76 @@
         <v>45353.375</v>
       </c>
       <c r="F171" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="G171" t="s">
-        <v>30</v>
+        <v>37</v>
+      </c>
+      <c r="H171">
+        <v>0</v>
+      </c>
+      <c r="I171">
+        <v>2</v>
+      </c>
+      <c r="J171" t="s">
+        <v>46</v>
       </c>
       <c r="K171">
-        <v>2</v>
+        <v>1.4</v>
       </c>
       <c r="L171">
-        <v>2.875</v>
+        <v>3.6</v>
       </c>
       <c r="M171">
+        <v>8</v>
+      </c>
+      <c r="N171">
+        <v>1.65</v>
+      </c>
+      <c r="O171">
+        <v>3.5</v>
+      </c>
+      <c r="P171">
+        <v>4.75</v>
+      </c>
+      <c r="Q171">
+        <v>-0.75</v>
+      </c>
+      <c r="R171">
+        <v>1.825</v>
+      </c>
+      <c r="S171">
+        <v>1.975</v>
+      </c>
+      <c r="T171">
+        <v>2.5</v>
+      </c>
+      <c r="U171">
+        <v>1.975</v>
+      </c>
+      <c r="V171">
+        <v>1.825</v>
+      </c>
+      <c r="W171">
+        <v>-1</v>
+      </c>
+      <c r="X171">
+        <v>-1</v>
+      </c>
+      <c r="Y171">
         <v>3.75</v>
       </c>
-      <c r="N171">
-        <v>2.15</v>
-      </c>
-      <c r="O171">
-        <v>2.75</v>
-      </c>
-      <c r="P171">
-        <v>3.4</v>
-      </c>
-      <c r="Q171">
-        <v>-0.25</v>
-      </c>
-      <c r="R171">
-        <v>1.9</v>
-      </c>
-      <c r="S171">
-        <v>1.9</v>
-      </c>
-      <c r="T171">
-        <v>2</v>
-      </c>
-      <c r="U171">
-        <v>2</v>
-      </c>
-      <c r="V171">
-        <v>1.8</v>
-      </c>
-      <c r="W171">
-        <v>0</v>
-      </c>
-      <c r="X171">
-        <v>0</v>
-      </c>
-      <c r="Y171">
-        <v>0</v>
-      </c>
       <c r="Z171">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA171">
-        <v>0</v>
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AB171">
+        <v>-1</v>
+      </c>
+      <c r="AC171">
+        <v>0.825</v>
       </c>
     </row>
     <row r="172" spans="1:29">
@@ -15746,7 +15761,16 @@
         <v>29</v>
       </c>
       <c r="G172" t="s">
-        <v>32</v>
+        <v>33</v>
+      </c>
+      <c r="H172">
+        <v>2</v>
+      </c>
+      <c r="I172">
+        <v>0</v>
+      </c>
+      <c r="J172" t="s">
+        <v>45</v>
       </c>
       <c r="K172">
         <v>1.666</v>
@@ -15758,46 +15782,52 @@
         <v>4.75</v>
       </c>
       <c r="N172">
-        <v>1.666</v>
+        <v>2.05</v>
       </c>
       <c r="O172">
-        <v>3.25</v>
+        <v>2.7</v>
       </c>
       <c r="P172">
-        <v>4.75</v>
+        <v>3.8</v>
       </c>
       <c r="Q172">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R172">
-        <v>1.925</v>
+        <v>1.75</v>
       </c>
       <c r="S172">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="T172">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
       <c r="U172">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V172">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W172">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="X172">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y172">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z172">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AA172">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB172">
+        <v>0.45</v>
+      </c>
+      <c r="AC172">
+        <v>-0.5</v>
       </c>
     </row>
     <row r="173" spans="1:29">
@@ -15805,7 +15835,7 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>7901794</v>
+        <v>7898976</v>
       </c>
       <c r="C173" t="s">
         <v>28</v>
@@ -15817,61 +15847,76 @@
         <v>45353.375</v>
       </c>
       <c r="F173" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G173" t="s">
-        <v>33</v>
+        <v>30</v>
+      </c>
+      <c r="H173">
+        <v>0</v>
+      </c>
+      <c r="I173">
+        <v>2</v>
+      </c>
+      <c r="J173" t="s">
+        <v>46</v>
       </c>
       <c r="K173">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="L173">
-        <v>2.8</v>
+        <v>2.875</v>
       </c>
       <c r="M173">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="N173">
-        <v>2</v>
+        <v>2.15</v>
       </c>
       <c r="O173">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="P173">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="Q173">
         <v>-0.25</v>
       </c>
       <c r="R173">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="S173">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="T173">
         <v>2</v>
       </c>
       <c r="U173">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="V173">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="W173">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X173">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y173">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="Z173">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA173">
-        <v>0</v>
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AB173">
+        <v>0</v>
+      </c>
+      <c r="AC173">
+        <v>-0</v>
       </c>
     </row>
     <row r="174" spans="1:29">
@@ -15879,7 +15924,7 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>7901796</v>
+        <v>7901794</v>
       </c>
       <c r="C174" t="s">
         <v>28</v>
@@ -15891,31 +15936,40 @@
         <v>45353.375</v>
       </c>
       <c r="F174" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="G174" t="s">
-        <v>37</v>
+        <v>32</v>
+      </c>
+      <c r="H174">
+        <v>1</v>
+      </c>
+      <c r="I174">
+        <v>0</v>
+      </c>
+      <c r="J174" t="s">
+        <v>45</v>
       </c>
       <c r="K174">
-        <v>1.4</v>
+        <v>2.25</v>
       </c>
       <c r="L174">
-        <v>3.6</v>
+        <v>2.8</v>
       </c>
       <c r="M174">
-        <v>8</v>
+        <v>3.2</v>
       </c>
       <c r="N174">
-        <v>1.65</v>
+        <v>2.15</v>
       </c>
       <c r="O174">
-        <v>3.5</v>
+        <v>2.6</v>
       </c>
       <c r="P174">
-        <v>4.75</v>
+        <v>3.8</v>
       </c>
       <c r="Q174">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R174">
         <v>1.825</v>
@@ -15924,28 +15978,34 @@
         <v>1.975</v>
       </c>
       <c r="T174">
-        <v>2.5</v>
+        <v>1.75</v>
       </c>
       <c r="U174">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V174">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W174">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="X174">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y174">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z174">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AA174">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB174">
+        <v>-1</v>
+      </c>
+      <c r="AC174">
+        <v>0.8</v>
       </c>
     </row>
     <row r="175" spans="1:29">
@@ -15970,6 +16030,15 @@
       <c r="G175" t="s">
         <v>35</v>
       </c>
+      <c r="H175">
+        <v>1</v>
+      </c>
+      <c r="I175">
+        <v>0</v>
+      </c>
+      <c r="J175" t="s">
+        <v>45</v>
+      </c>
       <c r="K175">
         <v>1.666</v>
       </c>
@@ -15989,13 +16058,13 @@
         <v>7</v>
       </c>
       <c r="Q175">
-        <v>-1.25</v>
+        <v>-1</v>
       </c>
       <c r="R175">
-        <v>2.025</v>
+        <v>1.725</v>
       </c>
       <c r="S175">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="T175">
         <v>2.25</v>
@@ -16007,19 +16076,25 @@
         <v>1.9</v>
       </c>
       <c r="W175">
-        <v>0</v>
+        <v>0.444</v>
       </c>
       <c r="X175">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y175">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z175">
         <v>0</v>
       </c>
       <c r="AA175">
-        <v>0</v>
+        <v>-0</v>
+      </c>
+      <c r="AB175">
+        <v>-1</v>
+      </c>
+      <c r="AC175">
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="176" spans="1:29">
@@ -16044,6 +16119,15 @@
       <c r="G176" t="s">
         <v>36</v>
       </c>
+      <c r="H176">
+        <v>3</v>
+      </c>
+      <c r="I176">
+        <v>1</v>
+      </c>
+      <c r="J176" t="s">
+        <v>45</v>
+      </c>
       <c r="K176">
         <v>1.833</v>
       </c>
@@ -16054,10 +16138,10 @@
         <v>4</v>
       </c>
       <c r="N176">
-        <v>1.833</v>
+        <v>2</v>
       </c>
       <c r="O176">
-        <v>3.1</v>
+        <v>2.75</v>
       </c>
       <c r="P176">
         <v>4</v>
@@ -16066,37 +16150,43 @@
         <v>-0.5</v>
       </c>
       <c r="R176">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="S176">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="T176">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U176">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V176">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W176">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X176">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y176">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z176">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="AA176">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="177" spans="1:27">
+        <v>-1</v>
+      </c>
+      <c r="AB176">
+        <v>0.95</v>
+      </c>
+      <c r="AC176">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="177" spans="1:29">
       <c r="A177" s="1">
         <v>175</v>
       </c>
@@ -16118,6 +16208,15 @@
       <c r="G177" t="s">
         <v>44</v>
       </c>
+      <c r="H177">
+        <v>1</v>
+      </c>
+      <c r="I177">
+        <v>1</v>
+      </c>
+      <c r="J177" t="s">
+        <v>47</v>
+      </c>
       <c r="K177">
         <v>2</v>
       </c>
@@ -16155,19 +16254,25 @@
         <v>1.85</v>
       </c>
       <c r="W177">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X177">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="Y177">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z177">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA177">
-        <v>0</v>
+        <v>0.8</v>
+      </c>
+      <c r="AB177">
+        <v>0</v>
+      </c>
+      <c r="AC177">
+        <v>-0</v>
       </c>
     </row>
   </sheetData>

--- a/Serbia Prva Liga/Serbia Prva Liga.xlsx
+++ b/Serbia Prva Liga/Serbia Prva Liga.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1062" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1058" uniqueCount="48">
   <si>
     <t>id</t>
   </si>
@@ -133,10 +133,10 @@
     <t>Radnicki Sremska Mitrovica</t>
   </si>
   <si>
-    <t>FK Tekstilac Odzaci</t>
+    <t>FK Indija</t>
   </si>
   <si>
-    <t>FK Indija</t>
+    <t>FK Tekstilac Odzaci</t>
   </si>
   <si>
     <t>OFK Belgrade</t>
@@ -519,7 +519,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC208"/>
+  <dimension ref="A1:AC207"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -631,7 +631,7 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H2">
         <v>2</v>
@@ -1254,7 +1254,7 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -1595,7 +1595,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6989662</v>
+        <v>6989315</v>
       </c>
       <c r="C13" t="s">
         <v>28</v>
@@ -1610,70 +1610,70 @@
         <v>39</v>
       </c>
       <c r="G13" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="H13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J13" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K13">
-        <v>2.5</v>
+        <v>1.909</v>
       </c>
       <c r="L13">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="M13">
-        <v>2.625</v>
+        <v>3.6</v>
       </c>
       <c r="N13">
-        <v>2</v>
+        <v>1.909</v>
       </c>
       <c r="O13">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="P13">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="Q13">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R13">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S13">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T13">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U13">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V13">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W13">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X13">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y13">
         <v>-1</v>
       </c>
       <c r="Z13">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA13">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB13">
-        <v>0.8</v>
+        <v>0.825</v>
       </c>
       <c r="AC13">
         <v>-1</v>
@@ -1684,7 +1684,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6989315</v>
+        <v>6989662</v>
       </c>
       <c r="C14" t="s">
         <v>28</v>
@@ -1699,70 +1699,70 @@
         <v>40</v>
       </c>
       <c r="G14" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J14" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K14">
-        <v>1.909</v>
+        <v>2.5</v>
       </c>
       <c r="L14">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="M14">
-        <v>3.6</v>
+        <v>2.625</v>
       </c>
       <c r="N14">
-        <v>1.909</v>
+        <v>2</v>
       </c>
       <c r="O14">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="P14">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="Q14">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R14">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S14">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T14">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U14">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V14">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W14">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X14">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y14">
         <v>-1</v>
       </c>
       <c r="Z14">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA14">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB14">
-        <v>0.825</v>
+        <v>0.8</v>
       </c>
       <c r="AC14">
         <v>-1</v>
@@ -2233,7 +2233,7 @@
         <v>32</v>
       </c>
       <c r="G20" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -2500,7 +2500,7 @@
         <v>34</v>
       </c>
       <c r="G23" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -2942,7 +2942,7 @@
         <v>45164.5</v>
       </c>
       <c r="F28" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G28" t="s">
         <v>42</v>
@@ -3031,7 +3031,7 @@
         <v>45165.5</v>
       </c>
       <c r="F29" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G29" t="s">
         <v>31</v>
@@ -3568,7 +3568,7 @@
         <v>30</v>
       </c>
       <c r="G35" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H35">
         <v>0</v>
@@ -3924,7 +3924,7 @@
         <v>35</v>
       </c>
       <c r="G39" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H39">
         <v>1</v>
@@ -4277,7 +4277,7 @@
         <v>45178.47916666666</v>
       </c>
       <c r="F43" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G43" t="s">
         <v>37</v>
@@ -4544,7 +4544,7 @@
         <v>45179.47916666666</v>
       </c>
       <c r="F46" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G46" t="s">
         <v>44</v>
@@ -4992,7 +4992,7 @@
         <v>36</v>
       </c>
       <c r="G51" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H51">
         <v>2</v>
@@ -5155,7 +5155,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>6989506</v>
+        <v>6989507</v>
       </c>
       <c r="C53" t="s">
         <v>28</v>
@@ -5167,76 +5167,76 @@
         <v>45186.45833333334</v>
       </c>
       <c r="F53" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="G53" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J53" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K53">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="L53">
         <v>3</v>
       </c>
       <c r="M53">
-        <v>2.625</v>
+        <v>2.25</v>
       </c>
       <c r="N53">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="O53">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="P53">
-        <v>2.625</v>
+        <v>1.8</v>
       </c>
       <c r="Q53">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R53">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S53">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T53">
         <v>2.25</v>
       </c>
       <c r="U53">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V53">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W53">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="X53">
         <v>-1</v>
       </c>
       <c r="Y53">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="Z53">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA53">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB53">
         <v>-1</v>
       </c>
       <c r="AC53">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="54" spans="1:29">
@@ -5244,7 +5244,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>6989507</v>
+        <v>6989506</v>
       </c>
       <c r="C54" t="s">
         <v>28</v>
@@ -5256,76 +5256,76 @@
         <v>45186.45833333334</v>
       </c>
       <c r="F54" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="G54" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H54">
+        <v>0</v>
+      </c>
+      <c r="I54">
         <v>1</v>
       </c>
-      <c r="I54">
-        <v>0</v>
-      </c>
       <c r="J54" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K54">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="L54">
         <v>3</v>
       </c>
       <c r="M54">
-        <v>2.25</v>
+        <v>2.625</v>
       </c>
       <c r="N54">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="O54">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="P54">
-        <v>1.8</v>
+        <v>2.625</v>
       </c>
       <c r="Q54">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R54">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S54">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T54">
         <v>2.25</v>
       </c>
       <c r="U54">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V54">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W54">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="X54">
         <v>-1</v>
       </c>
       <c r="Y54">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="Z54">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA54">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB54">
         <v>-1</v>
       </c>
       <c r="AC54">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="55" spans="1:29">
@@ -5612,7 +5612,7 @@
         <v>45191.45833333334</v>
       </c>
       <c r="F58" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G58" t="s">
         <v>41</v>
@@ -6057,7 +6057,7 @@
         <v>45192.45833333334</v>
       </c>
       <c r="F63" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G63" t="s">
         <v>37</v>
@@ -6680,10 +6680,10 @@
         <v>45200.41666666666</v>
       </c>
       <c r="F70" t="s">
+        <v>39</v>
+      </c>
+      <c r="G70" t="s">
         <v>40</v>
-      </c>
-      <c r="G70" t="s">
-        <v>39</v>
       </c>
       <c r="H70">
         <v>1</v>
@@ -7128,7 +7128,7 @@
         <v>32</v>
       </c>
       <c r="G75" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H75">
         <v>0</v>
@@ -7303,7 +7303,7 @@
         <v>45207.41666666666</v>
       </c>
       <c r="F77" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G77" t="s">
         <v>43</v>
@@ -7748,7 +7748,7 @@
         <v>45213.41666666666</v>
       </c>
       <c r="F82" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G82" t="s">
         <v>43</v>
@@ -8181,7 +8181,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>6989515</v>
+        <v>6989684</v>
       </c>
       <c r="C87" t="s">
         <v>28</v>
@@ -8193,10 +8193,10 @@
         <v>45215.41666666666</v>
       </c>
       <c r="F87" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="G87" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H87">
         <v>1</v>
@@ -8208,43 +8208,43 @@
         <v>45</v>
       </c>
       <c r="K87">
-        <v>1.5</v>
+        <v>2.4</v>
       </c>
       <c r="L87">
+        <v>2.8</v>
+      </c>
+      <c r="M87">
+        <v>2.9</v>
+      </c>
+      <c r="N87">
         <v>3.75</v>
       </c>
-      <c r="M87">
-        <v>5.5</v>
-      </c>
-      <c r="N87">
-        <v>1.5</v>
-      </c>
       <c r="O87">
-        <v>3.75</v>
+        <v>2.9</v>
       </c>
       <c r="P87">
-        <v>6</v>
+        <v>1.95</v>
       </c>
       <c r="Q87">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="R87">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S87">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T87">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U87">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V87">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W87">
-        <v>0.5</v>
+        <v>2.75</v>
       </c>
       <c r="X87">
         <v>-1</v>
@@ -8253,16 +8253,16 @@
         <v>-1</v>
       </c>
       <c r="Z87">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AA87">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB87">
         <v>-1</v>
       </c>
       <c r="AC87">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="88" spans="1:29">
@@ -8359,7 +8359,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>6989684</v>
+        <v>6989515</v>
       </c>
       <c r="C89" t="s">
         <v>28</v>
@@ -8371,10 +8371,10 @@
         <v>45215.41666666666</v>
       </c>
       <c r="F89" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="G89" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H89">
         <v>1</v>
@@ -8386,44 +8386,44 @@
         <v>45</v>
       </c>
       <c r="K89">
-        <v>2.4</v>
+        <v>1.5</v>
       </c>
       <c r="L89">
-        <v>2.8</v>
+        <v>3.75</v>
       </c>
       <c r="M89">
-        <v>2.9</v>
+        <v>5.5</v>
       </c>
       <c r="N89">
+        <v>1.5</v>
+      </c>
+      <c r="O89">
         <v>3.75</v>
       </c>
-      <c r="O89">
-        <v>2.9</v>
-      </c>
       <c r="P89">
-        <v>1.95</v>
+        <v>6</v>
       </c>
       <c r="Q89">
+        <v>-1</v>
+      </c>
+      <c r="R89">
+        <v>1.825</v>
+      </c>
+      <c r="S89">
+        <v>1.975</v>
+      </c>
+      <c r="T89">
+        <v>2.25</v>
+      </c>
+      <c r="U89">
+        <v>2</v>
+      </c>
+      <c r="V89">
+        <v>1.8</v>
+      </c>
+      <c r="W89">
         <v>0.5</v>
       </c>
-      <c r="R89">
-        <v>1.8</v>
-      </c>
-      <c r="S89">
-        <v>2</v>
-      </c>
-      <c r="T89">
-        <v>2</v>
-      </c>
-      <c r="U89">
-        <v>1.85</v>
-      </c>
-      <c r="V89">
-        <v>1.95</v>
-      </c>
-      <c r="W89">
-        <v>2.75</v>
-      </c>
       <c r="X89">
         <v>-1</v>
       </c>
@@ -8431,16 +8431,16 @@
         <v>-1</v>
       </c>
       <c r="Z89">
+        <v>0</v>
+      </c>
+      <c r="AA89">
+        <v>-0</v>
+      </c>
+      <c r="AB89">
+        <v>-1</v>
+      </c>
+      <c r="AC89">
         <v>0.8</v>
-      </c>
-      <c r="AA89">
-        <v>-1</v>
-      </c>
-      <c r="AB89">
-        <v>-1</v>
-      </c>
-      <c r="AC89">
-        <v>0.95</v>
       </c>
     </row>
     <row r="90" spans="1:29">
@@ -8463,7 +8463,7 @@
         <v>31</v>
       </c>
       <c r="G90" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H90">
         <v>1</v>
@@ -9083,7 +9083,7 @@
         <v>45222.375</v>
       </c>
       <c r="F97" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G97" t="s">
         <v>29</v>
@@ -9531,7 +9531,7 @@
         <v>34</v>
       </c>
       <c r="G102" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H102">
         <v>0</v>
@@ -9706,7 +9706,7 @@
         <v>45227.375</v>
       </c>
       <c r="F104" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G104" t="s">
         <v>38</v>
@@ -9973,7 +9973,7 @@
         <v>45235.375</v>
       </c>
       <c r="F107" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G107" t="s">
         <v>30</v>
@@ -10421,7 +10421,7 @@
         <v>35</v>
       </c>
       <c r="G112" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H112">
         <v>1</v>
@@ -10596,7 +10596,7 @@
         <v>45241.375</v>
       </c>
       <c r="F114" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G114" t="s">
         <v>29</v>
@@ -10774,7 +10774,7 @@
         <v>45241.375</v>
       </c>
       <c r="F116" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G116" t="s">
         <v>36</v>
@@ -11489,7 +11489,7 @@
         <v>33</v>
       </c>
       <c r="G124" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H124">
         <v>0</v>
@@ -12097,7 +12097,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>7497670</v>
+        <v>7497904</v>
       </c>
       <c r="C131" t="s">
         <v>28</v>
@@ -12109,76 +12109,76 @@
         <v>45252.375</v>
       </c>
       <c r="F131" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="G131" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H131">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I131">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J131" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K131">
-        <v>3.2</v>
+        <v>2.4</v>
       </c>
       <c r="L131">
-        <v>2.9</v>
+        <v>2.875</v>
       </c>
       <c r="M131">
-        <v>2.2</v>
+        <v>2.875</v>
       </c>
       <c r="N131">
-        <v>3.3</v>
+        <v>2.875</v>
       </c>
       <c r="O131">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="P131">
-        <v>2.15</v>
+        <v>2.3</v>
       </c>
       <c r="Q131">
         <v>0.25</v>
       </c>
       <c r="R131">
+        <v>1.75</v>
+      </c>
+      <c r="S131">
+        <v>2.05</v>
+      </c>
+      <c r="T131">
+        <v>2</v>
+      </c>
+      <c r="U131">
+        <v>1.925</v>
+      </c>
+      <c r="V131">
         <v>1.875</v>
       </c>
-      <c r="S131">
-        <v>1.925</v>
-      </c>
-      <c r="T131">
-        <v>2</v>
-      </c>
-      <c r="U131">
-        <v>1.95</v>
-      </c>
-      <c r="V131">
-        <v>1.85</v>
-      </c>
       <c r="W131">
         <v>-1</v>
       </c>
       <c r="X131">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Y131">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z131">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AA131">
-        <v>-0.5</v>
+        <v>1.05</v>
       </c>
       <c r="AB131">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC131">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="132" spans="1:29">
@@ -12201,7 +12201,7 @@
         <v>41</v>
       </c>
       <c r="G132" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H132">
         <v>2</v>
@@ -12275,7 +12275,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>7497904</v>
+        <v>7497670</v>
       </c>
       <c r="C133" t="s">
         <v>28</v>
@@ -12287,76 +12287,76 @@
         <v>45252.375</v>
       </c>
       <c r="F133" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="G133" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H133">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I133">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J133" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K133">
-        <v>2.4</v>
+        <v>3.2</v>
       </c>
       <c r="L133">
-        <v>2.875</v>
+        <v>2.9</v>
       </c>
       <c r="M133">
-        <v>2.875</v>
+        <v>2.2</v>
       </c>
       <c r="N133">
-        <v>2.875</v>
+        <v>3.3</v>
       </c>
       <c r="O133">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="P133">
-        <v>2.3</v>
+        <v>2.15</v>
       </c>
       <c r="Q133">
         <v>0.25</v>
       </c>
       <c r="R133">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="S133">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="T133">
         <v>2</v>
       </c>
       <c r="U133">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V133">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W133">
         <v>-1</v>
       </c>
       <c r="X133">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Y133">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z133">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AA133">
-        <v>1.05</v>
+        <v>-0.5</v>
       </c>
       <c r="AB133">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC133">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="134" spans="1:29">
@@ -12732,7 +12732,7 @@
         <v>45256.375</v>
       </c>
       <c r="F138" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G138" t="s">
         <v>34</v>
@@ -12821,7 +12821,7 @@
         <v>45256.375</v>
       </c>
       <c r="F139" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G139" t="s">
         <v>32</v>
@@ -13180,7 +13180,7 @@
         <v>42</v>
       </c>
       <c r="G143" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H143">
         <v>0</v>
@@ -13254,7 +13254,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>6989529</v>
+        <v>6989700</v>
       </c>
       <c r="C144" t="s">
         <v>28</v>
@@ -13266,55 +13266,55 @@
         <v>45262.375</v>
       </c>
       <c r="F144" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G144" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H144">
+        <v>0</v>
+      </c>
+      <c r="I144">
         <v>1</v>
-      </c>
-      <c r="I144">
-        <v>2</v>
       </c>
       <c r="J144" t="s">
         <v>46</v>
       </c>
       <c r="K144">
-        <v>4.75</v>
+        <v>2.625</v>
       </c>
       <c r="L144">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="M144">
-        <v>1.571</v>
+        <v>2.5</v>
       </c>
       <c r="N144">
-        <v>4.75</v>
+        <v>2.375</v>
       </c>
       <c r="O144">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="P144">
-        <v>1.571</v>
+        <v>2.75</v>
       </c>
       <c r="Q144">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R144">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="S144">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="T144">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U144">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="V144">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="W144">
         <v>-1</v>
@@ -13323,19 +13323,19 @@
         <v>-1</v>
       </c>
       <c r="Y144">
-        <v>0.571</v>
+        <v>1.75</v>
       </c>
       <c r="Z144">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA144">
-        <v>-0</v>
+        <v>1.05</v>
       </c>
       <c r="AB144">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC144">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="145" spans="1:29">
@@ -13358,7 +13358,7 @@
         <v>31</v>
       </c>
       <c r="G145" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H145">
         <v>1</v>
@@ -13432,7 +13432,7 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>6989700</v>
+        <v>7019002</v>
       </c>
       <c r="C146" t="s">
         <v>28</v>
@@ -13444,76 +13444,76 @@
         <v>45262.375</v>
       </c>
       <c r="F146" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G146" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="H146">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I146">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J146" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K146">
-        <v>2.625</v>
+        <v>2.5</v>
       </c>
       <c r="L146">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="M146">
         <v>2.5</v>
       </c>
       <c r="N146">
-        <v>2.375</v>
+        <v>1.75</v>
       </c>
       <c r="O146">
         <v>3.1</v>
       </c>
       <c r="P146">
-        <v>2.75</v>
+        <v>4.5</v>
       </c>
       <c r="Q146">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R146">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="S146">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="T146">
         <v>2</v>
       </c>
       <c r="U146">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="V146">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="W146">
         <v>-1</v>
       </c>
       <c r="X146">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y146">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Z146">
         <v>-1</v>
       </c>
       <c r="AA146">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="AB146">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC146">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="147" spans="1:29">
@@ -13521,7 +13521,7 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>7019002</v>
+        <v>6989529</v>
       </c>
       <c r="C147" t="s">
         <v>28</v>
@@ -13533,40 +13533,40 @@
         <v>45262.375</v>
       </c>
       <c r="F147" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G147" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H147">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I147">
         <v>2</v>
       </c>
       <c r="J147" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K147">
-        <v>2.5</v>
+        <v>4.75</v>
       </c>
       <c r="L147">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="M147">
-        <v>2.5</v>
+        <v>1.571</v>
       </c>
       <c r="N147">
-        <v>1.75</v>
+        <v>4.75</v>
       </c>
       <c r="O147">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="P147">
-        <v>4.5</v>
+        <v>1.571</v>
       </c>
       <c r="Q147">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="R147">
         <v>1.8</v>
@@ -13575,31 +13575,31 @@
         <v>2</v>
       </c>
       <c r="T147">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U147">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V147">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W147">
         <v>-1</v>
       </c>
       <c r="X147">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y147">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="Z147">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA147">
-        <v>1</v>
+        <v>-0</v>
       </c>
       <c r="AB147">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC147">
         <v>-1</v>
@@ -14067,7 +14067,7 @@
         <v>45270.375</v>
       </c>
       <c r="F153" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G153" t="s">
         <v>30</v>
@@ -14500,7 +14500,7 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>6989531</v>
+        <v>6989530</v>
       </c>
       <c r="C158" t="s">
         <v>28</v>
@@ -14512,49 +14512,49 @@
         <v>45271.375</v>
       </c>
       <c r="F158" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G158" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="H158">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I158">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J158" t="s">
         <v>45</v>
       </c>
       <c r="K158">
-        <v>1.571</v>
+        <v>1.666</v>
       </c>
       <c r="L158">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M158">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="N158">
         <v>1.444</v>
       </c>
       <c r="O158">
-        <v>4.2</v>
+        <v>4.333</v>
       </c>
       <c r="P158">
-        <v>5.75</v>
+        <v>5.25</v>
       </c>
       <c r="Q158">
-        <v>-1.25</v>
+        <v>-1</v>
       </c>
       <c r="R158">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="S158">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T158">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U158">
         <v>1.85</v>
@@ -14572,16 +14572,16 @@
         <v>-1</v>
       </c>
       <c r="Z158">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AA158">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AB158">
-        <v>0.425</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC158">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="159" spans="1:29">
@@ -14589,7 +14589,7 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>6989530</v>
+        <v>6989531</v>
       </c>
       <c r="C159" t="s">
         <v>28</v>
@@ -14601,49 +14601,49 @@
         <v>45271.375</v>
       </c>
       <c r="F159" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G159" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="H159">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I159">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J159" t="s">
         <v>45</v>
       </c>
       <c r="K159">
-        <v>1.666</v>
+        <v>1.571</v>
       </c>
       <c r="L159">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M159">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="N159">
         <v>1.444</v>
       </c>
       <c r="O159">
-        <v>4.333</v>
+        <v>4.2</v>
       </c>
       <c r="P159">
-        <v>5.25</v>
+        <v>5.75</v>
       </c>
       <c r="Q159">
-        <v>-1</v>
+        <v>-1.25</v>
       </c>
       <c r="R159">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="S159">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T159">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U159">
         <v>1.85</v>
@@ -14661,16 +14661,16 @@
         <v>-1</v>
       </c>
       <c r="Z159">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AA159">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AB159">
-        <v>0.8500000000000001</v>
+        <v>0.425</v>
       </c>
       <c r="AC159">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="160" spans="1:29">
@@ -14782,7 +14782,7 @@
         <v>44</v>
       </c>
       <c r="G161" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H161">
         <v>2</v>
@@ -15138,7 +15138,7 @@
         <v>44</v>
       </c>
       <c r="G165" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H165">
         <v>0</v>
@@ -15405,7 +15405,7 @@
         <v>37</v>
       </c>
       <c r="G168" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H168">
         <v>1</v>
@@ -15580,7 +15580,7 @@
         <v>45352.375</v>
       </c>
       <c r="F170" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G170" t="s">
         <v>42</v>
@@ -15746,7 +15746,7 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>7901792</v>
+        <v>7901793</v>
       </c>
       <c r="C172" t="s">
         <v>28</v>
@@ -15758,58 +15758,58 @@
         <v>45353.375</v>
       </c>
       <c r="F172" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G172" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H172">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I172">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J172" t="s">
         <v>45</v>
       </c>
       <c r="K172">
-        <v>1.833</v>
+        <v>1.666</v>
       </c>
       <c r="L172">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="M172">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="N172">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="O172">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="P172">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="Q172">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R172">
+        <v>1.75</v>
+      </c>
+      <c r="S172">
         <v>2.05</v>
-      </c>
-      <c r="S172">
-        <v>1.75</v>
       </c>
       <c r="T172">
         <v>1.75</v>
       </c>
       <c r="U172">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V172">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W172">
-        <v>1</v>
+        <v>1.05</v>
       </c>
       <c r="X172">
         <v>-1</v>
@@ -15818,16 +15818,16 @@
         <v>-1</v>
       </c>
       <c r="Z172">
-        <v>1.05</v>
+        <v>0.75</v>
       </c>
       <c r="AA172">
         <v>-1</v>
       </c>
       <c r="AB172">
-        <v>0.95</v>
+        <v>0.45</v>
       </c>
       <c r="AC172">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="173" spans="1:29">
@@ -15835,7 +15835,7 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>7901794</v>
+        <v>7901792</v>
       </c>
       <c r="C173" t="s">
         <v>28</v>
@@ -15847,58 +15847,58 @@
         <v>45353.375</v>
       </c>
       <c r="F173" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G173" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H173">
+        <v>3</v>
+      </c>
+      <c r="I173">
         <v>1</v>
-      </c>
-      <c r="I173">
-        <v>0</v>
       </c>
       <c r="J173" t="s">
         <v>45</v>
       </c>
       <c r="K173">
-        <v>2.25</v>
+        <v>1.833</v>
       </c>
       <c r="L173">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="M173">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="N173">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="O173">
-        <v>2.6</v>
+        <v>2.75</v>
       </c>
       <c r="P173">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="Q173">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R173">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="S173">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="T173">
         <v>1.75</v>
       </c>
       <c r="U173">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V173">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W173">
-        <v>1.15</v>
+        <v>1</v>
       </c>
       <c r="X173">
         <v>-1</v>
@@ -15907,16 +15907,16 @@
         <v>-1</v>
       </c>
       <c r="Z173">
-        <v>0.825</v>
+        <v>1.05</v>
       </c>
       <c r="AA173">
         <v>-1</v>
       </c>
       <c r="AB173">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC173">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="174" spans="1:29">
@@ -15924,7 +15924,7 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>7901793</v>
+        <v>7901796</v>
       </c>
       <c r="C174" t="s">
         <v>28</v>
@@ -15936,76 +15936,76 @@
         <v>45353.375</v>
       </c>
       <c r="F174" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="G174" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="H174">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I174">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J174" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K174">
-        <v>1.666</v>
+        <v>1.4</v>
       </c>
       <c r="L174">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="M174">
+        <v>8</v>
+      </c>
+      <c r="N174">
+        <v>1.65</v>
+      </c>
+      <c r="O174">
+        <v>3.5</v>
+      </c>
+      <c r="P174">
         <v>4.75</v>
       </c>
-      <c r="N174">
-        <v>2.05</v>
-      </c>
-      <c r="O174">
-        <v>2.7</v>
-      </c>
-      <c r="P174">
-        <v>3.8</v>
-      </c>
       <c r="Q174">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R174">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="S174">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="T174">
-        <v>1.75</v>
+        <v>2.5</v>
       </c>
       <c r="U174">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V174">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W174">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X174">
         <v>-1</v>
       </c>
       <c r="Y174">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Z174">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA174">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB174">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AC174">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="175" spans="1:29">
@@ -16013,7 +16013,7 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>7901796</v>
+        <v>7901795</v>
       </c>
       <c r="C175" t="s">
         <v>28</v>
@@ -16025,76 +16025,76 @@
         <v>45353.375</v>
       </c>
       <c r="F175" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G175" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H175">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I175">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J175" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K175">
-        <v>1.4</v>
+        <v>1.666</v>
       </c>
       <c r="L175">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M175">
-        <v>8</v>
+        <v>4.5</v>
       </c>
       <c r="N175">
-        <v>1.65</v>
+        <v>1.444</v>
       </c>
       <c r="O175">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="P175">
-        <v>4.75</v>
+        <v>7</v>
       </c>
       <c r="Q175">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R175">
-        <v>1.825</v>
+        <v>1.725</v>
       </c>
       <c r="S175">
         <v>1.975</v>
       </c>
       <c r="T175">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U175">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V175">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W175">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="X175">
         <v>-1</v>
       </c>
       <c r="Y175">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Z175">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA175">
-        <v>0.9750000000000001</v>
+        <v>-0</v>
       </c>
       <c r="AB175">
         <v>-1</v>
       </c>
       <c r="AC175">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="176" spans="1:29">
@@ -16102,7 +16102,7 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>7901795</v>
+        <v>7901794</v>
       </c>
       <c r="C176" t="s">
         <v>28</v>
@@ -16114,10 +16114,10 @@
         <v>45353.375</v>
       </c>
       <c r="F176" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G176" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H176">
         <v>1</v>
@@ -16129,43 +16129,43 @@
         <v>45</v>
       </c>
       <c r="K176">
-        <v>1.666</v>
+        <v>2.25</v>
       </c>
       <c r="L176">
-        <v>3.4</v>
+        <v>2.8</v>
       </c>
       <c r="M176">
-        <v>4.5</v>
+        <v>3.2</v>
       </c>
       <c r="N176">
-        <v>1.444</v>
+        <v>2.15</v>
       </c>
       <c r="O176">
-        <v>3.75</v>
+        <v>2.6</v>
       </c>
       <c r="P176">
-        <v>7</v>
+        <v>3.8</v>
       </c>
       <c r="Q176">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R176">
-        <v>1.725</v>
+        <v>1.825</v>
       </c>
       <c r="S176">
         <v>1.975</v>
       </c>
       <c r="T176">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
       <c r="U176">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V176">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W176">
-        <v>0.444</v>
+        <v>1.15</v>
       </c>
       <c r="X176">
         <v>-1</v>
@@ -16174,16 +16174,16 @@
         <v>-1</v>
       </c>
       <c r="Z176">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AA176">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB176">
         <v>-1</v>
       </c>
       <c r="AC176">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="177" spans="1:29">
@@ -16384,7 +16384,7 @@
         <v>41</v>
       </c>
       <c r="G179" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H179">
         <v>0</v>
@@ -16473,7 +16473,7 @@
         <v>37</v>
       </c>
       <c r="G180" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H180">
         <v>2</v>
@@ -16992,7 +16992,7 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>6989714</v>
+        <v>6989712</v>
       </c>
       <c r="C186" t="s">
         <v>28</v>
@@ -17007,10 +17007,10 @@
         <v>39</v>
       </c>
       <c r="G186" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="H186">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I186">
         <v>0</v>
@@ -17019,43 +17019,43 @@
         <v>45</v>
       </c>
       <c r="K186">
-        <v>2.6</v>
+        <v>1.533</v>
       </c>
       <c r="L186">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M186">
-        <v>2.4</v>
+        <v>6</v>
       </c>
       <c r="N186">
-        <v>2.6</v>
+        <v>1.533</v>
       </c>
       <c r="O186">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="P186">
-        <v>2.5</v>
+        <v>6</v>
       </c>
       <c r="Q186">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R186">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S186">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T186">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U186">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V186">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W186">
-        <v>1.6</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X186">
         <v>-1</v>
@@ -17064,16 +17064,16 @@
         <v>-1</v>
       </c>
       <c r="Z186">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA186">
         <v>-1</v>
       </c>
       <c r="AB186">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC186">
-        <v>0.95</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="187" spans="1:29">
@@ -17081,7 +17081,7 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>6989712</v>
+        <v>6989714</v>
       </c>
       <c r="C187" t="s">
         <v>28</v>
@@ -17096,10 +17096,10 @@
         <v>40</v>
       </c>
       <c r="G187" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="H187">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I187">
         <v>0</v>
@@ -17108,43 +17108,43 @@
         <v>45</v>
       </c>
       <c r="K187">
-        <v>1.533</v>
+        <v>2.6</v>
       </c>
       <c r="L187">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M187">
-        <v>6</v>
+        <v>2.4</v>
       </c>
       <c r="N187">
-        <v>1.533</v>
+        <v>2.6</v>
       </c>
       <c r="O187">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="P187">
-        <v>6</v>
+        <v>2.5</v>
       </c>
       <c r="Q187">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R187">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S187">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T187">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U187">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V187">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W187">
-        <v>0.5329999999999999</v>
+        <v>1.6</v>
       </c>
       <c r="X187">
         <v>-1</v>
@@ -17153,16 +17153,16 @@
         <v>-1</v>
       </c>
       <c r="Z187">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AA187">
         <v>-1</v>
       </c>
       <c r="AB187">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC187">
-        <v>-0</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="188" spans="1:29">
@@ -17259,7 +17259,7 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>6989537</v>
+        <v>6989536</v>
       </c>
       <c r="C189" t="s">
         <v>28</v>
@@ -17271,76 +17271,76 @@
         <v>45362.41666666666</v>
       </c>
       <c r="F189" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G189" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="H189">
+        <v>0</v>
+      </c>
+      <c r="I189">
         <v>1</v>
       </c>
-      <c r="I189">
-        <v>0</v>
-      </c>
       <c r="J189" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K189">
-        <v>1.8</v>
+        <v>2.25</v>
       </c>
       <c r="L189">
-        <v>3.1</v>
+        <v>2.75</v>
       </c>
       <c r="M189">
-        <v>4.2</v>
+        <v>3.25</v>
       </c>
       <c r="N189">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="O189">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="P189">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="Q189">
-        <v>-1</v>
+        <v>-1.25</v>
       </c>
       <c r="R189">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S189">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T189">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U189">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="V189">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="W189">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X189">
         <v>-1</v>
       </c>
       <c r="Y189">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="Z189">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA189">
-        <v>-0</v>
+        <v>0.925</v>
       </c>
       <c r="AB189">
         <v>-1</v>
       </c>
       <c r="AC189">
-        <v>0.7749999999999999</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="190" spans="1:29">
@@ -17348,7 +17348,7 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>6989536</v>
+        <v>6989643</v>
       </c>
       <c r="C190" t="s">
         <v>28</v>
@@ -17360,76 +17360,76 @@
         <v>45362.41666666666</v>
       </c>
       <c r="F190" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G190" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H190">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I190">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J190" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K190">
         <v>2.25</v>
       </c>
       <c r="L190">
+        <v>3.25</v>
+      </c>
+      <c r="M190">
         <v>2.75</v>
       </c>
-      <c r="M190">
-        <v>3.25</v>
-      </c>
       <c r="N190">
-        <v>1.4</v>
+        <v>2.3</v>
       </c>
       <c r="O190">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="P190">
-        <v>7</v>
+        <v>2.625</v>
       </c>
       <c r="Q190">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R190">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="S190">
-        <v>1.925</v>
+        <v>1.725</v>
       </c>
       <c r="T190">
-        <v>2.5</v>
+        <v>1.75</v>
       </c>
       <c r="U190">
-        <v>1.875</v>
+        <v>1.725</v>
       </c>
       <c r="V190">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W190">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="X190">
         <v>-1</v>
       </c>
       <c r="Y190">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="Z190">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA190">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB190">
         <v>-1</v>
       </c>
       <c r="AC190">
-        <v>0.925</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="191" spans="1:29">
@@ -17437,7 +17437,7 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>6989643</v>
+        <v>6989537</v>
       </c>
       <c r="C191" t="s">
         <v>28</v>
@@ -17449,10 +17449,10 @@
         <v>45362.41666666666</v>
       </c>
       <c r="F191" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="G191" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="H191">
         <v>1</v>
@@ -17464,43 +17464,43 @@
         <v>45</v>
       </c>
       <c r="K191">
+        <v>1.8</v>
+      </c>
+      <c r="L191">
+        <v>3.1</v>
+      </c>
+      <c r="M191">
+        <v>4.2</v>
+      </c>
+      <c r="N191">
+        <v>1.5</v>
+      </c>
+      <c r="O191">
+        <v>3.5</v>
+      </c>
+      <c r="P191">
+        <v>6.5</v>
+      </c>
+      <c r="Q191">
+        <v>-1</v>
+      </c>
+      <c r="R191">
+        <v>1.85</v>
+      </c>
+      <c r="S191">
+        <v>1.95</v>
+      </c>
+      <c r="T191">
         <v>2.25</v>
       </c>
-      <c r="L191">
-        <v>3.25</v>
-      </c>
-      <c r="M191">
-        <v>2.75</v>
-      </c>
-      <c r="N191">
-        <v>2.3</v>
-      </c>
-      <c r="O191">
-        <v>3.3</v>
-      </c>
-      <c r="P191">
-        <v>2.625</v>
-      </c>
-      <c r="Q191">
-        <v>-0.25</v>
-      </c>
-      <c r="R191">
-        <v>1.975</v>
-      </c>
-      <c r="S191">
-        <v>1.725</v>
-      </c>
-      <c r="T191">
-        <v>1.75</v>
-      </c>
       <c r="U191">
-        <v>1.725</v>
+        <v>2.025</v>
       </c>
       <c r="V191">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="W191">
-        <v>1.3</v>
+        <v>0.5</v>
       </c>
       <c r="X191">
         <v>-1</v>
@@ -17509,16 +17509,16 @@
         <v>-1</v>
       </c>
       <c r="Z191">
-        <v>0.9750000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA191">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB191">
         <v>-1</v>
       </c>
       <c r="AC191">
-        <v>0.9750000000000001</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="192" spans="1:29">
@@ -18238,7 +18238,7 @@
         <v>198</v>
       </c>
       <c r="B200">
-        <v>6989337</v>
+        <v>6989717</v>
       </c>
       <c r="C200" t="s">
         <v>28</v>
@@ -18250,43 +18250,43 @@
         <v>45374.45833333334</v>
       </c>
       <c r="F200" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="G200" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="H200">
         <v>0</v>
       </c>
       <c r="I200">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J200" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K200">
-        <v>1.909</v>
+        <v>1.833</v>
       </c>
       <c r="L200">
         <v>3.1</v>
       </c>
       <c r="M200">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="N200">
-        <v>1.6</v>
+        <v>2</v>
       </c>
       <c r="O200">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="P200">
-        <v>5.25</v>
+        <v>3.5</v>
       </c>
       <c r="Q200">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R200">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="S200">
         <v>1.75</v>
@@ -18304,10 +18304,10 @@
         <v>-1</v>
       </c>
       <c r="X200">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y200">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Z200">
         <v>-1</v>
@@ -18327,7 +18327,7 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>6989717</v>
+        <v>6989337</v>
       </c>
       <c r="C201" t="s">
         <v>28</v>
@@ -18339,43 +18339,43 @@
         <v>45374.45833333334</v>
       </c>
       <c r="F201" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G201" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="H201">
         <v>0</v>
       </c>
       <c r="I201">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J201" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K201">
-        <v>1.833</v>
+        <v>1.909</v>
       </c>
       <c r="L201">
         <v>3.1</v>
       </c>
       <c r="M201">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="N201">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="O201">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="P201">
-        <v>3.5</v>
+        <v>5.25</v>
       </c>
       <c r="Q201">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R201">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="S201">
         <v>1.75</v>
@@ -18393,10 +18393,10 @@
         <v>-1</v>
       </c>
       <c r="X201">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y201">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Z201">
         <v>-1</v>
@@ -18416,7 +18416,7 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>6989540</v>
+        <v>6989646</v>
       </c>
       <c r="C202" t="s">
         <v>28</v>
@@ -18428,13 +18428,13 @@
         <v>45374.54166666666</v>
       </c>
       <c r="F202" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G202" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H202">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I202">
         <v>0</v>
@@ -18443,44 +18443,44 @@
         <v>45</v>
       </c>
       <c r="K202">
-        <v>1.666</v>
+        <v>2.5</v>
       </c>
       <c r="L202">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M202">
-        <v>4.8</v>
+        <v>2.5</v>
       </c>
       <c r="N202">
+        <v>2.55</v>
+      </c>
+      <c r="O202">
+        <v>3</v>
+      </c>
+      <c r="P202">
+        <v>2.6</v>
+      </c>
+      <c r="Q202">
+        <v>0</v>
+      </c>
+      <c r="R202">
+        <v>1.875</v>
+      </c>
+      <c r="S202">
+        <v>1.925</v>
+      </c>
+      <c r="T202">
+        <v>1.75</v>
+      </c>
+      <c r="U202">
+        <v>1.85</v>
+      </c>
+      <c r="V202">
+        <v>1.95</v>
+      </c>
+      <c r="W202">
         <v>1.55</v>
       </c>
-      <c r="O202">
-        <v>3.5</v>
-      </c>
-      <c r="P202">
-        <v>5.5</v>
-      </c>
-      <c r="Q202">
-        <v>-0.75</v>
-      </c>
-      <c r="R202">
-        <v>1.725</v>
-      </c>
-      <c r="S202">
-        <v>1.975</v>
-      </c>
-      <c r="T202">
-        <v>2</v>
-      </c>
-      <c r="U202">
-        <v>1.825</v>
-      </c>
-      <c r="V202">
-        <v>1.975</v>
-      </c>
-      <c r="W202">
-        <v>0.55</v>
-      </c>
       <c r="X202">
         <v>-1</v>
       </c>
@@ -18488,16 +18488,16 @@
         <v>-1</v>
       </c>
       <c r="Z202">
-        <v>0.7250000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AA202">
         <v>-1</v>
       </c>
       <c r="AB202">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC202">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="203" spans="1:29">
@@ -18505,7 +18505,7 @@
         <v>201</v>
       </c>
       <c r="B203">
-        <v>6989646</v>
+        <v>6989540</v>
       </c>
       <c r="C203" t="s">
         <v>28</v>
@@ -18517,13 +18517,13 @@
         <v>45374.54166666666</v>
       </c>
       <c r="F203" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G203" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H203">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I203">
         <v>0</v>
@@ -18532,43 +18532,43 @@
         <v>45</v>
       </c>
       <c r="K203">
-        <v>2.5</v>
+        <v>1.666</v>
       </c>
       <c r="L203">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M203">
-        <v>2.5</v>
+        <v>4.8</v>
       </c>
       <c r="N203">
-        <v>2.55</v>
+        <v>1.55</v>
       </c>
       <c r="O203">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="P203">
-        <v>2.6</v>
+        <v>5.5</v>
       </c>
       <c r="Q203">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R203">
-        <v>1.875</v>
+        <v>1.725</v>
       </c>
       <c r="S203">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T203">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U203">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V203">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W203">
-        <v>1.55</v>
+        <v>0.55</v>
       </c>
       <c r="X203">
         <v>-1</v>
@@ -18577,16 +18577,16 @@
         <v>-1</v>
       </c>
       <c r="Z203">
-        <v>0.875</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AA203">
         <v>-1</v>
       </c>
       <c r="AB203">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC203">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="204" spans="1:29">
@@ -18698,7 +18698,7 @@
         <v>43</v>
       </c>
       <c r="G205" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H205">
         <v>1</v>
@@ -18943,80 +18943,6 @@
       </c>
       <c r="AC207">
         <v>0.95</v>
-      </c>
-    </row>
-    <row r="208" spans="1:29">
-      <c r="A208" s="1">
-        <v>206</v>
-      </c>
-      <c r="B208">
-        <v>6989338</v>
-      </c>
-      <c r="C208" t="s">
-        <v>28</v>
-      </c>
-      <c r="D208" t="s">
-        <v>28</v>
-      </c>
-      <c r="E208" s="2">
-        <v>45380.625</v>
-      </c>
-      <c r="F208" t="s">
-        <v>44</v>
-      </c>
-      <c r="G208" t="s">
-        <v>36</v>
-      </c>
-      <c r="K208">
-        <v>2.1</v>
-      </c>
-      <c r="L208">
-        <v>2.8</v>
-      </c>
-      <c r="M208">
-        <v>3.6</v>
-      </c>
-      <c r="N208">
-        <v>2.1</v>
-      </c>
-      <c r="O208">
-        <v>2.8</v>
-      </c>
-      <c r="P208">
-        <v>3.6</v>
-      </c>
-      <c r="Q208">
-        <v>-0.25</v>
-      </c>
-      <c r="R208">
-        <v>1.825</v>
-      </c>
-      <c r="S208">
-        <v>1.975</v>
-      </c>
-      <c r="T208">
-        <v>1.75</v>
-      </c>
-      <c r="U208">
-        <v>1.85</v>
-      </c>
-      <c r="V208">
-        <v>1.95</v>
-      </c>
-      <c r="W208">
-        <v>0</v>
-      </c>
-      <c r="X208">
-        <v>0</v>
-      </c>
-      <c r="Y208">
-        <v>0</v>
-      </c>
-      <c r="Z208">
-        <v>0</v>
-      </c>
-      <c r="AA208">
-        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Serbia Prva Liga/Serbia Prva Liga.xlsx
+++ b/Serbia Prva Liga/Serbia Prva Liga.xlsx
@@ -5155,7 +5155,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>6989507</v>
+        <v>6989506</v>
       </c>
       <c r="C53" t="s">
         <v>28</v>
@@ -5167,76 +5167,76 @@
         <v>45186.45833333334</v>
       </c>
       <c r="F53" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="G53" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H53">
+        <v>0</v>
+      </c>
+      <c r="I53">
         <v>1</v>
       </c>
-      <c r="I53">
-        <v>0</v>
-      </c>
       <c r="J53" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K53">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="L53">
         <v>3</v>
       </c>
       <c r="M53">
-        <v>2.25</v>
+        <v>2.625</v>
       </c>
       <c r="N53">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="O53">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="P53">
-        <v>1.8</v>
+        <v>2.625</v>
       </c>
       <c r="Q53">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R53">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S53">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T53">
         <v>2.25</v>
       </c>
       <c r="U53">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V53">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W53">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="X53">
         <v>-1</v>
       </c>
       <c r="Y53">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="Z53">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA53">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB53">
         <v>-1</v>
       </c>
       <c r="AC53">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="54" spans="1:29">
@@ -5244,7 +5244,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>6989506</v>
+        <v>6989507</v>
       </c>
       <c r="C54" t="s">
         <v>28</v>
@@ -5256,76 +5256,76 @@
         <v>45186.45833333334</v>
       </c>
       <c r="F54" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="G54" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J54" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K54">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="L54">
         <v>3</v>
       </c>
       <c r="M54">
-        <v>2.625</v>
+        <v>2.25</v>
       </c>
       <c r="N54">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="O54">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="P54">
-        <v>2.625</v>
+        <v>1.8</v>
       </c>
       <c r="Q54">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R54">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S54">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T54">
         <v>2.25</v>
       </c>
       <c r="U54">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V54">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W54">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="X54">
         <v>-1</v>
       </c>
       <c r="Y54">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="Z54">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA54">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB54">
         <v>-1</v>
       </c>
       <c r="AC54">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="55" spans="1:29">
@@ -8181,7 +8181,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>6989684</v>
+        <v>6989515</v>
       </c>
       <c r="C87" t="s">
         <v>28</v>
@@ -8193,10 +8193,10 @@
         <v>45215.41666666666</v>
       </c>
       <c r="F87" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="G87" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H87">
         <v>1</v>
@@ -8208,44 +8208,44 @@
         <v>45</v>
       </c>
       <c r="K87">
-        <v>2.4</v>
+        <v>1.5</v>
       </c>
       <c r="L87">
-        <v>2.8</v>
+        <v>3.75</v>
       </c>
       <c r="M87">
-        <v>2.9</v>
+        <v>5.5</v>
       </c>
       <c r="N87">
+        <v>1.5</v>
+      </c>
+      <c r="O87">
         <v>3.75</v>
       </c>
-      <c r="O87">
-        <v>2.9</v>
-      </c>
       <c r="P87">
-        <v>1.95</v>
+        <v>6</v>
       </c>
       <c r="Q87">
+        <v>-1</v>
+      </c>
+      <c r="R87">
+        <v>1.825</v>
+      </c>
+      <c r="S87">
+        <v>1.975</v>
+      </c>
+      <c r="T87">
+        <v>2.25</v>
+      </c>
+      <c r="U87">
+        <v>2</v>
+      </c>
+      <c r="V87">
+        <v>1.8</v>
+      </c>
+      <c r="W87">
         <v>0.5</v>
       </c>
-      <c r="R87">
-        <v>1.8</v>
-      </c>
-      <c r="S87">
-        <v>2</v>
-      </c>
-      <c r="T87">
-        <v>2</v>
-      </c>
-      <c r="U87">
-        <v>1.85</v>
-      </c>
-      <c r="V87">
-        <v>1.95</v>
-      </c>
-      <c r="W87">
-        <v>2.75</v>
-      </c>
       <c r="X87">
         <v>-1</v>
       </c>
@@ -8253,16 +8253,16 @@
         <v>-1</v>
       </c>
       <c r="Z87">
+        <v>0</v>
+      </c>
+      <c r="AA87">
+        <v>-0</v>
+      </c>
+      <c r="AB87">
+        <v>-1</v>
+      </c>
+      <c r="AC87">
         <v>0.8</v>
-      </c>
-      <c r="AA87">
-        <v>-1</v>
-      </c>
-      <c r="AB87">
-        <v>-1</v>
-      </c>
-      <c r="AC87">
-        <v>0.95</v>
       </c>
     </row>
     <row r="88" spans="1:29">
@@ -8359,7 +8359,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>6989515</v>
+        <v>6989684</v>
       </c>
       <c r="C89" t="s">
         <v>28</v>
@@ -8371,10 +8371,10 @@
         <v>45215.41666666666</v>
       </c>
       <c r="F89" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="G89" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H89">
         <v>1</v>
@@ -8386,43 +8386,43 @@
         <v>45</v>
       </c>
       <c r="K89">
-        <v>1.5</v>
+        <v>2.4</v>
       </c>
       <c r="L89">
+        <v>2.8</v>
+      </c>
+      <c r="M89">
+        <v>2.9</v>
+      </c>
+      <c r="N89">
         <v>3.75</v>
       </c>
-      <c r="M89">
-        <v>5.5</v>
-      </c>
-      <c r="N89">
-        <v>1.5</v>
-      </c>
       <c r="O89">
-        <v>3.75</v>
+        <v>2.9</v>
       </c>
       <c r="P89">
-        <v>6</v>
+        <v>1.95</v>
       </c>
       <c r="Q89">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="R89">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S89">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T89">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U89">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V89">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W89">
-        <v>0.5</v>
+        <v>2.75</v>
       </c>
       <c r="X89">
         <v>-1</v>
@@ -8431,16 +8431,16 @@
         <v>-1</v>
       </c>
       <c r="Z89">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AA89">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB89">
         <v>-1</v>
       </c>
       <c r="AC89">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="90" spans="1:29">
@@ -10406,7 +10406,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>6989521</v>
+        <v>6989691</v>
       </c>
       <c r="C112" t="s">
         <v>28</v>
@@ -10418,76 +10418,76 @@
         <v>45236.375</v>
       </c>
       <c r="F112" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G112" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="H112">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I112">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J112" t="s">
         <v>47</v>
       </c>
       <c r="K112">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="L112">
         <v>3</v>
       </c>
       <c r="M112">
-        <v>2.75</v>
+        <v>3.6</v>
       </c>
       <c r="N112">
-        <v>2.875</v>
+        <v>1.95</v>
       </c>
       <c r="O112">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="P112">
-        <v>2.45</v>
+        <v>3.75</v>
       </c>
       <c r="Q112">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R112">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S112">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="T112">
         <v>2</v>
       </c>
       <c r="U112">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V112">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W112">
         <v>-1</v>
       </c>
       <c r="X112">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="Y112">
         <v>-1</v>
       </c>
       <c r="Z112">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA112">
-        <v>-0</v>
+        <v>0.8</v>
       </c>
       <c r="AB112">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC112">
-        <v>-0</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="113" spans="1:29">
@@ -10495,7 +10495,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>6989691</v>
+        <v>6989521</v>
       </c>
       <c r="C113" t="s">
         <v>28</v>
@@ -10507,76 +10507,76 @@
         <v>45236.375</v>
       </c>
       <c r="F113" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G113" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="H113">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I113">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J113" t="s">
         <v>47</v>
       </c>
       <c r="K113">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="L113">
         <v>3</v>
       </c>
       <c r="M113">
-        <v>3.6</v>
+        <v>2.75</v>
       </c>
       <c r="N113">
-        <v>1.95</v>
+        <v>2.875</v>
       </c>
       <c r="O113">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="P113">
-        <v>3.75</v>
+        <v>2.45</v>
       </c>
       <c r="Q113">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R113">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="S113">
+        <v>1.75</v>
+      </c>
+      <c r="T113">
+        <v>2</v>
+      </c>
+      <c r="U113">
         <v>1.8</v>
       </c>
-      <c r="T113">
-        <v>2</v>
-      </c>
-      <c r="U113">
-        <v>1.9</v>
-      </c>
       <c r="V113">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W113">
         <v>-1</v>
       </c>
       <c r="X113">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="Y113">
         <v>-1</v>
       </c>
       <c r="Z113">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA113">
-        <v>0.8</v>
+        <v>-0</v>
       </c>
       <c r="AB113">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC113">
-        <v>0.8999999999999999</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="114" spans="1:29">
@@ -12097,7 +12097,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>7497904</v>
+        <v>7497670</v>
       </c>
       <c r="C131" t="s">
         <v>28</v>
@@ -12109,76 +12109,76 @@
         <v>45252.375</v>
       </c>
       <c r="F131" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="G131" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H131">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I131">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J131" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K131">
-        <v>2.4</v>
+        <v>3.2</v>
       </c>
       <c r="L131">
-        <v>2.875</v>
+        <v>2.9</v>
       </c>
       <c r="M131">
-        <v>2.875</v>
+        <v>2.2</v>
       </c>
       <c r="N131">
-        <v>2.875</v>
+        <v>3.3</v>
       </c>
       <c r="O131">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="P131">
-        <v>2.3</v>
+        <v>2.15</v>
       </c>
       <c r="Q131">
         <v>0.25</v>
       </c>
       <c r="R131">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="S131">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="T131">
         <v>2</v>
       </c>
       <c r="U131">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V131">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W131">
         <v>-1</v>
       </c>
       <c r="X131">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Y131">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z131">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AA131">
-        <v>1.05</v>
+        <v>-0.5</v>
       </c>
       <c r="AB131">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC131">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="132" spans="1:29">
@@ -12275,7 +12275,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>7497670</v>
+        <v>7497904</v>
       </c>
       <c r="C133" t="s">
         <v>28</v>
@@ -12287,76 +12287,76 @@
         <v>45252.375</v>
       </c>
       <c r="F133" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="G133" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H133">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I133">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J133" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K133">
-        <v>3.2</v>
+        <v>2.4</v>
       </c>
       <c r="L133">
-        <v>2.9</v>
+        <v>2.875</v>
       </c>
       <c r="M133">
-        <v>2.2</v>
+        <v>2.875</v>
       </c>
       <c r="N133">
-        <v>3.3</v>
+        <v>2.875</v>
       </c>
       <c r="O133">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="P133">
-        <v>2.15</v>
+        <v>2.3</v>
       </c>
       <c r="Q133">
         <v>0.25</v>
       </c>
       <c r="R133">
+        <v>1.75</v>
+      </c>
+      <c r="S133">
+        <v>2.05</v>
+      </c>
+      <c r="T133">
+        <v>2</v>
+      </c>
+      <c r="U133">
+        <v>1.925</v>
+      </c>
+      <c r="V133">
         <v>1.875</v>
       </c>
-      <c r="S133">
-        <v>1.925</v>
-      </c>
-      <c r="T133">
-        <v>2</v>
-      </c>
-      <c r="U133">
-        <v>1.95</v>
-      </c>
-      <c r="V133">
-        <v>1.85</v>
-      </c>
       <c r="W133">
         <v>-1</v>
       </c>
       <c r="X133">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Y133">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z133">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AA133">
-        <v>-0.5</v>
+        <v>1.05</v>
       </c>
       <c r="AB133">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC133">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="134" spans="1:29">
@@ -13343,7 +13343,7 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>6989631</v>
+        <v>6989529</v>
       </c>
       <c r="C145" t="s">
         <v>28</v>
@@ -13355,76 +13355,76 @@
         <v>45262.375</v>
       </c>
       <c r="F145" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G145" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H145">
         <v>1</v>
       </c>
       <c r="I145">
+        <v>2</v>
+      </c>
+      <c r="J145" t="s">
+        <v>46</v>
+      </c>
+      <c r="K145">
+        <v>4.75</v>
+      </c>
+      <c r="L145">
+        <v>3.75</v>
+      </c>
+      <c r="M145">
+        <v>1.571</v>
+      </c>
+      <c r="N145">
+        <v>4.75</v>
+      </c>
+      <c r="O145">
+        <v>3.75</v>
+      </c>
+      <c r="P145">
+        <v>1.571</v>
+      </c>
+      <c r="Q145">
         <v>1</v>
       </c>
-      <c r="J145" t="s">
-        <v>47</v>
-      </c>
-      <c r="K145">
-        <v>2.25</v>
-      </c>
-      <c r="L145">
-        <v>3</v>
-      </c>
-      <c r="M145">
-        <v>3</v>
-      </c>
-      <c r="N145">
-        <v>2.25</v>
-      </c>
-      <c r="O145">
-        <v>3</v>
-      </c>
-      <c r="P145">
-        <v>3</v>
-      </c>
-      <c r="Q145">
-        <v>-0.25</v>
-      </c>
       <c r="R145">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S145">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T145">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U145">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V145">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W145">
         <v>-1</v>
       </c>
       <c r="X145">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y145">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="Z145">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AA145">
-        <v>0.4</v>
+        <v>-0</v>
       </c>
       <c r="AB145">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC145">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="146" spans="1:29">
@@ -13432,7 +13432,7 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>7019002</v>
+        <v>6989631</v>
       </c>
       <c r="C146" t="s">
         <v>28</v>
@@ -13444,76 +13444,76 @@
         <v>45262.375</v>
       </c>
       <c r="F146" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G146" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H146">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I146">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J146" t="s">
         <v>47</v>
       </c>
       <c r="K146">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="L146">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="M146">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="N146">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="O146">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="P146">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="Q146">
+        <v>-0.25</v>
+      </c>
+      <c r="R146">
+        <v>2</v>
+      </c>
+      <c r="S146">
+        <v>1.8</v>
+      </c>
+      <c r="T146">
+        <v>2.25</v>
+      </c>
+      <c r="U146">
+        <v>2</v>
+      </c>
+      <c r="V146">
+        <v>1.8</v>
+      </c>
+      <c r="W146">
+        <v>-1</v>
+      </c>
+      <c r="X146">
+        <v>2</v>
+      </c>
+      <c r="Y146">
+        <v>-1</v>
+      </c>
+      <c r="Z146">
         <v>-0.5</v>
       </c>
-      <c r="R146">
-        <v>1.8</v>
-      </c>
-      <c r="S146">
-        <v>2</v>
-      </c>
-      <c r="T146">
-        <v>2</v>
-      </c>
-      <c r="U146">
-        <v>1.9</v>
-      </c>
-      <c r="V146">
-        <v>1.9</v>
-      </c>
-      <c r="W146">
-        <v>-1</v>
-      </c>
-      <c r="X146">
-        <v>2.1</v>
-      </c>
-      <c r="Y146">
-        <v>-1</v>
-      </c>
-      <c r="Z146">
-        <v>-1</v>
-      </c>
       <c r="AA146">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="AB146">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AC146">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="147" spans="1:29">
@@ -13521,7 +13521,7 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>6989529</v>
+        <v>7019002</v>
       </c>
       <c r="C147" t="s">
         <v>28</v>
@@ -13533,40 +13533,40 @@
         <v>45262.375</v>
       </c>
       <c r="F147" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G147" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H147">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I147">
         <v>2</v>
       </c>
       <c r="J147" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K147">
-        <v>4.75</v>
+        <v>2.5</v>
       </c>
       <c r="L147">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="M147">
-        <v>1.571</v>
+        <v>2.5</v>
       </c>
       <c r="N147">
-        <v>4.75</v>
+        <v>1.75</v>
       </c>
       <c r="O147">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="P147">
-        <v>1.571</v>
+        <v>4.5</v>
       </c>
       <c r="Q147">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="R147">
         <v>1.8</v>
@@ -13575,31 +13575,31 @@
         <v>2</v>
       </c>
       <c r="T147">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U147">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V147">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W147">
         <v>-1</v>
       </c>
       <c r="X147">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y147">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="Z147">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA147">
-        <v>-0</v>
+        <v>1</v>
       </c>
       <c r="AB147">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC147">
         <v>-1</v>
@@ -17259,7 +17259,7 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>6989536</v>
+        <v>6989643</v>
       </c>
       <c r="C189" t="s">
         <v>28</v>
@@ -17271,76 +17271,76 @@
         <v>45362.41666666666</v>
       </c>
       <c r="F189" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G189" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H189">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I189">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J189" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K189">
         <v>2.25</v>
       </c>
       <c r="L189">
+        <v>3.25</v>
+      </c>
+      <c r="M189">
         <v>2.75</v>
       </c>
-      <c r="M189">
-        <v>3.25</v>
-      </c>
       <c r="N189">
-        <v>1.4</v>
+        <v>2.3</v>
       </c>
       <c r="O189">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="P189">
-        <v>7</v>
+        <v>2.625</v>
       </c>
       <c r="Q189">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R189">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="S189">
-        <v>1.925</v>
+        <v>1.725</v>
       </c>
       <c r="T189">
-        <v>2.5</v>
+        <v>1.75</v>
       </c>
       <c r="U189">
-        <v>1.875</v>
+        <v>1.725</v>
       </c>
       <c r="V189">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W189">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="X189">
         <v>-1</v>
       </c>
       <c r="Y189">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="Z189">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA189">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB189">
         <v>-1</v>
       </c>
       <c r="AC189">
-        <v>0.925</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="190" spans="1:29">
@@ -17348,7 +17348,7 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>6989643</v>
+        <v>6989536</v>
       </c>
       <c r="C190" t="s">
         <v>28</v>
@@ -17360,76 +17360,76 @@
         <v>45362.41666666666</v>
       </c>
       <c r="F190" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G190" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H190">
+        <v>0</v>
+      </c>
+      <c r="I190">
         <v>1</v>
       </c>
-      <c r="I190">
-        <v>0</v>
-      </c>
       <c r="J190" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K190">
         <v>2.25</v>
       </c>
       <c r="L190">
+        <v>2.75</v>
+      </c>
+      <c r="M190">
         <v>3.25</v>
       </c>
-      <c r="M190">
-        <v>2.75</v>
-      </c>
       <c r="N190">
-        <v>2.3</v>
+        <v>1.4</v>
       </c>
       <c r="O190">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="P190">
-        <v>2.625</v>
+        <v>7</v>
       </c>
       <c r="Q190">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R190">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="S190">
-        <v>1.725</v>
+        <v>1.925</v>
       </c>
       <c r="T190">
-        <v>1.75</v>
+        <v>2.5</v>
       </c>
       <c r="U190">
-        <v>1.725</v>
+        <v>1.875</v>
       </c>
       <c r="V190">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W190">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="X190">
         <v>-1</v>
       </c>
       <c r="Y190">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="Z190">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA190">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB190">
         <v>-1</v>
       </c>
       <c r="AC190">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="191" spans="1:29">
@@ -18238,7 +18238,7 @@
         <v>198</v>
       </c>
       <c r="B200">
-        <v>6989717</v>
+        <v>6989337</v>
       </c>
       <c r="C200" t="s">
         <v>28</v>
@@ -18250,43 +18250,43 @@
         <v>45374.45833333334</v>
       </c>
       <c r="F200" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="G200" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="H200">
         <v>0</v>
       </c>
       <c r="I200">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J200" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K200">
-        <v>1.833</v>
+        <v>1.909</v>
       </c>
       <c r="L200">
         <v>3.1</v>
       </c>
       <c r="M200">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="N200">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="O200">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="P200">
-        <v>3.5</v>
+        <v>5.25</v>
       </c>
       <c r="Q200">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R200">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="S200">
         <v>1.75</v>
@@ -18304,10 +18304,10 @@
         <v>-1</v>
       </c>
       <c r="X200">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y200">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Z200">
         <v>-1</v>
@@ -18327,7 +18327,7 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>6989337</v>
+        <v>6989717</v>
       </c>
       <c r="C201" t="s">
         <v>28</v>
@@ -18339,43 +18339,43 @@
         <v>45374.45833333334</v>
       </c>
       <c r="F201" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="G201" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="H201">
         <v>0</v>
       </c>
       <c r="I201">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J201" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K201">
-        <v>1.909</v>
+        <v>1.833</v>
       </c>
       <c r="L201">
         <v>3.1</v>
       </c>
       <c r="M201">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="N201">
-        <v>1.6</v>
+        <v>2</v>
       </c>
       <c r="O201">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="P201">
-        <v>5.25</v>
+        <v>3.5</v>
       </c>
       <c r="Q201">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R201">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="S201">
         <v>1.75</v>
@@ -18393,10 +18393,10 @@
         <v>-1</v>
       </c>
       <c r="X201">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y201">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Z201">
         <v>-1</v>

--- a/Serbia Prva Liga/Serbia Prva Liga.xlsx
+++ b/Serbia Prva Liga/Serbia Prva Liga.xlsx
@@ -12542,7 +12542,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>6989629</v>
+        <v>6989630</v>
       </c>
       <c r="C136" t="s">
         <v>28</v>
@@ -12554,13 +12554,13 @@
         <v>45256.375</v>
       </c>
       <c r="F136" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="G136" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H136">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I136">
         <v>0</v>
@@ -12569,43 +12569,43 @@
         <v>45</v>
       </c>
       <c r="K136">
-        <v>2.1</v>
+        <v>1.444</v>
       </c>
       <c r="L136">
-        <v>2.875</v>
+        <v>3.75</v>
       </c>
       <c r="M136">
-        <v>3.5</v>
+        <v>6.5</v>
       </c>
       <c r="N136">
-        <v>1.75</v>
+        <v>1.533</v>
       </c>
       <c r="O136">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="P136">
-        <v>4.75</v>
+        <v>6</v>
       </c>
       <c r="Q136">
-        <v>-0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R136">
-        <v>1.95</v>
+        <v>2.075</v>
       </c>
       <c r="S136">
-        <v>1.75</v>
+        <v>1.725</v>
       </c>
       <c r="T136">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U136">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="V136">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="W136">
-        <v>0.75</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X136">
         <v>-1</v>
@@ -12614,16 +12614,16 @@
         <v>-1</v>
       </c>
       <c r="Z136">
-        <v>0.475</v>
+        <v>1.075</v>
       </c>
       <c r="AA136">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB136">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC136">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="137" spans="1:29">
@@ -12631,7 +12631,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>6989630</v>
+        <v>6989629</v>
       </c>
       <c r="C137" t="s">
         <v>28</v>
@@ -12643,13 +12643,13 @@
         <v>45256.375</v>
       </c>
       <c r="F137" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="G137" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H137">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I137">
         <v>0</v>
@@ -12658,43 +12658,43 @@
         <v>45</v>
       </c>
       <c r="K137">
-        <v>1.444</v>
+        <v>2.1</v>
       </c>
       <c r="L137">
-        <v>3.75</v>
+        <v>2.875</v>
       </c>
       <c r="M137">
-        <v>6.5</v>
+        <v>3.5</v>
       </c>
       <c r="N137">
-        <v>1.533</v>
+        <v>1.75</v>
       </c>
       <c r="O137">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="P137">
-        <v>6</v>
+        <v>4.75</v>
       </c>
       <c r="Q137">
-        <v>-1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R137">
-        <v>2.075</v>
+        <v>1.95</v>
       </c>
       <c r="S137">
-        <v>1.725</v>
+        <v>1.75</v>
       </c>
       <c r="T137">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U137">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="V137">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="W137">
-        <v>0.5329999999999999</v>
+        <v>0.75</v>
       </c>
       <c r="X137">
         <v>-1</v>
@@ -12703,16 +12703,16 @@
         <v>-1</v>
       </c>
       <c r="Z137">
-        <v>1.075</v>
+        <v>0.475</v>
       </c>
       <c r="AA137">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB137">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC137">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="138" spans="1:29">
@@ -13254,7 +13254,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>7019002</v>
+        <v>6989529</v>
       </c>
       <c r="C144" t="s">
         <v>28</v>
@@ -13266,40 +13266,40 @@
         <v>45262.375</v>
       </c>
       <c r="F144" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G144" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H144">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I144">
         <v>2</v>
       </c>
       <c r="J144" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K144">
-        <v>2.5</v>
+        <v>4.75</v>
       </c>
       <c r="L144">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="M144">
-        <v>2.5</v>
+        <v>1.571</v>
       </c>
       <c r="N144">
-        <v>1.75</v>
+        <v>4.75</v>
       </c>
       <c r="O144">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="P144">
-        <v>4.5</v>
+        <v>1.571</v>
       </c>
       <c r="Q144">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="R144">
         <v>1.8</v>
@@ -13308,31 +13308,31 @@
         <v>2</v>
       </c>
       <c r="T144">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U144">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V144">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W144">
         <v>-1</v>
       </c>
       <c r="X144">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y144">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="Z144">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA144">
-        <v>1</v>
+        <v>-0</v>
       </c>
       <c r="AB144">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC144">
         <v>-1</v>
@@ -13343,7 +13343,7 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>6989700</v>
+        <v>6989631</v>
       </c>
       <c r="C145" t="s">
         <v>28</v>
@@ -13355,76 +13355,76 @@
         <v>45262.375</v>
       </c>
       <c r="F145" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G145" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H145">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I145">
         <v>1</v>
       </c>
       <c r="J145" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K145">
-        <v>2.625</v>
+        <v>2.25</v>
       </c>
       <c r="L145">
         <v>3</v>
       </c>
       <c r="M145">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="N145">
-        <v>2.375</v>
+        <v>2.25</v>
       </c>
       <c r="O145">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="P145">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="Q145">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R145">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="S145">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="T145">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U145">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="V145">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="W145">
         <v>-1</v>
       </c>
       <c r="X145">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y145">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Z145">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA145">
-        <v>1.05</v>
+        <v>0.4</v>
       </c>
       <c r="AB145">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC145">
-        <v>0.7749999999999999</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="146" spans="1:29">
@@ -13432,7 +13432,7 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>6989631</v>
+        <v>6989700</v>
       </c>
       <c r="C146" t="s">
         <v>28</v>
@@ -13444,76 +13444,76 @@
         <v>45262.375</v>
       </c>
       <c r="F146" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G146" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H146">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I146">
         <v>1</v>
       </c>
       <c r="J146" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K146">
-        <v>2.25</v>
+        <v>2.625</v>
       </c>
       <c r="L146">
         <v>3</v>
       </c>
       <c r="M146">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="N146">
-        <v>2.25</v>
+        <v>2.375</v>
       </c>
       <c r="O146">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="P146">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Q146">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R146">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="S146">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
       <c r="T146">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U146">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="V146">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="W146">
         <v>-1</v>
       </c>
       <c r="X146">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y146">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="Z146">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA146">
-        <v>0.4</v>
+        <v>1.05</v>
       </c>
       <c r="AB146">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC146">
-        <v>0.4</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="147" spans="1:29">
@@ -13521,7 +13521,7 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>6989529</v>
+        <v>7019002</v>
       </c>
       <c r="C147" t="s">
         <v>28</v>
@@ -13533,40 +13533,40 @@
         <v>45262.375</v>
       </c>
       <c r="F147" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G147" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H147">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I147">
         <v>2</v>
       </c>
       <c r="J147" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K147">
-        <v>4.75</v>
+        <v>2.5</v>
       </c>
       <c r="L147">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="M147">
-        <v>1.571</v>
+        <v>2.5</v>
       </c>
       <c r="N147">
-        <v>4.75</v>
+        <v>1.75</v>
       </c>
       <c r="O147">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="P147">
-        <v>1.571</v>
+        <v>4.5</v>
       </c>
       <c r="Q147">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="R147">
         <v>1.8</v>
@@ -13575,31 +13575,31 @@
         <v>2</v>
       </c>
       <c r="T147">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U147">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V147">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W147">
         <v>-1</v>
       </c>
       <c r="X147">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y147">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="Z147">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA147">
-        <v>-0</v>
+        <v>1</v>
       </c>
       <c r="AB147">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC147">
         <v>-1</v>
@@ -15657,7 +15657,7 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>7901795</v>
+        <v>7901796</v>
       </c>
       <c r="C171" t="s">
         <v>28</v>
@@ -15669,76 +15669,76 @@
         <v>45353.375</v>
       </c>
       <c r="F171" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G171" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H171">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I171">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J171" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K171">
-        <v>1.666</v>
+        <v>1.4</v>
       </c>
       <c r="L171">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M171">
-        <v>4.5</v>
+        <v>8</v>
       </c>
       <c r="N171">
-        <v>1.444</v>
+        <v>1.65</v>
       </c>
       <c r="O171">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="P171">
-        <v>7</v>
+        <v>4.75</v>
       </c>
       <c r="Q171">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R171">
-        <v>1.725</v>
+        <v>1.825</v>
       </c>
       <c r="S171">
         <v>1.975</v>
       </c>
       <c r="T171">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U171">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V171">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W171">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="X171">
         <v>-1</v>
       </c>
       <c r="Y171">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Z171">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA171">
-        <v>-0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB171">
         <v>-1</v>
       </c>
       <c r="AC171">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="172" spans="1:29">
@@ -15746,7 +15746,7 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>7901796</v>
+        <v>7901795</v>
       </c>
       <c r="C172" t="s">
         <v>28</v>
@@ -15758,76 +15758,76 @@
         <v>45353.375</v>
       </c>
       <c r="F172" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G172" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H172">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I172">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J172" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K172">
-        <v>1.4</v>
+        <v>1.666</v>
       </c>
       <c r="L172">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M172">
-        <v>8</v>
+        <v>4.5</v>
       </c>
       <c r="N172">
-        <v>1.65</v>
+        <v>1.444</v>
       </c>
       <c r="O172">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="P172">
-        <v>4.75</v>
+        <v>7</v>
       </c>
       <c r="Q172">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R172">
-        <v>1.825</v>
+        <v>1.725</v>
       </c>
       <c r="S172">
         <v>1.975</v>
       </c>
       <c r="T172">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U172">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V172">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W172">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="X172">
         <v>-1</v>
       </c>
       <c r="Y172">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Z172">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA172">
-        <v>0.9750000000000001</v>
+        <v>-0</v>
       </c>
       <c r="AB172">
         <v>-1</v>
       </c>
       <c r="AC172">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="173" spans="1:29">
@@ -16280,7 +16280,7 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>6989640</v>
+        <v>6989710</v>
       </c>
       <c r="C178" t="s">
         <v>28</v>
@@ -16292,61 +16292,61 @@
         <v>45357.41666666666</v>
       </c>
       <c r="F178" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="G178" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H178">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I178">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J178" t="s">
         <v>47</v>
       </c>
       <c r="K178">
-        <v>1.5</v>
+        <v>1.571</v>
       </c>
       <c r="L178">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M178">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="N178">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="O178">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="P178">
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="Q178">
         <v>-0.5</v>
       </c>
       <c r="R178">
+        <v>1.8</v>
+      </c>
+      <c r="S178">
+        <v>2</v>
+      </c>
+      <c r="T178">
+        <v>2.25</v>
+      </c>
+      <c r="U178">
+        <v>1.85</v>
+      </c>
+      <c r="V178">
         <v>1.95</v>
       </c>
-      <c r="S178">
-        <v>1.85</v>
-      </c>
-      <c r="T178">
-        <v>2</v>
-      </c>
-      <c r="U178">
-        <v>1.775</v>
-      </c>
-      <c r="V178">
-        <v>2.025</v>
-      </c>
       <c r="W178">
         <v>-1</v>
       </c>
       <c r="X178">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="Y178">
         <v>-1</v>
@@ -16355,13 +16355,13 @@
         <v>-1</v>
       </c>
       <c r="AA178">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
       <c r="AB178">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC178">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="179" spans="1:29">
@@ -16369,7 +16369,7 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>6989710</v>
+        <v>6989640</v>
       </c>
       <c r="C179" t="s">
         <v>28</v>
@@ -16381,61 +16381,61 @@
         <v>45357.41666666666</v>
       </c>
       <c r="F179" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G179" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H179">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I179">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J179" t="s">
         <v>47</v>
       </c>
       <c r="K179">
-        <v>1.571</v>
+        <v>1.5</v>
       </c>
       <c r="L179">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M179">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="N179">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="O179">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="P179">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="Q179">
         <v>-0.5</v>
       </c>
       <c r="R179">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S179">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="T179">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U179">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="V179">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="W179">
         <v>-1</v>
       </c>
       <c r="X179">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="Y179">
         <v>-1</v>
@@ -16444,13 +16444,13 @@
         <v>-1</v>
       </c>
       <c r="AA179">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB179">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC179">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="180" spans="1:29">
@@ -19395,7 +19395,7 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>6989719</v>
+        <v>6989720</v>
       </c>
       <c r="C213" t="s">
         <v>28</v>
@@ -19407,73 +19407,73 @@
         <v>45381.45833333334</v>
       </c>
       <c r="F213" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="G213" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="H213">
+        <v>1</v>
+      </c>
+      <c r="I213">
+        <v>2</v>
+      </c>
+      <c r="J213" t="s">
+        <v>46</v>
+      </c>
+      <c r="K213">
+        <v>1.444</v>
+      </c>
+      <c r="L213">
+        <v>4.2</v>
+      </c>
+      <c r="M213">
+        <v>5.5</v>
+      </c>
+      <c r="N213">
+        <v>1.444</v>
+      </c>
+      <c r="O213">
+        <v>4</v>
+      </c>
+      <c r="P213">
+        <v>6</v>
+      </c>
+      <c r="Q213">
+        <v>-1</v>
+      </c>
+      <c r="R213">
+        <v>1.725</v>
+      </c>
+      <c r="S213">
+        <v>1.975</v>
+      </c>
+      <c r="T213">
+        <v>2.25</v>
+      </c>
+      <c r="U213">
+        <v>1.8</v>
+      </c>
+      <c r="V213">
+        <v>2</v>
+      </c>
+      <c r="W213">
+        <v>-1</v>
+      </c>
+      <c r="X213">
+        <v>-1</v>
+      </c>
+      <c r="Y213">
         <v>5</v>
       </c>
-      <c r="I213">
-        <v>2</v>
-      </c>
-      <c r="J213" t="s">
-        <v>45</v>
-      </c>
-      <c r="K213">
-        <v>1.833</v>
-      </c>
-      <c r="L213">
-        <v>3</v>
-      </c>
-      <c r="M213">
-        <v>4.2</v>
-      </c>
-      <c r="N213">
-        <v>1.7</v>
-      </c>
-      <c r="O213">
-        <v>3</v>
-      </c>
-      <c r="P213">
-        <v>5.25</v>
-      </c>
-      <c r="Q213">
-        <v>-0.75</v>
-      </c>
-      <c r="R213">
-        <v>2</v>
-      </c>
-      <c r="S213">
-        <v>1.8</v>
-      </c>
-      <c r="T213">
-        <v>1.75</v>
-      </c>
-      <c r="U213">
-        <v>1.9</v>
-      </c>
-      <c r="V213">
-        <v>1.9</v>
-      </c>
-      <c r="W213">
-        <v>0.7</v>
-      </c>
-      <c r="X213">
-        <v>-1</v>
-      </c>
-      <c r="Y213">
-        <v>-1</v>
-      </c>
       <c r="Z213">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA213">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB213">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AC213">
         <v>-1</v>
@@ -19484,7 +19484,7 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>6989720</v>
+        <v>6989719</v>
       </c>
       <c r="C214" t="s">
         <v>28</v>
@@ -19496,73 +19496,73 @@
         <v>45381.45833333334</v>
       </c>
       <c r="F214" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G214" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="H214">
+        <v>5</v>
+      </c>
+      <c r="I214">
+        <v>2</v>
+      </c>
+      <c r="J214" t="s">
+        <v>45</v>
+      </c>
+      <c r="K214">
+        <v>1.833</v>
+      </c>
+      <c r="L214">
+        <v>3</v>
+      </c>
+      <c r="M214">
+        <v>4.2</v>
+      </c>
+      <c r="N214">
+        <v>1.7</v>
+      </c>
+      <c r="O214">
+        <v>3</v>
+      </c>
+      <c r="P214">
+        <v>5.25</v>
+      </c>
+      <c r="Q214">
+        <v>-0.75</v>
+      </c>
+      <c r="R214">
+        <v>2</v>
+      </c>
+      <c r="S214">
+        <v>1.8</v>
+      </c>
+      <c r="T214">
+        <v>1.75</v>
+      </c>
+      <c r="U214">
+        <v>1.9</v>
+      </c>
+      <c r="V214">
+        <v>1.9</v>
+      </c>
+      <c r="W214">
+        <v>0.7</v>
+      </c>
+      <c r="X214">
+        <v>-1</v>
+      </c>
+      <c r="Y214">
+        <v>-1</v>
+      </c>
+      <c r="Z214">
         <v>1</v>
       </c>
-      <c r="I214">
-        <v>2</v>
-      </c>
-      <c r="J214" t="s">
-        <v>46</v>
-      </c>
-      <c r="K214">
-        <v>1.444</v>
-      </c>
-      <c r="L214">
-        <v>4.2</v>
-      </c>
-      <c r="M214">
-        <v>5.5</v>
-      </c>
-      <c r="N214">
-        <v>1.444</v>
-      </c>
-      <c r="O214">
-        <v>4</v>
-      </c>
-      <c r="P214">
-        <v>6</v>
-      </c>
-      <c r="Q214">
-        <v>-1</v>
-      </c>
-      <c r="R214">
-        <v>1.725</v>
-      </c>
-      <c r="S214">
-        <v>1.975</v>
-      </c>
-      <c r="T214">
-        <v>2.25</v>
-      </c>
-      <c r="U214">
-        <v>1.8</v>
-      </c>
-      <c r="V214">
-        <v>2</v>
-      </c>
-      <c r="W214">
-        <v>-1</v>
-      </c>
-      <c r="X214">
-        <v>-1</v>
-      </c>
-      <c r="Y214">
-        <v>5</v>
-      </c>
-      <c r="Z214">
-        <v>-1</v>
-      </c>
       <c r="AA214">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB214">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC214">
         <v>-1</v>

--- a/Serbia Prva Liga/Serbia Prva Liga.xlsx
+++ b/Serbia Prva Liga/Serbia Prva Liga.xlsx
@@ -12542,7 +12542,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>6989630</v>
+        <v>6989629</v>
       </c>
       <c r="C136" t="s">
         <v>28</v>
@@ -12554,13 +12554,13 @@
         <v>45256.375</v>
       </c>
       <c r="F136" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="G136" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H136">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I136">
         <v>0</v>
@@ -12569,43 +12569,43 @@
         <v>45</v>
       </c>
       <c r="K136">
-        <v>1.444</v>
+        <v>2.1</v>
       </c>
       <c r="L136">
-        <v>3.75</v>
+        <v>2.875</v>
       </c>
       <c r="M136">
-        <v>6.5</v>
+        <v>3.5</v>
       </c>
       <c r="N136">
-        <v>1.533</v>
+        <v>1.75</v>
       </c>
       <c r="O136">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="P136">
-        <v>6</v>
+        <v>4.75</v>
       </c>
       <c r="Q136">
-        <v>-1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R136">
-        <v>2.075</v>
+        <v>1.95</v>
       </c>
       <c r="S136">
-        <v>1.725</v>
+        <v>1.75</v>
       </c>
       <c r="T136">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U136">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="V136">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="W136">
-        <v>0.5329999999999999</v>
+        <v>0.75</v>
       </c>
       <c r="X136">
         <v>-1</v>
@@ -12614,16 +12614,16 @@
         <v>-1</v>
       </c>
       <c r="Z136">
-        <v>1.075</v>
+        <v>0.475</v>
       </c>
       <c r="AA136">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB136">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC136">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="137" spans="1:29">
@@ -12631,7 +12631,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>6989629</v>
+        <v>6989630</v>
       </c>
       <c r="C137" t="s">
         <v>28</v>
@@ -12643,13 +12643,13 @@
         <v>45256.375</v>
       </c>
       <c r="F137" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="G137" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H137">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I137">
         <v>0</v>
@@ -12658,43 +12658,43 @@
         <v>45</v>
       </c>
       <c r="K137">
-        <v>2.1</v>
+        <v>1.444</v>
       </c>
       <c r="L137">
-        <v>2.875</v>
+        <v>3.75</v>
       </c>
       <c r="M137">
-        <v>3.5</v>
+        <v>6.5</v>
       </c>
       <c r="N137">
-        <v>1.75</v>
+        <v>1.533</v>
       </c>
       <c r="O137">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="P137">
-        <v>4.75</v>
+        <v>6</v>
       </c>
       <c r="Q137">
-        <v>-0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R137">
-        <v>1.95</v>
+        <v>2.075</v>
       </c>
       <c r="S137">
-        <v>1.75</v>
+        <v>1.725</v>
       </c>
       <c r="T137">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U137">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="V137">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="W137">
-        <v>0.75</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X137">
         <v>-1</v>
@@ -12703,16 +12703,16 @@
         <v>-1</v>
       </c>
       <c r="Z137">
-        <v>0.475</v>
+        <v>1.075</v>
       </c>
       <c r="AA137">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB137">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC137">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="138" spans="1:29">
@@ -13254,7 +13254,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>6989529</v>
+        <v>7019002</v>
       </c>
       <c r="C144" t="s">
         <v>28</v>
@@ -13266,40 +13266,40 @@
         <v>45262.375</v>
       </c>
       <c r="F144" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G144" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H144">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I144">
         <v>2</v>
       </c>
       <c r="J144" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K144">
-        <v>4.75</v>
+        <v>2.5</v>
       </c>
       <c r="L144">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="M144">
-        <v>1.571</v>
+        <v>2.5</v>
       </c>
       <c r="N144">
-        <v>4.75</v>
+        <v>1.75</v>
       </c>
       <c r="O144">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="P144">
-        <v>1.571</v>
+        <v>4.5</v>
       </c>
       <c r="Q144">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="R144">
         <v>1.8</v>
@@ -13308,31 +13308,31 @@
         <v>2</v>
       </c>
       <c r="T144">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U144">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V144">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W144">
         <v>-1</v>
       </c>
       <c r="X144">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y144">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="Z144">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA144">
-        <v>-0</v>
+        <v>1</v>
       </c>
       <c r="AB144">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC144">
         <v>-1</v>
@@ -13343,7 +13343,7 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>6989631</v>
+        <v>6989700</v>
       </c>
       <c r="C145" t="s">
         <v>28</v>
@@ -13355,76 +13355,76 @@
         <v>45262.375</v>
       </c>
       <c r="F145" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G145" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H145">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I145">
         <v>1</v>
       </c>
       <c r="J145" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K145">
-        <v>2.25</v>
+        <v>2.625</v>
       </c>
       <c r="L145">
         <v>3</v>
       </c>
       <c r="M145">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="N145">
-        <v>2.25</v>
+        <v>2.375</v>
       </c>
       <c r="O145">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="P145">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Q145">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R145">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="S145">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
       <c r="T145">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U145">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="V145">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="W145">
         <v>-1</v>
       </c>
       <c r="X145">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y145">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="Z145">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA145">
-        <v>0.4</v>
+        <v>1.05</v>
       </c>
       <c r="AB145">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC145">
-        <v>0.4</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="146" spans="1:29">
@@ -13432,7 +13432,7 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>6989700</v>
+        <v>6989631</v>
       </c>
       <c r="C146" t="s">
         <v>28</v>
@@ -13444,76 +13444,76 @@
         <v>45262.375</v>
       </c>
       <c r="F146" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G146" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H146">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I146">
         <v>1</v>
       </c>
       <c r="J146" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K146">
-        <v>2.625</v>
+        <v>2.25</v>
       </c>
       <c r="L146">
         <v>3</v>
       </c>
       <c r="M146">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="N146">
-        <v>2.375</v>
+        <v>2.25</v>
       </c>
       <c r="O146">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="P146">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="Q146">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R146">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="S146">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="T146">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U146">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="V146">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="W146">
         <v>-1</v>
       </c>
       <c r="X146">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y146">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Z146">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA146">
-        <v>1.05</v>
+        <v>0.4</v>
       </c>
       <c r="AB146">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC146">
-        <v>0.7749999999999999</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="147" spans="1:29">
@@ -13521,7 +13521,7 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>7019002</v>
+        <v>6989529</v>
       </c>
       <c r="C147" t="s">
         <v>28</v>
@@ -13533,40 +13533,40 @@
         <v>45262.375</v>
       </c>
       <c r="F147" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G147" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H147">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I147">
         <v>2</v>
       </c>
       <c r="J147" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K147">
-        <v>2.5</v>
+        <v>4.75</v>
       </c>
       <c r="L147">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="M147">
-        <v>2.5</v>
+        <v>1.571</v>
       </c>
       <c r="N147">
-        <v>1.75</v>
+        <v>4.75</v>
       </c>
       <c r="O147">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="P147">
-        <v>4.5</v>
+        <v>1.571</v>
       </c>
       <c r="Q147">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="R147">
         <v>1.8</v>
@@ -13575,31 +13575,31 @@
         <v>2</v>
       </c>
       <c r="T147">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U147">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V147">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W147">
         <v>-1</v>
       </c>
       <c r="X147">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y147">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="Z147">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA147">
-        <v>1</v>
+        <v>-0</v>
       </c>
       <c r="AB147">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC147">
         <v>-1</v>
@@ -15657,7 +15657,7 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>7901796</v>
+        <v>7901795</v>
       </c>
       <c r="C171" t="s">
         <v>28</v>
@@ -15669,76 +15669,76 @@
         <v>45353.375</v>
       </c>
       <c r="F171" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G171" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H171">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I171">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J171" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K171">
-        <v>1.4</v>
+        <v>1.666</v>
       </c>
       <c r="L171">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M171">
-        <v>8</v>
+        <v>4.5</v>
       </c>
       <c r="N171">
-        <v>1.65</v>
+        <v>1.444</v>
       </c>
       <c r="O171">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="P171">
-        <v>4.75</v>
+        <v>7</v>
       </c>
       <c r="Q171">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R171">
-        <v>1.825</v>
+        <v>1.725</v>
       </c>
       <c r="S171">
         <v>1.975</v>
       </c>
       <c r="T171">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U171">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V171">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W171">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="X171">
         <v>-1</v>
       </c>
       <c r="Y171">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Z171">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA171">
-        <v>0.9750000000000001</v>
+        <v>-0</v>
       </c>
       <c r="AB171">
         <v>-1</v>
       </c>
       <c r="AC171">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="172" spans="1:29">
@@ -15746,7 +15746,7 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>7901795</v>
+        <v>7901796</v>
       </c>
       <c r="C172" t="s">
         <v>28</v>
@@ -15758,76 +15758,76 @@
         <v>45353.375</v>
       </c>
       <c r="F172" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G172" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H172">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I172">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J172" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K172">
-        <v>1.666</v>
+        <v>1.4</v>
       </c>
       <c r="L172">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M172">
-        <v>4.5</v>
+        <v>8</v>
       </c>
       <c r="N172">
-        <v>1.444</v>
+        <v>1.65</v>
       </c>
       <c r="O172">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="P172">
-        <v>7</v>
+        <v>4.75</v>
       </c>
       <c r="Q172">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R172">
-        <v>1.725</v>
+        <v>1.825</v>
       </c>
       <c r="S172">
         <v>1.975</v>
       </c>
       <c r="T172">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U172">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V172">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W172">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="X172">
         <v>-1</v>
       </c>
       <c r="Y172">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Z172">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA172">
-        <v>-0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB172">
         <v>-1</v>
       </c>
       <c r="AC172">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="173" spans="1:29">
@@ -16280,7 +16280,7 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>6989710</v>
+        <v>6989640</v>
       </c>
       <c r="C178" t="s">
         <v>28</v>
@@ -16292,61 +16292,61 @@
         <v>45357.41666666666</v>
       </c>
       <c r="F178" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G178" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H178">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I178">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J178" t="s">
         <v>47</v>
       </c>
       <c r="K178">
-        <v>1.571</v>
+        <v>1.5</v>
       </c>
       <c r="L178">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M178">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="N178">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="O178">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="P178">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="Q178">
         <v>-0.5</v>
       </c>
       <c r="R178">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S178">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="T178">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U178">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="V178">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="W178">
         <v>-1</v>
       </c>
       <c r="X178">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="Y178">
         <v>-1</v>
@@ -16355,13 +16355,13 @@
         <v>-1</v>
       </c>
       <c r="AA178">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB178">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC178">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="179" spans="1:29">
@@ -16369,7 +16369,7 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>6989640</v>
+        <v>6989710</v>
       </c>
       <c r="C179" t="s">
         <v>28</v>
@@ -16381,61 +16381,61 @@
         <v>45357.41666666666</v>
       </c>
       <c r="F179" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="G179" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H179">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I179">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J179" t="s">
         <v>47</v>
       </c>
       <c r="K179">
-        <v>1.5</v>
+        <v>1.571</v>
       </c>
       <c r="L179">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M179">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="N179">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="O179">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="P179">
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="Q179">
         <v>-0.5</v>
       </c>
       <c r="R179">
+        <v>1.8</v>
+      </c>
+      <c r="S179">
+        <v>2</v>
+      </c>
+      <c r="T179">
+        <v>2.25</v>
+      </c>
+      <c r="U179">
+        <v>1.85</v>
+      </c>
+      <c r="V179">
         <v>1.95</v>
       </c>
-      <c r="S179">
-        <v>1.85</v>
-      </c>
-      <c r="T179">
-        <v>2</v>
-      </c>
-      <c r="U179">
-        <v>1.775</v>
-      </c>
-      <c r="V179">
-        <v>2.025</v>
-      </c>
       <c r="W179">
         <v>-1</v>
       </c>
       <c r="X179">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="Y179">
         <v>-1</v>
@@ -16444,13 +16444,13 @@
         <v>-1</v>
       </c>
       <c r="AA179">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
       <c r="AB179">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC179">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="180" spans="1:29">
@@ -19395,7 +19395,7 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>6989720</v>
+        <v>6989719</v>
       </c>
       <c r="C213" t="s">
         <v>28</v>
@@ -19407,73 +19407,73 @@
         <v>45381.45833333334</v>
       </c>
       <c r="F213" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G213" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="H213">
+        <v>5</v>
+      </c>
+      <c r="I213">
+        <v>2</v>
+      </c>
+      <c r="J213" t="s">
+        <v>45</v>
+      </c>
+      <c r="K213">
+        <v>1.833</v>
+      </c>
+      <c r="L213">
+        <v>3</v>
+      </c>
+      <c r="M213">
+        <v>4.2</v>
+      </c>
+      <c r="N213">
+        <v>1.7</v>
+      </c>
+      <c r="O213">
+        <v>3</v>
+      </c>
+      <c r="P213">
+        <v>5.25</v>
+      </c>
+      <c r="Q213">
+        <v>-0.75</v>
+      </c>
+      <c r="R213">
+        <v>2</v>
+      </c>
+      <c r="S213">
+        <v>1.8</v>
+      </c>
+      <c r="T213">
+        <v>1.75</v>
+      </c>
+      <c r="U213">
+        <v>1.9</v>
+      </c>
+      <c r="V213">
+        <v>1.9</v>
+      </c>
+      <c r="W213">
+        <v>0.7</v>
+      </c>
+      <c r="X213">
+        <v>-1</v>
+      </c>
+      <c r="Y213">
+        <v>-1</v>
+      </c>
+      <c r="Z213">
         <v>1</v>
       </c>
-      <c r="I213">
-        <v>2</v>
-      </c>
-      <c r="J213" t="s">
-        <v>46</v>
-      </c>
-      <c r="K213">
-        <v>1.444</v>
-      </c>
-      <c r="L213">
-        <v>4.2</v>
-      </c>
-      <c r="M213">
-        <v>5.5</v>
-      </c>
-      <c r="N213">
-        <v>1.444</v>
-      </c>
-      <c r="O213">
-        <v>4</v>
-      </c>
-      <c r="P213">
-        <v>6</v>
-      </c>
-      <c r="Q213">
-        <v>-1</v>
-      </c>
-      <c r="R213">
-        <v>1.725</v>
-      </c>
-      <c r="S213">
-        <v>1.975</v>
-      </c>
-      <c r="T213">
-        <v>2.25</v>
-      </c>
-      <c r="U213">
-        <v>1.8</v>
-      </c>
-      <c r="V213">
-        <v>2</v>
-      </c>
-      <c r="W213">
-        <v>-1</v>
-      </c>
-      <c r="X213">
-        <v>-1</v>
-      </c>
-      <c r="Y213">
-        <v>5</v>
-      </c>
-      <c r="Z213">
-        <v>-1</v>
-      </c>
       <c r="AA213">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB213">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC213">
         <v>-1</v>
@@ -19484,7 +19484,7 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>6989719</v>
+        <v>6989720</v>
       </c>
       <c r="C214" t="s">
         <v>28</v>
@@ -19496,73 +19496,73 @@
         <v>45381.45833333334</v>
       </c>
       <c r="F214" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="G214" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="H214">
+        <v>1</v>
+      </c>
+      <c r="I214">
+        <v>2</v>
+      </c>
+      <c r="J214" t="s">
+        <v>46</v>
+      </c>
+      <c r="K214">
+        <v>1.444</v>
+      </c>
+      <c r="L214">
+        <v>4.2</v>
+      </c>
+      <c r="M214">
+        <v>5.5</v>
+      </c>
+      <c r="N214">
+        <v>1.444</v>
+      </c>
+      <c r="O214">
+        <v>4</v>
+      </c>
+      <c r="P214">
+        <v>6</v>
+      </c>
+      <c r="Q214">
+        <v>-1</v>
+      </c>
+      <c r="R214">
+        <v>1.725</v>
+      </c>
+      <c r="S214">
+        <v>1.975</v>
+      </c>
+      <c r="T214">
+        <v>2.25</v>
+      </c>
+      <c r="U214">
+        <v>1.8</v>
+      </c>
+      <c r="V214">
+        <v>2</v>
+      </c>
+      <c r="W214">
+        <v>-1</v>
+      </c>
+      <c r="X214">
+        <v>-1</v>
+      </c>
+      <c r="Y214">
         <v>5</v>
       </c>
-      <c r="I214">
-        <v>2</v>
-      </c>
-      <c r="J214" t="s">
-        <v>45</v>
-      </c>
-      <c r="K214">
-        <v>1.833</v>
-      </c>
-      <c r="L214">
-        <v>3</v>
-      </c>
-      <c r="M214">
-        <v>4.2</v>
-      </c>
-      <c r="N214">
-        <v>1.7</v>
-      </c>
-      <c r="O214">
-        <v>3</v>
-      </c>
-      <c r="P214">
-        <v>5.25</v>
-      </c>
-      <c r="Q214">
-        <v>-0.75</v>
-      </c>
-      <c r="R214">
-        <v>2</v>
-      </c>
-      <c r="S214">
-        <v>1.8</v>
-      </c>
-      <c r="T214">
-        <v>1.75</v>
-      </c>
-      <c r="U214">
-        <v>1.9</v>
-      </c>
-      <c r="V214">
-        <v>1.9</v>
-      </c>
-      <c r="W214">
-        <v>0.7</v>
-      </c>
-      <c r="X214">
-        <v>-1</v>
-      </c>
-      <c r="Y214">
-        <v>-1</v>
-      </c>
       <c r="Z214">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA214">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB214">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AC214">
         <v>-1</v>

--- a/Serbia Prva Liga/Serbia Prva Liga.xlsx
+++ b/Serbia Prva Liga/Serbia Prva Liga.xlsx
@@ -118,10 +118,10 @@
     <t>Metalac Gornji</t>
   </si>
   <si>
-    <t>FK Mladost Gat Novi Sad</t>
+    <t>FK Radnicki Beograd</t>
   </si>
   <si>
-    <t>FK Radnicki Beograd</t>
+    <t>FK Mladost Gat Novi Sad</t>
   </si>
   <si>
     <t>FK Macva Sabac</t>
@@ -133,10 +133,10 @@
     <t>FK Indija</t>
   </si>
   <si>
-    <t>FK Tekstilac Odzaci</t>
+    <t>Radnicki Sremska Mitrovica</t>
   </si>
   <si>
-    <t>Radnicki Sremska Mitrovica</t>
+    <t>FK Tekstilac Odzaci</t>
   </si>
   <si>
     <t>OFK Belgrade</t>
@@ -1061,7 +1061,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6989658</v>
+        <v>6989313</v>
       </c>
       <c r="C7" t="s">
         <v>28</v>
@@ -1076,73 +1076,73 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K7">
-        <v>1.727</v>
+        <v>1.85</v>
       </c>
       <c r="L7">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M7">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="N7">
-        <v>1.65</v>
+        <v>2.05</v>
       </c>
       <c r="O7">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="P7">
-        <v>4.75</v>
+        <v>3.2</v>
       </c>
       <c r="Q7">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R7">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S7">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T7">
         <v>2.25</v>
       </c>
       <c r="U7">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="V7">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="W7">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X7">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y7">
         <v>-1</v>
       </c>
       <c r="Z7">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA7">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB7">
         <v>-0.5</v>
       </c>
       <c r="AC7">
-        <v>0.3875</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="8" spans="1:29">
@@ -1150,7 +1150,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6989313</v>
+        <v>6989658</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
@@ -1165,73 +1165,73 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K8">
-        <v>1.85</v>
+        <v>1.727</v>
       </c>
       <c r="L8">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M8">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="N8">
-        <v>2.05</v>
+        <v>1.65</v>
       </c>
       <c r="O8">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="P8">
-        <v>3.2</v>
+        <v>4.75</v>
       </c>
       <c r="Q8">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R8">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S8">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T8">
         <v>2.25</v>
       </c>
       <c r="U8">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="V8">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="W8">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X8">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y8">
         <v>-1</v>
       </c>
       <c r="Z8">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA8">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB8">
         <v>-0.5</v>
       </c>
       <c r="AC8">
-        <v>0.425</v>
+        <v>0.3875</v>
       </c>
     </row>
     <row r="9" spans="1:29">
@@ -1254,7 +1254,7 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -1506,7 +1506,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6989662</v>
+        <v>6989598</v>
       </c>
       <c r="C12" t="s">
         <v>28</v>
@@ -1521,73 +1521,73 @@
         <v>39</v>
       </c>
       <c r="G12" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H12">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K12">
-        <v>2.5</v>
+        <v>1.909</v>
       </c>
       <c r="L12">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="M12">
-        <v>2.625</v>
+        <v>3.6</v>
       </c>
       <c r="N12">
-        <v>2</v>
+        <v>1.909</v>
       </c>
       <c r="O12">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="P12">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="Q12">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R12">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S12">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T12">
         <v>2</v>
       </c>
       <c r="U12">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="V12">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="W12">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X12">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y12">
         <v>-1</v>
       </c>
       <c r="Z12">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA12">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB12">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC12">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="13" spans="1:29">
@@ -1595,7 +1595,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6989598</v>
+        <v>6989663</v>
       </c>
       <c r="C13" t="s">
         <v>28</v>
@@ -1607,76 +1607,76 @@
         <v>45150.52083333334</v>
       </c>
       <c r="F13" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="G13" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13" t="s">
         <v>47</v>
       </c>
       <c r="K13">
-        <v>1.909</v>
+        <v>2.25</v>
       </c>
       <c r="L13">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="M13">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="N13">
-        <v>1.909</v>
+        <v>2.4</v>
       </c>
       <c r="O13">
-        <v>3.25</v>
+        <v>2.875</v>
       </c>
       <c r="P13">
-        <v>3.6</v>
+        <v>2.9</v>
       </c>
       <c r="Q13">
+        <v>-0.25</v>
+      </c>
+      <c r="R13">
+        <v>2</v>
+      </c>
+      <c r="S13">
+        <v>1.7</v>
+      </c>
+      <c r="T13">
+        <v>2</v>
+      </c>
+      <c r="U13">
+        <v>1.95</v>
+      </c>
+      <c r="V13">
+        <v>1.85</v>
+      </c>
+      <c r="W13">
+        <v>-1</v>
+      </c>
+      <c r="X13">
+        <v>1.875</v>
+      </c>
+      <c r="Y13">
+        <v>-1</v>
+      </c>
+      <c r="Z13">
         <v>-0.5</v>
       </c>
-      <c r="R13">
-        <v>1.975</v>
-      </c>
-      <c r="S13">
-        <v>1.825</v>
-      </c>
-      <c r="T13">
-        <v>2</v>
-      </c>
-      <c r="U13">
-        <v>1.775</v>
-      </c>
-      <c r="V13">
-        <v>2.025</v>
-      </c>
-      <c r="W13">
-        <v>-1</v>
-      </c>
-      <c r="X13">
-        <v>2.25</v>
-      </c>
-      <c r="Y13">
-        <v>-1</v>
-      </c>
-      <c r="Z13">
-        <v>-1</v>
-      </c>
       <c r="AA13">
-        <v>0.825</v>
+        <v>0.35</v>
       </c>
       <c r="AB13">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC13">
-        <v>1.025</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="14" spans="1:29">
@@ -1684,7 +1684,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6989663</v>
+        <v>6989662</v>
       </c>
       <c r="C14" t="s">
         <v>28</v>
@@ -1696,76 +1696,76 @@
         <v>45150.52083333334</v>
       </c>
       <c r="F14" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="G14" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I14">
         <v>1</v>
       </c>
       <c r="J14" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K14">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="L14">
         <v>3</v>
       </c>
       <c r="M14">
+        <v>2.625</v>
+      </c>
+      <c r="N14">
+        <v>2</v>
+      </c>
+      <c r="O14">
         <v>3</v>
       </c>
-      <c r="N14">
-        <v>2.4</v>
-      </c>
-      <c r="O14">
-        <v>2.875</v>
-      </c>
       <c r="P14">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="Q14">
         <v>-0.25</v>
       </c>
       <c r="R14">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S14">
-        <v>1.7</v>
+        <v>2</v>
       </c>
       <c r="T14">
         <v>2</v>
       </c>
       <c r="U14">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V14">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W14">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X14">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Y14">
         <v>-1</v>
       </c>
       <c r="Z14">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AA14">
-        <v>0.35</v>
+        <v>-1</v>
       </c>
       <c r="AB14">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AC14">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="15" spans="1:29">
@@ -1877,7 +1877,7 @@
         <v>42</v>
       </c>
       <c r="G16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H16">
         <v>1</v>
@@ -2233,7 +2233,7 @@
         <v>36</v>
       </c>
       <c r="G20" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H20">
         <v>3</v>
@@ -2322,7 +2322,7 @@
         <v>33</v>
       </c>
       <c r="G21" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -2485,7 +2485,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6989500</v>
+        <v>6989499</v>
       </c>
       <c r="C23" t="s">
         <v>28</v>
@@ -2500,73 +2500,73 @@
         <v>35</v>
       </c>
       <c r="G23" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I23">
         <v>1</v>
       </c>
       <c r="J23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K23">
-        <v>3.5</v>
+        <v>1.727</v>
       </c>
       <c r="L23">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="M23">
-        <v>1.95</v>
+        <v>4.2</v>
       </c>
       <c r="N23">
-        <v>3.5</v>
+        <v>1.85</v>
       </c>
       <c r="O23">
         <v>3.1</v>
       </c>
       <c r="P23">
-        <v>1.95</v>
+        <v>4</v>
       </c>
       <c r="Q23">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R23">
+        <v>1.925</v>
+      </c>
+      <c r="S23">
+        <v>1.875</v>
+      </c>
+      <c r="T23">
+        <v>2</v>
+      </c>
+      <c r="U23">
+        <v>2</v>
+      </c>
+      <c r="V23">
         <v>1.8</v>
       </c>
-      <c r="S23">
-        <v>2</v>
-      </c>
-      <c r="T23">
-        <v>2.25</v>
-      </c>
-      <c r="U23">
-        <v>1.75</v>
-      </c>
-      <c r="V23">
-        <v>1.95</v>
-      </c>
       <c r="W23">
         <v>-1</v>
       </c>
       <c r="X23">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y23">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z23">
+        <v>-1</v>
+      </c>
+      <c r="AA23">
+        <v>0.875</v>
+      </c>
+      <c r="AB23">
+        <v>-1</v>
+      </c>
+      <c r="AC23">
         <v>0.8</v>
-      </c>
-      <c r="AA23">
-        <v>-1</v>
-      </c>
-      <c r="AB23">
-        <v>-0.5</v>
-      </c>
-      <c r="AC23">
-        <v>0.475</v>
       </c>
     </row>
     <row r="24" spans="1:29">
@@ -2574,7 +2574,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6989499</v>
+        <v>6989500</v>
       </c>
       <c r="C24" t="s">
         <v>28</v>
@@ -2589,73 +2589,73 @@
         <v>34</v>
       </c>
       <c r="G24" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I24">
         <v>1</v>
       </c>
       <c r="J24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K24">
-        <v>1.727</v>
+        <v>3.5</v>
       </c>
       <c r="L24">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="M24">
-        <v>4.2</v>
+        <v>1.95</v>
       </c>
       <c r="N24">
-        <v>1.85</v>
+        <v>3.5</v>
       </c>
       <c r="O24">
         <v>3.1</v>
       </c>
       <c r="P24">
-        <v>4</v>
+        <v>1.95</v>
       </c>
       <c r="Q24">
+        <v>0.5</v>
+      </c>
+      <c r="R24">
+        <v>1.8</v>
+      </c>
+      <c r="S24">
+        <v>2</v>
+      </c>
+      <c r="T24">
+        <v>2.25</v>
+      </c>
+      <c r="U24">
+        <v>1.75</v>
+      </c>
+      <c r="V24">
+        <v>1.95</v>
+      </c>
+      <c r="W24">
+        <v>-1</v>
+      </c>
+      <c r="X24">
+        <v>2.1</v>
+      </c>
+      <c r="Y24">
+        <v>-1</v>
+      </c>
+      <c r="Z24">
+        <v>0.8</v>
+      </c>
+      <c r="AA24">
+        <v>-1</v>
+      </c>
+      <c r="AB24">
         <v>-0.5</v>
       </c>
-      <c r="R24">
-        <v>1.925</v>
-      </c>
-      <c r="S24">
-        <v>1.875</v>
-      </c>
-      <c r="T24">
-        <v>2</v>
-      </c>
-      <c r="U24">
-        <v>2</v>
-      </c>
-      <c r="V24">
-        <v>1.8</v>
-      </c>
-      <c r="W24">
-        <v>-1</v>
-      </c>
-      <c r="X24">
-        <v>-1</v>
-      </c>
-      <c r="Y24">
-        <v>3</v>
-      </c>
-      <c r="Z24">
-        <v>-1</v>
-      </c>
-      <c r="AA24">
-        <v>0.875</v>
-      </c>
-      <c r="AB24">
-        <v>-1</v>
-      </c>
       <c r="AC24">
-        <v>0.8</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="25" spans="1:29">
@@ -2853,7 +2853,7 @@
         <v>45164.5</v>
       </c>
       <c r="F27" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G27" t="s">
         <v>32</v>
@@ -3123,7 +3123,7 @@
         <v>41</v>
       </c>
       <c r="G30" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H30">
         <v>2</v>
@@ -3209,7 +3209,7 @@
         <v>45165.5</v>
       </c>
       <c r="F31" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G31" t="s">
         <v>31</v>
@@ -3298,7 +3298,7 @@
         <v>45165.5</v>
       </c>
       <c r="F32" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G32" t="s">
         <v>30</v>
@@ -3746,7 +3746,7 @@
         <v>36</v>
       </c>
       <c r="G37" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H37">
         <v>2</v>
@@ -3921,10 +3921,10 @@
         <v>45172.5</v>
       </c>
       <c r="F39" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G39" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H39">
         <v>1</v>
@@ -4013,7 +4013,7 @@
         <v>33</v>
       </c>
       <c r="G40" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H40">
         <v>1</v>
@@ -4277,7 +4277,7 @@
         <v>45178.47916666666</v>
       </c>
       <c r="F43" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G43" t="s">
         <v>31</v>
@@ -4633,7 +4633,7 @@
         <v>45179.47916666666</v>
       </c>
       <c r="F47" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G47" t="s">
         <v>32</v>
@@ -4722,7 +4722,7 @@
         <v>45179.47916666666</v>
       </c>
       <c r="F48" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G48" t="s">
         <v>44</v>
@@ -4814,7 +4814,7 @@
         <v>43</v>
       </c>
       <c r="G49" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H49">
         <v>2</v>
@@ -5170,7 +5170,7 @@
         <v>42</v>
       </c>
       <c r="G53" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H53">
         <v>1</v>
@@ -5345,10 +5345,10 @@
         <v>45186.45833333334</v>
       </c>
       <c r="F55" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G55" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H55">
         <v>0</v>
@@ -5437,7 +5437,7 @@
         <v>33</v>
       </c>
       <c r="G56" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H56">
         <v>0</v>
@@ -5689,7 +5689,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>6989676</v>
+        <v>7018992</v>
       </c>
       <c r="C59" t="s">
         <v>28</v>
@@ -5701,76 +5701,76 @@
         <v>45191.58333333334</v>
       </c>
       <c r="F59" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="G59" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J59" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K59">
+        <v>1.4</v>
+      </c>
+      <c r="L59">
+        <v>4.2</v>
+      </c>
+      <c r="M59">
+        <v>6.5</v>
+      </c>
+      <c r="N59">
+        <v>1.4</v>
+      </c>
+      <c r="O59">
+        <v>4</v>
+      </c>
+      <c r="P59">
+        <v>7</v>
+      </c>
+      <c r="Q59">
+        <v>-1.25</v>
+      </c>
+      <c r="R59">
+        <v>1.85</v>
+      </c>
+      <c r="S59">
         <v>1.95</v>
       </c>
-      <c r="L59">
-        <v>3.1</v>
-      </c>
-      <c r="M59">
-        <v>3.6</v>
-      </c>
-      <c r="N59">
-        <v>1.75</v>
-      </c>
-      <c r="O59">
-        <v>3.25</v>
-      </c>
-      <c r="P59">
-        <v>4.2</v>
-      </c>
-      <c r="Q59">
-        <v>-0.5</v>
-      </c>
-      <c r="R59">
-        <v>1.8</v>
-      </c>
-      <c r="S59">
-        <v>2</v>
-      </c>
       <c r="T59">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U59">
+        <v>1.85</v>
+      </c>
+      <c r="V59">
         <v>1.95</v>
       </c>
-      <c r="V59">
-        <v>1.85</v>
-      </c>
       <c r="W59">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X59">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y59">
         <v>-1</v>
       </c>
       <c r="Z59">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA59">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB59">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC59">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="60" spans="1:29">
@@ -5778,7 +5778,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>7018992</v>
+        <v>6989676</v>
       </c>
       <c r="C60" t="s">
         <v>28</v>
@@ -5790,76 +5790,76 @@
         <v>45191.58333333334</v>
       </c>
       <c r="F60" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="G60" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="H60">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I60">
+        <v>0</v>
+      </c>
+      <c r="J60" t="s">
+        <v>47</v>
+      </c>
+      <c r="K60">
+        <v>1.95</v>
+      </c>
+      <c r="L60">
+        <v>3.1</v>
+      </c>
+      <c r="M60">
+        <v>3.6</v>
+      </c>
+      <c r="N60">
+        <v>1.75</v>
+      </c>
+      <c r="O60">
+        <v>3.25</v>
+      </c>
+      <c r="P60">
+        <v>4.2</v>
+      </c>
+      <c r="Q60">
+        <v>-0.5</v>
+      </c>
+      <c r="R60">
+        <v>1.8</v>
+      </c>
+      <c r="S60">
+        <v>2</v>
+      </c>
+      <c r="T60">
+        <v>2</v>
+      </c>
+      <c r="U60">
+        <v>1.95</v>
+      </c>
+      <c r="V60">
+        <v>1.85</v>
+      </c>
+      <c r="W60">
+        <v>-1</v>
+      </c>
+      <c r="X60">
+        <v>2.25</v>
+      </c>
+      <c r="Y60">
+        <v>-1</v>
+      </c>
+      <c r="Z60">
+        <v>-1</v>
+      </c>
+      <c r="AA60">
         <v>1</v>
       </c>
-      <c r="J60" t="s">
-        <v>45</v>
-      </c>
-      <c r="K60">
-        <v>1.4</v>
-      </c>
-      <c r="L60">
-        <v>4.2</v>
-      </c>
-      <c r="M60">
-        <v>6.5</v>
-      </c>
-      <c r="N60">
-        <v>1.4</v>
-      </c>
-      <c r="O60">
-        <v>4</v>
-      </c>
-      <c r="P60">
-        <v>7</v>
-      </c>
-      <c r="Q60">
-        <v>-1.25</v>
-      </c>
-      <c r="R60">
-        <v>1.85</v>
-      </c>
-      <c r="S60">
-        <v>1.95</v>
-      </c>
-      <c r="T60">
-        <v>2.5</v>
-      </c>
-      <c r="U60">
-        <v>1.85</v>
-      </c>
-      <c r="V60">
-        <v>1.95</v>
-      </c>
-      <c r="W60">
-        <v>0.3999999999999999</v>
-      </c>
-      <c r="X60">
-        <v>-1</v>
-      </c>
-      <c r="Y60">
-        <v>-1</v>
-      </c>
-      <c r="Z60">
+      <c r="AB60">
+        <v>-1</v>
+      </c>
+      <c r="AC60">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AA60">
-        <v>-1</v>
-      </c>
-      <c r="AB60">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="AC60">
-        <v>-1</v>
       </c>
     </row>
     <row r="61" spans="1:29">
@@ -5882,7 +5882,7 @@
         <v>29</v>
       </c>
       <c r="G61" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H61">
         <v>2</v>
@@ -5968,7 +5968,7 @@
         <v>45192.45833333334</v>
       </c>
       <c r="F62" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G62" t="s">
         <v>37</v>
@@ -6057,7 +6057,7 @@
         <v>45192.45833333334</v>
       </c>
       <c r="F63" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G63" t="s">
         <v>31</v>
@@ -6235,7 +6235,7 @@
         <v>45192.45833333334</v>
       </c>
       <c r="F65" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G65" t="s">
         <v>44</v>
@@ -6401,7 +6401,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>6989512</v>
+        <v>6989614</v>
       </c>
       <c r="C67" t="s">
         <v>28</v>
@@ -6413,40 +6413,40 @@
         <v>45200.41666666666</v>
       </c>
       <c r="F67" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="G67" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I67">
         <v>1</v>
       </c>
       <c r="J67" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K67">
-        <v>1.666</v>
+        <v>2.1</v>
       </c>
       <c r="L67">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="M67">
-        <v>4.75</v>
+        <v>3</v>
       </c>
       <c r="N67">
-        <v>1.5</v>
+        <v>2.2</v>
       </c>
       <c r="O67">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="P67">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="Q67">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R67">
         <v>1.975</v>
@@ -6458,31 +6458,31 @@
         <v>2.25</v>
       </c>
       <c r="U67">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="V67">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="W67">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X67">
         <v>-1</v>
       </c>
       <c r="Y67">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="Z67">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA67">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB67">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC67">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="68" spans="1:29">
@@ -6490,7 +6490,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>6989614</v>
+        <v>6989512</v>
       </c>
       <c r="C68" t="s">
         <v>28</v>
@@ -6502,40 +6502,40 @@
         <v>45200.41666666666</v>
       </c>
       <c r="F68" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G68" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H68">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I68">
         <v>1</v>
       </c>
       <c r="J68" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K68">
-        <v>2.1</v>
+        <v>1.666</v>
       </c>
       <c r="L68">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="M68">
-        <v>3</v>
+        <v>4.75</v>
       </c>
       <c r="N68">
-        <v>2.2</v>
+        <v>1.5</v>
       </c>
       <c r="O68">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="P68">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="Q68">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R68">
         <v>1.975</v>
@@ -6547,31 +6547,31 @@
         <v>2.25</v>
       </c>
       <c r="U68">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="V68">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="W68">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X68">
         <v>-1</v>
       </c>
       <c r="Y68">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="Z68">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA68">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB68">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC68">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="69" spans="1:29">
@@ -6594,7 +6594,7 @@
         <v>38</v>
       </c>
       <c r="G69" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H69">
         <v>1</v>
@@ -6858,7 +6858,7 @@
         <v>45201.41666666666</v>
       </c>
       <c r="F72" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G72" t="s">
         <v>44</v>
@@ -7202,7 +7202,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>7308447</v>
+        <v>7018994</v>
       </c>
       <c r="C76" t="s">
         <v>28</v>
@@ -7214,76 +7214,76 @@
         <v>45207.41666666666</v>
       </c>
       <c r="F76" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G76" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H76">
+        <v>0</v>
+      </c>
+      <c r="I76">
         <v>1</v>
       </c>
-      <c r="I76">
-        <v>0</v>
-      </c>
       <c r="J76" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K76">
-        <v>1.444</v>
+        <v>2.25</v>
       </c>
       <c r="L76">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="M76">
-        <v>6.5</v>
+        <v>3</v>
       </c>
       <c r="N76">
-        <v>1.45</v>
+        <v>2.15</v>
       </c>
       <c r="O76">
-        <v>3.8</v>
+        <v>3</v>
       </c>
       <c r="P76">
-        <v>6</v>
+        <v>3.2</v>
       </c>
       <c r="Q76">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R76">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S76">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="T76">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U76">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V76">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W76">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="X76">
         <v>-1</v>
       </c>
       <c r="Y76">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Z76">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA76">
-        <v>0.4</v>
+        <v>0.875</v>
       </c>
       <c r="AB76">
         <v>-1</v>
       </c>
       <c r="AC76">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="77" spans="1:29">
@@ -7291,7 +7291,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>7018994</v>
+        <v>7308447</v>
       </c>
       <c r="C77" t="s">
         <v>28</v>
@@ -7303,76 +7303,76 @@
         <v>45207.41666666666</v>
       </c>
       <c r="F77" t="s">
+        <v>41</v>
+      </c>
+      <c r="G77" t="s">
         <v>39</v>
       </c>
-      <c r="G77" t="s">
-        <v>43</v>
-      </c>
       <c r="H77">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I77">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J77" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K77">
-        <v>2.25</v>
+        <v>1.444</v>
       </c>
       <c r="L77">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="M77">
-        <v>3</v>
+        <v>6.5</v>
       </c>
       <c r="N77">
-        <v>2.15</v>
+        <v>1.45</v>
       </c>
       <c r="O77">
-        <v>3</v>
+        <v>3.8</v>
       </c>
       <c r="P77">
-        <v>3.2</v>
+        <v>6</v>
       </c>
       <c r="Q77">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R77">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="S77">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="T77">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U77">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V77">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W77">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="X77">
         <v>-1</v>
       </c>
       <c r="Y77">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Z77">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA77">
-        <v>0.875</v>
+        <v>0.4</v>
       </c>
       <c r="AB77">
         <v>-1</v>
       </c>
       <c r="AC77">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="78" spans="1:29">
@@ -7392,7 +7392,7 @@
         <v>45207.41666666666</v>
       </c>
       <c r="F78" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G78" t="s">
         <v>36</v>
@@ -7558,7 +7558,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>6989617</v>
+        <v>6989514</v>
       </c>
       <c r="C80" t="s">
         <v>28</v>
@@ -7570,73 +7570,73 @@
         <v>45208.41666666666</v>
       </c>
       <c r="F80" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="G80" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H80">
+        <v>3</v>
+      </c>
+      <c r="I80">
         <v>1</v>
       </c>
-      <c r="I80">
-        <v>2</v>
-      </c>
       <c r="J80" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K80">
-        <v>1.909</v>
+        <v>3.1</v>
       </c>
       <c r="L80">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M80">
-        <v>3.5</v>
+        <v>2.1</v>
       </c>
       <c r="N80">
-        <v>1.909</v>
+        <v>3.6</v>
       </c>
       <c r="O80">
         <v>3.3</v>
       </c>
       <c r="P80">
-        <v>3.4</v>
+        <v>1.85</v>
       </c>
       <c r="Q80">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R80">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S80">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T80">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U80">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V80">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W80">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="X80">
         <v>-1</v>
       </c>
       <c r="Y80">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Z80">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA80">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB80">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="AC80">
         <v>-1</v>
@@ -7647,7 +7647,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>6989514</v>
+        <v>6989617</v>
       </c>
       <c r="C81" t="s">
         <v>28</v>
@@ -7659,73 +7659,73 @@
         <v>45208.41666666666</v>
       </c>
       <c r="F81" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G81" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H81">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I81">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J81" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K81">
-        <v>3.1</v>
+        <v>1.909</v>
       </c>
       <c r="L81">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M81">
-        <v>2.1</v>
+        <v>3.5</v>
       </c>
       <c r="N81">
-        <v>3.6</v>
+        <v>1.909</v>
       </c>
       <c r="O81">
         <v>3.3</v>
       </c>
       <c r="P81">
-        <v>1.85</v>
+        <v>3.4</v>
       </c>
       <c r="Q81">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R81">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="S81">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T81">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U81">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V81">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="W81">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="X81">
         <v>-1</v>
       </c>
       <c r="Y81">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Z81">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA81">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB81">
-        <v>0.875</v>
+        <v>1</v>
       </c>
       <c r="AC81">
         <v>-1</v>
@@ -7751,7 +7751,7 @@
         <v>32</v>
       </c>
       <c r="G82" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H82">
         <v>3</v>
@@ -8193,7 +8193,7 @@
         <v>45215.41666666666</v>
       </c>
       <c r="F87" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G87" t="s">
         <v>37</v>
@@ -8371,10 +8371,10 @@
         <v>45215.41666666666</v>
       </c>
       <c r="F89" t="s">
+        <v>39</v>
+      </c>
+      <c r="G89" t="s">
         <v>40</v>
-      </c>
-      <c r="G89" t="s">
-        <v>39</v>
       </c>
       <c r="H89">
         <v>1</v>
@@ -8460,7 +8460,7 @@
         <v>45220.375</v>
       </c>
       <c r="F90" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G90" t="s">
         <v>33</v>
@@ -8552,7 +8552,7 @@
         <v>41</v>
       </c>
       <c r="G91" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H91">
         <v>2</v>
@@ -8997,7 +8997,7 @@
         <v>43</v>
       </c>
       <c r="G96" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H96">
         <v>1</v>
@@ -9083,7 +9083,7 @@
         <v>45222.375</v>
       </c>
       <c r="F97" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G97" t="s">
         <v>29</v>
@@ -9353,7 +9353,7 @@
         <v>31</v>
       </c>
       <c r="G100" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H100">
         <v>2</v>
@@ -9439,10 +9439,10 @@
         <v>45227.375</v>
       </c>
       <c r="F101" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G101" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H101">
         <v>0</v>
@@ -9620,7 +9620,7 @@
         <v>38</v>
       </c>
       <c r="G103" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H103">
         <v>2</v>
@@ -10062,7 +10062,7 @@
         <v>45235.375</v>
       </c>
       <c r="F108" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G108" t="s">
         <v>30</v>
@@ -10154,7 +10154,7 @@
         <v>43</v>
       </c>
       <c r="G109" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H109">
         <v>0</v>
@@ -10317,7 +10317,7 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>6989521</v>
+        <v>6989522</v>
       </c>
       <c r="C111" t="s">
         <v>28</v>
@@ -10329,46 +10329,46 @@
         <v>45236.375</v>
       </c>
       <c r="F111" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="G111" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H111">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I111">
         <v>1</v>
       </c>
       <c r="J111" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K111">
-        <v>2.4</v>
+        <v>1.65</v>
       </c>
       <c r="L111">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M111">
-        <v>2.75</v>
+        <v>5.5</v>
       </c>
       <c r="N111">
-        <v>2.875</v>
+        <v>2.25</v>
       </c>
       <c r="O111">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="P111">
-        <v>2.45</v>
+        <v>3.25</v>
       </c>
       <c r="Q111">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R111">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S111">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="T111">
         <v>2</v>
@@ -10383,22 +10383,22 @@
         <v>-1</v>
       </c>
       <c r="X111">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Y111">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Z111">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA111">
-        <v>-0</v>
+        <v>0.8</v>
       </c>
       <c r="AB111">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC111">
-        <v>-0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="112" spans="1:29">
@@ -10418,7 +10418,7 @@
         <v>45236.375</v>
       </c>
       <c r="F112" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G112" t="s">
         <v>29</v>
@@ -10495,7 +10495,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>6989522</v>
+        <v>6989521</v>
       </c>
       <c r="C113" t="s">
         <v>28</v>
@@ -10507,46 +10507,46 @@
         <v>45236.375</v>
       </c>
       <c r="F113" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="G113" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H113">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I113">
         <v>1</v>
       </c>
       <c r="J113" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K113">
-        <v>1.65</v>
+        <v>2.4</v>
       </c>
       <c r="L113">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M113">
-        <v>5.5</v>
+        <v>2.75</v>
       </c>
       <c r="N113">
-        <v>2.25</v>
+        <v>2.875</v>
       </c>
       <c r="O113">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="P113">
-        <v>3.25</v>
+        <v>2.45</v>
       </c>
       <c r="Q113">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R113">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="S113">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="T113">
         <v>2</v>
@@ -10561,22 +10561,22 @@
         <v>-1</v>
       </c>
       <c r="X113">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Y113">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Z113">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA113">
-        <v>0.8</v>
+        <v>-0</v>
       </c>
       <c r="AB113">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC113">
-        <v>1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="114" spans="1:29">
@@ -10685,10 +10685,10 @@
         <v>45241.375</v>
       </c>
       <c r="F115" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G115" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H115">
         <v>0</v>
@@ -10774,7 +10774,7 @@
         <v>45241.375</v>
       </c>
       <c r="F116" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G116" t="s">
         <v>36</v>
@@ -11219,7 +11219,7 @@
         <v>45247.375</v>
       </c>
       <c r="F121" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G121" t="s">
         <v>42</v>
@@ -11385,7 +11385,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>6989628</v>
+        <v>6989696</v>
       </c>
       <c r="C123" t="s">
         <v>28</v>
@@ -11397,76 +11397,76 @@
         <v>45248.375</v>
       </c>
       <c r="F123" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G123" t="s">
         <v>40</v>
       </c>
       <c r="H123">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I123">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J123" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K123">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="L123">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M123">
-        <v>3</v>
+        <v>2.625</v>
       </c>
       <c r="N123">
-        <v>2.3</v>
+        <v>2.8</v>
       </c>
       <c r="O123">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="P123">
-        <v>2.9</v>
+        <v>2.6</v>
       </c>
       <c r="Q123">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R123">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="S123">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="T123">
-        <v>1.75</v>
+        <v>1.5</v>
       </c>
       <c r="U123">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="V123">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="W123">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="X123">
         <v>-1</v>
       </c>
       <c r="Y123">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="Z123">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA123">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB123">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC123">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="124" spans="1:29">
@@ -11474,7 +11474,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>6989627</v>
+        <v>6989628</v>
       </c>
       <c r="C124" t="s">
         <v>28</v>
@@ -11486,58 +11486,58 @@
         <v>45248.375</v>
       </c>
       <c r="F124" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G124" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H124">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I124">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J124" t="s">
         <v>45</v>
       </c>
       <c r="K124">
-        <v>1.909</v>
+        <v>2.2</v>
       </c>
       <c r="L124">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M124">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="N124">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="O124">
-        <v>3.4</v>
+        <v>2.9</v>
       </c>
       <c r="P124">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="Q124">
         <v>-0.25</v>
       </c>
       <c r="R124">
+        <v>2.05</v>
+      </c>
+      <c r="S124">
         <v>1.75</v>
       </c>
-      <c r="S124">
-        <v>1.95</v>
-      </c>
       <c r="T124">
-        <v>2.5</v>
+        <v>1.75</v>
       </c>
       <c r="U124">
+        <v>1.825</v>
+      </c>
+      <c r="V124">
         <v>1.975</v>
       </c>
-      <c r="V124">
-        <v>1.825</v>
-      </c>
       <c r="W124">
-        <v>1</v>
+        <v>1.3</v>
       </c>
       <c r="X124">
         <v>-1</v>
@@ -11546,16 +11546,16 @@
         <v>-1</v>
       </c>
       <c r="Z124">
-        <v>0.75</v>
+        <v>1.05</v>
       </c>
       <c r="AA124">
         <v>-1</v>
       </c>
       <c r="AB124">
+        <v>-1</v>
+      </c>
+      <c r="AC124">
         <v>0.9750000000000001</v>
-      </c>
-      <c r="AC124">
-        <v>-1</v>
       </c>
     </row>
     <row r="125" spans="1:29">
@@ -11563,7 +11563,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>6989696</v>
+        <v>6989627</v>
       </c>
       <c r="C125" t="s">
         <v>28</v>
@@ -11575,73 +11575,73 @@
         <v>45248.375</v>
       </c>
       <c r="F125" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G125" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H125">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I125">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J125" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K125">
+        <v>1.909</v>
+      </c>
+      <c r="L125">
+        <v>3.2</v>
+      </c>
+      <c r="M125">
+        <v>3.6</v>
+      </c>
+      <c r="N125">
+        <v>2</v>
+      </c>
+      <c r="O125">
+        <v>3.4</v>
+      </c>
+      <c r="P125">
+        <v>3.1</v>
+      </c>
+      <c r="Q125">
+        <v>-0.25</v>
+      </c>
+      <c r="R125">
+        <v>1.75</v>
+      </c>
+      <c r="S125">
+        <v>1.95</v>
+      </c>
+      <c r="T125">
         <v>2.5</v>
       </c>
-      <c r="L125">
-        <v>3</v>
-      </c>
-      <c r="M125">
-        <v>2.625</v>
-      </c>
-      <c r="N125">
-        <v>2.8</v>
-      </c>
-      <c r="O125">
-        <v>2.8</v>
-      </c>
-      <c r="P125">
-        <v>2.6</v>
-      </c>
-      <c r="Q125">
-        <v>0</v>
-      </c>
-      <c r="R125">
+      <c r="U125">
         <v>1.975</v>
       </c>
-      <c r="S125">
+      <c r="V125">
         <v>1.825</v>
       </c>
-      <c r="T125">
-        <v>1.5</v>
-      </c>
-      <c r="U125">
-        <v>1.775</v>
-      </c>
-      <c r="V125">
-        <v>2.025</v>
-      </c>
       <c r="W125">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X125">
         <v>-1</v>
       </c>
       <c r="Y125">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="Z125">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA125">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB125">
-        <v>0.7749999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC125">
         <v>-1</v>
@@ -11753,10 +11753,10 @@
         <v>45251.375</v>
       </c>
       <c r="F127" t="s">
+        <v>34</v>
+      </c>
+      <c r="G127" t="s">
         <v>35</v>
-      </c>
-      <c r="G127" t="s">
-        <v>34</v>
       </c>
       <c r="H127">
         <v>2</v>
@@ -11919,7 +11919,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>7497903</v>
+        <v>7497670</v>
       </c>
       <c r="C129" t="s">
         <v>28</v>
@@ -11931,7 +11931,7 @@
         <v>45252.375</v>
       </c>
       <c r="F129" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G129" t="s">
         <v>39</v>
@@ -11940,67 +11940,67 @@
         <v>2</v>
       </c>
       <c r="I129">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J129" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K129">
-        <v>1.571</v>
+        <v>3.2</v>
       </c>
       <c r="L129">
-        <v>3.75</v>
+        <v>2.9</v>
       </c>
       <c r="M129">
-        <v>4.75</v>
+        <v>2.2</v>
       </c>
       <c r="N129">
-        <v>1.5</v>
+        <v>3.3</v>
       </c>
       <c r="O129">
-        <v>3.75</v>
+        <v>2.9</v>
       </c>
       <c r="P129">
-        <v>5.5</v>
+        <v>2.15</v>
       </c>
       <c r="Q129">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R129">
+        <v>1.875</v>
+      </c>
+      <c r="S129">
         <v>1.925</v>
       </c>
-      <c r="S129">
-        <v>1.875</v>
-      </c>
       <c r="T129">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U129">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V129">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W129">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X129">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Y129">
         <v>-1</v>
       </c>
       <c r="Z129">
-        <v>0.925</v>
+        <v>0.4375</v>
       </c>
       <c r="AA129">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB129">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AC129">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="130" spans="1:29">
@@ -12008,7 +12008,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>7497904</v>
+        <v>7497903</v>
       </c>
       <c r="C130" t="s">
         <v>28</v>
@@ -12020,76 +12020,76 @@
         <v>45252.375</v>
       </c>
       <c r="F130" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="G130" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H130">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I130">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J130" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K130">
-        <v>2.4</v>
+        <v>1.571</v>
       </c>
       <c r="L130">
-        <v>2.875</v>
+        <v>3.75</v>
       </c>
       <c r="M130">
-        <v>2.875</v>
+        <v>4.75</v>
       </c>
       <c r="N130">
-        <v>2.875</v>
+        <v>1.5</v>
       </c>
       <c r="O130">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="P130">
-        <v>2.3</v>
+        <v>5.5</v>
       </c>
       <c r="Q130">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R130">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="S130">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="T130">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U130">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V130">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W130">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X130">
         <v>-1</v>
       </c>
       <c r="Y130">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z130">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA130">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB130">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC130">
-        <v>0.875</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="131" spans="1:29">
@@ -12097,7 +12097,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>7497670</v>
+        <v>7497904</v>
       </c>
       <c r="C131" t="s">
         <v>28</v>
@@ -12109,76 +12109,76 @@
         <v>45252.375</v>
       </c>
       <c r="F131" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="G131" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H131">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I131">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J131" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K131">
-        <v>3.2</v>
+        <v>2.4</v>
       </c>
       <c r="L131">
-        <v>2.9</v>
+        <v>2.875</v>
       </c>
       <c r="M131">
-        <v>2.2</v>
+        <v>2.875</v>
       </c>
       <c r="N131">
-        <v>3.3</v>
+        <v>2.875</v>
       </c>
       <c r="O131">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="P131">
-        <v>2.15</v>
+        <v>2.3</v>
       </c>
       <c r="Q131">
         <v>0.25</v>
       </c>
       <c r="R131">
+        <v>1.75</v>
+      </c>
+      <c r="S131">
+        <v>2.05</v>
+      </c>
+      <c r="T131">
+        <v>2</v>
+      </c>
+      <c r="U131">
+        <v>1.925</v>
+      </c>
+      <c r="V131">
         <v>1.875</v>
       </c>
-      <c r="S131">
-        <v>1.925</v>
-      </c>
-      <c r="T131">
-        <v>2</v>
-      </c>
-      <c r="U131">
-        <v>1.95</v>
-      </c>
-      <c r="V131">
-        <v>1.85</v>
-      </c>
       <c r="W131">
         <v>-1</v>
       </c>
       <c r="X131">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Y131">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z131">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AA131">
-        <v>-0.5</v>
+        <v>1.05</v>
       </c>
       <c r="AB131">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC131">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="132" spans="1:29">
@@ -12186,7 +12186,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>7497902</v>
+        <v>7497374</v>
       </c>
       <c r="C132" t="s">
         <v>28</v>
@@ -12198,76 +12198,76 @@
         <v>45252.375</v>
       </c>
       <c r="F132" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G132" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="H132">
         <v>1</v>
       </c>
       <c r="I132">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J132" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K132">
-        <v>1.909</v>
+        <v>2.5</v>
       </c>
       <c r="L132">
         <v>3</v>
       </c>
       <c r="M132">
-        <v>4</v>
+        <v>2.625</v>
       </c>
       <c r="N132">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="O132">
         <v>3.1</v>
       </c>
       <c r="P132">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="Q132">
         <v>-0.5</v>
       </c>
       <c r="R132">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="S132">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="T132">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U132">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V132">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W132">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X132">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y132">
         <v>-1</v>
       </c>
       <c r="Z132">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA132">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB132">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC132">
-        <v>-0</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="133" spans="1:29">
@@ -12275,7 +12275,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>7497374</v>
+        <v>7497902</v>
       </c>
       <c r="C133" t="s">
         <v>28</v>
@@ -12287,76 +12287,76 @@
         <v>45252.375</v>
       </c>
       <c r="F133" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G133" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="H133">
         <v>1</v>
       </c>
       <c r="I133">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J133" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K133">
-        <v>2.5</v>
+        <v>1.909</v>
       </c>
       <c r="L133">
         <v>3</v>
       </c>
       <c r="M133">
-        <v>2.625</v>
+        <v>4</v>
       </c>
       <c r="N133">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="O133">
         <v>3.1</v>
       </c>
       <c r="P133">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="Q133">
         <v>-0.5</v>
       </c>
       <c r="R133">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="S133">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="T133">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U133">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V133">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W133">
+        <v>-1</v>
+      </c>
+      <c r="X133">
+        <v>2.1</v>
+      </c>
+      <c r="Y133">
+        <v>-1</v>
+      </c>
+      <c r="Z133">
+        <v>-1</v>
+      </c>
+      <c r="AA133">
         <v>1</v>
       </c>
-      <c r="X133">
-        <v>-1</v>
-      </c>
-      <c r="Y133">
-        <v>-1</v>
-      </c>
-      <c r="Z133">
-        <v>1.025</v>
-      </c>
-      <c r="AA133">
-        <v>-1</v>
-      </c>
       <c r="AB133">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC133">
-        <v>0.8500000000000001</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="134" spans="1:29">
@@ -12468,7 +12468,7 @@
         <v>38</v>
       </c>
       <c r="G135" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H135">
         <v>2</v>
@@ -12643,7 +12643,7 @@
         <v>45256.375</v>
       </c>
       <c r="F137" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G137" t="s">
         <v>33</v>
@@ -12735,7 +12735,7 @@
         <v>37</v>
       </c>
       <c r="G138" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H138">
         <v>4</v>
@@ -12898,7 +12898,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>6989698</v>
+        <v>7523282</v>
       </c>
       <c r="C140" t="s">
         <v>28</v>
@@ -12910,76 +12910,76 @@
         <v>45257.375</v>
       </c>
       <c r="F140" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G140" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="H140">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I140">
         <v>0</v>
       </c>
       <c r="J140" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K140">
+        <v>3</v>
+      </c>
+      <c r="L140">
+        <v>2.9</v>
+      </c>
+      <c r="M140">
+        <v>2.3</v>
+      </c>
+      <c r="N140">
+        <v>2.8</v>
+      </c>
+      <c r="O140">
+        <v>3.1</v>
+      </c>
+      <c r="P140">
+        <v>2.4</v>
+      </c>
+      <c r="Q140">
+        <v>0</v>
+      </c>
+      <c r="R140">
+        <v>2</v>
+      </c>
+      <c r="S140">
+        <v>1.8</v>
+      </c>
+      <c r="T140">
+        <v>2</v>
+      </c>
+      <c r="U140">
+        <v>1.875</v>
+      </c>
+      <c r="V140">
+        <v>1.925</v>
+      </c>
+      <c r="W140">
+        <v>-1</v>
+      </c>
+      <c r="X140">
         <v>2.1</v>
       </c>
-      <c r="L140">
-        <v>2.75</v>
-      </c>
-      <c r="M140">
-        <v>3.6</v>
-      </c>
-      <c r="N140">
-        <v>2.15</v>
-      </c>
-      <c r="O140">
-        <v>2.625</v>
-      </c>
-      <c r="P140">
-        <v>3.75</v>
-      </c>
-      <c r="Q140">
-        <v>-0.25</v>
-      </c>
-      <c r="R140">
-        <v>1.875</v>
-      </c>
-      <c r="S140">
-        <v>1.925</v>
-      </c>
-      <c r="T140">
-        <v>1.75</v>
-      </c>
-      <c r="U140">
-        <v>1.95</v>
-      </c>
-      <c r="V140">
-        <v>1.85</v>
-      </c>
-      <c r="W140">
-        <v>1.15</v>
-      </c>
-      <c r="X140">
-        <v>-1</v>
-      </c>
       <c r="Y140">
         <v>-1</v>
       </c>
       <c r="Z140">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="AA140">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB140">
         <v>-1</v>
       </c>
       <c r="AC140">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="141" spans="1:29">
@@ -12987,7 +12987,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>7523282</v>
+        <v>6989698</v>
       </c>
       <c r="C141" t="s">
         <v>28</v>
@@ -12999,76 +12999,76 @@
         <v>45257.375</v>
       </c>
       <c r="F141" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G141" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="H141">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I141">
         <v>0</v>
       </c>
       <c r="J141" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K141">
-        <v>3</v>
+        <v>2.1</v>
       </c>
       <c r="L141">
-        <v>2.9</v>
+        <v>2.75</v>
       </c>
       <c r="M141">
-        <v>2.3</v>
+        <v>3.6</v>
       </c>
       <c r="N141">
-        <v>2.8</v>
+        <v>2.15</v>
       </c>
       <c r="O141">
-        <v>3.1</v>
+        <v>2.625</v>
       </c>
       <c r="P141">
-        <v>2.4</v>
+        <v>3.75</v>
       </c>
       <c r="Q141">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R141">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S141">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T141">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U141">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V141">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W141">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X141">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y141">
         <v>-1</v>
       </c>
       <c r="Z141">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AA141">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB141">
         <v>-1</v>
       </c>
       <c r="AC141">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="142" spans="1:29">
@@ -13266,7 +13266,7 @@
         <v>45262.375</v>
       </c>
       <c r="F144" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G144" t="s">
         <v>41</v>
@@ -13358,7 +13358,7 @@
         <v>31</v>
       </c>
       <c r="G145" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H145">
         <v>1</v>
@@ -13447,7 +13447,7 @@
         <v>32</v>
       </c>
       <c r="G146" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H146">
         <v>0</v>
@@ -13803,7 +13803,7 @@
         <v>30</v>
       </c>
       <c r="G150" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H150">
         <v>2</v>
@@ -13892,7 +13892,7 @@
         <v>44</v>
       </c>
       <c r="G151" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H151">
         <v>1</v>
@@ -14055,7 +14055,7 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>6989703</v>
+        <v>6989332</v>
       </c>
       <c r="C153" t="s">
         <v>28</v>
@@ -14067,61 +14067,61 @@
         <v>45270.375</v>
       </c>
       <c r="F153" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="G153" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="H153">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I153">
         <v>0</v>
       </c>
       <c r="J153" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K153">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="L153">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M153">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="N153">
-        <v>1.533</v>
+        <v>1.285</v>
       </c>
       <c r="O153">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="P153">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="Q153">
-        <v>-1</v>
+        <v>-1.5</v>
       </c>
       <c r="R153">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S153">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T153">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U153">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="V153">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="W153">
-        <v>-1</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="X153">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y153">
         <v>-1</v>
@@ -14130,13 +14130,13 @@
         <v>-1</v>
       </c>
       <c r="AA153">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
       <c r="AB153">
         <v>-1</v>
       </c>
       <c r="AC153">
-        <v>0.7749999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="154" spans="1:29">
@@ -14144,7 +14144,7 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>6989702</v>
+        <v>6989703</v>
       </c>
       <c r="C154" t="s">
         <v>28</v>
@@ -14156,76 +14156,76 @@
         <v>45270.375</v>
       </c>
       <c r="F154" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G154" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H154">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I154">
         <v>0</v>
       </c>
       <c r="J154" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K154">
-        <v>2.875</v>
+        <v>1.5</v>
       </c>
       <c r="L154">
-        <v>2.875</v>
+        <v>3.6</v>
       </c>
       <c r="M154">
-        <v>2.4</v>
+        <v>6</v>
       </c>
       <c r="N154">
-        <v>2.2</v>
+        <v>1.533</v>
       </c>
       <c r="O154">
-        <v>2.8</v>
+        <v>3.6</v>
       </c>
       <c r="P154">
-        <v>3.4</v>
+        <v>6</v>
       </c>
       <c r="Q154">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R154">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S154">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T154">
-        <v>1.5</v>
+        <v>2.25</v>
       </c>
       <c r="U154">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="V154">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="W154">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X154">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y154">
         <v>-1</v>
       </c>
       <c r="Z154">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA154">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB154">
         <v>-1</v>
       </c>
       <c r="AC154">
-        <v>0.925</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="155" spans="1:29">
@@ -14233,7 +14233,7 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>6989633</v>
+        <v>6989702</v>
       </c>
       <c r="C155" t="s">
         <v>28</v>
@@ -14245,58 +14245,58 @@
         <v>45270.375</v>
       </c>
       <c r="F155" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G155" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="H155">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I155">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J155" t="s">
         <v>45</v>
       </c>
       <c r="K155">
-        <v>1.8</v>
+        <v>2.875</v>
       </c>
       <c r="L155">
-        <v>3.1</v>
+        <v>2.875</v>
       </c>
       <c r="M155">
-        <v>4.2</v>
+        <v>2.4</v>
       </c>
       <c r="N155">
-        <v>1.75</v>
+        <v>2.2</v>
       </c>
       <c r="O155">
-        <v>3.2</v>
+        <v>2.8</v>
       </c>
       <c r="P155">
-        <v>4.75</v>
+        <v>3.4</v>
       </c>
       <c r="Q155">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R155">
         <v>1.95</v>
       </c>
       <c r="S155">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="T155">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="U155">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="V155">
-        <v>1.725</v>
+        <v>1.925</v>
       </c>
       <c r="W155">
-        <v>0.75</v>
+        <v>1.2</v>
       </c>
       <c r="X155">
         <v>-1</v>
@@ -14305,16 +14305,16 @@
         <v>-1</v>
       </c>
       <c r="Z155">
-        <v>0.475</v>
+        <v>0.95</v>
       </c>
       <c r="AA155">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB155">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC155">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="156" spans="1:29">
@@ -14322,7 +14322,7 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>6989332</v>
+        <v>6989633</v>
       </c>
       <c r="C156" t="s">
         <v>28</v>
@@ -14334,58 +14334,58 @@
         <v>45270.375</v>
       </c>
       <c r="F156" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G156" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="H156">
+        <v>2</v>
+      </c>
+      <c r="I156">
         <v>1</v>
-      </c>
-      <c r="I156">
-        <v>0</v>
       </c>
       <c r="J156" t="s">
         <v>45</v>
       </c>
       <c r="K156">
-        <v>1.4</v>
+        <v>1.8</v>
       </c>
       <c r="L156">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="M156">
-        <v>7</v>
+        <v>4.2</v>
       </c>
       <c r="N156">
-        <v>1.285</v>
+        <v>1.75</v>
       </c>
       <c r="O156">
-        <v>4.333</v>
+        <v>3.2</v>
       </c>
       <c r="P156">
-        <v>11</v>
+        <v>4.75</v>
       </c>
       <c r="Q156">
-        <v>-1.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R156">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="S156">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="T156">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U156">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V156">
-        <v>1.85</v>
+        <v>1.725</v>
       </c>
       <c r="W156">
-        <v>0.2849999999999999</v>
+        <v>0.75</v>
       </c>
       <c r="X156">
         <v>-1</v>
@@ -14394,16 +14394,16 @@
         <v>-1</v>
       </c>
       <c r="Z156">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AA156">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AB156">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC156">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="157" spans="1:29">
@@ -14423,7 +14423,7 @@
         <v>45270.375</v>
       </c>
       <c r="F157" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G157" t="s">
         <v>33</v>
@@ -14500,7 +14500,7 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>6989531</v>
+        <v>6989530</v>
       </c>
       <c r="C158" t="s">
         <v>28</v>
@@ -14512,49 +14512,49 @@
         <v>45271.375</v>
       </c>
       <c r="F158" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G158" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="H158">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I158">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J158" t="s">
         <v>45</v>
       </c>
       <c r="K158">
-        <v>1.571</v>
+        <v>1.666</v>
       </c>
       <c r="L158">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M158">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="N158">
         <v>1.444</v>
       </c>
       <c r="O158">
-        <v>4.2</v>
+        <v>4.333</v>
       </c>
       <c r="P158">
-        <v>5.75</v>
+        <v>5.25</v>
       </c>
       <c r="Q158">
-        <v>-1.25</v>
+        <v>-1</v>
       </c>
       <c r="R158">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="S158">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T158">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U158">
         <v>1.85</v>
@@ -14572,16 +14572,16 @@
         <v>-1</v>
       </c>
       <c r="Z158">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AA158">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AB158">
-        <v>0.425</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC158">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="159" spans="1:29">
@@ -14589,7 +14589,7 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>6989530</v>
+        <v>6989531</v>
       </c>
       <c r="C159" t="s">
         <v>28</v>
@@ -14601,49 +14601,49 @@
         <v>45271.375</v>
       </c>
       <c r="F159" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G159" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="H159">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I159">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J159" t="s">
         <v>45</v>
       </c>
       <c r="K159">
-        <v>1.666</v>
+        <v>1.571</v>
       </c>
       <c r="L159">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M159">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="N159">
         <v>1.444</v>
       </c>
       <c r="O159">
-        <v>4.333</v>
+        <v>4.2</v>
       </c>
       <c r="P159">
-        <v>5.25</v>
+        <v>5.75</v>
       </c>
       <c r="Q159">
-        <v>-1</v>
+        <v>-1.25</v>
       </c>
       <c r="R159">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="S159">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T159">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U159">
         <v>1.85</v>
@@ -14661,16 +14661,16 @@
         <v>-1</v>
       </c>
       <c r="Z159">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AA159">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AB159">
-        <v>0.8500000000000001</v>
+        <v>0.425</v>
       </c>
       <c r="AC159">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="160" spans="1:29">
@@ -14690,7 +14690,7 @@
         <v>45274.375</v>
       </c>
       <c r="F160" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G160" t="s">
         <v>29</v>
@@ -14871,7 +14871,7 @@
         <v>31</v>
       </c>
       <c r="G162" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H162">
         <v>1</v>
@@ -15046,7 +15046,7 @@
         <v>45346.375</v>
       </c>
       <c r="F164" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G164" t="s">
         <v>43</v>
@@ -15138,7 +15138,7 @@
         <v>44</v>
       </c>
       <c r="G165" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H165">
         <v>0</v>
@@ -15301,7 +15301,7 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>6989634</v>
+        <v>6989532</v>
       </c>
       <c r="C167" t="s">
         <v>28</v>
@@ -15313,10 +15313,10 @@
         <v>45347.375</v>
       </c>
       <c r="F167" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="G167" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H167">
         <v>1</v>
@@ -15328,43 +15328,43 @@
         <v>45</v>
       </c>
       <c r="K167">
-        <v>2.5</v>
+        <v>7.5</v>
       </c>
       <c r="L167">
-        <v>3</v>
+        <v>4.333</v>
       </c>
       <c r="M167">
-        <v>2.625</v>
+        <v>1.333</v>
       </c>
       <c r="N167">
-        <v>2.15</v>
+        <v>5</v>
       </c>
       <c r="O167">
-        <v>3.1</v>
+        <v>3.8</v>
       </c>
       <c r="P167">
-        <v>3.1</v>
+        <v>1.533</v>
       </c>
       <c r="Q167">
-        <v>-0.25</v>
+        <v>1</v>
       </c>
       <c r="R167">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S167">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T167">
         <v>2.25</v>
       </c>
       <c r="U167">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V167">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W167">
-        <v>1.15</v>
+        <v>4</v>
       </c>
       <c r="X167">
         <v>-1</v>
@@ -15373,7 +15373,7 @@
         <v>-1</v>
       </c>
       <c r="Z167">
-        <v>0.8999999999999999</v>
+        <v>0.875</v>
       </c>
       <c r="AA167">
         <v>-1</v>
@@ -15382,7 +15382,7 @@
         <v>-1</v>
       </c>
       <c r="AC167">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="168" spans="1:29">
@@ -15390,7 +15390,7 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>6989532</v>
+        <v>6989634</v>
       </c>
       <c r="C168" t="s">
         <v>28</v>
@@ -15402,10 +15402,10 @@
         <v>45347.375</v>
       </c>
       <c r="F168" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G168" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H168">
         <v>1</v>
@@ -15417,43 +15417,43 @@
         <v>45</v>
       </c>
       <c r="K168">
-        <v>7.5</v>
+        <v>2.5</v>
       </c>
       <c r="L168">
-        <v>4.333</v>
+        <v>3</v>
       </c>
       <c r="M168">
-        <v>1.333</v>
+        <v>2.625</v>
       </c>
       <c r="N168">
-        <v>5</v>
+        <v>2.15</v>
       </c>
       <c r="O168">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="P168">
-        <v>1.533</v>
+        <v>3.1</v>
       </c>
       <c r="Q168">
-        <v>1</v>
+        <v>-0.25</v>
       </c>
       <c r="R168">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S168">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T168">
         <v>2.25</v>
       </c>
       <c r="U168">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V168">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W168">
-        <v>4</v>
+        <v>1.15</v>
       </c>
       <c r="X168">
         <v>-1</v>
@@ -15462,7 +15462,7 @@
         <v>-1</v>
       </c>
       <c r="Z168">
-        <v>0.875</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA168">
         <v>-1</v>
@@ -15471,7 +15471,7 @@
         <v>-1</v>
       </c>
       <c r="AC168">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="169" spans="1:29">
@@ -15494,7 +15494,7 @@
         <v>32</v>
       </c>
       <c r="G169" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H169">
         <v>0</v>
@@ -15580,7 +15580,7 @@
         <v>45352.375</v>
       </c>
       <c r="F170" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G170" t="s">
         <v>42</v>
@@ -15936,7 +15936,7 @@
         <v>45353.375</v>
       </c>
       <c r="F174" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G174" t="s">
         <v>33</v>
@@ -16025,10 +16025,10 @@
         <v>45353.375</v>
       </c>
       <c r="F175" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G175" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H175">
         <v>1</v>
@@ -16295,7 +16295,7 @@
         <v>37</v>
       </c>
       <c r="G178" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H178">
         <v>2</v>
@@ -16547,7 +16547,7 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>6989334</v>
+        <v>6989642</v>
       </c>
       <c r="C181" t="s">
         <v>28</v>
@@ -16559,76 +16559,76 @@
         <v>45357.54166666666</v>
       </c>
       <c r="F181" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="G181" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H181">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I181">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J181" t="s">
         <v>47</v>
       </c>
       <c r="K181">
-        <v>1.8</v>
+        <v>1.909</v>
       </c>
       <c r="L181">
         <v>3.1</v>
       </c>
       <c r="M181">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="N181">
-        <v>2.05</v>
+        <v>1.909</v>
       </c>
       <c r="O181">
-        <v>3</v>
+        <v>2.625</v>
       </c>
       <c r="P181">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="Q181">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R181">
+        <v>1.975</v>
+      </c>
+      <c r="S181">
+        <v>1.825</v>
+      </c>
+      <c r="T181">
+        <v>1.75</v>
+      </c>
+      <c r="U181">
+        <v>2</v>
+      </c>
+      <c r="V181">
         <v>1.8</v>
       </c>
-      <c r="S181">
-        <v>2</v>
-      </c>
-      <c r="T181">
-        <v>1.5</v>
-      </c>
-      <c r="U181">
-        <v>1.8</v>
-      </c>
-      <c r="V181">
-        <v>2</v>
-      </c>
       <c r="W181">
         <v>-1</v>
       </c>
       <c r="X181">
-        <v>2</v>
+        <v>1.625</v>
       </c>
       <c r="Y181">
         <v>-1</v>
       </c>
       <c r="Z181">
+        <v>-1</v>
+      </c>
+      <c r="AA181">
+        <v>0.825</v>
+      </c>
+      <c r="AB181">
+        <v>0.5</v>
+      </c>
+      <c r="AC181">
         <v>-0.5</v>
-      </c>
-      <c r="AA181">
-        <v>0.5</v>
-      </c>
-      <c r="AB181">
-        <v>-1</v>
-      </c>
-      <c r="AC181">
-        <v>1</v>
       </c>
     </row>
     <row r="182" spans="1:29">
@@ -16636,7 +16636,7 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>6989642</v>
+        <v>6989711</v>
       </c>
       <c r="C182" t="s">
         <v>28</v>
@@ -16648,73 +16648,73 @@
         <v>45357.54166666666</v>
       </c>
       <c r="F182" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G182" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="H182">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I182">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J182" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K182">
-        <v>1.909</v>
+        <v>2.25</v>
       </c>
       <c r="L182">
+        <v>2.9</v>
+      </c>
+      <c r="M182">
         <v>3.1</v>
       </c>
-      <c r="M182">
-        <v>3.75</v>
-      </c>
       <c r="N182">
-        <v>1.909</v>
+        <v>2.25</v>
       </c>
       <c r="O182">
-        <v>2.625</v>
+        <v>2.7</v>
       </c>
       <c r="P182">
-        <v>4.75</v>
+        <v>3.4</v>
       </c>
       <c r="Q182">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R182">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S182">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T182">
         <v>1.75</v>
       </c>
       <c r="U182">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V182">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="W182">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="X182">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="Y182">
         <v>-1</v>
       </c>
       <c r="Z182">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA182">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB182">
-        <v>0.5</v>
+        <v>0.475</v>
       </c>
       <c r="AC182">
         <v>-0.5</v>
@@ -16725,7 +16725,7 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>6989711</v>
+        <v>6989334</v>
       </c>
       <c r="C183" t="s">
         <v>28</v>
@@ -16737,76 +16737,76 @@
         <v>45357.54166666666</v>
       </c>
       <c r="F183" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="G183" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="H183">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I183">
         <v>0</v>
       </c>
       <c r="J183" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K183">
-        <v>2.25</v>
+        <v>1.8</v>
       </c>
       <c r="L183">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="M183">
-        <v>3.1</v>
+        <v>4.2</v>
       </c>
       <c r="N183">
-        <v>2.25</v>
+        <v>2.05</v>
       </c>
       <c r="O183">
-        <v>2.7</v>
+        <v>3</v>
       </c>
       <c r="P183">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="Q183">
         <v>-0.25</v>
       </c>
       <c r="R183">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S183">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T183">
-        <v>1.75</v>
+        <v>1.5</v>
       </c>
       <c r="U183">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V183">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="W183">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="X183">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y183">
         <v>-1</v>
       </c>
       <c r="Z183">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AA183">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="AB183">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AC183">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="184" spans="1:29">
@@ -16829,7 +16829,7 @@
         <v>31</v>
       </c>
       <c r="G184" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H184">
         <v>1</v>
@@ -16915,7 +16915,7 @@
         <v>45361.41666666666</v>
       </c>
       <c r="F185" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G185" t="s">
         <v>41</v>
@@ -17259,7 +17259,7 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>6989643</v>
+        <v>6989537</v>
       </c>
       <c r="C189" t="s">
         <v>28</v>
@@ -17271,10 +17271,10 @@
         <v>45362.41666666666</v>
       </c>
       <c r="F189" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="G189" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="H189">
         <v>1</v>
@@ -17286,43 +17286,43 @@
         <v>45</v>
       </c>
       <c r="K189">
+        <v>1.8</v>
+      </c>
+      <c r="L189">
+        <v>3.1</v>
+      </c>
+      <c r="M189">
+        <v>4.2</v>
+      </c>
+      <c r="N189">
+        <v>1.5</v>
+      </c>
+      <c r="O189">
+        <v>3.5</v>
+      </c>
+      <c r="P189">
+        <v>6.5</v>
+      </c>
+      <c r="Q189">
+        <v>-1</v>
+      </c>
+      <c r="R189">
+        <v>1.85</v>
+      </c>
+      <c r="S189">
+        <v>1.95</v>
+      </c>
+      <c r="T189">
         <v>2.25</v>
       </c>
-      <c r="L189">
-        <v>3.25</v>
-      </c>
-      <c r="M189">
-        <v>2.75</v>
-      </c>
-      <c r="N189">
-        <v>2.3</v>
-      </c>
-      <c r="O189">
-        <v>3.3</v>
-      </c>
-      <c r="P189">
-        <v>2.625</v>
-      </c>
-      <c r="Q189">
-        <v>-0.25</v>
-      </c>
-      <c r="R189">
-        <v>1.975</v>
-      </c>
-      <c r="S189">
-        <v>1.725</v>
-      </c>
-      <c r="T189">
-        <v>1.75</v>
-      </c>
       <c r="U189">
-        <v>1.725</v>
+        <v>2.025</v>
       </c>
       <c r="V189">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="W189">
-        <v>1.3</v>
+        <v>0.5</v>
       </c>
       <c r="X189">
         <v>-1</v>
@@ -17331,16 +17331,16 @@
         <v>-1</v>
       </c>
       <c r="Z189">
-        <v>0.9750000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA189">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB189">
         <v>-1</v>
       </c>
       <c r="AC189">
-        <v>0.9750000000000001</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="190" spans="1:29">
@@ -17348,7 +17348,7 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>6989537</v>
+        <v>6989536</v>
       </c>
       <c r="C190" t="s">
         <v>28</v>
@@ -17360,76 +17360,76 @@
         <v>45362.41666666666</v>
       </c>
       <c r="F190" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G190" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="H190">
+        <v>0</v>
+      </c>
+      <c r="I190">
         <v>1</v>
       </c>
-      <c r="I190">
-        <v>0</v>
-      </c>
       <c r="J190" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K190">
-        <v>1.8</v>
+        <v>2.25</v>
       </c>
       <c r="L190">
-        <v>3.1</v>
+        <v>2.75</v>
       </c>
       <c r="M190">
-        <v>4.2</v>
+        <v>3.25</v>
       </c>
       <c r="N190">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="O190">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="P190">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="Q190">
-        <v>-1</v>
+        <v>-1.25</v>
       </c>
       <c r="R190">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S190">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T190">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U190">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="V190">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="W190">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X190">
         <v>-1</v>
       </c>
       <c r="Y190">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="Z190">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA190">
-        <v>-0</v>
+        <v>0.925</v>
       </c>
       <c r="AB190">
         <v>-1</v>
       </c>
       <c r="AC190">
-        <v>0.7749999999999999</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="191" spans="1:29">
@@ -17437,7 +17437,7 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>6989536</v>
+        <v>6989643</v>
       </c>
       <c r="C191" t="s">
         <v>28</v>
@@ -17449,76 +17449,76 @@
         <v>45362.41666666666</v>
       </c>
       <c r="F191" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G191" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H191">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I191">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J191" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K191">
         <v>2.25</v>
       </c>
       <c r="L191">
+        <v>3.25</v>
+      </c>
+      <c r="M191">
         <v>2.75</v>
       </c>
-      <c r="M191">
-        <v>3.25</v>
-      </c>
       <c r="N191">
-        <v>1.4</v>
+        <v>2.3</v>
       </c>
       <c r="O191">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="P191">
-        <v>7</v>
+        <v>2.625</v>
       </c>
       <c r="Q191">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R191">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="S191">
-        <v>1.925</v>
+        <v>1.725</v>
       </c>
       <c r="T191">
-        <v>2.5</v>
+        <v>1.75</v>
       </c>
       <c r="U191">
-        <v>1.875</v>
+        <v>1.725</v>
       </c>
       <c r="V191">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W191">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="X191">
         <v>-1</v>
       </c>
       <c r="Y191">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="Z191">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA191">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB191">
         <v>-1</v>
       </c>
       <c r="AC191">
-        <v>0.925</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="192" spans="1:29">
@@ -17630,7 +17630,7 @@
         <v>37</v>
       </c>
       <c r="G193" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H193">
         <v>0</v>
@@ -17719,7 +17719,7 @@
         <v>44</v>
       </c>
       <c r="G194" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H194">
         <v>1</v>
@@ -17983,7 +17983,7 @@
         <v>45368.41666666666</v>
       </c>
       <c r="F197" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G197" t="s">
         <v>30</v>
@@ -18431,7 +18431,7 @@
         <v>36</v>
       </c>
       <c r="G202" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H202">
         <v>3</v>
@@ -18606,7 +18606,7 @@
         <v>45375.45833333334</v>
       </c>
       <c r="F204" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G204" t="s">
         <v>42</v>
@@ -18698,7 +18698,7 @@
         <v>43</v>
       </c>
       <c r="G205" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H205">
         <v>1</v>
@@ -18873,7 +18873,7 @@
         <v>45377.45833333334</v>
       </c>
       <c r="F207" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G207" t="s">
         <v>41</v>
@@ -18962,7 +18962,7 @@
         <v>45380.45833333334</v>
       </c>
       <c r="F208" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G208" t="s">
         <v>32</v>
@@ -19407,10 +19407,10 @@
         <v>45381.45833333334</v>
       </c>
       <c r="F213" t="s">
+        <v>40</v>
+      </c>
+      <c r="G213" t="s">
         <v>39</v>
-      </c>
-      <c r="G213" t="s">
-        <v>40</v>
       </c>
       <c r="H213">
         <v>5</v>
@@ -19499,7 +19499,7 @@
         <v>37</v>
       </c>
       <c r="G214" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H214">
         <v>2</v>
@@ -19677,7 +19677,7 @@
         <v>33</v>
       </c>
       <c r="G216" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H216">
         <v>2</v>
@@ -19840,7 +19840,7 @@
         <v>216</v>
       </c>
       <c r="B218">
-        <v>8044572</v>
+        <v>6989722</v>
       </c>
       <c r="C218" t="s">
         <v>28</v>
@@ -19852,37 +19852,37 @@
         <v>45385.45833333334</v>
       </c>
       <c r="F218" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="G218" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="H218">
         <v>0</v>
       </c>
       <c r="I218">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J218" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K218">
-        <v>2</v>
+        <v>2.375</v>
       </c>
       <c r="L218">
-        <v>2.875</v>
+        <v>2.8</v>
       </c>
       <c r="M218">
-        <v>3.8</v>
+        <v>3</v>
       </c>
       <c r="N218">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="O218">
-        <v>2.75</v>
+        <v>2.625</v>
       </c>
       <c r="P218">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="Q218">
         <v>-0.25</v>
@@ -19894,34 +19894,34 @@
         <v>1.75</v>
       </c>
       <c r="T218">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U218">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="V218">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="W218">
         <v>-1</v>
       </c>
       <c r="X218">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="Y218">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z218">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA218">
-        <v>0.75</v>
+        <v>0.375</v>
       </c>
       <c r="AB218">
         <v>-1</v>
       </c>
       <c r="AC218">
-        <v>0.7749999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="219" spans="1:29">
@@ -19941,7 +19941,7 @@
         <v>45385.45833333334</v>
       </c>
       <c r="F219" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G219" t="s">
         <v>43</v>
@@ -20018,7 +20018,7 @@
         <v>218</v>
       </c>
       <c r="B220">
-        <v>6989722</v>
+        <v>8044572</v>
       </c>
       <c r="C220" t="s">
         <v>28</v>
@@ -20030,37 +20030,37 @@
         <v>45385.45833333334</v>
       </c>
       <c r="F220" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="G220" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="H220">
         <v>0</v>
       </c>
       <c r="I220">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J220" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K220">
-        <v>2.375</v>
+        <v>2</v>
       </c>
       <c r="L220">
-        <v>2.8</v>
+        <v>2.875</v>
       </c>
       <c r="M220">
-        <v>3</v>
+        <v>3.8</v>
       </c>
       <c r="N220">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="O220">
-        <v>2.625</v>
+        <v>2.75</v>
       </c>
       <c r="P220">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="Q220">
         <v>-0.25</v>
@@ -20072,34 +20072,34 @@
         <v>1.75</v>
       </c>
       <c r="T220">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U220">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="V220">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="W220">
         <v>-1</v>
       </c>
       <c r="X220">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="Y220">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z220">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA220">
-        <v>0.375</v>
+        <v>0.75</v>
       </c>
       <c r="AB220">
         <v>-1</v>
       </c>
       <c r="AC220">
-        <v>0.8500000000000001</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="221" spans="1:29">

--- a/Serbia Prva Liga/Serbia Prva Liga.xlsx
+++ b/Serbia Prva Liga/Serbia Prva Liga.xlsx
@@ -139,10 +139,10 @@
     <t>FK Tekstilac Odzaci</t>
   </si>
   <si>
-    <t>RFK Novi Sad 1921</t>
+    <t>OFK Belgrade</t>
   </si>
   <si>
-    <t>OFK Belgrade</t>
+    <t>RFK Novi Sad 1921</t>
   </si>
   <si>
     <t>FK Kolubara</t>
@@ -720,7 +720,7 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H3">
         <v>4</v>
@@ -898,7 +898,7 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -1773,7 +1773,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6989498</v>
+        <v>6989661</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
@@ -1788,73 +1788,73 @@
         <v>41</v>
       </c>
       <c r="G15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H15">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I15">
         <v>1</v>
       </c>
       <c r="J15" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K15">
-        <v>1.909</v>
+        <v>1.833</v>
       </c>
       <c r="L15">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="M15">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="N15">
-        <v>2.75</v>
+        <v>1.75</v>
       </c>
       <c r="O15">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="P15">
-        <v>2.45</v>
+        <v>4</v>
       </c>
       <c r="Q15">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R15">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="S15">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="T15">
         <v>2.25</v>
       </c>
       <c r="U15">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V15">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W15">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="X15">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Y15">
         <v>-1</v>
       </c>
       <c r="Z15">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AA15">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB15">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC15">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="16" spans="1:29">
@@ -1862,7 +1862,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6989661</v>
+        <v>6989498</v>
       </c>
       <c r="C16" t="s">
         <v>28</v>
@@ -1877,73 +1877,73 @@
         <v>42</v>
       </c>
       <c r="G16" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H16">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I16">
         <v>1</v>
       </c>
       <c r="J16" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K16">
-        <v>1.833</v>
+        <v>1.909</v>
       </c>
       <c r="L16">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="M16">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="N16">
-        <v>1.75</v>
+        <v>2.75</v>
       </c>
       <c r="O16">
-        <v>3.4</v>
+        <v>2.9</v>
       </c>
       <c r="P16">
-        <v>4</v>
+        <v>2.45</v>
       </c>
       <c r="Q16">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R16">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="S16">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="T16">
         <v>2.25</v>
       </c>
       <c r="U16">
+        <v>1.875</v>
+      </c>
+      <c r="V16">
+        <v>1.925</v>
+      </c>
+      <c r="W16">
+        <v>-1</v>
+      </c>
+      <c r="X16">
         <v>1.9</v>
       </c>
-      <c r="V16">
-        <v>1.9</v>
-      </c>
-      <c r="W16">
-        <v>0.75</v>
-      </c>
-      <c r="X16">
-        <v>-1</v>
-      </c>
       <c r="Y16">
         <v>-1</v>
       </c>
       <c r="Z16">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AA16">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB16">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AC16">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="17" spans="1:29">
@@ -2411,7 +2411,7 @@
         <v>30</v>
       </c>
       <c r="G22" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -2678,7 +2678,7 @@
         <v>44</v>
       </c>
       <c r="G25" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H25">
         <v>2</v>
@@ -2856,7 +2856,7 @@
         <v>39</v>
       </c>
       <c r="G27" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H27">
         <v>2</v>
@@ -3031,7 +3031,7 @@
         <v>45165.5</v>
       </c>
       <c r="F29" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G29" t="s">
         <v>34</v>
@@ -3921,7 +3921,7 @@
         <v>45172.5</v>
       </c>
       <c r="F39" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G39" t="s">
         <v>37</v>
@@ -4013,7 +4013,7 @@
         <v>44</v>
       </c>
       <c r="G40" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H40">
         <v>3</v>
@@ -4722,10 +4722,10 @@
         <v>45179.47916666666</v>
       </c>
       <c r="F48" t="s">
+        <v>41</v>
+      </c>
+      <c r="G48" t="s">
         <v>42</v>
-      </c>
-      <c r="G48" t="s">
-        <v>41</v>
       </c>
       <c r="H48">
         <v>4</v>
@@ -5170,7 +5170,7 @@
         <v>37</v>
       </c>
       <c r="G53" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H53">
         <v>0</v>
@@ -5256,7 +5256,7 @@
         <v>45186.45833333334</v>
       </c>
       <c r="F54" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G54" t="s">
         <v>40</v>
@@ -5615,7 +5615,7 @@
         <v>39</v>
       </c>
       <c r="G58" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H58">
         <v>0</v>
@@ -5793,7 +5793,7 @@
         <v>43</v>
       </c>
       <c r="G60" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H60">
         <v>4</v>
@@ -6505,7 +6505,7 @@
         <v>31</v>
       </c>
       <c r="G68" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H68">
         <v>1</v>
@@ -6950,7 +6950,7 @@
         <v>43</v>
       </c>
       <c r="G73" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H73">
         <v>1</v>
@@ -7214,7 +7214,7 @@
         <v>45207.41666666666</v>
       </c>
       <c r="F76" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G76" t="s">
         <v>38</v>
@@ -7558,7 +7558,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>6989617</v>
+        <v>6989514</v>
       </c>
       <c r="C80" t="s">
         <v>28</v>
@@ -7570,73 +7570,73 @@
         <v>45208.41666666666</v>
       </c>
       <c r="F80" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="G80" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H80">
+        <v>3</v>
+      </c>
+      <c r="I80">
         <v>1</v>
       </c>
-      <c r="I80">
-        <v>2</v>
-      </c>
       <c r="J80" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K80">
-        <v>1.909</v>
+        <v>3.1</v>
       </c>
       <c r="L80">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M80">
-        <v>3.5</v>
+        <v>2.1</v>
       </c>
       <c r="N80">
-        <v>1.909</v>
+        <v>3.6</v>
       </c>
       <c r="O80">
         <v>3.3</v>
       </c>
       <c r="P80">
-        <v>3.4</v>
+        <v>1.85</v>
       </c>
       <c r="Q80">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R80">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S80">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T80">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U80">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V80">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W80">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="X80">
         <v>-1</v>
       </c>
       <c r="Y80">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Z80">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA80">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB80">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="AC80">
         <v>-1</v>
@@ -7647,7 +7647,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>6989514</v>
+        <v>6989617</v>
       </c>
       <c r="C81" t="s">
         <v>28</v>
@@ -7659,73 +7659,73 @@
         <v>45208.41666666666</v>
       </c>
       <c r="F81" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G81" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H81">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I81">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J81" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K81">
-        <v>3.1</v>
+        <v>1.909</v>
       </c>
       <c r="L81">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M81">
-        <v>2.1</v>
+        <v>3.5</v>
       </c>
       <c r="N81">
-        <v>3.6</v>
+        <v>1.909</v>
       </c>
       <c r="O81">
         <v>3.3</v>
       </c>
       <c r="P81">
-        <v>1.85</v>
+        <v>3.4</v>
       </c>
       <c r="Q81">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R81">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="S81">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T81">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U81">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V81">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="W81">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="X81">
         <v>-1</v>
       </c>
       <c r="Y81">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Z81">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA81">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB81">
-        <v>0.875</v>
+        <v>1</v>
       </c>
       <c r="AC81">
         <v>-1</v>
@@ -7929,7 +7929,7 @@
         <v>31</v>
       </c>
       <c r="G84" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H84">
         <v>1</v>
@@ -8285,7 +8285,7 @@
         <v>29</v>
       </c>
       <c r="G88" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H88">
         <v>1</v>
@@ -8460,7 +8460,7 @@
         <v>45220.375</v>
       </c>
       <c r="F90" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G90" t="s">
         <v>35</v>
@@ -8816,7 +8816,7 @@
         <v>45221.375</v>
       </c>
       <c r="F94" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G94" t="s">
         <v>36</v>
@@ -9175,7 +9175,7 @@
         <v>29</v>
       </c>
       <c r="G98" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H98">
         <v>1</v>
@@ -9442,7 +9442,7 @@
         <v>32</v>
       </c>
       <c r="G101" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H101">
         <v>2</v>
@@ -9884,7 +9884,7 @@
         <v>45235.375</v>
       </c>
       <c r="F106" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G106" t="s">
         <v>36</v>
@@ -10418,7 +10418,7 @@
         <v>45236.375</v>
       </c>
       <c r="F112" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G112" t="s">
         <v>33</v>
@@ -10584,7 +10584,7 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>6989523</v>
+        <v>6989692</v>
       </c>
       <c r="C114" t="s">
         <v>28</v>
@@ -10596,76 +10596,76 @@
         <v>45241.375</v>
       </c>
       <c r="F114" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G114" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H114">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I114">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J114" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K114">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="L114">
         <v>3</v>
       </c>
       <c r="M114">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="N114">
-        <v>1.95</v>
+        <v>2.375</v>
       </c>
       <c r="O114">
-        <v>2.875</v>
+        <v>2.55</v>
       </c>
       <c r="P114">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="Q114">
         <v>-0.5</v>
       </c>
       <c r="R114">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="S114">
-        <v>1.775</v>
+        <v>1.75</v>
       </c>
       <c r="T114">
-        <v>1.75</v>
+        <v>1.5</v>
       </c>
       <c r="U114">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V114">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W114">
         <v>-1</v>
       </c>
       <c r="X114">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="Y114">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z114">
         <v>-1</v>
       </c>
       <c r="AA114">
-        <v>0.7749999999999999</v>
+        <v>0.75</v>
       </c>
       <c r="AB114">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC114">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="115" spans="1:29">
@@ -10673,7 +10673,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>6989693</v>
+        <v>6989523</v>
       </c>
       <c r="C115" t="s">
         <v>28</v>
@@ -10685,76 +10685,76 @@
         <v>45241.375</v>
       </c>
       <c r="F115" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G115" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H115">
         <v>1</v>
       </c>
       <c r="I115">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J115" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K115">
-        <v>1.909</v>
+        <v>2</v>
       </c>
       <c r="L115">
         <v>3</v>
       </c>
       <c r="M115">
-        <v>3.9</v>
+        <v>3.6</v>
       </c>
       <c r="N115">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="O115">
-        <v>2.7</v>
+        <v>2.875</v>
       </c>
       <c r="P115">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="Q115">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R115">
+        <v>2.025</v>
+      </c>
+      <c r="S115">
+        <v>1.775</v>
+      </c>
+      <c r="T115">
+        <v>1.75</v>
+      </c>
+      <c r="U115">
         <v>1.8</v>
       </c>
-      <c r="S115">
-        <v>2</v>
-      </c>
-      <c r="T115">
-        <v>1.5</v>
-      </c>
-      <c r="U115">
-        <v>1.95</v>
-      </c>
       <c r="V115">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W115">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X115">
         <v>-1</v>
       </c>
       <c r="Y115">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z115">
+        <v>-1</v>
+      </c>
+      <c r="AA115">
+        <v>0.7749999999999999</v>
+      </c>
+      <c r="AB115">
         <v>0.8</v>
       </c>
-      <c r="AA115">
-        <v>-1</v>
-      </c>
-      <c r="AB115">
-        <v>-1</v>
-      </c>
       <c r="AC115">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="116" spans="1:29">
@@ -10762,7 +10762,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>6989692</v>
+        <v>6989693</v>
       </c>
       <c r="C116" t="s">
         <v>28</v>
@@ -10774,76 +10774,76 @@
         <v>45241.375</v>
       </c>
       <c r="F116" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G116" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H116">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I116">
         <v>0</v>
       </c>
       <c r="J116" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K116">
-        <v>2.2</v>
+        <v>1.909</v>
       </c>
       <c r="L116">
         <v>3</v>
       </c>
       <c r="M116">
-        <v>3.1</v>
+        <v>3.9</v>
       </c>
       <c r="N116">
-        <v>2.375</v>
+        <v>2</v>
       </c>
       <c r="O116">
-        <v>2.55</v>
+        <v>2.7</v>
       </c>
       <c r="P116">
-        <v>3.3</v>
+        <v>4.2</v>
       </c>
       <c r="Q116">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R116">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="S116">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="T116">
         <v>1.5</v>
       </c>
       <c r="U116">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V116">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W116">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X116">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="Y116">
         <v>-1</v>
       </c>
       <c r="Z116">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA116">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AB116">
         <v>-1</v>
       </c>
       <c r="AC116">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="117" spans="1:29">
@@ -10952,7 +10952,7 @@
         <v>45242.375</v>
       </c>
       <c r="F118" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G118" t="s">
         <v>32</v>
@@ -11041,7 +11041,7 @@
         <v>45242.375</v>
       </c>
       <c r="F119" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G119" t="s">
         <v>30</v>
@@ -11222,7 +11222,7 @@
         <v>34</v>
       </c>
       <c r="G121" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H121">
         <v>3</v>
@@ -11489,7 +11489,7 @@
         <v>33</v>
       </c>
       <c r="G124" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H124">
         <v>2</v>
@@ -12008,7 +12008,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>7497670</v>
+        <v>7497903</v>
       </c>
       <c r="C130" t="s">
         <v>28</v>
@@ -12023,73 +12023,73 @@
         <v>41</v>
       </c>
       <c r="G130" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H130">
         <v>2</v>
       </c>
       <c r="I130">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J130" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K130">
-        <v>3.2</v>
+        <v>1.571</v>
       </c>
       <c r="L130">
-        <v>2.9</v>
+        <v>3.75</v>
       </c>
       <c r="M130">
-        <v>2.2</v>
+        <v>4.75</v>
       </c>
       <c r="N130">
-        <v>3.3</v>
+        <v>1.5</v>
       </c>
       <c r="O130">
-        <v>2.9</v>
+        <v>3.75</v>
       </c>
       <c r="P130">
-        <v>2.15</v>
+        <v>5.5</v>
       </c>
       <c r="Q130">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R130">
+        <v>1.925</v>
+      </c>
+      <c r="S130">
         <v>1.875</v>
       </c>
-      <c r="S130">
-        <v>1.925</v>
-      </c>
       <c r="T130">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U130">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V130">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W130">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X130">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Y130">
         <v>-1</v>
       </c>
       <c r="Z130">
-        <v>0.4375</v>
+        <v>0.925</v>
       </c>
       <c r="AA130">
+        <v>-1</v>
+      </c>
+      <c r="AB130">
         <v>-0.5</v>
       </c>
-      <c r="AB130">
-        <v>0.95</v>
-      </c>
       <c r="AC130">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="131" spans="1:29">
@@ -12097,7 +12097,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>7497902</v>
+        <v>7497670</v>
       </c>
       <c r="C131" t="s">
         <v>28</v>
@@ -12109,76 +12109,76 @@
         <v>45252.375</v>
       </c>
       <c r="F131" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="G131" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="H131">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I131">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J131" t="s">
         <v>47</v>
       </c>
       <c r="K131">
-        <v>1.909</v>
+        <v>3.2</v>
       </c>
       <c r="L131">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="M131">
-        <v>4</v>
+        <v>2.2</v>
       </c>
       <c r="N131">
-        <v>1.75</v>
+        <v>3.3</v>
       </c>
       <c r="O131">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="P131">
-        <v>4.75</v>
+        <v>2.15</v>
       </c>
       <c r="Q131">
+        <v>0.25</v>
+      </c>
+      <c r="R131">
+        <v>1.875</v>
+      </c>
+      <c r="S131">
+        <v>1.925</v>
+      </c>
+      <c r="T131">
+        <v>2</v>
+      </c>
+      <c r="U131">
+        <v>1.95</v>
+      </c>
+      <c r="V131">
+        <v>1.85</v>
+      </c>
+      <c r="W131">
+        <v>-1</v>
+      </c>
+      <c r="X131">
+        <v>1.9</v>
+      </c>
+      <c r="Y131">
+        <v>-1</v>
+      </c>
+      <c r="Z131">
+        <v>0.4375</v>
+      </c>
+      <c r="AA131">
         <v>-0.5</v>
       </c>
-      <c r="R131">
-        <v>1.8</v>
-      </c>
-      <c r="S131">
-        <v>2</v>
-      </c>
-      <c r="T131">
-        <v>2</v>
-      </c>
-      <c r="U131">
-        <v>1.8</v>
-      </c>
-      <c r="V131">
-        <v>2</v>
-      </c>
-      <c r="W131">
-        <v>-1</v>
-      </c>
-      <c r="X131">
-        <v>2.1</v>
-      </c>
-      <c r="Y131">
-        <v>-1</v>
-      </c>
-      <c r="Z131">
-        <v>-1</v>
-      </c>
-      <c r="AA131">
-        <v>1</v>
-      </c>
       <c r="AB131">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AC131">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="132" spans="1:29">
@@ -12186,7 +12186,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>7497904</v>
+        <v>7497902</v>
       </c>
       <c r="C132" t="s">
         <v>28</v>
@@ -12198,76 +12198,76 @@
         <v>45252.375</v>
       </c>
       <c r="F132" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G132" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="H132">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I132">
         <v>1</v>
       </c>
       <c r="J132" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K132">
-        <v>2.4</v>
+        <v>1.909</v>
       </c>
       <c r="L132">
-        <v>2.875</v>
+        <v>3</v>
       </c>
       <c r="M132">
-        <v>2.875</v>
+        <v>4</v>
       </c>
       <c r="N132">
-        <v>2.875</v>
+        <v>1.75</v>
       </c>
       <c r="O132">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="P132">
-        <v>2.3</v>
+        <v>4.75</v>
       </c>
       <c r="Q132">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R132">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="S132">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="T132">
         <v>2</v>
       </c>
       <c r="U132">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="V132">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W132">
         <v>-1</v>
       </c>
       <c r="X132">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y132">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z132">
         <v>-1</v>
       </c>
       <c r="AA132">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="AB132">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC132">
-        <v>0.875</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="133" spans="1:29">
@@ -12275,7 +12275,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>7497903</v>
+        <v>7497904</v>
       </c>
       <c r="C133" t="s">
         <v>28</v>
@@ -12287,76 +12287,76 @@
         <v>45252.375</v>
       </c>
       <c r="F133" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="G133" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H133">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I133">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J133" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K133">
-        <v>1.571</v>
+        <v>2.4</v>
       </c>
       <c r="L133">
-        <v>3.75</v>
+        <v>2.875</v>
       </c>
       <c r="M133">
-        <v>4.75</v>
+        <v>2.875</v>
       </c>
       <c r="N133">
-        <v>1.5</v>
+        <v>2.875</v>
       </c>
       <c r="O133">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="P133">
-        <v>5.5</v>
+        <v>2.3</v>
       </c>
       <c r="Q133">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R133">
+        <v>1.75</v>
+      </c>
+      <c r="S133">
+        <v>2.05</v>
+      </c>
+      <c r="T133">
+        <v>2</v>
+      </c>
+      <c r="U133">
         <v>1.925</v>
       </c>
-      <c r="S133">
+      <c r="V133">
         <v>1.875</v>
       </c>
-      <c r="T133">
-        <v>2.25</v>
-      </c>
-      <c r="U133">
-        <v>1.975</v>
-      </c>
-      <c r="V133">
-        <v>1.825</v>
-      </c>
       <c r="W133">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X133">
         <v>-1</v>
       </c>
       <c r="Y133">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z133">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA133">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AB133">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC133">
-        <v>0.4125</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="134" spans="1:29">
@@ -12542,7 +12542,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>6989699</v>
+        <v>6989630</v>
       </c>
       <c r="C136" t="s">
         <v>28</v>
@@ -12554,73 +12554,73 @@
         <v>45256.375</v>
       </c>
       <c r="F136" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G136" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H136">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I136">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J136" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K136">
-        <v>1.833</v>
+        <v>1.444</v>
       </c>
       <c r="L136">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="M136">
-        <v>4</v>
+        <v>6.5</v>
       </c>
       <c r="N136">
-        <v>1.666</v>
+        <v>1.533</v>
       </c>
       <c r="O136">
-        <v>3.25</v>
+        <v>3.8</v>
       </c>
       <c r="P136">
-        <v>4.75</v>
+        <v>6</v>
       </c>
       <c r="Q136">
-        <v>-0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R136">
-        <v>1.95</v>
+        <v>2.075</v>
       </c>
       <c r="S136">
-        <v>1.85</v>
+        <v>1.725</v>
       </c>
       <c r="T136">
-        <v>1.75</v>
+        <v>2.5</v>
       </c>
       <c r="U136">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V136">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W136">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X136">
         <v>-1</v>
       </c>
       <c r="Y136">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Z136">
-        <v>-1</v>
+        <v>1.075</v>
       </c>
       <c r="AA136">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB136">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC136">
         <v>-1</v>
@@ -12631,7 +12631,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>6989630</v>
+        <v>6989527</v>
       </c>
       <c r="C137" t="s">
         <v>28</v>
@@ -12643,58 +12643,58 @@
         <v>45256.375</v>
       </c>
       <c r="F137" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G137" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H137">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I137">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J137" t="s">
         <v>45</v>
       </c>
       <c r="K137">
+        <v>1.727</v>
+      </c>
+      <c r="L137">
+        <v>3.3</v>
+      </c>
+      <c r="M137">
+        <v>4.333</v>
+      </c>
+      <c r="N137">
         <v>1.444</v>
-      </c>
-      <c r="L137">
-        <v>3.75</v>
-      </c>
-      <c r="M137">
-        <v>6.5</v>
-      </c>
-      <c r="N137">
-        <v>1.533</v>
       </c>
       <c r="O137">
         <v>3.8</v>
       </c>
       <c r="P137">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="Q137">
         <v>-1.25</v>
       </c>
       <c r="R137">
-        <v>2.075</v>
+        <v>1.975</v>
       </c>
       <c r="S137">
-        <v>1.725</v>
+        <v>1.825</v>
       </c>
       <c r="T137">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U137">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V137">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W137">
-        <v>0.5329999999999999</v>
+        <v>0.444</v>
       </c>
       <c r="X137">
         <v>-1</v>
@@ -12703,13 +12703,13 @@
         <v>-1</v>
       </c>
       <c r="Z137">
-        <v>1.075</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA137">
         <v>-1</v>
       </c>
       <c r="AB137">
-        <v>0.8999999999999999</v>
+        <v>0.875</v>
       </c>
       <c r="AC137">
         <v>-1</v>
@@ -12720,7 +12720,7 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>6989527</v>
+        <v>6989526</v>
       </c>
       <c r="C138" t="s">
         <v>28</v>
@@ -12732,58 +12732,58 @@
         <v>45256.375</v>
       </c>
       <c r="F138" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G138" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H138">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I138">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J138" t="s">
         <v>45</v>
       </c>
       <c r="K138">
-        <v>1.727</v>
+        <v>1.909</v>
       </c>
       <c r="L138">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="M138">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="N138">
-        <v>1.444</v>
+        <v>2.1</v>
       </c>
       <c r="O138">
-        <v>3.8</v>
+        <v>2.9</v>
       </c>
       <c r="P138">
-        <v>7</v>
+        <v>3.5</v>
       </c>
       <c r="Q138">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R138">
+        <v>1.825</v>
+      </c>
+      <c r="S138">
         <v>1.975</v>
       </c>
-      <c r="S138">
+      <c r="T138">
+        <v>2</v>
+      </c>
+      <c r="U138">
+        <v>1.975</v>
+      </c>
+      <c r="V138">
         <v>1.825</v>
       </c>
-      <c r="T138">
-        <v>2.75</v>
-      </c>
-      <c r="U138">
-        <v>1.875</v>
-      </c>
-      <c r="V138">
-        <v>1.925</v>
-      </c>
       <c r="W138">
-        <v>0.444</v>
+        <v>1.1</v>
       </c>
       <c r="X138">
         <v>-1</v>
@@ -12792,16 +12792,16 @@
         <v>-1</v>
       </c>
       <c r="Z138">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AA138">
         <v>-1</v>
       </c>
       <c r="AB138">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="AC138">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="139" spans="1:29">
@@ -12809,7 +12809,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>6989526</v>
+        <v>6989699</v>
       </c>
       <c r="C139" t="s">
         <v>28</v>
@@ -12821,76 +12821,76 @@
         <v>45256.375</v>
       </c>
       <c r="F139" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G139" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H139">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I139">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J139" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K139">
-        <v>1.909</v>
+        <v>1.833</v>
       </c>
       <c r="L139">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M139">
         <v>4</v>
       </c>
       <c r="N139">
-        <v>2.1</v>
+        <v>1.666</v>
       </c>
       <c r="O139">
-        <v>2.9</v>
+        <v>3.25</v>
       </c>
       <c r="P139">
-        <v>3.5</v>
+        <v>4.75</v>
       </c>
       <c r="Q139">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R139">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S139">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T139">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U139">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V139">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W139">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X139">
         <v>-1</v>
       </c>
       <c r="Y139">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Z139">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA139">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB139">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC139">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="140" spans="1:29">
@@ -12999,7 +12999,7 @@
         <v>45257.375</v>
       </c>
       <c r="F141" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G141" t="s">
         <v>44</v>
@@ -13177,7 +13177,7 @@
         <v>45261.375</v>
       </c>
       <c r="F143" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G143" t="s">
         <v>39</v>
@@ -13536,7 +13536,7 @@
         <v>34</v>
       </c>
       <c r="G147" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H147">
         <v>1</v>
@@ -14156,7 +14156,7 @@
         <v>45270.375</v>
       </c>
       <c r="F154" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G154" t="s">
         <v>44</v>
@@ -14515,7 +14515,7 @@
         <v>37</v>
       </c>
       <c r="G158" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H158">
         <v>2</v>
@@ -15402,10 +15402,10 @@
         <v>45347.375</v>
       </c>
       <c r="F168" t="s">
+        <v>42</v>
+      </c>
+      <c r="G168" t="s">
         <v>41</v>
-      </c>
-      <c r="G168" t="s">
-        <v>42</v>
       </c>
       <c r="H168">
         <v>1</v>
@@ -15583,7 +15583,7 @@
         <v>40</v>
       </c>
       <c r="G170" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H170">
         <v>1</v>
@@ -15758,7 +15758,7 @@
         <v>45353.375</v>
       </c>
       <c r="F172" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G172" t="s">
         <v>37</v>
@@ -16381,7 +16381,7 @@
         <v>45357.41666666666</v>
       </c>
       <c r="F179" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G179" t="s">
         <v>39</v>
@@ -16470,7 +16470,7 @@
         <v>45357.41666666666</v>
       </c>
       <c r="F180" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G180" t="s">
         <v>43</v>
@@ -16547,7 +16547,7 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>6989711</v>
+        <v>6989642</v>
       </c>
       <c r="C181" t="s">
         <v>28</v>
@@ -16559,73 +16559,73 @@
         <v>45357.54166666666</v>
       </c>
       <c r="F181" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G181" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="H181">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I181">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J181" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K181">
-        <v>2.25</v>
+        <v>1.909</v>
       </c>
       <c r="L181">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="M181">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="N181">
-        <v>2.25</v>
+        <v>1.909</v>
       </c>
       <c r="O181">
-        <v>2.7</v>
+        <v>2.625</v>
       </c>
       <c r="P181">
-        <v>3.4</v>
+        <v>4.75</v>
       </c>
       <c r="Q181">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R181">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S181">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T181">
         <v>1.75</v>
       </c>
       <c r="U181">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V181">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="W181">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="X181">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="Y181">
         <v>-1</v>
       </c>
       <c r="Z181">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA181">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB181">
-        <v>0.475</v>
+        <v>0.5</v>
       </c>
       <c r="AC181">
         <v>-0.5</v>
@@ -16725,7 +16725,7 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>6989642</v>
+        <v>6989711</v>
       </c>
       <c r="C183" t="s">
         <v>28</v>
@@ -16737,73 +16737,73 @@
         <v>45357.54166666666</v>
       </c>
       <c r="F183" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G183" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="H183">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I183">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J183" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K183">
-        <v>1.909</v>
+        <v>2.25</v>
       </c>
       <c r="L183">
+        <v>2.9</v>
+      </c>
+      <c r="M183">
         <v>3.1</v>
       </c>
-      <c r="M183">
-        <v>3.75</v>
-      </c>
       <c r="N183">
-        <v>1.909</v>
+        <v>2.25</v>
       </c>
       <c r="O183">
-        <v>2.625</v>
+        <v>2.7</v>
       </c>
       <c r="P183">
-        <v>4.75</v>
+        <v>3.4</v>
       </c>
       <c r="Q183">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R183">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S183">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T183">
         <v>1.75</v>
       </c>
       <c r="U183">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V183">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="W183">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="X183">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="Y183">
         <v>-1</v>
       </c>
       <c r="Z183">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA183">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB183">
-        <v>0.5</v>
+        <v>0.475</v>
       </c>
       <c r="AC183">
         <v>-0.5</v>
@@ -17096,7 +17096,7 @@
         <v>40</v>
       </c>
       <c r="G187" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H187">
         <v>1</v>
@@ -17259,7 +17259,7 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>6989536</v>
+        <v>6989537</v>
       </c>
       <c r="C189" t="s">
         <v>28</v>
@@ -17271,76 +17271,76 @@
         <v>45362.41666666666</v>
       </c>
       <c r="F189" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G189" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="H189">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I189">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J189" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K189">
+        <v>1.8</v>
+      </c>
+      <c r="L189">
+        <v>3.1</v>
+      </c>
+      <c r="M189">
+        <v>4.2</v>
+      </c>
+      <c r="N189">
+        <v>1.5</v>
+      </c>
+      <c r="O189">
+        <v>3.5</v>
+      </c>
+      <c r="P189">
+        <v>6.5</v>
+      </c>
+      <c r="Q189">
+        <v>-1</v>
+      </c>
+      <c r="R189">
+        <v>1.85</v>
+      </c>
+      <c r="S189">
+        <v>1.95</v>
+      </c>
+      <c r="T189">
         <v>2.25</v>
       </c>
-      <c r="L189">
-        <v>2.75</v>
-      </c>
-      <c r="M189">
-        <v>3.25</v>
-      </c>
-      <c r="N189">
-        <v>1.4</v>
-      </c>
-      <c r="O189">
-        <v>4</v>
-      </c>
-      <c r="P189">
-        <v>7</v>
-      </c>
-      <c r="Q189">
-        <v>-1.25</v>
-      </c>
-      <c r="R189">
-        <v>1.875</v>
-      </c>
-      <c r="S189">
-        <v>1.925</v>
-      </c>
-      <c r="T189">
-        <v>2.5</v>
-      </c>
       <c r="U189">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="V189">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="W189">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X189">
         <v>-1</v>
       </c>
       <c r="Y189">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="Z189">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA189">
-        <v>0.925</v>
+        <v>-0</v>
       </c>
       <c r="AB189">
         <v>-1</v>
       </c>
       <c r="AC189">
-        <v>0.925</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="190" spans="1:29">
@@ -17437,7 +17437,7 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>6989537</v>
+        <v>6989536</v>
       </c>
       <c r="C191" t="s">
         <v>28</v>
@@ -17449,76 +17449,76 @@
         <v>45362.41666666666</v>
       </c>
       <c r="F191" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G191" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="H191">
+        <v>0</v>
+      </c>
+      <c r="I191">
         <v>1</v>
       </c>
-      <c r="I191">
-        <v>0</v>
-      </c>
       <c r="J191" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K191">
-        <v>1.8</v>
+        <v>2.25</v>
       </c>
       <c r="L191">
-        <v>3.1</v>
+        <v>2.75</v>
       </c>
       <c r="M191">
-        <v>4.2</v>
+        <v>3.25</v>
       </c>
       <c r="N191">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="O191">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="P191">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="Q191">
-        <v>-1</v>
+        <v>-1.25</v>
       </c>
       <c r="R191">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S191">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T191">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U191">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="V191">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="W191">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X191">
         <v>-1</v>
       </c>
       <c r="Y191">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="Z191">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA191">
-        <v>-0</v>
+        <v>0.925</v>
       </c>
       <c r="AB191">
         <v>-1</v>
       </c>
       <c r="AC191">
-        <v>0.7749999999999999</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="192" spans="1:29">
@@ -17793,7 +17793,7 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>6989538</v>
+        <v>6989539</v>
       </c>
       <c r="C195" t="s">
         <v>28</v>
@@ -17805,76 +17805,76 @@
         <v>45368.41666666666</v>
       </c>
       <c r="F195" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="G195" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H195">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I195">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J195" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K195">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="L195">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="M195">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="N195">
-        <v>3.8</v>
+        <v>2.4</v>
       </c>
       <c r="O195">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="P195">
-        <v>1.85</v>
+        <v>2.7</v>
       </c>
       <c r="Q195">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R195">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="S195">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="T195">
         <v>2</v>
       </c>
       <c r="U195">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V195">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W195">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="X195">
         <v>-1</v>
       </c>
       <c r="Y195">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z195">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA195">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB195">
         <v>-1</v>
       </c>
       <c r="AC195">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="196" spans="1:29">
@@ -17882,7 +17882,7 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>6989539</v>
+        <v>6989538</v>
       </c>
       <c r="C196" t="s">
         <v>28</v>
@@ -17894,76 +17894,76 @@
         <v>45368.41666666666</v>
       </c>
       <c r="F196" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="G196" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H196">
+        <v>0</v>
+      </c>
+      <c r="I196">
         <v>1</v>
       </c>
-      <c r="I196">
-        <v>0</v>
-      </c>
       <c r="J196" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K196">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="L196">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="M196">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="N196">
-        <v>2.4</v>
+        <v>3.8</v>
       </c>
       <c r="O196">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="P196">
-        <v>2.7</v>
+        <v>1.85</v>
       </c>
       <c r="Q196">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R196">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="S196">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="T196">
         <v>2</v>
       </c>
       <c r="U196">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V196">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W196">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="X196">
         <v>-1</v>
       </c>
       <c r="Y196">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z196">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA196">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB196">
         <v>-1</v>
       </c>
       <c r="AC196">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="197" spans="1:29">
@@ -17971,7 +17971,7 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>7018983</v>
+        <v>6989645</v>
       </c>
       <c r="C197" t="s">
         <v>28</v>
@@ -17983,49 +17983,49 @@
         <v>45368.41666666666</v>
       </c>
       <c r="F197" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="G197" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="H197">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I197">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J197" t="s">
         <v>45</v>
       </c>
       <c r="K197">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="L197">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="M197">
         <v>4.2</v>
       </c>
       <c r="N197">
-        <v>1.571</v>
+        <v>1.8</v>
       </c>
       <c r="O197">
-        <v>3.75</v>
+        <v>2.875</v>
       </c>
       <c r="P197">
-        <v>5.25</v>
+        <v>5</v>
       </c>
       <c r="Q197">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R197">
-        <v>1.725</v>
+        <v>1.825</v>
       </c>
       <c r="S197">
         <v>1.975</v>
       </c>
       <c r="T197">
-        <v>2.25</v>
+        <v>1.5</v>
       </c>
       <c r="U197">
         <v>1.85</v>
@@ -18034,7 +18034,7 @@
         <v>1.95</v>
       </c>
       <c r="W197">
-        <v>0.571</v>
+        <v>0.8</v>
       </c>
       <c r="X197">
         <v>-1</v>
@@ -18043,16 +18043,16 @@
         <v>-1</v>
       </c>
       <c r="Z197">
-        <v>0.7250000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AA197">
         <v>-1</v>
       </c>
       <c r="AB197">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC197">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="198" spans="1:29">
@@ -18060,7 +18060,7 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>6989716</v>
+        <v>7018983</v>
       </c>
       <c r="C198" t="s">
         <v>28</v>
@@ -18072,13 +18072,13 @@
         <v>45368.41666666666</v>
       </c>
       <c r="F198" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="G198" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="H198">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I198">
         <v>1</v>
@@ -18087,43 +18087,43 @@
         <v>45</v>
       </c>
       <c r="K198">
-        <v>1.909</v>
+        <v>1.75</v>
       </c>
       <c r="L198">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="M198">
+        <v>4.2</v>
+      </c>
+      <c r="N198">
+        <v>1.571</v>
+      </c>
+      <c r="O198">
         <v>3.75</v>
       </c>
-      <c r="N198">
-        <v>1.8</v>
-      </c>
-      <c r="O198">
-        <v>3.2</v>
-      </c>
       <c r="P198">
-        <v>4.333</v>
+        <v>5.25</v>
       </c>
       <c r="Q198">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R198">
-        <v>1.825</v>
+        <v>1.725</v>
       </c>
       <c r="S198">
         <v>1.975</v>
       </c>
       <c r="T198">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="U198">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V198">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W198">
-        <v>0.8</v>
+        <v>0.571</v>
       </c>
       <c r="X198">
         <v>-1</v>
@@ -18132,13 +18132,13 @@
         <v>-1</v>
       </c>
       <c r="Z198">
-        <v>0.825</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AA198">
         <v>-1</v>
       </c>
       <c r="AB198">
-        <v>0.825</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC198">
         <v>-1</v>
@@ -18149,7 +18149,7 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>6989645</v>
+        <v>6989716</v>
       </c>
       <c r="C199" t="s">
         <v>28</v>
@@ -18161,37 +18161,37 @@
         <v>45368.41666666666</v>
       </c>
       <c r="F199" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G199" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H199">
+        <v>2</v>
+      </c>
+      <c r="I199">
         <v>1</v>
-      </c>
-      <c r="I199">
-        <v>0</v>
       </c>
       <c r="J199" t="s">
         <v>45</v>
       </c>
       <c r="K199">
-        <v>1.8</v>
+        <v>1.909</v>
       </c>
       <c r="L199">
         <v>3.1</v>
       </c>
       <c r="M199">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="N199">
         <v>1.8</v>
       </c>
       <c r="O199">
-        <v>2.875</v>
+        <v>3.2</v>
       </c>
       <c r="P199">
-        <v>5</v>
+        <v>4.333</v>
       </c>
       <c r="Q199">
         <v>-0.5</v>
@@ -18203,13 +18203,13 @@
         <v>1.975</v>
       </c>
       <c r="T199">
-        <v>1.5</v>
+        <v>1.75</v>
       </c>
       <c r="U199">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V199">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W199">
         <v>0.8</v>
@@ -18227,10 +18227,10 @@
         <v>-1</v>
       </c>
       <c r="AB199">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC199">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="200" spans="1:29">
@@ -18609,7 +18609,7 @@
         <v>35</v>
       </c>
       <c r="G204" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H204">
         <v>0</v>
@@ -18876,7 +18876,7 @@
         <v>38</v>
       </c>
       <c r="G207" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H207">
         <v>0</v>
@@ -19229,7 +19229,7 @@
         <v>45381.45833333334</v>
       </c>
       <c r="F211" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G211" t="s">
         <v>31</v>
@@ -19407,7 +19407,7 @@
         <v>45381.45833333334</v>
       </c>
       <c r="F213" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G213" t="s">
         <v>29</v>
@@ -19662,7 +19662,7 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>6989544</v>
+        <v>6989340</v>
       </c>
       <c r="C216" t="s">
         <v>28</v>
@@ -19674,13 +19674,13 @@
         <v>45384.54166666666</v>
       </c>
       <c r="F216" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G216" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="H216">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I216">
         <v>0</v>
@@ -19689,43 +19689,43 @@
         <v>45</v>
       </c>
       <c r="K216">
-        <v>1.85</v>
+        <v>2.2</v>
       </c>
       <c r="L216">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="M216">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="N216">
-        <v>1.333</v>
+        <v>2</v>
       </c>
       <c r="O216">
-        <v>3.75</v>
+        <v>2.8</v>
       </c>
       <c r="P216">
-        <v>10</v>
+        <v>3.8</v>
       </c>
       <c r="Q216">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R216">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S216">
-        <v>1.875</v>
+        <v>1.725</v>
       </c>
       <c r="T216">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U216">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="V216">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W216">
-        <v>0.333</v>
+        <v>1</v>
       </c>
       <c r="X216">
         <v>-1</v>
@@ -19734,16 +19734,16 @@
         <v>-1</v>
       </c>
       <c r="Z216">
-        <v>0.925</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA216">
         <v>-1</v>
       </c>
       <c r="AB216">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC216">
-        <v>-0</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="217" spans="1:29">
@@ -19751,7 +19751,7 @@
         <v>215</v>
       </c>
       <c r="B217">
-        <v>6989340</v>
+        <v>6989544</v>
       </c>
       <c r="C217" t="s">
         <v>28</v>
@@ -19763,13 +19763,13 @@
         <v>45384.54166666666</v>
       </c>
       <c r="F217" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G217" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="H217">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I217">
         <v>0</v>
@@ -19778,43 +19778,43 @@
         <v>45</v>
       </c>
       <c r="K217">
-        <v>2.2</v>
+        <v>1.85</v>
       </c>
       <c r="L217">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="M217">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="N217">
-        <v>2</v>
+        <v>1.333</v>
       </c>
       <c r="O217">
-        <v>2.8</v>
+        <v>3.75</v>
       </c>
       <c r="P217">
-        <v>3.8</v>
+        <v>10</v>
       </c>
       <c r="Q217">
-        <v>-0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R217">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S217">
-        <v>1.725</v>
+        <v>1.875</v>
       </c>
       <c r="T217">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U217">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V217">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W217">
-        <v>1</v>
+        <v>0.333</v>
       </c>
       <c r="X217">
         <v>-1</v>
@@ -19823,16 +19823,16 @@
         <v>-1</v>
       </c>
       <c r="Z217">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AA217">
         <v>-1</v>
       </c>
       <c r="AB217">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC217">
-        <v>0.8</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="218" spans="1:29">
@@ -20211,7 +20211,7 @@
         <v>36</v>
       </c>
       <c r="G222" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H222">
         <v>2</v>
@@ -20297,7 +20297,7 @@
         <v>45389.45833333334</v>
       </c>
       <c r="F223" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G223" t="s">
         <v>32</v>
@@ -20475,7 +20475,7 @@
         <v>45389.45833333334</v>
       </c>
       <c r="F225" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G225" t="s">
         <v>29</v>

--- a/Serbia Prva Liga/Serbia Prva Liga.xlsx
+++ b/Serbia Prva Liga/Serbia Prva Liga.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1193" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1209" uniqueCount="48">
   <si>
     <t>id</t>
   </si>
@@ -519,7 +519,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC234"/>
+  <dimension ref="A1:AC238"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3464,7 +3464,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>6989603</v>
+        <v>7018990</v>
       </c>
       <c r="C34" t="s">
         <v>28</v>
@@ -3476,76 +3476,76 @@
         <v>45171.5</v>
       </c>
       <c r="F34" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G34" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J34" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K34">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="L34">
         <v>3.2</v>
       </c>
       <c r="M34">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="N34">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="O34">
         <v>3.2</v>
       </c>
       <c r="P34">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="Q34">
         <v>-0.25</v>
       </c>
       <c r="R34">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="S34">
-        <v>1.775</v>
+        <v>1.75</v>
       </c>
       <c r="T34">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U34">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="V34">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="W34">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="X34">
         <v>-1</v>
       </c>
       <c r="Y34">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Z34">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA34">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB34">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC34">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="35" spans="1:29">
@@ -3553,7 +3553,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>7018990</v>
+        <v>6989603</v>
       </c>
       <c r="C35" t="s">
         <v>28</v>
@@ -3565,76 +3565,76 @@
         <v>45171.5</v>
       </c>
       <c r="F35" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G35" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="H35">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I35">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J35" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K35">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="L35">
         <v>3.2</v>
       </c>
       <c r="M35">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="N35">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="O35">
         <v>3.2</v>
       </c>
       <c r="P35">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="Q35">
         <v>-0.25</v>
       </c>
       <c r="R35">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="S35">
-        <v>1.75</v>
+        <v>1.775</v>
       </c>
       <c r="T35">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U35">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="V35">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="W35">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="X35">
         <v>-1</v>
       </c>
       <c r="Y35">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Z35">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA35">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB35">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC35">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="36" spans="1:29">
@@ -3820,7 +3820,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>6989504</v>
+        <v>6989503</v>
       </c>
       <c r="C38" t="s">
         <v>28</v>
@@ -3832,73 +3832,73 @@
         <v>45172.5</v>
       </c>
       <c r="F38" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="G38" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H38">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I38">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J38" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K38">
+        <v>1.85</v>
+      </c>
+      <c r="L38">
+        <v>2.8</v>
+      </c>
+      <c r="M38">
+        <v>4.75</v>
+      </c>
+      <c r="N38">
+        <v>2.3</v>
+      </c>
+      <c r="O38">
+        <v>2.75</v>
+      </c>
+      <c r="P38">
         <v>3.4</v>
       </c>
-      <c r="L38">
-        <v>3.4</v>
-      </c>
-      <c r="M38">
-        <v>1.909</v>
-      </c>
-      <c r="N38">
-        <v>6</v>
-      </c>
-      <c r="O38">
-        <v>3.6</v>
-      </c>
-      <c r="P38">
-        <v>1.5</v>
-      </c>
       <c r="Q38">
+        <v>-0.25</v>
+      </c>
+      <c r="R38">
+        <v>1.95</v>
+      </c>
+      <c r="S38">
+        <v>1.85</v>
+      </c>
+      <c r="T38">
+        <v>2</v>
+      </c>
+      <c r="U38">
+        <v>2</v>
+      </c>
+      <c r="V38">
+        <v>1.8</v>
+      </c>
+      <c r="W38">
+        <v>-1</v>
+      </c>
+      <c r="X38">
+        <v>-1</v>
+      </c>
+      <c r="Y38">
+        <v>2.4</v>
+      </c>
+      <c r="Z38">
+        <v>-1</v>
+      </c>
+      <c r="AA38">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AB38">
         <v>1</v>
-      </c>
-      <c r="R38">
-        <v>2</v>
-      </c>
-      <c r="S38">
-        <v>1.8</v>
-      </c>
-      <c r="T38">
-        <v>2.5</v>
-      </c>
-      <c r="U38">
-        <v>1.975</v>
-      </c>
-      <c r="V38">
-        <v>1.825</v>
-      </c>
-      <c r="W38">
-        <v>-1</v>
-      </c>
-      <c r="X38">
-        <v>2.6</v>
-      </c>
-      <c r="Y38">
-        <v>-1</v>
-      </c>
-      <c r="Z38">
-        <v>1</v>
-      </c>
-      <c r="AA38">
-        <v>-1</v>
-      </c>
-      <c r="AB38">
-        <v>0.9750000000000001</v>
       </c>
       <c r="AC38">
         <v>-1</v>
@@ -3909,7 +3909,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>6989503</v>
+        <v>6989504</v>
       </c>
       <c r="C39" t="s">
         <v>28</v>
@@ -3921,73 +3921,73 @@
         <v>45172.5</v>
       </c>
       <c r="F39" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="G39" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H39">
+        <v>2</v>
+      </c>
+      <c r="I39">
+        <v>2</v>
+      </c>
+      <c r="J39" t="s">
+        <v>47</v>
+      </c>
+      <c r="K39">
+        <v>3.4</v>
+      </c>
+      <c r="L39">
+        <v>3.4</v>
+      </c>
+      <c r="M39">
+        <v>1.909</v>
+      </c>
+      <c r="N39">
+        <v>6</v>
+      </c>
+      <c r="O39">
+        <v>3.6</v>
+      </c>
+      <c r="P39">
+        <v>1.5</v>
+      </c>
+      <c r="Q39">
         <v>1</v>
       </c>
-      <c r="I39">
-        <v>3</v>
-      </c>
-      <c r="J39" t="s">
-        <v>46</v>
-      </c>
-      <c r="K39">
-        <v>1.85</v>
-      </c>
-      <c r="L39">
-        <v>2.8</v>
-      </c>
-      <c r="M39">
-        <v>4.75</v>
-      </c>
-      <c r="N39">
-        <v>2.3</v>
-      </c>
-      <c r="O39">
-        <v>2.75</v>
-      </c>
-      <c r="P39">
-        <v>3.4</v>
-      </c>
-      <c r="Q39">
-        <v>-0.25</v>
-      </c>
       <c r="R39">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S39">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T39">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U39">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V39">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W39">
         <v>-1</v>
       </c>
       <c r="X39">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y39">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Z39">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA39">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB39">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC39">
         <v>-1</v>
@@ -4354,7 +4354,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>6989604</v>
+        <v>6989605</v>
       </c>
       <c r="C44" t="s">
         <v>28</v>
@@ -4366,37 +4366,37 @@
         <v>45178.47916666666</v>
       </c>
       <c r="F44" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G44" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J44" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K44">
-        <v>2.05</v>
+        <v>2.15</v>
       </c>
       <c r="L44">
+        <v>3.1</v>
+      </c>
+      <c r="M44">
         <v>3.25</v>
-      </c>
-      <c r="M44">
-        <v>3.3</v>
       </c>
       <c r="N44">
         <v>2.1</v>
       </c>
       <c r="O44">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="P44">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="Q44">
         <v>-0.25</v>
@@ -4408,34 +4408,34 @@
         <v>1.975</v>
       </c>
       <c r="T44">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U44">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V44">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="W44">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X44">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y44">
         <v>-1</v>
       </c>
       <c r="Z44">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AA44">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AB44">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC44">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="45" spans="1:29">
@@ -4443,7 +4443,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>6989605</v>
+        <v>6989604</v>
       </c>
       <c r="C45" t="s">
         <v>28</v>
@@ -4455,37 +4455,37 @@
         <v>45178.47916666666</v>
       </c>
       <c r="F45" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G45" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H45">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J45" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K45">
-        <v>2.15</v>
+        <v>2.05</v>
       </c>
       <c r="L45">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="M45">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="N45">
         <v>2.1</v>
       </c>
       <c r="O45">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="P45">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="Q45">
         <v>-0.25</v>
@@ -4497,34 +4497,34 @@
         <v>1.975</v>
       </c>
       <c r="T45">
+        <v>2.5</v>
+      </c>
+      <c r="U45">
+        <v>1.925</v>
+      </c>
+      <c r="V45">
+        <v>1.875</v>
+      </c>
+      <c r="W45">
+        <v>-1</v>
+      </c>
+      <c r="X45">
         <v>2.25</v>
       </c>
-      <c r="U45">
-        <v>2</v>
-      </c>
-      <c r="V45">
-        <v>1.8</v>
-      </c>
-      <c r="W45">
-        <v>1.1</v>
-      </c>
-      <c r="X45">
-        <v>-1</v>
-      </c>
       <c r="Y45">
         <v>-1</v>
       </c>
       <c r="Z45">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AA45">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AB45">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC45">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="46" spans="1:29">
@@ -4888,7 +4888,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>6989607</v>
+        <v>6989673</v>
       </c>
       <c r="C50" t="s">
         <v>28</v>
@@ -4900,40 +4900,40 @@
         <v>45185.58333333334</v>
       </c>
       <c r="F50" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G50" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="H50">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I50">
         <v>1</v>
       </c>
       <c r="J50" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K50">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="L50">
-        <v>3</v>
+        <v>2.875</v>
       </c>
       <c r="M50">
         <v>3</v>
       </c>
       <c r="N50">
-        <v>2.2</v>
+        <v>2.7</v>
       </c>
       <c r="O50">
-        <v>3</v>
+        <v>2.875</v>
       </c>
       <c r="P50">
-        <v>3.1</v>
+        <v>2.6</v>
       </c>
       <c r="Q50">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R50">
         <v>1.95</v>
@@ -4942,34 +4942,34 @@
         <v>1.85</v>
       </c>
       <c r="T50">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U50">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V50">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W50">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="X50">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y50">
         <v>-1</v>
       </c>
       <c r="Z50">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AA50">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AB50">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AC50">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="51" spans="1:29">
@@ -4977,7 +4977,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>6989673</v>
+        <v>6989607</v>
       </c>
       <c r="C51" t="s">
         <v>28</v>
@@ -4989,40 +4989,40 @@
         <v>45185.58333333334</v>
       </c>
       <c r="F51" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G51" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="H51">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I51">
         <v>1</v>
       </c>
       <c r="J51" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K51">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="L51">
-        <v>2.875</v>
+        <v>3</v>
       </c>
       <c r="M51">
         <v>3</v>
       </c>
       <c r="N51">
-        <v>2.7</v>
+        <v>2.2</v>
       </c>
       <c r="O51">
-        <v>2.875</v>
+        <v>3</v>
       </c>
       <c r="P51">
-        <v>2.6</v>
+        <v>3.1</v>
       </c>
       <c r="Q51">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R51">
         <v>1.95</v>
@@ -5031,34 +5031,34 @@
         <v>1.85</v>
       </c>
       <c r="T51">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U51">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V51">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W51">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="X51">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y51">
         <v>-1</v>
       </c>
       <c r="Z51">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AA51">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AB51">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AC51">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="52" spans="1:29">
@@ -5689,7 +5689,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>7018992</v>
+        <v>6989676</v>
       </c>
       <c r="C59" t="s">
         <v>28</v>
@@ -5701,76 +5701,76 @@
         <v>45191.58333333334</v>
       </c>
       <c r="F59" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="G59" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="H59">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I59">
+        <v>0</v>
+      </c>
+      <c r="J59" t="s">
+        <v>47</v>
+      </c>
+      <c r="K59">
+        <v>1.95</v>
+      </c>
+      <c r="L59">
+        <v>3.1</v>
+      </c>
+      <c r="M59">
+        <v>3.6</v>
+      </c>
+      <c r="N59">
+        <v>1.75</v>
+      </c>
+      <c r="O59">
+        <v>3.25</v>
+      </c>
+      <c r="P59">
+        <v>4.2</v>
+      </c>
+      <c r="Q59">
+        <v>-0.5</v>
+      </c>
+      <c r="R59">
+        <v>1.8</v>
+      </c>
+      <c r="S59">
+        <v>2</v>
+      </c>
+      <c r="T59">
+        <v>2</v>
+      </c>
+      <c r="U59">
+        <v>1.95</v>
+      </c>
+      <c r="V59">
+        <v>1.85</v>
+      </c>
+      <c r="W59">
+        <v>-1</v>
+      </c>
+      <c r="X59">
+        <v>2.25</v>
+      </c>
+      <c r="Y59">
+        <v>-1</v>
+      </c>
+      <c r="Z59">
+        <v>-1</v>
+      </c>
+      <c r="AA59">
         <v>1</v>
       </c>
-      <c r="J59" t="s">
-        <v>45</v>
-      </c>
-      <c r="K59">
-        <v>1.4</v>
-      </c>
-      <c r="L59">
-        <v>4.2</v>
-      </c>
-      <c r="M59">
-        <v>6.5</v>
-      </c>
-      <c r="N59">
-        <v>1.4</v>
-      </c>
-      <c r="O59">
-        <v>4</v>
-      </c>
-      <c r="P59">
-        <v>7</v>
-      </c>
-      <c r="Q59">
-        <v>-1.25</v>
-      </c>
-      <c r="R59">
-        <v>1.85</v>
-      </c>
-      <c r="S59">
-        <v>1.95</v>
-      </c>
-      <c r="T59">
-        <v>2.5</v>
-      </c>
-      <c r="U59">
-        <v>1.85</v>
-      </c>
-      <c r="V59">
-        <v>1.95</v>
-      </c>
-      <c r="W59">
-        <v>0.3999999999999999</v>
-      </c>
-      <c r="X59">
-        <v>-1</v>
-      </c>
-      <c r="Y59">
-        <v>-1</v>
-      </c>
-      <c r="Z59">
+      <c r="AB59">
+        <v>-1</v>
+      </c>
+      <c r="AC59">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AA59">
-        <v>-1</v>
-      </c>
-      <c r="AB59">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="AC59">
-        <v>-1</v>
       </c>
     </row>
     <row r="60" spans="1:29">
@@ -5778,7 +5778,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>6989676</v>
+        <v>7018992</v>
       </c>
       <c r="C60" t="s">
         <v>28</v>
@@ -5790,76 +5790,76 @@
         <v>45191.58333333334</v>
       </c>
       <c r="F60" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="G60" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J60" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K60">
+        <v>1.4</v>
+      </c>
+      <c r="L60">
+        <v>4.2</v>
+      </c>
+      <c r="M60">
+        <v>6.5</v>
+      </c>
+      <c r="N60">
+        <v>1.4</v>
+      </c>
+      <c r="O60">
+        <v>4</v>
+      </c>
+      <c r="P60">
+        <v>7</v>
+      </c>
+      <c r="Q60">
+        <v>-1.25</v>
+      </c>
+      <c r="R60">
+        <v>1.85</v>
+      </c>
+      <c r="S60">
         <v>1.95</v>
       </c>
-      <c r="L60">
-        <v>3.1</v>
-      </c>
-      <c r="M60">
-        <v>3.6</v>
-      </c>
-      <c r="N60">
-        <v>1.75</v>
-      </c>
-      <c r="O60">
-        <v>3.25</v>
-      </c>
-      <c r="P60">
-        <v>4.2</v>
-      </c>
-      <c r="Q60">
-        <v>-0.5</v>
-      </c>
-      <c r="R60">
-        <v>1.8</v>
-      </c>
-      <c r="S60">
-        <v>2</v>
-      </c>
       <c r="T60">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U60">
+        <v>1.85</v>
+      </c>
+      <c r="V60">
         <v>1.95</v>
       </c>
-      <c r="V60">
-        <v>1.85</v>
-      </c>
       <c r="W60">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X60">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y60">
         <v>-1</v>
       </c>
       <c r="Z60">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA60">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB60">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC60">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="61" spans="1:29">
@@ -10139,7 +10139,7 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>6989327</v>
+        <v>7018998</v>
       </c>
       <c r="C109" t="s">
         <v>28</v>
@@ -10151,76 +10151,76 @@
         <v>45235.54166666666</v>
       </c>
       <c r="F109" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G109" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H109">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I109">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J109" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K109">
-        <v>2.375</v>
+        <v>1.909</v>
       </c>
       <c r="L109">
-        <v>2.75</v>
+        <v>3.1</v>
       </c>
       <c r="M109">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="N109">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="O109">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="P109">
-        <v>3</v>
+        <v>3.8</v>
       </c>
       <c r="Q109">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R109">
-        <v>2.075</v>
+        <v>2.05</v>
       </c>
       <c r="S109">
-        <v>1.725</v>
+        <v>1.75</v>
       </c>
       <c r="T109">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U109">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V109">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W109">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="X109">
         <v>-1</v>
       </c>
       <c r="Y109">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Z109">
-        <v>1.075</v>
+        <v>-1</v>
       </c>
       <c r="AA109">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AB109">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AC109">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="110" spans="1:29">
@@ -10228,7 +10228,7 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>7018998</v>
+        <v>6989327</v>
       </c>
       <c r="C110" t="s">
         <v>28</v>
@@ -10240,76 +10240,76 @@
         <v>45235.54166666666</v>
       </c>
       <c r="F110" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G110" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H110">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I110">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J110" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K110">
-        <v>1.909</v>
+        <v>2.375</v>
       </c>
       <c r="L110">
-        <v>3.1</v>
+        <v>2.75</v>
       </c>
       <c r="M110">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="N110">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="O110">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="P110">
-        <v>3.8</v>
+        <v>3</v>
       </c>
       <c r="Q110">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R110">
-        <v>2.05</v>
+        <v>2.075</v>
       </c>
       <c r="S110">
-        <v>1.75</v>
+        <v>1.725</v>
       </c>
       <c r="T110">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U110">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V110">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W110">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="X110">
         <v>-1</v>
       </c>
       <c r="Y110">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Z110">
-        <v>-1</v>
+        <v>1.075</v>
       </c>
       <c r="AA110">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AB110">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AC110">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="111" spans="1:29">
@@ -10317,7 +10317,7 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>6989521</v>
+        <v>6989522</v>
       </c>
       <c r="C111" t="s">
         <v>28</v>
@@ -10329,46 +10329,46 @@
         <v>45236.375</v>
       </c>
       <c r="F111" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="G111" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="H111">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I111">
         <v>1</v>
       </c>
       <c r="J111" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K111">
-        <v>2.4</v>
+        <v>1.65</v>
       </c>
       <c r="L111">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M111">
-        <v>2.75</v>
+        <v>5.5</v>
       </c>
       <c r="N111">
-        <v>2.875</v>
+        <v>2.25</v>
       </c>
       <c r="O111">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="P111">
-        <v>2.45</v>
+        <v>3.25</v>
       </c>
       <c r="Q111">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R111">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S111">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="T111">
         <v>2</v>
@@ -10383,22 +10383,22 @@
         <v>-1</v>
       </c>
       <c r="X111">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Y111">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Z111">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA111">
-        <v>-0</v>
+        <v>0.8</v>
       </c>
       <c r="AB111">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC111">
-        <v>-0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="112" spans="1:29">
@@ -10495,7 +10495,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>6989522</v>
+        <v>6989521</v>
       </c>
       <c r="C113" t="s">
         <v>28</v>
@@ -10507,46 +10507,46 @@
         <v>45236.375</v>
       </c>
       <c r="F113" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="G113" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="H113">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I113">
         <v>1</v>
       </c>
       <c r="J113" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K113">
-        <v>1.65</v>
+        <v>2.4</v>
       </c>
       <c r="L113">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M113">
-        <v>5.5</v>
+        <v>2.75</v>
       </c>
       <c r="N113">
-        <v>2.25</v>
+        <v>2.875</v>
       </c>
       <c r="O113">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="P113">
-        <v>3.25</v>
+        <v>2.45</v>
       </c>
       <c r="Q113">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R113">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="S113">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="T113">
         <v>2</v>
@@ -10561,22 +10561,22 @@
         <v>-1</v>
       </c>
       <c r="X113">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Y113">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Z113">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA113">
-        <v>0.8</v>
+        <v>-0</v>
       </c>
       <c r="AB113">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC113">
-        <v>1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="114" spans="1:29">
@@ -11296,7 +11296,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>6989628</v>
+        <v>6989627</v>
       </c>
       <c r="C122" t="s">
         <v>28</v>
@@ -11308,58 +11308,58 @@
         <v>45248.375</v>
       </c>
       <c r="F122" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G122" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H122">
+        <v>3</v>
+      </c>
+      <c r="I122">
         <v>1</v>
-      </c>
-      <c r="I122">
-        <v>0</v>
       </c>
       <c r="J122" t="s">
         <v>45</v>
       </c>
       <c r="K122">
-        <v>2.2</v>
+        <v>1.909</v>
       </c>
       <c r="L122">
+        <v>3.2</v>
+      </c>
+      <c r="M122">
+        <v>3.6</v>
+      </c>
+      <c r="N122">
+        <v>2</v>
+      </c>
+      <c r="O122">
+        <v>3.4</v>
+      </c>
+      <c r="P122">
         <v>3.1</v>
-      </c>
-      <c r="M122">
-        <v>3</v>
-      </c>
-      <c r="N122">
-        <v>2.3</v>
-      </c>
-      <c r="O122">
-        <v>2.9</v>
-      </c>
-      <c r="P122">
-        <v>2.9</v>
       </c>
       <c r="Q122">
         <v>-0.25</v>
       </c>
       <c r="R122">
-        <v>2.05</v>
+        <v>1.75</v>
       </c>
       <c r="S122">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="T122">
-        <v>1.75</v>
+        <v>2.5</v>
       </c>
       <c r="U122">
+        <v>1.975</v>
+      </c>
+      <c r="V122">
         <v>1.825</v>
       </c>
-      <c r="V122">
-        <v>1.975</v>
-      </c>
       <c r="W122">
-        <v>1.3</v>
+        <v>1</v>
       </c>
       <c r="X122">
         <v>-1</v>
@@ -11368,16 +11368,16 @@
         <v>-1</v>
       </c>
       <c r="Z122">
-        <v>1.05</v>
+        <v>0.75</v>
       </c>
       <c r="AA122">
         <v>-1</v>
       </c>
       <c r="AB122">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC122">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="123" spans="1:29">
@@ -11385,7 +11385,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>6989627</v>
+        <v>6989628</v>
       </c>
       <c r="C123" t="s">
         <v>28</v>
@@ -11397,58 +11397,58 @@
         <v>45248.375</v>
       </c>
       <c r="F123" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G123" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H123">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I123">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J123" t="s">
         <v>45</v>
       </c>
       <c r="K123">
-        <v>1.909</v>
+        <v>2.2</v>
       </c>
       <c r="L123">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M123">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="N123">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="O123">
-        <v>3.4</v>
+        <v>2.9</v>
       </c>
       <c r="P123">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="Q123">
         <v>-0.25</v>
       </c>
       <c r="R123">
+        <v>2.05</v>
+      </c>
+      <c r="S123">
         <v>1.75</v>
       </c>
-      <c r="S123">
-        <v>1.95</v>
-      </c>
       <c r="T123">
-        <v>2.5</v>
+        <v>1.75</v>
       </c>
       <c r="U123">
+        <v>1.825</v>
+      </c>
+      <c r="V123">
         <v>1.975</v>
       </c>
-      <c r="V123">
-        <v>1.825</v>
-      </c>
       <c r="W123">
-        <v>1</v>
+        <v>1.3</v>
       </c>
       <c r="X123">
         <v>-1</v>
@@ -11457,16 +11457,16 @@
         <v>-1</v>
       </c>
       <c r="Z123">
-        <v>0.75</v>
+        <v>1.05</v>
       </c>
       <c r="AA123">
         <v>-1</v>
       </c>
       <c r="AB123">
+        <v>-1</v>
+      </c>
+      <c r="AC123">
         <v>0.9750000000000001</v>
-      </c>
-      <c r="AC123">
-        <v>-1</v>
       </c>
     </row>
     <row r="124" spans="1:29">
@@ -11474,7 +11474,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>6989695</v>
+        <v>6989696</v>
       </c>
       <c r="C124" t="s">
         <v>28</v>
@@ -11486,76 +11486,76 @@
         <v>45248.375</v>
       </c>
       <c r="F124" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G124" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H124">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I124">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J124" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K124">
-        <v>4.5</v>
+        <v>2.5</v>
       </c>
       <c r="L124">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="M124">
-        <v>1.615</v>
+        <v>2.625</v>
       </c>
       <c r="N124">
-        <v>3.6</v>
+        <v>2.8</v>
       </c>
       <c r="O124">
-        <v>3.4</v>
+        <v>2.8</v>
       </c>
       <c r="P124">
-        <v>1.833</v>
+        <v>2.6</v>
       </c>
       <c r="Q124">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R124">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S124">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T124">
-        <v>2.25</v>
+        <v>1.5</v>
       </c>
       <c r="U124">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="V124">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="W124">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="X124">
         <v>-1</v>
       </c>
       <c r="Y124">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="Z124">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA124">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB124">
-        <v>-0.5</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC124">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="125" spans="1:29">
@@ -11563,7 +11563,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>6989696</v>
+        <v>6989695</v>
       </c>
       <c r="C125" t="s">
         <v>28</v>
@@ -11575,76 +11575,76 @@
         <v>45248.375</v>
       </c>
       <c r="F125" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G125" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H125">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I125">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J125" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K125">
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="L125">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="M125">
-        <v>2.625</v>
+        <v>1.615</v>
       </c>
       <c r="N125">
-        <v>2.8</v>
+        <v>3.6</v>
       </c>
       <c r="O125">
-        <v>2.8</v>
+        <v>3.4</v>
       </c>
       <c r="P125">
+        <v>1.833</v>
+      </c>
+      <c r="Q125">
+        <v>0.5</v>
+      </c>
+      <c r="R125">
+        <v>1.9</v>
+      </c>
+      <c r="S125">
+        <v>1.9</v>
+      </c>
+      <c r="T125">
+        <v>2.25</v>
+      </c>
+      <c r="U125">
+        <v>2</v>
+      </c>
+      <c r="V125">
+        <v>1.8</v>
+      </c>
+      <c r="W125">
         <v>2.6</v>
       </c>
-      <c r="Q125">
-        <v>0</v>
-      </c>
-      <c r="R125">
-        <v>1.975</v>
-      </c>
-      <c r="S125">
-        <v>1.825</v>
-      </c>
-      <c r="T125">
-        <v>1.5</v>
-      </c>
-      <c r="U125">
-        <v>1.775</v>
-      </c>
-      <c r="V125">
-        <v>2.025</v>
-      </c>
-      <c r="W125">
-        <v>-1</v>
-      </c>
       <c r="X125">
         <v>-1</v>
       </c>
       <c r="Y125">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="Z125">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA125">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB125">
-        <v>0.7749999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AC125">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="126" spans="1:29">
@@ -11919,7 +11919,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>7497904</v>
+        <v>7497374</v>
       </c>
       <c r="C129" t="s">
         <v>28</v>
@@ -11931,76 +11931,76 @@
         <v>45252.375</v>
       </c>
       <c r="F129" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G129" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="H129">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I129">
+        <v>0</v>
+      </c>
+      <c r="J129" t="s">
+        <v>45</v>
+      </c>
+      <c r="K129">
+        <v>2.5</v>
+      </c>
+      <c r="L129">
+        <v>3</v>
+      </c>
+      <c r="M129">
+        <v>2.625</v>
+      </c>
+      <c r="N129">
+        <v>2</v>
+      </c>
+      <c r="O129">
+        <v>3.1</v>
+      </c>
+      <c r="P129">
+        <v>3.6</v>
+      </c>
+      <c r="Q129">
+        <v>-0.5</v>
+      </c>
+      <c r="R129">
+        <v>2.025</v>
+      </c>
+      <c r="S129">
+        <v>1.775</v>
+      </c>
+      <c r="T129">
+        <v>2.5</v>
+      </c>
+      <c r="U129">
+        <v>1.95</v>
+      </c>
+      <c r="V129">
+        <v>1.85</v>
+      </c>
+      <c r="W129">
         <v>1</v>
       </c>
-      <c r="J129" t="s">
-        <v>46</v>
-      </c>
-      <c r="K129">
-        <v>2.4</v>
-      </c>
-      <c r="L129">
-        <v>2.875</v>
-      </c>
-      <c r="M129">
-        <v>2.875</v>
-      </c>
-      <c r="N129">
-        <v>2.875</v>
-      </c>
-      <c r="O129">
-        <v>3</v>
-      </c>
-      <c r="P129">
-        <v>2.3</v>
-      </c>
-      <c r="Q129">
-        <v>0.25</v>
-      </c>
-      <c r="R129">
-        <v>1.75</v>
-      </c>
-      <c r="S129">
-        <v>2.05</v>
-      </c>
-      <c r="T129">
-        <v>2</v>
-      </c>
-      <c r="U129">
-        <v>1.925</v>
-      </c>
-      <c r="V129">
-        <v>1.875</v>
-      </c>
-      <c r="W129">
-        <v>-1</v>
-      </c>
       <c r="X129">
         <v>-1</v>
       </c>
       <c r="Y129">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z129">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA129">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB129">
         <v>-1</v>
       </c>
       <c r="AC129">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="130" spans="1:29">
@@ -12008,7 +12008,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>7497903</v>
+        <v>7497670</v>
       </c>
       <c r="C130" t="s">
         <v>28</v>
@@ -12020,76 +12020,76 @@
         <v>45252.375</v>
       </c>
       <c r="F130" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G130" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H130">
         <v>2</v>
       </c>
       <c r="I130">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J130" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K130">
-        <v>1.571</v>
+        <v>3.2</v>
       </c>
       <c r="L130">
-        <v>3.75</v>
+        <v>2.9</v>
       </c>
       <c r="M130">
-        <v>4.75</v>
+        <v>2.2</v>
       </c>
       <c r="N130">
-        <v>1.5</v>
+        <v>3.3</v>
       </c>
       <c r="O130">
-        <v>3.75</v>
+        <v>2.9</v>
       </c>
       <c r="P130">
-        <v>5.5</v>
+        <v>2.15</v>
       </c>
       <c r="Q130">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R130">
+        <v>1.875</v>
+      </c>
+      <c r="S130">
         <v>1.925</v>
       </c>
-      <c r="S130">
-        <v>1.875</v>
-      </c>
       <c r="T130">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U130">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V130">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W130">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X130">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Y130">
         <v>-1</v>
       </c>
       <c r="Z130">
-        <v>0.925</v>
+        <v>0.4375</v>
       </c>
       <c r="AA130">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB130">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AC130">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="131" spans="1:29">
@@ -12097,7 +12097,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>7497374</v>
+        <v>7497903</v>
       </c>
       <c r="C131" t="s">
         <v>28</v>
@@ -12109,13 +12109,13 @@
         <v>45252.375</v>
       </c>
       <c r="F131" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G131" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="H131">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I131">
         <v>0</v>
@@ -12124,61 +12124,61 @@
         <v>45</v>
       </c>
       <c r="K131">
-        <v>2.5</v>
+        <v>1.571</v>
       </c>
       <c r="L131">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="M131">
-        <v>2.625</v>
+        <v>4.75</v>
       </c>
       <c r="N131">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="O131">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="P131">
-        <v>3.6</v>
+        <v>5.5</v>
       </c>
       <c r="Q131">
+        <v>-1</v>
+      </c>
+      <c r="R131">
+        <v>1.925</v>
+      </c>
+      <c r="S131">
+        <v>1.875</v>
+      </c>
+      <c r="T131">
+        <v>2.25</v>
+      </c>
+      <c r="U131">
+        <v>1.975</v>
+      </c>
+      <c r="V131">
+        <v>1.825</v>
+      </c>
+      <c r="W131">
+        <v>0.5</v>
+      </c>
+      <c r="X131">
+        <v>-1</v>
+      </c>
+      <c r="Y131">
+        <v>-1</v>
+      </c>
+      <c r="Z131">
+        <v>0.925</v>
+      </c>
+      <c r="AA131">
+        <v>-1</v>
+      </c>
+      <c r="AB131">
         <v>-0.5</v>
       </c>
-      <c r="R131">
-        <v>2.025</v>
-      </c>
-      <c r="S131">
-        <v>1.775</v>
-      </c>
-      <c r="T131">
-        <v>2.5</v>
-      </c>
-      <c r="U131">
-        <v>1.95</v>
-      </c>
-      <c r="V131">
-        <v>1.85</v>
-      </c>
-      <c r="W131">
-        <v>1</v>
-      </c>
-      <c r="X131">
-        <v>-1</v>
-      </c>
-      <c r="Y131">
-        <v>-1</v>
-      </c>
-      <c r="Z131">
-        <v>1.025</v>
-      </c>
-      <c r="AA131">
-        <v>-1</v>
-      </c>
-      <c r="AB131">
-        <v>-1</v>
-      </c>
       <c r="AC131">
-        <v>0.8500000000000001</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="132" spans="1:29">
@@ -12186,7 +12186,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>7497902</v>
+        <v>7497904</v>
       </c>
       <c r="C132" t="s">
         <v>28</v>
@@ -12198,76 +12198,76 @@
         <v>45252.375</v>
       </c>
       <c r="F132" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G132" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="H132">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I132">
         <v>1</v>
       </c>
       <c r="J132" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K132">
-        <v>1.909</v>
+        <v>2.4</v>
       </c>
       <c r="L132">
+        <v>2.875</v>
+      </c>
+      <c r="M132">
+        <v>2.875</v>
+      </c>
+      <c r="N132">
+        <v>2.875</v>
+      </c>
+      <c r="O132">
         <v>3</v>
       </c>
-      <c r="M132">
-        <v>4</v>
-      </c>
-      <c r="N132">
+      <c r="P132">
+        <v>2.3</v>
+      </c>
+      <c r="Q132">
+        <v>0.25</v>
+      </c>
+      <c r="R132">
         <v>1.75</v>
       </c>
-      <c r="O132">
-        <v>3.1</v>
-      </c>
-      <c r="P132">
-        <v>4.75</v>
-      </c>
-      <c r="Q132">
-        <v>-0.5</v>
-      </c>
-      <c r="R132">
-        <v>1.8</v>
-      </c>
       <c r="S132">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="T132">
         <v>2</v>
       </c>
       <c r="U132">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="V132">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W132">
         <v>-1</v>
       </c>
       <c r="X132">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y132">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z132">
         <v>-1</v>
       </c>
       <c r="AA132">
-        <v>1</v>
+        <v>1.05</v>
       </c>
       <c r="AB132">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC132">
-        <v>-0</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="133" spans="1:29">
@@ -12275,7 +12275,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>7497670</v>
+        <v>7497902</v>
       </c>
       <c r="C133" t="s">
         <v>28</v>
@@ -12287,76 +12287,76 @@
         <v>45252.375</v>
       </c>
       <c r="F133" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="G133" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="H133">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I133">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J133" t="s">
         <v>47</v>
       </c>
       <c r="K133">
-        <v>3.2</v>
+        <v>1.909</v>
       </c>
       <c r="L133">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="M133">
-        <v>2.2</v>
+        <v>4</v>
       </c>
       <c r="N133">
-        <v>3.3</v>
+        <v>1.75</v>
       </c>
       <c r="O133">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="P133">
-        <v>2.15</v>
+        <v>4.75</v>
       </c>
       <c r="Q133">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R133">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="S133">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T133">
         <v>2</v>
       </c>
       <c r="U133">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V133">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W133">
         <v>-1</v>
       </c>
       <c r="X133">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="Y133">
         <v>-1</v>
       </c>
       <c r="Z133">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AA133">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AB133">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="AC133">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="134" spans="1:29">
@@ -13343,7 +13343,7 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>7019002</v>
+        <v>6989631</v>
       </c>
       <c r="C145" t="s">
         <v>28</v>
@@ -13355,76 +13355,76 @@
         <v>45262.375</v>
       </c>
       <c r="F145" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G145" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="H145">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I145">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J145" t="s">
         <v>47</v>
       </c>
       <c r="K145">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="L145">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="M145">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="N145">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="O145">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="P145">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="Q145">
+        <v>-0.25</v>
+      </c>
+      <c r="R145">
+        <v>2</v>
+      </c>
+      <c r="S145">
+        <v>1.8</v>
+      </c>
+      <c r="T145">
+        <v>2.25</v>
+      </c>
+      <c r="U145">
+        <v>2</v>
+      </c>
+      <c r="V145">
+        <v>1.8</v>
+      </c>
+      <c r="W145">
+        <v>-1</v>
+      </c>
+      <c r="X145">
+        <v>2</v>
+      </c>
+      <c r="Y145">
+        <v>-1</v>
+      </c>
+      <c r="Z145">
         <v>-0.5</v>
       </c>
-      <c r="R145">
-        <v>1.8</v>
-      </c>
-      <c r="S145">
-        <v>2</v>
-      </c>
-      <c r="T145">
-        <v>2</v>
-      </c>
-      <c r="U145">
-        <v>1.9</v>
-      </c>
-      <c r="V145">
-        <v>1.9</v>
-      </c>
-      <c r="W145">
-        <v>-1</v>
-      </c>
-      <c r="X145">
-        <v>2.1</v>
-      </c>
-      <c r="Y145">
-        <v>-1</v>
-      </c>
-      <c r="Z145">
-        <v>-1</v>
-      </c>
       <c r="AA145">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="AB145">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AC145">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="146" spans="1:29">
@@ -13432,7 +13432,7 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>6989631</v>
+        <v>6989700</v>
       </c>
       <c r="C146" t="s">
         <v>28</v>
@@ -13444,76 +13444,76 @@
         <v>45262.375</v>
       </c>
       <c r="F146" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G146" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H146">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I146">
         <v>1</v>
       </c>
       <c r="J146" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K146">
-        <v>2.25</v>
+        <v>2.625</v>
       </c>
       <c r="L146">
         <v>3</v>
       </c>
       <c r="M146">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="N146">
-        <v>2.25</v>
+        <v>2.375</v>
       </c>
       <c r="O146">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="P146">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Q146">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R146">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="S146">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
       <c r="T146">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U146">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="V146">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="W146">
         <v>-1</v>
       </c>
       <c r="X146">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y146">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="Z146">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA146">
-        <v>0.4</v>
+        <v>1.05</v>
       </c>
       <c r="AB146">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC146">
-        <v>0.4</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="147" spans="1:29">
@@ -13521,7 +13521,7 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>6989700</v>
+        <v>7019002</v>
       </c>
       <c r="C147" t="s">
         <v>28</v>
@@ -13533,76 +13533,76 @@
         <v>45262.375</v>
       </c>
       <c r="F147" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G147" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H147">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I147">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J147" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K147">
-        <v>2.625</v>
+        <v>2.5</v>
       </c>
       <c r="L147">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="M147">
         <v>2.5</v>
       </c>
       <c r="N147">
-        <v>2.375</v>
+        <v>1.75</v>
       </c>
       <c r="O147">
         <v>3.1</v>
       </c>
       <c r="P147">
-        <v>2.75</v>
+        <v>4.5</v>
       </c>
       <c r="Q147">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R147">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="S147">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="T147">
         <v>2</v>
       </c>
       <c r="U147">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="V147">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="W147">
         <v>-1</v>
       </c>
       <c r="X147">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y147">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Z147">
         <v>-1</v>
       </c>
       <c r="AA147">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="AB147">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC147">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="148" spans="1:29">
@@ -14500,7 +14500,7 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>6989530</v>
+        <v>6989531</v>
       </c>
       <c r="C158" t="s">
         <v>28</v>
@@ -14512,49 +14512,49 @@
         <v>45271.375</v>
       </c>
       <c r="F158" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G158" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="H158">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I158">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J158" t="s">
         <v>45</v>
       </c>
       <c r="K158">
-        <v>1.666</v>
+        <v>1.571</v>
       </c>
       <c r="L158">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M158">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="N158">
         <v>1.444</v>
       </c>
       <c r="O158">
-        <v>4.333</v>
+        <v>4.2</v>
       </c>
       <c r="P158">
-        <v>5.25</v>
+        <v>5.75</v>
       </c>
       <c r="Q158">
-        <v>-1</v>
+        <v>-1.25</v>
       </c>
       <c r="R158">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="S158">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T158">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U158">
         <v>1.85</v>
@@ -14572,16 +14572,16 @@
         <v>-1</v>
       </c>
       <c r="Z158">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AA158">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AB158">
-        <v>0.8500000000000001</v>
+        <v>0.425</v>
       </c>
       <c r="AC158">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="159" spans="1:29">
@@ -14589,7 +14589,7 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>6989531</v>
+        <v>6989530</v>
       </c>
       <c r="C159" t="s">
         <v>28</v>
@@ -14601,49 +14601,49 @@
         <v>45271.375</v>
       </c>
       <c r="F159" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G159" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="H159">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I159">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J159" t="s">
         <v>45</v>
       </c>
       <c r="K159">
-        <v>1.571</v>
+        <v>1.666</v>
       </c>
       <c r="L159">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M159">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="N159">
         <v>1.444</v>
       </c>
       <c r="O159">
-        <v>4.2</v>
+        <v>4.333</v>
       </c>
       <c r="P159">
-        <v>5.75</v>
+        <v>5.25</v>
       </c>
       <c r="Q159">
-        <v>-1.25</v>
+        <v>-1</v>
       </c>
       <c r="R159">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="S159">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T159">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U159">
         <v>1.85</v>
@@ -14661,16 +14661,16 @@
         <v>-1</v>
       </c>
       <c r="Z159">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AA159">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AB159">
-        <v>0.425</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC159">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="160" spans="1:29">
@@ -16280,7 +16280,7 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>7018981</v>
+        <v>6989710</v>
       </c>
       <c r="C178" t="s">
         <v>28</v>
@@ -16292,40 +16292,40 @@
         <v>45357.41666666666</v>
       </c>
       <c r="F178" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G178" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="H178">
         <v>0</v>
       </c>
       <c r="I178">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J178" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K178">
+        <v>1.571</v>
+      </c>
+      <c r="L178">
+        <v>3.25</v>
+      </c>
+      <c r="M178">
+        <v>6</v>
+      </c>
+      <c r="N178">
+        <v>1.75</v>
+      </c>
+      <c r="O178">
         <v>3</v>
       </c>
-      <c r="L178">
-        <v>2.8</v>
-      </c>
-      <c r="M178">
-        <v>2.375</v>
-      </c>
-      <c r="N178">
-        <v>2.5</v>
-      </c>
-      <c r="O178">
-        <v>2.8</v>
-      </c>
       <c r="P178">
-        <v>2.75</v>
+        <v>4.75</v>
       </c>
       <c r="Q178">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R178">
         <v>1.8</v>
@@ -16334,22 +16334,22 @@
         <v>2</v>
       </c>
       <c r="T178">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U178">
+        <v>1.85</v>
+      </c>
+      <c r="V178">
         <v>1.95</v>
       </c>
-      <c r="V178">
-        <v>1.85</v>
-      </c>
       <c r="W178">
         <v>-1</v>
       </c>
       <c r="X178">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y178">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Z178">
         <v>-1</v>
@@ -16358,10 +16358,10 @@
         <v>1</v>
       </c>
       <c r="AB178">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC178">
-        <v>-0</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="179" spans="1:29">
@@ -16369,7 +16369,7 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>6989710</v>
+        <v>6989640</v>
       </c>
       <c r="C179" t="s">
         <v>28</v>
@@ -16381,61 +16381,61 @@
         <v>45357.41666666666</v>
       </c>
       <c r="F179" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G179" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H179">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I179">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J179" t="s">
         <v>47</v>
       </c>
       <c r="K179">
-        <v>1.571</v>
+        <v>1.5</v>
       </c>
       <c r="L179">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M179">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="N179">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="O179">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="P179">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="Q179">
         <v>-0.5</v>
       </c>
       <c r="R179">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S179">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="T179">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U179">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="V179">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="W179">
         <v>-1</v>
       </c>
       <c r="X179">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="Y179">
         <v>-1</v>
@@ -16444,13 +16444,13 @@
         <v>-1</v>
       </c>
       <c r="AA179">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB179">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC179">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="180" spans="1:29">
@@ -16458,7 +16458,7 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>6989640</v>
+        <v>7018981</v>
       </c>
       <c r="C180" t="s">
         <v>28</v>
@@ -16470,76 +16470,76 @@
         <v>45357.41666666666</v>
       </c>
       <c r="F180" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="G180" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="H180">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I180">
         <v>2</v>
       </c>
       <c r="J180" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K180">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="L180">
-        <v>3.4</v>
+        <v>2.8</v>
       </c>
       <c r="M180">
-        <v>6.5</v>
+        <v>2.375</v>
       </c>
       <c r="N180">
+        <v>2.5</v>
+      </c>
+      <c r="O180">
+        <v>2.8</v>
+      </c>
+      <c r="P180">
+        <v>2.75</v>
+      </c>
+      <c r="Q180">
+        <v>0</v>
+      </c>
+      <c r="R180">
+        <v>1.8</v>
+      </c>
+      <c r="S180">
+        <v>2</v>
+      </c>
+      <c r="T180">
+        <v>2</v>
+      </c>
+      <c r="U180">
+        <v>1.95</v>
+      </c>
+      <c r="V180">
         <v>1.85</v>
       </c>
-      <c r="O180">
-        <v>3.2</v>
-      </c>
-      <c r="P180">
-        <v>3.75</v>
-      </c>
-      <c r="Q180">
-        <v>-0.5</v>
-      </c>
-      <c r="R180">
-        <v>1.95</v>
-      </c>
-      <c r="S180">
-        <v>1.85</v>
-      </c>
-      <c r="T180">
-        <v>2</v>
-      </c>
-      <c r="U180">
-        <v>1.775</v>
-      </c>
-      <c r="V180">
-        <v>2.025</v>
-      </c>
       <c r="W180">
         <v>-1</v>
       </c>
       <c r="X180">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y180">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="Z180">
         <v>-1</v>
       </c>
       <c r="AA180">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
       <c r="AB180">
-        <v>0.7749999999999999</v>
+        <v>0</v>
       </c>
       <c r="AC180">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="181" spans="1:29">
@@ -16903,7 +16903,7 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>6989335</v>
+        <v>6989714</v>
       </c>
       <c r="C185" t="s">
         <v>28</v>
@@ -16915,13 +16915,13 @@
         <v>45361.41666666666</v>
       </c>
       <c r="F185" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="G185" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="H185">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I185">
         <v>0</v>
@@ -16930,43 +16930,43 @@
         <v>45</v>
       </c>
       <c r="K185">
-        <v>2.1</v>
+        <v>2.6</v>
       </c>
       <c r="L185">
-        <v>2.8</v>
+        <v>3.2</v>
       </c>
       <c r="M185">
-        <v>3.6</v>
+        <v>2.4</v>
       </c>
       <c r="N185">
-        <v>1.285</v>
+        <v>2.6</v>
       </c>
       <c r="O185">
-        <v>4.333</v>
+        <v>3</v>
       </c>
       <c r="P185">
-        <v>11</v>
+        <v>2.5</v>
       </c>
       <c r="Q185">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R185">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="S185">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="T185">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U185">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="V185">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="W185">
-        <v>0.2849999999999999</v>
+        <v>1.6</v>
       </c>
       <c r="X185">
         <v>-1</v>
@@ -16975,16 +16975,16 @@
         <v>-1</v>
       </c>
       <c r="Z185">
-        <v>1.025</v>
+        <v>0.95</v>
       </c>
       <c r="AA185">
         <v>-1</v>
       </c>
       <c r="AB185">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC185">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="186" spans="1:29">
@@ -16992,7 +16992,7 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>6989714</v>
+        <v>6989335</v>
       </c>
       <c r="C186" t="s">
         <v>28</v>
@@ -17004,13 +17004,13 @@
         <v>45361.41666666666</v>
       </c>
       <c r="F186" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="G186" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="H186">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I186">
         <v>0</v>
@@ -17019,43 +17019,43 @@
         <v>45</v>
       </c>
       <c r="K186">
-        <v>2.6</v>
+        <v>2.1</v>
       </c>
       <c r="L186">
-        <v>3.2</v>
+        <v>2.8</v>
       </c>
       <c r="M186">
-        <v>2.4</v>
+        <v>3.6</v>
       </c>
       <c r="N186">
-        <v>2.6</v>
+        <v>1.285</v>
       </c>
       <c r="O186">
-        <v>3</v>
+        <v>4.333</v>
       </c>
       <c r="P186">
-        <v>2.5</v>
+        <v>11</v>
       </c>
       <c r="Q186">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="R186">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="S186">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="T186">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U186">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="V186">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="W186">
-        <v>1.6</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="X186">
         <v>-1</v>
@@ -17064,16 +17064,16 @@
         <v>-1</v>
       </c>
       <c r="Z186">
-        <v>0.95</v>
+        <v>1.025</v>
       </c>
       <c r="AA186">
         <v>-1</v>
       </c>
       <c r="AB186">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC186">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="187" spans="1:29">
@@ -17971,7 +17971,7 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>6989539</v>
+        <v>6989716</v>
       </c>
       <c r="C197" t="s">
         <v>28</v>
@@ -17983,58 +17983,58 @@
         <v>45368.41666666666</v>
       </c>
       <c r="F197" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G197" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H197">
+        <v>2</v>
+      </c>
+      <c r="I197">
         <v>1</v>
-      </c>
-      <c r="I197">
-        <v>0</v>
       </c>
       <c r="J197" t="s">
         <v>45</v>
       </c>
       <c r="K197">
-        <v>2.8</v>
+        <v>1.909</v>
       </c>
       <c r="L197">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="M197">
-        <v>2.4</v>
+        <v>3.75</v>
       </c>
       <c r="N197">
-        <v>2.4</v>
+        <v>1.8</v>
       </c>
       <c r="O197">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="P197">
-        <v>2.7</v>
+        <v>4.333</v>
       </c>
       <c r="Q197">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R197">
+        <v>1.825</v>
+      </c>
+      <c r="S197">
+        <v>1.975</v>
+      </c>
+      <c r="T197">
         <v>1.75</v>
       </c>
-      <c r="S197">
-        <v>2.05</v>
-      </c>
-      <c r="T197">
-        <v>2</v>
-      </c>
       <c r="U197">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V197">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W197">
-        <v>1.4</v>
+        <v>0.8</v>
       </c>
       <c r="X197">
         <v>-1</v>
@@ -18043,16 +18043,16 @@
         <v>-1</v>
       </c>
       <c r="Z197">
-        <v>0.75</v>
+        <v>0.825</v>
       </c>
       <c r="AA197">
         <v>-1</v>
       </c>
       <c r="AB197">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC197">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="198" spans="1:29">
@@ -18060,7 +18060,7 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>6989716</v>
+        <v>7018983</v>
       </c>
       <c r="C198" t="s">
         <v>28</v>
@@ -18072,13 +18072,13 @@
         <v>45368.41666666666</v>
       </c>
       <c r="F198" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="G198" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="H198">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I198">
         <v>1</v>
@@ -18087,43 +18087,43 @@
         <v>45</v>
       </c>
       <c r="K198">
-        <v>1.909</v>
+        <v>1.75</v>
       </c>
       <c r="L198">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="M198">
+        <v>4.2</v>
+      </c>
+      <c r="N198">
+        <v>1.571</v>
+      </c>
+      <c r="O198">
         <v>3.75</v>
       </c>
-      <c r="N198">
-        <v>1.8</v>
-      </c>
-      <c r="O198">
-        <v>3.2</v>
-      </c>
       <c r="P198">
-        <v>4.333</v>
+        <v>5.25</v>
       </c>
       <c r="Q198">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R198">
-        <v>1.825</v>
+        <v>1.725</v>
       </c>
       <c r="S198">
         <v>1.975</v>
       </c>
       <c r="T198">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="U198">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V198">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W198">
-        <v>0.8</v>
+        <v>0.571</v>
       </c>
       <c r="X198">
         <v>-1</v>
@@ -18132,13 +18132,13 @@
         <v>-1</v>
       </c>
       <c r="Z198">
-        <v>0.825</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AA198">
         <v>-1</v>
       </c>
       <c r="AB198">
-        <v>0.825</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC198">
         <v>-1</v>
@@ -18149,7 +18149,7 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>7018983</v>
+        <v>6989539</v>
       </c>
       <c r="C199" t="s">
         <v>28</v>
@@ -18161,58 +18161,58 @@
         <v>45368.41666666666</v>
       </c>
       <c r="F199" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="G199" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="H199">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I199">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J199" t="s">
         <v>45</v>
       </c>
       <c r="K199">
+        <v>2.8</v>
+      </c>
+      <c r="L199">
+        <v>2.9</v>
+      </c>
+      <c r="M199">
+        <v>2.4</v>
+      </c>
+      <c r="N199">
+        <v>2.4</v>
+      </c>
+      <c r="O199">
+        <v>3.25</v>
+      </c>
+      <c r="P199">
+        <v>2.7</v>
+      </c>
+      <c r="Q199">
+        <v>0</v>
+      </c>
+      <c r="R199">
         <v>1.75</v>
       </c>
-      <c r="L199">
-        <v>3.3</v>
-      </c>
-      <c r="M199">
-        <v>4.2</v>
-      </c>
-      <c r="N199">
-        <v>1.571</v>
-      </c>
-      <c r="O199">
-        <v>3.75</v>
-      </c>
-      <c r="P199">
-        <v>5.25</v>
-      </c>
-      <c r="Q199">
-        <v>-0.75</v>
-      </c>
-      <c r="R199">
-        <v>1.725</v>
-      </c>
       <c r="S199">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="T199">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U199">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V199">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W199">
-        <v>0.571</v>
+        <v>1.4</v>
       </c>
       <c r="X199">
         <v>-1</v>
@@ -18221,16 +18221,16 @@
         <v>-1</v>
       </c>
       <c r="Z199">
-        <v>0.7250000000000001</v>
+        <v>0.75</v>
       </c>
       <c r="AA199">
         <v>-1</v>
       </c>
       <c r="AB199">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC199">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="200" spans="1:29">
@@ -19306,7 +19306,7 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>6989648</v>
+        <v>6989542</v>
       </c>
       <c r="C212" t="s">
         <v>28</v>
@@ -19318,73 +19318,73 @@
         <v>45381.45833333334</v>
       </c>
       <c r="F212" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="G212" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H212">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I212">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J212" t="s">
         <v>45</v>
       </c>
       <c r="K212">
-        <v>2</v>
+        <v>3.1</v>
       </c>
       <c r="L212">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="M212">
-        <v>3.75</v>
+        <v>2.3</v>
       </c>
       <c r="N212">
-        <v>2</v>
+        <v>3.1</v>
       </c>
       <c r="O212">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="P212">
-        <v>3.75</v>
+        <v>2.3</v>
       </c>
       <c r="Q212">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R212">
-        <v>1.725</v>
+        <v>1.775</v>
       </c>
       <c r="S212">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T212">
         <v>2</v>
       </c>
       <c r="U212">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V212">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="W212">
+        <v>2.1</v>
+      </c>
+      <c r="X212">
+        <v>-1</v>
+      </c>
+      <c r="Y212">
+        <v>-1</v>
+      </c>
+      <c r="Z212">
+        <v>0.7749999999999999</v>
+      </c>
+      <c r="AA212">
+        <v>-1</v>
+      </c>
+      <c r="AB212">
         <v>1</v>
-      </c>
-      <c r="X212">
-        <v>-1</v>
-      </c>
-      <c r="Y212">
-        <v>-1</v>
-      </c>
-      <c r="Z212">
-        <v>0.7250000000000001</v>
-      </c>
-      <c r="AA212">
-        <v>-1</v>
-      </c>
-      <c r="AB212">
-        <v>0.825</v>
       </c>
       <c r="AC212">
         <v>-1</v>
@@ -19395,7 +19395,7 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>6989542</v>
+        <v>6989648</v>
       </c>
       <c r="C213" t="s">
         <v>28</v>
@@ -19407,58 +19407,58 @@
         <v>45381.45833333334</v>
       </c>
       <c r="F213" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G213" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H213">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I213">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J213" t="s">
         <v>45</v>
       </c>
       <c r="K213">
-        <v>3.1</v>
+        <v>2</v>
       </c>
       <c r="L213">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="M213">
-        <v>2.3</v>
+        <v>3.75</v>
       </c>
       <c r="N213">
-        <v>3.1</v>
+        <v>2</v>
       </c>
       <c r="O213">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="P213">
-        <v>2.3</v>
+        <v>3.75</v>
       </c>
       <c r="Q213">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R213">
-        <v>1.775</v>
+        <v>1.725</v>
       </c>
       <c r="S213">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T213">
         <v>2</v>
       </c>
       <c r="U213">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V213">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="W213">
-        <v>2.1</v>
+        <v>1</v>
       </c>
       <c r="X213">
         <v>-1</v>
@@ -19467,13 +19467,13 @@
         <v>-1</v>
       </c>
       <c r="Z213">
-        <v>0.7749999999999999</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AA213">
         <v>-1</v>
       </c>
       <c r="AB213">
-        <v>1</v>
+        <v>0.825</v>
       </c>
       <c r="AC213">
         <v>-1</v>
@@ -19840,7 +19840,7 @@
         <v>216</v>
       </c>
       <c r="B218">
-        <v>8044572</v>
+        <v>6989722</v>
       </c>
       <c r="C218" t="s">
         <v>28</v>
@@ -19852,37 +19852,37 @@
         <v>45385.45833333334</v>
       </c>
       <c r="F218" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="G218" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="H218">
         <v>0</v>
       </c>
       <c r="I218">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J218" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K218">
-        <v>2</v>
+        <v>2.375</v>
       </c>
       <c r="L218">
-        <v>2.875</v>
+        <v>2.8</v>
       </c>
       <c r="M218">
-        <v>3.8</v>
+        <v>3</v>
       </c>
       <c r="N218">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="O218">
-        <v>2.75</v>
+        <v>2.625</v>
       </c>
       <c r="P218">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="Q218">
         <v>-0.25</v>
@@ -19894,34 +19894,34 @@
         <v>1.75</v>
       </c>
       <c r="T218">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U218">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="V218">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="W218">
         <v>-1</v>
       </c>
       <c r="X218">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="Y218">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z218">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA218">
-        <v>0.75</v>
+        <v>0.375</v>
       </c>
       <c r="AB218">
         <v>-1</v>
       </c>
       <c r="AC218">
-        <v>0.7749999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="219" spans="1:29">
@@ -19929,7 +19929,7 @@
         <v>217</v>
       </c>
       <c r="B219">
-        <v>7018986</v>
+        <v>8044572</v>
       </c>
       <c r="C219" t="s">
         <v>28</v>
@@ -19941,46 +19941,46 @@
         <v>45385.45833333334</v>
       </c>
       <c r="F219" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G219" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="H219">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I219">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J219" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K219">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="L219">
-        <v>2.9</v>
+        <v>2.875</v>
       </c>
       <c r="M219">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="N219">
-        <v>1.95</v>
+        <v>2.3</v>
       </c>
       <c r="O219">
-        <v>2.875</v>
+        <v>2.75</v>
       </c>
       <c r="P219">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="Q219">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R219">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="S219">
-        <v>1.775</v>
+        <v>1.75</v>
       </c>
       <c r="T219">
         <v>2</v>
@@ -19992,25 +19992,25 @@
         <v>1.775</v>
       </c>
       <c r="W219">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="X219">
         <v>-1</v>
       </c>
       <c r="Y219">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z219">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA219">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AB219">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC219">
-        <v>-0</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="220" spans="1:29">
@@ -20018,7 +20018,7 @@
         <v>218</v>
       </c>
       <c r="B220">
-        <v>6989722</v>
+        <v>7018986</v>
       </c>
       <c r="C220" t="s">
         <v>28</v>
@@ -20030,76 +20030,76 @@
         <v>45385.45833333334</v>
       </c>
       <c r="F220" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G220" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="H220">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I220">
         <v>0</v>
       </c>
       <c r="J220" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K220">
-        <v>2.375</v>
+        <v>2.2</v>
       </c>
       <c r="L220">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="M220">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="N220">
-        <v>2.4</v>
+        <v>1.95</v>
       </c>
       <c r="O220">
-        <v>2.625</v>
+        <v>2.875</v>
       </c>
       <c r="P220">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="Q220">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R220">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="S220">
-        <v>1.75</v>
+        <v>1.775</v>
       </c>
       <c r="T220">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U220">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="V220">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="W220">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="X220">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="Y220">
         <v>-1</v>
       </c>
       <c r="Z220">
-        <v>-0.5</v>
+        <v>1.025</v>
       </c>
       <c r="AA220">
-        <v>0.375</v>
+        <v>-1</v>
       </c>
       <c r="AB220">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC220">
-        <v>0.8500000000000001</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="221" spans="1:29">
@@ -21346,6 +21346,302 @@
       </c>
       <c r="AC234">
         <v>-1</v>
+      </c>
+    </row>
+    <row r="235" spans="1:29">
+      <c r="A235" s="1">
+        <v>233</v>
+      </c>
+      <c r="B235">
+        <v>8102896</v>
+      </c>
+      <c r="C235" t="s">
+        <v>28</v>
+      </c>
+      <c r="D235" t="s">
+        <v>28</v>
+      </c>
+      <c r="E235" s="2">
+        <v>45403.5</v>
+      </c>
+      <c r="F235" t="s">
+        <v>44</v>
+      </c>
+      <c r="G235" t="s">
+        <v>32</v>
+      </c>
+      <c r="K235">
+        <v>2</v>
+      </c>
+      <c r="L235">
+        <v>3</v>
+      </c>
+      <c r="M235">
+        <v>3.6</v>
+      </c>
+      <c r="N235">
+        <v>2.15</v>
+      </c>
+      <c r="O235">
+        <v>2.9</v>
+      </c>
+      <c r="P235">
+        <v>3.2</v>
+      </c>
+      <c r="Q235">
+        <v>-0.25</v>
+      </c>
+      <c r="R235">
+        <v>1.9</v>
+      </c>
+      <c r="S235">
+        <v>1.9</v>
+      </c>
+      <c r="T235">
+        <v>1.75</v>
+      </c>
+      <c r="U235">
+        <v>1.875</v>
+      </c>
+      <c r="V235">
+        <v>1.925</v>
+      </c>
+      <c r="W235">
+        <v>0</v>
+      </c>
+      <c r="X235">
+        <v>0</v>
+      </c>
+      <c r="Y235">
+        <v>0</v>
+      </c>
+      <c r="Z235">
+        <v>0</v>
+      </c>
+      <c r="AA235">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="1:29">
+      <c r="A236" s="1">
+        <v>234</v>
+      </c>
+      <c r="B236">
+        <v>8102898</v>
+      </c>
+      <c r="C236" t="s">
+        <v>28</v>
+      </c>
+      <c r="D236" t="s">
+        <v>28</v>
+      </c>
+      <c r="E236" s="2">
+        <v>45403.54166666666</v>
+      </c>
+      <c r="F236" t="s">
+        <v>33</v>
+      </c>
+      <c r="G236" t="s">
+        <v>34</v>
+      </c>
+      <c r="K236">
+        <v>1.333</v>
+      </c>
+      <c r="L236">
+        <v>4.2</v>
+      </c>
+      <c r="M236">
+        <v>8</v>
+      </c>
+      <c r="N236">
+        <v>1.333</v>
+      </c>
+      <c r="O236">
+        <v>3.8</v>
+      </c>
+      <c r="P236">
+        <v>9.5</v>
+      </c>
+      <c r="Q236">
+        <v>-1.5</v>
+      </c>
+      <c r="R236">
+        <v>2.05</v>
+      </c>
+      <c r="S236">
+        <v>1.75</v>
+      </c>
+      <c r="T236">
+        <v>2.25</v>
+      </c>
+      <c r="U236">
+        <v>2</v>
+      </c>
+      <c r="V236">
+        <v>1.8</v>
+      </c>
+      <c r="W236">
+        <v>0</v>
+      </c>
+      <c r="X236">
+        <v>0</v>
+      </c>
+      <c r="Y236">
+        <v>0</v>
+      </c>
+      <c r="Z236">
+        <v>0</v>
+      </c>
+      <c r="AA236">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237" spans="1:29">
+      <c r="A237" s="1">
+        <v>235</v>
+      </c>
+      <c r="B237">
+        <v>8102869</v>
+      </c>
+      <c r="C237" t="s">
+        <v>28</v>
+      </c>
+      <c r="D237" t="s">
+        <v>28</v>
+      </c>
+      <c r="E237" s="2">
+        <v>45403.54166666666</v>
+      </c>
+      <c r="F237" t="s">
+        <v>36</v>
+      </c>
+      <c r="G237" t="s">
+        <v>37</v>
+      </c>
+      <c r="K237">
+        <v>2.1</v>
+      </c>
+      <c r="L237">
+        <v>3</v>
+      </c>
+      <c r="M237">
+        <v>3.3</v>
+      </c>
+      <c r="N237">
+        <v>2.1</v>
+      </c>
+      <c r="O237">
+        <v>3</v>
+      </c>
+      <c r="P237">
+        <v>3.25</v>
+      </c>
+      <c r="Q237">
+        <v>-0.25</v>
+      </c>
+      <c r="R237">
+        <v>1.875</v>
+      </c>
+      <c r="S237">
+        <v>1.925</v>
+      </c>
+      <c r="T237">
+        <v>2</v>
+      </c>
+      <c r="U237">
+        <v>1.775</v>
+      </c>
+      <c r="V237">
+        <v>2.025</v>
+      </c>
+      <c r="W237">
+        <v>0</v>
+      </c>
+      <c r="X237">
+        <v>0</v>
+      </c>
+      <c r="Y237">
+        <v>0</v>
+      </c>
+      <c r="Z237">
+        <v>0</v>
+      </c>
+      <c r="AA237">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="1:29">
+      <c r="A238" s="1">
+        <v>236</v>
+      </c>
+      <c r="B238">
+        <v>8102895</v>
+      </c>
+      <c r="C238" t="s">
+        <v>28</v>
+      </c>
+      <c r="D238" t="s">
+        <v>28</v>
+      </c>
+      <c r="E238" s="2">
+        <v>45403.625</v>
+      </c>
+      <c r="F238" t="s">
+        <v>43</v>
+      </c>
+      <c r="G238" t="s">
+        <v>42</v>
+      </c>
+      <c r="K238">
+        <v>1.5</v>
+      </c>
+      <c r="L238">
+        <v>3.6</v>
+      </c>
+      <c r="M238">
+        <v>6</v>
+      </c>
+      <c r="N238">
+        <v>1.45</v>
+      </c>
+      <c r="O238">
+        <v>3.8</v>
+      </c>
+      <c r="P238">
+        <v>6.5</v>
+      </c>
+      <c r="Q238">
+        <v>-1.25</v>
+      </c>
+      <c r="R238">
+        <v>2</v>
+      </c>
+      <c r="S238">
+        <v>1.8</v>
+      </c>
+      <c r="T238">
+        <v>2.5</v>
+      </c>
+      <c r="U238">
+        <v>1.975</v>
+      </c>
+      <c r="V238">
+        <v>1.825</v>
+      </c>
+      <c r="W238">
+        <v>0</v>
+      </c>
+      <c r="X238">
+        <v>0</v>
+      </c>
+      <c r="Y238">
+        <v>0</v>
+      </c>
+      <c r="Z238">
+        <v>0</v>
+      </c>
+      <c r="AA238">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Serbia Prva Liga/Serbia Prva Liga.xlsx
+++ b/Serbia Prva Liga/Serbia Prva Liga.xlsx
@@ -97,13 +97,13 @@
     <t>PL_AhUnder</t>
   </si>
   <si>
-    <t>8102871</t>
+    <t>8102902</t>
   </si>
   <si>
-    <t>8102872</t>
+    <t>8102900</t>
   </si>
   <si>
-    <t>8102874</t>
+    <t>8102901</t>
   </si>
   <si>
     <t>Serbia Prva Liga</t>
@@ -136,13 +136,13 @@
     <t>FK Graficar Beograd</t>
   </si>
   <si>
-    <t>FK Indija</t>
+    <t>FK Tekstilac Odzaci</t>
   </si>
   <si>
     <t>Radnicki Sremska Mitrovica</t>
   </si>
   <si>
-    <t>FK Tekstilac Odzaci</t>
+    <t>FK Indija</t>
   </si>
   <si>
     <t>RFK Novi Sad 1921</t>
@@ -803,7 +803,7 @@
         <v>33</v>
       </c>
       <c r="F4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G4">
         <v>2</v>
@@ -1233,7 +1233,7 @@
         <v>38</v>
       </c>
       <c r="F9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -1393,7 +1393,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6989663</v>
+        <v>6989662</v>
       </c>
       <c r="C11" t="s">
         <v>30</v>
@@ -1402,76 +1402,76 @@
         <v>45150.52083333334</v>
       </c>
       <c r="E11" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="F11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H11">
         <v>1</v>
       </c>
       <c r="I11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J11">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="K11">
         <v>3</v>
       </c>
       <c r="L11">
+        <v>2.625</v>
+      </c>
+      <c r="M11">
+        <v>2</v>
+      </c>
+      <c r="N11">
         <v>3</v>
       </c>
-      <c r="M11">
-        <v>2.4</v>
-      </c>
-      <c r="N11">
-        <v>2.875</v>
-      </c>
       <c r="O11">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="P11">
         <v>-0.25</v>
       </c>
       <c r="Q11">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="R11">
-        <v>1.7</v>
+        <v>2</v>
       </c>
       <c r="S11">
         <v>2</v>
       </c>
       <c r="T11">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="U11">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="V11">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="W11">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="X11">
         <v>-1</v>
       </c>
       <c r="Y11">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="Z11">
-        <v>0.35</v>
+        <v>-1</v>
       </c>
       <c r="AA11">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AB11">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="12" spans="1:28">
@@ -1479,7 +1479,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6989315</v>
+        <v>6989598</v>
       </c>
       <c r="C12" t="s">
         <v>30</v>
@@ -1488,16 +1488,16 @@
         <v>45150.52083333334</v>
       </c>
       <c r="E12" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F12" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="G12">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I12" t="s">
         <v>49</v>
@@ -1515,7 +1515,7 @@
         <v>1.909</v>
       </c>
       <c r="N12">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="O12">
         <v>3.6</v>
@@ -1530,19 +1530,19 @@
         <v>1.825</v>
       </c>
       <c r="S12">
+        <v>2</v>
+      </c>
+      <c r="T12">
+        <v>1.775</v>
+      </c>
+      <c r="U12">
+        <v>2.025</v>
+      </c>
+      <c r="V12">
+        <v>-1</v>
+      </c>
+      <c r="W12">
         <v>2.25</v>
-      </c>
-      <c r="T12">
-        <v>1.825</v>
-      </c>
-      <c r="U12">
-        <v>1.975</v>
-      </c>
-      <c r="V12">
-        <v>-1</v>
-      </c>
-      <c r="W12">
-        <v>2.2</v>
       </c>
       <c r="X12">
         <v>-1</v>
@@ -1554,10 +1554,10 @@
         <v>0.825</v>
       </c>
       <c r="AA12">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB12">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="13" spans="1:28">
@@ -1565,7 +1565,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6989598</v>
+        <v>6989663</v>
       </c>
       <c r="C13" t="s">
         <v>30</v>
@@ -1574,76 +1574,76 @@
         <v>45150.52083333334</v>
       </c>
       <c r="E13" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="F13" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13" t="s">
         <v>49</v>
       </c>
       <c r="J13">
-        <v>1.909</v>
+        <v>2.25</v>
       </c>
       <c r="K13">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="L13">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="M13">
-        <v>1.909</v>
+        <v>2.4</v>
       </c>
       <c r="N13">
-        <v>3.25</v>
+        <v>2.875</v>
       </c>
       <c r="O13">
-        <v>3.6</v>
+        <v>2.9</v>
       </c>
       <c r="P13">
+        <v>-0.25</v>
+      </c>
+      <c r="Q13">
+        <v>2</v>
+      </c>
+      <c r="R13">
+        <v>1.7</v>
+      </c>
+      <c r="S13">
+        <v>2</v>
+      </c>
+      <c r="T13">
+        <v>1.95</v>
+      </c>
+      <c r="U13">
+        <v>1.85</v>
+      </c>
+      <c r="V13">
+        <v>-1</v>
+      </c>
+      <c r="W13">
+        <v>1.875</v>
+      </c>
+      <c r="X13">
+        <v>-1</v>
+      </c>
+      <c r="Y13">
         <v>-0.5</v>
       </c>
-      <c r="Q13">
-        <v>1.975</v>
-      </c>
-      <c r="R13">
-        <v>1.825</v>
-      </c>
-      <c r="S13">
-        <v>2</v>
-      </c>
-      <c r="T13">
-        <v>1.775</v>
-      </c>
-      <c r="U13">
-        <v>2.025</v>
-      </c>
-      <c r="V13">
-        <v>-1</v>
-      </c>
-      <c r="W13">
-        <v>2.25</v>
-      </c>
-      <c r="X13">
-        <v>-1</v>
-      </c>
-      <c r="Y13">
-        <v>-1</v>
-      </c>
       <c r="Z13">
-        <v>0.825</v>
+        <v>0.35</v>
       </c>
       <c r="AA13">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB13">
-        <v>1.025</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:28">
@@ -1651,7 +1651,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6989662</v>
+        <v>6989315</v>
       </c>
       <c r="C14" t="s">
         <v>30</v>
@@ -1663,70 +1663,70 @@
         <v>42</v>
       </c>
       <c r="F14" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="G14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I14" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J14">
-        <v>2.5</v>
+        <v>1.909</v>
       </c>
       <c r="K14">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="L14">
-        <v>2.625</v>
+        <v>3.6</v>
       </c>
       <c r="M14">
-        <v>2</v>
+        <v>1.909</v>
       </c>
       <c r="N14">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="O14">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P14">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="Q14">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="R14">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S14">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="T14">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="U14">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V14">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="W14">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="X14">
         <v>-1</v>
       </c>
       <c r="Y14">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Z14">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA14">
-        <v>0.8</v>
+        <v>0.825</v>
       </c>
       <c r="AB14">
         <v>-1</v>
@@ -2265,7 +2265,7 @@
         <v>34</v>
       </c>
       <c r="F21" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -2425,7 +2425,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6989500</v>
+        <v>6989499</v>
       </c>
       <c r="C23" t="s">
         <v>30</v>
@@ -2434,76 +2434,76 @@
         <v>45158.5</v>
       </c>
       <c r="E23" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F23" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H23">
         <v>1</v>
       </c>
       <c r="I23" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J23">
-        <v>3.5</v>
+        <v>1.727</v>
       </c>
       <c r="K23">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="L23">
-        <v>1.95</v>
+        <v>4.2</v>
       </c>
       <c r="M23">
-        <v>3.5</v>
+        <v>1.85</v>
       </c>
       <c r="N23">
         <v>3.1</v>
       </c>
       <c r="O23">
-        <v>1.95</v>
+        <v>4</v>
       </c>
       <c r="P23">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="Q23">
+        <v>1.925</v>
+      </c>
+      <c r="R23">
+        <v>1.875</v>
+      </c>
+      <c r="S23">
+        <v>2</v>
+      </c>
+      <c r="T23">
+        <v>2</v>
+      </c>
+      <c r="U23">
         <v>1.8</v>
       </c>
-      <c r="R23">
-        <v>2</v>
-      </c>
-      <c r="S23">
-        <v>2.25</v>
-      </c>
-      <c r="T23">
-        <v>1.75</v>
-      </c>
-      <c r="U23">
-        <v>1.95</v>
-      </c>
       <c r="V23">
         <v>-1</v>
       </c>
       <c r="W23">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="X23">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y23">
+        <v>-1</v>
+      </c>
+      <c r="Z23">
+        <v>0.875</v>
+      </c>
+      <c r="AA23">
+        <v>-1</v>
+      </c>
+      <c r="AB23">
         <v>0.8</v>
-      </c>
-      <c r="Z23">
-        <v>-1</v>
-      </c>
-      <c r="AA23">
-        <v>-0.5</v>
-      </c>
-      <c r="AB23">
-        <v>0.475</v>
       </c>
     </row>
     <row r="24" spans="1:28">
@@ -2511,7 +2511,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6989499</v>
+        <v>6989500</v>
       </c>
       <c r="C24" t="s">
         <v>30</v>
@@ -2520,76 +2520,76 @@
         <v>45158.5</v>
       </c>
       <c r="E24" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F24" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H24">
         <v>1</v>
       </c>
       <c r="I24" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J24">
-        <v>1.727</v>
+        <v>3.5</v>
       </c>
       <c r="K24">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="L24">
-        <v>4.2</v>
+        <v>1.95</v>
       </c>
       <c r="M24">
-        <v>1.85</v>
+        <v>3.5</v>
       </c>
       <c r="N24">
         <v>3.1</v>
       </c>
       <c r="O24">
-        <v>4</v>
+        <v>1.95</v>
       </c>
       <c r="P24">
+        <v>0.5</v>
+      </c>
+      <c r="Q24">
+        <v>1.8</v>
+      </c>
+      <c r="R24">
+        <v>2</v>
+      </c>
+      <c r="S24">
+        <v>2.25</v>
+      </c>
+      <c r="T24">
+        <v>1.75</v>
+      </c>
+      <c r="U24">
+        <v>1.95</v>
+      </c>
+      <c r="V24">
+        <v>-1</v>
+      </c>
+      <c r="W24">
+        <v>2.1</v>
+      </c>
+      <c r="X24">
+        <v>-1</v>
+      </c>
+      <c r="Y24">
+        <v>0.8</v>
+      </c>
+      <c r="Z24">
+        <v>-1</v>
+      </c>
+      <c r="AA24">
         <v>-0.5</v>
       </c>
-      <c r="Q24">
-        <v>1.925</v>
-      </c>
-      <c r="R24">
-        <v>1.875</v>
-      </c>
-      <c r="S24">
-        <v>2</v>
-      </c>
-      <c r="T24">
-        <v>2</v>
-      </c>
-      <c r="U24">
-        <v>1.8</v>
-      </c>
-      <c r="V24">
-        <v>-1</v>
-      </c>
-      <c r="W24">
-        <v>-1</v>
-      </c>
-      <c r="X24">
-        <v>3</v>
-      </c>
-      <c r="Y24">
-        <v>-1</v>
-      </c>
-      <c r="Z24">
-        <v>0.875</v>
-      </c>
-      <c r="AA24">
-        <v>-1</v>
-      </c>
       <c r="AB24">
-        <v>0.8</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="25" spans="1:28">
@@ -2692,7 +2692,7 @@
         <v>45164.5</v>
       </c>
       <c r="E26" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F26" t="s">
         <v>43</v>
@@ -2769,7 +2769,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>7121257</v>
+        <v>7121256</v>
       </c>
       <c r="C27" t="s">
         <v>30</v>
@@ -2778,16 +2778,16 @@
         <v>45164.5</v>
       </c>
       <c r="E27" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="F27" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I27" t="s">
         <v>49</v>
@@ -2796,37 +2796,37 @@
         <v>1.833</v>
       </c>
       <c r="K27">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="L27">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="M27">
-        <v>2.15</v>
+        <v>1.833</v>
       </c>
       <c r="N27">
         <v>3.1</v>
       </c>
       <c r="O27">
-        <v>3.1</v>
+        <v>4.333</v>
       </c>
       <c r="P27">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="Q27">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="R27">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S27">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="T27">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="U27">
-        <v>1.725</v>
+        <v>1.95</v>
       </c>
       <c r="V27">
         <v>-1</v>
@@ -2838,16 +2838,16 @@
         <v>-1</v>
       </c>
       <c r="Y27">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z27">
-        <v>0.4375</v>
+        <v>0.95</v>
       </c>
       <c r="AA27">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB27">
-        <v>0.7250000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:28">
@@ -2855,7 +2855,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>7121256</v>
+        <v>7121257</v>
       </c>
       <c r="C28" t="s">
         <v>30</v>
@@ -2864,16 +2864,16 @@
         <v>45164.5</v>
       </c>
       <c r="E28" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="F28" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I28" t="s">
         <v>49</v>
@@ -2882,37 +2882,37 @@
         <v>1.833</v>
       </c>
       <c r="K28">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="L28">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="M28">
-        <v>1.833</v>
+        <v>2.15</v>
       </c>
       <c r="N28">
         <v>3.1</v>
       </c>
       <c r="O28">
-        <v>4.333</v>
+        <v>3.1</v>
       </c>
       <c r="P28">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="Q28">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="R28">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S28">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="T28">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="U28">
-        <v>1.95</v>
+        <v>1.725</v>
       </c>
       <c r="V28">
         <v>-1</v>
@@ -2924,16 +2924,16 @@
         <v>-1</v>
       </c>
       <c r="Y28">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="Z28">
-        <v>0.95</v>
+        <v>0.4375</v>
       </c>
       <c r="AA28">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB28">
-        <v>0</v>
+        <v>0.7250000000000001</v>
       </c>
     </row>
     <row r="29" spans="1:28">
@@ -2941,7 +2941,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>6989601</v>
+        <v>6989317</v>
       </c>
       <c r="C29" t="s">
         <v>30</v>
@@ -2950,76 +2950,76 @@
         <v>45165.5</v>
       </c>
       <c r="E29" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F29" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="G29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I29" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J29">
-        <v>2.3</v>
+        <v>1.727</v>
       </c>
       <c r="K29">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="L29">
-        <v>2.8</v>
+        <v>4.333</v>
       </c>
       <c r="M29">
-        <v>2.3</v>
+        <v>1.727</v>
       </c>
       <c r="N29">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="O29">
-        <v>2.8</v>
+        <v>4.333</v>
       </c>
       <c r="P29">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="Q29">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="R29">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S29">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="T29">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="U29">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V29">
         <v>-1</v>
       </c>
       <c r="W29">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="X29">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Y29">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z29">
-        <v>0.4</v>
+        <v>0.825</v>
       </c>
       <c r="AA29">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB29">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="30" spans="1:28">
@@ -3027,7 +3027,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>6989317</v>
+        <v>6989601</v>
       </c>
       <c r="C30" t="s">
         <v>30</v>
@@ -3036,76 +3036,76 @@
         <v>45165.5</v>
       </c>
       <c r="E30" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F30" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="G30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H30">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I30" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J30">
-        <v>1.727</v>
+        <v>2.3</v>
       </c>
       <c r="K30">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="L30">
-        <v>4.333</v>
+        <v>2.8</v>
       </c>
       <c r="M30">
-        <v>1.727</v>
+        <v>2.3</v>
       </c>
       <c r="N30">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="O30">
-        <v>4.333</v>
+        <v>2.8</v>
       </c>
       <c r="P30">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="Q30">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="R30">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S30">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="T30">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="U30">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V30">
         <v>-1</v>
       </c>
       <c r="W30">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="X30">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Y30">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="Z30">
-        <v>0.825</v>
+        <v>0.4</v>
       </c>
       <c r="AA30">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB30">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:28">
@@ -3113,7 +3113,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>6989602</v>
+        <v>6989502</v>
       </c>
       <c r="C31" t="s">
         <v>30</v>
@@ -3122,73 +3122,73 @@
         <v>45165.5</v>
       </c>
       <c r="E31" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="F31" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H31">
         <v>2</v>
       </c>
       <c r="I31" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J31">
-        <v>1.666</v>
+        <v>1.7</v>
       </c>
       <c r="K31">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="L31">
         <v>4.5</v>
       </c>
       <c r="M31">
-        <v>1.666</v>
+        <v>1.4</v>
       </c>
       <c r="N31">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="O31">
-        <v>4.5</v>
+        <v>6.5</v>
       </c>
       <c r="P31">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="Q31">
-        <v>1.95</v>
+        <v>1.725</v>
       </c>
       <c r="R31">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S31">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="T31">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="U31">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="V31">
         <v>-1</v>
       </c>
       <c r="W31">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="X31">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Y31">
         <v>-1</v>
       </c>
       <c r="Z31">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA31">
-        <v>0.75</v>
+        <v>0.825</v>
       </c>
       <c r="AB31">
         <v>-1</v>
@@ -3199,7 +3199,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>6989502</v>
+        <v>6989602</v>
       </c>
       <c r="C32" t="s">
         <v>30</v>
@@ -3208,73 +3208,73 @@
         <v>45165.5</v>
       </c>
       <c r="E32" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="F32" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G32">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H32">
         <v>2</v>
       </c>
       <c r="I32" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J32">
-        <v>1.7</v>
+        <v>1.666</v>
       </c>
       <c r="K32">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="L32">
         <v>4.5</v>
       </c>
       <c r="M32">
-        <v>1.4</v>
+        <v>1.666</v>
       </c>
       <c r="N32">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="O32">
-        <v>6.5</v>
+        <v>4.5</v>
       </c>
       <c r="P32">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="Q32">
-        <v>1.725</v>
+        <v>1.95</v>
       </c>
       <c r="R32">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S32">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="T32">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="U32">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="V32">
         <v>-1</v>
       </c>
       <c r="W32">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="X32">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Y32">
         <v>-1</v>
       </c>
       <c r="Z32">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA32">
-        <v>0.825</v>
+        <v>0.75</v>
       </c>
       <c r="AB32">
         <v>-1</v>
@@ -3469,7 +3469,7 @@
         <v>31</v>
       </c>
       <c r="F35" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G35">
         <v>0</v>
@@ -3813,7 +3813,7 @@
         <v>37</v>
       </c>
       <c r="F39" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G39">
         <v>1</v>
@@ -4240,7 +4240,7 @@
         <v>45178.47916666666</v>
       </c>
       <c r="E44" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F44" t="s">
         <v>39</v>
@@ -4412,7 +4412,7 @@
         <v>45179.47916666666</v>
       </c>
       <c r="E46" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F46" t="s">
         <v>46</v>
@@ -4845,7 +4845,7 @@
         <v>38</v>
       </c>
       <c r="F51" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G51">
         <v>2</v>
@@ -5103,7 +5103,7 @@
         <v>43</v>
       </c>
       <c r="F54" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G54">
         <v>1</v>
@@ -5444,7 +5444,7 @@
         <v>45191.45833333334</v>
       </c>
       <c r="E58" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F58" t="s">
         <v>44</v>
@@ -5521,7 +5521,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>7018992</v>
+        <v>6989676</v>
       </c>
       <c r="C59" t="s">
         <v>30</v>
@@ -5530,76 +5530,76 @@
         <v>45191.58333333334</v>
       </c>
       <c r="E59" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="F59" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="G59">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I59" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J59">
-        <v>1.4</v>
+        <v>1.95</v>
       </c>
       <c r="K59">
+        <v>3.1</v>
+      </c>
+      <c r="L59">
+        <v>3.6</v>
+      </c>
+      <c r="M59">
+        <v>1.75</v>
+      </c>
+      <c r="N59">
+        <v>3.25</v>
+      </c>
+      <c r="O59">
         <v>4.2</v>
       </c>
-      <c r="L59">
-        <v>6.5</v>
-      </c>
-      <c r="M59">
-        <v>1.4</v>
-      </c>
-      <c r="N59">
-        <v>4</v>
-      </c>
-      <c r="O59">
-        <v>7</v>
-      </c>
       <c r="P59">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="Q59">
+        <v>1.8</v>
+      </c>
+      <c r="R59">
+        <v>2</v>
+      </c>
+      <c r="S59">
+        <v>2</v>
+      </c>
+      <c r="T59">
+        <v>1.95</v>
+      </c>
+      <c r="U59">
         <v>1.85</v>
       </c>
-      <c r="R59">
-        <v>1.95</v>
-      </c>
-      <c r="S59">
-        <v>2.5</v>
-      </c>
-      <c r="T59">
-        <v>1.85</v>
-      </c>
-      <c r="U59">
-        <v>1.95</v>
-      </c>
       <c r="V59">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="W59">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="X59">
         <v>-1</v>
       </c>
       <c r="Y59">
+        <v>-1</v>
+      </c>
+      <c r="Z59">
+        <v>1</v>
+      </c>
+      <c r="AA59">
+        <v>-1</v>
+      </c>
+      <c r="AB59">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="Z59">
-        <v>-1</v>
-      </c>
-      <c r="AA59">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="AB59">
-        <v>-1</v>
       </c>
     </row>
     <row r="60" spans="1:28">
@@ -5607,7 +5607,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>6989676</v>
+        <v>7018992</v>
       </c>
       <c r="C60" t="s">
         <v>30</v>
@@ -5616,76 +5616,76 @@
         <v>45191.58333333334</v>
       </c>
       <c r="E60" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="F60" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="G60">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I60" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J60">
+        <v>1.4</v>
+      </c>
+      <c r="K60">
+        <v>4.2</v>
+      </c>
+      <c r="L60">
+        <v>6.5</v>
+      </c>
+      <c r="M60">
+        <v>1.4</v>
+      </c>
+      <c r="N60">
+        <v>4</v>
+      </c>
+      <c r="O60">
+        <v>7</v>
+      </c>
+      <c r="P60">
+        <v>-1.25</v>
+      </c>
+      <c r="Q60">
+        <v>1.85</v>
+      </c>
+      <c r="R60">
         <v>1.95</v>
       </c>
-      <c r="K60">
-        <v>3.1</v>
-      </c>
-      <c r="L60">
-        <v>3.6</v>
-      </c>
-      <c r="M60">
-        <v>1.75</v>
-      </c>
-      <c r="N60">
-        <v>3.25</v>
-      </c>
-      <c r="O60">
-        <v>4.2</v>
-      </c>
-      <c r="P60">
-        <v>-0.5</v>
-      </c>
-      <c r="Q60">
-        <v>1.8</v>
-      </c>
-      <c r="R60">
-        <v>2</v>
-      </c>
       <c r="S60">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="T60">
+        <v>1.85</v>
+      </c>
+      <c r="U60">
         <v>1.95</v>
       </c>
-      <c r="U60">
-        <v>1.85</v>
-      </c>
       <c r="V60">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="W60">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="X60">
         <v>-1</v>
       </c>
       <c r="Y60">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z60">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA60">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB60">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="61" spans="1:28">
@@ -5779,7 +5779,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>6989508</v>
+        <v>6989320</v>
       </c>
       <c r="C62" t="s">
         <v>30</v>
@@ -5788,19 +5788,19 @@
         <v>45192.45833333334</v>
       </c>
       <c r="E62" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="F62" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="G62">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H62">
         <v>1</v>
       </c>
       <c r="I62" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J62">
         <v>1.727</v>
@@ -5812,52 +5812,52 @@
         <v>4.333</v>
       </c>
       <c r="M62">
-        <v>1.727</v>
+        <v>1.533</v>
       </c>
       <c r="N62">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="O62">
-        <v>4.333</v>
+        <v>5.5</v>
       </c>
       <c r="P62">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="Q62">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="R62">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="S62">
         <v>2.25</v>
       </c>
       <c r="T62">
+        <v>1.925</v>
+      </c>
+      <c r="U62">
         <v>1.875</v>
       </c>
-      <c r="U62">
-        <v>1.925</v>
-      </c>
       <c r="V62">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="W62">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="X62">
         <v>-1</v>
       </c>
       <c r="Y62">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="Z62">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA62">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AB62">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="63" spans="1:28">
@@ -5874,7 +5874,7 @@
         <v>45192.45833333334</v>
       </c>
       <c r="E63" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F63" t="s">
         <v>39</v>
@@ -6037,7 +6037,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>6989320</v>
+        <v>6989508</v>
       </c>
       <c r="C65" t="s">
         <v>30</v>
@@ -6046,19 +6046,19 @@
         <v>45192.45833333334</v>
       </c>
       <c r="E65" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="F65" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="G65">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H65">
         <v>1</v>
       </c>
       <c r="I65" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J65">
         <v>1.727</v>
@@ -6070,52 +6070,52 @@
         <v>4.333</v>
       </c>
       <c r="M65">
-        <v>1.533</v>
+        <v>1.727</v>
       </c>
       <c r="N65">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="O65">
-        <v>5.5</v>
+        <v>4.333</v>
       </c>
       <c r="P65">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="Q65">
+        <v>1.75</v>
+      </c>
+      <c r="R65">
         <v>1.95</v>
-      </c>
-      <c r="R65">
-        <v>1.85</v>
       </c>
       <c r="S65">
         <v>2.25</v>
       </c>
       <c r="T65">
+        <v>1.875</v>
+      </c>
+      <c r="U65">
         <v>1.925</v>
       </c>
-      <c r="U65">
-        <v>1.875</v>
-      </c>
       <c r="V65">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="W65">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="X65">
         <v>-1</v>
       </c>
       <c r="Y65">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="Z65">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA65">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AB65">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="66" spans="1:28">
@@ -6304,10 +6304,10 @@
         <v>45200.41666666666</v>
       </c>
       <c r="E68" t="s">
+        <v>42</v>
+      </c>
+      <c r="F68" t="s">
         <v>40</v>
-      </c>
-      <c r="F68" t="s">
-        <v>42</v>
       </c>
       <c r="G68">
         <v>1</v>
@@ -6909,7 +6909,7 @@
         <v>34</v>
       </c>
       <c r="F75" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G75">
         <v>0</v>
@@ -7078,7 +7078,7 @@
         <v>45207.41666666666</v>
       </c>
       <c r="E77" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F77" t="s">
         <v>45</v>
@@ -7327,7 +7327,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>6989617</v>
+        <v>6989514</v>
       </c>
       <c r="C80" t="s">
         <v>30</v>
@@ -7336,73 +7336,73 @@
         <v>45208.41666666666</v>
       </c>
       <c r="E80" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="F80" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G80">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H80">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I80" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J80">
-        <v>1.909</v>
+        <v>3.1</v>
       </c>
       <c r="K80">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="L80">
-        <v>3.5</v>
+        <v>2.1</v>
       </c>
       <c r="M80">
-        <v>1.909</v>
+        <v>3.6</v>
       </c>
       <c r="N80">
         <v>3.3</v>
       </c>
       <c r="O80">
-        <v>3.4</v>
+        <v>1.85</v>
       </c>
       <c r="P80">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="Q80">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="R80">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S80">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="T80">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="U80">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="V80">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="W80">
         <v>-1</v>
       </c>
       <c r="X80">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y80">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="Z80">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA80">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="AB80">
         <v>-1</v>
@@ -7413,7 +7413,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>6989514</v>
+        <v>6989617</v>
       </c>
       <c r="C81" t="s">
         <v>30</v>
@@ -7422,73 +7422,73 @@
         <v>45208.41666666666</v>
       </c>
       <c r="E81" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="F81" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G81">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H81">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I81" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J81">
-        <v>3.1</v>
+        <v>1.909</v>
       </c>
       <c r="K81">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="L81">
-        <v>2.1</v>
+        <v>3.5</v>
       </c>
       <c r="M81">
-        <v>3.6</v>
+        <v>1.909</v>
       </c>
       <c r="N81">
         <v>3.3</v>
       </c>
       <c r="O81">
-        <v>1.85</v>
+        <v>3.4</v>
       </c>
       <c r="P81">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="Q81">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="R81">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S81">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="T81">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="U81">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="V81">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="W81">
         <v>-1</v>
       </c>
       <c r="X81">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y81">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="Z81">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA81">
-        <v>0.875</v>
+        <v>1</v>
       </c>
       <c r="AB81">
         <v>-1</v>
@@ -7594,7 +7594,7 @@
         <v>45213.41666666666</v>
       </c>
       <c r="E83" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F83" t="s">
         <v>45</v>
@@ -8015,7 +8015,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>6989619</v>
+        <v>6989684</v>
       </c>
       <c r="C88" t="s">
         <v>30</v>
@@ -8024,76 +8024,76 @@
         <v>45215.41666666666</v>
       </c>
       <c r="E88" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="F88" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G88">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H88">
         <v>0</v>
       </c>
       <c r="I88" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J88">
+        <v>2.4</v>
+      </c>
+      <c r="K88">
+        <v>2.8</v>
+      </c>
+      <c r="L88">
+        <v>2.9</v>
+      </c>
+      <c r="M88">
+        <v>3.75</v>
+      </c>
+      <c r="N88">
+        <v>2.9</v>
+      </c>
+      <c r="O88">
         <v>1.95</v>
       </c>
-      <c r="K88">
-        <v>3.2</v>
-      </c>
-      <c r="L88">
-        <v>3.4</v>
-      </c>
-      <c r="M88">
+      <c r="P88">
+        <v>0.5</v>
+      </c>
+      <c r="Q88">
+        <v>1.8</v>
+      </c>
+      <c r="R88">
+        <v>2</v>
+      </c>
+      <c r="S88">
+        <v>2</v>
+      </c>
+      <c r="T88">
         <v>1.85</v>
       </c>
-      <c r="N88">
-        <v>3.2</v>
-      </c>
-      <c r="O88">
-        <v>3.75</v>
-      </c>
-      <c r="P88">
-        <v>-0.5</v>
-      </c>
-      <c r="Q88">
-        <v>1.9</v>
-      </c>
-      <c r="R88">
-        <v>1.9</v>
-      </c>
-      <c r="S88">
-        <v>2.5</v>
-      </c>
-      <c r="T88">
-        <v>2</v>
-      </c>
       <c r="U88">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V88">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="W88">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="X88">
         <v>-1</v>
       </c>
       <c r="Y88">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z88">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA88">
         <v>-1</v>
       </c>
       <c r="AB88">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="89" spans="1:28">
@@ -8101,7 +8101,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>6989684</v>
+        <v>6989619</v>
       </c>
       <c r="C89" t="s">
         <v>30</v>
@@ -8110,76 +8110,76 @@
         <v>45215.41666666666</v>
       </c>
       <c r="E89" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="F89" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G89">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H89">
         <v>0</v>
       </c>
       <c r="I89" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J89">
-        <v>2.4</v>
+        <v>1.95</v>
       </c>
       <c r="K89">
-        <v>2.8</v>
+        <v>3.2</v>
       </c>
       <c r="L89">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="M89">
+        <v>1.85</v>
+      </c>
+      <c r="N89">
+        <v>3.2</v>
+      </c>
+      <c r="O89">
         <v>3.75</v>
       </c>
-      <c r="N89">
-        <v>2.9</v>
-      </c>
-      <c r="O89">
-        <v>1.95</v>
-      </c>
       <c r="P89">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="Q89">
+        <v>1.9</v>
+      </c>
+      <c r="R89">
+        <v>1.9</v>
+      </c>
+      <c r="S89">
+        <v>2.5</v>
+      </c>
+      <c r="T89">
+        <v>2</v>
+      </c>
+      <c r="U89">
         <v>1.8</v>
       </c>
-      <c r="R89">
-        <v>2</v>
-      </c>
-      <c r="S89">
-        <v>2</v>
-      </c>
-      <c r="T89">
-        <v>1.85</v>
-      </c>
-      <c r="U89">
-        <v>1.95</v>
-      </c>
       <c r="V89">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="W89">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="X89">
         <v>-1</v>
       </c>
       <c r="Y89">
+        <v>-1</v>
+      </c>
+      <c r="Z89">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AA89">
+        <v>-1</v>
+      </c>
+      <c r="AB89">
         <v>0.8</v>
-      </c>
-      <c r="Z89">
-        <v>-1</v>
-      </c>
-      <c r="AA89">
-        <v>-1</v>
-      </c>
-      <c r="AB89">
-        <v>0.95</v>
       </c>
     </row>
     <row r="90" spans="1:28">
@@ -8371,7 +8371,7 @@
         <v>32</v>
       </c>
       <c r="F92" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G92">
         <v>1</v>
@@ -8531,7 +8531,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>6989620</v>
+        <v>6989518</v>
       </c>
       <c r="C94" t="s">
         <v>30</v>
@@ -8540,76 +8540,76 @@
         <v>45221.375</v>
       </c>
       <c r="E94" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="F94" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G94">
         <v>1</v>
       </c>
       <c r="H94">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I94" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J94">
-        <v>1.909</v>
+        <v>3.4</v>
       </c>
       <c r="K94">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="L94">
-        <v>3.7</v>
+        <v>2.05</v>
       </c>
       <c r="M94">
+        <v>3.6</v>
+      </c>
+      <c r="N94">
+        <v>2.9</v>
+      </c>
+      <c r="O94">
         <v>1.95</v>
       </c>
-      <c r="N94">
-        <v>3.1</v>
-      </c>
-      <c r="O94">
-        <v>3.6</v>
-      </c>
       <c r="P94">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="Q94">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="R94">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="S94">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="T94">
+        <v>1.85</v>
+      </c>
+      <c r="U94">
         <v>1.95</v>
       </c>
-      <c r="U94">
-        <v>1.85</v>
-      </c>
       <c r="V94">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="W94">
         <v>-1</v>
       </c>
       <c r="X94">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y94">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="Z94">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA94">
+        <v>-1</v>
+      </c>
+      <c r="AB94">
         <v>0.95</v>
-      </c>
-      <c r="AB94">
-        <v>-1</v>
       </c>
     </row>
     <row r="95" spans="1:28">
@@ -8617,7 +8617,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>6989518</v>
+        <v>6989620</v>
       </c>
       <c r="C95" t="s">
         <v>30</v>
@@ -8626,76 +8626,76 @@
         <v>45221.375</v>
       </c>
       <c r="E95" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="F95" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G95">
         <v>1</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I95" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J95">
-        <v>3.4</v>
+        <v>1.909</v>
       </c>
       <c r="K95">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="L95">
-        <v>2.05</v>
+        <v>3.7</v>
       </c>
       <c r="M95">
+        <v>1.95</v>
+      </c>
+      <c r="N95">
+        <v>3.1</v>
+      </c>
+      <c r="O95">
         <v>3.6</v>
       </c>
-      <c r="N95">
-        <v>2.9</v>
-      </c>
-      <c r="O95">
+      <c r="P95">
+        <v>-0.5</v>
+      </c>
+      <c r="Q95">
+        <v>2</v>
+      </c>
+      <c r="R95">
+        <v>1.8</v>
+      </c>
+      <c r="S95">
+        <v>2.25</v>
+      </c>
+      <c r="T95">
         <v>1.95</v>
       </c>
-      <c r="P95">
-        <v>0.5</v>
-      </c>
-      <c r="Q95">
-        <v>1.775</v>
-      </c>
-      <c r="R95">
-        <v>2.025</v>
-      </c>
-      <c r="S95">
-        <v>2</v>
-      </c>
-      <c r="T95">
+      <c r="U95">
         <v>1.85</v>
       </c>
-      <c r="U95">
-        <v>1.95</v>
-      </c>
       <c r="V95">
+        <v>-1</v>
+      </c>
+      <c r="W95">
+        <v>-1</v>
+      </c>
+      <c r="X95">
         <v>2.6</v>
       </c>
-      <c r="W95">
-        <v>-1</v>
-      </c>
-      <c r="X95">
-        <v>-1</v>
-      </c>
       <c r="Y95">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z95">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA95">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB95">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="96" spans="1:28">
@@ -8798,7 +8798,7 @@
         <v>45222.375</v>
       </c>
       <c r="E97" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F97" t="s">
         <v>33</v>
@@ -9047,7 +9047,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>6989688</v>
+        <v>7018997</v>
       </c>
       <c r="C100" t="s">
         <v>30</v>
@@ -9056,76 +9056,76 @@
         <v>45227.375</v>
       </c>
       <c r="E100" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="F100" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="G100">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H100">
         <v>0</v>
       </c>
       <c r="I100" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J100">
-        <v>2</v>
+        <v>2.6</v>
       </c>
       <c r="K100">
         <v>3</v>
       </c>
       <c r="L100">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="M100">
-        <v>1.909</v>
+        <v>2.4</v>
       </c>
       <c r="N100">
         <v>3</v>
       </c>
       <c r="O100">
-        <v>3.8</v>
+        <v>2.7</v>
       </c>
       <c r="P100">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="Q100">
+        <v>1.775</v>
+      </c>
+      <c r="R100">
+        <v>2.025</v>
+      </c>
+      <c r="S100">
+        <v>2</v>
+      </c>
+      <c r="T100">
+        <v>1.825</v>
+      </c>
+      <c r="U100">
         <v>1.975</v>
       </c>
-      <c r="R100">
-        <v>1.825</v>
-      </c>
-      <c r="S100">
-        <v>2</v>
-      </c>
-      <c r="T100">
-        <v>1.8</v>
-      </c>
-      <c r="U100">
-        <v>2</v>
-      </c>
       <c r="V100">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="W100">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="X100">
         <v>-1</v>
       </c>
       <c r="Y100">
+        <v>0</v>
+      </c>
+      <c r="Z100">
+        <v>0</v>
+      </c>
+      <c r="AA100">
+        <v>-1</v>
+      </c>
+      <c r="AB100">
         <v>0.9750000000000001</v>
-      </c>
-      <c r="Z100">
-        <v>-1</v>
-      </c>
-      <c r="AA100">
-        <v>0</v>
-      </c>
-      <c r="AB100">
-        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:28">
@@ -9133,7 +9133,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>7018997</v>
+        <v>6989689</v>
       </c>
       <c r="C101" t="s">
         <v>30</v>
@@ -9142,10 +9142,10 @@
         <v>45227.375</v>
       </c>
       <c r="E101" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F101" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="G101">
         <v>0</v>
@@ -9157,34 +9157,34 @@
         <v>49</v>
       </c>
       <c r="J101">
-        <v>2.6</v>
+        <v>2.1</v>
       </c>
       <c r="K101">
-        <v>3</v>
+        <v>2.875</v>
       </c>
       <c r="L101">
-        <v>2.5</v>
+        <v>3.4</v>
       </c>
       <c r="M101">
-        <v>2.4</v>
+        <v>2.05</v>
       </c>
       <c r="N101">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="O101">
-        <v>2.7</v>
+        <v>3.6</v>
       </c>
       <c r="P101">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="Q101">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="R101">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="S101">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="T101">
         <v>1.825</v>
@@ -9196,16 +9196,16 @@
         <v>-1</v>
       </c>
       <c r="W101">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="X101">
         <v>-1</v>
       </c>
       <c r="Y101">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="Z101">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AA101">
         <v>-1</v>
@@ -9219,7 +9219,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>6989689</v>
+        <v>6989520</v>
       </c>
       <c r="C102" t="s">
         <v>30</v>
@@ -9228,76 +9228,76 @@
         <v>45227.375</v>
       </c>
       <c r="E102" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F102" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G102">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H102">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I102" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J102">
-        <v>2.1</v>
+        <v>1.615</v>
       </c>
       <c r="K102">
-        <v>2.875</v>
+        <v>3.75</v>
       </c>
       <c r="L102">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="M102">
-        <v>2.05</v>
+        <v>1.55</v>
       </c>
       <c r="N102">
-        <v>2.75</v>
+        <v>3.8</v>
       </c>
       <c r="O102">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="P102">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="Q102">
+        <v>2</v>
+      </c>
+      <c r="R102">
         <v>1.8</v>
       </c>
-      <c r="R102">
-        <v>2</v>
-      </c>
       <c r="S102">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="T102">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="U102">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V102">
-        <v>-1</v>
+        <v>0.55</v>
       </c>
       <c r="W102">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="X102">
         <v>-1</v>
       </c>
       <c r="Y102">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="Z102">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AA102">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB102">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="103" spans="1:28">
@@ -9305,7 +9305,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>6989520</v>
+        <v>6989519</v>
       </c>
       <c r="C103" t="s">
         <v>30</v>
@@ -9314,10 +9314,10 @@
         <v>45227.375</v>
       </c>
       <c r="E103" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F103" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="G103">
         <v>2</v>
@@ -9329,43 +9329,43 @@
         <v>47</v>
       </c>
       <c r="J103">
-        <v>1.615</v>
+        <v>1.571</v>
       </c>
       <c r="K103">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="L103">
-        <v>4.333</v>
+        <v>5</v>
       </c>
       <c r="M103">
-        <v>1.55</v>
+        <v>1.533</v>
       </c>
       <c r="N103">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="O103">
-        <v>4.75</v>
+        <v>5.25</v>
       </c>
       <c r="P103">
         <v>-1</v>
       </c>
       <c r="Q103">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="R103">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S103">
         <v>2.25</v>
       </c>
       <c r="T103">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="U103">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V103">
-        <v>0.55</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="W103">
         <v>-1</v>
@@ -9380,7 +9380,7 @@
         <v>0</v>
       </c>
       <c r="AA103">
-        <v>0.8</v>
+        <v>0.925</v>
       </c>
       <c r="AB103">
         <v>-1</v>
@@ -9391,7 +9391,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>6989519</v>
+        <v>6989688</v>
       </c>
       <c r="C104" t="s">
         <v>30</v>
@@ -9400,40 +9400,40 @@
         <v>45227.375</v>
       </c>
       <c r="E104" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="F104" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G104">
         <v>2</v>
       </c>
       <c r="H104">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I104" t="s">
         <v>47</v>
       </c>
       <c r="J104">
-        <v>1.571</v>
+        <v>2</v>
       </c>
       <c r="K104">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="L104">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="M104">
-        <v>1.533</v>
+        <v>1.909</v>
       </c>
       <c r="N104">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="O104">
-        <v>5.25</v>
+        <v>3.8</v>
       </c>
       <c r="P104">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="Q104">
         <v>1.975</v>
@@ -9442,16 +9442,16 @@
         <v>1.825</v>
       </c>
       <c r="S104">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="T104">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="U104">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V104">
-        <v>0.5329999999999999</v>
+        <v>0.909</v>
       </c>
       <c r="W104">
         <v>-1</v>
@@ -9460,16 +9460,16 @@
         <v>-1</v>
       </c>
       <c r="Y104">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="Z104">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA104">
-        <v>0.925</v>
+        <v>0</v>
       </c>
       <c r="AB104">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:28">
@@ -9658,7 +9658,7 @@
         <v>45235.375</v>
       </c>
       <c r="E107" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F107" t="s">
         <v>31</v>
@@ -9993,7 +9993,7 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>6989521</v>
+        <v>6989691</v>
       </c>
       <c r="C111" t="s">
         <v>30</v>
@@ -10002,76 +10002,76 @@
         <v>45236.375</v>
       </c>
       <c r="E111" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F111" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="G111">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H111">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I111" t="s">
         <v>49</v>
       </c>
       <c r="J111">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="K111">
         <v>3</v>
       </c>
       <c r="L111">
-        <v>2.75</v>
+        <v>3.6</v>
       </c>
       <c r="M111">
-        <v>2.875</v>
+        <v>1.95</v>
       </c>
       <c r="N111">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="O111">
-        <v>2.45</v>
+        <v>3.75</v>
       </c>
       <c r="P111">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="Q111">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="R111">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="S111">
         <v>2</v>
       </c>
       <c r="T111">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="U111">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V111">
         <v>-1</v>
       </c>
       <c r="W111">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="X111">
         <v>-1</v>
       </c>
       <c r="Y111">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z111">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AA111">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB111">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="112" spans="1:28">
@@ -10079,7 +10079,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>6989691</v>
+        <v>6989522</v>
       </c>
       <c r="C112" t="s">
         <v>30</v>
@@ -10088,40 +10088,40 @@
         <v>45236.375</v>
       </c>
       <c r="E112" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F112" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G112">
         <v>0</v>
       </c>
       <c r="H112">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I112" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J112">
-        <v>2</v>
+        <v>1.65</v>
       </c>
       <c r="K112">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="L112">
-        <v>3.6</v>
+        <v>5.5</v>
       </c>
       <c r="M112">
-        <v>1.95</v>
+        <v>2.25</v>
       </c>
       <c r="N112">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="O112">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="P112">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="Q112">
         <v>2</v>
@@ -10133,19 +10133,19 @@
         <v>2</v>
       </c>
       <c r="T112">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="U112">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V112">
         <v>-1</v>
       </c>
       <c r="W112">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="X112">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y112">
         <v>-1</v>
@@ -10157,7 +10157,7 @@
         <v>-1</v>
       </c>
       <c r="AB112">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113" spans="1:28">
@@ -10165,7 +10165,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>6989522</v>
+        <v>6989521</v>
       </c>
       <c r="C113" t="s">
         <v>30</v>
@@ -10174,46 +10174,46 @@
         <v>45236.375</v>
       </c>
       <c r="E113" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="F113" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="G113">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H113">
         <v>1</v>
       </c>
       <c r="I113" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J113">
-        <v>1.65</v>
+        <v>2.4</v>
       </c>
       <c r="K113">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="L113">
-        <v>5.5</v>
+        <v>2.75</v>
       </c>
       <c r="M113">
-        <v>2.25</v>
+        <v>2.875</v>
       </c>
       <c r="N113">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="O113">
-        <v>3.25</v>
+        <v>2.45</v>
       </c>
       <c r="P113">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="Q113">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="R113">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="S113">
         <v>2</v>
@@ -10228,22 +10228,22 @@
         <v>-1</v>
       </c>
       <c r="W113">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="X113">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y113">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Z113">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AA113">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB113">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:28">
@@ -10260,7 +10260,7 @@
         <v>45241.375</v>
       </c>
       <c r="E114" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F114" t="s">
         <v>38</v>
@@ -10432,7 +10432,7 @@
         <v>45241.375</v>
       </c>
       <c r="E116" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F116" t="s">
         <v>33</v>
@@ -10509,7 +10509,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>6989524</v>
+        <v>6989694</v>
       </c>
       <c r="C117" t="s">
         <v>30</v>
@@ -10518,40 +10518,40 @@
         <v>45242.375</v>
       </c>
       <c r="E117" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F117" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G117">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H117">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I117" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J117">
-        <v>3</v>
+        <v>1.333</v>
       </c>
       <c r="K117">
-        <v>2.9</v>
+        <v>4.333</v>
       </c>
       <c r="L117">
-        <v>2.3</v>
+        <v>7.5</v>
       </c>
       <c r="M117">
-        <v>3.2</v>
+        <v>1.333</v>
       </c>
       <c r="N117">
-        <v>3.1</v>
+        <v>4.333</v>
       </c>
       <c r="O117">
-        <v>2.1</v>
+        <v>7.5</v>
       </c>
       <c r="P117">
-        <v>0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="Q117">
         <v>1.95</v>
@@ -10560,7 +10560,7 @@
         <v>1.85</v>
       </c>
       <c r="S117">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="T117">
         <v>1.95</v>
@@ -10569,13 +10569,13 @@
         <v>1.85</v>
       </c>
       <c r="V117">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="W117">
         <v>-1</v>
       </c>
       <c r="X117">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Y117">
         <v>-1</v>
@@ -10584,10 +10584,10 @@
         <v>0.8500000000000001</v>
       </c>
       <c r="AA117">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB117">
-        <v>0.425</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="118" spans="1:28">
@@ -10595,7 +10595,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>6989694</v>
+        <v>6989626</v>
       </c>
       <c r="C118" t="s">
         <v>30</v>
@@ -10604,61 +10604,61 @@
         <v>45242.375</v>
       </c>
       <c r="E118" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="F118" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G118">
         <v>1</v>
       </c>
       <c r="H118">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I118" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J118">
-        <v>1.333</v>
+        <v>1.75</v>
       </c>
       <c r="K118">
-        <v>4.333</v>
+        <v>3.3</v>
       </c>
       <c r="L118">
-        <v>7.5</v>
+        <v>4.2</v>
       </c>
       <c r="M118">
-        <v>1.333</v>
+        <v>1.75</v>
       </c>
       <c r="N118">
-        <v>4.333</v>
+        <v>3.3</v>
       </c>
       <c r="O118">
-        <v>7.5</v>
+        <v>4</v>
       </c>
       <c r="P118">
-        <v>-1.5</v>
+        <v>-0.5</v>
       </c>
       <c r="Q118">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="R118">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="S118">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="T118">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="U118">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V118">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="W118">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="X118">
         <v>-1</v>
@@ -10667,13 +10667,13 @@
         <v>-1</v>
       </c>
       <c r="Z118">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
       <c r="AA118">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB118">
-        <v>0.8500000000000001</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="119" spans="1:28">
@@ -10681,7 +10681,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>6989626</v>
+        <v>6989524</v>
       </c>
       <c r="C119" t="s">
         <v>30</v>
@@ -10690,76 +10690,76 @@
         <v>45242.375</v>
       </c>
       <c r="E119" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="F119" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G119">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H119">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I119" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J119">
-        <v>1.75</v>
+        <v>3</v>
       </c>
       <c r="K119">
-        <v>3.3</v>
+        <v>2.9</v>
       </c>
       <c r="L119">
-        <v>4.2</v>
+        <v>2.3</v>
       </c>
       <c r="M119">
-        <v>1.75</v>
+        <v>3.2</v>
       </c>
       <c r="N119">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="O119">
-        <v>4</v>
+        <v>2.1</v>
       </c>
       <c r="P119">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="Q119">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="R119">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S119">
         <v>2.25</v>
       </c>
       <c r="T119">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="U119">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V119">
         <v>-1</v>
       </c>
       <c r="W119">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="X119">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Y119">
         <v>-1</v>
       </c>
       <c r="Z119">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA119">
         <v>-0.5</v>
       </c>
       <c r="AB119">
-        <v>0.45</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="120" spans="1:28">
@@ -11209,7 +11209,7 @@
         <v>35</v>
       </c>
       <c r="F125" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G125">
         <v>0</v>
@@ -11725,7 +11725,7 @@
         <v>35</v>
       </c>
       <c r="F131" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G131">
         <v>0</v>
@@ -11897,7 +11897,7 @@
         <v>44</v>
       </c>
       <c r="F133" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G133">
         <v>2</v>
@@ -12057,7 +12057,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>6989630</v>
+        <v>6989699</v>
       </c>
       <c r="C135" t="s">
         <v>30</v>
@@ -12066,73 +12066,73 @@
         <v>45256.375</v>
       </c>
       <c r="E135" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F135" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G135">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H135">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I135" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J135">
-        <v>1.444</v>
+        <v>1.833</v>
       </c>
       <c r="K135">
+        <v>3.1</v>
+      </c>
+      <c r="L135">
+        <v>4</v>
+      </c>
+      <c r="M135">
+        <v>1.666</v>
+      </c>
+      <c r="N135">
+        <v>3.25</v>
+      </c>
+      <c r="O135">
+        <v>4.75</v>
+      </c>
+      <c r="P135">
+        <v>-0.75</v>
+      </c>
+      <c r="Q135">
+        <v>1.95</v>
+      </c>
+      <c r="R135">
+        <v>1.85</v>
+      </c>
+      <c r="S135">
+        <v>1.75</v>
+      </c>
+      <c r="T135">
+        <v>1.85</v>
+      </c>
+      <c r="U135">
+        <v>1.95</v>
+      </c>
+      <c r="V135">
+        <v>-1</v>
+      </c>
+      <c r="W135">
+        <v>-1</v>
+      </c>
+      <c r="X135">
         <v>3.75</v>
       </c>
-      <c r="L135">
-        <v>6.5</v>
-      </c>
-      <c r="M135">
-        <v>1.533</v>
-      </c>
-      <c r="N135">
-        <v>3.8</v>
-      </c>
-      <c r="O135">
-        <v>6</v>
-      </c>
-      <c r="P135">
-        <v>-1.25</v>
-      </c>
-      <c r="Q135">
-        <v>2.075</v>
-      </c>
-      <c r="R135">
-        <v>1.725</v>
-      </c>
-      <c r="S135">
-        <v>2.5</v>
-      </c>
-      <c r="T135">
-        <v>1.9</v>
-      </c>
-      <c r="U135">
-        <v>1.9</v>
-      </c>
-      <c r="V135">
-        <v>0.5329999999999999</v>
-      </c>
-      <c r="W135">
-        <v>-1</v>
-      </c>
-      <c r="X135">
-        <v>-1</v>
-      </c>
       <c r="Y135">
-        <v>1.075</v>
+        <v>-1</v>
       </c>
       <c r="Z135">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA135">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB135">
         <v>-1</v>
@@ -12143,7 +12143,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>6989699</v>
+        <v>6989630</v>
       </c>
       <c r="C136" t="s">
         <v>30</v>
@@ -12152,73 +12152,73 @@
         <v>45256.375</v>
       </c>
       <c r="E136" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F136" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G136">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H136">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I136" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J136">
-        <v>1.833</v>
+        <v>1.444</v>
       </c>
       <c r="K136">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="L136">
-        <v>4</v>
+        <v>6.5</v>
       </c>
       <c r="M136">
-        <v>1.666</v>
+        <v>1.533</v>
       </c>
       <c r="N136">
-        <v>3.25</v>
+        <v>3.8</v>
       </c>
       <c r="O136">
-        <v>4.75</v>
+        <v>6</v>
       </c>
       <c r="P136">
-        <v>-0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="Q136">
-        <v>1.95</v>
+        <v>2.075</v>
       </c>
       <c r="R136">
-        <v>1.85</v>
+        <v>1.725</v>
       </c>
       <c r="S136">
-        <v>1.75</v>
+        <v>2.5</v>
       </c>
       <c r="T136">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="U136">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V136">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="W136">
         <v>-1</v>
       </c>
       <c r="X136">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Y136">
-        <v>-1</v>
+        <v>1.075</v>
       </c>
       <c r="Z136">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA136">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB136">
         <v>-1</v>
@@ -12315,7 +12315,7 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>6989526</v>
+        <v>6989629</v>
       </c>
       <c r="C138" t="s">
         <v>30</v>
@@ -12324,13 +12324,13 @@
         <v>45256.375</v>
       </c>
       <c r="E138" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="F138" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G138">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H138">
         <v>0</v>
@@ -12339,43 +12339,43 @@
         <v>47</v>
       </c>
       <c r="J138">
-        <v>1.909</v>
+        <v>2.1</v>
       </c>
       <c r="K138">
-        <v>3</v>
+        <v>2.875</v>
       </c>
       <c r="L138">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M138">
-        <v>2.1</v>
+        <v>1.75</v>
       </c>
       <c r="N138">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="O138">
-        <v>3.5</v>
+        <v>4.75</v>
       </c>
       <c r="P138">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="Q138">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="R138">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="S138">
         <v>2</v>
       </c>
       <c r="T138">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="U138">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="V138">
-        <v>1.1</v>
+        <v>0.75</v>
       </c>
       <c r="W138">
         <v>-1</v>
@@ -12384,16 +12384,16 @@
         <v>-1</v>
       </c>
       <c r="Y138">
-        <v>0.825</v>
+        <v>0.475</v>
       </c>
       <c r="Z138">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA138">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB138">
-        <v>0</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="139" spans="1:28">
@@ -12401,7 +12401,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>6989629</v>
+        <v>6989526</v>
       </c>
       <c r="C139" t="s">
         <v>30</v>
@@ -12410,13 +12410,13 @@
         <v>45256.375</v>
       </c>
       <c r="E139" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="F139" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G139">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H139">
         <v>0</v>
@@ -12425,43 +12425,43 @@
         <v>47</v>
       </c>
       <c r="J139">
+        <v>1.909</v>
+      </c>
+      <c r="K139">
+        <v>3</v>
+      </c>
+      <c r="L139">
+        <v>4</v>
+      </c>
+      <c r="M139">
         <v>2.1</v>
       </c>
-      <c r="K139">
-        <v>2.875</v>
-      </c>
-      <c r="L139">
+      <c r="N139">
+        <v>2.9</v>
+      </c>
+      <c r="O139">
         <v>3.5</v>
       </c>
-      <c r="M139">
-        <v>1.75</v>
-      </c>
-      <c r="N139">
-        <v>3.2</v>
-      </c>
-      <c r="O139">
-        <v>4.75</v>
-      </c>
       <c r="P139">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="Q139">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="R139">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="S139">
         <v>2</v>
       </c>
       <c r="T139">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="U139">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="V139">
-        <v>0.75</v>
+        <v>1.1</v>
       </c>
       <c r="W139">
         <v>-1</v>
@@ -12470,16 +12470,16 @@
         <v>-1</v>
       </c>
       <c r="Y139">
-        <v>0.475</v>
+        <v>0.825</v>
       </c>
       <c r="Z139">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA139">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB139">
-        <v>0.7749999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:28">
@@ -12757,7 +12757,7 @@
         <v>43</v>
       </c>
       <c r="F143" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G143">
         <v>0</v>
@@ -12917,7 +12917,7 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>6989631</v>
+        <v>7019002</v>
       </c>
       <c r="C145" t="s">
         <v>30</v>
@@ -12926,76 +12926,76 @@
         <v>45262.375</v>
       </c>
       <c r="E145" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F145" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="G145">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H145">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I145" t="s">
         <v>49</v>
       </c>
       <c r="J145">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="K145">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="L145">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="M145">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
       <c r="N145">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="O145">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="P145">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="Q145">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="R145">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="S145">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="T145">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="U145">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V145">
         <v>-1</v>
       </c>
       <c r="W145">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="X145">
         <v>-1</v>
       </c>
       <c r="Y145">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z145">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="AA145">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB145">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="146" spans="1:28">
@@ -13003,7 +13003,7 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>7019002</v>
+        <v>6989631</v>
       </c>
       <c r="C146" t="s">
         <v>30</v>
@@ -13012,76 +13012,76 @@
         <v>45262.375</v>
       </c>
       <c r="E146" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F146" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="G146">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H146">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I146" t="s">
         <v>49</v>
       </c>
       <c r="J146">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="K146">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="L146">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="M146">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="N146">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="O146">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="P146">
+        <v>-0.25</v>
+      </c>
+      <c r="Q146">
+        <v>2</v>
+      </c>
+      <c r="R146">
+        <v>1.8</v>
+      </c>
+      <c r="S146">
+        <v>2.25</v>
+      </c>
+      <c r="T146">
+        <v>2</v>
+      </c>
+      <c r="U146">
+        <v>1.8</v>
+      </c>
+      <c r="V146">
+        <v>-1</v>
+      </c>
+      <c r="W146">
+        <v>2</v>
+      </c>
+      <c r="X146">
+        <v>-1</v>
+      </c>
+      <c r="Y146">
         <v>-0.5</v>
       </c>
-      <c r="Q146">
-        <v>1.8</v>
-      </c>
-      <c r="R146">
-        <v>2</v>
-      </c>
-      <c r="S146">
-        <v>2</v>
-      </c>
-      <c r="T146">
-        <v>1.9</v>
-      </c>
-      <c r="U146">
-        <v>1.9</v>
-      </c>
-      <c r="V146">
-        <v>-1</v>
-      </c>
-      <c r="W146">
-        <v>2.1</v>
-      </c>
-      <c r="X146">
-        <v>-1</v>
-      </c>
-      <c r="Y146">
-        <v>-1</v>
-      </c>
       <c r="Z146">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="AA146">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AB146">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="147" spans="1:28">
@@ -13786,7 +13786,7 @@
         <v>45270.375</v>
       </c>
       <c r="E155" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F155" t="s">
         <v>31</v>
@@ -14130,7 +14130,7 @@
         <v>45271.375</v>
       </c>
       <c r="E159" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F159" t="s">
         <v>37</v>
@@ -14305,7 +14305,7 @@
         <v>46</v>
       </c>
       <c r="F161" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G161">
         <v>2</v>
@@ -14735,7 +14735,7 @@
         <v>46</v>
       </c>
       <c r="F166" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G166">
         <v>0</v>
@@ -14821,7 +14821,7 @@
         <v>39</v>
       </c>
       <c r="F167" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G167">
         <v>1</v>
@@ -15076,7 +15076,7 @@
         <v>45352.375</v>
       </c>
       <c r="E170" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F170" t="s">
         <v>43</v>
@@ -15420,7 +15420,7 @@
         <v>45353.375</v>
       </c>
       <c r="E174" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F174" t="s">
         <v>38</v>
@@ -15755,7 +15755,7 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>6989640</v>
+        <v>7018981</v>
       </c>
       <c r="C178" t="s">
         <v>30</v>
@@ -15764,76 +15764,76 @@
         <v>45357.41666666666</v>
       </c>
       <c r="E178" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="F178" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="G178">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H178">
         <v>2</v>
       </c>
       <c r="I178" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J178">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="K178">
-        <v>3.4</v>
+        <v>2.8</v>
       </c>
       <c r="L178">
-        <v>6.5</v>
+        <v>2.375</v>
       </c>
       <c r="M178">
+        <v>2.5</v>
+      </c>
+      <c r="N178">
+        <v>2.8</v>
+      </c>
+      <c r="O178">
+        <v>2.75</v>
+      </c>
+      <c r="P178">
+        <v>0</v>
+      </c>
+      <c r="Q178">
+        <v>1.8</v>
+      </c>
+      <c r="R178">
+        <v>2</v>
+      </c>
+      <c r="S178">
+        <v>2</v>
+      </c>
+      <c r="T178">
+        <v>1.95</v>
+      </c>
+      <c r="U178">
         <v>1.85</v>
       </c>
-      <c r="N178">
-        <v>3.2</v>
-      </c>
-      <c r="O178">
-        <v>3.75</v>
-      </c>
-      <c r="P178">
-        <v>-0.5</v>
-      </c>
-      <c r="Q178">
-        <v>1.95</v>
-      </c>
-      <c r="R178">
-        <v>1.85</v>
-      </c>
-      <c r="S178">
-        <v>2</v>
-      </c>
-      <c r="T178">
-        <v>1.775</v>
-      </c>
-      <c r="U178">
-        <v>2.025</v>
-      </c>
       <c r="V178">
         <v>-1</v>
       </c>
       <c r="W178">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="X178">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="Y178">
         <v>-1</v>
       </c>
       <c r="Z178">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
       <c r="AA178">
-        <v>0.7749999999999999</v>
+        <v>0</v>
       </c>
       <c r="AB178">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179" spans="1:28">
@@ -15853,7 +15853,7 @@
         <v>44</v>
       </c>
       <c r="F179" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G179">
         <v>0</v>
@@ -15927,7 +15927,7 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>7018981</v>
+        <v>6989640</v>
       </c>
       <c r="C180" t="s">
         <v>30</v>
@@ -15936,76 +15936,76 @@
         <v>45357.41666666666</v>
       </c>
       <c r="E180" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="F180" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="G180">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H180">
         <v>2</v>
       </c>
       <c r="I180" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J180">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="K180">
-        <v>2.8</v>
+        <v>3.4</v>
       </c>
       <c r="L180">
-        <v>2.375</v>
+        <v>6.5</v>
       </c>
       <c r="M180">
-        <v>2.5</v>
+        <v>1.85</v>
       </c>
       <c r="N180">
-        <v>2.8</v>
+        <v>3.2</v>
       </c>
       <c r="O180">
-        <v>2.75</v>
+        <v>3.75</v>
       </c>
       <c r="P180">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="Q180">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="R180">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S180">
         <v>2</v>
       </c>
       <c r="T180">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="U180">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="V180">
         <v>-1</v>
       </c>
       <c r="W180">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="X180">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Y180">
         <v>-1</v>
       </c>
       <c r="Z180">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA180">
-        <v>0</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB180">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="181" spans="1:28">
@@ -16013,7 +16013,7 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>6989642</v>
+        <v>6989711</v>
       </c>
       <c r="C181" t="s">
         <v>30</v>
@@ -16022,73 +16022,73 @@
         <v>45357.54166666666</v>
       </c>
       <c r="E181" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F181" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G181">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H181">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I181" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J181">
-        <v>1.909</v>
+        <v>2.25</v>
       </c>
       <c r="K181">
+        <v>2.9</v>
+      </c>
+      <c r="L181">
         <v>3.1</v>
       </c>
-      <c r="L181">
-        <v>3.75</v>
-      </c>
       <c r="M181">
-        <v>1.909</v>
+        <v>2.25</v>
       </c>
       <c r="N181">
-        <v>2.625</v>
+        <v>2.7</v>
       </c>
       <c r="O181">
-        <v>4.75</v>
+        <v>3.4</v>
       </c>
       <c r="P181">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="Q181">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="R181">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S181">
         <v>1.75</v>
       </c>
       <c r="T181">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="U181">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="V181">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="W181">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="X181">
         <v>-1</v>
       </c>
       <c r="Y181">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Z181">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA181">
-        <v>0.5</v>
+        <v>0.475</v>
       </c>
       <c r="AB181">
         <v>-0.5</v>
@@ -16099,7 +16099,7 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>6989334</v>
+        <v>6989642</v>
       </c>
       <c r="C182" t="s">
         <v>30</v>
@@ -16108,76 +16108,76 @@
         <v>45357.54166666666</v>
       </c>
       <c r="E182" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="F182" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="G182">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H182">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I182" t="s">
         <v>49</v>
       </c>
       <c r="J182">
-        <v>1.8</v>
+        <v>1.909</v>
       </c>
       <c r="K182">
         <v>3.1</v>
       </c>
       <c r="L182">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="M182">
-        <v>2.05</v>
+        <v>1.909</v>
       </c>
       <c r="N182">
-        <v>3</v>
+        <v>2.625</v>
       </c>
       <c r="O182">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="P182">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="Q182">
+        <v>1.975</v>
+      </c>
+      <c r="R182">
+        <v>1.825</v>
+      </c>
+      <c r="S182">
+        <v>1.75</v>
+      </c>
+      <c r="T182">
+        <v>2</v>
+      </c>
+      <c r="U182">
         <v>1.8</v>
       </c>
-      <c r="R182">
-        <v>2</v>
-      </c>
-      <c r="S182">
-        <v>1.5</v>
-      </c>
-      <c r="T182">
-        <v>1.8</v>
-      </c>
-      <c r="U182">
-        <v>2</v>
-      </c>
       <c r="V182">
         <v>-1</v>
       </c>
       <c r="W182">
-        <v>2</v>
+        <v>1.625</v>
       </c>
       <c r="X182">
         <v>-1</v>
       </c>
       <c r="Y182">
+        <v>-1</v>
+      </c>
+      <c r="Z182">
+        <v>0.825</v>
+      </c>
+      <c r="AA182">
+        <v>0.5</v>
+      </c>
+      <c r="AB182">
         <v>-0.5</v>
-      </c>
-      <c r="Z182">
-        <v>0.5</v>
-      </c>
-      <c r="AA182">
-        <v>-1</v>
-      </c>
-      <c r="AB182">
-        <v>1</v>
       </c>
     </row>
     <row r="183" spans="1:28">
@@ -16185,7 +16185,7 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>6989711</v>
+        <v>6989334</v>
       </c>
       <c r="C183" t="s">
         <v>30</v>
@@ -16194,76 +16194,76 @@
         <v>45357.54166666666</v>
       </c>
       <c r="E183" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="F183" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G183">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H183">
         <v>0</v>
       </c>
       <c r="I183" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J183">
-        <v>2.25</v>
+        <v>1.8</v>
       </c>
       <c r="K183">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="L183">
-        <v>3.1</v>
+        <v>4.2</v>
       </c>
       <c r="M183">
-        <v>2.25</v>
+        <v>2.05</v>
       </c>
       <c r="N183">
-        <v>2.7</v>
+        <v>3</v>
       </c>
       <c r="O183">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P183">
         <v>-0.25</v>
       </c>
       <c r="Q183">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="R183">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="S183">
-        <v>1.75</v>
+        <v>1.5</v>
       </c>
       <c r="T183">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="U183">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="V183">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="W183">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="X183">
         <v>-1</v>
       </c>
       <c r="Y183">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="Z183">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="AA183">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AB183">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="184" spans="1:28">
@@ -16366,7 +16366,7 @@
         <v>45361.41666666666</v>
       </c>
       <c r="E185" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F185" t="s">
         <v>44</v>
@@ -16452,7 +16452,7 @@
         <v>45361.41666666666</v>
       </c>
       <c r="E186" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F186" t="s">
         <v>35</v>
@@ -16701,7 +16701,7 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>6989536</v>
+        <v>6989537</v>
       </c>
       <c r="C189" t="s">
         <v>30</v>
@@ -16710,76 +16710,76 @@
         <v>45362.41666666666</v>
       </c>
       <c r="E189" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="F189" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="G189">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H189">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I189" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J189">
+        <v>1.8</v>
+      </c>
+      <c r="K189">
+        <v>3.1</v>
+      </c>
+      <c r="L189">
+        <v>4.2</v>
+      </c>
+      <c r="M189">
+        <v>1.5</v>
+      </c>
+      <c r="N189">
+        <v>3.5</v>
+      </c>
+      <c r="O189">
+        <v>6.5</v>
+      </c>
+      <c r="P189">
+        <v>-1</v>
+      </c>
+      <c r="Q189">
+        <v>1.85</v>
+      </c>
+      <c r="R189">
+        <v>1.95</v>
+      </c>
+      <c r="S189">
         <v>2.25</v>
       </c>
-      <c r="K189">
-        <v>2.75</v>
-      </c>
-      <c r="L189">
-        <v>3.25</v>
-      </c>
-      <c r="M189">
-        <v>1.4</v>
-      </c>
-      <c r="N189">
-        <v>4</v>
-      </c>
-      <c r="O189">
-        <v>7</v>
-      </c>
-      <c r="P189">
-        <v>-1.25</v>
-      </c>
-      <c r="Q189">
-        <v>1.875</v>
-      </c>
-      <c r="R189">
-        <v>1.925</v>
-      </c>
-      <c r="S189">
-        <v>2.5</v>
-      </c>
       <c r="T189">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="U189">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="V189">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="W189">
         <v>-1</v>
       </c>
       <c r="X189">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="Y189">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Z189">
-        <v>0.925</v>
+        <v>0</v>
       </c>
       <c r="AA189">
         <v>-1</v>
       </c>
       <c r="AB189">
-        <v>0.925</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="190" spans="1:28">
@@ -16787,7 +16787,7 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>6989643</v>
+        <v>6989536</v>
       </c>
       <c r="C190" t="s">
         <v>30</v>
@@ -16796,76 +16796,76 @@
         <v>45362.41666666666</v>
       </c>
       <c r="E190" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="F190" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G190">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H190">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I190" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J190">
         <v>2.25</v>
       </c>
       <c r="K190">
+        <v>2.75</v>
+      </c>
+      <c r="L190">
         <v>3.25</v>
       </c>
-      <c r="L190">
-        <v>2.75</v>
-      </c>
       <c r="M190">
-        <v>2.3</v>
+        <v>1.4</v>
       </c>
       <c r="N190">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="O190">
-        <v>2.625</v>
+        <v>7</v>
       </c>
       <c r="P190">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="Q190">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="R190">
-        <v>1.725</v>
+        <v>1.925</v>
       </c>
       <c r="S190">
-        <v>1.75</v>
+        <v>2.5</v>
       </c>
       <c r="T190">
-        <v>1.725</v>
+        <v>1.875</v>
       </c>
       <c r="U190">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V190">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="W190">
         <v>-1</v>
       </c>
       <c r="X190">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="Y190">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z190">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA190">
         <v>-1</v>
       </c>
       <c r="AB190">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="191" spans="1:28">
@@ -16873,7 +16873,7 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>6989537</v>
+        <v>6989643</v>
       </c>
       <c r="C191" t="s">
         <v>30</v>
@@ -16882,10 +16882,10 @@
         <v>45362.41666666666</v>
       </c>
       <c r="E191" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="F191" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="G191">
         <v>1</v>
@@ -16897,43 +16897,43 @@
         <v>47</v>
       </c>
       <c r="J191">
-        <v>1.8</v>
+        <v>2.25</v>
       </c>
       <c r="K191">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="L191">
-        <v>4.2</v>
+        <v>2.75</v>
       </c>
       <c r="M191">
-        <v>1.5</v>
+        <v>2.3</v>
       </c>
       <c r="N191">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="O191">
-        <v>6.5</v>
+        <v>2.625</v>
       </c>
       <c r="P191">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="Q191">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="R191">
-        <v>1.95</v>
+        <v>1.725</v>
       </c>
       <c r="S191">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
       <c r="T191">
-        <v>2.025</v>
+        <v>1.725</v>
       </c>
       <c r="U191">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="V191">
-        <v>0.5</v>
+        <v>1.3</v>
       </c>
       <c r="W191">
         <v>-1</v>
@@ -16942,16 +16942,16 @@
         <v>-1</v>
       </c>
       <c r="Y191">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="Z191">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA191">
         <v>-1</v>
       </c>
       <c r="AB191">
-        <v>0.7749999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="192" spans="1:28">
@@ -17656,7 +17656,7 @@
         <v>45374.45833333334</v>
       </c>
       <c r="E200" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F200" t="s">
         <v>34</v>
@@ -18089,7 +18089,7 @@
         <v>45</v>
       </c>
       <c r="F205" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G205">
         <v>1</v>
@@ -18593,7 +18593,7 @@
         <v>209</v>
       </c>
       <c r="B211">
-        <v>6989720</v>
+        <v>6989719</v>
       </c>
       <c r="C211" t="s">
         <v>30</v>
@@ -18602,73 +18602,73 @@
         <v>45381.45833333334</v>
       </c>
       <c r="E211" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F211" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="G211">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H211">
         <v>2</v>
       </c>
       <c r="I211" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J211">
-        <v>1.444</v>
+        <v>1.833</v>
       </c>
       <c r="K211">
+        <v>3</v>
+      </c>
+      <c r="L211">
         <v>4.2</v>
       </c>
-      <c r="L211">
-        <v>5.5</v>
-      </c>
       <c r="M211">
-        <v>1.444</v>
+        <v>1.7</v>
       </c>
       <c r="N211">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O211">
-        <v>6</v>
+        <v>5.25</v>
       </c>
       <c r="P211">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="Q211">
-        <v>1.725</v>
+        <v>2</v>
       </c>
       <c r="R211">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S211">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
       <c r="T211">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="U211">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V211">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="W211">
         <v>-1</v>
       </c>
       <c r="X211">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="Y211">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z211">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA211">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB211">
         <v>-1</v>
@@ -18679,7 +18679,7 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>6989719</v>
+        <v>6989720</v>
       </c>
       <c r="C212" t="s">
         <v>30</v>
@@ -18688,73 +18688,73 @@
         <v>45381.45833333334</v>
       </c>
       <c r="E212" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F212" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="G212">
+        <v>1</v>
+      </c>
+      <c r="H212">
+        <v>2</v>
+      </c>
+      <c r="I212" t="s">
+        <v>48</v>
+      </c>
+      <c r="J212">
+        <v>1.444</v>
+      </c>
+      <c r="K212">
+        <v>4.2</v>
+      </c>
+      <c r="L212">
+        <v>5.5</v>
+      </c>
+      <c r="M212">
+        <v>1.444</v>
+      </c>
+      <c r="N212">
+        <v>4</v>
+      </c>
+      <c r="O212">
+        <v>6</v>
+      </c>
+      <c r="P212">
+        <v>-1</v>
+      </c>
+      <c r="Q212">
+        <v>1.725</v>
+      </c>
+      <c r="R212">
+        <v>1.975</v>
+      </c>
+      <c r="S212">
+        <v>2.25</v>
+      </c>
+      <c r="T212">
+        <v>1.8</v>
+      </c>
+      <c r="U212">
+        <v>2</v>
+      </c>
+      <c r="V212">
+        <v>-1</v>
+      </c>
+      <c r="W212">
+        <v>-1</v>
+      </c>
+      <c r="X212">
         <v>5</v>
       </c>
-      <c r="H212">
-        <v>2</v>
-      </c>
-      <c r="I212" t="s">
-        <v>47</v>
-      </c>
-      <c r="J212">
-        <v>1.833</v>
-      </c>
-      <c r="K212">
-        <v>3</v>
-      </c>
-      <c r="L212">
-        <v>4.2</v>
-      </c>
-      <c r="M212">
-        <v>1.7</v>
-      </c>
-      <c r="N212">
-        <v>3</v>
-      </c>
-      <c r="O212">
-        <v>5.25</v>
-      </c>
-      <c r="P212">
-        <v>-0.75</v>
-      </c>
-      <c r="Q212">
-        <v>2</v>
-      </c>
-      <c r="R212">
-        <v>1.8</v>
-      </c>
-      <c r="S212">
-        <v>1.75</v>
-      </c>
-      <c r="T212">
-        <v>1.9</v>
-      </c>
-      <c r="U212">
-        <v>1.9</v>
-      </c>
-      <c r="V212">
-        <v>0.7</v>
-      </c>
-      <c r="W212">
-        <v>-1</v>
-      </c>
-      <c r="X212">
-        <v>-1</v>
-      </c>
       <c r="Y212">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z212">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA212">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AB212">
         <v>-1</v>
@@ -18949,7 +18949,7 @@
         <v>45</v>
       </c>
       <c r="F215" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G215">
         <v>0</v>
@@ -19293,7 +19293,7 @@
         <v>33</v>
       </c>
       <c r="F219" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G219">
         <v>0</v>
@@ -19376,7 +19376,7 @@
         <v>45385.45833333334</v>
       </c>
       <c r="E220" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F220" t="s">
         <v>32</v>
@@ -19981,7 +19981,7 @@
         <v>41</v>
       </c>
       <c r="F227" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G227">
         <v>1</v>
@@ -20408,7 +20408,7 @@
         <v>45396.45833333334</v>
       </c>
       <c r="E232" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F232" t="s">
         <v>37</v>
@@ -20583,7 +20583,7 @@
         <v>31</v>
       </c>
       <c r="F234" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G234">
         <v>2</v>
@@ -20666,10 +20666,10 @@
         <v>45402.45833333334</v>
       </c>
       <c r="E235" t="s">
+        <v>42</v>
+      </c>
+      <c r="F235" t="s">
         <v>40</v>
-      </c>
-      <c r="F235" t="s">
-        <v>42</v>
       </c>
       <c r="G235">
         <v>0</v>
@@ -21265,43 +21265,43 @@
         <v>30</v>
       </c>
       <c r="D242" s="2">
-        <v>45409.45833333334</v>
+        <v>45410.45833333334</v>
       </c>
       <c r="E242" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F242" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="J242">
-        <v>2.2</v>
+        <v>2.625</v>
       </c>
       <c r="K242">
         <v>3</v>
       </c>
       <c r="L242">
+        <v>2.5</v>
+      </c>
+      <c r="M242">
         <v>3.1</v>
       </c>
-      <c r="M242">
-        <v>2.3</v>
-      </c>
       <c r="N242">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="O242">
-        <v>3.1</v>
+        <v>2.15</v>
       </c>
       <c r="P242">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="Q242">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="R242">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="S242">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="T242">
         <v>2.05</v>
@@ -21330,49 +21330,49 @@
         <v>30</v>
       </c>
       <c r="D243" s="2">
-        <v>45409.45833333334</v>
+        <v>45410.45833333334</v>
       </c>
       <c r="E243" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F243" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="J243">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="K243">
         <v>3</v>
       </c>
       <c r="L243">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M243">
-        <v>2</v>
+        <v>1.444</v>
       </c>
       <c r="N243">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="O243">
-        <v>3.25</v>
+        <v>6.5</v>
       </c>
       <c r="P243">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="Q243">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="R243">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S243">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="T243">
+        <v>1.85</v>
+      </c>
+      <c r="U243">
         <v>1.95</v>
-      </c>
-      <c r="U243">
-        <v>1.85</v>
       </c>
       <c r="V243">
         <v>0</v>
@@ -21395,49 +21395,49 @@
         <v>30</v>
       </c>
       <c r="D244" s="2">
-        <v>45409.45833333334</v>
+        <v>45410.54166666666</v>
       </c>
       <c r="E244" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F244" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="J244">
-        <v>2</v>
+        <v>2.375</v>
       </c>
       <c r="K244">
-        <v>3</v>
+        <v>2.875</v>
       </c>
       <c r="L244">
-        <v>3.5</v>
+        <v>2.875</v>
       </c>
       <c r="M244">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="N244">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="O244">
-        <v>3.5</v>
+        <v>4.75</v>
       </c>
       <c r="P244">
         <v>-0.5</v>
       </c>
       <c r="Q244">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="R244">
+        <v>2</v>
+      </c>
+      <c r="S244">
         <v>1.75</v>
       </c>
-      <c r="S244">
-        <v>2</v>
-      </c>
       <c r="T244">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="U244">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="V244">
         <v>0</v>

--- a/Serbia Prva Liga/Serbia Prva Liga.xlsx
+++ b/Serbia Prva Liga/Serbia Prva Liga.xlsx
@@ -7920,7 +7920,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>6989515</v>
+        <v>6989684</v>
       </c>
       <c r="C87" t="s">
         <v>27</v>
@@ -7929,10 +7929,10 @@
         <v>45215.41666666666</v>
       </c>
       <c r="E87" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="F87" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G87">
         <v>1</v>
@@ -7944,43 +7944,43 @@
         <v>44</v>
       </c>
       <c r="J87">
-        <v>1.5</v>
+        <v>2.4</v>
       </c>
       <c r="K87">
+        <v>2.8</v>
+      </c>
+      <c r="L87">
+        <v>2.9</v>
+      </c>
+      <c r="M87">
         <v>3.75</v>
       </c>
-      <c r="L87">
-        <v>5.5</v>
-      </c>
-      <c r="M87">
-        <v>1.5</v>
-      </c>
       <c r="N87">
-        <v>3.75</v>
+        <v>2.9</v>
       </c>
       <c r="O87">
-        <v>6</v>
+        <v>1.95</v>
       </c>
       <c r="P87">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="Q87">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="R87">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S87">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="T87">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="U87">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V87">
-        <v>0.5</v>
+        <v>2.75</v>
       </c>
       <c r="W87">
         <v>-1</v>
@@ -7989,16 +7989,16 @@
         <v>-1</v>
       </c>
       <c r="Y87">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="Z87">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA87">
         <v>-1</v>
       </c>
       <c r="AB87">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="88" spans="1:28">
@@ -8092,7 +8092,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>6989684</v>
+        <v>6989515</v>
       </c>
       <c r="C89" t="s">
         <v>27</v>
@@ -8101,10 +8101,10 @@
         <v>45215.41666666666</v>
       </c>
       <c r="E89" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="F89" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G89">
         <v>1</v>
@@ -8116,44 +8116,44 @@
         <v>44</v>
       </c>
       <c r="J89">
-        <v>2.4</v>
+        <v>1.5</v>
       </c>
       <c r="K89">
-        <v>2.8</v>
+        <v>3.75</v>
       </c>
       <c r="L89">
-        <v>2.9</v>
+        <v>5.5</v>
       </c>
       <c r="M89">
+        <v>1.5</v>
+      </c>
+      <c r="N89">
         <v>3.75</v>
       </c>
-      <c r="N89">
-        <v>2.9</v>
-      </c>
       <c r="O89">
-        <v>1.95</v>
+        <v>6</v>
       </c>
       <c r="P89">
+        <v>-1</v>
+      </c>
+      <c r="Q89">
+        <v>1.825</v>
+      </c>
+      <c r="R89">
+        <v>1.975</v>
+      </c>
+      <c r="S89">
+        <v>2.25</v>
+      </c>
+      <c r="T89">
+        <v>2</v>
+      </c>
+      <c r="U89">
+        <v>1.8</v>
+      </c>
+      <c r="V89">
         <v>0.5</v>
       </c>
-      <c r="Q89">
-        <v>1.8</v>
-      </c>
-      <c r="R89">
-        <v>2</v>
-      </c>
-      <c r="S89">
-        <v>2</v>
-      </c>
-      <c r="T89">
-        <v>1.85</v>
-      </c>
-      <c r="U89">
-        <v>1.95</v>
-      </c>
-      <c r="V89">
-        <v>2.75</v>
-      </c>
       <c r="W89">
         <v>-1</v>
       </c>
@@ -8161,16 +8161,16 @@
         <v>-1</v>
       </c>
       <c r="Y89">
+        <v>0</v>
+      </c>
+      <c r="Z89">
+        <v>0</v>
+      </c>
+      <c r="AA89">
+        <v>-1</v>
+      </c>
+      <c r="AB89">
         <v>0.8</v>
-      </c>
-      <c r="Z89">
-        <v>-1</v>
-      </c>
-      <c r="AA89">
-        <v>-1</v>
-      </c>
-      <c r="AB89">
-        <v>0.95</v>
       </c>
     </row>
     <row r="90" spans="1:28">
@@ -13854,7 +13854,7 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>6989332</v>
+        <v>6989702</v>
       </c>
       <c r="C156" t="s">
         <v>27</v>
@@ -13863,10 +13863,10 @@
         <v>45270.375</v>
       </c>
       <c r="E156" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F156" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="G156">
         <v>1</v>
@@ -13878,43 +13878,43 @@
         <v>44</v>
       </c>
       <c r="J156">
-        <v>1.4</v>
+        <v>2.875</v>
       </c>
       <c r="K156">
-        <v>4</v>
+        <v>2.875</v>
       </c>
       <c r="L156">
-        <v>7</v>
+        <v>2.4</v>
       </c>
       <c r="M156">
-        <v>1.285</v>
+        <v>2.2</v>
       </c>
       <c r="N156">
-        <v>4.333</v>
+        <v>2.8</v>
       </c>
       <c r="O156">
-        <v>11</v>
+        <v>3.4</v>
       </c>
       <c r="P156">
-        <v>-1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="Q156">
+        <v>1.95</v>
+      </c>
+      <c r="R156">
         <v>1.85</v>
       </c>
-      <c r="R156">
-        <v>1.95</v>
-      </c>
       <c r="S156">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="T156">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="U156">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V156">
-        <v>0.2849999999999999</v>
+        <v>1.2</v>
       </c>
       <c r="W156">
         <v>-1</v>
@@ -13923,16 +13923,16 @@
         <v>-1</v>
       </c>
       <c r="Y156">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Z156">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA156">
         <v>-1</v>
       </c>
       <c r="AB156">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="157" spans="1:28">
@@ -13940,7 +13940,7 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>6989702</v>
+        <v>6989332</v>
       </c>
       <c r="C157" t="s">
         <v>27</v>
@@ -13949,10 +13949,10 @@
         <v>45270.375</v>
       </c>
       <c r="E157" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="F157" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="G157">
         <v>1</v>
@@ -13964,43 +13964,43 @@
         <v>44</v>
       </c>
       <c r="J157">
-        <v>2.875</v>
+        <v>1.4</v>
       </c>
       <c r="K157">
-        <v>2.875</v>
+        <v>4</v>
       </c>
       <c r="L157">
-        <v>2.4</v>
+        <v>7</v>
       </c>
       <c r="M157">
-        <v>2.2</v>
+        <v>1.285</v>
       </c>
       <c r="N157">
-        <v>2.8</v>
+        <v>4.333</v>
       </c>
       <c r="O157">
-        <v>3.4</v>
+        <v>11</v>
       </c>
       <c r="P157">
-        <v>-0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="Q157">
+        <v>1.85</v>
+      </c>
+      <c r="R157">
         <v>1.95</v>
       </c>
-      <c r="R157">
+      <c r="S157">
+        <v>2.5</v>
+      </c>
+      <c r="T157">
+        <v>1.95</v>
+      </c>
+      <c r="U157">
         <v>1.85</v>
       </c>
-      <c r="S157">
-        <v>1.5</v>
-      </c>
-      <c r="T157">
-        <v>1.875</v>
-      </c>
-      <c r="U157">
-        <v>1.925</v>
-      </c>
       <c r="V157">
-        <v>1.2</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="W157">
         <v>-1</v>
@@ -14009,16 +14009,16 @@
         <v>-1</v>
       </c>
       <c r="Y157">
+        <v>-1</v>
+      </c>
+      <c r="Z157">
         <v>0.95</v>
       </c>
-      <c r="Z157">
-        <v>-1</v>
-      </c>
       <c r="AA157">
         <v>-1</v>
       </c>
       <c r="AB157">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="158" spans="1:28">
@@ -19702,7 +19702,7 @@
         <v>222</v>
       </c>
       <c r="B224">
-        <v>6989546</v>
+        <v>6989653</v>
       </c>
       <c r="C224" t="s">
         <v>27</v>
@@ -19711,76 +19711,76 @@
         <v>45389.45833333334</v>
       </c>
       <c r="E224" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F224" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G224">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H224">
+        <v>0</v>
+      </c>
+      <c r="I224" t="s">
+        <v>44</v>
+      </c>
+      <c r="J224">
+        <v>1.4</v>
+      </c>
+      <c r="K224">
         <v>4</v>
       </c>
-      <c r="I224" t="s">
-        <v>45</v>
-      </c>
-      <c r="J224">
-        <v>2.4</v>
-      </c>
-      <c r="K224">
-        <v>3</v>
-      </c>
       <c r="L224">
-        <v>2.75</v>
+        <v>6.5</v>
       </c>
       <c r="M224">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="N224">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="O224">
-        <v>2.75</v>
+        <v>2.375</v>
       </c>
       <c r="P224">
         <v>0</v>
       </c>
       <c r="Q224">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="R224">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="S224">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="T224">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="U224">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V224">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="W224">
         <v>-1</v>
       </c>
       <c r="X224">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Y224">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z224">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA224">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB224">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="225" spans="1:28">
@@ -19788,7 +19788,7 @@
         <v>223</v>
       </c>
       <c r="B225">
-        <v>6989653</v>
+        <v>6989546</v>
       </c>
       <c r="C225" t="s">
         <v>27</v>
@@ -19797,76 +19797,76 @@
         <v>45389.45833333334</v>
       </c>
       <c r="E225" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F225" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G225">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H225">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I225" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J225">
-        <v>1.4</v>
+        <v>2.4</v>
       </c>
       <c r="K225">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L225">
-        <v>6.5</v>
+        <v>2.75</v>
       </c>
       <c r="M225">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="N225">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="O225">
-        <v>2.375</v>
+        <v>2.75</v>
       </c>
       <c r="P225">
         <v>0</v>
       </c>
       <c r="Q225">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="R225">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="S225">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="T225">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="U225">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V225">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="W225">
         <v>-1</v>
       </c>
       <c r="X225">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="Y225">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z225">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA225">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB225">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="226" spans="1:28">

--- a/Serbia Prva Liga/Serbia Prva Liga.xlsx
+++ b/Serbia Prva Liga/Serbia Prva Liga.xlsx
@@ -7920,7 +7920,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>6989684</v>
+        <v>6989515</v>
       </c>
       <c r="C87" t="s">
         <v>27</v>
@@ -7929,10 +7929,10 @@
         <v>45215.41666666666</v>
       </c>
       <c r="E87" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="F87" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G87">
         <v>1</v>
@@ -7944,44 +7944,44 @@
         <v>44</v>
       </c>
       <c r="J87">
-        <v>2.4</v>
+        <v>1.5</v>
       </c>
       <c r="K87">
-        <v>2.8</v>
+        <v>3.75</v>
       </c>
       <c r="L87">
-        <v>2.9</v>
+        <v>5.5</v>
       </c>
       <c r="M87">
+        <v>1.5</v>
+      </c>
+      <c r="N87">
         <v>3.75</v>
       </c>
-      <c r="N87">
-        <v>2.9</v>
-      </c>
       <c r="O87">
-        <v>1.95</v>
+        <v>6</v>
       </c>
       <c r="P87">
+        <v>-1</v>
+      </c>
+      <c r="Q87">
+        <v>1.825</v>
+      </c>
+      <c r="R87">
+        <v>1.975</v>
+      </c>
+      <c r="S87">
+        <v>2.25</v>
+      </c>
+      <c r="T87">
+        <v>2</v>
+      </c>
+      <c r="U87">
+        <v>1.8</v>
+      </c>
+      <c r="V87">
         <v>0.5</v>
       </c>
-      <c r="Q87">
-        <v>1.8</v>
-      </c>
-      <c r="R87">
-        <v>2</v>
-      </c>
-      <c r="S87">
-        <v>2</v>
-      </c>
-      <c r="T87">
-        <v>1.85</v>
-      </c>
-      <c r="U87">
-        <v>1.95</v>
-      </c>
-      <c r="V87">
-        <v>2.75</v>
-      </c>
       <c r="W87">
         <v>-1</v>
       </c>
@@ -7989,16 +7989,16 @@
         <v>-1</v>
       </c>
       <c r="Y87">
+        <v>0</v>
+      </c>
+      <c r="Z87">
+        <v>0</v>
+      </c>
+      <c r="AA87">
+        <v>-1</v>
+      </c>
+      <c r="AB87">
         <v>0.8</v>
-      </c>
-      <c r="Z87">
-        <v>-1</v>
-      </c>
-      <c r="AA87">
-        <v>-1</v>
-      </c>
-      <c r="AB87">
-        <v>0.95</v>
       </c>
     </row>
     <row r="88" spans="1:28">
@@ -8092,7 +8092,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>6989515</v>
+        <v>6989684</v>
       </c>
       <c r="C89" t="s">
         <v>27</v>
@@ -8101,10 +8101,10 @@
         <v>45215.41666666666</v>
       </c>
       <c r="E89" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="F89" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G89">
         <v>1</v>
@@ -8116,43 +8116,43 @@
         <v>44</v>
       </c>
       <c r="J89">
-        <v>1.5</v>
+        <v>2.4</v>
       </c>
       <c r="K89">
+        <v>2.8</v>
+      </c>
+      <c r="L89">
+        <v>2.9</v>
+      </c>
+      <c r="M89">
         <v>3.75</v>
       </c>
-      <c r="L89">
-        <v>5.5</v>
-      </c>
-      <c r="M89">
-        <v>1.5</v>
-      </c>
       <c r="N89">
-        <v>3.75</v>
+        <v>2.9</v>
       </c>
       <c r="O89">
-        <v>6</v>
+        <v>1.95</v>
       </c>
       <c r="P89">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="Q89">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="R89">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S89">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="T89">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="U89">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V89">
-        <v>0.5</v>
+        <v>2.75</v>
       </c>
       <c r="W89">
         <v>-1</v>
@@ -8161,16 +8161,16 @@
         <v>-1</v>
       </c>
       <c r="Y89">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="Z89">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA89">
         <v>-1</v>
       </c>
       <c r="AB89">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="90" spans="1:28">
@@ -13854,7 +13854,7 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>6989702</v>
+        <v>6989332</v>
       </c>
       <c r="C156" t="s">
         <v>27</v>
@@ -13863,10 +13863,10 @@
         <v>45270.375</v>
       </c>
       <c r="E156" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="F156" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="G156">
         <v>1</v>
@@ -13878,43 +13878,43 @@
         <v>44</v>
       </c>
       <c r="J156">
-        <v>2.875</v>
+        <v>1.4</v>
       </c>
       <c r="K156">
-        <v>2.875</v>
+        <v>4</v>
       </c>
       <c r="L156">
-        <v>2.4</v>
+        <v>7</v>
       </c>
       <c r="M156">
-        <v>2.2</v>
+        <v>1.285</v>
       </c>
       <c r="N156">
-        <v>2.8</v>
+        <v>4.333</v>
       </c>
       <c r="O156">
-        <v>3.4</v>
+        <v>11</v>
       </c>
       <c r="P156">
-        <v>-0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="Q156">
+        <v>1.85</v>
+      </c>
+      <c r="R156">
         <v>1.95</v>
       </c>
-      <c r="R156">
+      <c r="S156">
+        <v>2.5</v>
+      </c>
+      <c r="T156">
+        <v>1.95</v>
+      </c>
+      <c r="U156">
         <v>1.85</v>
       </c>
-      <c r="S156">
-        <v>1.5</v>
-      </c>
-      <c r="T156">
-        <v>1.875</v>
-      </c>
-      <c r="U156">
-        <v>1.925</v>
-      </c>
       <c r="V156">
-        <v>1.2</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="W156">
         <v>-1</v>
@@ -13923,16 +13923,16 @@
         <v>-1</v>
       </c>
       <c r="Y156">
+        <v>-1</v>
+      </c>
+      <c r="Z156">
         <v>0.95</v>
       </c>
-      <c r="Z156">
-        <v>-1</v>
-      </c>
       <c r="AA156">
         <v>-1</v>
       </c>
       <c r="AB156">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="157" spans="1:28">
@@ -13940,7 +13940,7 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>6989332</v>
+        <v>6989702</v>
       </c>
       <c r="C157" t="s">
         <v>27</v>
@@ -13949,10 +13949,10 @@
         <v>45270.375</v>
       </c>
       <c r="E157" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F157" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="G157">
         <v>1</v>
@@ -13964,43 +13964,43 @@
         <v>44</v>
       </c>
       <c r="J157">
-        <v>1.4</v>
+        <v>2.875</v>
       </c>
       <c r="K157">
-        <v>4</v>
+        <v>2.875</v>
       </c>
       <c r="L157">
-        <v>7</v>
+        <v>2.4</v>
       </c>
       <c r="M157">
-        <v>1.285</v>
+        <v>2.2</v>
       </c>
       <c r="N157">
-        <v>4.333</v>
+        <v>2.8</v>
       </c>
       <c r="O157">
-        <v>11</v>
+        <v>3.4</v>
       </c>
       <c r="P157">
-        <v>-1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="Q157">
+        <v>1.95</v>
+      </c>
+      <c r="R157">
         <v>1.85</v>
       </c>
-      <c r="R157">
-        <v>1.95</v>
-      </c>
       <c r="S157">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="T157">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="U157">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V157">
-        <v>0.2849999999999999</v>
+        <v>1.2</v>
       </c>
       <c r="W157">
         <v>-1</v>
@@ -14009,16 +14009,16 @@
         <v>-1</v>
       </c>
       <c r="Y157">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Z157">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA157">
         <v>-1</v>
       </c>
       <c r="AB157">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="158" spans="1:28">
@@ -18670,7 +18670,7 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>6989542</v>
+        <v>6989720</v>
       </c>
       <c r="C212" t="s">
         <v>27</v>
@@ -18679,73 +18679,73 @@
         <v>45381.45833333334</v>
       </c>
       <c r="E212" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F212" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G212">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H212">
         <v>2</v>
       </c>
       <c r="I212" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J212">
-        <v>3.1</v>
+        <v>1.444</v>
       </c>
       <c r="K212">
-        <v>2.8</v>
+        <v>4.2</v>
       </c>
       <c r="L212">
-        <v>2.3</v>
+        <v>5.5</v>
       </c>
       <c r="M212">
-        <v>3.1</v>
+        <v>1.444</v>
       </c>
       <c r="N212">
-        <v>2.8</v>
+        <v>4</v>
       </c>
       <c r="O212">
-        <v>2.3</v>
+        <v>6</v>
       </c>
       <c r="P212">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="Q212">
-        <v>1.775</v>
+        <v>1.725</v>
       </c>
       <c r="R212">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="S212">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="T212">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="U212">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="V212">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="W212">
         <v>-1</v>
       </c>
       <c r="X212">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="Y212">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z212">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA212">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AB212">
         <v>-1</v>
@@ -18756,7 +18756,7 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>6989720</v>
+        <v>6989719</v>
       </c>
       <c r="C213" t="s">
         <v>27</v>
@@ -18765,73 +18765,73 @@
         <v>45381.45833333334</v>
       </c>
       <c r="E213" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F213" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="G213">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H213">
         <v>2</v>
       </c>
       <c r="I213" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J213">
-        <v>1.444</v>
+        <v>1.833</v>
       </c>
       <c r="K213">
+        <v>3</v>
+      </c>
+      <c r="L213">
         <v>4.2</v>
       </c>
-      <c r="L213">
-        <v>5.5</v>
-      </c>
       <c r="M213">
-        <v>1.444</v>
+        <v>1.7</v>
       </c>
       <c r="N213">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O213">
-        <v>6</v>
+        <v>5.25</v>
       </c>
       <c r="P213">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="Q213">
-        <v>1.725</v>
+        <v>2</v>
       </c>
       <c r="R213">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S213">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
       <c r="T213">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="U213">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V213">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="W213">
         <v>-1</v>
       </c>
       <c r="X213">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="Y213">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z213">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA213">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB213">
         <v>-1</v>
@@ -18842,7 +18842,7 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>6989719</v>
+        <v>6989542</v>
       </c>
       <c r="C214" t="s">
         <v>27</v>
@@ -18851,13 +18851,13 @@
         <v>45381.45833333334</v>
       </c>
       <c r="E214" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F214" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="G214">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H214">
         <v>2</v>
@@ -18866,43 +18866,43 @@
         <v>44</v>
       </c>
       <c r="J214">
-        <v>1.833</v>
+        <v>3.1</v>
       </c>
       <c r="K214">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="L214">
-        <v>4.2</v>
+        <v>2.3</v>
       </c>
       <c r="M214">
-        <v>1.7</v>
+        <v>3.1</v>
       </c>
       <c r="N214">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="O214">
-        <v>5.25</v>
+        <v>2.3</v>
       </c>
       <c r="P214">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="Q214">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="R214">
+        <v>2.025</v>
+      </c>
+      <c r="S214">
+        <v>2</v>
+      </c>
+      <c r="T214">
+        <v>2</v>
+      </c>
+      <c r="U214">
         <v>1.8</v>
       </c>
-      <c r="S214">
-        <v>1.75</v>
-      </c>
-      <c r="T214">
-        <v>1.9</v>
-      </c>
-      <c r="U214">
-        <v>1.9</v>
-      </c>
       <c r="V214">
-        <v>0.7</v>
+        <v>2.1</v>
       </c>
       <c r="W214">
         <v>-1</v>
@@ -18911,13 +18911,13 @@
         <v>-1</v>
       </c>
       <c r="Y214">
-        <v>1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="Z214">
         <v>-1</v>
       </c>
       <c r="AA214">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AB214">
         <v>-1</v>
@@ -19358,7 +19358,7 @@
         <v>218</v>
       </c>
       <c r="B220">
-        <v>6989722</v>
+        <v>8044572</v>
       </c>
       <c r="C220" t="s">
         <v>27</v>
@@ -19367,37 +19367,37 @@
         <v>45385.45833333334</v>
       </c>
       <c r="E220" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="F220" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="G220">
         <v>0</v>
       </c>
       <c r="H220">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I220" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J220">
-        <v>2.375</v>
+        <v>2</v>
       </c>
       <c r="K220">
-        <v>2.8</v>
+        <v>2.875</v>
       </c>
       <c r="L220">
-        <v>3</v>
+        <v>3.8</v>
       </c>
       <c r="M220">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="N220">
-        <v>2.625</v>
+        <v>2.75</v>
       </c>
       <c r="O220">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="P220">
         <v>-0.25</v>
@@ -19409,34 +19409,34 @@
         <v>1.75</v>
       </c>
       <c r="S220">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="T220">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="U220">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="V220">
         <v>-1</v>
       </c>
       <c r="W220">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="X220">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y220">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z220">
-        <v>0.375</v>
+        <v>0.75</v>
       </c>
       <c r="AA220">
         <v>-1</v>
       </c>
       <c r="AB220">
-        <v>0.8500000000000001</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="221" spans="1:28">
@@ -19444,7 +19444,7 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>8044572</v>
+        <v>6989722</v>
       </c>
       <c r="C221" t="s">
         <v>27</v>
@@ -19453,37 +19453,37 @@
         <v>45385.45833333334</v>
       </c>
       <c r="E221" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="F221" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="G221">
         <v>0</v>
       </c>
       <c r="H221">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I221" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J221">
-        <v>2</v>
+        <v>2.375</v>
       </c>
       <c r="K221">
-        <v>2.875</v>
+        <v>2.8</v>
       </c>
       <c r="L221">
-        <v>3.8</v>
+        <v>3</v>
       </c>
       <c r="M221">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="N221">
-        <v>2.75</v>
+        <v>2.625</v>
       </c>
       <c r="O221">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="P221">
         <v>-0.25</v>
@@ -19495,34 +19495,34 @@
         <v>1.75</v>
       </c>
       <c r="S221">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="T221">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="U221">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="V221">
         <v>-1</v>
       </c>
       <c r="W221">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="X221">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y221">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="Z221">
-        <v>0.75</v>
+        <v>0.375</v>
       </c>
       <c r="AA221">
         <v>-1</v>
       </c>
       <c r="AB221">
-        <v>0.7749999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="222" spans="1:28">
@@ -19702,7 +19702,7 @@
         <v>222</v>
       </c>
       <c r="B224">
-        <v>6989653</v>
+        <v>6989546</v>
       </c>
       <c r="C224" t="s">
         <v>27</v>
@@ -19711,76 +19711,76 @@
         <v>45389.45833333334</v>
       </c>
       <c r="E224" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F224" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G224">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H224">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I224" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J224">
-        <v>1.4</v>
+        <v>2.4</v>
       </c>
       <c r="K224">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L224">
-        <v>6.5</v>
+        <v>2.75</v>
       </c>
       <c r="M224">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="N224">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="O224">
-        <v>2.375</v>
+        <v>2.75</v>
       </c>
       <c r="P224">
         <v>0</v>
       </c>
       <c r="Q224">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="R224">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="S224">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="T224">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="U224">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V224">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="W224">
         <v>-1</v>
       </c>
       <c r="X224">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="Y224">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z224">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA224">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB224">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="225" spans="1:28">
@@ -19788,7 +19788,7 @@
         <v>223</v>
       </c>
       <c r="B225">
-        <v>6989546</v>
+        <v>6989653</v>
       </c>
       <c r="C225" t="s">
         <v>27</v>
@@ -19797,76 +19797,76 @@
         <v>45389.45833333334</v>
       </c>
       <c r="E225" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F225" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G225">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H225">
+        <v>0</v>
+      </c>
+      <c r="I225" t="s">
+        <v>44</v>
+      </c>
+      <c r="J225">
+        <v>1.4</v>
+      </c>
+      <c r="K225">
         <v>4</v>
       </c>
-      <c r="I225" t="s">
-        <v>45</v>
-      </c>
-      <c r="J225">
-        <v>2.4</v>
-      </c>
-      <c r="K225">
-        <v>3</v>
-      </c>
       <c r="L225">
-        <v>2.75</v>
+        <v>6.5</v>
       </c>
       <c r="M225">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="N225">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="O225">
-        <v>2.75</v>
+        <v>2.375</v>
       </c>
       <c r="P225">
         <v>0</v>
       </c>
       <c r="Q225">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="R225">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="S225">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="T225">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="U225">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V225">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="W225">
         <v>-1</v>
       </c>
       <c r="X225">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Y225">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z225">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA225">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB225">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="226" spans="1:28">
@@ -20304,7 +20304,7 @@
         <v>229</v>
       </c>
       <c r="B231">
-        <v>6989655</v>
+        <v>7018988</v>
       </c>
       <c r="C231" t="s">
         <v>27</v>
@@ -20313,58 +20313,58 @@
         <v>45396.45833333334</v>
       </c>
       <c r="E231" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="F231" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="G231">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H231">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I231" t="s">
         <v>44</v>
       </c>
       <c r="J231">
-        <v>1.3</v>
+        <v>1.727</v>
       </c>
       <c r="K231">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="L231">
-        <v>8</v>
+        <v>4.2</v>
       </c>
       <c r="M231">
-        <v>1.181</v>
+        <v>1.6</v>
       </c>
       <c r="N231">
-        <v>5.75</v>
+        <v>3.4</v>
       </c>
       <c r="O231">
-        <v>11</v>
+        <v>5.5</v>
       </c>
       <c r="P231">
-        <v>-2</v>
+        <v>-0.75</v>
       </c>
       <c r="Q231">
-        <v>1.95</v>
+        <v>1.725</v>
       </c>
       <c r="R231">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S231">
-        <v>3.25</v>
+        <v>2.25</v>
       </c>
       <c r="T231">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="U231">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V231">
-        <v>0.181</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="W231">
         <v>-1</v>
@@ -20373,13 +20373,13 @@
         <v>-1</v>
       </c>
       <c r="Y231">
-        <v>0.95</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="Z231">
         <v>-1</v>
       </c>
       <c r="AA231">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AB231">
         <v>-1</v>
@@ -20390,7 +20390,7 @@
         <v>230</v>
       </c>
       <c r="B232">
-        <v>7018988</v>
+        <v>6989655</v>
       </c>
       <c r="C232" t="s">
         <v>27</v>
@@ -20399,58 +20399,58 @@
         <v>45396.45833333334</v>
       </c>
       <c r="E232" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="F232" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="G232">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H232">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I232" t="s">
         <v>44</v>
       </c>
       <c r="J232">
-        <v>1.727</v>
+        <v>1.3</v>
       </c>
       <c r="K232">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="L232">
-        <v>4.2</v>
+        <v>8</v>
       </c>
       <c r="M232">
-        <v>1.6</v>
+        <v>1.181</v>
       </c>
       <c r="N232">
-        <v>3.4</v>
+        <v>5.75</v>
       </c>
       <c r="O232">
-        <v>5.5</v>
+        <v>11</v>
       </c>
       <c r="P232">
-        <v>-0.75</v>
+        <v>-2</v>
       </c>
       <c r="Q232">
-        <v>1.725</v>
+        <v>1.95</v>
       </c>
       <c r="R232">
+        <v>1.85</v>
+      </c>
+      <c r="S232">
+        <v>3.25</v>
+      </c>
+      <c r="T232">
         <v>1.975</v>
       </c>
-      <c r="S232">
-        <v>2.25</v>
-      </c>
-      <c r="T232">
-        <v>1.925</v>
-      </c>
       <c r="U232">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V232">
-        <v>0.6000000000000001</v>
+        <v>0.181</v>
       </c>
       <c r="W232">
         <v>-1</v>
@@ -20459,13 +20459,13 @@
         <v>-1</v>
       </c>
       <c r="Y232">
-        <v>0.7250000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="Z232">
         <v>-1</v>
       </c>
       <c r="AA232">
-        <v>0.925</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB232">
         <v>-1</v>

--- a/Serbia Prva Liga/Serbia Prva Liga.xlsx
+++ b/Serbia Prva Liga/Serbia Prva Liga.xlsx
@@ -127,10 +127,10 @@
     <t>FK Graficar Beograd</t>
   </si>
   <si>
-    <t>FK Tekstilac Odzaci</t>
+    <t>Radnicki Sremska Mitrovica</t>
   </si>
   <si>
-    <t>Radnicki Sremska Mitrovica</t>
+    <t>FK Tekstilac Odzaci</t>
   </si>
   <si>
     <t>FK Indija</t>
@@ -1052,7 +1052,7 @@
         <v>33</v>
       </c>
       <c r="F7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -1224,7 +1224,7 @@
         <v>35</v>
       </c>
       <c r="F9" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -1384,7 +1384,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6989662</v>
+        <v>6989598</v>
       </c>
       <c r="C11" t="s">
         <v>27</v>
@@ -1396,73 +1396,73 @@
         <v>37</v>
       </c>
       <c r="F11" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="G11">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="J11">
-        <v>2.5</v>
+        <v>1.909</v>
       </c>
       <c r="K11">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="L11">
-        <v>2.625</v>
+        <v>3.6</v>
       </c>
       <c r="M11">
-        <v>2</v>
+        <v>1.909</v>
       </c>
       <c r="N11">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="O11">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P11">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="Q11">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="R11">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S11">
         <v>2</v>
       </c>
       <c r="T11">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="U11">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="V11">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="W11">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="X11">
         <v>-1</v>
       </c>
       <c r="Y11">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Z11">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA11">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB11">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="12" spans="1:28">
@@ -1470,7 +1470,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6989598</v>
+        <v>6989663</v>
       </c>
       <c r="C12" t="s">
         <v>27</v>
@@ -1479,76 +1479,76 @@
         <v>45150.52083333334</v>
       </c>
       <c r="E12" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="F12" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12" t="s">
         <v>46</v>
       </c>
       <c r="J12">
-        <v>1.909</v>
+        <v>2.25</v>
       </c>
       <c r="K12">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="L12">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="M12">
-        <v>1.909</v>
+        <v>2.4</v>
       </c>
       <c r="N12">
-        <v>3.25</v>
+        <v>2.875</v>
       </c>
       <c r="O12">
-        <v>3.6</v>
+        <v>2.9</v>
       </c>
       <c r="P12">
+        <v>-0.25</v>
+      </c>
+      <c r="Q12">
+        <v>2</v>
+      </c>
+      <c r="R12">
+        <v>1.7</v>
+      </c>
+      <c r="S12">
+        <v>2</v>
+      </c>
+      <c r="T12">
+        <v>1.95</v>
+      </c>
+      <c r="U12">
+        <v>1.85</v>
+      </c>
+      <c r="V12">
+        <v>-1</v>
+      </c>
+      <c r="W12">
+        <v>1.875</v>
+      </c>
+      <c r="X12">
+        <v>-1</v>
+      </c>
+      <c r="Y12">
         <v>-0.5</v>
       </c>
-      <c r="Q12">
-        <v>1.975</v>
-      </c>
-      <c r="R12">
-        <v>1.825</v>
-      </c>
-      <c r="S12">
-        <v>2</v>
-      </c>
-      <c r="T12">
-        <v>1.775</v>
-      </c>
-      <c r="U12">
-        <v>2.025</v>
-      </c>
-      <c r="V12">
-        <v>-1</v>
-      </c>
-      <c r="W12">
-        <v>2.25</v>
-      </c>
-      <c r="X12">
-        <v>-1</v>
-      </c>
-      <c r="Y12">
-        <v>-1</v>
-      </c>
       <c r="Z12">
-        <v>0.825</v>
+        <v>0.35</v>
       </c>
       <c r="AA12">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB12">
-        <v>1.025</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:28">
@@ -1556,7 +1556,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6989663</v>
+        <v>6989662</v>
       </c>
       <c r="C13" t="s">
         <v>27</v>
@@ -1565,76 +1565,76 @@
         <v>45150.52083333334</v>
       </c>
       <c r="E13" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="F13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H13">
         <v>1</v>
       </c>
       <c r="I13" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J13">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="K13">
         <v>3</v>
       </c>
       <c r="L13">
+        <v>2.625</v>
+      </c>
+      <c r="M13">
+        <v>2</v>
+      </c>
+      <c r="N13">
         <v>3</v>
       </c>
-      <c r="M13">
-        <v>2.4</v>
-      </c>
-      <c r="N13">
-        <v>2.875</v>
-      </c>
       <c r="O13">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="P13">
         <v>-0.25</v>
       </c>
       <c r="Q13">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="R13">
-        <v>1.7</v>
+        <v>2</v>
       </c>
       <c r="S13">
         <v>2</v>
       </c>
       <c r="T13">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="U13">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="V13">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="W13">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="X13">
         <v>-1</v>
       </c>
       <c r="Y13">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="Z13">
-        <v>0.35</v>
+        <v>-1</v>
       </c>
       <c r="AA13">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AB13">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="14" spans="1:28">
@@ -2084,7 +2084,7 @@
         <v>31</v>
       </c>
       <c r="F19" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -2170,7 +2170,7 @@
         <v>35</v>
       </c>
       <c r="F20" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G20">
         <v>3</v>
@@ -2330,7 +2330,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6989500</v>
+        <v>6989499</v>
       </c>
       <c r="C22" t="s">
         <v>27</v>
@@ -2339,76 +2339,76 @@
         <v>45158.5</v>
       </c>
       <c r="E22" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F22" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H22">
         <v>1</v>
       </c>
       <c r="I22" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J22">
-        <v>3.5</v>
+        <v>1.727</v>
       </c>
       <c r="K22">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="L22">
-        <v>1.95</v>
+        <v>4.2</v>
       </c>
       <c r="M22">
-        <v>3.5</v>
+        <v>1.85</v>
       </c>
       <c r="N22">
         <v>3.1</v>
       </c>
       <c r="O22">
-        <v>1.95</v>
+        <v>4</v>
       </c>
       <c r="P22">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="Q22">
+        <v>1.925</v>
+      </c>
+      <c r="R22">
+        <v>1.875</v>
+      </c>
+      <c r="S22">
+        <v>2</v>
+      </c>
+      <c r="T22">
+        <v>2</v>
+      </c>
+      <c r="U22">
         <v>1.8</v>
       </c>
-      <c r="R22">
-        <v>2</v>
-      </c>
-      <c r="S22">
-        <v>2.25</v>
-      </c>
-      <c r="T22">
-        <v>1.75</v>
-      </c>
-      <c r="U22">
-        <v>1.95</v>
-      </c>
       <c r="V22">
         <v>-1</v>
       </c>
       <c r="W22">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="X22">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y22">
+        <v>-1</v>
+      </c>
+      <c r="Z22">
+        <v>0.875</v>
+      </c>
+      <c r="AA22">
+        <v>-1</v>
+      </c>
+      <c r="AB22">
         <v>0.8</v>
-      </c>
-      <c r="Z22">
-        <v>-1</v>
-      </c>
-      <c r="AA22">
-        <v>-0.5</v>
-      </c>
-      <c r="AB22">
-        <v>0.475</v>
       </c>
     </row>
     <row r="23" spans="1:28">
@@ -2416,7 +2416,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6989499</v>
+        <v>6989500</v>
       </c>
       <c r="C23" t="s">
         <v>27</v>
@@ -2425,76 +2425,76 @@
         <v>45158.5</v>
       </c>
       <c r="E23" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F23" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H23">
         <v>1</v>
       </c>
       <c r="I23" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J23">
-        <v>1.727</v>
+        <v>3.5</v>
       </c>
       <c r="K23">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="L23">
-        <v>4.2</v>
+        <v>1.95</v>
       </c>
       <c r="M23">
-        <v>1.85</v>
+        <v>3.5</v>
       </c>
       <c r="N23">
         <v>3.1</v>
       </c>
       <c r="O23">
-        <v>4</v>
+        <v>1.95</v>
       </c>
       <c r="P23">
+        <v>0.5</v>
+      </c>
+      <c r="Q23">
+        <v>1.8</v>
+      </c>
+      <c r="R23">
+        <v>2</v>
+      </c>
+      <c r="S23">
+        <v>2.25</v>
+      </c>
+      <c r="T23">
+        <v>1.75</v>
+      </c>
+      <c r="U23">
+        <v>1.95</v>
+      </c>
+      <c r="V23">
+        <v>-1</v>
+      </c>
+      <c r="W23">
+        <v>2.1</v>
+      </c>
+      <c r="X23">
+        <v>-1</v>
+      </c>
+      <c r="Y23">
+        <v>0.8</v>
+      </c>
+      <c r="Z23">
+        <v>-1</v>
+      </c>
+      <c r="AA23">
         <v>-0.5</v>
       </c>
-      <c r="Q23">
-        <v>1.925</v>
-      </c>
-      <c r="R23">
-        <v>1.875</v>
-      </c>
-      <c r="S23">
-        <v>2</v>
-      </c>
-      <c r="T23">
-        <v>2</v>
-      </c>
-      <c r="U23">
-        <v>1.8</v>
-      </c>
-      <c r="V23">
-        <v>-1</v>
-      </c>
-      <c r="W23">
-        <v>-1</v>
-      </c>
-      <c r="X23">
-        <v>3</v>
-      </c>
-      <c r="Y23">
-        <v>-1</v>
-      </c>
-      <c r="Z23">
-        <v>0.875</v>
-      </c>
-      <c r="AA23">
-        <v>-1</v>
-      </c>
       <c r="AB23">
-        <v>0.8</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="24" spans="1:28">
@@ -2683,7 +2683,7 @@
         <v>45164.5</v>
       </c>
       <c r="E26" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F26" t="s">
         <v>32</v>
@@ -3027,7 +3027,7 @@
         <v>45165.5</v>
       </c>
       <c r="E30" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F30" t="s">
         <v>30</v>
@@ -3104,7 +3104,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>6989502</v>
+        <v>6989602</v>
       </c>
       <c r="C31" t="s">
         <v>27</v>
@@ -3113,73 +3113,73 @@
         <v>45165.5</v>
       </c>
       <c r="E31" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="F31" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="G31">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H31">
         <v>2</v>
       </c>
       <c r="I31" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J31">
-        <v>1.7</v>
+        <v>1.666</v>
       </c>
       <c r="K31">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="L31">
         <v>4.5</v>
       </c>
       <c r="M31">
-        <v>1.4</v>
+        <v>1.666</v>
       </c>
       <c r="N31">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="O31">
-        <v>6.5</v>
+        <v>4.5</v>
       </c>
       <c r="P31">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="Q31">
-        <v>1.725</v>
+        <v>1.95</v>
       </c>
       <c r="R31">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S31">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="T31">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="U31">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="V31">
         <v>-1</v>
       </c>
       <c r="W31">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="X31">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Y31">
         <v>-1</v>
       </c>
       <c r="Z31">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA31">
-        <v>0.825</v>
+        <v>0.75</v>
       </c>
       <c r="AB31">
         <v>-1</v>
@@ -3190,7 +3190,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>6989602</v>
+        <v>6989502</v>
       </c>
       <c r="C32" t="s">
         <v>27</v>
@@ -3199,73 +3199,73 @@
         <v>45165.5</v>
       </c>
       <c r="E32" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="F32" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="G32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H32">
         <v>2</v>
       </c>
       <c r="I32" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J32">
-        <v>1.666</v>
+        <v>1.7</v>
       </c>
       <c r="K32">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="L32">
         <v>4.5</v>
       </c>
       <c r="M32">
-        <v>1.666</v>
+        <v>1.4</v>
       </c>
       <c r="N32">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="O32">
-        <v>4.5</v>
+        <v>6.5</v>
       </c>
       <c r="P32">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="Q32">
-        <v>1.95</v>
+        <v>1.725</v>
       </c>
       <c r="R32">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S32">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="T32">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="U32">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="V32">
         <v>-1</v>
       </c>
       <c r="W32">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="X32">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Y32">
         <v>-1</v>
       </c>
       <c r="Z32">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA32">
-        <v>0.75</v>
+        <v>0.825</v>
       </c>
       <c r="AB32">
         <v>-1</v>
@@ -3804,7 +3804,7 @@
         <v>34</v>
       </c>
       <c r="F39" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G39">
         <v>1</v>
@@ -3878,7 +3878,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>6989670</v>
+        <v>6989318</v>
       </c>
       <c r="C40" t="s">
         <v>27</v>
@@ -3887,76 +3887,76 @@
         <v>45172.58333333334</v>
       </c>
       <c r="E40" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="F40" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G40">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I40" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J40">
-        <v>2.1</v>
+        <v>2.55</v>
       </c>
       <c r="K40">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="L40">
-        <v>3.3</v>
+        <v>2.45</v>
       </c>
       <c r="M40">
-        <v>2.05</v>
+        <v>3.1</v>
       </c>
       <c r="N40">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="O40">
-        <v>3.4</v>
+        <v>2.15</v>
       </c>
       <c r="P40">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="Q40">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="R40">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S40">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="T40">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="U40">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V40">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="W40">
         <v>-1</v>
       </c>
       <c r="X40">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="Y40">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Z40">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA40">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB40">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="41" spans="1:28">
@@ -3964,7 +3964,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>6989318</v>
+        <v>6989670</v>
       </c>
       <c r="C41" t="s">
         <v>27</v>
@@ -3973,76 +3973,76 @@
         <v>45172.58333333334</v>
       </c>
       <c r="E41" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="F41" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G41">
+        <v>1</v>
+      </c>
+      <c r="H41">
+        <v>0</v>
+      </c>
+      <c r="I41" t="s">
+        <v>44</v>
+      </c>
+      <c r="J41">
+        <v>2.1</v>
+      </c>
+      <c r="K41">
         <v>3</v>
       </c>
-      <c r="H41">
-        <v>5</v>
-      </c>
-      <c r="I41" t="s">
-        <v>45</v>
-      </c>
-      <c r="J41">
-        <v>2.55</v>
-      </c>
-      <c r="K41">
-        <v>3.25</v>
-      </c>
       <c r="L41">
-        <v>2.45</v>
+        <v>3.3</v>
       </c>
       <c r="M41">
-        <v>3.1</v>
+        <v>2.05</v>
       </c>
       <c r="N41">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="O41">
-        <v>2.15</v>
+        <v>3.4</v>
       </c>
       <c r="P41">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="Q41">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="R41">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S41">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="T41">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="U41">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V41">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="W41">
         <v>-1</v>
       </c>
       <c r="X41">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="Y41">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z41">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA41">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB41">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="42" spans="1:28">
@@ -4231,7 +4231,7 @@
         <v>45178.47916666666</v>
       </c>
       <c r="E44" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F44" t="s">
         <v>30</v>
@@ -4403,7 +4403,7 @@
         <v>45179.47916666666</v>
       </c>
       <c r="E46" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F46" t="s">
         <v>43</v>
@@ -4480,7 +4480,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>6989672</v>
+        <v>6989505</v>
       </c>
       <c r="C47" t="s">
         <v>27</v>
@@ -4489,76 +4489,76 @@
         <v>45179.47916666666</v>
       </c>
       <c r="E47" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="F47" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G47">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H47">
         <v>1</v>
       </c>
       <c r="I47" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J47">
-        <v>1.615</v>
+        <v>1.222</v>
       </c>
       <c r="K47">
-        <v>3.3</v>
+        <v>5</v>
       </c>
       <c r="L47">
-        <v>5.2</v>
+        <v>10</v>
       </c>
       <c r="M47">
-        <v>1.615</v>
+        <v>1.2</v>
       </c>
       <c r="N47">
-        <v>3.3</v>
+        <v>5.25</v>
       </c>
       <c r="O47">
-        <v>5.25</v>
+        <v>12</v>
       </c>
       <c r="P47">
-        <v>-0.75</v>
+        <v>-2</v>
       </c>
       <c r="Q47">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="R47">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S47">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="T47">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="U47">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="V47">
-        <v>-1</v>
+        <v>0.2</v>
       </c>
       <c r="W47">
         <v>-1</v>
       </c>
       <c r="X47">
-        <v>4.25</v>
+        <v>-1</v>
       </c>
       <c r="Y47">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="Z47">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA47">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB47">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="48" spans="1:28">
@@ -4566,7 +4566,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>6989505</v>
+        <v>6989672</v>
       </c>
       <c r="C48" t="s">
         <v>27</v>
@@ -4575,76 +4575,76 @@
         <v>45179.47916666666</v>
       </c>
       <c r="E48" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="F48" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G48">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H48">
         <v>1</v>
       </c>
       <c r="I48" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J48">
-        <v>1.222</v>
+        <v>1.615</v>
       </c>
       <c r="K48">
-        <v>5</v>
+        <v>3.3</v>
       </c>
       <c r="L48">
-        <v>10</v>
+        <v>5.2</v>
       </c>
       <c r="M48">
-        <v>1.2</v>
+        <v>1.615</v>
       </c>
       <c r="N48">
+        <v>3.3</v>
+      </c>
+      <c r="O48">
         <v>5.25</v>
       </c>
-      <c r="O48">
-        <v>12</v>
-      </c>
       <c r="P48">
-        <v>-2</v>
+        <v>-0.75</v>
       </c>
       <c r="Q48">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="R48">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S48">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="T48">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="U48">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="V48">
-        <v>0.2</v>
+        <v>-1</v>
       </c>
       <c r="W48">
         <v>-1</v>
       </c>
       <c r="X48">
-        <v>-1</v>
+        <v>4.25</v>
       </c>
       <c r="Y48">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z48">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA48">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB48">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="49" spans="1:28">
@@ -5082,7 +5082,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>6989506</v>
+        <v>6989507</v>
       </c>
       <c r="C54" t="s">
         <v>27</v>
@@ -5091,76 +5091,76 @@
         <v>45186.45833333334</v>
       </c>
       <c r="E54" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="F54" t="s">
         <v>38</v>
       </c>
       <c r="G54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I54" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J54">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="K54">
         <v>3</v>
       </c>
       <c r="L54">
-        <v>2.625</v>
+        <v>2.25</v>
       </c>
       <c r="M54">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="N54">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="O54">
-        <v>2.625</v>
+        <v>1.8</v>
       </c>
       <c r="P54">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="Q54">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="R54">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S54">
         <v>2.25</v>
       </c>
       <c r="T54">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="U54">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V54">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="W54">
         <v>-1</v>
       </c>
       <c r="X54">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="Y54">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="Z54">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA54">
         <v>-1</v>
       </c>
       <c r="AB54">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="55" spans="1:28">
@@ -5168,7 +5168,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>6989507</v>
+        <v>6989506</v>
       </c>
       <c r="C55" t="s">
         <v>27</v>
@@ -5177,76 +5177,76 @@
         <v>45186.45833333334</v>
       </c>
       <c r="E55" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F55" t="s">
         <v>37</v>
       </c>
       <c r="G55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I55" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J55">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="K55">
         <v>3</v>
       </c>
       <c r="L55">
-        <v>2.25</v>
+        <v>2.625</v>
       </c>
       <c r="M55">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="N55">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="O55">
-        <v>1.8</v>
+        <v>2.625</v>
       </c>
       <c r="P55">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="Q55">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="R55">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S55">
         <v>2.25</v>
       </c>
       <c r="T55">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="U55">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V55">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="W55">
         <v>-1</v>
       </c>
       <c r="X55">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="Y55">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z55">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA55">
         <v>-1</v>
       </c>
       <c r="AB55">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="56" spans="1:28">
@@ -5693,7 +5693,7 @@
         <v>45192.45833333334</v>
       </c>
       <c r="E61" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F61" t="s">
         <v>43</v>
@@ -5865,7 +5865,7 @@
         <v>45192.45833333334</v>
       </c>
       <c r="E63" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F63" t="s">
         <v>36</v>
@@ -6381,7 +6381,7 @@
         <v>45200.41666666666</v>
       </c>
       <c r="E69" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F69" t="s">
         <v>36</v>
@@ -6470,7 +6470,7 @@
         <v>39</v>
       </c>
       <c r="F70" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G70">
         <v>1</v>
@@ -6974,7 +6974,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>7308447</v>
+        <v>6989513</v>
       </c>
       <c r="C76" t="s">
         <v>27</v>
@@ -6983,76 +6983,76 @@
         <v>45207.41666666666</v>
       </c>
       <c r="E76" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="F76" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G76">
         <v>1</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I76" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="J76">
-        <v>1.444</v>
+        <v>2.625</v>
       </c>
       <c r="K76">
-        <v>3.75</v>
+        <v>2.875</v>
       </c>
       <c r="L76">
-        <v>6.5</v>
+        <v>2.625</v>
       </c>
       <c r="M76">
-        <v>1.45</v>
+        <v>2.8</v>
       </c>
       <c r="N76">
-        <v>3.8</v>
+        <v>2.875</v>
       </c>
       <c r="O76">
-        <v>6</v>
+        <v>2.45</v>
       </c>
       <c r="P76">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="Q76">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="R76">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="S76">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="T76">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="U76">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="V76">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="W76">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="X76">
         <v>-1</v>
       </c>
       <c r="Y76">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="Z76">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="AA76">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB76">
-        <v>0.9750000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:28">
@@ -7060,7 +7060,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>6989513</v>
+        <v>7018994</v>
       </c>
       <c r="C77" t="s">
         <v>27</v>
@@ -7069,76 +7069,76 @@
         <v>45207.41666666666</v>
       </c>
       <c r="E77" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="F77" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="G77">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H77">
         <v>1</v>
       </c>
       <c r="I77" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J77">
-        <v>2.625</v>
+        <v>2.25</v>
       </c>
       <c r="K77">
-        <v>2.875</v>
+        <v>3</v>
       </c>
       <c r="L77">
-        <v>2.625</v>
+        <v>3</v>
       </c>
       <c r="M77">
-        <v>2.8</v>
+        <v>2.15</v>
       </c>
       <c r="N77">
-        <v>2.875</v>
+        <v>3</v>
       </c>
       <c r="O77">
-        <v>2.45</v>
+        <v>3.2</v>
       </c>
       <c r="P77">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="Q77">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="R77">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="S77">
         <v>2</v>
       </c>
       <c r="T77">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="U77">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V77">
         <v>-1</v>
       </c>
       <c r="W77">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="X77">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y77">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z77">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AA77">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB77">
-        <v>0</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="78" spans="1:28">
@@ -7146,7 +7146,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>7018994</v>
+        <v>7308447</v>
       </c>
       <c r="C78" t="s">
         <v>27</v>
@@ -7155,76 +7155,76 @@
         <v>45207.41666666666</v>
       </c>
       <c r="E78" t="s">
+        <v>41</v>
+      </c>
+      <c r="F78" t="s">
         <v>37</v>
       </c>
-      <c r="F78" t="s">
-        <v>42</v>
-      </c>
       <c r="G78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H78">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I78" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J78">
-        <v>2.25</v>
+        <v>1.444</v>
       </c>
       <c r="K78">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="L78">
-        <v>3</v>
+        <v>6.5</v>
       </c>
       <c r="M78">
-        <v>2.15</v>
+        <v>1.45</v>
       </c>
       <c r="N78">
-        <v>3</v>
+        <v>3.8</v>
       </c>
       <c r="O78">
-        <v>3.2</v>
+        <v>6</v>
       </c>
       <c r="P78">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="Q78">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="R78">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="S78">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="T78">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="U78">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V78">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="W78">
         <v>-1</v>
       </c>
       <c r="X78">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y78">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="Z78">
-        <v>0.875</v>
+        <v>0.4</v>
       </c>
       <c r="AA78">
         <v>-1</v>
       </c>
       <c r="AB78">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="79" spans="1:28">
@@ -7920,7 +7920,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>6989619</v>
+        <v>6989684</v>
       </c>
       <c r="C87" t="s">
         <v>27</v>
@@ -7929,76 +7929,76 @@
         <v>45215.41666666666</v>
       </c>
       <c r="E87" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="F87" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G87">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H87">
         <v>0</v>
       </c>
       <c r="I87" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J87">
+        <v>2.4</v>
+      </c>
+      <c r="K87">
+        <v>2.8</v>
+      </c>
+      <c r="L87">
+        <v>2.9</v>
+      </c>
+      <c r="M87">
+        <v>3.75</v>
+      </c>
+      <c r="N87">
+        <v>2.9</v>
+      </c>
+      <c r="O87">
         <v>1.95</v>
       </c>
-      <c r="K87">
-        <v>3.2</v>
-      </c>
-      <c r="L87">
-        <v>3.4</v>
-      </c>
-      <c r="M87">
+      <c r="P87">
+        <v>0.5</v>
+      </c>
+      <c r="Q87">
+        <v>1.8</v>
+      </c>
+      <c r="R87">
+        <v>2</v>
+      </c>
+      <c r="S87">
+        <v>2</v>
+      </c>
+      <c r="T87">
         <v>1.85</v>
       </c>
-      <c r="N87">
-        <v>3.2</v>
-      </c>
-      <c r="O87">
-        <v>3.75</v>
-      </c>
-      <c r="P87">
-        <v>-0.5</v>
-      </c>
-      <c r="Q87">
-        <v>1.9</v>
-      </c>
-      <c r="R87">
-        <v>1.9</v>
-      </c>
-      <c r="S87">
-        <v>2.5</v>
-      </c>
-      <c r="T87">
-        <v>2</v>
-      </c>
       <c r="U87">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V87">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="W87">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="X87">
         <v>-1</v>
       </c>
       <c r="Y87">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z87">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA87">
         <v>-1</v>
       </c>
       <c r="AB87">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="88" spans="1:28">
@@ -8006,7 +8006,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>6989684</v>
+        <v>6989619</v>
       </c>
       <c r="C88" t="s">
         <v>27</v>
@@ -8015,76 +8015,76 @@
         <v>45215.41666666666</v>
       </c>
       <c r="E88" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="F88" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G88">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H88">
         <v>0</v>
       </c>
       <c r="I88" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="J88">
-        <v>2.4</v>
+        <v>1.95</v>
       </c>
       <c r="K88">
-        <v>2.8</v>
+        <v>3.2</v>
       </c>
       <c r="L88">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="M88">
+        <v>1.85</v>
+      </c>
+      <c r="N88">
+        <v>3.2</v>
+      </c>
+      <c r="O88">
         <v>3.75</v>
       </c>
-      <c r="N88">
-        <v>2.9</v>
-      </c>
-      <c r="O88">
-        <v>1.95</v>
-      </c>
       <c r="P88">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="Q88">
+        <v>1.9</v>
+      </c>
+      <c r="R88">
+        <v>1.9</v>
+      </c>
+      <c r="S88">
+        <v>2.5</v>
+      </c>
+      <c r="T88">
+        <v>2</v>
+      </c>
+      <c r="U88">
         <v>1.8</v>
       </c>
-      <c r="R88">
-        <v>2</v>
-      </c>
-      <c r="S88">
-        <v>2</v>
-      </c>
-      <c r="T88">
-        <v>1.85</v>
-      </c>
-      <c r="U88">
-        <v>1.95</v>
-      </c>
       <c r="V88">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="W88">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="X88">
         <v>-1</v>
       </c>
       <c r="Y88">
+        <v>-1</v>
+      </c>
+      <c r="Z88">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AA88">
+        <v>-1</v>
+      </c>
+      <c r="AB88">
         <v>0.8</v>
-      </c>
-      <c r="Z88">
-        <v>-1</v>
-      </c>
-      <c r="AA88">
-        <v>-1</v>
-      </c>
-      <c r="AB88">
-        <v>0.95</v>
       </c>
     </row>
     <row r="89" spans="1:28">
@@ -8706,7 +8706,7 @@
         <v>42</v>
       </c>
       <c r="F96" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G96">
         <v>1</v>
@@ -8789,7 +8789,7 @@
         <v>45222.375</v>
       </c>
       <c r="E97" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F97" t="s">
         <v>29</v>
@@ -9136,7 +9136,7 @@
         <v>39</v>
       </c>
       <c r="F101" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G101">
         <v>2</v>
@@ -9296,7 +9296,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>7018997</v>
+        <v>6989689</v>
       </c>
       <c r="C103" t="s">
         <v>27</v>
@@ -9305,10 +9305,10 @@
         <v>45227.375</v>
       </c>
       <c r="E103" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F103" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G103">
         <v>0</v>
@@ -9320,34 +9320,34 @@
         <v>46</v>
       </c>
       <c r="J103">
-        <v>2.6</v>
+        <v>2.1</v>
       </c>
       <c r="K103">
-        <v>3</v>
+        <v>2.875</v>
       </c>
       <c r="L103">
-        <v>2.5</v>
+        <v>3.4</v>
       </c>
       <c r="M103">
-        <v>2.4</v>
+        <v>2.05</v>
       </c>
       <c r="N103">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="O103">
-        <v>2.7</v>
+        <v>3.6</v>
       </c>
       <c r="P103">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="Q103">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="R103">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="S103">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="T103">
         <v>1.825</v>
@@ -9359,16 +9359,16 @@
         <v>-1</v>
       </c>
       <c r="W103">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="X103">
         <v>-1</v>
       </c>
       <c r="Y103">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="Z103">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AA103">
         <v>-1</v>
@@ -9382,7 +9382,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>6989689</v>
+        <v>7018997</v>
       </c>
       <c r="C104" t="s">
         <v>27</v>
@@ -9391,10 +9391,10 @@
         <v>45227.375</v>
       </c>
       <c r="E104" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F104" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="G104">
         <v>0</v>
@@ -9406,34 +9406,34 @@
         <v>46</v>
       </c>
       <c r="J104">
-        <v>2.1</v>
+        <v>2.6</v>
       </c>
       <c r="K104">
-        <v>2.875</v>
+        <v>3</v>
       </c>
       <c r="L104">
-        <v>3.4</v>
+        <v>2.5</v>
       </c>
       <c r="M104">
-        <v>2.05</v>
+        <v>2.4</v>
       </c>
       <c r="N104">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="O104">
-        <v>3.6</v>
+        <v>2.7</v>
       </c>
       <c r="P104">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="Q104">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="R104">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="S104">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="T104">
         <v>1.825</v>
@@ -9445,16 +9445,16 @@
         <v>-1</v>
       </c>
       <c r="W104">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="X104">
         <v>-1</v>
       </c>
       <c r="Y104">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="Z104">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AA104">
         <v>-1</v>
@@ -9649,7 +9649,7 @@
         <v>45235.375</v>
       </c>
       <c r="E107" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F107" t="s">
         <v>28</v>
@@ -10070,7 +10070,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>6989691</v>
+        <v>6989522</v>
       </c>
       <c r="C112" t="s">
         <v>27</v>
@@ -10079,40 +10079,40 @@
         <v>45236.375</v>
       </c>
       <c r="E112" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F112" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G112">
         <v>0</v>
       </c>
       <c r="H112">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I112" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J112">
-        <v>2</v>
+        <v>1.65</v>
       </c>
       <c r="K112">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="L112">
-        <v>3.6</v>
+        <v>5.5</v>
       </c>
       <c r="M112">
-        <v>1.95</v>
+        <v>2.25</v>
       </c>
       <c r="N112">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="O112">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="P112">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="Q112">
         <v>2</v>
@@ -10124,19 +10124,19 @@
         <v>2</v>
       </c>
       <c r="T112">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="U112">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V112">
         <v>-1</v>
       </c>
       <c r="W112">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="X112">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y112">
         <v>-1</v>
@@ -10148,7 +10148,7 @@
         <v>-1</v>
       </c>
       <c r="AB112">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113" spans="1:28">
@@ -10156,7 +10156,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>6989522</v>
+        <v>6989691</v>
       </c>
       <c r="C113" t="s">
         <v>27</v>
@@ -10165,40 +10165,40 @@
         <v>45236.375</v>
       </c>
       <c r="E113" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F113" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G113">
         <v>0</v>
       </c>
       <c r="H113">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I113" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J113">
-        <v>1.65</v>
+        <v>2</v>
       </c>
       <c r="K113">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="L113">
-        <v>5.5</v>
+        <v>3.6</v>
       </c>
       <c r="M113">
-        <v>2.25</v>
+        <v>1.95</v>
       </c>
       <c r="N113">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="O113">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="P113">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="Q113">
         <v>2</v>
@@ -10210,19 +10210,19 @@
         <v>2</v>
       </c>
       <c r="T113">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="U113">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V113">
         <v>-1</v>
       </c>
       <c r="W113">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="X113">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y113">
         <v>-1</v>
@@ -10234,7 +10234,7 @@
         <v>-1</v>
       </c>
       <c r="AB113">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="114" spans="1:28">
@@ -10251,7 +10251,7 @@
         <v>45241.375</v>
       </c>
       <c r="E114" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F114" t="s">
         <v>35</v>
@@ -10337,7 +10337,7 @@
         <v>45241.375</v>
       </c>
       <c r="E115" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F115" t="s">
         <v>33</v>
@@ -10942,7 +10942,7 @@
         <v>28</v>
       </c>
       <c r="F122" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G122">
         <v>1</v>
@@ -11114,7 +11114,7 @@
         <v>32</v>
       </c>
       <c r="F124" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G124">
         <v>0</v>
@@ -11532,7 +11532,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>7497903</v>
+        <v>7497670</v>
       </c>
       <c r="C129" t="s">
         <v>27</v>
@@ -11541,7 +11541,7 @@
         <v>45252.375</v>
       </c>
       <c r="E129" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F129" t="s">
         <v>37</v>
@@ -11550,67 +11550,67 @@
         <v>2</v>
       </c>
       <c r="H129">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I129" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="J129">
-        <v>1.571</v>
+        <v>3.2</v>
       </c>
       <c r="K129">
-        <v>3.75</v>
+        <v>2.9</v>
       </c>
       <c r="L129">
-        <v>4.75</v>
+        <v>2.2</v>
       </c>
       <c r="M129">
-        <v>1.5</v>
+        <v>3.3</v>
       </c>
       <c r="N129">
-        <v>3.75</v>
+        <v>2.9</v>
       </c>
       <c r="O129">
-        <v>5.5</v>
+        <v>2.15</v>
       </c>
       <c r="P129">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="Q129">
+        <v>1.875</v>
+      </c>
+      <c r="R129">
         <v>1.925</v>
       </c>
-      <c r="R129">
-        <v>1.875</v>
-      </c>
       <c r="S129">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="T129">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="U129">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V129">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="W129">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="X129">
         <v>-1</v>
       </c>
       <c r="Y129">
-        <v>0.925</v>
+        <v>0.4375</v>
       </c>
       <c r="Z129">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA129">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AB129">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="130" spans="1:28">
@@ -11618,7 +11618,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>7497902</v>
+        <v>7497374</v>
       </c>
       <c r="C130" t="s">
         <v>27</v>
@@ -11627,76 +11627,76 @@
         <v>45252.375</v>
       </c>
       <c r="E130" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="F130" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="G130">
         <v>1</v>
       </c>
       <c r="H130">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I130" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J130">
-        <v>1.909</v>
+        <v>2.5</v>
       </c>
       <c r="K130">
         <v>3</v>
       </c>
       <c r="L130">
-        <v>4</v>
+        <v>2.625</v>
       </c>
       <c r="M130">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="N130">
         <v>3.1</v>
       </c>
       <c r="O130">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="P130">
         <v>-0.5</v>
       </c>
       <c r="Q130">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="R130">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="S130">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="T130">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="U130">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V130">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="W130">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="X130">
         <v>-1</v>
       </c>
       <c r="Y130">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="Z130">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA130">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB130">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="131" spans="1:28">
@@ -11704,7 +11704,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>7497670</v>
+        <v>7497902</v>
       </c>
       <c r="C131" t="s">
         <v>27</v>
@@ -11713,76 +11713,76 @@
         <v>45252.375</v>
       </c>
       <c r="E131" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="F131" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="G131">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H131">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I131" t="s">
         <v>46</v>
       </c>
       <c r="J131">
-        <v>3.2</v>
+        <v>1.909</v>
       </c>
       <c r="K131">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="L131">
-        <v>2.2</v>
+        <v>4</v>
       </c>
       <c r="M131">
-        <v>3.3</v>
+        <v>1.75</v>
       </c>
       <c r="N131">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="O131">
-        <v>2.15</v>
+        <v>4.75</v>
       </c>
       <c r="P131">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="Q131">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="R131">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="S131">
         <v>2</v>
       </c>
       <c r="T131">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="U131">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="V131">
         <v>-1</v>
       </c>
       <c r="W131">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="X131">
         <v>-1</v>
       </c>
       <c r="Y131">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="Z131">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AA131">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="AB131">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:28">
@@ -11790,7 +11790,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>7497374</v>
+        <v>7497903</v>
       </c>
       <c r="C132" t="s">
         <v>27</v>
@@ -11799,13 +11799,13 @@
         <v>45252.375</v>
       </c>
       <c r="E132" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="F132" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G132">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H132">
         <v>0</v>
@@ -11814,61 +11814,61 @@
         <v>44</v>
       </c>
       <c r="J132">
-        <v>2.5</v>
+        <v>1.571</v>
       </c>
       <c r="K132">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="L132">
-        <v>2.625</v>
+        <v>4.75</v>
       </c>
       <c r="M132">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="N132">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="O132">
-        <v>3.6</v>
+        <v>5.5</v>
       </c>
       <c r="P132">
+        <v>-1</v>
+      </c>
+      <c r="Q132">
+        <v>1.925</v>
+      </c>
+      <c r="R132">
+        <v>1.875</v>
+      </c>
+      <c r="S132">
+        <v>2.25</v>
+      </c>
+      <c r="T132">
+        <v>1.975</v>
+      </c>
+      <c r="U132">
+        <v>1.825</v>
+      </c>
+      <c r="V132">
+        <v>0.5</v>
+      </c>
+      <c r="W132">
+        <v>-1</v>
+      </c>
+      <c r="X132">
+        <v>-1</v>
+      </c>
+      <c r="Y132">
+        <v>0.925</v>
+      </c>
+      <c r="Z132">
+        <v>-1</v>
+      </c>
+      <c r="AA132">
         <v>-0.5</v>
       </c>
-      <c r="Q132">
-        <v>2.025</v>
-      </c>
-      <c r="R132">
-        <v>1.775</v>
-      </c>
-      <c r="S132">
-        <v>2.5</v>
-      </c>
-      <c r="T132">
-        <v>1.95</v>
-      </c>
-      <c r="U132">
-        <v>1.85</v>
-      </c>
-      <c r="V132">
-        <v>1</v>
-      </c>
-      <c r="W132">
-        <v>-1</v>
-      </c>
-      <c r="X132">
-        <v>-1</v>
-      </c>
-      <c r="Y132">
-        <v>1.025</v>
-      </c>
-      <c r="Z132">
-        <v>-1</v>
-      </c>
-      <c r="AA132">
-        <v>-1</v>
-      </c>
       <c r="AB132">
-        <v>0.8500000000000001</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="133" spans="1:28">
@@ -12057,7 +12057,7 @@
         <v>45256.375</v>
       </c>
       <c r="E135" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F135" t="s">
         <v>31</v>
@@ -12134,7 +12134,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>6989527</v>
+        <v>6989526</v>
       </c>
       <c r="C136" t="s">
         <v>27</v>
@@ -12143,58 +12143,58 @@
         <v>45256.375</v>
       </c>
       <c r="E136" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F136" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G136">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H136">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I136" t="s">
         <v>44</v>
       </c>
       <c r="J136">
-        <v>1.727</v>
+        <v>1.909</v>
       </c>
       <c r="K136">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="L136">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="M136">
-        <v>1.444</v>
+        <v>2.1</v>
       </c>
       <c r="N136">
-        <v>3.8</v>
+        <v>2.9</v>
       </c>
       <c r="O136">
-        <v>7</v>
+        <v>3.5</v>
       </c>
       <c r="P136">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="Q136">
+        <v>1.825</v>
+      </c>
+      <c r="R136">
         <v>1.975</v>
       </c>
-      <c r="R136">
+      <c r="S136">
+        <v>2</v>
+      </c>
+      <c r="T136">
+        <v>1.975</v>
+      </c>
+      <c r="U136">
         <v>1.825</v>
       </c>
-      <c r="S136">
-        <v>2.75</v>
-      </c>
-      <c r="T136">
-        <v>1.875</v>
-      </c>
-      <c r="U136">
-        <v>1.925</v>
-      </c>
       <c r="V136">
-        <v>0.444</v>
+        <v>1.1</v>
       </c>
       <c r="W136">
         <v>-1</v>
@@ -12203,16 +12203,16 @@
         <v>-1</v>
       </c>
       <c r="Y136">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="Z136">
         <v>-1</v>
       </c>
       <c r="AA136">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="AB136">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:28">
@@ -12220,7 +12220,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>6989629</v>
+        <v>6989527</v>
       </c>
       <c r="C137" t="s">
         <v>27</v>
@@ -12229,58 +12229,58 @@
         <v>45256.375</v>
       </c>
       <c r="E137" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="F137" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="G137">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H137">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I137" t="s">
         <v>44</v>
       </c>
       <c r="J137">
-        <v>2.1</v>
+        <v>1.727</v>
       </c>
       <c r="K137">
-        <v>2.875</v>
+        <v>3.3</v>
       </c>
       <c r="L137">
-        <v>3.5</v>
+        <v>4.333</v>
       </c>
       <c r="M137">
-        <v>1.75</v>
+        <v>1.444</v>
       </c>
       <c r="N137">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="O137">
-        <v>4.75</v>
+        <v>7</v>
       </c>
       <c r="P137">
-        <v>-0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="Q137">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="R137">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="S137">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="T137">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="U137">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="V137">
-        <v>0.75</v>
+        <v>0.444</v>
       </c>
       <c r="W137">
         <v>-1</v>
@@ -12289,16 +12289,16 @@
         <v>-1</v>
       </c>
       <c r="Y137">
-        <v>0.475</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="Z137">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA137">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB137">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="138" spans="1:28">
@@ -12306,7 +12306,7 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>6989630</v>
+        <v>6989629</v>
       </c>
       <c r="C138" t="s">
         <v>27</v>
@@ -12315,13 +12315,13 @@
         <v>45256.375</v>
       </c>
       <c r="E138" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="F138" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G138">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H138">
         <v>0</v>
@@ -12330,43 +12330,43 @@
         <v>44</v>
       </c>
       <c r="J138">
-        <v>1.444</v>
+        <v>2.1</v>
       </c>
       <c r="K138">
-        <v>3.75</v>
+        <v>2.875</v>
       </c>
       <c r="L138">
-        <v>6.5</v>
+        <v>3.5</v>
       </c>
       <c r="M138">
-        <v>1.533</v>
+        <v>1.75</v>
       </c>
       <c r="N138">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="O138">
-        <v>6</v>
+        <v>4.75</v>
       </c>
       <c r="P138">
-        <v>-1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="Q138">
-        <v>2.075</v>
+        <v>1.95</v>
       </c>
       <c r="R138">
-        <v>1.725</v>
+        <v>1.75</v>
       </c>
       <c r="S138">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="T138">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="U138">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="V138">
-        <v>0.5329999999999999</v>
+        <v>0.75</v>
       </c>
       <c r="W138">
         <v>-1</v>
@@ -12375,16 +12375,16 @@
         <v>-1</v>
       </c>
       <c r="Y138">
-        <v>1.075</v>
+        <v>0.475</v>
       </c>
       <c r="Z138">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA138">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB138">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="139" spans="1:28">
@@ -12392,7 +12392,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>6989526</v>
+        <v>6989630</v>
       </c>
       <c r="C139" t="s">
         <v>27</v>
@@ -12401,13 +12401,13 @@
         <v>45256.375</v>
       </c>
       <c r="E139" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F139" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G139">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H139">
         <v>0</v>
@@ -12416,43 +12416,43 @@
         <v>44</v>
       </c>
       <c r="J139">
-        <v>1.909</v>
+        <v>1.444</v>
       </c>
       <c r="K139">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="L139">
-        <v>4</v>
+        <v>6.5</v>
       </c>
       <c r="M139">
-        <v>2.1</v>
+        <v>1.533</v>
       </c>
       <c r="N139">
-        <v>2.9</v>
+        <v>3.8</v>
       </c>
       <c r="O139">
-        <v>3.5</v>
+        <v>6</v>
       </c>
       <c r="P139">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="Q139">
-        <v>1.825</v>
+        <v>2.075</v>
       </c>
       <c r="R139">
-        <v>1.975</v>
+        <v>1.725</v>
       </c>
       <c r="S139">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="T139">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="U139">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V139">
-        <v>1.1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="W139">
         <v>-1</v>
@@ -12461,16 +12461,16 @@
         <v>-1</v>
       </c>
       <c r="Y139">
-        <v>0.825</v>
+        <v>1.075</v>
       </c>
       <c r="Z139">
         <v>-1</v>
       </c>
       <c r="AA139">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB139">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="140" spans="1:28">
@@ -12487,7 +12487,7 @@
         <v>45257.375</v>
       </c>
       <c r="E140" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F140" t="s">
         <v>35</v>
@@ -12920,7 +12920,7 @@
         <v>30</v>
       </c>
       <c r="F145" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G145">
         <v>1</v>
@@ -13006,7 +13006,7 @@
         <v>32</v>
       </c>
       <c r="F146" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G146">
         <v>0</v>
@@ -13596,7 +13596,7 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>6989633</v>
+        <v>6989332</v>
       </c>
       <c r="C153" t="s">
         <v>27</v>
@@ -13605,58 +13605,58 @@
         <v>45270.375</v>
       </c>
       <c r="E153" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F153" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="G153">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H153">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I153" t="s">
         <v>44</v>
       </c>
       <c r="J153">
-        <v>1.8</v>
+        <v>1.4</v>
       </c>
       <c r="K153">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="L153">
-        <v>4.2</v>
+        <v>7</v>
       </c>
       <c r="M153">
-        <v>1.75</v>
+        <v>1.285</v>
       </c>
       <c r="N153">
-        <v>3.2</v>
+        <v>4.333</v>
       </c>
       <c r="O153">
-        <v>4.75</v>
+        <v>11</v>
       </c>
       <c r="P153">
-        <v>-0.75</v>
+        <v>-1.5</v>
       </c>
       <c r="Q153">
+        <v>1.85</v>
+      </c>
+      <c r="R153">
         <v>1.95</v>
       </c>
-      <c r="R153">
-        <v>1.75</v>
-      </c>
       <c r="S153">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="T153">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="U153">
-        <v>1.725</v>
+        <v>1.85</v>
       </c>
       <c r="V153">
-        <v>0.75</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="W153">
         <v>-1</v>
@@ -13665,16 +13665,16 @@
         <v>-1</v>
       </c>
       <c r="Y153">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="Z153">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AA153">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB153">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="154" spans="1:28">
@@ -13682,7 +13682,7 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>6989332</v>
+        <v>6989633</v>
       </c>
       <c r="C154" t="s">
         <v>27</v>
@@ -13691,58 +13691,58 @@
         <v>45270.375</v>
       </c>
       <c r="E154" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F154" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="G154">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H154">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I154" t="s">
         <v>44</v>
       </c>
       <c r="J154">
-        <v>1.4</v>
+        <v>1.8</v>
       </c>
       <c r="K154">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="L154">
-        <v>7</v>
+        <v>4.2</v>
       </c>
       <c r="M154">
-        <v>1.285</v>
+        <v>1.75</v>
       </c>
       <c r="N154">
-        <v>4.333</v>
+        <v>3.2</v>
       </c>
       <c r="O154">
-        <v>11</v>
+        <v>4.75</v>
       </c>
       <c r="P154">
-        <v>-1.5</v>
+        <v>-0.75</v>
       </c>
       <c r="Q154">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="R154">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="S154">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="T154">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="U154">
-        <v>1.85</v>
+        <v>1.725</v>
       </c>
       <c r="V154">
-        <v>0.2849999999999999</v>
+        <v>0.75</v>
       </c>
       <c r="W154">
         <v>-1</v>
@@ -13751,16 +13751,16 @@
         <v>-1</v>
       </c>
       <c r="Y154">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="Z154">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AA154">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB154">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="155" spans="1:28">
@@ -13949,7 +13949,7 @@
         <v>45270.375</v>
       </c>
       <c r="E157" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F157" t="s">
         <v>31</v>
@@ -14026,7 +14026,7 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>6989530</v>
+        <v>6989531</v>
       </c>
       <c r="C158" t="s">
         <v>27</v>
@@ -14035,49 +14035,49 @@
         <v>45271.375</v>
       </c>
       <c r="E158" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F158" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G158">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H158">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I158" t="s">
         <v>44</v>
       </c>
       <c r="J158">
-        <v>1.666</v>
+        <v>1.571</v>
       </c>
       <c r="K158">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="L158">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="M158">
         <v>1.444</v>
       </c>
       <c r="N158">
-        <v>4.333</v>
+        <v>4.2</v>
       </c>
       <c r="O158">
-        <v>5.25</v>
+        <v>5.75</v>
       </c>
       <c r="P158">
-        <v>-1</v>
+        <v>-1.25</v>
       </c>
       <c r="Q158">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="R158">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S158">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="T158">
         <v>1.85</v>
@@ -14095,16 +14095,16 @@
         <v>-1</v>
       </c>
       <c r="Y158">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="Z158">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AA158">
-        <v>0.8500000000000001</v>
+        <v>0.425</v>
       </c>
       <c r="AB158">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="159" spans="1:28">
@@ -14112,7 +14112,7 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>6989531</v>
+        <v>6989530</v>
       </c>
       <c r="C159" t="s">
         <v>27</v>
@@ -14121,49 +14121,49 @@
         <v>45271.375</v>
       </c>
       <c r="E159" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F159" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G159">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H159">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I159" t="s">
         <v>44</v>
       </c>
       <c r="J159">
-        <v>1.571</v>
+        <v>1.666</v>
       </c>
       <c r="K159">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="L159">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="M159">
         <v>1.444</v>
       </c>
       <c r="N159">
-        <v>4.2</v>
+        <v>4.333</v>
       </c>
       <c r="O159">
-        <v>5.75</v>
+        <v>5.25</v>
       </c>
       <c r="P159">
-        <v>-1.25</v>
+        <v>-1</v>
       </c>
       <c r="Q159">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="R159">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S159">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="T159">
         <v>1.85</v>
@@ -14181,16 +14181,16 @@
         <v>-1</v>
       </c>
       <c r="Y159">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="Z159">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AA159">
-        <v>0.425</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB159">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="160" spans="1:28">
@@ -14468,7 +14468,7 @@
         <v>30</v>
       </c>
       <c r="F163" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G163">
         <v>1</v>
@@ -14726,7 +14726,7 @@
         <v>43</v>
       </c>
       <c r="F166" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G166">
         <v>0</v>
@@ -15067,7 +15067,7 @@
         <v>45352.375</v>
       </c>
       <c r="E170" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F170" t="s">
         <v>40</v>
@@ -15230,7 +15230,7 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>7898976</v>
+        <v>7901792</v>
       </c>
       <c r="C172" t="s">
         <v>27</v>
@@ -15239,76 +15239,76 @@
         <v>45353.375</v>
       </c>
       <c r="E172" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="F172" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G172">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H172">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I172" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J172">
-        <v>2</v>
+        <v>1.833</v>
       </c>
       <c r="K172">
-        <v>2.875</v>
+        <v>3.1</v>
       </c>
       <c r="L172">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M172">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="N172">
         <v>2.75</v>
       </c>
       <c r="O172">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="P172">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="Q172">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="R172">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="S172">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="T172">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="U172">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V172">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="W172">
         <v>-1</v>
       </c>
       <c r="X172">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y172">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Z172">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA172">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AB172">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="173" spans="1:28">
@@ -15316,7 +15316,7 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>7901792</v>
+        <v>7901793</v>
       </c>
       <c r="C173" t="s">
         <v>27</v>
@@ -15325,58 +15325,58 @@
         <v>45353.375</v>
       </c>
       <c r="E173" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="F173" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G173">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H173">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I173" t="s">
         <v>44</v>
       </c>
       <c r="J173">
-        <v>1.833</v>
+        <v>1.666</v>
       </c>
       <c r="K173">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="L173">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="M173">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="N173">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="O173">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="P173">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="Q173">
+        <v>1.75</v>
+      </c>
+      <c r="R173">
         <v>2.05</v>
-      </c>
-      <c r="R173">
-        <v>1.75</v>
       </c>
       <c r="S173">
         <v>1.75</v>
       </c>
       <c r="T173">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="U173">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V173">
-        <v>1</v>
+        <v>1.05</v>
       </c>
       <c r="W173">
         <v>-1</v>
@@ -15385,16 +15385,16 @@
         <v>-1</v>
       </c>
       <c r="Y173">
-        <v>1.05</v>
+        <v>0.75</v>
       </c>
       <c r="Z173">
         <v>-1</v>
       </c>
       <c r="AA173">
-        <v>0.95</v>
+        <v>0.45</v>
       </c>
       <c r="AB173">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="174" spans="1:28">
@@ -15402,7 +15402,7 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>7901793</v>
+        <v>7898976</v>
       </c>
       <c r="C174" t="s">
         <v>27</v>
@@ -15411,76 +15411,76 @@
         <v>45353.375</v>
       </c>
       <c r="E174" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F174" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G174">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H174">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I174" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J174">
-        <v>1.666</v>
+        <v>2</v>
       </c>
       <c r="K174">
-        <v>3.25</v>
+        <v>2.875</v>
       </c>
       <c r="L174">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="M174">
-        <v>2.05</v>
+        <v>2.15</v>
       </c>
       <c r="N174">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="O174">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="P174">
         <v>-0.25</v>
       </c>
       <c r="Q174">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="R174">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="S174">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="T174">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="U174">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V174">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="W174">
         <v>-1</v>
       </c>
       <c r="X174">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y174">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="Z174">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA174">
-        <v>0.45</v>
+        <v>0</v>
       </c>
       <c r="AB174">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175" spans="1:28">
@@ -15583,7 +15583,7 @@
         <v>45353.375</v>
       </c>
       <c r="E176" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F176" t="s">
         <v>34</v>
@@ -15746,7 +15746,7 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>6989710</v>
+        <v>7018981</v>
       </c>
       <c r="C178" t="s">
         <v>27</v>
@@ -15755,40 +15755,40 @@
         <v>45357.41666666666</v>
       </c>
       <c r="E178" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F178" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G178">
         <v>0</v>
       </c>
       <c r="H178">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I178" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J178">
-        <v>1.571</v>
+        <v>3</v>
       </c>
       <c r="K178">
-        <v>3.25</v>
+        <v>2.8</v>
       </c>
       <c r="L178">
-        <v>6</v>
+        <v>2.375</v>
       </c>
       <c r="M178">
-        <v>1.75</v>
+        <v>2.5</v>
       </c>
       <c r="N178">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="O178">
-        <v>4.75</v>
+        <v>2.75</v>
       </c>
       <c r="P178">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="Q178">
         <v>1.8</v>
@@ -15797,22 +15797,22 @@
         <v>2</v>
       </c>
       <c r="S178">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="T178">
+        <v>1.95</v>
+      </c>
+      <c r="U178">
         <v>1.85</v>
       </c>
-      <c r="U178">
-        <v>1.95</v>
-      </c>
       <c r="V178">
         <v>-1</v>
       </c>
       <c r="W178">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="X178">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="Y178">
         <v>-1</v>
@@ -15821,10 +15821,10 @@
         <v>1</v>
       </c>
       <c r="AA178">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB178">
-        <v>0.95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179" spans="1:28">
@@ -15832,7 +15832,7 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>6989640</v>
+        <v>6989710</v>
       </c>
       <c r="C179" t="s">
         <v>27</v>
@@ -15841,61 +15841,61 @@
         <v>45357.41666666666</v>
       </c>
       <c r="E179" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="F179" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G179">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H179">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I179" t="s">
         <v>46</v>
       </c>
       <c r="J179">
-        <v>1.5</v>
+        <v>1.571</v>
       </c>
       <c r="K179">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="L179">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="M179">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="N179">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="O179">
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="P179">
         <v>-0.5</v>
       </c>
       <c r="Q179">
+        <v>1.8</v>
+      </c>
+      <c r="R179">
+        <v>2</v>
+      </c>
+      <c r="S179">
+        <v>2.25</v>
+      </c>
+      <c r="T179">
+        <v>1.85</v>
+      </c>
+      <c r="U179">
         <v>1.95</v>
       </c>
-      <c r="R179">
-        <v>1.85</v>
-      </c>
-      <c r="S179">
-        <v>2</v>
-      </c>
-      <c r="T179">
-        <v>1.775</v>
-      </c>
-      <c r="U179">
-        <v>2.025</v>
-      </c>
       <c r="V179">
         <v>-1</v>
       </c>
       <c r="W179">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="X179">
         <v>-1</v>
@@ -15904,13 +15904,13 @@
         <v>-1</v>
       </c>
       <c r="Z179">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
       <c r="AA179">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB179">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="180" spans="1:28">
@@ -15918,7 +15918,7 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>7018981</v>
+        <v>6989640</v>
       </c>
       <c r="C180" t="s">
         <v>27</v>
@@ -15927,76 +15927,76 @@
         <v>45357.41666666666</v>
       </c>
       <c r="E180" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F180" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G180">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H180">
         <v>2</v>
       </c>
       <c r="I180" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J180">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="K180">
-        <v>2.8</v>
+        <v>3.4</v>
       </c>
       <c r="L180">
-        <v>2.375</v>
+        <v>6.5</v>
       </c>
       <c r="M180">
-        <v>2.5</v>
+        <v>1.85</v>
       </c>
       <c r="N180">
-        <v>2.8</v>
+        <v>3.2</v>
       </c>
       <c r="O180">
-        <v>2.75</v>
+        <v>3.75</v>
       </c>
       <c r="P180">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="Q180">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="R180">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S180">
         <v>2</v>
       </c>
       <c r="T180">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="U180">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="V180">
         <v>-1</v>
       </c>
       <c r="W180">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="X180">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Y180">
         <v>-1</v>
       </c>
       <c r="Z180">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA180">
-        <v>0</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB180">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="181" spans="1:28">
@@ -16004,7 +16004,7 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>6989711</v>
+        <v>6989334</v>
       </c>
       <c r="C181" t="s">
         <v>27</v>
@@ -16013,76 +16013,76 @@
         <v>45357.54166666666</v>
       </c>
       <c r="E181" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="F181" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G181">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H181">
         <v>0</v>
       </c>
       <c r="I181" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="J181">
-        <v>2.25</v>
+        <v>1.8</v>
       </c>
       <c r="K181">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="L181">
-        <v>3.1</v>
+        <v>4.2</v>
       </c>
       <c r="M181">
-        <v>2.25</v>
+        <v>2.05</v>
       </c>
       <c r="N181">
-        <v>2.7</v>
+        <v>3</v>
       </c>
       <c r="O181">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P181">
         <v>-0.25</v>
       </c>
       <c r="Q181">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="R181">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="S181">
-        <v>1.75</v>
+        <v>1.5</v>
       </c>
       <c r="T181">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="U181">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="V181">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="W181">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="X181">
         <v>-1</v>
       </c>
       <c r="Y181">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="Z181">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="AA181">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AB181">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="182" spans="1:28">
@@ -16090,7 +16090,7 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>6989334</v>
+        <v>6989642</v>
       </c>
       <c r="C182" t="s">
         <v>27</v>
@@ -16099,76 +16099,76 @@
         <v>45357.54166666666</v>
       </c>
       <c r="E182" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="F182" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="G182">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H182">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I182" t="s">
         <v>46</v>
       </c>
       <c r="J182">
-        <v>1.8</v>
+        <v>1.909</v>
       </c>
       <c r="K182">
         <v>3.1</v>
       </c>
       <c r="L182">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="M182">
-        <v>2.05</v>
+        <v>1.909</v>
       </c>
       <c r="N182">
-        <v>3</v>
+        <v>2.625</v>
       </c>
       <c r="O182">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="P182">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="Q182">
+        <v>1.975</v>
+      </c>
+      <c r="R182">
+        <v>1.825</v>
+      </c>
+      <c r="S182">
+        <v>1.75</v>
+      </c>
+      <c r="T182">
+        <v>2</v>
+      </c>
+      <c r="U182">
         <v>1.8</v>
       </c>
-      <c r="R182">
-        <v>2</v>
-      </c>
-      <c r="S182">
-        <v>1.5</v>
-      </c>
-      <c r="T182">
-        <v>1.8</v>
-      </c>
-      <c r="U182">
-        <v>2</v>
-      </c>
       <c r="V182">
         <v>-1</v>
       </c>
       <c r="W182">
-        <v>2</v>
+        <v>1.625</v>
       </c>
       <c r="X182">
         <v>-1</v>
       </c>
       <c r="Y182">
+        <v>-1</v>
+      </c>
+      <c r="Z182">
+        <v>0.825</v>
+      </c>
+      <c r="AA182">
+        <v>0.5</v>
+      </c>
+      <c r="AB182">
         <v>-0.5</v>
-      </c>
-      <c r="Z182">
-        <v>0.5</v>
-      </c>
-      <c r="AA182">
-        <v>-1</v>
-      </c>
-      <c r="AB182">
-        <v>1</v>
       </c>
     </row>
     <row r="183" spans="1:28">
@@ -16176,7 +16176,7 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>6989642</v>
+        <v>6989711</v>
       </c>
       <c r="C183" t="s">
         <v>27</v>
@@ -16185,73 +16185,73 @@
         <v>45357.54166666666</v>
       </c>
       <c r="E183" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F183" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="G183">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H183">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I183" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J183">
-        <v>1.909</v>
+        <v>2.25</v>
       </c>
       <c r="K183">
+        <v>2.9</v>
+      </c>
+      <c r="L183">
         <v>3.1</v>
       </c>
-      <c r="L183">
-        <v>3.75</v>
-      </c>
       <c r="M183">
-        <v>1.909</v>
+        <v>2.25</v>
       </c>
       <c r="N183">
-        <v>2.625</v>
+        <v>2.7</v>
       </c>
       <c r="O183">
-        <v>4.75</v>
+        <v>3.4</v>
       </c>
       <c r="P183">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="Q183">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="R183">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S183">
         <v>1.75</v>
       </c>
       <c r="T183">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="U183">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="V183">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="W183">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="X183">
         <v>-1</v>
       </c>
       <c r="Y183">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Z183">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA183">
-        <v>0.5</v>
+        <v>0.475</v>
       </c>
       <c r="AB183">
         <v>-0.5</v>
@@ -16529,7 +16529,7 @@
         <v>45361.41666666666</v>
       </c>
       <c r="E187" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F187" t="s">
         <v>41</v>
@@ -16787,7 +16787,7 @@
         <v>45362.41666666666</v>
       </c>
       <c r="E190" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F190" t="s">
         <v>40</v>
@@ -17048,7 +17048,7 @@
         <v>36</v>
       </c>
       <c r="F193" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G193">
         <v>0</v>
@@ -17638,7 +17638,7 @@
         <v>198</v>
       </c>
       <c r="B200">
-        <v>6989337</v>
+        <v>6989717</v>
       </c>
       <c r="C200" t="s">
         <v>27</v>
@@ -17647,43 +17647,43 @@
         <v>45374.45833333334</v>
       </c>
       <c r="E200" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="F200" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="G200">
         <v>0</v>
       </c>
       <c r="H200">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I200" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J200">
-        <v>1.909</v>
+        <v>1.833</v>
       </c>
       <c r="K200">
         <v>3.1</v>
       </c>
       <c r="L200">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M200">
-        <v>1.6</v>
+        <v>2</v>
       </c>
       <c r="N200">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="O200">
-        <v>5.25</v>
+        <v>3.5</v>
       </c>
       <c r="P200">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="Q200">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="R200">
         <v>1.75</v>
@@ -17701,10 +17701,10 @@
         <v>-1</v>
       </c>
       <c r="W200">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="X200">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y200">
         <v>-1</v>
@@ -17724,7 +17724,7 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>6989717</v>
+        <v>6989337</v>
       </c>
       <c r="C201" t="s">
         <v>27</v>
@@ -17733,43 +17733,43 @@
         <v>45374.45833333334</v>
       </c>
       <c r="E201" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="F201" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="G201">
         <v>0</v>
       </c>
       <c r="H201">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I201" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J201">
-        <v>1.833</v>
+        <v>1.909</v>
       </c>
       <c r="K201">
         <v>3.1</v>
       </c>
       <c r="L201">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M201">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="N201">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="O201">
-        <v>3.5</v>
+        <v>5.25</v>
       </c>
       <c r="P201">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="Q201">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="R201">
         <v>1.75</v>
@@ -17787,10 +17787,10 @@
         <v>-1</v>
       </c>
       <c r="W201">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="X201">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y201">
         <v>-1</v>
@@ -18080,7 +18080,7 @@
         <v>42</v>
       </c>
       <c r="F205" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G205">
         <v>1</v>
@@ -18249,7 +18249,7 @@
         <v>45377.45833333334</v>
       </c>
       <c r="E207" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F207" t="s">
         <v>41</v>
@@ -18679,10 +18679,10 @@
         <v>45381.45833333334</v>
       </c>
       <c r="E212" t="s">
+        <v>38</v>
+      </c>
+      <c r="F212" t="s">
         <v>37</v>
-      </c>
-      <c r="F212" t="s">
-        <v>38</v>
       </c>
       <c r="G212">
         <v>5</v>
@@ -19186,7 +19186,7 @@
         <v>216</v>
       </c>
       <c r="B218">
-        <v>6989722</v>
+        <v>6989652</v>
       </c>
       <c r="C218" t="s">
         <v>27</v>
@@ -19195,76 +19195,76 @@
         <v>45385.45833333334</v>
       </c>
       <c r="E218" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F218" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G218">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H218">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I218" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J218">
-        <v>2.375</v>
+        <v>2.1</v>
       </c>
       <c r="K218">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="L218">
+        <v>3.3</v>
+      </c>
+      <c r="M218">
+        <v>1.95</v>
+      </c>
+      <c r="N218">
+        <v>2.875</v>
+      </c>
+      <c r="O218">
+        <v>4</v>
+      </c>
+      <c r="P218">
+        <v>-0.5</v>
+      </c>
+      <c r="Q218">
+        <v>2.025</v>
+      </c>
+      <c r="R218">
+        <v>1.775</v>
+      </c>
+      <c r="S218">
+        <v>2</v>
+      </c>
+      <c r="T218">
+        <v>2.05</v>
+      </c>
+      <c r="U218">
+        <v>1.75</v>
+      </c>
+      <c r="V218">
+        <v>-1</v>
+      </c>
+      <c r="W218">
+        <v>-1</v>
+      </c>
+      <c r="X218">
         <v>3</v>
       </c>
-      <c r="M218">
-        <v>2.4</v>
-      </c>
-      <c r="N218">
-        <v>2.625</v>
-      </c>
-      <c r="O218">
-        <v>3.2</v>
-      </c>
-      <c r="P218">
-        <v>-0.25</v>
-      </c>
-      <c r="Q218">
-        <v>2.05</v>
-      </c>
-      <c r="R218">
-        <v>1.75</v>
-      </c>
-      <c r="S218">
-        <v>1.75</v>
-      </c>
-      <c r="T218">
-        <v>1.95</v>
-      </c>
-      <c r="U218">
-        <v>1.85</v>
-      </c>
-      <c r="V218">
-        <v>-1</v>
-      </c>
-      <c r="W218">
-        <v>1.625</v>
-      </c>
-      <c r="X218">
-        <v>-1</v>
-      </c>
       <c r="Y218">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z218">
-        <v>0.375</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA218">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AB218">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="219" spans="1:28">
@@ -19272,7 +19272,7 @@
         <v>217</v>
       </c>
       <c r="B219">
-        <v>6989652</v>
+        <v>6989722</v>
       </c>
       <c r="C219" t="s">
         <v>27</v>
@@ -19281,76 +19281,76 @@
         <v>45385.45833333334</v>
       </c>
       <c r="E219" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F219" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G219">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H219">
+        <v>0</v>
+      </c>
+      <c r="I219" t="s">
+        <v>46</v>
+      </c>
+      <c r="J219">
+        <v>2.375</v>
+      </c>
+      <c r="K219">
+        <v>2.8</v>
+      </c>
+      <c r="L219">
         <v>3</v>
       </c>
-      <c r="I219" t="s">
-        <v>45</v>
-      </c>
-      <c r="J219">
-        <v>2.1</v>
-      </c>
-      <c r="K219">
-        <v>3</v>
-      </c>
-      <c r="L219">
-        <v>3.3</v>
-      </c>
       <c r="M219">
+        <v>2.4</v>
+      </c>
+      <c r="N219">
+        <v>2.625</v>
+      </c>
+      <c r="O219">
+        <v>3.2</v>
+      </c>
+      <c r="P219">
+        <v>-0.25</v>
+      </c>
+      <c r="Q219">
+        <v>2.05</v>
+      </c>
+      <c r="R219">
+        <v>1.75</v>
+      </c>
+      <c r="S219">
+        <v>1.75</v>
+      </c>
+      <c r="T219">
         <v>1.95</v>
       </c>
-      <c r="N219">
-        <v>2.875</v>
-      </c>
-      <c r="O219">
-        <v>4</v>
-      </c>
-      <c r="P219">
+      <c r="U219">
+        <v>1.85</v>
+      </c>
+      <c r="V219">
+        <v>-1</v>
+      </c>
+      <c r="W219">
+        <v>1.625</v>
+      </c>
+      <c r="X219">
+        <v>-1</v>
+      </c>
+      <c r="Y219">
         <v>-0.5</v>
       </c>
-      <c r="Q219">
-        <v>2.025</v>
-      </c>
-      <c r="R219">
-        <v>1.775</v>
-      </c>
-      <c r="S219">
-        <v>2</v>
-      </c>
-      <c r="T219">
-        <v>2.05</v>
-      </c>
-      <c r="U219">
-        <v>1.75</v>
-      </c>
-      <c r="V219">
-        <v>-1</v>
-      </c>
-      <c r="W219">
-        <v>-1</v>
-      </c>
-      <c r="X219">
-        <v>3</v>
-      </c>
-      <c r="Y219">
-        <v>-1</v>
-      </c>
       <c r="Z219">
-        <v>0.7749999999999999</v>
+        <v>0.375</v>
       </c>
       <c r="AA219">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB219">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="220" spans="1:28">
@@ -19358,7 +19358,7 @@
         <v>218</v>
       </c>
       <c r="B220">
-        <v>7018986</v>
+        <v>8044572</v>
       </c>
       <c r="C220" t="s">
         <v>27</v>
@@ -19367,46 +19367,46 @@
         <v>45385.45833333334</v>
       </c>
       <c r="E220" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F220" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="G220">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H220">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I220" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J220">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="K220">
-        <v>2.9</v>
+        <v>2.875</v>
       </c>
       <c r="L220">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="M220">
-        <v>1.95</v>
+        <v>2.3</v>
       </c>
       <c r="N220">
-        <v>2.875</v>
+        <v>2.75</v>
       </c>
       <c r="O220">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="P220">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="Q220">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="R220">
-        <v>1.775</v>
+        <v>1.75</v>
       </c>
       <c r="S220">
         <v>2</v>
@@ -19418,25 +19418,25 @@
         <v>1.775</v>
       </c>
       <c r="V220">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="W220">
         <v>-1</v>
       </c>
       <c r="X220">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y220">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="Z220">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA220">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB220">
-        <v>0</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="221" spans="1:28">
@@ -19444,7 +19444,7 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>8044572</v>
+        <v>7018986</v>
       </c>
       <c r="C221" t="s">
         <v>27</v>
@@ -19453,46 +19453,46 @@
         <v>45385.45833333334</v>
       </c>
       <c r="E221" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F221" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="G221">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H221">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I221" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J221">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="K221">
+        <v>2.9</v>
+      </c>
+      <c r="L221">
+        <v>3.2</v>
+      </c>
+      <c r="M221">
+        <v>1.95</v>
+      </c>
+      <c r="N221">
         <v>2.875</v>
       </c>
-      <c r="L221">
-        <v>3.8</v>
-      </c>
-      <c r="M221">
-        <v>2.3</v>
-      </c>
-      <c r="N221">
-        <v>2.75</v>
-      </c>
       <c r="O221">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="P221">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="Q221">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="R221">
-        <v>1.75</v>
+        <v>1.775</v>
       </c>
       <c r="S221">
         <v>2</v>
@@ -19504,25 +19504,25 @@
         <v>1.775</v>
       </c>
       <c r="V221">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="W221">
         <v>-1</v>
       </c>
       <c r="X221">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y221">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="Z221">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA221">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB221">
-        <v>0.7749999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="222" spans="1:28">
@@ -19969,7 +19969,7 @@
         <v>45390.45833333334</v>
       </c>
       <c r="E227" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F227" t="s">
         <v>39</v>
@@ -20574,7 +20574,7 @@
         <v>28</v>
       </c>
       <c r="F234" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G234">
         <v>2</v>
@@ -20660,7 +20660,7 @@
         <v>39</v>
       </c>
       <c r="F235" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G235">
         <v>0</v>
@@ -20746,7 +20746,7 @@
         <v>29</v>
       </c>
       <c r="F236" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G236">
         <v>1</v>
@@ -21345,7 +21345,7 @@
         <v>45409.45833333334</v>
       </c>
       <c r="E243" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F243" t="s">
         <v>35</v>
@@ -21775,7 +21775,7 @@
         <v>45413.45833333334</v>
       </c>
       <c r="E248" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F248" t="s">
         <v>36</v>
@@ -21864,7 +21864,7 @@
         <v>30</v>
       </c>
       <c r="F249" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G249">
         <v>2</v>
@@ -22119,10 +22119,10 @@
         <v>45419.5</v>
       </c>
       <c r="E252" t="s">
+        <v>38</v>
+      </c>
+      <c r="F252" t="s">
         <v>37</v>
-      </c>
-      <c r="F252" t="s">
-        <v>38</v>
       </c>
       <c r="G252">
         <v>2</v>

--- a/Serbia Prva Liga/Serbia Prva Liga.xlsx
+++ b/Serbia Prva Liga/Serbia Prva Liga.xlsx
@@ -100,13 +100,13 @@
     <t>Serbia Prva Liga</t>
   </si>
   <si>
+    <t>OFK Vrsac</t>
+  </si>
+  <si>
     <t>Smederevo</t>
   </si>
   <si>
     <t>Jedinstvo UB</t>
-  </si>
-  <si>
-    <t>OFK Vrsac</t>
   </si>
   <si>
     <t>Sloboda Uzice</t>
@@ -610,7 +610,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>6989497</v>
+        <v>7018401</v>
       </c>
       <c r="C2" t="s">
         <v>27</v>
@@ -622,10 +622,10 @@
         <v>28</v>
       </c>
       <c r="F2" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="G2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -634,19 +634,19 @@
         <v>44</v>
       </c>
       <c r="J2">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="K2">
-        <v>2.8</v>
+        <v>2.875</v>
       </c>
       <c r="L2">
         <v>2.55</v>
       </c>
       <c r="M2">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="N2">
-        <v>2.8</v>
+        <v>2.875</v>
       </c>
       <c r="O2">
         <v>2.55</v>
@@ -664,13 +664,13 @@
         <v>2</v>
       </c>
       <c r="T2">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="U2">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="V2">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="W2">
         <v>-1</v>
@@ -685,10 +685,10 @@
         <v>-1</v>
       </c>
       <c r="AA2">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB2">
-        <v>0</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="3" spans="1:28">
@@ -696,7 +696,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6989596</v>
+        <v>6989497</v>
       </c>
       <c r="C3" t="s">
         <v>27</v>
@@ -708,10 +708,10 @@
         <v>29</v>
       </c>
       <c r="F3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -720,43 +720,43 @@
         <v>44</v>
       </c>
       <c r="J3">
-        <v>1.85</v>
+        <v>2.75</v>
       </c>
       <c r="K3">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="L3">
-        <v>4</v>
+        <v>2.55</v>
       </c>
       <c r="M3">
-        <v>1.5</v>
+        <v>2.75</v>
       </c>
       <c r="N3">
-        <v>3.8</v>
+        <v>2.8</v>
       </c>
       <c r="O3">
-        <v>5.75</v>
+        <v>2.55</v>
       </c>
       <c r="P3">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="R3">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S3">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="T3">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="U3">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V3">
-        <v>0.5</v>
+        <v>1.75</v>
       </c>
       <c r="W3">
         <v>-1</v>
@@ -765,16 +765,16 @@
         <v>-1</v>
       </c>
       <c r="Y3">
-        <v>0.8</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="Z3">
         <v>-1</v>
       </c>
       <c r="AA3">
-        <v>0.925</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:28">
@@ -782,7 +782,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>7018401</v>
+        <v>6989596</v>
       </c>
       <c r="C4" t="s">
         <v>27</v>
@@ -794,10 +794,10 @@
         <v>30</v>
       </c>
       <c r="F4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G4">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -806,43 +806,43 @@
         <v>44</v>
       </c>
       <c r="J4">
-        <v>2.7</v>
+        <v>1.85</v>
       </c>
       <c r="K4">
-        <v>2.875</v>
+        <v>3.1</v>
       </c>
       <c r="L4">
-        <v>2.55</v>
+        <v>4</v>
       </c>
       <c r="M4">
-        <v>2.7</v>
+        <v>1.5</v>
       </c>
       <c r="N4">
-        <v>2.875</v>
+        <v>3.8</v>
       </c>
       <c r="O4">
-        <v>2.55</v>
+        <v>5.75</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Q4">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="R4">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S4">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="T4">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="U4">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="V4">
-        <v>1.7</v>
+        <v>0.5</v>
       </c>
       <c r="W4">
         <v>-1</v>
@@ -851,16 +851,16 @@
         <v>-1</v>
       </c>
       <c r="Y4">
-        <v>0.9750000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="Z4">
         <v>-1</v>
       </c>
       <c r="AA4">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB4">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="5" spans="1:28">
@@ -1310,7 +1310,7 @@
         <v>36</v>
       </c>
       <c r="F10" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G10">
         <v>3</v>
@@ -1568,7 +1568,7 @@
         <v>39</v>
       </c>
       <c r="F13" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -1651,7 +1651,7 @@
         <v>45150.52083333334</v>
       </c>
       <c r="E14" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F14" t="s">
         <v>33</v>
@@ -1995,10 +1995,10 @@
         <v>45156.5</v>
       </c>
       <c r="E18" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F18" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -2339,7 +2339,7 @@
         <v>45158.5</v>
       </c>
       <c r="E22" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F22" t="s">
         <v>41</v>
@@ -2416,7 +2416,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6989500</v>
+        <v>6989499</v>
       </c>
       <c r="C23" t="s">
         <v>27</v>
@@ -2425,76 +2425,76 @@
         <v>45158.5</v>
       </c>
       <c r="E23" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F23" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H23">
         <v>1</v>
       </c>
       <c r="I23" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J23">
-        <v>3.5</v>
+        <v>1.727</v>
       </c>
       <c r="K23">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="L23">
-        <v>1.95</v>
+        <v>4.2</v>
       </c>
       <c r="M23">
-        <v>3.5</v>
+        <v>1.85</v>
       </c>
       <c r="N23">
         <v>3.1</v>
       </c>
       <c r="O23">
-        <v>1.95</v>
+        <v>4</v>
       </c>
       <c r="P23">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="Q23">
+        <v>1.925</v>
+      </c>
+      <c r="R23">
+        <v>1.875</v>
+      </c>
+      <c r="S23">
+        <v>2</v>
+      </c>
+      <c r="T23">
+        <v>2</v>
+      </c>
+      <c r="U23">
         <v>1.8</v>
       </c>
-      <c r="R23">
-        <v>2</v>
-      </c>
-      <c r="S23">
-        <v>2.25</v>
-      </c>
-      <c r="T23">
-        <v>1.75</v>
-      </c>
-      <c r="U23">
-        <v>1.95</v>
-      </c>
       <c r="V23">
         <v>-1</v>
       </c>
       <c r="W23">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="X23">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y23">
+        <v>-1</v>
+      </c>
+      <c r="Z23">
+        <v>0.875</v>
+      </c>
+      <c r="AA23">
+        <v>-1</v>
+      </c>
+      <c r="AB23">
         <v>0.8</v>
-      </c>
-      <c r="Z23">
-        <v>-1</v>
-      </c>
-      <c r="AA23">
-        <v>-0.5</v>
-      </c>
-      <c r="AB23">
-        <v>0.475</v>
       </c>
     </row>
     <row r="24" spans="1:28">
@@ -2502,7 +2502,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6989499</v>
+        <v>6989500</v>
       </c>
       <c r="C24" t="s">
         <v>27</v>
@@ -2511,76 +2511,76 @@
         <v>45158.5</v>
       </c>
       <c r="E24" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F24" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H24">
         <v>1</v>
       </c>
       <c r="I24" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J24">
-        <v>1.727</v>
+        <v>3.5</v>
       </c>
       <c r="K24">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="L24">
-        <v>4.2</v>
+        <v>1.95</v>
       </c>
       <c r="M24">
-        <v>1.85</v>
+        <v>3.5</v>
       </c>
       <c r="N24">
         <v>3.1</v>
       </c>
       <c r="O24">
-        <v>4</v>
+        <v>1.95</v>
       </c>
       <c r="P24">
+        <v>0.5</v>
+      </c>
+      <c r="Q24">
+        <v>1.8</v>
+      </c>
+      <c r="R24">
+        <v>2</v>
+      </c>
+      <c r="S24">
+        <v>2.25</v>
+      </c>
+      <c r="T24">
+        <v>1.75</v>
+      </c>
+      <c r="U24">
+        <v>1.95</v>
+      </c>
+      <c r="V24">
+        <v>-1</v>
+      </c>
+      <c r="W24">
+        <v>2.1</v>
+      </c>
+      <c r="X24">
+        <v>-1</v>
+      </c>
+      <c r="Y24">
+        <v>0.8</v>
+      </c>
+      <c r="Z24">
+        <v>-1</v>
+      </c>
+      <c r="AA24">
         <v>-0.5</v>
       </c>
-      <c r="Q24">
-        <v>1.925</v>
-      </c>
-      <c r="R24">
-        <v>1.875</v>
-      </c>
-      <c r="S24">
-        <v>2</v>
-      </c>
-      <c r="T24">
-        <v>2</v>
-      </c>
-      <c r="U24">
-        <v>1.8</v>
-      </c>
-      <c r="V24">
-        <v>-1</v>
-      </c>
-      <c r="W24">
-        <v>-1</v>
-      </c>
-      <c r="X24">
-        <v>3</v>
-      </c>
-      <c r="Y24">
-        <v>-1</v>
-      </c>
-      <c r="Z24">
-        <v>0.875</v>
-      </c>
-      <c r="AA24">
-        <v>-1</v>
-      </c>
       <c r="AB24">
-        <v>0.8</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="25" spans="1:28">
@@ -2855,7 +2855,7 @@
         <v>45164.5</v>
       </c>
       <c r="E28" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F28" t="s">
         <v>35</v>
@@ -2932,7 +2932,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>6989602</v>
+        <v>6989601</v>
       </c>
       <c r="C29" t="s">
         <v>27</v>
@@ -2941,76 +2941,76 @@
         <v>45165.5</v>
       </c>
       <c r="E29" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="F29" t="s">
         <v>30</v>
       </c>
       <c r="G29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H29">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I29" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J29">
-        <v>1.666</v>
+        <v>2.3</v>
       </c>
       <c r="K29">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="L29">
-        <v>4.5</v>
+        <v>2.8</v>
       </c>
       <c r="M29">
-        <v>1.666</v>
+        <v>2.3</v>
       </c>
       <c r="N29">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="O29">
-        <v>4.5</v>
+        <v>2.8</v>
       </c>
       <c r="P29">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="Q29">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="R29">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S29">
         <v>2</v>
       </c>
       <c r="T29">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="U29">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="V29">
         <v>-1</v>
       </c>
       <c r="W29">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="X29">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Y29">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="Z29">
-        <v>0.8500000000000001</v>
+        <v>0.4</v>
       </c>
       <c r="AA29">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AB29">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:28">
@@ -3018,7 +3018,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>6989601</v>
+        <v>6989317</v>
       </c>
       <c r="C30" t="s">
         <v>27</v>
@@ -3027,76 +3027,76 @@
         <v>45165.5</v>
       </c>
       <c r="E30" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F30" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="G30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I30" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J30">
-        <v>2.3</v>
+        <v>1.727</v>
       </c>
       <c r="K30">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="L30">
-        <v>2.8</v>
+        <v>4.333</v>
       </c>
       <c r="M30">
-        <v>2.3</v>
+        <v>1.727</v>
       </c>
       <c r="N30">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="O30">
-        <v>2.8</v>
+        <v>4.333</v>
       </c>
       <c r="P30">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="Q30">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="R30">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S30">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="T30">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="U30">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V30">
         <v>-1</v>
       </c>
       <c r="W30">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="X30">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Y30">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z30">
-        <v>0.4</v>
+        <v>0.825</v>
       </c>
       <c r="AA30">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB30">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="31" spans="1:28">
@@ -3104,7 +3104,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>6989317</v>
+        <v>6989502</v>
       </c>
       <c r="C31" t="s">
         <v>27</v>
@@ -3113,73 +3113,73 @@
         <v>45165.5</v>
       </c>
       <c r="E31" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="F31" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="G31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H31">
         <v>2</v>
       </c>
       <c r="I31" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J31">
-        <v>1.727</v>
+        <v>1.7</v>
       </c>
       <c r="K31">
         <v>3.3</v>
       </c>
       <c r="L31">
-        <v>4.333</v>
+        <v>4.5</v>
       </c>
       <c r="M31">
-        <v>1.727</v>
+        <v>1.4</v>
       </c>
       <c r="N31">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="O31">
-        <v>4.333</v>
+        <v>6.5</v>
       </c>
       <c r="P31">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="Q31">
+        <v>1.725</v>
+      </c>
+      <c r="R31">
         <v>1.975</v>
       </c>
-      <c r="R31">
+      <c r="S31">
+        <v>2.5</v>
+      </c>
+      <c r="T31">
         <v>1.825</v>
       </c>
-      <c r="S31">
-        <v>2.25</v>
-      </c>
-      <c r="T31">
-        <v>1.9</v>
-      </c>
       <c r="U31">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V31">
         <v>-1</v>
       </c>
       <c r="W31">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="X31">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Y31">
         <v>-1</v>
       </c>
       <c r="Z31">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AA31">
         <v>0.825</v>
-      </c>
-      <c r="AA31">
-        <v>0.8999999999999999</v>
       </c>
       <c r="AB31">
         <v>-1</v>
@@ -3190,7 +3190,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>6989502</v>
+        <v>6989602</v>
       </c>
       <c r="C32" t="s">
         <v>27</v>
@@ -3199,73 +3199,73 @@
         <v>45165.5</v>
       </c>
       <c r="E32" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="F32" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="G32">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H32">
         <v>2</v>
       </c>
       <c r="I32" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J32">
-        <v>1.7</v>
+        <v>1.666</v>
       </c>
       <c r="K32">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="L32">
         <v>4.5</v>
       </c>
       <c r="M32">
-        <v>1.4</v>
+        <v>1.666</v>
       </c>
       <c r="N32">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="O32">
-        <v>6.5</v>
+        <v>4.5</v>
       </c>
       <c r="P32">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="Q32">
-        <v>1.725</v>
+        <v>1.95</v>
       </c>
       <c r="R32">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S32">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="T32">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="U32">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="V32">
         <v>-1</v>
       </c>
       <c r="W32">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="X32">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Y32">
         <v>-1</v>
       </c>
       <c r="Z32">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA32">
-        <v>0.825</v>
+        <v>0.75</v>
       </c>
       <c r="AB32">
         <v>-1</v>
@@ -3371,7 +3371,7 @@
         <v>45171.5</v>
       </c>
       <c r="E34" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F34" t="s">
         <v>38</v>
@@ -3457,7 +3457,7 @@
         <v>45171.5</v>
       </c>
       <c r="E35" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F35" t="s">
         <v>42</v>
@@ -3534,7 +3534,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>6989669</v>
+        <v>6989668</v>
       </c>
       <c r="C36" t="s">
         <v>27</v>
@@ -3543,76 +3543,76 @@
         <v>45171.58333333334</v>
       </c>
       <c r="E36" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F36" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="G36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I36" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J36">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="K36">
         <v>3.2</v>
       </c>
       <c r="L36">
-        <v>2.875</v>
+        <v>2.75</v>
       </c>
       <c r="M36">
-        <v>2.2</v>
+        <v>1.95</v>
       </c>
       <c r="N36">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="O36">
-        <v>2.9</v>
+        <v>3.5</v>
       </c>
       <c r="P36">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="Q36">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="R36">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S36">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="T36">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="U36">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="V36">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="W36">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="X36">
         <v>-1</v>
       </c>
       <c r="Y36">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="Z36">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AA36">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AB36">
-        <v>0.3875</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:28">
@@ -3620,7 +3620,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>6989668</v>
+        <v>6989669</v>
       </c>
       <c r="C37" t="s">
         <v>27</v>
@@ -3629,76 +3629,76 @@
         <v>45171.58333333334</v>
       </c>
       <c r="E37" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F37" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I37" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="J37">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="K37">
         <v>3.2</v>
       </c>
       <c r="L37">
-        <v>2.75</v>
+        <v>2.875</v>
       </c>
       <c r="M37">
-        <v>1.95</v>
+        <v>2.2</v>
       </c>
       <c r="N37">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="O37">
-        <v>3.5</v>
+        <v>2.9</v>
       </c>
       <c r="P37">
+        <v>-0.25</v>
+      </c>
+      <c r="Q37">
+        <v>1.975</v>
+      </c>
+      <c r="R37">
+        <v>1.825</v>
+      </c>
+      <c r="S37">
+        <v>2.25</v>
+      </c>
+      <c r="T37">
+        <v>2.025</v>
+      </c>
+      <c r="U37">
+        <v>1.775</v>
+      </c>
+      <c r="V37">
+        <v>-1</v>
+      </c>
+      <c r="W37">
+        <v>2.2</v>
+      </c>
+      <c r="X37">
+        <v>-1</v>
+      </c>
+      <c r="Y37">
         <v>-0.5</v>
       </c>
-      <c r="Q37">
-        <v>2</v>
-      </c>
-      <c r="R37">
-        <v>1.8</v>
-      </c>
-      <c r="S37">
-        <v>2</v>
-      </c>
-      <c r="T37">
-        <v>1.95</v>
-      </c>
-      <c r="U37">
-        <v>1.85</v>
-      </c>
-      <c r="V37">
-        <v>0.95</v>
-      </c>
-      <c r="W37">
-        <v>-1</v>
-      </c>
-      <c r="X37">
-        <v>-1</v>
-      </c>
-      <c r="Y37">
-        <v>1</v>
-      </c>
       <c r="Z37">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AA37">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AB37">
-        <v>0</v>
+        <v>0.3875</v>
       </c>
     </row>
     <row r="38" spans="1:28">
@@ -3706,7 +3706,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>6989503</v>
+        <v>6989504</v>
       </c>
       <c r="C38" t="s">
         <v>27</v>
@@ -3715,73 +3715,73 @@
         <v>45172.5</v>
       </c>
       <c r="E38" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="F38" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G38">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H38">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I38" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J38">
-        <v>1.85</v>
+        <v>3.4</v>
       </c>
       <c r="K38">
-        <v>2.8</v>
+        <v>3.4</v>
       </c>
       <c r="L38">
-        <v>4.75</v>
+        <v>1.909</v>
       </c>
       <c r="M38">
-        <v>2.3</v>
+        <v>6</v>
       </c>
       <c r="N38">
-        <v>2.75</v>
+        <v>3.6</v>
       </c>
       <c r="O38">
-        <v>3.4</v>
+        <v>1.5</v>
       </c>
       <c r="P38">
-        <v>-0.25</v>
+        <v>1</v>
       </c>
       <c r="Q38">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="R38">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S38">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="T38">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="U38">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V38">
         <v>-1</v>
       </c>
       <c r="W38">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="X38">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y38">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z38">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA38">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB38">
         <v>-1</v>
@@ -3792,7 +3792,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>6989504</v>
+        <v>6989503</v>
       </c>
       <c r="C39" t="s">
         <v>27</v>
@@ -3801,73 +3801,73 @@
         <v>45172.5</v>
       </c>
       <c r="E39" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F39" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G39">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H39">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I39" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J39">
+        <v>1.85</v>
+      </c>
+      <c r="K39">
+        <v>2.8</v>
+      </c>
+      <c r="L39">
+        <v>4.75</v>
+      </c>
+      <c r="M39">
+        <v>2.3</v>
+      </c>
+      <c r="N39">
+        <v>2.75</v>
+      </c>
+      <c r="O39">
         <v>3.4</v>
       </c>
-      <c r="K39">
-        <v>3.4</v>
-      </c>
-      <c r="L39">
-        <v>1.909</v>
-      </c>
-      <c r="M39">
-        <v>6</v>
-      </c>
-      <c r="N39">
-        <v>3.6</v>
-      </c>
-      <c r="O39">
-        <v>1.5</v>
-      </c>
       <c r="P39">
-        <v>1</v>
+        <v>-0.25</v>
       </c>
       <c r="Q39">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="R39">
+        <v>1.85</v>
+      </c>
+      <c r="S39">
+        <v>2</v>
+      </c>
+      <c r="T39">
+        <v>2</v>
+      </c>
+      <c r="U39">
         <v>1.8</v>
       </c>
-      <c r="S39">
-        <v>2.5</v>
-      </c>
-      <c r="T39">
-        <v>1.975</v>
-      </c>
-      <c r="U39">
-        <v>1.825</v>
-      </c>
       <c r="V39">
         <v>-1</v>
       </c>
       <c r="W39">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="X39">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y39">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z39">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA39">
-        <v>0.9750000000000001</v>
+        <v>1</v>
       </c>
       <c r="AB39">
         <v>-1</v>
@@ -4059,7 +4059,7 @@
         <v>45177.47916666666</v>
       </c>
       <c r="E42" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F42" t="s">
         <v>35</v>
@@ -4148,7 +4148,7 @@
         <v>39</v>
       </c>
       <c r="F43" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G43">
         <v>4</v>
@@ -4317,7 +4317,7 @@
         <v>45178.47916666666</v>
       </c>
       <c r="E45" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F45" t="s">
         <v>32</v>
@@ -4394,7 +4394,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>6989672</v>
+        <v>6989505</v>
       </c>
       <c r="C46" t="s">
         <v>27</v>
@@ -4403,76 +4403,76 @@
         <v>45179.47916666666</v>
       </c>
       <c r="E46" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="F46" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="G46">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H46">
         <v>1</v>
       </c>
       <c r="I46" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J46">
-        <v>1.615</v>
+        <v>1.222</v>
       </c>
       <c r="K46">
-        <v>3.3</v>
+        <v>5</v>
       </c>
       <c r="L46">
-        <v>5.2</v>
+        <v>10</v>
       </c>
       <c r="M46">
-        <v>1.615</v>
+        <v>1.2</v>
       </c>
       <c r="N46">
-        <v>3.3</v>
+        <v>5.25</v>
       </c>
       <c r="O46">
-        <v>5.25</v>
+        <v>12</v>
       </c>
       <c r="P46">
-        <v>-0.75</v>
+        <v>-2</v>
       </c>
       <c r="Q46">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="R46">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S46">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="T46">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="U46">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="V46">
-        <v>-1</v>
+        <v>0.2</v>
       </c>
       <c r="W46">
         <v>-1</v>
       </c>
       <c r="X46">
-        <v>4.25</v>
+        <v>-1</v>
       </c>
       <c r="Y46">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="Z46">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA46">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB46">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="47" spans="1:28">
@@ -4566,7 +4566,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>6989505</v>
+        <v>6989672</v>
       </c>
       <c r="C48" t="s">
         <v>27</v>
@@ -4575,76 +4575,76 @@
         <v>45179.47916666666</v>
       </c>
       <c r="E48" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="F48" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="G48">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H48">
         <v>1</v>
       </c>
       <c r="I48" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J48">
-        <v>1.222</v>
+        <v>1.615</v>
       </c>
       <c r="K48">
-        <v>5</v>
+        <v>3.3</v>
       </c>
       <c r="L48">
-        <v>10</v>
+        <v>5.2</v>
       </c>
       <c r="M48">
-        <v>1.2</v>
+        <v>1.615</v>
       </c>
       <c r="N48">
+        <v>3.3</v>
+      </c>
+      <c r="O48">
         <v>5.25</v>
       </c>
-      <c r="O48">
-        <v>12</v>
-      </c>
       <c r="P48">
-        <v>-2</v>
+        <v>-0.75</v>
       </c>
       <c r="Q48">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="R48">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S48">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="T48">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="U48">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="V48">
-        <v>0.2</v>
+        <v>-1</v>
       </c>
       <c r="W48">
         <v>-1</v>
       </c>
       <c r="X48">
-        <v>-1</v>
+        <v>4.25</v>
       </c>
       <c r="Y48">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z48">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA48">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB48">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="49" spans="1:28">
@@ -4750,7 +4750,7 @@
         <v>31</v>
       </c>
       <c r="F50" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G50">
         <v>1</v>
@@ -4996,7 +4996,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>6989507</v>
+        <v>6989506</v>
       </c>
       <c r="C53" t="s">
         <v>27</v>
@@ -5005,76 +5005,76 @@
         <v>45186.45833333334</v>
       </c>
       <c r="E53" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F53" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I53" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J53">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="K53">
         <v>3</v>
       </c>
       <c r="L53">
-        <v>2.25</v>
+        <v>2.625</v>
       </c>
       <c r="M53">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="N53">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="O53">
-        <v>1.8</v>
+        <v>2.625</v>
       </c>
       <c r="P53">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="Q53">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="R53">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S53">
         <v>2.25</v>
       </c>
       <c r="T53">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="U53">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V53">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="W53">
         <v>-1</v>
       </c>
       <c r="X53">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="Y53">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z53">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA53">
         <v>-1</v>
       </c>
       <c r="AB53">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="54" spans="1:28">
@@ -5082,7 +5082,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>6989506</v>
+        <v>6989507</v>
       </c>
       <c r="C54" t="s">
         <v>27</v>
@@ -5091,76 +5091,76 @@
         <v>45186.45833333334</v>
       </c>
       <c r="E54" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="F54" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I54" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J54">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="K54">
         <v>3</v>
       </c>
       <c r="L54">
-        <v>2.625</v>
+        <v>2.25</v>
       </c>
       <c r="M54">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="N54">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="O54">
-        <v>2.625</v>
+        <v>1.8</v>
       </c>
       <c r="P54">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="Q54">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="R54">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S54">
         <v>2.25</v>
       </c>
       <c r="T54">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="U54">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V54">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="W54">
         <v>-1</v>
       </c>
       <c r="X54">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="Y54">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="Z54">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA54">
         <v>-1</v>
       </c>
       <c r="AB54">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="55" spans="1:28">
@@ -5349,10 +5349,10 @@
         <v>45187.45833333334</v>
       </c>
       <c r="E57" t="s">
+        <v>30</v>
+      </c>
+      <c r="F57" t="s">
         <v>29</v>
-      </c>
-      <c r="F57" t="s">
-        <v>28</v>
       </c>
       <c r="G57">
         <v>0</v>
@@ -5696,7 +5696,7 @@
         <v>33</v>
       </c>
       <c r="F61" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G61">
         <v>3</v>
@@ -5770,7 +5770,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>6989612</v>
+        <v>6989610</v>
       </c>
       <c r="C62" t="s">
         <v>27</v>
@@ -5779,13 +5779,13 @@
         <v>45192.45833333334</v>
       </c>
       <c r="E62" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="F62" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G62">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H62">
         <v>0</v>
@@ -5794,43 +5794,43 @@
         <v>44</v>
       </c>
       <c r="J62">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="K62">
-        <v>2.875</v>
+        <v>3.1</v>
       </c>
       <c r="L62">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="M62">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="N62">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="O62">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="P62">
         <v>-0.25</v>
       </c>
       <c r="Q62">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="R62">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S62">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="T62">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="U62">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V62">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
       <c r="W62">
         <v>-1</v>
@@ -5839,16 +5839,16 @@
         <v>-1</v>
       </c>
       <c r="Y62">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="Z62">
         <v>-1</v>
       </c>
       <c r="AA62">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB62">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="63" spans="1:28">
@@ -5856,7 +5856,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>6989610</v>
+        <v>6989320</v>
       </c>
       <c r="C63" t="s">
         <v>27</v>
@@ -5865,76 +5865,76 @@
         <v>45192.45833333334</v>
       </c>
       <c r="E63" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F63" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="G63">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I63" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="J63">
-        <v>2.2</v>
+        <v>1.727</v>
       </c>
       <c r="K63">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="L63">
-        <v>3</v>
+        <v>4.333</v>
       </c>
       <c r="M63">
-        <v>2.2</v>
+        <v>1.533</v>
       </c>
       <c r="N63">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="O63">
-        <v>3</v>
+        <v>5.5</v>
       </c>
       <c r="P63">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="Q63">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="R63">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S63">
         <v>2.25</v>
       </c>
       <c r="T63">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="U63">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="V63">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="W63">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="X63">
         <v>-1</v>
       </c>
       <c r="Y63">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z63">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA63">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AB63">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="64" spans="1:28">
@@ -5942,7 +5942,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>6989320</v>
+        <v>6989508</v>
       </c>
       <c r="C64" t="s">
         <v>27</v>
@@ -5951,19 +5951,19 @@
         <v>45192.45833333334</v>
       </c>
       <c r="E64" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="F64" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="G64">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H64">
         <v>1</v>
       </c>
       <c r="I64" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J64">
         <v>1.727</v>
@@ -5975,52 +5975,52 @@
         <v>4.333</v>
       </c>
       <c r="M64">
-        <v>1.533</v>
+        <v>1.727</v>
       </c>
       <c r="N64">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="O64">
-        <v>5.5</v>
+        <v>4.333</v>
       </c>
       <c r="P64">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="Q64">
+        <v>1.75</v>
+      </c>
+      <c r="R64">
         <v>1.95</v>
-      </c>
-      <c r="R64">
-        <v>1.85</v>
       </c>
       <c r="S64">
         <v>2.25</v>
       </c>
       <c r="T64">
+        <v>1.875</v>
+      </c>
+      <c r="U64">
         <v>1.925</v>
       </c>
-      <c r="U64">
-        <v>1.875</v>
-      </c>
       <c r="V64">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="W64">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="X64">
         <v>-1</v>
       </c>
       <c r="Y64">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="Z64">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA64">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AB64">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="65" spans="1:28">
@@ -6028,7 +6028,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>6989508</v>
+        <v>6989612</v>
       </c>
       <c r="C65" t="s">
         <v>27</v>
@@ -6040,55 +6040,55 @@
         <v>28</v>
       </c>
       <c r="F65" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G65">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I65" t="s">
         <v>44</v>
       </c>
       <c r="J65">
-        <v>1.727</v>
+        <v>2.1</v>
       </c>
       <c r="K65">
-        <v>3.25</v>
+        <v>2.875</v>
       </c>
       <c r="L65">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="M65">
-        <v>1.727</v>
+        <v>2.1</v>
       </c>
       <c r="N65">
-        <v>3.25</v>
+        <v>2.9</v>
       </c>
       <c r="O65">
-        <v>4.333</v>
+        <v>3.3</v>
       </c>
       <c r="P65">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="Q65">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="R65">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S65">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="T65">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="U65">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V65">
-        <v>0.7270000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="W65">
         <v>-1</v>
@@ -6097,16 +6097,16 @@
         <v>-1</v>
       </c>
       <c r="Y65">
-        <v>0.75</v>
+        <v>0.875</v>
       </c>
       <c r="Z65">
         <v>-1</v>
       </c>
       <c r="AA65">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB65">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="66" spans="1:28">
@@ -6126,7 +6126,7 @@
         <v>35</v>
       </c>
       <c r="F66" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G66">
         <v>1</v>
@@ -6381,7 +6381,7 @@
         <v>45200.41666666666</v>
       </c>
       <c r="E69" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F69" t="s">
         <v>34</v>
@@ -6467,7 +6467,7 @@
         <v>45200.41666666666</v>
       </c>
       <c r="E70" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F70" t="s">
         <v>40</v>
@@ -6811,7 +6811,7 @@
         <v>45206.41666666666</v>
       </c>
       <c r="E74" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F74" t="s">
         <v>31</v>
@@ -7244,7 +7244,7 @@
         <v>43</v>
       </c>
       <c r="F79" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G79">
         <v>1</v>
@@ -7416,7 +7416,7 @@
         <v>36</v>
       </c>
       <c r="F81" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G81">
         <v>1</v>
@@ -7671,7 +7671,7 @@
         <v>45214.41666666666</v>
       </c>
       <c r="E84" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F84" t="s">
         <v>41</v>
@@ -7748,7 +7748,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>6989618</v>
+        <v>6989324</v>
       </c>
       <c r="C85" t="s">
         <v>27</v>
@@ -7757,76 +7757,76 @@
         <v>45214.54166666666</v>
       </c>
       <c r="E85" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F85" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="G85">
         <v>0</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I85" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J85">
-        <v>2.2</v>
+        <v>1.95</v>
       </c>
       <c r="K85">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="L85">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="M85">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="N85">
         <v>3.1</v>
       </c>
       <c r="O85">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="P85">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="Q85">
+        <v>1.95</v>
+      </c>
+      <c r="R85">
+        <v>1.75</v>
+      </c>
+      <c r="S85">
+        <v>2</v>
+      </c>
+      <c r="T85">
         <v>1.9</v>
       </c>
-      <c r="R85">
+      <c r="U85">
         <v>1.9</v>
       </c>
-      <c r="S85">
-        <v>2</v>
-      </c>
-      <c r="T85">
-        <v>1.85</v>
-      </c>
-      <c r="U85">
-        <v>1.95</v>
-      </c>
       <c r="V85">
         <v>-1</v>
       </c>
       <c r="W85">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="X85">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Y85">
         <v>-1</v>
       </c>
       <c r="Z85">
+        <v>0.75</v>
+      </c>
+      <c r="AA85">
+        <v>-1</v>
+      </c>
+      <c r="AB85">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AA85">
-        <v>-1</v>
-      </c>
-      <c r="AB85">
-        <v>0.95</v>
       </c>
     </row>
     <row r="86" spans="1:28">
@@ -7834,7 +7834,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>6989324</v>
+        <v>6989618</v>
       </c>
       <c r="C86" t="s">
         <v>27</v>
@@ -7843,76 +7843,76 @@
         <v>45214.54166666666</v>
       </c>
       <c r="E86" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F86" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="G86">
         <v>0</v>
       </c>
       <c r="H86">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I86" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J86">
-        <v>1.95</v>
+        <v>2.2</v>
       </c>
       <c r="K86">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="L86">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="M86">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="N86">
         <v>3.1</v>
       </c>
       <c r="O86">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="P86">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="Q86">
+        <v>1.9</v>
+      </c>
+      <c r="R86">
+        <v>1.9</v>
+      </c>
+      <c r="S86">
+        <v>2</v>
+      </c>
+      <c r="T86">
+        <v>1.85</v>
+      </c>
+      <c r="U86">
         <v>1.95</v>
       </c>
-      <c r="R86">
-        <v>1.75</v>
-      </c>
-      <c r="S86">
-        <v>2</v>
-      </c>
-      <c r="T86">
-        <v>1.9</v>
-      </c>
-      <c r="U86">
-        <v>1.9</v>
-      </c>
       <c r="V86">
         <v>-1</v>
       </c>
       <c r="W86">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="X86">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Y86">
         <v>-1</v>
       </c>
       <c r="Z86">
-        <v>0.75</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA86">
         <v>-1</v>
       </c>
       <c r="AB86">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="87" spans="1:28">
@@ -7929,7 +7929,7 @@
         <v>45215.41666666666</v>
       </c>
       <c r="E87" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F87" t="s">
         <v>40</v>
@@ -8178,7 +8178,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>6989686</v>
+        <v>7367631</v>
       </c>
       <c r="C90" t="s">
         <v>27</v>
@@ -8187,76 +8187,76 @@
         <v>45220.375</v>
       </c>
       <c r="E90" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="F90" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G90">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H90">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I90" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="J90">
-        <v>1.333</v>
+        <v>2.1</v>
       </c>
       <c r="K90">
-        <v>4.333</v>
+        <v>3.1</v>
       </c>
       <c r="L90">
-        <v>7.5</v>
+        <v>3.2</v>
       </c>
       <c r="M90">
-        <v>1.45</v>
+        <v>2.1</v>
       </c>
       <c r="N90">
-        <v>4.2</v>
+        <v>3.1</v>
       </c>
       <c r="O90">
-        <v>5.75</v>
+        <v>3.2</v>
       </c>
       <c r="P90">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="Q90">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="R90">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S90">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="T90">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="U90">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="V90">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="W90">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="X90">
         <v>-1</v>
       </c>
       <c r="Y90">
-        <v>0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="Z90">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AA90">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB90">
-        <v>0.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:28">
@@ -8264,7 +8264,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>7367631</v>
+        <v>6989686</v>
       </c>
       <c r="C91" t="s">
         <v>27</v>
@@ -8273,76 +8273,76 @@
         <v>45220.375</v>
       </c>
       <c r="E91" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="F91" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G91">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H91">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I91" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J91">
-        <v>2.1</v>
+        <v>1.333</v>
       </c>
       <c r="K91">
-        <v>3.1</v>
+        <v>4.333</v>
       </c>
       <c r="L91">
-        <v>3.2</v>
+        <v>7.5</v>
       </c>
       <c r="M91">
-        <v>2.1</v>
+        <v>1.45</v>
       </c>
       <c r="N91">
-        <v>3.1</v>
+        <v>4.2</v>
       </c>
       <c r="O91">
-        <v>3.2</v>
+        <v>5.75</v>
       </c>
       <c r="P91">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="Q91">
-        <v>1.875</v>
+        <v>1.75</v>
       </c>
       <c r="R91">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S91">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="T91">
+        <v>2</v>
+      </c>
+      <c r="U91">
         <v>1.8</v>
       </c>
-      <c r="U91">
-        <v>2</v>
-      </c>
       <c r="V91">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="W91">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="X91">
         <v>-1</v>
       </c>
       <c r="Y91">
-        <v>-0.5</v>
+        <v>0.75</v>
       </c>
       <c r="Z91">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AA91">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB91">
-        <v>0</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="92" spans="1:28">
@@ -8620,7 +8620,7 @@
         <v>36</v>
       </c>
       <c r="F95" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G95">
         <v>1</v>
@@ -8792,7 +8792,7 @@
         <v>37</v>
       </c>
       <c r="F97" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G97">
         <v>1</v>
@@ -8875,7 +8875,7 @@
         <v>45226.375</v>
       </c>
       <c r="E98" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F98" t="s">
         <v>41</v>
@@ -9133,7 +9133,7 @@
         <v>45227.375</v>
       </c>
       <c r="E101" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F101" t="s">
         <v>34</v>
@@ -9391,7 +9391,7 @@
         <v>45227.375</v>
       </c>
       <c r="E104" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F104" t="s">
         <v>42</v>
@@ -9566,7 +9566,7 @@
         <v>37</v>
       </c>
       <c r="F106" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G106">
         <v>1</v>
@@ -9910,7 +9910,7 @@
         <v>43</v>
       </c>
       <c r="F110" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G110">
         <v>1</v>
@@ -9984,7 +9984,7 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>6989522</v>
+        <v>6989691</v>
       </c>
       <c r="C111" t="s">
         <v>27</v>
@@ -9993,40 +9993,40 @@
         <v>45236.375</v>
       </c>
       <c r="E111" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F111" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G111">
         <v>0</v>
       </c>
       <c r="H111">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I111" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J111">
-        <v>1.65</v>
+        <v>2</v>
       </c>
       <c r="K111">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="L111">
-        <v>5.5</v>
+        <v>3.6</v>
       </c>
       <c r="M111">
-        <v>2.25</v>
+        <v>1.95</v>
       </c>
       <c r="N111">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="O111">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="P111">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="Q111">
         <v>2</v>
@@ -10038,19 +10038,19 @@
         <v>2</v>
       </c>
       <c r="T111">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="U111">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V111">
         <v>-1</v>
       </c>
       <c r="W111">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="X111">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y111">
         <v>-1</v>
@@ -10062,7 +10062,7 @@
         <v>-1</v>
       </c>
       <c r="AB111">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="112" spans="1:28">
@@ -10070,7 +10070,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>6989521</v>
+        <v>6989522</v>
       </c>
       <c r="C112" t="s">
         <v>27</v>
@@ -10079,46 +10079,46 @@
         <v>45236.375</v>
       </c>
       <c r="E112" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="F112" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G112">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H112">
         <v>1</v>
       </c>
       <c r="I112" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J112">
-        <v>2.4</v>
+        <v>1.65</v>
       </c>
       <c r="K112">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="L112">
-        <v>2.75</v>
+        <v>5.5</v>
       </c>
       <c r="M112">
-        <v>2.875</v>
+        <v>2.25</v>
       </c>
       <c r="N112">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="O112">
-        <v>2.45</v>
+        <v>3.25</v>
       </c>
       <c r="P112">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="Q112">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="R112">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="S112">
         <v>2</v>
@@ -10133,22 +10133,22 @@
         <v>-1</v>
       </c>
       <c r="W112">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="X112">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y112">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z112">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AA112">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB112">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113" spans="1:28">
@@ -10156,7 +10156,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>6989691</v>
+        <v>6989521</v>
       </c>
       <c r="C113" t="s">
         <v>27</v>
@@ -10165,76 +10165,76 @@
         <v>45236.375</v>
       </c>
       <c r="E113" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="F113" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="G113">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H113">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I113" t="s">
         <v>46</v>
       </c>
       <c r="J113">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="K113">
         <v>3</v>
       </c>
       <c r="L113">
-        <v>3.6</v>
+        <v>2.75</v>
       </c>
       <c r="M113">
-        <v>1.95</v>
+        <v>2.875</v>
       </c>
       <c r="N113">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="O113">
-        <v>3.75</v>
+        <v>2.45</v>
       </c>
       <c r="P113">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="Q113">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="R113">
+        <v>1.75</v>
+      </c>
+      <c r="S113">
+        <v>2</v>
+      </c>
+      <c r="T113">
         <v>1.8</v>
       </c>
-      <c r="S113">
-        <v>2</v>
-      </c>
-      <c r="T113">
-        <v>1.9</v>
-      </c>
       <c r="U113">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V113">
         <v>-1</v>
       </c>
       <c r="W113">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="X113">
         <v>-1</v>
       </c>
       <c r="Y113">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Z113">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AA113">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB113">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:28">
@@ -10254,7 +10254,7 @@
         <v>38</v>
       </c>
       <c r="F114" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G114">
         <v>1</v>
@@ -10684,7 +10684,7 @@
         <v>40</v>
       </c>
       <c r="F119" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G119">
         <v>0</v>
@@ -10770,7 +10770,7 @@
         <v>42</v>
       </c>
       <c r="F120" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G120">
         <v>4</v>
@@ -10939,7 +10939,7 @@
         <v>45248.375</v>
       </c>
       <c r="E122" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F122" t="s">
         <v>36</v>
@@ -11111,7 +11111,7 @@
         <v>45248.375</v>
       </c>
       <c r="E124" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F124" t="s">
         <v>39</v>
@@ -11458,7 +11458,7 @@
         <v>43</v>
       </c>
       <c r="F128" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G128">
         <v>2</v>
@@ -11704,7 +11704,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>7497670</v>
+        <v>7497904</v>
       </c>
       <c r="C131" t="s">
         <v>27</v>
@@ -11713,76 +11713,76 @@
         <v>45252.375</v>
       </c>
       <c r="E131" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="F131" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G131">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H131">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I131" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J131">
-        <v>3.2</v>
+        <v>2.4</v>
       </c>
       <c r="K131">
-        <v>2.9</v>
+        <v>2.875</v>
       </c>
       <c r="L131">
-        <v>2.2</v>
+        <v>2.875</v>
       </c>
       <c r="M131">
-        <v>3.3</v>
+        <v>2.875</v>
       </c>
       <c r="N131">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="O131">
-        <v>2.15</v>
+        <v>2.3</v>
       </c>
       <c r="P131">
         <v>0.25</v>
       </c>
       <c r="Q131">
+        <v>1.75</v>
+      </c>
+      <c r="R131">
+        <v>2.05</v>
+      </c>
+      <c r="S131">
+        <v>2</v>
+      </c>
+      <c r="T131">
+        <v>1.925</v>
+      </c>
+      <c r="U131">
         <v>1.875</v>
       </c>
-      <c r="R131">
-        <v>1.925</v>
-      </c>
-      <c r="S131">
-        <v>2</v>
-      </c>
-      <c r="T131">
-        <v>1.95</v>
-      </c>
-      <c r="U131">
-        <v>1.85</v>
-      </c>
       <c r="V131">
         <v>-1</v>
       </c>
       <c r="W131">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="X131">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Y131">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="Z131">
-        <v>-0.5</v>
+        <v>1.05</v>
       </c>
       <c r="AA131">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB131">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="132" spans="1:28">
@@ -11790,7 +11790,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>7497904</v>
+        <v>7497902</v>
       </c>
       <c r="C132" t="s">
         <v>27</v>
@@ -11799,76 +11799,76 @@
         <v>45252.375</v>
       </c>
       <c r="E132" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F132" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="G132">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H132">
         <v>1</v>
       </c>
       <c r="I132" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J132">
-        <v>2.4</v>
+        <v>1.909</v>
       </c>
       <c r="K132">
-        <v>2.875</v>
+        <v>3</v>
       </c>
       <c r="L132">
-        <v>2.875</v>
+        <v>4</v>
       </c>
       <c r="M132">
-        <v>2.875</v>
+        <v>1.75</v>
       </c>
       <c r="N132">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="O132">
-        <v>2.3</v>
+        <v>4.75</v>
       </c>
       <c r="P132">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="Q132">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="R132">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S132">
         <v>2</v>
       </c>
       <c r="T132">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="U132">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V132">
         <v>-1</v>
       </c>
       <c r="W132">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="X132">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Y132">
         <v>-1</v>
       </c>
       <c r="Z132">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="AA132">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB132">
-        <v>0.875</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:28">
@@ -11876,7 +11876,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>7497902</v>
+        <v>7497670</v>
       </c>
       <c r="C133" t="s">
         <v>27</v>
@@ -11885,76 +11885,76 @@
         <v>45252.375</v>
       </c>
       <c r="E133" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="F133" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="G133">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H133">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I133" t="s">
         <v>46</v>
       </c>
       <c r="J133">
-        <v>1.909</v>
+        <v>3.2</v>
       </c>
       <c r="K133">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="L133">
-        <v>4</v>
+        <v>2.2</v>
       </c>
       <c r="M133">
-        <v>1.75</v>
+        <v>3.3</v>
       </c>
       <c r="N133">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="O133">
-        <v>4.75</v>
+        <v>2.15</v>
       </c>
       <c r="P133">
+        <v>0.25</v>
+      </c>
+      <c r="Q133">
+        <v>1.875</v>
+      </c>
+      <c r="R133">
+        <v>1.925</v>
+      </c>
+      <c r="S133">
+        <v>2</v>
+      </c>
+      <c r="T133">
+        <v>1.95</v>
+      </c>
+      <c r="U133">
+        <v>1.85</v>
+      </c>
+      <c r="V133">
+        <v>-1</v>
+      </c>
+      <c r="W133">
+        <v>1.9</v>
+      </c>
+      <c r="X133">
+        <v>-1</v>
+      </c>
+      <c r="Y133">
+        <v>0.4375</v>
+      </c>
+      <c r="Z133">
         <v>-0.5</v>
       </c>
-      <c r="Q133">
-        <v>1.8</v>
-      </c>
-      <c r="R133">
-        <v>2</v>
-      </c>
-      <c r="S133">
-        <v>2</v>
-      </c>
-      <c r="T133">
-        <v>1.8</v>
-      </c>
-      <c r="U133">
-        <v>2</v>
-      </c>
-      <c r="V133">
-        <v>-1</v>
-      </c>
-      <c r="W133">
-        <v>2.1</v>
-      </c>
-      <c r="X133">
-        <v>-1</v>
-      </c>
-      <c r="Y133">
-        <v>-1</v>
-      </c>
-      <c r="Z133">
-        <v>1</v>
-      </c>
       <c r="AA133">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AB133">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="134" spans="1:28">
@@ -12048,7 +12048,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>6989630</v>
+        <v>6989527</v>
       </c>
       <c r="C135" t="s">
         <v>27</v>
@@ -12057,58 +12057,58 @@
         <v>45256.375</v>
       </c>
       <c r="E135" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="F135" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G135">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H135">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I135" t="s">
         <v>44</v>
       </c>
       <c r="J135">
+        <v>1.727</v>
+      </c>
+      <c r="K135">
+        <v>3.3</v>
+      </c>
+      <c r="L135">
+        <v>4.333</v>
+      </c>
+      <c r="M135">
         <v>1.444</v>
-      </c>
-      <c r="K135">
-        <v>3.75</v>
-      </c>
-      <c r="L135">
-        <v>6.5</v>
-      </c>
-      <c r="M135">
-        <v>1.533</v>
       </c>
       <c r="N135">
         <v>3.8</v>
       </c>
       <c r="O135">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="P135">
         <v>-1.25</v>
       </c>
       <c r="Q135">
-        <v>2.075</v>
+        <v>1.975</v>
       </c>
       <c r="R135">
-        <v>1.725</v>
+        <v>1.825</v>
       </c>
       <c r="S135">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="T135">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="U135">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V135">
-        <v>0.5329999999999999</v>
+        <v>0.444</v>
       </c>
       <c r="W135">
         <v>-1</v>
@@ -12117,13 +12117,13 @@
         <v>-1</v>
       </c>
       <c r="Y135">
-        <v>1.075</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="Z135">
         <v>-1</v>
       </c>
       <c r="AA135">
-        <v>0.8999999999999999</v>
+        <v>0.875</v>
       </c>
       <c r="AB135">
         <v>-1</v>
@@ -12134,7 +12134,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>6989629</v>
+        <v>6989526</v>
       </c>
       <c r="C136" t="s">
         <v>27</v>
@@ -12143,13 +12143,13 @@
         <v>45256.375</v>
       </c>
       <c r="E136" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="F136" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G136">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H136">
         <v>0</v>
@@ -12158,43 +12158,43 @@
         <v>44</v>
       </c>
       <c r="J136">
+        <v>1.909</v>
+      </c>
+      <c r="K136">
+        <v>3</v>
+      </c>
+      <c r="L136">
+        <v>4</v>
+      </c>
+      <c r="M136">
         <v>2.1</v>
       </c>
-      <c r="K136">
-        <v>2.875</v>
-      </c>
-      <c r="L136">
+      <c r="N136">
+        <v>2.9</v>
+      </c>
+      <c r="O136">
         <v>3.5</v>
       </c>
-      <c r="M136">
-        <v>1.75</v>
-      </c>
-      <c r="N136">
-        <v>3.2</v>
-      </c>
-      <c r="O136">
-        <v>4.75</v>
-      </c>
       <c r="P136">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="Q136">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="R136">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="S136">
         <v>2</v>
       </c>
       <c r="T136">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="U136">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="V136">
-        <v>0.75</v>
+        <v>1.1</v>
       </c>
       <c r="W136">
         <v>-1</v>
@@ -12203,16 +12203,16 @@
         <v>-1</v>
       </c>
       <c r="Y136">
-        <v>0.475</v>
+        <v>0.825</v>
       </c>
       <c r="Z136">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA136">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB136">
-        <v>0.7749999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:28">
@@ -12220,7 +12220,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>6989527</v>
+        <v>6989629</v>
       </c>
       <c r="C137" t="s">
         <v>27</v>
@@ -12229,58 +12229,58 @@
         <v>45256.375</v>
       </c>
       <c r="E137" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="F137" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="G137">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H137">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I137" t="s">
         <v>44</v>
       </c>
       <c r="J137">
-        <v>1.727</v>
+        <v>2.1</v>
       </c>
       <c r="K137">
-        <v>3.3</v>
+        <v>2.875</v>
       </c>
       <c r="L137">
-        <v>4.333</v>
+        <v>3.5</v>
       </c>
       <c r="M137">
-        <v>1.444</v>
+        <v>1.75</v>
       </c>
       <c r="N137">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="O137">
-        <v>7</v>
+        <v>4.75</v>
       </c>
       <c r="P137">
-        <v>-1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="Q137">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="R137">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="S137">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="T137">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="U137">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="V137">
-        <v>0.444</v>
+        <v>0.75</v>
       </c>
       <c r="W137">
         <v>-1</v>
@@ -12289,16 +12289,16 @@
         <v>-1</v>
       </c>
       <c r="Y137">
-        <v>0.9750000000000001</v>
+        <v>0.475</v>
       </c>
       <c r="Z137">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA137">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB137">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="138" spans="1:28">
@@ -12306,7 +12306,7 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>6989699</v>
+        <v>6989630</v>
       </c>
       <c r="C138" t="s">
         <v>27</v>
@@ -12315,73 +12315,73 @@
         <v>45256.375</v>
       </c>
       <c r="E138" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F138" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G138">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H138">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I138" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J138">
-        <v>1.833</v>
+        <v>1.444</v>
       </c>
       <c r="K138">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="L138">
-        <v>4</v>
+        <v>6.5</v>
       </c>
       <c r="M138">
-        <v>1.666</v>
+        <v>1.533</v>
       </c>
       <c r="N138">
-        <v>3.25</v>
+        <v>3.8</v>
       </c>
       <c r="O138">
-        <v>4.75</v>
+        <v>6</v>
       </c>
       <c r="P138">
-        <v>-0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="Q138">
-        <v>1.95</v>
+        <v>2.075</v>
       </c>
       <c r="R138">
-        <v>1.85</v>
+        <v>1.725</v>
       </c>
       <c r="S138">
-        <v>1.75</v>
+        <v>2.5</v>
       </c>
       <c r="T138">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="U138">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V138">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="W138">
         <v>-1</v>
       </c>
       <c r="X138">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Y138">
-        <v>-1</v>
+        <v>1.075</v>
       </c>
       <c r="Z138">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA138">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB138">
         <v>-1</v>
@@ -12392,7 +12392,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>6989526</v>
+        <v>6989699</v>
       </c>
       <c r="C139" t="s">
         <v>27</v>
@@ -12401,76 +12401,76 @@
         <v>45256.375</v>
       </c>
       <c r="E139" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F139" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G139">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H139">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I139" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J139">
-        <v>1.909</v>
+        <v>1.833</v>
       </c>
       <c r="K139">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="L139">
         <v>4</v>
       </c>
       <c r="M139">
-        <v>2.1</v>
+        <v>1.666</v>
       </c>
       <c r="N139">
-        <v>2.9</v>
+        <v>3.25</v>
       </c>
       <c r="O139">
-        <v>3.5</v>
+        <v>4.75</v>
       </c>
       <c r="P139">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="Q139">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="R139">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S139">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="T139">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="U139">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V139">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="W139">
         <v>-1</v>
       </c>
       <c r="X139">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Y139">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="Z139">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA139">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB139">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="140" spans="1:28">
@@ -12917,7 +12917,7 @@
         <v>45262.375</v>
       </c>
       <c r="E145" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F145" t="s">
         <v>37</v>
@@ -13264,7 +13264,7 @@
         <v>35</v>
       </c>
       <c r="F149" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G149">
         <v>2</v>
@@ -13347,7 +13347,7 @@
         <v>45263.375</v>
       </c>
       <c r="E150" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F150" t="s">
         <v>33</v>
@@ -13522,7 +13522,7 @@
         <v>42</v>
       </c>
       <c r="F152" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G152">
         <v>1</v>
@@ -13691,7 +13691,7 @@
         <v>45270.375</v>
       </c>
       <c r="E154" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F154" t="s">
         <v>31</v>
@@ -13780,7 +13780,7 @@
         <v>38</v>
       </c>
       <c r="F155" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G155">
         <v>2</v>
@@ -14210,7 +14210,7 @@
         <v>33</v>
       </c>
       <c r="F160" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G160">
         <v>1</v>
@@ -14468,7 +14468,7 @@
         <v>32</v>
       </c>
       <c r="F163" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G163">
         <v>0</v>
@@ -14551,7 +14551,7 @@
         <v>45346.375</v>
       </c>
       <c r="E164" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F164" t="s">
         <v>39</v>
@@ -14726,7 +14726,7 @@
         <v>35</v>
       </c>
       <c r="F166" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G166">
         <v>0</v>
@@ -15144,7 +15144,7 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>7901795</v>
+        <v>7901796</v>
       </c>
       <c r="C171" t="s">
         <v>27</v>
@@ -15153,76 +15153,76 @@
         <v>45353.375</v>
       </c>
       <c r="E171" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F171" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G171">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H171">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I171" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J171">
-        <v>1.666</v>
+        <v>1.4</v>
       </c>
       <c r="K171">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="L171">
-        <v>4.5</v>
+        <v>8</v>
       </c>
       <c r="M171">
-        <v>1.444</v>
+        <v>1.65</v>
       </c>
       <c r="N171">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="O171">
-        <v>7</v>
+        <v>4.75</v>
       </c>
       <c r="P171">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="Q171">
-        <v>1.725</v>
+        <v>1.825</v>
       </c>
       <c r="R171">
         <v>1.975</v>
       </c>
       <c r="S171">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="T171">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="U171">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V171">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="W171">
         <v>-1</v>
       </c>
       <c r="X171">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Y171">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z171">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA171">
         <v>-1</v>
       </c>
       <c r="AB171">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="172" spans="1:28">
@@ -15230,7 +15230,7 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>7901796</v>
+        <v>7901795</v>
       </c>
       <c r="C172" t="s">
         <v>27</v>
@@ -15239,76 +15239,76 @@
         <v>45353.375</v>
       </c>
       <c r="E172" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F172" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G172">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H172">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I172" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J172">
-        <v>1.4</v>
+        <v>1.666</v>
       </c>
       <c r="K172">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="L172">
-        <v>8</v>
+        <v>4.5</v>
       </c>
       <c r="M172">
-        <v>1.65</v>
+        <v>1.444</v>
       </c>
       <c r="N172">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="O172">
-        <v>4.75</v>
+        <v>7</v>
       </c>
       <c r="P172">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="Q172">
-        <v>1.825</v>
+        <v>1.725</v>
       </c>
       <c r="R172">
         <v>1.975</v>
       </c>
       <c r="S172">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="T172">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="U172">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V172">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="W172">
         <v>-1</v>
       </c>
       <c r="X172">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Y172">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Z172">
-        <v>0.9750000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA172">
         <v>-1</v>
       </c>
       <c r="AB172">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="173" spans="1:28">
@@ -15325,10 +15325,10 @@
         <v>45353.375</v>
       </c>
       <c r="E173" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F173" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G173">
         <v>0</v>
@@ -15497,7 +15497,7 @@
         <v>45353.375</v>
       </c>
       <c r="E175" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F175" t="s">
         <v>31</v>
@@ -16004,7 +16004,7 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>6989334</v>
+        <v>6989711</v>
       </c>
       <c r="C181" t="s">
         <v>27</v>
@@ -16013,76 +16013,76 @@
         <v>45357.54166666666</v>
       </c>
       <c r="E181" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="F181" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G181">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H181">
         <v>0</v>
       </c>
       <c r="I181" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J181">
-        <v>1.8</v>
+        <v>2.25</v>
       </c>
       <c r="K181">
+        <v>2.9</v>
+      </c>
+      <c r="L181">
         <v>3.1</v>
       </c>
-      <c r="L181">
-        <v>4.2</v>
-      </c>
       <c r="M181">
-        <v>2.05</v>
+        <v>2.25</v>
       </c>
       <c r="N181">
-        <v>3</v>
+        <v>2.7</v>
       </c>
       <c r="O181">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P181">
         <v>-0.25</v>
       </c>
       <c r="Q181">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="R181">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S181">
-        <v>1.5</v>
+        <v>1.75</v>
       </c>
       <c r="T181">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="U181">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="V181">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="W181">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="X181">
         <v>-1</v>
       </c>
       <c r="Y181">
+        <v>0.95</v>
+      </c>
+      <c r="Z181">
+        <v>-1</v>
+      </c>
+      <c r="AA181">
+        <v>0.475</v>
+      </c>
+      <c r="AB181">
         <v>-0.5</v>
-      </c>
-      <c r="Z181">
-        <v>0.5</v>
-      </c>
-      <c r="AA181">
-        <v>-1</v>
-      </c>
-      <c r="AB181">
-        <v>1</v>
       </c>
     </row>
     <row r="182" spans="1:28">
@@ -16102,7 +16102,7 @@
         <v>32</v>
       </c>
       <c r="F182" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G182">
         <v>1</v>
@@ -16176,7 +16176,7 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>6989711</v>
+        <v>6989334</v>
       </c>
       <c r="C183" t="s">
         <v>27</v>
@@ -16185,76 +16185,76 @@
         <v>45357.54166666666</v>
       </c>
       <c r="E183" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="F183" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G183">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H183">
         <v>0</v>
       </c>
       <c r="I183" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="J183">
-        <v>2.25</v>
+        <v>1.8</v>
       </c>
       <c r="K183">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="L183">
-        <v>3.1</v>
+        <v>4.2</v>
       </c>
       <c r="M183">
-        <v>2.25</v>
+        <v>2.05</v>
       </c>
       <c r="N183">
-        <v>2.7</v>
+        <v>3</v>
       </c>
       <c r="O183">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P183">
         <v>-0.25</v>
       </c>
       <c r="Q183">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="R183">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="S183">
-        <v>1.75</v>
+        <v>1.5</v>
       </c>
       <c r="T183">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="U183">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="V183">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="W183">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="X183">
         <v>-1</v>
       </c>
       <c r="Y183">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="Z183">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="AA183">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AB183">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="184" spans="1:28">
@@ -16271,7 +16271,7 @@
         <v>45358.41666666666</v>
       </c>
       <c r="E184" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F184" t="s">
         <v>33</v>
@@ -16529,7 +16529,7 @@
         <v>45361.41666666666</v>
       </c>
       <c r="E187" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F187" t="s">
         <v>43</v>
@@ -16692,7 +16692,7 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>6989643</v>
+        <v>6989536</v>
       </c>
       <c r="C189" t="s">
         <v>27</v>
@@ -16701,76 +16701,76 @@
         <v>45362.41666666666</v>
       </c>
       <c r="E189" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F189" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G189">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H189">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I189" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J189">
         <v>2.25</v>
       </c>
       <c r="K189">
+        <v>2.75</v>
+      </c>
+      <c r="L189">
         <v>3.25</v>
       </c>
-      <c r="L189">
-        <v>2.75</v>
-      </c>
       <c r="M189">
-        <v>2.3</v>
+        <v>1.4</v>
       </c>
       <c r="N189">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="O189">
-        <v>2.625</v>
+        <v>7</v>
       </c>
       <c r="P189">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="Q189">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="R189">
-        <v>1.725</v>
+        <v>1.925</v>
       </c>
       <c r="S189">
-        <v>1.75</v>
+        <v>2.5</v>
       </c>
       <c r="T189">
-        <v>1.725</v>
+        <v>1.875</v>
       </c>
       <c r="U189">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V189">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="W189">
         <v>-1</v>
       </c>
       <c r="X189">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="Y189">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z189">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA189">
         <v>-1</v>
       </c>
       <c r="AB189">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="190" spans="1:28">
@@ -16778,7 +16778,7 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>6989537</v>
+        <v>6989643</v>
       </c>
       <c r="C190" t="s">
         <v>27</v>
@@ -16787,10 +16787,10 @@
         <v>45362.41666666666</v>
       </c>
       <c r="E190" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="F190" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G190">
         <v>1</v>
@@ -16802,43 +16802,43 @@
         <v>44</v>
       </c>
       <c r="J190">
-        <v>1.8</v>
+        <v>2.25</v>
       </c>
       <c r="K190">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="L190">
-        <v>4.2</v>
+        <v>2.75</v>
       </c>
       <c r="M190">
-        <v>1.5</v>
+        <v>2.3</v>
       </c>
       <c r="N190">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="O190">
-        <v>6.5</v>
+        <v>2.625</v>
       </c>
       <c r="P190">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="Q190">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="R190">
-        <v>1.95</v>
+        <v>1.725</v>
       </c>
       <c r="S190">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
       <c r="T190">
-        <v>2.025</v>
+        <v>1.725</v>
       </c>
       <c r="U190">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="V190">
-        <v>0.5</v>
+        <v>1.3</v>
       </c>
       <c r="W190">
         <v>-1</v>
@@ -16847,16 +16847,16 @@
         <v>-1</v>
       </c>
       <c r="Y190">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="Z190">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA190">
         <v>-1</v>
       </c>
       <c r="AB190">
-        <v>0.7749999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="191" spans="1:28">
@@ -16864,7 +16864,7 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>6989536</v>
+        <v>6989537</v>
       </c>
       <c r="C191" t="s">
         <v>27</v>
@@ -16873,76 +16873,76 @@
         <v>45362.41666666666</v>
       </c>
       <c r="E191" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="F191" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G191">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H191">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I191" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J191">
+        <v>1.8</v>
+      </c>
+      <c r="K191">
+        <v>3.1</v>
+      </c>
+      <c r="L191">
+        <v>4.2</v>
+      </c>
+      <c r="M191">
+        <v>1.5</v>
+      </c>
+      <c r="N191">
+        <v>3.5</v>
+      </c>
+      <c r="O191">
+        <v>6.5</v>
+      </c>
+      <c r="P191">
+        <v>-1</v>
+      </c>
+      <c r="Q191">
+        <v>1.85</v>
+      </c>
+      <c r="R191">
+        <v>1.95</v>
+      </c>
+      <c r="S191">
         <v>2.25</v>
       </c>
-      <c r="K191">
-        <v>2.75</v>
-      </c>
-      <c r="L191">
-        <v>3.25</v>
-      </c>
-      <c r="M191">
-        <v>1.4</v>
-      </c>
-      <c r="N191">
-        <v>4</v>
-      </c>
-      <c r="O191">
-        <v>7</v>
-      </c>
-      <c r="P191">
-        <v>-1.25</v>
-      </c>
-      <c r="Q191">
-        <v>1.875</v>
-      </c>
-      <c r="R191">
-        <v>1.925</v>
-      </c>
-      <c r="S191">
-        <v>2.5</v>
-      </c>
       <c r="T191">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="U191">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="V191">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="W191">
         <v>-1</v>
       </c>
       <c r="X191">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="Y191">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Z191">
-        <v>0.925</v>
+        <v>0</v>
       </c>
       <c r="AA191">
         <v>-1</v>
       </c>
       <c r="AB191">
-        <v>0.925</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="192" spans="1:28">
@@ -17208,7 +17208,7 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>6989645</v>
+        <v>6989539</v>
       </c>
       <c r="C195" t="s">
         <v>27</v>
@@ -17217,10 +17217,10 @@
         <v>45368.41666666666</v>
       </c>
       <c r="E195" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="F195" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="G195">
         <v>1</v>
@@ -17232,43 +17232,43 @@
         <v>44</v>
       </c>
       <c r="J195">
-        <v>1.8</v>
+        <v>2.8</v>
       </c>
       <c r="K195">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="L195">
-        <v>4.2</v>
+        <v>2.4</v>
       </c>
       <c r="M195">
-        <v>1.8</v>
+        <v>2.4</v>
       </c>
       <c r="N195">
-        <v>2.875</v>
+        <v>3.25</v>
       </c>
       <c r="O195">
-        <v>5</v>
+        <v>2.7</v>
       </c>
       <c r="P195">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="Q195">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="R195">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="S195">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="T195">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="U195">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V195">
-        <v>0.8</v>
+        <v>1.4</v>
       </c>
       <c r="W195">
         <v>-1</v>
@@ -17277,7 +17277,7 @@
         <v>-1</v>
       </c>
       <c r="Y195">
-        <v>0.825</v>
+        <v>0.75</v>
       </c>
       <c r="Z195">
         <v>-1</v>
@@ -17286,7 +17286,7 @@
         <v>-1</v>
       </c>
       <c r="AB195">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="196" spans="1:28">
@@ -17294,7 +17294,7 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>6989539</v>
+        <v>6989645</v>
       </c>
       <c r="C196" t="s">
         <v>27</v>
@@ -17303,10 +17303,10 @@
         <v>45368.41666666666</v>
       </c>
       <c r="E196" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F196" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G196">
         <v>1</v>
@@ -17318,43 +17318,43 @@
         <v>44</v>
       </c>
       <c r="J196">
-        <v>2.8</v>
+        <v>1.8</v>
       </c>
       <c r="K196">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="L196">
-        <v>2.4</v>
+        <v>4.2</v>
       </c>
       <c r="M196">
-        <v>2.4</v>
+        <v>1.8</v>
       </c>
       <c r="N196">
-        <v>3.25</v>
+        <v>2.875</v>
       </c>
       <c r="O196">
-        <v>2.7</v>
+        <v>5</v>
       </c>
       <c r="P196">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="Q196">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="R196">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="S196">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="T196">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="U196">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V196">
-        <v>1.4</v>
+        <v>0.8</v>
       </c>
       <c r="W196">
         <v>-1</v>
@@ -17363,7 +17363,7 @@
         <v>-1</v>
       </c>
       <c r="Y196">
-        <v>0.75</v>
+        <v>0.825</v>
       </c>
       <c r="Z196">
         <v>-1</v>
@@ -17372,7 +17372,7 @@
         <v>-1</v>
       </c>
       <c r="AB196">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="197" spans="1:28">
@@ -17392,7 +17392,7 @@
         <v>40</v>
       </c>
       <c r="F197" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G197">
         <v>0</v>
@@ -17647,7 +17647,7 @@
         <v>45374.45833333334</v>
       </c>
       <c r="E200" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F200" t="s">
         <v>43</v>
@@ -17908,7 +17908,7 @@
         <v>31</v>
       </c>
       <c r="F203" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G203">
         <v>1</v>
@@ -18249,7 +18249,7 @@
         <v>45377.45833333334</v>
       </c>
       <c r="E207" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F207" t="s">
         <v>36</v>
@@ -18421,7 +18421,7 @@
         <v>45380.45833333334</v>
       </c>
       <c r="E209" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F209" t="s">
         <v>32</v>
@@ -18596,7 +18596,7 @@
         <v>40</v>
       </c>
       <c r="F211" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G211">
         <v>3</v>
@@ -18756,7 +18756,7 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>6989719</v>
+        <v>6989720</v>
       </c>
       <c r="C213" t="s">
         <v>27</v>
@@ -18765,73 +18765,73 @@
         <v>45381.45833333334</v>
       </c>
       <c r="E213" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F213" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="G213">
+        <v>1</v>
+      </c>
+      <c r="H213">
+        <v>2</v>
+      </c>
+      <c r="I213" t="s">
+        <v>45</v>
+      </c>
+      <c r="J213">
+        <v>1.444</v>
+      </c>
+      <c r="K213">
+        <v>4.2</v>
+      </c>
+      <c r="L213">
+        <v>5.5</v>
+      </c>
+      <c r="M213">
+        <v>1.444</v>
+      </c>
+      <c r="N213">
+        <v>4</v>
+      </c>
+      <c r="O213">
+        <v>6</v>
+      </c>
+      <c r="P213">
+        <v>-1</v>
+      </c>
+      <c r="Q213">
+        <v>1.725</v>
+      </c>
+      <c r="R213">
+        <v>1.975</v>
+      </c>
+      <c r="S213">
+        <v>2.25</v>
+      </c>
+      <c r="T213">
+        <v>1.8</v>
+      </c>
+      <c r="U213">
+        <v>2</v>
+      </c>
+      <c r="V213">
+        <v>-1</v>
+      </c>
+      <c r="W213">
+        <v>-1</v>
+      </c>
+      <c r="X213">
         <v>5</v>
       </c>
-      <c r="H213">
-        <v>2</v>
-      </c>
-      <c r="I213" t="s">
-        <v>44</v>
-      </c>
-      <c r="J213">
-        <v>1.833</v>
-      </c>
-      <c r="K213">
-        <v>3</v>
-      </c>
-      <c r="L213">
-        <v>4.2</v>
-      </c>
-      <c r="M213">
-        <v>1.7</v>
-      </c>
-      <c r="N213">
-        <v>3</v>
-      </c>
-      <c r="O213">
-        <v>5.25</v>
-      </c>
-      <c r="P213">
-        <v>-0.75</v>
-      </c>
-      <c r="Q213">
-        <v>2</v>
-      </c>
-      <c r="R213">
-        <v>1.8</v>
-      </c>
-      <c r="S213">
-        <v>1.75</v>
-      </c>
-      <c r="T213">
-        <v>1.9</v>
-      </c>
-      <c r="U213">
-        <v>1.9</v>
-      </c>
-      <c r="V213">
-        <v>0.7</v>
-      </c>
-      <c r="W213">
-        <v>-1</v>
-      </c>
-      <c r="X213">
-        <v>-1</v>
-      </c>
       <c r="Y213">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z213">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA213">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AB213">
         <v>-1</v>
@@ -18842,7 +18842,7 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>6989720</v>
+        <v>6989719</v>
       </c>
       <c r="C214" t="s">
         <v>27</v>
@@ -18851,73 +18851,73 @@
         <v>45381.45833333334</v>
       </c>
       <c r="E214" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F214" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="G214">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H214">
         <v>2</v>
       </c>
       <c r="I214" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J214">
-        <v>1.444</v>
+        <v>1.833</v>
       </c>
       <c r="K214">
+        <v>3</v>
+      </c>
+      <c r="L214">
         <v>4.2</v>
       </c>
-      <c r="L214">
-        <v>5.5</v>
-      </c>
       <c r="M214">
-        <v>1.444</v>
+        <v>1.7</v>
       </c>
       <c r="N214">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O214">
-        <v>6</v>
+        <v>5.25</v>
       </c>
       <c r="P214">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="Q214">
-        <v>1.725</v>
+        <v>2</v>
       </c>
       <c r="R214">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S214">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
       <c r="T214">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="U214">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V214">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="W214">
         <v>-1</v>
       </c>
       <c r="X214">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="Y214">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z214">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA214">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB214">
         <v>-1</v>
@@ -19198,7 +19198,7 @@
         <v>38</v>
       </c>
       <c r="F218" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G218">
         <v>0</v>
@@ -19367,7 +19367,7 @@
         <v>45385.45833333334</v>
       </c>
       <c r="E220" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F220" t="s">
         <v>37</v>
@@ -19453,7 +19453,7 @@
         <v>45385.45833333334</v>
       </c>
       <c r="E221" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F221" t="s">
         <v>36</v>
@@ -19616,7 +19616,7 @@
         <v>221</v>
       </c>
       <c r="B223">
-        <v>6989653</v>
+        <v>6989654</v>
       </c>
       <c r="C223" t="s">
         <v>27</v>
@@ -19625,76 +19625,76 @@
         <v>45389.45833333334</v>
       </c>
       <c r="E223" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="F223" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G223">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H223">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I223" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="J223">
-        <v>1.4</v>
+        <v>1.909</v>
       </c>
       <c r="K223">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="L223">
-        <v>6.5</v>
+        <v>3.4</v>
       </c>
       <c r="M223">
+        <v>1.533</v>
+      </c>
+      <c r="N223">
+        <v>3.6</v>
+      </c>
+      <c r="O223">
+        <v>5.5</v>
+      </c>
+      <c r="P223">
+        <v>-0.5</v>
+      </c>
+      <c r="Q223">
+        <v>1.75</v>
+      </c>
+      <c r="R223">
+        <v>2.05</v>
+      </c>
+      <c r="S223">
+        <v>2</v>
+      </c>
+      <c r="T223">
+        <v>1.975</v>
+      </c>
+      <c r="U223">
+        <v>1.825</v>
+      </c>
+      <c r="V223">
+        <v>-1</v>
+      </c>
+      <c r="W223">
         <v>2.6</v>
       </c>
-      <c r="N223">
-        <v>3.2</v>
-      </c>
-      <c r="O223">
-        <v>2.375</v>
-      </c>
-      <c r="P223">
-        <v>0</v>
-      </c>
-      <c r="Q223">
-        <v>2</v>
-      </c>
-      <c r="R223">
-        <v>1.8</v>
-      </c>
-      <c r="S223">
-        <v>2.25</v>
-      </c>
-      <c r="T223">
-        <v>1.8</v>
-      </c>
-      <c r="U223">
-        <v>2</v>
-      </c>
-      <c r="V223">
-        <v>1.6</v>
-      </c>
-      <c r="W223">
-        <v>-1</v>
-      </c>
       <c r="X223">
         <v>-1</v>
       </c>
       <c r="Y223">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z223">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA223">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB223">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="224" spans="1:28">
@@ -19702,7 +19702,7 @@
         <v>222</v>
       </c>
       <c r="B224">
-        <v>6989654</v>
+        <v>6989546</v>
       </c>
       <c r="C224" t="s">
         <v>27</v>
@@ -19711,73 +19711,73 @@
         <v>45389.45833333334</v>
       </c>
       <c r="E224" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="F224" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G224">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H224">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I224" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J224">
-        <v>1.909</v>
+        <v>2.4</v>
       </c>
       <c r="K224">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="L224">
-        <v>3.4</v>
+        <v>2.75</v>
       </c>
       <c r="M224">
-        <v>1.533</v>
+        <v>2.4</v>
       </c>
       <c r="N224">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="O224">
-        <v>5.5</v>
+        <v>2.75</v>
       </c>
       <c r="P224">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="Q224">
+        <v>1.775</v>
+      </c>
+      <c r="R224">
+        <v>2.025</v>
+      </c>
+      <c r="S224">
+        <v>2</v>
+      </c>
+      <c r="T224">
+        <v>1.85</v>
+      </c>
+      <c r="U224">
+        <v>1.95</v>
+      </c>
+      <c r="V224">
+        <v>-1</v>
+      </c>
+      <c r="W224">
+        <v>-1</v>
+      </c>
+      <c r="X224">
         <v>1.75</v>
       </c>
-      <c r="R224">
-        <v>2.05</v>
-      </c>
-      <c r="S224">
-        <v>2</v>
-      </c>
-      <c r="T224">
-        <v>1.975</v>
-      </c>
-      <c r="U224">
-        <v>1.825</v>
-      </c>
-      <c r="V224">
-        <v>-1</v>
-      </c>
-      <c r="W224">
-        <v>2.6</v>
-      </c>
-      <c r="X224">
-        <v>-1</v>
-      </c>
       <c r="Y224">
         <v>-1</v>
       </c>
       <c r="Z224">
-        <v>1.05</v>
+        <v>1.025</v>
       </c>
       <c r="AA224">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB224">
         <v>-1</v>
@@ -19788,7 +19788,7 @@
         <v>223</v>
       </c>
       <c r="B225">
-        <v>6989546</v>
+        <v>6989653</v>
       </c>
       <c r="C225" t="s">
         <v>27</v>
@@ -19797,76 +19797,76 @@
         <v>45389.45833333334</v>
       </c>
       <c r="E225" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F225" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G225">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H225">
+        <v>0</v>
+      </c>
+      <c r="I225" t="s">
+        <v>44</v>
+      </c>
+      <c r="J225">
+        <v>1.4</v>
+      </c>
+      <c r="K225">
         <v>4</v>
       </c>
-      <c r="I225" t="s">
-        <v>45</v>
-      </c>
-      <c r="J225">
-        <v>2.4</v>
-      </c>
-      <c r="K225">
-        <v>3</v>
-      </c>
       <c r="L225">
-        <v>2.75</v>
+        <v>6.5</v>
       </c>
       <c r="M225">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="N225">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="O225">
-        <v>2.75</v>
+        <v>2.375</v>
       </c>
       <c r="P225">
         <v>0</v>
       </c>
       <c r="Q225">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="R225">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="S225">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="T225">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="U225">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V225">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="W225">
         <v>-1</v>
       </c>
       <c r="X225">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Y225">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z225">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA225">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB225">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="226" spans="1:28">
@@ -19886,7 +19886,7 @@
         <v>42</v>
       </c>
       <c r="F226" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G226">
         <v>2</v>
@@ -20132,7 +20132,7 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>6989656</v>
+        <v>6989342</v>
       </c>
       <c r="C229" t="s">
         <v>27</v>
@@ -20141,70 +20141,70 @@
         <v>45395.45833333334</v>
       </c>
       <c r="E229" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F229" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="G229">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H229">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I229" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J229">
-        <v>2.3</v>
+        <v>1.727</v>
       </c>
       <c r="K229">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="L229">
-        <v>2.875</v>
+        <v>4.75</v>
       </c>
       <c r="M229">
-        <v>2.625</v>
+        <v>1.615</v>
       </c>
       <c r="N229">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="O229">
-        <v>2.55</v>
+        <v>5.5</v>
       </c>
       <c r="P229">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="Q229">
+        <v>1.85</v>
+      </c>
+      <c r="R229">
         <v>1.95</v>
       </c>
-      <c r="R229">
+      <c r="S229">
+        <v>2</v>
+      </c>
+      <c r="T229">
+        <v>1.95</v>
+      </c>
+      <c r="U229">
         <v>1.85</v>
       </c>
-      <c r="S229">
-        <v>2</v>
-      </c>
-      <c r="T229">
-        <v>1.8</v>
-      </c>
-      <c r="U229">
-        <v>2</v>
-      </c>
       <c r="V229">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="W229">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="X229">
         <v>-1</v>
       </c>
       <c r="Y229">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z229">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA229">
         <v>0</v>
@@ -20218,7 +20218,7 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>6989342</v>
+        <v>6989656</v>
       </c>
       <c r="C230" t="s">
         <v>27</v>
@@ -20227,70 +20227,70 @@
         <v>45395.45833333334</v>
       </c>
       <c r="E230" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F230" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="G230">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H230">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I230" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="J230">
-        <v>1.727</v>
+        <v>2.3</v>
       </c>
       <c r="K230">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="L230">
-        <v>4.75</v>
+        <v>2.875</v>
       </c>
       <c r="M230">
-        <v>1.615</v>
+        <v>2.625</v>
       </c>
       <c r="N230">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="O230">
-        <v>5.5</v>
+        <v>2.55</v>
       </c>
       <c r="P230">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="Q230">
+        <v>1.95</v>
+      </c>
+      <c r="R230">
         <v>1.85</v>
       </c>
-      <c r="R230">
-        <v>1.95</v>
-      </c>
       <c r="S230">
         <v>2</v>
       </c>
       <c r="T230">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="U230">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="V230">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="W230">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="X230">
         <v>-1</v>
       </c>
       <c r="Y230">
-        <v>0.8500000000000001</v>
+        <v>0</v>
       </c>
       <c r="Z230">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA230">
         <v>0</v>
@@ -20571,7 +20571,7 @@
         <v>45397.45833333334</v>
       </c>
       <c r="E234" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F234" t="s">
         <v>37</v>
@@ -20657,7 +20657,7 @@
         <v>45402.45833333334</v>
       </c>
       <c r="E235" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F235" t="s">
         <v>39</v>
@@ -20832,7 +20832,7 @@
         <v>41</v>
       </c>
       <c r="F237" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G237">
         <v>2</v>
@@ -21348,7 +21348,7 @@
         <v>36</v>
       </c>
       <c r="F243" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G243">
         <v>2</v>
@@ -21431,7 +21431,7 @@
         <v>45409.45833333334</v>
       </c>
       <c r="E244" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F244" t="s">
         <v>38</v>
@@ -21692,7 +21692,7 @@
         <v>31</v>
       </c>
       <c r="F247" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G247">
         <v>3</v>
@@ -21775,7 +21775,7 @@
         <v>45413.45833333334</v>
       </c>
       <c r="E248" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F248" t="s">
         <v>37</v>
@@ -21947,7 +21947,7 @@
         <v>45413.45833333334</v>
       </c>
       <c r="E250" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F250" t="s">
         <v>35</v>
@@ -22208,7 +22208,7 @@
         <v>38</v>
       </c>
       <c r="F253" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G253">
         <v>3</v>
@@ -22294,7 +22294,7 @@
         <v>36</v>
       </c>
       <c r="F254" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G254">
         <v>2</v>
@@ -22377,7 +22377,7 @@
         <v>45420.5</v>
       </c>
       <c r="E255" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F255" t="s">
         <v>32</v>
@@ -22721,7 +22721,7 @@
         <v>45430.5</v>
       </c>
       <c r="E259" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F259" t="s">
         <v>37</v>

--- a/Serbia Prva Liga/Serbia Prva Liga.xlsx
+++ b/Serbia Prva Liga/Serbia Prva Liga.xlsx
@@ -127,13 +127,13 @@
     <t>FK Graficar Beograd</t>
   </si>
   <si>
-    <t>Radnicki Sremska Mitrovica</t>
+    <t>FK Indija</t>
   </si>
   <si>
     <t>FK Tekstilac Odzaci</t>
   </si>
   <si>
-    <t>FK Indija</t>
+    <t>Radnicki Sremska Mitrovica</t>
   </si>
   <si>
     <t>RFK Novi Sad 1921</t>
@@ -708,7 +708,7 @@
         <v>29</v>
       </c>
       <c r="F3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G3">
         <v>2</v>
@@ -1052,7 +1052,7 @@
         <v>33</v>
       </c>
       <c r="F7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -1384,7 +1384,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6989598</v>
+        <v>6989315</v>
       </c>
       <c r="C11" t="s">
         <v>27</v>
@@ -1396,13 +1396,13 @@
         <v>37</v>
       </c>
       <c r="F11" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" t="s">
         <v>46</v>
@@ -1420,7 +1420,7 @@
         <v>1.909</v>
       </c>
       <c r="N11">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="O11">
         <v>3.6</v>
@@ -1435,19 +1435,19 @@
         <v>1.825</v>
       </c>
       <c r="S11">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="T11">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="U11">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="V11">
         <v>-1</v>
       </c>
       <c r="W11">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="X11">
         <v>-1</v>
@@ -1459,10 +1459,10 @@
         <v>0.825</v>
       </c>
       <c r="AA11">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB11">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="12" spans="1:28">
@@ -1556,7 +1556,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6989315</v>
+        <v>6989598</v>
       </c>
       <c r="C13" t="s">
         <v>27</v>
@@ -1568,13 +1568,13 @@
         <v>39</v>
       </c>
       <c r="F13" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="G13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I13" t="s">
         <v>46</v>
@@ -1592,7 +1592,7 @@
         <v>1.909</v>
       </c>
       <c r="N13">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="O13">
         <v>3.6</v>
@@ -1607,19 +1607,19 @@
         <v>1.825</v>
       </c>
       <c r="S13">
+        <v>2</v>
+      </c>
+      <c r="T13">
+        <v>1.775</v>
+      </c>
+      <c r="U13">
+        <v>2.025</v>
+      </c>
+      <c r="V13">
+        <v>-1</v>
+      </c>
+      <c r="W13">
         <v>2.25</v>
-      </c>
-      <c r="T13">
-        <v>1.825</v>
-      </c>
-      <c r="U13">
-        <v>1.975</v>
-      </c>
-      <c r="V13">
-        <v>-1</v>
-      </c>
-      <c r="W13">
-        <v>2.2</v>
       </c>
       <c r="X13">
         <v>-1</v>
@@ -1631,10 +1631,10 @@
         <v>0.825</v>
       </c>
       <c r="AA13">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB13">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="14" spans="1:28">
@@ -2256,7 +2256,7 @@
         <v>35</v>
       </c>
       <c r="F21" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G21">
         <v>3</v>
@@ -2330,7 +2330,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6989499</v>
+        <v>6989600</v>
       </c>
       <c r="C22" t="s">
         <v>27</v>
@@ -2339,56 +2339,56 @@
         <v>45158.5</v>
       </c>
       <c r="E22" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F22" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I22" t="s">
         <v>45</v>
       </c>
       <c r="J22">
-        <v>1.727</v>
+        <v>1.95</v>
       </c>
       <c r="K22">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="L22">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="M22">
-        <v>1.85</v>
+        <v>2.375</v>
       </c>
       <c r="N22">
         <v>3.1</v>
       </c>
       <c r="O22">
-        <v>4</v>
+        <v>2.75</v>
       </c>
       <c r="P22">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="Q22">
+        <v>1.75</v>
+      </c>
+      <c r="R22">
+        <v>2.05</v>
+      </c>
+      <c r="S22">
+        <v>2.25</v>
+      </c>
+      <c r="T22">
         <v>1.925</v>
       </c>
-      <c r="R22">
+      <c r="U22">
         <v>1.875</v>
       </c>
-      <c r="S22">
-        <v>2</v>
-      </c>
-      <c r="T22">
-        <v>2</v>
-      </c>
-      <c r="U22">
-        <v>1.8</v>
-      </c>
       <c r="V22">
         <v>-1</v>
       </c>
@@ -2396,19 +2396,19 @@
         <v>-1</v>
       </c>
       <c r="X22">
-        <v>3</v>
+        <v>1.75</v>
       </c>
       <c r="Y22">
         <v>-1</v>
       </c>
       <c r="Z22">
-        <v>0.875</v>
+        <v>1.05</v>
       </c>
       <c r="AA22">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB22">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="23" spans="1:28">
@@ -2416,7 +2416,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6989500</v>
+        <v>6989499</v>
       </c>
       <c r="C23" t="s">
         <v>27</v>
@@ -2425,76 +2425,76 @@
         <v>45158.5</v>
       </c>
       <c r="E23" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F23" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H23">
         <v>1</v>
       </c>
       <c r="I23" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J23">
-        <v>3.5</v>
+        <v>1.727</v>
       </c>
       <c r="K23">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="L23">
-        <v>1.95</v>
+        <v>4.2</v>
       </c>
       <c r="M23">
-        <v>3.5</v>
+        <v>1.85</v>
       </c>
       <c r="N23">
         <v>3.1</v>
       </c>
       <c r="O23">
-        <v>1.95</v>
+        <v>4</v>
       </c>
       <c r="P23">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="Q23">
+        <v>1.925</v>
+      </c>
+      <c r="R23">
+        <v>1.875</v>
+      </c>
+      <c r="S23">
+        <v>2</v>
+      </c>
+      <c r="T23">
+        <v>2</v>
+      </c>
+      <c r="U23">
         <v>1.8</v>
       </c>
-      <c r="R23">
-        <v>2</v>
-      </c>
-      <c r="S23">
-        <v>2.25</v>
-      </c>
-      <c r="T23">
-        <v>1.75</v>
-      </c>
-      <c r="U23">
-        <v>1.95</v>
-      </c>
       <c r="V23">
         <v>-1</v>
       </c>
       <c r="W23">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="X23">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y23">
+        <v>-1</v>
+      </c>
+      <c r="Z23">
+        <v>0.875</v>
+      </c>
+      <c r="AA23">
+        <v>-1</v>
+      </c>
+      <c r="AB23">
         <v>0.8</v>
-      </c>
-      <c r="Z23">
-        <v>-1</v>
-      </c>
-      <c r="AA23">
-        <v>-0.5</v>
-      </c>
-      <c r="AB23">
-        <v>0.475</v>
       </c>
     </row>
     <row r="24" spans="1:28">
@@ -2502,7 +2502,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6989600</v>
+        <v>6989500</v>
       </c>
       <c r="C24" t="s">
         <v>27</v>
@@ -2511,76 +2511,76 @@
         <v>45158.5</v>
       </c>
       <c r="E24" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F24" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H24">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I24" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J24">
+        <v>3.5</v>
+      </c>
+      <c r="K24">
+        <v>3.1</v>
+      </c>
+      <c r="L24">
         <v>1.95</v>
       </c>
-      <c r="K24">
-        <v>3.2</v>
-      </c>
-      <c r="L24">
+      <c r="M24">
         <v>3.5</v>
-      </c>
-      <c r="M24">
-        <v>2.375</v>
       </c>
       <c r="N24">
         <v>3.1</v>
       </c>
       <c r="O24">
-        <v>2.75</v>
+        <v>1.95</v>
       </c>
       <c r="P24">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="Q24">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="R24">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S24">
         <v>2.25</v>
       </c>
       <c r="T24">
-        <v>1.925</v>
+        <v>1.75</v>
       </c>
       <c r="U24">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V24">
         <v>-1</v>
       </c>
       <c r="W24">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="X24">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Y24">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z24">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA24">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AB24">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="25" spans="1:28">
@@ -2760,7 +2760,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>7121255</v>
+        <v>7121256</v>
       </c>
       <c r="C27" t="s">
         <v>27</v>
@@ -2772,46 +2772,46 @@
         <v>39</v>
       </c>
       <c r="F27" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="G27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H27">
         <v>1</v>
       </c>
       <c r="I27" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="J27">
-        <v>1.45</v>
+        <v>1.833</v>
       </c>
       <c r="K27">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="L27">
-        <v>6</v>
+        <v>4.2</v>
       </c>
       <c r="M27">
-        <v>1.4</v>
+        <v>1.833</v>
       </c>
       <c r="N27">
-        <v>4.2</v>
+        <v>3.1</v>
       </c>
       <c r="O27">
-        <v>6.5</v>
+        <v>4.333</v>
       </c>
       <c r="P27">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="Q27">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="R27">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S27">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="T27">
         <v>1.85</v>
@@ -2820,25 +2820,25 @@
         <v>1.95</v>
       </c>
       <c r="V27">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="W27">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="X27">
         <v>-1</v>
       </c>
       <c r="Y27">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z27">
-        <v>0.4625</v>
+        <v>0.95</v>
       </c>
       <c r="AA27">
-        <v>0.8500000000000001</v>
+        <v>0</v>
       </c>
       <c r="AB27">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:28">
@@ -2846,7 +2846,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>7121256</v>
+        <v>7121255</v>
       </c>
       <c r="C28" t="s">
         <v>27</v>
@@ -2858,46 +2858,46 @@
         <v>37</v>
       </c>
       <c r="F28" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="G28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H28">
         <v>1</v>
       </c>
       <c r="I28" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J28">
-        <v>1.833</v>
+        <v>1.45</v>
       </c>
       <c r="K28">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="L28">
+        <v>6</v>
+      </c>
+      <c r="M28">
+        <v>1.4</v>
+      </c>
+      <c r="N28">
         <v>4.2</v>
       </c>
-      <c r="M28">
-        <v>1.833</v>
-      </c>
-      <c r="N28">
-        <v>3.1</v>
-      </c>
       <c r="O28">
-        <v>4.333</v>
+        <v>6.5</v>
       </c>
       <c r="P28">
-        <v>-0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="Q28">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="R28">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S28">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="T28">
         <v>1.85</v>
@@ -2906,25 +2906,25 @@
         <v>1.95</v>
       </c>
       <c r="V28">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="W28">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="X28">
         <v>-1</v>
       </c>
       <c r="Y28">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="Z28">
-        <v>0.95</v>
+        <v>0.4625</v>
       </c>
       <c r="AA28">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB28">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="29" spans="1:28">
@@ -3460,7 +3460,7 @@
         <v>28</v>
       </c>
       <c r="F35" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G35">
         <v>0</v>
@@ -3878,7 +3878,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>6989670</v>
+        <v>6989318</v>
       </c>
       <c r="C40" t="s">
         <v>27</v>
@@ -3887,76 +3887,76 @@
         <v>45172.58333333334</v>
       </c>
       <c r="E40" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="F40" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G40">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I40" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J40">
-        <v>2.1</v>
+        <v>2.55</v>
       </c>
       <c r="K40">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="L40">
-        <v>3.3</v>
+        <v>2.45</v>
       </c>
       <c r="M40">
-        <v>2.05</v>
+        <v>3.1</v>
       </c>
       <c r="N40">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="O40">
-        <v>3.4</v>
+        <v>2.15</v>
       </c>
       <c r="P40">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="Q40">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="R40">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S40">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="T40">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="U40">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V40">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="W40">
         <v>-1</v>
       </c>
       <c r="X40">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="Y40">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Z40">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA40">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB40">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="41" spans="1:28">
@@ -3964,7 +3964,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>6989318</v>
+        <v>6989670</v>
       </c>
       <c r="C41" t="s">
         <v>27</v>
@@ -3973,76 +3973,76 @@
         <v>45172.58333333334</v>
       </c>
       <c r="E41" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="F41" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G41">
+        <v>1</v>
+      </c>
+      <c r="H41">
+        <v>0</v>
+      </c>
+      <c r="I41" t="s">
+        <v>44</v>
+      </c>
+      <c r="J41">
+        <v>2.1</v>
+      </c>
+      <c r="K41">
         <v>3</v>
       </c>
-      <c r="H41">
-        <v>5</v>
-      </c>
-      <c r="I41" t="s">
-        <v>45</v>
-      </c>
-      <c r="J41">
-        <v>2.55</v>
-      </c>
-      <c r="K41">
-        <v>3.25</v>
-      </c>
       <c r="L41">
-        <v>2.45</v>
+        <v>3.3</v>
       </c>
       <c r="M41">
-        <v>3.1</v>
+        <v>2.05</v>
       </c>
       <c r="N41">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="O41">
-        <v>2.15</v>
+        <v>3.4</v>
       </c>
       <c r="P41">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="Q41">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="R41">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S41">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="T41">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="U41">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V41">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="W41">
         <v>-1</v>
       </c>
       <c r="X41">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="Y41">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z41">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA41">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB41">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="42" spans="1:28">
@@ -4231,7 +4231,7 @@
         <v>45178.47916666666</v>
       </c>
       <c r="E44" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F44" t="s">
         <v>30</v>
@@ -4317,7 +4317,7 @@
         <v>45178.47916666666</v>
       </c>
       <c r="E45" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F45" t="s">
         <v>36</v>
@@ -4750,7 +4750,7 @@
         <v>35</v>
       </c>
       <c r="F50" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G50">
         <v>2</v>
@@ -5082,7 +5082,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>6989609</v>
+        <v>6989506</v>
       </c>
       <c r="C54" t="s">
         <v>27</v>
@@ -5091,40 +5091,40 @@
         <v>45186.45833333334</v>
       </c>
       <c r="E54" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F54" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G54">
         <v>0</v>
       </c>
       <c r="H54">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I54" t="s">
         <v>45</v>
       </c>
       <c r="J54">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="K54">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="L54">
-        <v>2.55</v>
+        <v>2.625</v>
       </c>
       <c r="M54">
-        <v>2.9</v>
+        <v>2.5</v>
       </c>
       <c r="N54">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="O54">
-        <v>2.15</v>
+        <v>2.625</v>
       </c>
       <c r="P54">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="Q54">
         <v>1.85</v>
@@ -5133,13 +5133,13 @@
         <v>1.95</v>
       </c>
       <c r="S54">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="T54">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="U54">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="V54">
         <v>-1</v>
@@ -5148,7 +5148,7 @@
         <v>-1</v>
       </c>
       <c r="X54">
-        <v>1.15</v>
+        <v>1.625</v>
       </c>
       <c r="Y54">
         <v>-1</v>
@@ -5157,10 +5157,10 @@
         <v>0.95</v>
       </c>
       <c r="AA54">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB54">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="55" spans="1:28">
@@ -5168,7 +5168,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>6989506</v>
+        <v>6989609</v>
       </c>
       <c r="C55" t="s">
         <v>27</v>
@@ -5177,40 +5177,40 @@
         <v>45186.45833333334</v>
       </c>
       <c r="E55" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F55" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G55">
         <v>0</v>
       </c>
       <c r="H55">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I55" t="s">
         <v>45</v>
       </c>
       <c r="J55">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="K55">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="L55">
-        <v>2.625</v>
+        <v>2.55</v>
       </c>
       <c r="M55">
-        <v>2.5</v>
+        <v>2.9</v>
       </c>
       <c r="N55">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="O55">
-        <v>2.625</v>
+        <v>2.15</v>
       </c>
       <c r="P55">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="Q55">
         <v>1.85</v>
@@ -5219,13 +5219,13 @@
         <v>1.95</v>
       </c>
       <c r="S55">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="T55">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="U55">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V55">
         <v>-1</v>
@@ -5234,7 +5234,7 @@
         <v>-1</v>
       </c>
       <c r="X55">
-        <v>1.625</v>
+        <v>1.15</v>
       </c>
       <c r="Y55">
         <v>-1</v>
@@ -5243,10 +5243,10 @@
         <v>0.95</v>
       </c>
       <c r="AA55">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB55">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="56" spans="1:28">
@@ -5435,7 +5435,7 @@
         <v>45191.45833333334</v>
       </c>
       <c r="E58" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F58" t="s">
         <v>41</v>
@@ -6037,7 +6037,7 @@
         <v>45192.45833333334</v>
       </c>
       <c r="E65" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F65" t="s">
         <v>43</v>
@@ -6381,7 +6381,7 @@
         <v>45200.41666666666</v>
       </c>
       <c r="E69" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F69" t="s">
         <v>38</v>
@@ -6467,7 +6467,7 @@
         <v>45200.41666666666</v>
       </c>
       <c r="E70" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F70" t="s">
         <v>36</v>
@@ -6900,7 +6900,7 @@
         <v>32</v>
       </c>
       <c r="F75" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G75">
         <v>0</v>
@@ -6974,7 +6974,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>7308447</v>
+        <v>7018994</v>
       </c>
       <c r="C76" t="s">
         <v>27</v>
@@ -6983,76 +6983,76 @@
         <v>45207.41666666666</v>
       </c>
       <c r="E76" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F76" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="G76">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I76" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J76">
-        <v>1.444</v>
+        <v>2.25</v>
       </c>
       <c r="K76">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="L76">
-        <v>6.5</v>
+        <v>3</v>
       </c>
       <c r="M76">
-        <v>1.45</v>
+        <v>2.15</v>
       </c>
       <c r="N76">
-        <v>3.8</v>
+        <v>3</v>
       </c>
       <c r="O76">
-        <v>6</v>
+        <v>3.2</v>
       </c>
       <c r="P76">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="Q76">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="R76">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S76">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="T76">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="U76">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V76">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="W76">
         <v>-1</v>
       </c>
       <c r="X76">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y76">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z76">
-        <v>0.4</v>
+        <v>0.875</v>
       </c>
       <c r="AA76">
         <v>-1</v>
       </c>
       <c r="AB76">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="77" spans="1:28">
@@ -7060,7 +7060,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>7018994</v>
+        <v>7308447</v>
       </c>
       <c r="C77" t="s">
         <v>27</v>
@@ -7069,76 +7069,76 @@
         <v>45207.41666666666</v>
       </c>
       <c r="E77" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F77" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G77">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H77">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I77" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J77">
-        <v>2.25</v>
+        <v>1.444</v>
       </c>
       <c r="K77">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="L77">
-        <v>3</v>
+        <v>6.5</v>
       </c>
       <c r="M77">
-        <v>2.15</v>
+        <v>1.45</v>
       </c>
       <c r="N77">
-        <v>3</v>
+        <v>3.8</v>
       </c>
       <c r="O77">
-        <v>3.2</v>
+        <v>6</v>
       </c>
       <c r="P77">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="Q77">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="R77">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="S77">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="T77">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="U77">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V77">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="W77">
         <v>-1</v>
       </c>
       <c r="X77">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y77">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="Z77">
-        <v>0.875</v>
+        <v>0.4</v>
       </c>
       <c r="AA77">
         <v>-1</v>
       </c>
       <c r="AB77">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="78" spans="1:28">
@@ -7490,7 +7490,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>6989516</v>
+        <v>7018995</v>
       </c>
       <c r="C82" t="s">
         <v>27</v>
@@ -7499,40 +7499,40 @@
         <v>45213.41666666666</v>
       </c>
       <c r="E82" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="F82" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="G82">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H82">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I82" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J82">
-        <v>1.833</v>
+        <v>2.1</v>
       </c>
       <c r="K82">
         <v>3.1</v>
       </c>
       <c r="L82">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="M82">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
       <c r="N82">
         <v>3.1</v>
       </c>
       <c r="O82">
-        <v>4.2</v>
+        <v>3.25</v>
       </c>
       <c r="P82">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="Q82">
         <v>1.825</v>
@@ -7544,31 +7544,31 @@
         <v>2</v>
       </c>
       <c r="T82">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="U82">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V82">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="W82">
         <v>-1</v>
       </c>
       <c r="X82">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y82">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="Z82">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA82">
-        <v>0.8500000000000001</v>
+        <v>0</v>
       </c>
       <c r="AB82">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:28">
@@ -7576,7 +7576,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>7018995</v>
+        <v>6989516</v>
       </c>
       <c r="C83" t="s">
         <v>27</v>
@@ -7585,40 +7585,40 @@
         <v>45213.41666666666</v>
       </c>
       <c r="E83" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="F83" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="G83">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H83">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I83" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J83">
-        <v>2.1</v>
+        <v>1.833</v>
       </c>
       <c r="K83">
         <v>3.1</v>
       </c>
       <c r="L83">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="M83">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="N83">
         <v>3.1</v>
       </c>
       <c r="O83">
-        <v>3.25</v>
+        <v>4.2</v>
       </c>
       <c r="P83">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="Q83">
         <v>1.825</v>
@@ -7630,31 +7630,31 @@
         <v>2</v>
       </c>
       <c r="T83">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="U83">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V83">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="W83">
         <v>-1</v>
       </c>
       <c r="X83">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y83">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="Z83">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA83">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB83">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="84" spans="1:28">
@@ -7920,7 +7920,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>6989684</v>
+        <v>6989619</v>
       </c>
       <c r="C87" t="s">
         <v>27</v>
@@ -7929,76 +7929,76 @@
         <v>45215.41666666666</v>
       </c>
       <c r="E87" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F87" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G87">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H87">
         <v>0</v>
       </c>
       <c r="I87" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="J87">
-        <v>2.4</v>
+        <v>1.95</v>
       </c>
       <c r="K87">
-        <v>2.8</v>
+        <v>3.2</v>
       </c>
       <c r="L87">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="M87">
+        <v>1.85</v>
+      </c>
+      <c r="N87">
+        <v>3.2</v>
+      </c>
+      <c r="O87">
         <v>3.75</v>
       </c>
-      <c r="N87">
-        <v>2.9</v>
-      </c>
-      <c r="O87">
-        <v>1.95</v>
-      </c>
       <c r="P87">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="Q87">
+        <v>1.9</v>
+      </c>
+      <c r="R87">
+        <v>1.9</v>
+      </c>
+      <c r="S87">
+        <v>2.5</v>
+      </c>
+      <c r="T87">
+        <v>2</v>
+      </c>
+      <c r="U87">
         <v>1.8</v>
       </c>
-      <c r="R87">
-        <v>2</v>
-      </c>
-      <c r="S87">
-        <v>2</v>
-      </c>
-      <c r="T87">
-        <v>1.85</v>
-      </c>
-      <c r="U87">
-        <v>1.95</v>
-      </c>
       <c r="V87">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="W87">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="X87">
         <v>-1</v>
       </c>
       <c r="Y87">
+        <v>-1</v>
+      </c>
+      <c r="Z87">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AA87">
+        <v>-1</v>
+      </c>
+      <c r="AB87">
         <v>0.8</v>
-      </c>
-      <c r="Z87">
-        <v>-1</v>
-      </c>
-      <c r="AA87">
-        <v>-1</v>
-      </c>
-      <c r="AB87">
-        <v>0.95</v>
       </c>
     </row>
     <row r="88" spans="1:28">
@@ -8006,7 +8006,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>6989619</v>
+        <v>6989515</v>
       </c>
       <c r="C88" t="s">
         <v>27</v>
@@ -8015,49 +8015,49 @@
         <v>45215.41666666666</v>
       </c>
       <c r="E88" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="F88" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G88">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H88">
         <v>0</v>
       </c>
       <c r="I88" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J88">
-        <v>1.95</v>
+        <v>1.5</v>
       </c>
       <c r="K88">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="L88">
-        <v>3.4</v>
+        <v>5.5</v>
       </c>
       <c r="M88">
-        <v>1.85</v>
+        <v>1.5</v>
       </c>
       <c r="N88">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="O88">
-        <v>3.75</v>
+        <v>6</v>
       </c>
       <c r="P88">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="Q88">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="R88">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S88">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="T88">
         <v>2</v>
@@ -8066,19 +8066,19 @@
         <v>1.8</v>
       </c>
       <c r="V88">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="W88">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="X88">
         <v>-1</v>
       </c>
       <c r="Y88">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Z88">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AA88">
         <v>-1</v>
@@ -8092,7 +8092,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>6989515</v>
+        <v>6989684</v>
       </c>
       <c r="C89" t="s">
         <v>27</v>
@@ -8101,10 +8101,10 @@
         <v>45215.41666666666</v>
       </c>
       <c r="E89" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="F89" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G89">
         <v>1</v>
@@ -8116,43 +8116,43 @@
         <v>44</v>
       </c>
       <c r="J89">
-        <v>1.5</v>
+        <v>2.4</v>
       </c>
       <c r="K89">
+        <v>2.8</v>
+      </c>
+      <c r="L89">
+        <v>2.9</v>
+      </c>
+      <c r="M89">
         <v>3.75</v>
       </c>
-      <c r="L89">
-        <v>5.5</v>
-      </c>
-      <c r="M89">
-        <v>1.5</v>
-      </c>
       <c r="N89">
-        <v>3.75</v>
+        <v>2.9</v>
       </c>
       <c r="O89">
-        <v>6</v>
+        <v>1.95</v>
       </c>
       <c r="P89">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="Q89">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="R89">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S89">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="T89">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="U89">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V89">
-        <v>0.5</v>
+        <v>2.75</v>
       </c>
       <c r="W89">
         <v>-1</v>
@@ -8161,16 +8161,16 @@
         <v>-1</v>
       </c>
       <c r="Y89">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="Z89">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA89">
         <v>-1</v>
       </c>
       <c r="AB89">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="90" spans="1:28">
@@ -8362,7 +8362,7 @@
         <v>30</v>
       </c>
       <c r="F92" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G92">
         <v>1</v>
@@ -8706,7 +8706,7 @@
         <v>42</v>
       </c>
       <c r="F96" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G96">
         <v>1</v>
@@ -9133,10 +9133,10 @@
         <v>45227.375</v>
       </c>
       <c r="E101" t="s">
+        <v>37</v>
+      </c>
+      <c r="F101" t="s">
         <v>39</v>
-      </c>
-      <c r="F101" t="s">
-        <v>37</v>
       </c>
       <c r="G101">
         <v>2</v>
@@ -9996,7 +9996,7 @@
         <v>34</v>
       </c>
       <c r="F111" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G111">
         <v>1</v>
@@ -10165,7 +10165,7 @@
         <v>45236.375</v>
       </c>
       <c r="E113" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F113" t="s">
         <v>29</v>
@@ -10337,7 +10337,7 @@
         <v>45241.375</v>
       </c>
       <c r="E115" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F115" t="s">
         <v>33</v>
@@ -10423,7 +10423,7 @@
         <v>45241.375</v>
       </c>
       <c r="E116" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F116" t="s">
         <v>29</v>
@@ -11200,7 +11200,7 @@
         <v>28</v>
       </c>
       <c r="F125" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G125">
         <v>1</v>
@@ -11618,7 +11618,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>7497670</v>
+        <v>7497903</v>
       </c>
       <c r="C130" t="s">
         <v>27</v>
@@ -11627,76 +11627,76 @@
         <v>45252.375</v>
       </c>
       <c r="E130" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F130" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G130">
         <v>2</v>
       </c>
       <c r="H130">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I130" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J130">
-        <v>3.2</v>
+        <v>1.571</v>
       </c>
       <c r="K130">
-        <v>2.9</v>
+        <v>3.75</v>
       </c>
       <c r="L130">
-        <v>2.2</v>
+        <v>4.75</v>
       </c>
       <c r="M130">
-        <v>3.3</v>
+        <v>1.5</v>
       </c>
       <c r="N130">
-        <v>2.9</v>
+        <v>3.75</v>
       </c>
       <c r="O130">
-        <v>2.15</v>
+        <v>5.5</v>
       </c>
       <c r="P130">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="Q130">
+        <v>1.925</v>
+      </c>
+      <c r="R130">
         <v>1.875</v>
       </c>
-      <c r="R130">
-        <v>1.925</v>
-      </c>
       <c r="S130">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="T130">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="U130">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V130">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="W130">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="X130">
         <v>-1</v>
       </c>
       <c r="Y130">
-        <v>0.4375</v>
+        <v>0.925</v>
       </c>
       <c r="Z130">
+        <v>-1</v>
+      </c>
+      <c r="AA130">
         <v>-0.5</v>
       </c>
-      <c r="AA130">
-        <v>0.95</v>
-      </c>
       <c r="AB130">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="131" spans="1:28">
@@ -11716,7 +11716,7 @@
         <v>31</v>
       </c>
       <c r="F131" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G131">
         <v>0</v>
@@ -11876,7 +11876,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>7497903</v>
+        <v>7497670</v>
       </c>
       <c r="C133" t="s">
         <v>27</v>
@@ -11885,76 +11885,76 @@
         <v>45252.375</v>
       </c>
       <c r="E133" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F133" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G133">
         <v>2</v>
       </c>
       <c r="H133">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I133" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="J133">
-        <v>1.571</v>
+        <v>3.2</v>
       </c>
       <c r="K133">
-        <v>3.75</v>
+        <v>2.9</v>
       </c>
       <c r="L133">
-        <v>4.75</v>
+        <v>2.2</v>
       </c>
       <c r="M133">
-        <v>1.5</v>
+        <v>3.3</v>
       </c>
       <c r="N133">
-        <v>3.75</v>
+        <v>2.9</v>
       </c>
       <c r="O133">
-        <v>5.5</v>
+        <v>2.15</v>
       </c>
       <c r="P133">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="Q133">
+        <v>1.875</v>
+      </c>
+      <c r="R133">
         <v>1.925</v>
       </c>
-      <c r="R133">
-        <v>1.875</v>
-      </c>
       <c r="S133">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="T133">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="U133">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V133">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="W133">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="X133">
         <v>-1</v>
       </c>
       <c r="Y133">
-        <v>0.925</v>
+        <v>0.4375</v>
       </c>
       <c r="Z133">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA133">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AB133">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="134" spans="1:28">
@@ -12401,7 +12401,7 @@
         <v>45256.375</v>
       </c>
       <c r="E139" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F139" t="s">
         <v>33</v>
@@ -12487,7 +12487,7 @@
         <v>45257.375</v>
       </c>
       <c r="E140" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F140" t="s">
         <v>35</v>
@@ -12748,7 +12748,7 @@
         <v>40</v>
       </c>
       <c r="F143" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G143">
         <v>0</v>
@@ -13006,7 +13006,7 @@
         <v>31</v>
       </c>
       <c r="F146" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G146">
         <v>0</v>
@@ -13596,7 +13596,7 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>6989704</v>
+        <v>6989702</v>
       </c>
       <c r="C153" t="s">
         <v>27</v>
@@ -13605,76 +13605,76 @@
         <v>45270.375</v>
       </c>
       <c r="E153" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F153" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G153">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H153">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I153" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J153">
-        <v>1.666</v>
+        <v>2.875</v>
       </c>
       <c r="K153">
+        <v>2.875</v>
+      </c>
+      <c r="L153">
+        <v>2.4</v>
+      </c>
+      <c r="M153">
+        <v>2.2</v>
+      </c>
+      <c r="N153">
+        <v>2.8</v>
+      </c>
+      <c r="O153">
         <v>3.4</v>
-      </c>
-      <c r="L153">
-        <v>4.5</v>
-      </c>
-      <c r="M153">
-        <v>2.05</v>
-      </c>
-      <c r="N153">
-        <v>3.2</v>
-      </c>
-      <c r="O153">
-        <v>3.3</v>
       </c>
       <c r="P153">
         <v>-0.25</v>
       </c>
       <c r="Q153">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="R153">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S153">
-        <v>1.75</v>
+        <v>1.5</v>
       </c>
       <c r="T153">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="U153">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V153">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="W153">
         <v>-1</v>
       </c>
       <c r="X153">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y153">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Z153">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA153">
         <v>-1</v>
       </c>
       <c r="AB153">
-        <v>1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="154" spans="1:28">
@@ -13682,7 +13682,7 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>6989702</v>
+        <v>6989704</v>
       </c>
       <c r="C154" t="s">
         <v>27</v>
@@ -13691,76 +13691,76 @@
         <v>45270.375</v>
       </c>
       <c r="E154" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="F154" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G154">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H154">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I154" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J154">
-        <v>2.875</v>
+        <v>1.666</v>
       </c>
       <c r="K154">
-        <v>2.875</v>
+        <v>3.4</v>
       </c>
       <c r="L154">
-        <v>2.4</v>
+        <v>4.5</v>
       </c>
       <c r="M154">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="N154">
-        <v>2.8</v>
+        <v>3.2</v>
       </c>
       <c r="O154">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="P154">
         <v>-0.25</v>
       </c>
       <c r="Q154">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="R154">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S154">
-        <v>1.5</v>
+        <v>1.75</v>
       </c>
       <c r="T154">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="U154">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V154">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="W154">
         <v>-1</v>
       </c>
       <c r="X154">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y154">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="Z154">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA154">
         <v>-1</v>
       </c>
       <c r="AB154">
-        <v>0.925</v>
+        <v>1</v>
       </c>
     </row>
     <row r="155" spans="1:28">
@@ -13949,7 +13949,7 @@
         <v>45270.375</v>
       </c>
       <c r="E157" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F157" t="s">
         <v>28</v>
@@ -14296,7 +14296,7 @@
         <v>43</v>
       </c>
       <c r="F161" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G161">
         <v>2</v>
@@ -14554,7 +14554,7 @@
         <v>30</v>
       </c>
       <c r="F164" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G164">
         <v>1</v>
@@ -14898,7 +14898,7 @@
         <v>36</v>
       </c>
       <c r="F168" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G168">
         <v>1</v>
@@ -15239,7 +15239,7 @@
         <v>45353.375</v>
       </c>
       <c r="E172" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F172" t="s">
         <v>34</v>
@@ -15316,7 +15316,7 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>7901794</v>
+        <v>7901793</v>
       </c>
       <c r="C173" t="s">
         <v>27</v>
@@ -15325,13 +15325,13 @@
         <v>45353.375</v>
       </c>
       <c r="E173" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="F173" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G173">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H173">
         <v>0</v>
@@ -15340,19 +15340,19 @@
         <v>44</v>
       </c>
       <c r="J173">
-        <v>2.25</v>
+        <v>1.666</v>
       </c>
       <c r="K173">
-        <v>2.8</v>
+        <v>3.25</v>
       </c>
       <c r="L173">
-        <v>3.2</v>
+        <v>4.75</v>
       </c>
       <c r="M173">
-        <v>2.15</v>
+        <v>2.05</v>
       </c>
       <c r="N173">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="O173">
         <v>3.8</v>
@@ -15361,22 +15361,22 @@
         <v>-0.25</v>
       </c>
       <c r="Q173">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="R173">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="S173">
         <v>1.75</v>
       </c>
       <c r="T173">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="U173">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V173">
-        <v>1.15</v>
+        <v>1.05</v>
       </c>
       <c r="W173">
         <v>-1</v>
@@ -15385,16 +15385,16 @@
         <v>-1</v>
       </c>
       <c r="Y173">
-        <v>0.825</v>
+        <v>0.75</v>
       </c>
       <c r="Z173">
         <v>-1</v>
       </c>
       <c r="AA173">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AB173">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="174" spans="1:28">
@@ -15402,7 +15402,7 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>7901793</v>
+        <v>7901792</v>
       </c>
       <c r="C174" t="s">
         <v>27</v>
@@ -15411,76 +15411,76 @@
         <v>45353.375</v>
       </c>
       <c r="E174" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="F174" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G174">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H174">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I174" t="s">
         <v>44</v>
       </c>
       <c r="J174">
-        <v>1.666</v>
+        <v>1.833</v>
       </c>
       <c r="K174">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="L174">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="M174">
+        <v>2</v>
+      </c>
+      <c r="N174">
+        <v>2.75</v>
+      </c>
+      <c r="O174">
+        <v>4</v>
+      </c>
+      <c r="P174">
+        <v>-0.5</v>
+      </c>
+      <c r="Q174">
         <v>2.05</v>
       </c>
-      <c r="N174">
-        <v>2.7</v>
-      </c>
-      <c r="O174">
-        <v>3.8</v>
-      </c>
-      <c r="P174">
-        <v>-0.25</v>
-      </c>
-      <c r="Q174">
+      <c r="R174">
         <v>1.75</v>
-      </c>
-      <c r="R174">
-        <v>2.05</v>
       </c>
       <c r="S174">
         <v>1.75</v>
       </c>
       <c r="T174">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="U174">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V174">
+        <v>1</v>
+      </c>
+      <c r="W174">
+        <v>-1</v>
+      </c>
+      <c r="X174">
+        <v>-1</v>
+      </c>
+      <c r="Y174">
         <v>1.05</v>
       </c>
-      <c r="W174">
-        <v>-1</v>
-      </c>
-      <c r="X174">
-        <v>-1</v>
-      </c>
-      <c r="Y174">
-        <v>0.75</v>
-      </c>
       <c r="Z174">
         <v>-1</v>
       </c>
       <c r="AA174">
-        <v>0.45</v>
+        <v>0.95</v>
       </c>
       <c r="AB174">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="175" spans="1:28">
@@ -15488,7 +15488,7 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>7901792</v>
+        <v>7901794</v>
       </c>
       <c r="C175" t="s">
         <v>27</v>
@@ -15497,58 +15497,58 @@
         <v>45353.375</v>
       </c>
       <c r="E175" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="F175" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G175">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H175">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I175" t="s">
         <v>44</v>
       </c>
       <c r="J175">
-        <v>1.833</v>
+        <v>2.25</v>
       </c>
       <c r="K175">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="L175">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="M175">
-        <v>2</v>
+        <v>2.15</v>
       </c>
       <c r="N175">
-        <v>2.75</v>
+        <v>2.6</v>
       </c>
       <c r="O175">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="P175">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="Q175">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="R175">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="S175">
         <v>1.75</v>
       </c>
       <c r="T175">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="U175">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V175">
-        <v>1</v>
+        <v>1.15</v>
       </c>
       <c r="W175">
         <v>-1</v>
@@ -15557,16 +15557,16 @@
         <v>-1</v>
       </c>
       <c r="Y175">
-        <v>1.05</v>
+        <v>0.825</v>
       </c>
       <c r="Z175">
         <v>-1</v>
       </c>
       <c r="AA175">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB175">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="176" spans="1:28">
@@ -15832,7 +15832,7 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>7018981</v>
+        <v>6989710</v>
       </c>
       <c r="C179" t="s">
         <v>27</v>
@@ -15841,40 +15841,40 @@
         <v>45357.41666666666</v>
       </c>
       <c r="E179" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F179" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G179">
         <v>0</v>
       </c>
       <c r="H179">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I179" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J179">
+        <v>1.571</v>
+      </c>
+      <c r="K179">
+        <v>3.25</v>
+      </c>
+      <c r="L179">
+        <v>6</v>
+      </c>
+      <c r="M179">
+        <v>1.75</v>
+      </c>
+      <c r="N179">
         <v>3</v>
       </c>
-      <c r="K179">
-        <v>2.8</v>
-      </c>
-      <c r="L179">
-        <v>2.375</v>
-      </c>
-      <c r="M179">
-        <v>2.5</v>
-      </c>
-      <c r="N179">
-        <v>2.8</v>
-      </c>
       <c r="O179">
-        <v>2.75</v>
+        <v>4.75</v>
       </c>
       <c r="P179">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="Q179">
         <v>1.8</v>
@@ -15883,22 +15883,22 @@
         <v>2</v>
       </c>
       <c r="S179">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="T179">
+        <v>1.85</v>
+      </c>
+      <c r="U179">
         <v>1.95</v>
       </c>
-      <c r="U179">
-        <v>1.85</v>
-      </c>
       <c r="V179">
         <v>-1</v>
       </c>
       <c r="W179">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="X179">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Y179">
         <v>-1</v>
@@ -15907,10 +15907,10 @@
         <v>1</v>
       </c>
       <c r="AA179">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB179">
-        <v>0</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="180" spans="1:28">
@@ -15918,7 +15918,7 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>6989710</v>
+        <v>7018981</v>
       </c>
       <c r="C180" t="s">
         <v>27</v>
@@ -15927,40 +15927,40 @@
         <v>45357.41666666666</v>
       </c>
       <c r="E180" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F180" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G180">
         <v>0</v>
       </c>
       <c r="H180">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I180" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J180">
-        <v>1.571</v>
+        <v>3</v>
       </c>
       <c r="K180">
-        <v>3.25</v>
+        <v>2.8</v>
       </c>
       <c r="L180">
-        <v>6</v>
+        <v>2.375</v>
       </c>
       <c r="M180">
-        <v>1.75</v>
+        <v>2.5</v>
       </c>
       <c r="N180">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="O180">
-        <v>4.75</v>
+        <v>2.75</v>
       </c>
       <c r="P180">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="Q180">
         <v>1.8</v>
@@ -15969,22 +15969,22 @@
         <v>2</v>
       </c>
       <c r="S180">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="T180">
+        <v>1.95</v>
+      </c>
+      <c r="U180">
         <v>1.85</v>
       </c>
-      <c r="U180">
-        <v>1.95</v>
-      </c>
       <c r="V180">
         <v>-1</v>
       </c>
       <c r="W180">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="X180">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="Y180">
         <v>-1</v>
@@ -15993,10 +15993,10 @@
         <v>1</v>
       </c>
       <c r="AA180">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB180">
-        <v>0.95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181" spans="1:28">
@@ -16102,7 +16102,7 @@
         <v>43</v>
       </c>
       <c r="F182" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G182">
         <v>0</v>
@@ -16434,7 +16434,7 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>6989712</v>
+        <v>6989335</v>
       </c>
       <c r="C186" t="s">
         <v>27</v>
@@ -16443,13 +16443,13 @@
         <v>45361.41666666666</v>
       </c>
       <c r="E186" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="F186" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="G186">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H186">
         <v>0</v>
@@ -16458,43 +16458,43 @@
         <v>44</v>
       </c>
       <c r="J186">
-        <v>1.533</v>
+        <v>2.1</v>
       </c>
       <c r="K186">
-        <v>3.4</v>
+        <v>2.8</v>
       </c>
       <c r="L186">
-        <v>6</v>
+        <v>3.6</v>
       </c>
       <c r="M186">
-        <v>1.533</v>
+        <v>1.285</v>
       </c>
       <c r="N186">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="O186">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="P186">
-        <v>-1</v>
+        <v>-1.25</v>
       </c>
       <c r="Q186">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="R186">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="S186">
         <v>2</v>
       </c>
       <c r="T186">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="U186">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="V186">
-        <v>0.5329999999999999</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="W186">
         <v>-1</v>
@@ -16503,16 +16503,16 @@
         <v>-1</v>
       </c>
       <c r="Y186">
-        <v>0.9750000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="Z186">
         <v>-1</v>
       </c>
       <c r="AA186">
-        <v>0</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB186">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="187" spans="1:28">
@@ -16520,7 +16520,7 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>6989335</v>
+        <v>6989712</v>
       </c>
       <c r="C187" t="s">
         <v>27</v>
@@ -16529,13 +16529,13 @@
         <v>45361.41666666666</v>
       </c>
       <c r="E187" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="F187" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="G187">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H187">
         <v>0</v>
@@ -16544,43 +16544,43 @@
         <v>44</v>
       </c>
       <c r="J187">
-        <v>2.1</v>
+        <v>1.533</v>
       </c>
       <c r="K187">
-        <v>2.8</v>
+        <v>3.4</v>
       </c>
       <c r="L187">
-        <v>3.6</v>
+        <v>6</v>
       </c>
       <c r="M187">
-        <v>1.285</v>
+        <v>1.533</v>
       </c>
       <c r="N187">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="O187">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="P187">
-        <v>-1.25</v>
+        <v>-1</v>
       </c>
       <c r="Q187">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="R187">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="S187">
         <v>2</v>
       </c>
       <c r="T187">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="U187">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="V187">
-        <v>0.2849999999999999</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="W187">
         <v>-1</v>
@@ -16589,16 +16589,16 @@
         <v>-1</v>
       </c>
       <c r="Y187">
-        <v>1.025</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="Z187">
         <v>-1</v>
       </c>
       <c r="AA187">
-        <v>0.7749999999999999</v>
+        <v>0</v>
       </c>
       <c r="AB187">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188" spans="1:28">
@@ -16692,7 +16692,7 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>6989537</v>
+        <v>6989643</v>
       </c>
       <c r="C189" t="s">
         <v>27</v>
@@ -16701,10 +16701,10 @@
         <v>45362.41666666666</v>
       </c>
       <c r="E189" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="F189" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G189">
         <v>1</v>
@@ -16716,43 +16716,43 @@
         <v>44</v>
       </c>
       <c r="J189">
-        <v>1.8</v>
+        <v>2.25</v>
       </c>
       <c r="K189">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="L189">
-        <v>4.2</v>
+        <v>2.75</v>
       </c>
       <c r="M189">
-        <v>1.5</v>
+        <v>2.3</v>
       </c>
       <c r="N189">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="O189">
-        <v>6.5</v>
+        <v>2.625</v>
       </c>
       <c r="P189">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="Q189">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="R189">
-        <v>1.95</v>
+        <v>1.725</v>
       </c>
       <c r="S189">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
       <c r="T189">
-        <v>2.025</v>
+        <v>1.725</v>
       </c>
       <c r="U189">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="V189">
-        <v>0.5</v>
+        <v>1.3</v>
       </c>
       <c r="W189">
         <v>-1</v>
@@ -16761,16 +16761,16 @@
         <v>-1</v>
       </c>
       <c r="Y189">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="Z189">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA189">
         <v>-1</v>
       </c>
       <c r="AB189">
-        <v>0.7749999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="190" spans="1:28">
@@ -16864,7 +16864,7 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>6989643</v>
+        <v>6989537</v>
       </c>
       <c r="C191" t="s">
         <v>27</v>
@@ -16873,10 +16873,10 @@
         <v>45362.41666666666</v>
       </c>
       <c r="E191" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="F191" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G191">
         <v>1</v>
@@ -16888,43 +16888,43 @@
         <v>44</v>
       </c>
       <c r="J191">
+        <v>1.8</v>
+      </c>
+      <c r="K191">
+        <v>3.1</v>
+      </c>
+      <c r="L191">
+        <v>4.2</v>
+      </c>
+      <c r="M191">
+        <v>1.5</v>
+      </c>
+      <c r="N191">
+        <v>3.5</v>
+      </c>
+      <c r="O191">
+        <v>6.5</v>
+      </c>
+      <c r="P191">
+        <v>-1</v>
+      </c>
+      <c r="Q191">
+        <v>1.85</v>
+      </c>
+      <c r="R191">
+        <v>1.95</v>
+      </c>
+      <c r="S191">
         <v>2.25</v>
       </c>
-      <c r="K191">
-        <v>3.25</v>
-      </c>
-      <c r="L191">
-        <v>2.75</v>
-      </c>
-      <c r="M191">
-        <v>2.3</v>
-      </c>
-      <c r="N191">
-        <v>3.3</v>
-      </c>
-      <c r="O191">
-        <v>2.625</v>
-      </c>
-      <c r="P191">
-        <v>-0.25</v>
-      </c>
-      <c r="Q191">
-        <v>1.975</v>
-      </c>
-      <c r="R191">
-        <v>1.725</v>
-      </c>
-      <c r="S191">
-        <v>1.75</v>
-      </c>
       <c r="T191">
-        <v>1.725</v>
+        <v>2.025</v>
       </c>
       <c r="U191">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="V191">
-        <v>1.3</v>
+        <v>0.5</v>
       </c>
       <c r="W191">
         <v>-1</v>
@@ -16933,16 +16933,16 @@
         <v>-1</v>
       </c>
       <c r="Y191">
-        <v>0.9750000000000001</v>
+        <v>0</v>
       </c>
       <c r="Z191">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA191">
         <v>-1</v>
       </c>
       <c r="AB191">
-        <v>0.9750000000000001</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="192" spans="1:28">
@@ -17048,7 +17048,7 @@
         <v>36</v>
       </c>
       <c r="F193" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G193">
         <v>0</v>
@@ -17733,7 +17733,7 @@
         <v>45374.45833333334</v>
       </c>
       <c r="E201" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F201" t="s">
         <v>32</v>
@@ -17810,7 +17810,7 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>6989646</v>
+        <v>6989540</v>
       </c>
       <c r="C202" t="s">
         <v>27</v>
@@ -17819,13 +17819,13 @@
         <v>45374.54166666666</v>
       </c>
       <c r="E202" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F202" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G202">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H202">
         <v>0</v>
@@ -17834,43 +17834,43 @@
         <v>44</v>
       </c>
       <c r="J202">
-        <v>2.5</v>
+        <v>1.666</v>
       </c>
       <c r="K202">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="L202">
-        <v>2.5</v>
+        <v>4.8</v>
       </c>
       <c r="M202">
-        <v>2.55</v>
+        <v>1.55</v>
       </c>
       <c r="N202">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="O202">
-        <v>2.6</v>
+        <v>5.5</v>
       </c>
       <c r="P202">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="Q202">
-        <v>1.875</v>
+        <v>1.725</v>
       </c>
       <c r="R202">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S202">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="T202">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="U202">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V202">
-        <v>1.55</v>
+        <v>0.55</v>
       </c>
       <c r="W202">
         <v>-1</v>
@@ -17879,16 +17879,16 @@
         <v>-1</v>
       </c>
       <c r="Y202">
-        <v>0.875</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="Z202">
         <v>-1</v>
       </c>
       <c r="AA202">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB202">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="203" spans="1:28">
@@ -17896,7 +17896,7 @@
         <v>201</v>
       </c>
       <c r="B203">
-        <v>6989540</v>
+        <v>6989646</v>
       </c>
       <c r="C203" t="s">
         <v>27</v>
@@ -17905,13 +17905,13 @@
         <v>45374.54166666666</v>
       </c>
       <c r="E203" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F203" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G203">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H203">
         <v>0</v>
@@ -17920,44 +17920,44 @@
         <v>44</v>
       </c>
       <c r="J203">
-        <v>1.666</v>
+        <v>2.5</v>
       </c>
       <c r="K203">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="L203">
-        <v>4.8</v>
+        <v>2.5</v>
       </c>
       <c r="M203">
+        <v>2.55</v>
+      </c>
+      <c r="N203">
+        <v>3</v>
+      </c>
+      <c r="O203">
+        <v>2.6</v>
+      </c>
+      <c r="P203">
+        <v>0</v>
+      </c>
+      <c r="Q203">
+        <v>1.875</v>
+      </c>
+      <c r="R203">
+        <v>1.925</v>
+      </c>
+      <c r="S203">
+        <v>1.75</v>
+      </c>
+      <c r="T203">
+        <v>1.85</v>
+      </c>
+      <c r="U203">
+        <v>1.95</v>
+      </c>
+      <c r="V203">
         <v>1.55</v>
       </c>
-      <c r="N203">
-        <v>3.5</v>
-      </c>
-      <c r="O203">
-        <v>5.5</v>
-      </c>
-      <c r="P203">
-        <v>-0.75</v>
-      </c>
-      <c r="Q203">
-        <v>1.725</v>
-      </c>
-      <c r="R203">
-        <v>1.975</v>
-      </c>
-      <c r="S203">
-        <v>2</v>
-      </c>
-      <c r="T203">
-        <v>1.825</v>
-      </c>
-      <c r="U203">
-        <v>1.975</v>
-      </c>
-      <c r="V203">
-        <v>0.55</v>
-      </c>
       <c r="W203">
         <v>-1</v>
       </c>
@@ -17965,16 +17965,16 @@
         <v>-1</v>
       </c>
       <c r="Y203">
-        <v>0.7250000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="Z203">
         <v>-1</v>
       </c>
       <c r="AA203">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB203">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="204" spans="1:28">
@@ -18163,7 +18163,7 @@
         <v>45377.45833333334</v>
       </c>
       <c r="E206" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F206" t="s">
         <v>41</v>
@@ -18326,7 +18326,7 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>6989543</v>
+        <v>8022838</v>
       </c>
       <c r="C208" t="s">
         <v>27</v>
@@ -18335,76 +18335,76 @@
         <v>45380.45833333334</v>
       </c>
       <c r="E208" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F208" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G208">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H208">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I208" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J208">
-        <v>2.2</v>
+        <v>1.909</v>
       </c>
       <c r="K208">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="L208">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="M208">
-        <v>2.5</v>
+        <v>1.909</v>
       </c>
       <c r="N208">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="O208">
-        <v>2.7</v>
+        <v>4</v>
       </c>
       <c r="P208">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="Q208">
+        <v>1.95</v>
+      </c>
+      <c r="R208">
+        <v>1.85</v>
+      </c>
+      <c r="S208">
+        <v>2</v>
+      </c>
+      <c r="T208">
+        <v>1.975</v>
+      </c>
+      <c r="U208">
         <v>1.825</v>
       </c>
-      <c r="R208">
-        <v>1.975</v>
-      </c>
-      <c r="S208">
-        <v>2</v>
-      </c>
-      <c r="T208">
-        <v>1.9</v>
-      </c>
-      <c r="U208">
-        <v>1.9</v>
-      </c>
       <c r="V208">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="W208">
         <v>-1</v>
       </c>
       <c r="X208">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="Y208">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Z208">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA208">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB208">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="209" spans="1:28">
@@ -18412,7 +18412,7 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>8022838</v>
+        <v>6989543</v>
       </c>
       <c r="C209" t="s">
         <v>27</v>
@@ -18421,76 +18421,76 @@
         <v>45380.45833333334</v>
       </c>
       <c r="E209" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F209" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G209">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H209">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I209" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J209">
-        <v>1.909</v>
+        <v>2.2</v>
       </c>
       <c r="K209">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="L209">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="M209">
-        <v>1.909</v>
+        <v>2.5</v>
       </c>
       <c r="N209">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="O209">
-        <v>4</v>
+        <v>2.7</v>
       </c>
       <c r="P209">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="Q209">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="R209">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S209">
         <v>2</v>
       </c>
       <c r="T209">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="U209">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V209">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="W209">
         <v>-1</v>
       </c>
       <c r="X209">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="Y209">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="Z209">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA209">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB209">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="210" spans="1:28">
@@ -18854,7 +18854,7 @@
         <v>38</v>
       </c>
       <c r="F214" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G214">
         <v>5</v>
@@ -18940,7 +18940,7 @@
         <v>42</v>
       </c>
       <c r="F215" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G215">
         <v>0</v>
@@ -19014,7 +19014,7 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>6989340</v>
+        <v>6989544</v>
       </c>
       <c r="C216" t="s">
         <v>27</v>
@@ -19023,13 +19023,13 @@
         <v>45384.54166666666</v>
       </c>
       <c r="E216" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F216" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="G216">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H216">
         <v>0</v>
@@ -19038,43 +19038,43 @@
         <v>44</v>
       </c>
       <c r="J216">
-        <v>2.2</v>
+        <v>1.85</v>
       </c>
       <c r="K216">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="L216">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="M216">
-        <v>2</v>
+        <v>1.333</v>
       </c>
       <c r="N216">
-        <v>2.8</v>
+        <v>3.75</v>
       </c>
       <c r="O216">
-        <v>3.8</v>
+        <v>10</v>
       </c>
       <c r="P216">
-        <v>-0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="Q216">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="R216">
-        <v>1.725</v>
+        <v>1.875</v>
       </c>
       <c r="S216">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="T216">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="U216">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V216">
-        <v>1</v>
+        <v>0.333</v>
       </c>
       <c r="W216">
         <v>-1</v>
@@ -19083,16 +19083,16 @@
         <v>-1</v>
       </c>
       <c r="Y216">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="Z216">
         <v>-1</v>
       </c>
       <c r="AA216">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB216">
-        <v>0.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="217" spans="1:28">
@@ -19100,7 +19100,7 @@
         <v>215</v>
       </c>
       <c r="B217">
-        <v>6989544</v>
+        <v>6989340</v>
       </c>
       <c r="C217" t="s">
         <v>27</v>
@@ -19109,13 +19109,13 @@
         <v>45384.54166666666</v>
       </c>
       <c r="E217" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F217" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="G217">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H217">
         <v>0</v>
@@ -19124,43 +19124,43 @@
         <v>44</v>
       </c>
       <c r="J217">
-        <v>1.85</v>
+        <v>2.2</v>
       </c>
       <c r="K217">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="L217">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="M217">
-        <v>1.333</v>
+        <v>2</v>
       </c>
       <c r="N217">
-        <v>3.75</v>
+        <v>2.8</v>
       </c>
       <c r="O217">
-        <v>10</v>
+        <v>3.8</v>
       </c>
       <c r="P217">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="Q217">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="R217">
-        <v>1.875</v>
+        <v>1.725</v>
       </c>
       <c r="S217">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="T217">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="U217">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V217">
-        <v>0.333</v>
+        <v>1</v>
       </c>
       <c r="W217">
         <v>-1</v>
@@ -19169,16 +19169,16 @@
         <v>-1</v>
       </c>
       <c r="Y217">
-        <v>0.925</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="Z217">
         <v>-1</v>
       </c>
       <c r="AA217">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB217">
-        <v>0</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="218" spans="1:28">
@@ -19195,7 +19195,7 @@
         <v>45385.45833333334</v>
       </c>
       <c r="E218" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F218" t="s">
         <v>30</v>
@@ -19281,7 +19281,7 @@
         <v>45385.45833333334</v>
       </c>
       <c r="E219" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F219" t="s">
         <v>42</v>
@@ -19969,10 +19969,10 @@
         <v>45390.45833333334</v>
       </c>
       <c r="E227" t="s">
+        <v>39</v>
+      </c>
+      <c r="F227" t="s">
         <v>37</v>
-      </c>
-      <c r="F227" t="s">
-        <v>39</v>
       </c>
       <c r="G227">
         <v>1</v>
@@ -20399,7 +20399,7 @@
         <v>45396.45833333334</v>
       </c>
       <c r="E232" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F232" t="s">
         <v>34</v>
@@ -20657,7 +20657,7 @@
         <v>45402.45833333334</v>
       </c>
       <c r="E235" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F235" t="s">
         <v>38</v>
@@ -20746,7 +20746,7 @@
         <v>29</v>
       </c>
       <c r="F236" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G236">
         <v>1</v>
@@ -20992,7 +20992,7 @@
         <v>237</v>
       </c>
       <c r="B239">
-        <v>8102898</v>
+        <v>8102869</v>
       </c>
       <c r="C239" t="s">
         <v>27</v>
@@ -21001,58 +21001,58 @@
         <v>45403.54166666666</v>
       </c>
       <c r="E239" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F239" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G239">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H239">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I239" t="s">
         <v>44</v>
       </c>
       <c r="J239">
-        <v>1.333</v>
+        <v>2.1</v>
       </c>
       <c r="K239">
-        <v>4.2</v>
+        <v>3</v>
       </c>
       <c r="L239">
-        <v>8</v>
+        <v>3.3</v>
       </c>
       <c r="M239">
-        <v>1.25</v>
+        <v>2.2</v>
       </c>
       <c r="N239">
-        <v>4.333</v>
+        <v>3</v>
       </c>
       <c r="O239">
-        <v>11</v>
+        <v>3.1</v>
       </c>
       <c r="P239">
-        <v>-1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="Q239">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="R239">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S239">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="T239">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="U239">
-        <v>1.875</v>
+        <v>1.75</v>
       </c>
       <c r="V239">
-        <v>0.25</v>
+        <v>1.2</v>
       </c>
       <c r="W239">
         <v>-1</v>
@@ -21061,16 +21061,16 @@
         <v>-1</v>
       </c>
       <c r="Y239">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Z239">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA239">
-        <v>0.925</v>
+        <v>0</v>
       </c>
       <c r="AB239">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="240" spans="1:28">
@@ -21078,7 +21078,7 @@
         <v>238</v>
       </c>
       <c r="B240">
-        <v>8102869</v>
+        <v>8102898</v>
       </c>
       <c r="C240" t="s">
         <v>27</v>
@@ -21087,58 +21087,58 @@
         <v>45403.54166666666</v>
       </c>
       <c r="E240" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F240" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G240">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H240">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I240" t="s">
         <v>44</v>
       </c>
       <c r="J240">
-        <v>2.1</v>
+        <v>1.333</v>
       </c>
       <c r="K240">
-        <v>3</v>
+        <v>4.2</v>
       </c>
       <c r="L240">
-        <v>3.3</v>
+        <v>8</v>
       </c>
       <c r="M240">
-        <v>2.2</v>
+        <v>1.25</v>
       </c>
       <c r="N240">
-        <v>3</v>
+        <v>4.333</v>
       </c>
       <c r="O240">
-        <v>3.1</v>
+        <v>11</v>
       </c>
       <c r="P240">
-        <v>-0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="Q240">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="R240">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="S240">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="T240">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="U240">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="V240">
-        <v>1.2</v>
+        <v>0.25</v>
       </c>
       <c r="W240">
         <v>-1</v>
@@ -21147,16 +21147,16 @@
         <v>-1</v>
       </c>
       <c r="Y240">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="Z240">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA240">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="AB240">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="241" spans="1:28">
@@ -21259,7 +21259,7 @@
         <v>45409.45833333334</v>
       </c>
       <c r="E242" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F242" t="s">
         <v>35</v>
@@ -21434,7 +21434,7 @@
         <v>30</v>
       </c>
       <c r="F244" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G244">
         <v>1</v>
@@ -21508,7 +21508,7 @@
         <v>243</v>
       </c>
       <c r="B245">
-        <v>8102900</v>
+        <v>8102902</v>
       </c>
       <c r="C245" t="s">
         <v>27</v>
@@ -21517,10 +21517,10 @@
         <v>45410.45833333334</v>
       </c>
       <c r="E245" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="F245" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="G245">
         <v>1</v>
@@ -21532,61 +21532,61 @@
         <v>46</v>
       </c>
       <c r="J245">
-        <v>2.25</v>
+        <v>2.625</v>
       </c>
       <c r="K245">
         <v>3</v>
       </c>
       <c r="L245">
+        <v>2.5</v>
+      </c>
+      <c r="M245">
+        <v>3.1</v>
+      </c>
+      <c r="N245">
         <v>3</v>
       </c>
-      <c r="M245">
-        <v>1.444</v>
-      </c>
-      <c r="N245">
-        <v>3.75</v>
-      </c>
       <c r="O245">
-        <v>6.5</v>
+        <v>2.15</v>
       </c>
       <c r="P245">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="Q245">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="R245">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S245">
         <v>2.25</v>
       </c>
       <c r="T245">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="U245">
-        <v>1.95</v>
+        <v>1.725</v>
       </c>
       <c r="V245">
         <v>-1</v>
       </c>
       <c r="W245">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="X245">
         <v>-1</v>
       </c>
       <c r="Y245">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="Z245">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AA245">
         <v>-0.5</v>
       </c>
       <c r="AB245">
-        <v>0.475</v>
+        <v>0.3625</v>
       </c>
     </row>
     <row r="246" spans="1:28">
@@ -21594,7 +21594,7 @@
         <v>244</v>
       </c>
       <c r="B246">
-        <v>8102902</v>
+        <v>8102900</v>
       </c>
       <c r="C246" t="s">
         <v>27</v>
@@ -21603,10 +21603,10 @@
         <v>45410.45833333334</v>
       </c>
       <c r="E246" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="F246" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="G246">
         <v>1</v>
@@ -21618,61 +21618,61 @@
         <v>46</v>
       </c>
       <c r="J246">
-        <v>2.625</v>
+        <v>2.25</v>
       </c>
       <c r="K246">
         <v>3</v>
       </c>
       <c r="L246">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="M246">
-        <v>3.1</v>
+        <v>1.444</v>
       </c>
       <c r="N246">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="O246">
-        <v>2.15</v>
+        <v>6.5</v>
       </c>
       <c r="P246">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="Q246">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="R246">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S246">
         <v>2.25</v>
       </c>
       <c r="T246">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="U246">
-        <v>1.725</v>
+        <v>1.95</v>
       </c>
       <c r="V246">
         <v>-1</v>
       </c>
       <c r="W246">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="X246">
         <v>-1</v>
       </c>
       <c r="Y246">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="Z246">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA246">
         <v>-0.5</v>
       </c>
       <c r="AB246">
-        <v>0.3625</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="247" spans="1:28">
@@ -21852,7 +21852,7 @@
         <v>247</v>
       </c>
       <c r="B249">
-        <v>8102876</v>
+        <v>8102875</v>
       </c>
       <c r="C249" t="s">
         <v>27</v>
@@ -21861,76 +21861,76 @@
         <v>45413.45833333334</v>
       </c>
       <c r="E249" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="F249" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G249">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H249">
         <v>0</v>
       </c>
       <c r="I249" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="J249">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="K249">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="L249">
         <v>3</v>
       </c>
       <c r="M249">
-        <v>2.875</v>
+        <v>2.15</v>
       </c>
       <c r="N249">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="O249">
-        <v>2.25</v>
+        <v>3.2</v>
       </c>
       <c r="P249">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="Q249">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="R249">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="S249">
         <v>2</v>
       </c>
       <c r="T249">
+        <v>1.975</v>
+      </c>
+      <c r="U249">
         <v>1.825</v>
       </c>
-      <c r="U249">
-        <v>1.975</v>
-      </c>
       <c r="V249">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="W249">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="X249">
         <v>-1</v>
       </c>
       <c r="Y249">
-        <v>0.7749999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="Z249">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AA249">
         <v>-1</v>
       </c>
       <c r="AB249">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="250" spans="1:28">
@@ -21938,7 +21938,7 @@
         <v>248</v>
       </c>
       <c r="B250">
-        <v>8102875</v>
+        <v>8102876</v>
       </c>
       <c r="C250" t="s">
         <v>27</v>
@@ -21947,76 +21947,76 @@
         <v>45413.45833333334</v>
       </c>
       <c r="E250" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="F250" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G250">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H250">
         <v>0</v>
       </c>
       <c r="I250" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J250">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="K250">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="L250">
         <v>3</v>
       </c>
       <c r="M250">
-        <v>2.15</v>
+        <v>2.875</v>
       </c>
       <c r="N250">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="O250">
-        <v>3.2</v>
+        <v>2.25</v>
       </c>
       <c r="P250">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="Q250">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="R250">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="S250">
         <v>2</v>
       </c>
       <c r="T250">
+        <v>1.825</v>
+      </c>
+      <c r="U250">
         <v>1.975</v>
       </c>
-      <c r="U250">
-        <v>1.825</v>
-      </c>
       <c r="V250">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="W250">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="X250">
         <v>-1</v>
       </c>
       <c r="Y250">
-        <v>-0.5</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="Z250">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AA250">
         <v>-1</v>
       </c>
       <c r="AB250">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="251" spans="1:28">
@@ -22205,7 +22205,7 @@
         <v>45419.5</v>
       </c>
       <c r="E253" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F253" t="s">
         <v>29</v>
@@ -22294,7 +22294,7 @@
         <v>38</v>
       </c>
       <c r="F254" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G254">
         <v>2</v>
@@ -22798,7 +22798,7 @@
         <v>258</v>
       </c>
       <c r="B260">
-        <v>8102916</v>
+        <v>8102918</v>
       </c>
       <c r="C260" t="s">
         <v>27</v>
@@ -22807,10 +22807,10 @@
         <v>45431.5</v>
       </c>
       <c r="E260" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="F260" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G260">
         <v>0</v>
@@ -22822,40 +22822,40 @@
         <v>45</v>
       </c>
       <c r="J260">
-        <v>2.625</v>
+        <v>1.909</v>
       </c>
       <c r="K260">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="L260">
-        <v>2.5</v>
+        <v>3.6</v>
       </c>
       <c r="M260">
-        <v>2.375</v>
+        <v>2.1</v>
       </c>
       <c r="N260">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="O260">
-        <v>2.55</v>
+        <v>3.1</v>
       </c>
       <c r="P260">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="Q260">
+        <v>1.9</v>
+      </c>
+      <c r="R260">
+        <v>1.9</v>
+      </c>
+      <c r="S260">
+        <v>2</v>
+      </c>
+      <c r="T260">
         <v>1.8</v>
       </c>
-      <c r="R260">
-        <v>2</v>
-      </c>
-      <c r="S260">
-        <v>2</v>
-      </c>
-      <c r="T260">
-        <v>2.025</v>
-      </c>
       <c r="U260">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="V260">
         <v>-1</v>
@@ -22864,19 +22864,19 @@
         <v>-1</v>
       </c>
       <c r="X260">
-        <v>1.55</v>
+        <v>2.1</v>
       </c>
       <c r="Y260">
         <v>-1</v>
       </c>
       <c r="Z260">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA260">
         <v>-1</v>
       </c>
       <c r="AB260">
-        <v>0.7749999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="261" spans="1:28">
@@ -22884,7 +22884,7 @@
         <v>259</v>
       </c>
       <c r="B261">
-        <v>8102918</v>
+        <v>8102916</v>
       </c>
       <c r="C261" t="s">
         <v>27</v>
@@ -22893,10 +22893,10 @@
         <v>45431.5</v>
       </c>
       <c r="E261" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="F261" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G261">
         <v>0</v>
@@ -22908,40 +22908,40 @@
         <v>45</v>
       </c>
       <c r="J261">
-        <v>1.909</v>
+        <v>2.625</v>
       </c>
       <c r="K261">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="L261">
-        <v>3.6</v>
+        <v>2.5</v>
       </c>
       <c r="M261">
-        <v>2.1</v>
+        <v>2.375</v>
       </c>
       <c r="N261">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="O261">
-        <v>3.1</v>
+        <v>2.55</v>
       </c>
       <c r="P261">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="Q261">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="R261">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S261">
         <v>2</v>
       </c>
       <c r="T261">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="U261">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="V261">
         <v>-1</v>
@@ -22950,19 +22950,19 @@
         <v>-1</v>
       </c>
       <c r="X261">
-        <v>2.1</v>
+        <v>1.55</v>
       </c>
       <c r="Y261">
         <v>-1</v>
       </c>
       <c r="Z261">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AA261">
         <v>-1</v>
       </c>
       <c r="AB261">
-        <v>1</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
   </sheetData>

--- a/Serbia Prva Liga/Serbia Prva Liga.xlsx
+++ b/Serbia Prva Liga/Serbia Prva Liga.xlsx
@@ -133,13 +133,13 @@
     <t>FK Graficar Beograd</t>
   </si>
   <si>
-    <t>FK Tekstilac Odzaci</t>
+    <t>FK Indija</t>
   </si>
   <si>
     <t>Radnicki Sremska Mitrovica</t>
   </si>
   <si>
-    <t>FK Indija</t>
+    <t>FK Tekstilac Odzaci</t>
   </si>
   <si>
     <t>RFK Novi Sad 1921</t>
@@ -818,7 +818,7 @@
         <v>32</v>
       </c>
       <c r="F4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G4">
         <v>2</v>
@@ -1278,7 +1278,7 @@
         <v>37</v>
       </c>
       <c r="F9" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -1450,7 +1450,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6989662</v>
+        <v>6989315</v>
       </c>
       <c r="C11" t="s">
         <v>29</v>
@@ -1462,76 +1462,76 @@
         <v>39</v>
       </c>
       <c r="F11" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="G11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K11" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="L11">
-        <v>2.5</v>
+        <v>1.909</v>
       </c>
       <c r="M11">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="N11">
-        <v>2.625</v>
+        <v>3.6</v>
       </c>
       <c r="O11">
-        <v>2</v>
+        <v>1.909</v>
       </c>
       <c r="P11">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="Q11">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="R11">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="S11">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="T11">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="U11">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="V11">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W11">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="X11">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Y11">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Z11">
         <v>-1</v>
       </c>
       <c r="AA11">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB11">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC11">
-        <v>0.8</v>
+        <v>0.825</v>
       </c>
       <c r="AD11">
         <v>-1</v>
@@ -1542,7 +1542,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6989663</v>
+        <v>6989598</v>
       </c>
       <c r="C12" t="s">
         <v>29</v>
@@ -1551,19 +1551,19 @@
         <v>45150.52083333334</v>
       </c>
       <c r="E12" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="F12" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -1572,61 +1572,61 @@
         <v>48</v>
       </c>
       <c r="L12">
+        <v>1.909</v>
+      </c>
+      <c r="M12">
+        <v>3.2</v>
+      </c>
+      <c r="N12">
+        <v>3.6</v>
+      </c>
+      <c r="O12">
+        <v>1.909</v>
+      </c>
+      <c r="P12">
+        <v>3.25</v>
+      </c>
+      <c r="Q12">
+        <v>3.6</v>
+      </c>
+      <c r="R12">
+        <v>-0.5</v>
+      </c>
+      <c r="S12">
+        <v>1.975</v>
+      </c>
+      <c r="T12">
+        <v>1.825</v>
+      </c>
+      <c r="U12">
+        <v>2</v>
+      </c>
+      <c r="V12">
+        <v>1.775</v>
+      </c>
+      <c r="W12">
+        <v>2.025</v>
+      </c>
+      <c r="X12">
+        <v>-1</v>
+      </c>
+      <c r="Y12">
         <v>2.25</v>
       </c>
-      <c r="M12">
-        <v>3</v>
-      </c>
-      <c r="N12">
-        <v>3</v>
-      </c>
-      <c r="O12">
-        <v>2.4</v>
-      </c>
-      <c r="P12">
-        <v>2.875</v>
-      </c>
-      <c r="Q12">
-        <v>2.9</v>
-      </c>
-      <c r="R12">
-        <v>-0.25</v>
-      </c>
-      <c r="S12">
-        <v>2</v>
-      </c>
-      <c r="T12">
-        <v>1.7</v>
-      </c>
-      <c r="U12">
-        <v>2</v>
-      </c>
-      <c r="V12">
-        <v>1.95</v>
-      </c>
-      <c r="W12">
-        <v>1.85</v>
-      </c>
-      <c r="X12">
-        <v>-1</v>
-      </c>
-      <c r="Y12">
-        <v>1.875</v>
-      </c>
       <c r="Z12">
         <v>-1</v>
       </c>
       <c r="AA12">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB12">
-        <v>0.35</v>
+        <v>0.825</v>
       </c>
       <c r="AC12">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AD12">
-        <v>0</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="13" spans="1:30">
@@ -1634,7 +1634,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6989598</v>
+        <v>6989662</v>
       </c>
       <c r="C13" t="s">
         <v>29</v>
@@ -1643,82 +1643,82 @@
         <v>45150.52083333334</v>
       </c>
       <c r="E13" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F13" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="L13">
-        <v>1.909</v>
+        <v>2.5</v>
       </c>
       <c r="M13">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="N13">
-        <v>3.6</v>
+        <v>2.625</v>
       </c>
       <c r="O13">
-        <v>1.909</v>
+        <v>2</v>
       </c>
       <c r="P13">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Q13">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="R13">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="S13">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="T13">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="U13">
         <v>2</v>
       </c>
       <c r="V13">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="W13">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="X13">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Y13">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Z13">
         <v>-1</v>
       </c>
       <c r="AA13">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB13">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC13">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AD13">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="14" spans="1:30">
@@ -1726,7 +1726,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6989315</v>
+        <v>6989663</v>
       </c>
       <c r="C14" t="s">
         <v>29</v>
@@ -1735,82 +1735,82 @@
         <v>45150.52083333334</v>
       </c>
       <c r="E14" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="F14" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="G14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K14" t="s">
         <v>48</v>
       </c>
       <c r="L14">
-        <v>1.909</v>
+        <v>2.25</v>
       </c>
       <c r="M14">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="N14">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="O14">
-        <v>1.909</v>
+        <v>2.4</v>
       </c>
       <c r="P14">
-        <v>3.2</v>
+        <v>2.875</v>
       </c>
       <c r="Q14">
-        <v>3.6</v>
+        <v>2.9</v>
       </c>
       <c r="R14">
+        <v>-0.25</v>
+      </c>
+      <c r="S14">
+        <v>2</v>
+      </c>
+      <c r="T14">
+        <v>1.7</v>
+      </c>
+      <c r="U14">
+        <v>2</v>
+      </c>
+      <c r="V14">
+        <v>1.95</v>
+      </c>
+      <c r="W14">
+        <v>1.85</v>
+      </c>
+      <c r="X14">
+        <v>-1</v>
+      </c>
+      <c r="Y14">
+        <v>1.875</v>
+      </c>
+      <c r="Z14">
+        <v>-1</v>
+      </c>
+      <c r="AA14">
         <v>-0.5</v>
       </c>
-      <c r="S14">
-        <v>1.975</v>
-      </c>
-      <c r="T14">
-        <v>1.825</v>
-      </c>
-      <c r="U14">
-        <v>2.25</v>
-      </c>
-      <c r="V14">
-        <v>1.825</v>
-      </c>
-      <c r="W14">
-        <v>1.975</v>
-      </c>
-      <c r="X14">
-        <v>-1</v>
-      </c>
-      <c r="Y14">
-        <v>2.2</v>
-      </c>
-      <c r="Z14">
-        <v>-1</v>
-      </c>
-      <c r="AA14">
-        <v>-1</v>
-      </c>
       <c r="AB14">
-        <v>0.825</v>
+        <v>0.35</v>
       </c>
       <c r="AC14">
-        <v>0.825</v>
+        <v>0</v>
       </c>
       <c r="AD14">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:30">
@@ -2198,7 +2198,7 @@
         <v>33</v>
       </c>
       <c r="F19" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -2566,7 +2566,7 @@
         <v>35</v>
       </c>
       <c r="F23" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -2922,7 +2922,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>7121255</v>
+        <v>7121256</v>
       </c>
       <c r="C27" t="s">
         <v>29</v>
@@ -2931,13 +2931,13 @@
         <v>45164.5</v>
       </c>
       <c r="E27" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F27" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="G27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H27">
         <v>1</v>
@@ -2949,37 +2949,37 @@
         <v>0</v>
       </c>
       <c r="K27" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="L27">
-        <v>1.45</v>
+        <v>1.833</v>
       </c>
       <c r="M27">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="N27">
-        <v>6</v>
+        <v>4.2</v>
       </c>
       <c r="O27">
-        <v>1.4</v>
+        <v>1.833</v>
       </c>
       <c r="P27">
-        <v>4.2</v>
+        <v>3.1</v>
       </c>
       <c r="Q27">
-        <v>6.5</v>
+        <v>4.333</v>
       </c>
       <c r="R27">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="S27">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="T27">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="U27">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="V27">
         <v>1.85</v>
@@ -2988,25 +2988,25 @@
         <v>1.95</v>
       </c>
       <c r="X27">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Y27">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z27">
         <v>-1</v>
       </c>
       <c r="AA27">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB27">
-        <v>0.4625</v>
+        <v>0.95</v>
       </c>
       <c r="AC27">
-        <v>0.8500000000000001</v>
+        <v>0</v>
       </c>
       <c r="AD27">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:30">
@@ -3014,7 +3014,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>7121256</v>
+        <v>7121255</v>
       </c>
       <c r="C28" t="s">
         <v>29</v>
@@ -3023,13 +3023,13 @@
         <v>45164.5</v>
       </c>
       <c r="E28" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F28" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="G28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H28">
         <v>1</v>
@@ -3041,37 +3041,37 @@
         <v>0</v>
       </c>
       <c r="K28" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="L28">
-        <v>1.833</v>
+        <v>1.45</v>
       </c>
       <c r="M28">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="N28">
+        <v>6</v>
+      </c>
+      <c r="O28">
+        <v>1.4</v>
+      </c>
+      <c r="P28">
         <v>4.2</v>
       </c>
-      <c r="O28">
-        <v>1.833</v>
-      </c>
-      <c r="P28">
-        <v>3.1</v>
-      </c>
       <c r="Q28">
-        <v>4.333</v>
+        <v>6.5</v>
       </c>
       <c r="R28">
-        <v>-0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="S28">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T28">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="U28">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="V28">
         <v>1.85</v>
@@ -3080,25 +3080,25 @@
         <v>1.95</v>
       </c>
       <c r="X28">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="Y28">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z28">
         <v>-1</v>
       </c>
       <c r="AA28">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB28">
-        <v>0.95</v>
+        <v>0.4625</v>
       </c>
       <c r="AC28">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AD28">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="29" spans="1:30">
@@ -3299,7 +3299,7 @@
         <v>45165.5</v>
       </c>
       <c r="E31" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F31" t="s">
         <v>31</v>
@@ -3670,7 +3670,7 @@
         <v>30</v>
       </c>
       <c r="F35" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G35">
         <v>0</v>
@@ -4038,7 +4038,7 @@
         <v>36</v>
       </c>
       <c r="F39" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G39">
         <v>1</v>
@@ -4403,7 +4403,7 @@
         <v>45178.47916666666</v>
       </c>
       <c r="E43" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F43" t="s">
         <v>38</v>
@@ -4486,7 +4486,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>6989605</v>
+        <v>6989671</v>
       </c>
       <c r="C44" t="s">
         <v>29</v>
@@ -4495,13 +4495,13 @@
         <v>45178.47916666666</v>
       </c>
       <c r="E44" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="F44" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G44">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H44">
         <v>1</v>
@@ -4510,40 +4510,40 @@
         <v>2</v>
       </c>
       <c r="J44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K44" t="s">
         <v>46</v>
       </c>
       <c r="L44">
-        <v>2.15</v>
+        <v>2.3</v>
       </c>
       <c r="M44">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="N44">
         <v>3.25</v>
       </c>
       <c r="O44">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="P44">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="Q44">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="R44">
         <v>-0.25</v>
       </c>
       <c r="S44">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T44">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="U44">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="V44">
         <v>2</v>
@@ -4552,7 +4552,7 @@
         <v>1.8</v>
       </c>
       <c r="X44">
-        <v>1.1</v>
+        <v>1.3</v>
       </c>
       <c r="Y44">
         <v>-1</v>
@@ -4561,7 +4561,7 @@
         <v>-1</v>
       </c>
       <c r="AA44">
-        <v>0.825</v>
+        <v>1</v>
       </c>
       <c r="AB44">
         <v>-1</v>
@@ -4578,7 +4578,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>6989671</v>
+        <v>6989605</v>
       </c>
       <c r="C45" t="s">
         <v>29</v>
@@ -4587,13 +4587,13 @@
         <v>45178.47916666666</v>
       </c>
       <c r="E45" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="F45" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G45">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H45">
         <v>1</v>
@@ -4602,40 +4602,40 @@
         <v>2</v>
       </c>
       <c r="J45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K45" t="s">
         <v>46</v>
       </c>
       <c r="L45">
-        <v>2.3</v>
+        <v>2.15</v>
       </c>
       <c r="M45">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="N45">
         <v>3.25</v>
       </c>
       <c r="O45">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="P45">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="Q45">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="R45">
         <v>-0.25</v>
       </c>
       <c r="S45">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T45">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="U45">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="V45">
         <v>2</v>
@@ -4644,7 +4644,7 @@
         <v>1.8</v>
       </c>
       <c r="X45">
-        <v>1.3</v>
+        <v>1.1</v>
       </c>
       <c r="Y45">
         <v>-1</v>
@@ -4653,7 +4653,7 @@
         <v>-1</v>
       </c>
       <c r="AA45">
-        <v>1</v>
+        <v>0.825</v>
       </c>
       <c r="AB45">
         <v>-1</v>
@@ -4679,7 +4679,7 @@
         <v>45179.47916666666</v>
       </c>
       <c r="E46" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F46" t="s">
         <v>45</v>
@@ -5050,7 +5050,7 @@
         <v>37</v>
       </c>
       <c r="F50" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G50">
         <v>2</v>
@@ -5314,7 +5314,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>6989507</v>
+        <v>6989609</v>
       </c>
       <c r="C53" t="s">
         <v>29</v>
@@ -5323,82 +5323,82 @@
         <v>45186.45833333334</v>
       </c>
       <c r="E53" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="F53" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J53">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K53" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L53">
-        <v>3</v>
+        <v>2.3</v>
       </c>
       <c r="M53">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="N53">
-        <v>2.25</v>
+        <v>2.55</v>
       </c>
       <c r="O53">
-        <v>4</v>
+        <v>2.9</v>
       </c>
       <c r="P53">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="Q53">
-        <v>1.8</v>
+        <v>2.15</v>
       </c>
       <c r="R53">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="S53">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T53">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="U53">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="V53">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W53">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="X53">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y53">
         <v>-1</v>
       </c>
       <c r="Z53">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="AA53">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB53">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC53">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AD53">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="54" spans="1:30">
@@ -5406,7 +5406,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>6989609</v>
+        <v>6989506</v>
       </c>
       <c r="C54" t="s">
         <v>29</v>
@@ -5415,46 +5415,46 @@
         <v>45186.45833333334</v>
       </c>
       <c r="E54" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F54" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G54">
         <v>0</v>
       </c>
       <c r="H54">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I54">
         <v>0</v>
       </c>
       <c r="J54">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K54" t="s">
         <v>47</v>
       </c>
       <c r="L54">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="M54">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="N54">
-        <v>2.55</v>
+        <v>2.625</v>
       </c>
       <c r="O54">
-        <v>2.9</v>
+        <v>2.5</v>
       </c>
       <c r="P54">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="Q54">
-        <v>2.15</v>
+        <v>2.625</v>
       </c>
       <c r="R54">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="S54">
         <v>1.85</v>
@@ -5463,13 +5463,13 @@
         <v>1.95</v>
       </c>
       <c r="U54">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="V54">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W54">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="X54">
         <v>-1</v>
@@ -5478,7 +5478,7 @@
         <v>-1</v>
       </c>
       <c r="Z54">
-        <v>1.15</v>
+        <v>1.625</v>
       </c>
       <c r="AA54">
         <v>-1</v>
@@ -5487,10 +5487,10 @@
         <v>0.95</v>
       </c>
       <c r="AC54">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AD54">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="55" spans="1:30">
@@ -5498,7 +5498,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>6989506</v>
+        <v>6989507</v>
       </c>
       <c r="C55" t="s">
         <v>29</v>
@@ -5507,82 +5507,82 @@
         <v>45186.45833333334</v>
       </c>
       <c r="E55" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="F55" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K55" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L55">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="M55">
         <v>3</v>
       </c>
       <c r="N55">
-        <v>2.625</v>
+        <v>2.25</v>
       </c>
       <c r="O55">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="P55">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="Q55">
-        <v>2.625</v>
+        <v>1.8</v>
       </c>
       <c r="R55">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="S55">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T55">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="U55">
         <v>2.25</v>
       </c>
       <c r="V55">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W55">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="X55">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y55">
         <v>-1</v>
       </c>
       <c r="Z55">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="AA55">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB55">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC55">
         <v>-1</v>
       </c>
       <c r="AD55">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="56" spans="1:30">
@@ -5783,7 +5783,7 @@
         <v>45191.45833333334</v>
       </c>
       <c r="E58" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F58" t="s">
         <v>43</v>
@@ -6243,7 +6243,7 @@
         <v>45192.45833333334</v>
       </c>
       <c r="E63" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F63" t="s">
         <v>38</v>
@@ -6703,10 +6703,10 @@
         <v>45200.41666666666</v>
       </c>
       <c r="E68" t="s">
+        <v>39</v>
+      </c>
+      <c r="F68" t="s">
         <v>41</v>
-      </c>
-      <c r="F68" t="s">
-        <v>39</v>
       </c>
       <c r="G68">
         <v>1</v>
@@ -7350,7 +7350,7 @@
         <v>33</v>
       </c>
       <c r="F75" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G75">
         <v>0</v>
@@ -7531,7 +7531,7 @@
         <v>45207.41666666666</v>
       </c>
       <c r="E77" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F77" t="s">
         <v>44</v>
@@ -7798,7 +7798,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>6989617</v>
+        <v>6989514</v>
       </c>
       <c r="C80" t="s">
         <v>29</v>
@@ -7807,79 +7807,79 @@
         <v>45208.41666666666</v>
       </c>
       <c r="E80" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="F80" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G80">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H80">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I80">
         <v>1</v>
       </c>
       <c r="J80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K80" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L80">
-        <v>1.909</v>
+        <v>3.1</v>
       </c>
       <c r="M80">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="N80">
-        <v>3.5</v>
+        <v>2.1</v>
       </c>
       <c r="O80">
-        <v>1.909</v>
+        <v>3.6</v>
       </c>
       <c r="P80">
         <v>3.3</v>
       </c>
       <c r="Q80">
-        <v>3.4</v>
+        <v>1.85</v>
       </c>
       <c r="R80">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="S80">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T80">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="U80">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="V80">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W80">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="X80">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y80">
         <v>-1</v>
       </c>
       <c r="Z80">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="AA80">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB80">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC80">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="AD80">
         <v>-1</v>
@@ -7890,7 +7890,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>6989514</v>
+        <v>6989617</v>
       </c>
       <c r="C81" t="s">
         <v>29</v>
@@ -7899,79 +7899,79 @@
         <v>45208.41666666666</v>
       </c>
       <c r="E81" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="F81" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G81">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H81">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I81">
         <v>1</v>
       </c>
       <c r="J81">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K81" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L81">
-        <v>3.1</v>
+        <v>1.909</v>
       </c>
       <c r="M81">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="N81">
-        <v>2.1</v>
+        <v>3.5</v>
       </c>
       <c r="O81">
-        <v>3.6</v>
+        <v>1.909</v>
       </c>
       <c r="P81">
         <v>3.3</v>
       </c>
       <c r="Q81">
-        <v>1.85</v>
+        <v>3.4</v>
       </c>
       <c r="R81">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="S81">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="T81">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="U81">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="V81">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W81">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="X81">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y81">
         <v>-1</v>
       </c>
       <c r="Z81">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="AA81">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB81">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC81">
-        <v>0.875</v>
+        <v>1</v>
       </c>
       <c r="AD81">
         <v>-1</v>
@@ -7991,7 +7991,7 @@
         <v>45213.41666666666</v>
       </c>
       <c r="E82" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F82" t="s">
         <v>44</v>
@@ -8442,7 +8442,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>6989619</v>
+        <v>6989684</v>
       </c>
       <c r="C87" t="s">
         <v>29</v>
@@ -8451,13 +8451,13 @@
         <v>45215.41666666666</v>
       </c>
       <c r="E87" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="F87" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G87">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H87">
         <v>0</v>
@@ -8469,64 +8469,64 @@
         <v>0</v>
       </c>
       <c r="K87" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="L87">
+        <v>2.4</v>
+      </c>
+      <c r="M87">
+        <v>2.8</v>
+      </c>
+      <c r="N87">
+        <v>2.9</v>
+      </c>
+      <c r="O87">
+        <v>3.75</v>
+      </c>
+      <c r="P87">
+        <v>2.9</v>
+      </c>
+      <c r="Q87">
         <v>1.95</v>
       </c>
-      <c r="M87">
-        <v>3.2</v>
-      </c>
-      <c r="N87">
-        <v>3.4</v>
-      </c>
-      <c r="O87">
+      <c r="R87">
+        <v>0.5</v>
+      </c>
+      <c r="S87">
+        <v>1.8</v>
+      </c>
+      <c r="T87">
+        <v>2</v>
+      </c>
+      <c r="U87">
+        <v>2</v>
+      </c>
+      <c r="V87">
         <v>1.85</v>
       </c>
-      <c r="P87">
-        <v>3.2</v>
-      </c>
-      <c r="Q87">
-        <v>3.75</v>
-      </c>
-      <c r="R87">
-        <v>-0.5</v>
-      </c>
-      <c r="S87">
-        <v>1.9</v>
-      </c>
-      <c r="T87">
-        <v>1.9</v>
-      </c>
-      <c r="U87">
-        <v>2.5</v>
-      </c>
-      <c r="V87">
-        <v>2</v>
-      </c>
       <c r="W87">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="X87">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y87">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Z87">
         <v>-1</v>
       </c>
       <c r="AA87">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB87">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC87">
         <v>-1</v>
       </c>
       <c r="AD87">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="88" spans="1:30">
@@ -8534,7 +8534,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>6989515</v>
+        <v>6989619</v>
       </c>
       <c r="C88" t="s">
         <v>29</v>
@@ -8543,55 +8543,55 @@
         <v>45215.41666666666</v>
       </c>
       <c r="E88" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="F88" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G88">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H88">
         <v>0</v>
       </c>
       <c r="I88">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J88">
         <v>0</v>
       </c>
       <c r="K88" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="L88">
-        <v>1.5</v>
+        <v>1.95</v>
       </c>
       <c r="M88">
+        <v>3.2</v>
+      </c>
+      <c r="N88">
+        <v>3.4</v>
+      </c>
+      <c r="O88">
+        <v>1.85</v>
+      </c>
+      <c r="P88">
+        <v>3.2</v>
+      </c>
+      <c r="Q88">
         <v>3.75</v>
       </c>
-      <c r="N88">
-        <v>5.5</v>
-      </c>
-      <c r="O88">
-        <v>1.5</v>
-      </c>
-      <c r="P88">
-        <v>3.75</v>
-      </c>
-      <c r="Q88">
-        <v>6</v>
-      </c>
       <c r="R88">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="S88">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="T88">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="U88">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="V88">
         <v>2</v>
@@ -8600,19 +8600,19 @@
         <v>1.8</v>
       </c>
       <c r="X88">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="Y88">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Z88">
         <v>-1</v>
       </c>
       <c r="AA88">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB88">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC88">
         <v>-1</v>
@@ -8626,7 +8626,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>6989684</v>
+        <v>6989515</v>
       </c>
       <c r="C89" t="s">
         <v>29</v>
@@ -8635,10 +8635,10 @@
         <v>45215.41666666666</v>
       </c>
       <c r="E89" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="F89" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G89">
         <v>1</v>
@@ -8647,7 +8647,7 @@
         <v>0</v>
       </c>
       <c r="I89">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J89">
         <v>0</v>
@@ -8656,44 +8656,44 @@
         <v>46</v>
       </c>
       <c r="L89">
-        <v>2.4</v>
+        <v>1.5</v>
       </c>
       <c r="M89">
-        <v>2.8</v>
+        <v>3.75</v>
       </c>
       <c r="N89">
-        <v>2.9</v>
+        <v>5.5</v>
       </c>
       <c r="O89">
+        <v>1.5</v>
+      </c>
+      <c r="P89">
         <v>3.75</v>
       </c>
-      <c r="P89">
-        <v>2.9</v>
-      </c>
       <c r="Q89">
-        <v>1.95</v>
+        <v>6</v>
       </c>
       <c r="R89">
+        <v>-1</v>
+      </c>
+      <c r="S89">
+        <v>1.825</v>
+      </c>
+      <c r="T89">
+        <v>1.975</v>
+      </c>
+      <c r="U89">
+        <v>2.25</v>
+      </c>
+      <c r="V89">
+        <v>2</v>
+      </c>
+      <c r="W89">
+        <v>1.8</v>
+      </c>
+      <c r="X89">
         <v>0.5</v>
       </c>
-      <c r="S89">
-        <v>1.8</v>
-      </c>
-      <c r="T89">
-        <v>2</v>
-      </c>
-      <c r="U89">
-        <v>2</v>
-      </c>
-      <c r="V89">
-        <v>1.85</v>
-      </c>
-      <c r="W89">
-        <v>1.95</v>
-      </c>
-      <c r="X89">
-        <v>2.75</v>
-      </c>
       <c r="Y89">
         <v>-1</v>
       </c>
@@ -8701,16 +8701,16 @@
         <v>-1</v>
       </c>
       <c r="AA89">
+        <v>0</v>
+      </c>
+      <c r="AB89">
+        <v>0</v>
+      </c>
+      <c r="AC89">
+        <v>-1</v>
+      </c>
+      <c r="AD89">
         <v>0.8</v>
-      </c>
-      <c r="AB89">
-        <v>-1</v>
-      </c>
-      <c r="AC89">
-        <v>-1</v>
-      </c>
-      <c r="AD89">
-        <v>0.95</v>
       </c>
     </row>
     <row r="90" spans="1:30">
@@ -8914,7 +8914,7 @@
         <v>31</v>
       </c>
       <c r="F92" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G92">
         <v>1</v>
@@ -9371,7 +9371,7 @@
         <v>45222.375</v>
       </c>
       <c r="E97" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F97" t="s">
         <v>32</v>
@@ -9647,7 +9647,7 @@
         <v>45227.375</v>
       </c>
       <c r="E100" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F100" t="s">
         <v>40</v>
@@ -9926,7 +9926,7 @@
         <v>35</v>
       </c>
       <c r="F103" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G103">
         <v>0</v>
@@ -10383,7 +10383,7 @@
         <v>45235.375</v>
       </c>
       <c r="E108" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F108" t="s">
         <v>30</v>
@@ -10754,7 +10754,7 @@
         <v>36</v>
       </c>
       <c r="F112" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G112">
         <v>1</v>
@@ -10935,7 +10935,7 @@
         <v>45241.375</v>
       </c>
       <c r="E114" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F114" t="s">
         <v>32</v>
@@ -11119,7 +11119,7 @@
         <v>45241.375</v>
       </c>
       <c r="E116" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F116" t="s">
         <v>37</v>
@@ -11950,7 +11950,7 @@
         <v>34</v>
       </c>
       <c r="F125" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G125">
         <v>0</v>
@@ -12306,7 +12306,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>7497904</v>
+        <v>7497902</v>
       </c>
       <c r="C129" t="s">
         <v>29</v>
@@ -12315,13 +12315,13 @@
         <v>45252.375</v>
       </c>
       <c r="E129" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F129" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="G129">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H129">
         <v>1</v>
@@ -12330,67 +12330,67 @@
         <v>0</v>
       </c>
       <c r="J129">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K129" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L129">
-        <v>2.4</v>
+        <v>1.909</v>
       </c>
       <c r="M129">
-        <v>2.875</v>
+        <v>3</v>
       </c>
       <c r="N129">
-        <v>2.875</v>
+        <v>4</v>
       </c>
       <c r="O129">
-        <v>2.875</v>
+        <v>1.75</v>
       </c>
       <c r="P129">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="Q129">
-        <v>2.3</v>
+        <v>4.75</v>
       </c>
       <c r="R129">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="S129">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="T129">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="U129">
         <v>2</v>
       </c>
       <c r="V129">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="W129">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="X129">
         <v>-1</v>
       </c>
       <c r="Y129">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z129">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="AA129">
         <v>-1</v>
       </c>
       <c r="AB129">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="AC129">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AD129">
-        <v>0.875</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:30">
@@ -12398,7 +12398,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>7497902</v>
+        <v>7497374</v>
       </c>
       <c r="C130" t="s">
         <v>29</v>
@@ -12407,16 +12407,16 @@
         <v>45252.375</v>
       </c>
       <c r="E130" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="F130" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="G130">
         <v>1</v>
       </c>
       <c r="H130">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I130">
         <v>0</v>
@@ -12425,64 +12425,64 @@
         <v>0</v>
       </c>
       <c r="K130" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="L130">
-        <v>1.909</v>
+        <v>2.5</v>
       </c>
       <c r="M130">
         <v>3</v>
       </c>
       <c r="N130">
-        <v>4</v>
+        <v>2.625</v>
       </c>
       <c r="O130">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="P130">
         <v>3.1</v>
       </c>
       <c r="Q130">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="R130">
         <v>-0.5</v>
       </c>
       <c r="S130">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="T130">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="U130">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="V130">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W130">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="X130">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Y130">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z130">
         <v>-1</v>
       </c>
       <c r="AA130">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB130">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC130">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AD130">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="131" spans="1:30">
@@ -12490,7 +12490,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>7497374</v>
+        <v>7497903</v>
       </c>
       <c r="C131" t="s">
         <v>29</v>
@@ -12499,13 +12499,13 @@
         <v>45252.375</v>
       </c>
       <c r="E131" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="F131" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G131">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H131">
         <v>0</v>
@@ -12520,61 +12520,61 @@
         <v>46</v>
       </c>
       <c r="L131">
-        <v>2.5</v>
+        <v>1.571</v>
       </c>
       <c r="M131">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="N131">
-        <v>2.625</v>
+        <v>4.75</v>
       </c>
       <c r="O131">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="P131">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="Q131">
-        <v>3.6</v>
+        <v>5.5</v>
       </c>
       <c r="R131">
+        <v>-1</v>
+      </c>
+      <c r="S131">
+        <v>1.925</v>
+      </c>
+      <c r="T131">
+        <v>1.875</v>
+      </c>
+      <c r="U131">
+        <v>2.25</v>
+      </c>
+      <c r="V131">
+        <v>1.975</v>
+      </c>
+      <c r="W131">
+        <v>1.825</v>
+      </c>
+      <c r="X131">
+        <v>0.5</v>
+      </c>
+      <c r="Y131">
+        <v>-1</v>
+      </c>
+      <c r="Z131">
+        <v>-1</v>
+      </c>
+      <c r="AA131">
+        <v>0.925</v>
+      </c>
+      <c r="AB131">
+        <v>-1</v>
+      </c>
+      <c r="AC131">
         <v>-0.5</v>
       </c>
-      <c r="S131">
-        <v>2.025</v>
-      </c>
-      <c r="T131">
-        <v>1.775</v>
-      </c>
-      <c r="U131">
-        <v>2.5</v>
-      </c>
-      <c r="V131">
-        <v>1.95</v>
-      </c>
-      <c r="W131">
-        <v>1.85</v>
-      </c>
-      <c r="X131">
-        <v>1</v>
-      </c>
-      <c r="Y131">
-        <v>-1</v>
-      </c>
-      <c r="Z131">
-        <v>-1</v>
-      </c>
-      <c r="AA131">
-        <v>1.025</v>
-      </c>
-      <c r="AB131">
-        <v>-1</v>
-      </c>
-      <c r="AC131">
-        <v>-1</v>
-      </c>
       <c r="AD131">
-        <v>0.8500000000000001</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="132" spans="1:30">
@@ -12582,7 +12582,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>7497903</v>
+        <v>7497904</v>
       </c>
       <c r="C132" t="s">
         <v>29</v>
@@ -12591,82 +12591,82 @@
         <v>45252.375</v>
       </c>
       <c r="E132" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="F132" t="s">
         <v>39</v>
       </c>
       <c r="G132">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H132">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I132">
         <v>0</v>
       </c>
       <c r="J132">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K132" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L132">
-        <v>1.571</v>
+        <v>2.4</v>
       </c>
       <c r="M132">
-        <v>3.75</v>
+        <v>2.875</v>
       </c>
       <c r="N132">
-        <v>4.75</v>
+        <v>2.875</v>
       </c>
       <c r="O132">
-        <v>1.5</v>
+        <v>2.875</v>
       </c>
       <c r="P132">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="Q132">
-        <v>5.5</v>
+        <v>2.3</v>
       </c>
       <c r="R132">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="S132">
+        <v>1.75</v>
+      </c>
+      <c r="T132">
+        <v>2.05</v>
+      </c>
+      <c r="U132">
+        <v>2</v>
+      </c>
+      <c r="V132">
         <v>1.925</v>
       </c>
-      <c r="T132">
+      <c r="W132">
         <v>1.875</v>
       </c>
-      <c r="U132">
-        <v>2.25</v>
-      </c>
-      <c r="V132">
-        <v>1.975</v>
-      </c>
-      <c r="W132">
-        <v>1.825</v>
-      </c>
       <c r="X132">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="Y132">
         <v>-1</v>
       </c>
       <c r="Z132">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="AA132">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB132">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AC132">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AD132">
-        <v>0.4125</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="133" spans="1:30">
@@ -12858,7 +12858,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>6989629</v>
+        <v>6989630</v>
       </c>
       <c r="C135" t="s">
         <v>29</v>
@@ -12867,19 +12867,19 @@
         <v>45256.375</v>
       </c>
       <c r="E135" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="F135" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G135">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H135">
         <v>0</v>
       </c>
       <c r="I135">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J135">
         <v>0</v>
@@ -12888,43 +12888,43 @@
         <v>46</v>
       </c>
       <c r="L135">
-        <v>2.1</v>
+        <v>1.444</v>
       </c>
       <c r="M135">
-        <v>2.875</v>
+        <v>3.75</v>
       </c>
       <c r="N135">
-        <v>3.5</v>
+        <v>6.5</v>
       </c>
       <c r="O135">
-        <v>1.75</v>
+        <v>1.533</v>
       </c>
       <c r="P135">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="Q135">
-        <v>4.75</v>
+        <v>6</v>
       </c>
       <c r="R135">
-        <v>-0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="S135">
-        <v>1.95</v>
+        <v>2.075</v>
       </c>
       <c r="T135">
-        <v>1.75</v>
+        <v>1.725</v>
       </c>
       <c r="U135">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="V135">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="W135">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="X135">
-        <v>0.75</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="Y135">
         <v>-1</v>
@@ -12933,16 +12933,16 @@
         <v>-1</v>
       </c>
       <c r="AA135">
-        <v>0.475</v>
+        <v>1.075</v>
       </c>
       <c r="AB135">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC135">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AD135">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="136" spans="1:30">
@@ -12950,7 +12950,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>6989630</v>
+        <v>6989629</v>
       </c>
       <c r="C136" t="s">
         <v>29</v>
@@ -12959,19 +12959,19 @@
         <v>45256.375</v>
       </c>
       <c r="E136" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="F136" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G136">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H136">
         <v>0</v>
       </c>
       <c r="I136">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J136">
         <v>0</v>
@@ -12980,43 +12980,43 @@
         <v>46</v>
       </c>
       <c r="L136">
-        <v>1.444</v>
+        <v>2.1</v>
       </c>
       <c r="M136">
-        <v>3.75</v>
+        <v>2.875</v>
       </c>
       <c r="N136">
-        <v>6.5</v>
+        <v>3.5</v>
       </c>
       <c r="O136">
-        <v>1.533</v>
+        <v>1.75</v>
       </c>
       <c r="P136">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="Q136">
-        <v>6</v>
+        <v>4.75</v>
       </c>
       <c r="R136">
-        <v>-1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="S136">
-        <v>2.075</v>
+        <v>1.95</v>
       </c>
       <c r="T136">
-        <v>1.725</v>
+        <v>1.75</v>
       </c>
       <c r="U136">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="V136">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="W136">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="X136">
-        <v>0.5329999999999999</v>
+        <v>0.75</v>
       </c>
       <c r="Y136">
         <v>-1</v>
@@ -13025,16 +13025,16 @@
         <v>-1</v>
       </c>
       <c r="AA136">
-        <v>1.075</v>
+        <v>0.475</v>
       </c>
       <c r="AB136">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC136">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AD136">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="137" spans="1:30">
@@ -13051,7 +13051,7 @@
         <v>45256.375</v>
       </c>
       <c r="E137" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F137" t="s">
         <v>33</v>
@@ -13235,7 +13235,7 @@
         <v>45256.375</v>
       </c>
       <c r="E139" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F139" t="s">
         <v>35</v>
@@ -13606,7 +13606,7 @@
         <v>42</v>
       </c>
       <c r="F143" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G143">
         <v>0</v>
@@ -13686,7 +13686,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>7019002</v>
+        <v>6989700</v>
       </c>
       <c r="C144" t="s">
         <v>29</v>
@@ -13695,82 +13695,82 @@
         <v>45262.375</v>
       </c>
       <c r="E144" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F144" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="G144">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H144">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I144">
         <v>0</v>
       </c>
       <c r="J144">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K144" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L144">
-        <v>2.5</v>
+        <v>2.625</v>
       </c>
       <c r="M144">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="N144">
         <v>2.5</v>
       </c>
       <c r="O144">
-        <v>1.75</v>
+        <v>2.375</v>
       </c>
       <c r="P144">
         <v>3.1</v>
       </c>
       <c r="Q144">
-        <v>4.5</v>
+        <v>2.75</v>
       </c>
       <c r="R144">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="S144">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="T144">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="U144">
         <v>2</v>
       </c>
       <c r="V144">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="W144">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="X144">
         <v>-1</v>
       </c>
       <c r="Y144">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z144">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="AA144">
         <v>-1</v>
       </c>
       <c r="AB144">
-        <v>1</v>
+        <v>1.05</v>
       </c>
       <c r="AC144">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AD144">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="145" spans="1:30">
@@ -13778,7 +13778,7 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>6989700</v>
+        <v>6989631</v>
       </c>
       <c r="C145" t="s">
         <v>29</v>
@@ -13787,13 +13787,13 @@
         <v>45262.375</v>
       </c>
       <c r="E145" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F145" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G145">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H145">
         <v>1</v>
@@ -13805,64 +13805,64 @@
         <v>0</v>
       </c>
       <c r="K145" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L145">
-        <v>2.625</v>
+        <v>2.25</v>
       </c>
       <c r="M145">
         <v>3</v>
       </c>
       <c r="N145">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="O145">
-        <v>2.375</v>
+        <v>2.25</v>
       </c>
       <c r="P145">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="Q145">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="R145">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="S145">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="T145">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="U145">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="V145">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="W145">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="X145">
         <v>-1</v>
       </c>
       <c r="Y145">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z145">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="AA145">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB145">
-        <v>1.05</v>
+        <v>0.4</v>
       </c>
       <c r="AC145">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AD145">
-        <v>0.7749999999999999</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="146" spans="1:30">
@@ -13870,7 +13870,7 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>6989631</v>
+        <v>6989529</v>
       </c>
       <c r="C146" t="s">
         <v>29</v>
@@ -13879,82 +13879,82 @@
         <v>45262.375</v>
       </c>
       <c r="E146" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="F146" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G146">
         <v>1</v>
       </c>
       <c r="H146">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I146">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J146">
         <v>0</v>
       </c>
       <c r="K146" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L146">
-        <v>2.25</v>
+        <v>4.75</v>
       </c>
       <c r="M146">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="N146">
-        <v>3</v>
+        <v>1.571</v>
       </c>
       <c r="O146">
-        <v>2.25</v>
+        <v>4.75</v>
       </c>
       <c r="P146">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="Q146">
-        <v>3</v>
+        <v>1.571</v>
       </c>
       <c r="R146">
-        <v>-0.25</v>
+        <v>1</v>
       </c>
       <c r="S146">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="T146">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="U146">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="V146">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W146">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="X146">
         <v>-1</v>
       </c>
       <c r="Y146">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z146">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="AA146">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AB146">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="AC146">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AD146">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="147" spans="1:30">
@@ -13962,7 +13962,7 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>6989529</v>
+        <v>7019002</v>
       </c>
       <c r="C147" t="s">
         <v>29</v>
@@ -13971,46 +13971,46 @@
         <v>45262.375</v>
       </c>
       <c r="E147" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F147" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G147">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H147">
         <v>2</v>
       </c>
       <c r="I147">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J147">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K147" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L147">
-        <v>4.75</v>
+        <v>2.5</v>
       </c>
       <c r="M147">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="N147">
-        <v>1.571</v>
+        <v>2.5</v>
       </c>
       <c r="O147">
-        <v>4.75</v>
+        <v>1.75</v>
       </c>
       <c r="P147">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="Q147">
-        <v>1.571</v>
+        <v>4.5</v>
       </c>
       <c r="R147">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="S147">
         <v>1.8</v>
@@ -14019,31 +14019,31 @@
         <v>2</v>
       </c>
       <c r="U147">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="V147">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W147">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="X147">
         <v>-1</v>
       </c>
       <c r="Y147">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z147">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="AA147">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB147">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC147">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AD147">
         <v>-1</v>
@@ -14054,7 +14054,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>6989701</v>
+        <v>7544627</v>
       </c>
       <c r="C148" t="s">
         <v>29</v>
@@ -14063,10 +14063,10 @@
         <v>45262.45833333334</v>
       </c>
       <c r="E148" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="F148" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G148">
         <v>2</v>
@@ -14075,7 +14075,7 @@
         <v>1</v>
       </c>
       <c r="I148">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J148">
         <v>0</v>
@@ -14084,43 +14084,43 @@
         <v>46</v>
       </c>
       <c r="L148">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="M148">
         <v>3.2</v>
       </c>
       <c r="N148">
-        <v>2.625</v>
+        <v>3.1</v>
       </c>
       <c r="O148">
-        <v>1.95</v>
+        <v>2.45</v>
       </c>
       <c r="P148">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="Q148">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="R148">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="S148">
+        <v>1.775</v>
+      </c>
+      <c r="T148">
         <v>2.025</v>
       </c>
-      <c r="T148">
-        <v>1.775</v>
-      </c>
       <c r="U148">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="V148">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="W148">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="X148">
-        <v>0.95</v>
+        <v>1.45</v>
       </c>
       <c r="Y148">
         <v>-1</v>
@@ -14129,13 +14129,13 @@
         <v>-1</v>
       </c>
       <c r="AA148">
-        <v>1.025</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB148">
         <v>-1</v>
       </c>
       <c r="AC148">
-        <v>0.7749999999999999</v>
+        <v>0.875</v>
       </c>
       <c r="AD148">
         <v>-1</v>
@@ -14146,7 +14146,7 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>7544627</v>
+        <v>6989701</v>
       </c>
       <c r="C149" t="s">
         <v>29</v>
@@ -14155,10 +14155,10 @@
         <v>45262.45833333334</v>
       </c>
       <c r="E149" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="F149" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G149">
         <v>2</v>
@@ -14167,7 +14167,7 @@
         <v>1</v>
       </c>
       <c r="I149">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J149">
         <v>0</v>
@@ -14176,43 +14176,43 @@
         <v>46</v>
       </c>
       <c r="L149">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
       <c r="M149">
         <v>3.2</v>
       </c>
       <c r="N149">
+        <v>2.625</v>
+      </c>
+      <c r="O149">
+        <v>1.95</v>
+      </c>
+      <c r="P149">
         <v>3.1</v>
       </c>
-      <c r="O149">
-        <v>2.45</v>
-      </c>
-      <c r="P149">
-        <v>3</v>
-      </c>
       <c r="Q149">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="R149">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="S149">
+        <v>2.025</v>
+      </c>
+      <c r="T149">
         <v>1.775</v>
       </c>
-      <c r="T149">
+      <c r="U149">
+        <v>1.75</v>
+      </c>
+      <c r="V149">
+        <v>1.775</v>
+      </c>
+      <c r="W149">
         <v>2.025</v>
       </c>
-      <c r="U149">
-        <v>2.25</v>
-      </c>
-      <c r="V149">
-        <v>1.875</v>
-      </c>
-      <c r="W149">
-        <v>1.925</v>
-      </c>
       <c r="X149">
-        <v>1.45</v>
+        <v>0.95</v>
       </c>
       <c r="Y149">
         <v>-1</v>
@@ -14221,13 +14221,13 @@
         <v>-1</v>
       </c>
       <c r="AA149">
+        <v>1.025</v>
+      </c>
+      <c r="AB149">
+        <v>-1</v>
+      </c>
+      <c r="AC149">
         <v>0.7749999999999999</v>
-      </c>
-      <c r="AB149">
-        <v>-1</v>
-      </c>
-      <c r="AC149">
-        <v>0.875</v>
       </c>
       <c r="AD149">
         <v>-1</v>
@@ -14514,7 +14514,7 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>6989633</v>
+        <v>6989332</v>
       </c>
       <c r="C153" t="s">
         <v>29</v>
@@ -14523,16 +14523,16 @@
         <v>45270.375</v>
       </c>
       <c r="E153" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F153" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="G153">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H153">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I153">
         <v>1</v>
@@ -14544,43 +14544,43 @@
         <v>46</v>
       </c>
       <c r="L153">
-        <v>1.8</v>
+        <v>1.4</v>
       </c>
       <c r="M153">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="N153">
-        <v>4.2</v>
+        <v>7</v>
       </c>
       <c r="O153">
-        <v>1.75</v>
+        <v>1.285</v>
       </c>
       <c r="P153">
-        <v>3.2</v>
+        <v>4.333</v>
       </c>
       <c r="Q153">
-        <v>4.75</v>
+        <v>11</v>
       </c>
       <c r="R153">
-        <v>-0.75</v>
+        <v>-1.5</v>
       </c>
       <c r="S153">
+        <v>1.85</v>
+      </c>
+      <c r="T153">
         <v>1.95</v>
       </c>
-      <c r="T153">
-        <v>1.75</v>
-      </c>
       <c r="U153">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="V153">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W153">
-        <v>1.725</v>
+        <v>1.85</v>
       </c>
       <c r="X153">
-        <v>0.75</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="Y153">
         <v>-1</v>
@@ -14589,16 +14589,16 @@
         <v>-1</v>
       </c>
       <c r="AA153">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AB153">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AC153">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AD153">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="154" spans="1:30">
@@ -14882,7 +14882,7 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>6989332</v>
+        <v>6989633</v>
       </c>
       <c r="C157" t="s">
         <v>29</v>
@@ -14891,16 +14891,16 @@
         <v>45270.375</v>
       </c>
       <c r="E157" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="F157" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="G157">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H157">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I157">
         <v>1</v>
@@ -14912,43 +14912,43 @@
         <v>46</v>
       </c>
       <c r="L157">
-        <v>1.4</v>
+        <v>1.8</v>
       </c>
       <c r="M157">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="N157">
-        <v>7</v>
+        <v>4.2</v>
       </c>
       <c r="O157">
-        <v>1.285</v>
+        <v>1.75</v>
       </c>
       <c r="P157">
-        <v>4.333</v>
+        <v>3.2</v>
       </c>
       <c r="Q157">
-        <v>11</v>
+        <v>4.75</v>
       </c>
       <c r="R157">
-        <v>-1.5</v>
+        <v>-0.75</v>
       </c>
       <c r="S157">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="T157">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="U157">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="V157">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W157">
-        <v>1.85</v>
+        <v>1.725</v>
       </c>
       <c r="X157">
-        <v>0.2849999999999999</v>
+        <v>0.75</v>
       </c>
       <c r="Y157">
         <v>-1</v>
@@ -14957,16 +14957,16 @@
         <v>-1</v>
       </c>
       <c r="AA157">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AB157">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AC157">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AD157">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="158" spans="1:30">
@@ -15075,7 +15075,7 @@
         <v>45271.375</v>
       </c>
       <c r="E159" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F159" t="s">
         <v>36</v>
@@ -15262,7 +15262,7 @@
         <v>45</v>
       </c>
       <c r="F161" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G161">
         <v>2</v>
@@ -15434,7 +15434,7 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>6989705</v>
+        <v>7018979</v>
       </c>
       <c r="C163" t="s">
         <v>29</v>
@@ -15443,46 +15443,46 @@
         <v>45346.375</v>
       </c>
       <c r="E163" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F163" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="G163">
         <v>0</v>
       </c>
       <c r="H163">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I163">
         <v>0</v>
       </c>
       <c r="J163">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K163" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L163">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="M163">
-        <v>2.875</v>
+        <v>3</v>
       </c>
       <c r="N163">
-        <v>3.1</v>
+        <v>2.75</v>
       </c>
       <c r="O163">
-        <v>2.05</v>
+        <v>2.5</v>
       </c>
       <c r="P163">
-        <v>2.875</v>
+        <v>3</v>
       </c>
       <c r="Q163">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="R163">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="S163">
         <v>1.8</v>
@@ -15491,34 +15491,34 @@
         <v>2</v>
       </c>
       <c r="U163">
+        <v>2.25</v>
+      </c>
+      <c r="V163">
+        <v>1.975</v>
+      </c>
+      <c r="W163">
+        <v>1.725</v>
+      </c>
+      <c r="X163">
+        <v>-1</v>
+      </c>
+      <c r="Y163">
+        <v>-1</v>
+      </c>
+      <c r="Z163">
         <v>1.75</v>
       </c>
-      <c r="V163">
-        <v>1.95</v>
-      </c>
-      <c r="W163">
-        <v>1.85</v>
-      </c>
-      <c r="X163">
-        <v>-1</v>
-      </c>
-      <c r="Y163">
-        <v>1.875</v>
-      </c>
-      <c r="Z163">
-        <v>-1</v>
-      </c>
       <c r="AA163">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB163">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AC163">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AD163">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="164" spans="1:30">
@@ -15526,7 +15526,7 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>7018979</v>
+        <v>6989705</v>
       </c>
       <c r="C164" t="s">
         <v>29</v>
@@ -15535,46 +15535,46 @@
         <v>45346.375</v>
       </c>
       <c r="E164" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F164" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="G164">
         <v>0</v>
       </c>
       <c r="H164">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I164">
         <v>0</v>
       </c>
       <c r="J164">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K164" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L164">
-        <v>2.4</v>
+        <v>2.25</v>
       </c>
       <c r="M164">
-        <v>3</v>
+        <v>2.875</v>
       </c>
       <c r="N164">
-        <v>2.75</v>
+        <v>3.1</v>
       </c>
       <c r="O164">
-        <v>2.5</v>
+        <v>2.05</v>
       </c>
       <c r="P164">
-        <v>3</v>
+        <v>2.875</v>
       </c>
       <c r="Q164">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="R164">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="S164">
         <v>1.8</v>
@@ -15583,34 +15583,34 @@
         <v>2</v>
       </c>
       <c r="U164">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
       <c r="V164">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W164">
-        <v>1.725</v>
+        <v>1.85</v>
       </c>
       <c r="X164">
         <v>-1</v>
       </c>
       <c r="Y164">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Z164">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="AA164">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB164">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AC164">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AD164">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="165" spans="1:30">
@@ -15722,7 +15722,7 @@
         <v>45</v>
       </c>
       <c r="F166" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G166">
         <v>0</v>
@@ -15802,7 +15802,7 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>6989532</v>
+        <v>6989634</v>
       </c>
       <c r="C167" t="s">
         <v>29</v>
@@ -15811,10 +15811,10 @@
         <v>45347.375</v>
       </c>
       <c r="E167" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="F167" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G167">
         <v>1</v>
@@ -15823,7 +15823,7 @@
         <v>0</v>
       </c>
       <c r="I167">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J167">
         <v>0</v>
@@ -15832,43 +15832,43 @@
         <v>46</v>
       </c>
       <c r="L167">
-        <v>7.5</v>
+        <v>2.5</v>
       </c>
       <c r="M167">
-        <v>4.333</v>
+        <v>3</v>
       </c>
       <c r="N167">
-        <v>1.333</v>
+        <v>2.625</v>
       </c>
       <c r="O167">
-        <v>5</v>
+        <v>2.15</v>
       </c>
       <c r="P167">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="Q167">
-        <v>1.533</v>
+        <v>3.1</v>
       </c>
       <c r="R167">
-        <v>1</v>
+        <v>-0.25</v>
       </c>
       <c r="S167">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="T167">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="U167">
         <v>2.25</v>
       </c>
       <c r="V167">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W167">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="X167">
-        <v>4</v>
+        <v>1.15</v>
       </c>
       <c r="Y167">
         <v>-1</v>
@@ -15877,7 +15877,7 @@
         <v>-1</v>
       </c>
       <c r="AA167">
-        <v>0.875</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB167">
         <v>-1</v>
@@ -15886,7 +15886,7 @@
         <v>-1</v>
       </c>
       <c r="AD167">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="168" spans="1:30">
@@ -15894,7 +15894,7 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>6989634</v>
+        <v>6989532</v>
       </c>
       <c r="C168" t="s">
         <v>29</v>
@@ -15903,10 +15903,10 @@
         <v>45347.375</v>
       </c>
       <c r="E168" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="F168" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G168">
         <v>1</v>
@@ -15915,7 +15915,7 @@
         <v>0</v>
       </c>
       <c r="I168">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J168">
         <v>0</v>
@@ -15924,43 +15924,43 @@
         <v>46</v>
       </c>
       <c r="L168">
-        <v>2.5</v>
+        <v>7.5</v>
       </c>
       <c r="M168">
-        <v>3</v>
+        <v>4.333</v>
       </c>
       <c r="N168">
-        <v>2.625</v>
+        <v>1.333</v>
       </c>
       <c r="O168">
-        <v>2.15</v>
+        <v>5</v>
       </c>
       <c r="P168">
-        <v>3.1</v>
+        <v>3.8</v>
       </c>
       <c r="Q168">
-        <v>3.1</v>
+        <v>1.533</v>
       </c>
       <c r="R168">
-        <v>-0.25</v>
+        <v>1</v>
       </c>
       <c r="S168">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T168">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="U168">
         <v>2.25</v>
       </c>
       <c r="V168">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W168">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="X168">
-        <v>1.15</v>
+        <v>4</v>
       </c>
       <c r="Y168">
         <v>-1</v>
@@ -15969,7 +15969,7 @@
         <v>-1</v>
       </c>
       <c r="AA168">
-        <v>0.8999999999999999</v>
+        <v>0.875</v>
       </c>
       <c r="AB168">
         <v>-1</v>
@@ -15978,7 +15978,7 @@
         <v>-1</v>
       </c>
       <c r="AD168">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="169" spans="1:30">
@@ -16087,7 +16087,7 @@
         <v>45352.375</v>
       </c>
       <c r="E170" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F170" t="s">
         <v>42</v>
@@ -16547,7 +16547,7 @@
         <v>45353.375</v>
       </c>
       <c r="E175" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F175" t="s">
         <v>37</v>
@@ -16826,7 +16826,7 @@
         <v>43</v>
       </c>
       <c r="F178" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G178">
         <v>0</v>
@@ -16918,7 +16918,7 @@
         <v>38</v>
       </c>
       <c r="F179" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G179">
         <v>2</v>
@@ -17090,7 +17090,7 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>6989642</v>
+        <v>6989711</v>
       </c>
       <c r="C181" t="s">
         <v>29</v>
@@ -17099,79 +17099,79 @@
         <v>45357.54166666666</v>
       </c>
       <c r="E181" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F181" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G181">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H181">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I181">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J181">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K181" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="L181">
-        <v>1.909</v>
+        <v>2.25</v>
       </c>
       <c r="M181">
+        <v>2.9</v>
+      </c>
+      <c r="N181">
         <v>3.1</v>
       </c>
-      <c r="N181">
-        <v>3.75</v>
-      </c>
       <c r="O181">
-        <v>1.909</v>
+        <v>2.25</v>
       </c>
       <c r="P181">
-        <v>2.625</v>
+        <v>2.7</v>
       </c>
       <c r="Q181">
-        <v>4.75</v>
+        <v>3.4</v>
       </c>
       <c r="R181">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="S181">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T181">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="U181">
         <v>1.75</v>
       </c>
       <c r="V181">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W181">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="X181">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="Y181">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="Z181">
         <v>-1</v>
       </c>
       <c r="AA181">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB181">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC181">
-        <v>0.5</v>
+        <v>0.475</v>
       </c>
       <c r="AD181">
         <v>-0.5</v>
@@ -17182,7 +17182,7 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>6989711</v>
+        <v>6989642</v>
       </c>
       <c r="C182" t="s">
         <v>29</v>
@@ -17191,79 +17191,79 @@
         <v>45357.54166666666</v>
       </c>
       <c r="E182" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F182" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G182">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H182">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I182">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J182">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K182" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="L182">
-        <v>2.25</v>
+        <v>1.909</v>
       </c>
       <c r="M182">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="N182">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="O182">
-        <v>2.25</v>
+        <v>1.909</v>
       </c>
       <c r="P182">
-        <v>2.7</v>
+        <v>2.625</v>
       </c>
       <c r="Q182">
-        <v>3.4</v>
+        <v>4.75</v>
       </c>
       <c r="R182">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="S182">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T182">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="U182">
         <v>1.75</v>
       </c>
       <c r="V182">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W182">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="X182">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="Y182">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="Z182">
         <v>-1</v>
       </c>
       <c r="AA182">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB182">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC182">
-        <v>0.475</v>
+        <v>0.5</v>
       </c>
       <c r="AD182">
         <v>-0.5</v>
@@ -17467,7 +17467,7 @@
         <v>45361.41666666666</v>
       </c>
       <c r="E185" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F185" t="s">
         <v>43</v>
@@ -17651,7 +17651,7 @@
         <v>45361.41666666666</v>
       </c>
       <c r="E187" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F187" t="s">
         <v>34</v>
@@ -18939,7 +18939,7 @@
         <v>45374.45833333334</v>
       </c>
       <c r="E201" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F201" t="s">
         <v>33</v>
@@ -19310,7 +19310,7 @@
         <v>44</v>
       </c>
       <c r="F205" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G205">
         <v>1</v>
@@ -19850,7 +19850,7 @@
         <v>209</v>
       </c>
       <c r="B211">
-        <v>6989720</v>
+        <v>6989542</v>
       </c>
       <c r="C211" t="s">
         <v>29</v>
@@ -19859,79 +19859,79 @@
         <v>45381.45833333334</v>
       </c>
       <c r="E211" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F211" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G211">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H211">
         <v>2</v>
       </c>
       <c r="I211">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J211">
         <v>0</v>
       </c>
       <c r="K211" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L211">
-        <v>1.444</v>
+        <v>3.1</v>
       </c>
       <c r="M211">
-        <v>4.2</v>
+        <v>2.8</v>
       </c>
       <c r="N211">
-        <v>5.5</v>
+        <v>2.3</v>
       </c>
       <c r="O211">
-        <v>1.444</v>
+        <v>3.1</v>
       </c>
       <c r="P211">
-        <v>4</v>
+        <v>2.8</v>
       </c>
       <c r="Q211">
-        <v>6</v>
+        <v>2.3</v>
       </c>
       <c r="R211">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="S211">
-        <v>1.725</v>
+        <v>1.775</v>
       </c>
       <c r="T211">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="U211">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="V211">
+        <v>2</v>
+      </c>
+      <c r="W211">
         <v>1.8</v>
       </c>
-      <c r="W211">
-        <v>2</v>
-      </c>
       <c r="X211">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y211">
         <v>-1</v>
       </c>
       <c r="Z211">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="AA211">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB211">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC211">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AD211">
         <v>-1</v>
@@ -19942,7 +19942,7 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>6989542</v>
+        <v>6989648</v>
       </c>
       <c r="C212" t="s">
         <v>29</v>
@@ -19951,64 +19951,64 @@
         <v>45381.45833333334</v>
       </c>
       <c r="E212" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="F212" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G212">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H212">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I212">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J212">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K212" t="s">
         <v>46</v>
       </c>
       <c r="L212">
-        <v>3.1</v>
+        <v>2</v>
       </c>
       <c r="M212">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="N212">
-        <v>2.3</v>
+        <v>3.75</v>
       </c>
       <c r="O212">
-        <v>3.1</v>
+        <v>2</v>
       </c>
       <c r="P212">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="Q212">
-        <v>2.3</v>
+        <v>3.75</v>
       </c>
       <c r="R212">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="S212">
-        <v>1.775</v>
+        <v>1.725</v>
       </c>
       <c r="T212">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="U212">
         <v>2</v>
       </c>
       <c r="V212">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W212">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="X212">
-        <v>2.1</v>
+        <v>1</v>
       </c>
       <c r="Y212">
         <v>-1</v>
@@ -20017,13 +20017,13 @@
         <v>-1</v>
       </c>
       <c r="AA212">
-        <v>0.7749999999999999</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AB212">
         <v>-1</v>
       </c>
       <c r="AC212">
-        <v>1</v>
+        <v>0.825</v>
       </c>
       <c r="AD212">
         <v>-1</v>
@@ -20034,7 +20034,7 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>6989648</v>
+        <v>6989720</v>
       </c>
       <c r="C213" t="s">
         <v>29</v>
@@ -20043,46 +20043,46 @@
         <v>45381.45833333334</v>
       </c>
       <c r="E213" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="F213" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G213">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H213">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I213">
         <v>1</v>
       </c>
       <c r="J213">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K213" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L213">
-        <v>2</v>
+        <v>1.444</v>
       </c>
       <c r="M213">
-        <v>2.9</v>
+        <v>4.2</v>
       </c>
       <c r="N213">
-        <v>3.75</v>
+        <v>5.5</v>
       </c>
       <c r="O213">
-        <v>2</v>
+        <v>1.444</v>
       </c>
       <c r="P213">
-        <v>2.9</v>
+        <v>4</v>
       </c>
       <c r="Q213">
-        <v>3.75</v>
+        <v>6</v>
       </c>
       <c r="R213">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="S213">
         <v>1.725</v>
@@ -20091,31 +20091,31 @@
         <v>1.975</v>
       </c>
       <c r="U213">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="V213">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W213">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="X213">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Y213">
         <v>-1</v>
       </c>
       <c r="Z213">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="AA213">
-        <v>0.7250000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB213">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC213">
-        <v>0.825</v>
+        <v>0.8</v>
       </c>
       <c r="AD213">
         <v>-1</v>
@@ -20135,7 +20135,7 @@
         <v>45381.45833333334</v>
       </c>
       <c r="E214" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F214" t="s">
         <v>40</v>
@@ -20230,7 +20230,7 @@
         <v>44</v>
       </c>
       <c r="F215" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G215">
         <v>0</v>
@@ -20310,7 +20310,7 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>6989340</v>
+        <v>6989544</v>
       </c>
       <c r="C216" t="s">
         <v>29</v>
@@ -20319,13 +20319,13 @@
         <v>45384.54166666666</v>
       </c>
       <c r="E216" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F216" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="G216">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H216">
         <v>0</v>
@@ -20340,43 +20340,43 @@
         <v>46</v>
       </c>
       <c r="L216">
-        <v>2.2</v>
+        <v>1.85</v>
       </c>
       <c r="M216">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="N216">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="O216">
-        <v>2</v>
+        <v>1.333</v>
       </c>
       <c r="P216">
-        <v>2.8</v>
+        <v>3.75</v>
       </c>
       <c r="Q216">
-        <v>3.8</v>
+        <v>10</v>
       </c>
       <c r="R216">
-        <v>-0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="S216">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T216">
-        <v>1.725</v>
+        <v>1.875</v>
       </c>
       <c r="U216">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="V216">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W216">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="X216">
-        <v>1</v>
+        <v>0.333</v>
       </c>
       <c r="Y216">
         <v>-1</v>
@@ -20385,16 +20385,16 @@
         <v>-1</v>
       </c>
       <c r="AA216">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AB216">
         <v>-1</v>
       </c>
       <c r="AC216">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AD216">
-        <v>0.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="217" spans="1:30">
@@ -20402,7 +20402,7 @@
         <v>215</v>
       </c>
       <c r="B217">
-        <v>6989544</v>
+        <v>6989340</v>
       </c>
       <c r="C217" t="s">
         <v>29</v>
@@ -20411,13 +20411,13 @@
         <v>45384.54166666666</v>
       </c>
       <c r="E217" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F217" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="G217">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H217">
         <v>0</v>
@@ -20432,43 +20432,43 @@
         <v>46</v>
       </c>
       <c r="L217">
-        <v>1.85</v>
+        <v>2.2</v>
       </c>
       <c r="M217">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="N217">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="O217">
-        <v>1.333</v>
+        <v>2</v>
       </c>
       <c r="P217">
-        <v>3.75</v>
+        <v>2.8</v>
       </c>
       <c r="Q217">
-        <v>10</v>
+        <v>3.8</v>
       </c>
       <c r="R217">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="S217">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T217">
-        <v>1.875</v>
+        <v>1.725</v>
       </c>
       <c r="U217">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="V217">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W217">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="X217">
-        <v>0.333</v>
+        <v>1</v>
       </c>
       <c r="Y217">
         <v>-1</v>
@@ -20477,16 +20477,16 @@
         <v>-1</v>
       </c>
       <c r="AA217">
-        <v>0.925</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB217">
         <v>-1</v>
       </c>
       <c r="AC217">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AD217">
-        <v>0</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="218" spans="1:30">
@@ -20494,7 +20494,7 @@
         <v>216</v>
       </c>
       <c r="B218">
-        <v>8044572</v>
+        <v>7018986</v>
       </c>
       <c r="C218" t="s">
         <v>29</v>
@@ -20503,52 +20503,52 @@
         <v>45385.45833333334</v>
       </c>
       <c r="E218" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F218" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="G218">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H218">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I218">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J218">
         <v>0</v>
       </c>
       <c r="K218" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L218">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="M218">
+        <v>2.9</v>
+      </c>
+      <c r="N218">
+        <v>3.2</v>
+      </c>
+      <c r="O218">
+        <v>1.95</v>
+      </c>
+      <c r="P218">
         <v>2.875</v>
       </c>
-      <c r="N218">
-        <v>3.8</v>
-      </c>
-      <c r="O218">
-        <v>2.3</v>
-      </c>
-      <c r="P218">
-        <v>2.75</v>
-      </c>
       <c r="Q218">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="R218">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="S218">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="T218">
-        <v>1.75</v>
+        <v>1.775</v>
       </c>
       <c r="U218">
         <v>2</v>
@@ -20560,25 +20560,25 @@
         <v>1.775</v>
       </c>
       <c r="X218">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Y218">
         <v>-1</v>
       </c>
       <c r="Z218">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="AA218">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB218">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AC218">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AD218">
-        <v>0.7749999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="219" spans="1:30">
@@ -20678,7 +20678,7 @@
         <v>218</v>
       </c>
       <c r="B220">
-        <v>7018986</v>
+        <v>8044572</v>
       </c>
       <c r="C220" t="s">
         <v>29</v>
@@ -20687,52 +20687,52 @@
         <v>45385.45833333334</v>
       </c>
       <c r="E220" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F220" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="G220">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H220">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I220">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J220">
         <v>0</v>
       </c>
       <c r="K220" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L220">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="M220">
-        <v>2.9</v>
+        <v>2.875</v>
       </c>
       <c r="N220">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="O220">
-        <v>1.95</v>
+        <v>2.3</v>
       </c>
       <c r="P220">
-        <v>2.875</v>
+        <v>2.75</v>
       </c>
       <c r="Q220">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="R220">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="S220">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="T220">
-        <v>1.775</v>
+        <v>1.75</v>
       </c>
       <c r="U220">
         <v>2</v>
@@ -20744,25 +20744,25 @@
         <v>1.775</v>
       </c>
       <c r="X220">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="Y220">
         <v>-1</v>
       </c>
       <c r="Z220">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="AA220">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB220">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AC220">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AD220">
-        <v>0</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="221" spans="1:30">
@@ -20782,7 +20782,7 @@
         <v>32</v>
       </c>
       <c r="F221" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G221">
         <v>0</v>
@@ -20954,7 +20954,7 @@
         <v>221</v>
       </c>
       <c r="B223">
-        <v>6989546</v>
+        <v>6989653</v>
       </c>
       <c r="C223" t="s">
         <v>29</v>
@@ -20963,82 +20963,82 @@
         <v>45389.45833333334</v>
       </c>
       <c r="E223" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F223" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G223">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H223">
+        <v>0</v>
+      </c>
+      <c r="I223">
+        <v>0</v>
+      </c>
+      <c r="J223">
+        <v>0</v>
+      </c>
+      <c r="K223" t="s">
+        <v>46</v>
+      </c>
+      <c r="L223">
+        <v>1.4</v>
+      </c>
+      <c r="M223">
         <v>4</v>
       </c>
-      <c r="I223">
-        <v>0</v>
-      </c>
-      <c r="J223">
-        <v>2</v>
-      </c>
-      <c r="K223" t="s">
-        <v>47</v>
-      </c>
-      <c r="L223">
-        <v>2.4</v>
-      </c>
-      <c r="M223">
-        <v>3</v>
-      </c>
       <c r="N223">
-        <v>2.75</v>
+        <v>6.5</v>
       </c>
       <c r="O223">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="P223">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="Q223">
-        <v>2.75</v>
+        <v>2.375</v>
       </c>
       <c r="R223">
         <v>0</v>
       </c>
       <c r="S223">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="T223">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="U223">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="V223">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W223">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="X223">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="Y223">
         <v>-1</v>
       </c>
       <c r="Z223">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="AA223">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB223">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC223">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AD223">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="224" spans="1:30">
@@ -21046,7 +21046,7 @@
         <v>222</v>
       </c>
       <c r="B224">
-        <v>6989653</v>
+        <v>6989546</v>
       </c>
       <c r="C224" t="s">
         <v>29</v>
@@ -21055,82 +21055,82 @@
         <v>45389.45833333334</v>
       </c>
       <c r="E224" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F224" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G224">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H224">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I224">
         <v>0</v>
       </c>
       <c r="J224">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K224" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L224">
-        <v>1.4</v>
+        <v>2.4</v>
       </c>
       <c r="M224">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N224">
-        <v>6.5</v>
+        <v>2.75</v>
       </c>
       <c r="O224">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="P224">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="Q224">
-        <v>2.375</v>
+        <v>2.75</v>
       </c>
       <c r="R224">
         <v>0</v>
       </c>
       <c r="S224">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="T224">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="U224">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="V224">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W224">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="X224">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="Y224">
         <v>-1</v>
       </c>
       <c r="Z224">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="AA224">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB224">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC224">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AD224">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="225" spans="1:30">
@@ -21334,7 +21334,7 @@
         <v>40</v>
       </c>
       <c r="F227" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G227">
         <v>1</v>
@@ -21791,7 +21791,7 @@
         <v>45396.45833333334</v>
       </c>
       <c r="E232" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F232" t="s">
         <v>36</v>
@@ -21978,7 +21978,7 @@
         <v>30</v>
       </c>
       <c r="F234" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G234">
         <v>2</v>
@@ -22159,10 +22159,10 @@
         <v>45402.45833333334</v>
       </c>
       <c r="E236" t="s">
+        <v>39</v>
+      </c>
+      <c r="F236" t="s">
         <v>41</v>
-      </c>
-      <c r="F236" t="s">
-        <v>39</v>
       </c>
       <c r="G236">
         <v>0</v>
@@ -22898,7 +22898,7 @@
         <v>31</v>
       </c>
       <c r="F244" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G244">
         <v>1</v>
@@ -23358,7 +23358,7 @@
         <v>31</v>
       </c>
       <c r="F249" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G249">
         <v>2</v>
@@ -23723,7 +23723,7 @@
         <v>45419.5</v>
       </c>
       <c r="E253" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F253" t="s">
         <v>32</v>
@@ -23815,7 +23815,7 @@
         <v>45419.5</v>
       </c>
       <c r="E254" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F254" t="s">
         <v>40</v>
@@ -24278,7 +24278,7 @@
         <v>32</v>
       </c>
       <c r="F259" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G259">
         <v>1</v>
@@ -24358,7 +24358,7 @@
         <v>258</v>
       </c>
       <c r="B260">
-        <v>8102918</v>
+        <v>8102916</v>
       </c>
       <c r="C260" t="s">
         <v>29</v>
@@ -24367,10 +24367,10 @@
         <v>45431.5</v>
       </c>
       <c r="E260" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="F260" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G260">
         <v>0</v>
@@ -24388,40 +24388,40 @@
         <v>47</v>
       </c>
       <c r="L260">
-        <v>1.909</v>
+        <v>2.625</v>
       </c>
       <c r="M260">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="N260">
-        <v>3.6</v>
+        <v>2.5</v>
       </c>
       <c r="O260">
-        <v>2.1</v>
+        <v>2.375</v>
       </c>
       <c r="P260">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="Q260">
-        <v>3.1</v>
+        <v>2.55</v>
       </c>
       <c r="R260">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="S260">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T260">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="U260">
         <v>2</v>
       </c>
       <c r="V260">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="W260">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="X260">
         <v>-1</v>
@@ -24430,19 +24430,19 @@
         <v>-1</v>
       </c>
       <c r="Z260">
-        <v>2.1</v>
+        <v>1.55</v>
       </c>
       <c r="AA260">
         <v>-1</v>
       </c>
       <c r="AB260">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AC260">
         <v>-1</v>
       </c>
       <c r="AD260">
-        <v>1</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="261" spans="1:30">
@@ -24450,7 +24450,7 @@
         <v>259</v>
       </c>
       <c r="B261">
-        <v>8102916</v>
+        <v>8102918</v>
       </c>
       <c r="C261" t="s">
         <v>29</v>
@@ -24459,10 +24459,10 @@
         <v>45431.5</v>
       </c>
       <c r="E261" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="F261" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G261">
         <v>0</v>
@@ -24480,40 +24480,40 @@
         <v>47</v>
       </c>
       <c r="L261">
-        <v>2.625</v>
+        <v>1.909</v>
       </c>
       <c r="M261">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="N261">
-        <v>2.5</v>
+        <v>3.6</v>
       </c>
       <c r="O261">
-        <v>2.375</v>
+        <v>2.1</v>
       </c>
       <c r="P261">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="Q261">
-        <v>2.55</v>
+        <v>3.1</v>
       </c>
       <c r="R261">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="S261">
+        <v>1.9</v>
+      </c>
+      <c r="T261">
+        <v>1.9</v>
+      </c>
+      <c r="U261">
+        <v>2</v>
+      </c>
+      <c r="V261">
         <v>1.8</v>
       </c>
-      <c r="T261">
-        <v>2</v>
-      </c>
-      <c r="U261">
-        <v>2</v>
-      </c>
-      <c r="V261">
-        <v>2.025</v>
-      </c>
       <c r="W261">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="X261">
         <v>-1</v>
@@ -24522,19 +24522,19 @@
         <v>-1</v>
       </c>
       <c r="Z261">
-        <v>1.55</v>
+        <v>2.1</v>
       </c>
       <c r="AA261">
         <v>-1</v>
       </c>
       <c r="AB261">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC261">
         <v>-1</v>
       </c>
       <c r="AD261">
-        <v>0.7749999999999999</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Serbia Prva Liga/Serbia Prva Liga.xlsx
+++ b/Serbia Prva Liga/Serbia Prva Liga.xlsx
@@ -106,10 +106,10 @@
     <t>Serbia Prva Liga</t>
   </si>
   <si>
-    <t>Jedinstvo UB</t>
+    <t>Smederevo</t>
   </si>
   <si>
-    <t>Smederevo</t>
+    <t>Jedinstvo UB</t>
   </si>
   <si>
     <t>OFK Vrsac</t>
@@ -121,10 +121,10 @@
     <t>Sloboda Uzice</t>
   </si>
   <si>
-    <t>FK Mladost Gat Novi Sad</t>
+    <t>FK Radnicki Beograd</t>
   </si>
   <si>
-    <t>FK Radnicki Beograd</t>
+    <t>FK Mladost Gat Novi Sad</t>
   </si>
   <si>
     <t>FK Macva Sabac</t>
@@ -133,10 +133,10 @@
     <t>FK Graficar Beograd</t>
   </si>
   <si>
-    <t>FK Indija</t>
+    <t>FK Tekstilac Odzaci</t>
   </si>
   <si>
-    <t>FK Tekstilac Odzaci</t>
+    <t>FK Indija</t>
   </si>
   <si>
     <t>Radnicki Sremska Mitrovica</t>
@@ -622,7 +622,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>6989596</v>
+        <v>6989497</v>
       </c>
       <c r="C2" t="s">
         <v>29</v>
@@ -634,10 +634,10 @@
         <v>30</v>
       </c>
       <c r="F2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -652,43 +652,43 @@
         <v>46</v>
       </c>
       <c r="L2">
-        <v>1.85</v>
+        <v>2.75</v>
       </c>
       <c r="M2">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="N2">
-        <v>4</v>
+        <v>2.55</v>
       </c>
       <c r="O2">
-        <v>1.5</v>
+        <v>2.75</v>
       </c>
       <c r="P2">
-        <v>3.8</v>
+        <v>2.8</v>
       </c>
       <c r="Q2">
-        <v>5.75</v>
+        <v>2.55</v>
       </c>
       <c r="R2">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="S2">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="T2">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="U2">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="V2">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W2">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="X2">
-        <v>0.5</v>
+        <v>1.75</v>
       </c>
       <c r="Y2">
         <v>-1</v>
@@ -697,16 +697,16 @@
         <v>-1</v>
       </c>
       <c r="AA2">
-        <v>0.8</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB2">
         <v>-1</v>
       </c>
       <c r="AC2">
-        <v>0.925</v>
+        <v>0</v>
       </c>
       <c r="AD2">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:30">
@@ -714,7 +714,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6989497</v>
+        <v>6989596</v>
       </c>
       <c r="C3" t="s">
         <v>29</v>
@@ -726,10 +726,10 @@
         <v>31</v>
       </c>
       <c r="F3" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -744,43 +744,43 @@
         <v>46</v>
       </c>
       <c r="L3">
+        <v>1.85</v>
+      </c>
+      <c r="M3">
+        <v>3.1</v>
+      </c>
+      <c r="N3">
+        <v>4</v>
+      </c>
+      <c r="O3">
+        <v>1.5</v>
+      </c>
+      <c r="P3">
+        <v>3.8</v>
+      </c>
+      <c r="Q3">
+        <v>5.75</v>
+      </c>
+      <c r="R3">
+        <v>-1</v>
+      </c>
+      <c r="S3">
+        <v>1.8</v>
+      </c>
+      <c r="T3">
+        <v>2</v>
+      </c>
+      <c r="U3">
         <v>2.75</v>
       </c>
-      <c r="M3">
-        <v>2.8</v>
-      </c>
-      <c r="N3">
-        <v>2.55</v>
-      </c>
-      <c r="O3">
-        <v>2.75</v>
-      </c>
-      <c r="P3">
-        <v>2.8</v>
-      </c>
-      <c r="Q3">
-        <v>2.55</v>
-      </c>
-      <c r="R3">
-        <v>0</v>
-      </c>
-      <c r="S3">
-        <v>1.975</v>
-      </c>
-      <c r="T3">
-        <v>1.825</v>
-      </c>
-      <c r="U3">
-        <v>2</v>
-      </c>
       <c r="V3">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W3">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="X3">
-        <v>1.75</v>
+        <v>0.5</v>
       </c>
       <c r="Y3">
         <v>-1</v>
@@ -789,16 +789,16 @@
         <v>-1</v>
       </c>
       <c r="AA3">
-        <v>0.9750000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AB3">
         <v>-1</v>
       </c>
       <c r="AC3">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="AD3">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="4" spans="1:30">
@@ -1082,7 +1082,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6989658</v>
+        <v>6989313</v>
       </c>
       <c r="C7" t="s">
         <v>29</v>
@@ -1094,79 +1094,79 @@
         <v>35</v>
       </c>
       <c r="F7" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="G7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="L7">
-        <v>1.727</v>
+        <v>1.85</v>
       </c>
       <c r="M7">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="N7">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="O7">
-        <v>1.65</v>
+        <v>2.05</v>
       </c>
       <c r="P7">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="Q7">
-        <v>4.75</v>
+        <v>3.2</v>
       </c>
       <c r="R7">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="S7">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T7">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="U7">
         <v>2.25</v>
       </c>
       <c r="V7">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="W7">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="X7">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Y7">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Z7">
         <v>-1</v>
       </c>
       <c r="AA7">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB7">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC7">
         <v>-0.5</v>
       </c>
       <c r="AD7">
-        <v>0.3875</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="8" spans="1:30">
@@ -1174,7 +1174,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6989313</v>
+        <v>6989658</v>
       </c>
       <c r="C8" t="s">
         <v>29</v>
@@ -1186,79 +1186,79 @@
         <v>36</v>
       </c>
       <c r="F8" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="G8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="L8">
-        <v>1.85</v>
+        <v>1.727</v>
       </c>
       <c r="M8">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="N8">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="O8">
-        <v>2.05</v>
+        <v>1.65</v>
       </c>
       <c r="P8">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="Q8">
-        <v>3.2</v>
+        <v>4.75</v>
       </c>
       <c r="R8">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="S8">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="T8">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="U8">
         <v>2.25</v>
       </c>
       <c r="V8">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="W8">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="X8">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Y8">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Z8">
         <v>-1</v>
       </c>
       <c r="AA8">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB8">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC8">
         <v>-0.5</v>
       </c>
       <c r="AD8">
-        <v>0.425</v>
+        <v>0.3875</v>
       </c>
     </row>
     <row r="9" spans="1:30">
@@ -1278,7 +1278,7 @@
         <v>37</v>
       </c>
       <c r="F9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -1370,7 +1370,7 @@
         <v>38</v>
       </c>
       <c r="F10" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G10">
         <v>3</v>
@@ -1450,7 +1450,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6989315</v>
+        <v>6989662</v>
       </c>
       <c r="C11" t="s">
         <v>29</v>
@@ -1462,76 +1462,76 @@
         <v>39</v>
       </c>
       <c r="F11" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="G11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="L11">
-        <v>1.909</v>
+        <v>2.5</v>
       </c>
       <c r="M11">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="N11">
-        <v>3.6</v>
+        <v>2.625</v>
       </c>
       <c r="O11">
-        <v>1.909</v>
+        <v>2</v>
       </c>
       <c r="P11">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="Q11">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="R11">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="S11">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="T11">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="U11">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="V11">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W11">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="X11">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Y11">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Z11">
         <v>-1</v>
       </c>
       <c r="AA11">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB11">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC11">
-        <v>0.825</v>
+        <v>0.8</v>
       </c>
       <c r="AD11">
         <v>-1</v>
@@ -1542,7 +1542,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6989662</v>
+        <v>6989663</v>
       </c>
       <c r="C12" t="s">
         <v>29</v>
@@ -1551,13 +1551,13 @@
         <v>45150.52083333334</v>
       </c>
       <c r="E12" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="F12" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H12">
         <v>1</v>
@@ -1569,64 +1569,64 @@
         <v>0</v>
       </c>
       <c r="K12" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="L12">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="M12">
         <v>3</v>
       </c>
       <c r="N12">
-        <v>2.625</v>
+        <v>3</v>
       </c>
       <c r="O12">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="P12">
-        <v>3</v>
+        <v>2.875</v>
       </c>
       <c r="Q12">
-        <v>3.4</v>
+        <v>2.9</v>
       </c>
       <c r="R12">
         <v>-0.25</v>
       </c>
       <c r="S12">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T12">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="U12">
         <v>2</v>
       </c>
       <c r="V12">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W12">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="X12">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Y12">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Z12">
         <v>-1</v>
       </c>
       <c r="AA12">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AB12">
-        <v>-1</v>
+        <v>0.35</v>
       </c>
       <c r="AC12">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AD12">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:30">
@@ -1634,7 +1634,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6989663</v>
+        <v>6989315</v>
       </c>
       <c r="C13" t="s">
         <v>29</v>
@@ -1643,82 +1643,82 @@
         <v>45150.52083333334</v>
       </c>
       <c r="E13" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="F13" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="G13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K13" t="s">
         <v>48</v>
       </c>
       <c r="L13">
+        <v>1.909</v>
+      </c>
+      <c r="M13">
+        <v>3.2</v>
+      </c>
+      <c r="N13">
+        <v>3.6</v>
+      </c>
+      <c r="O13">
+        <v>1.909</v>
+      </c>
+      <c r="P13">
+        <v>3.2</v>
+      </c>
+      <c r="Q13">
+        <v>3.6</v>
+      </c>
+      <c r="R13">
+        <v>-0.5</v>
+      </c>
+      <c r="S13">
+        <v>1.975</v>
+      </c>
+      <c r="T13">
+        <v>1.825</v>
+      </c>
+      <c r="U13">
         <v>2.25</v>
       </c>
-      <c r="M13">
-        <v>3</v>
-      </c>
-      <c r="N13">
-        <v>3</v>
-      </c>
-      <c r="O13">
-        <v>2.4</v>
-      </c>
-      <c r="P13">
-        <v>2.875</v>
-      </c>
-      <c r="Q13">
-        <v>2.9</v>
-      </c>
-      <c r="R13">
-        <v>-0.25</v>
-      </c>
-      <c r="S13">
-        <v>2</v>
-      </c>
-      <c r="T13">
-        <v>1.7</v>
-      </c>
-      <c r="U13">
-        <v>2</v>
-      </c>
       <c r="V13">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W13">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="X13">
         <v>-1</v>
       </c>
       <c r="Y13">
-        <v>1.875</v>
+        <v>2.2</v>
       </c>
       <c r="Z13">
         <v>-1</v>
       </c>
       <c r="AA13">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB13">
-        <v>0.35</v>
+        <v>0.825</v>
       </c>
       <c r="AC13">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AD13">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="14" spans="1:30">
@@ -1922,7 +1922,7 @@
         <v>43</v>
       </c>
       <c r="F16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -2106,7 +2106,7 @@
         <v>32</v>
       </c>
       <c r="F18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -2198,7 +2198,7 @@
         <v>33</v>
       </c>
       <c r="F19" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -2471,10 +2471,10 @@
         <v>45158.5</v>
       </c>
       <c r="E22" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F22" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -2563,7 +2563,7 @@
         <v>45158.5</v>
       </c>
       <c r="E23" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F23" t="s">
         <v>38</v>
@@ -2655,7 +2655,7 @@
         <v>45158.5</v>
       </c>
       <c r="E24" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F24" t="s">
         <v>42</v>
@@ -2839,7 +2839,7 @@
         <v>45164.5</v>
       </c>
       <c r="E26" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F26" t="s">
         <v>43</v>
@@ -3023,7 +3023,7 @@
         <v>45164.5</v>
       </c>
       <c r="E28" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F28" t="s">
         <v>37</v>
@@ -3118,7 +3118,7 @@
         <v>42</v>
       </c>
       <c r="F29" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G29">
         <v>2</v>
@@ -3207,10 +3207,10 @@
         <v>45165.5</v>
       </c>
       <c r="E30" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F30" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G30">
         <v>0</v>
@@ -3299,7 +3299,7 @@
         <v>45165.5</v>
       </c>
       <c r="E31" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F31" t="s">
         <v>32</v>
@@ -3578,7 +3578,7 @@
         <v>32</v>
       </c>
       <c r="F34" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G34">
         <v>0</v>
@@ -3667,7 +3667,7 @@
         <v>45171.5</v>
       </c>
       <c r="E35" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F35" t="s">
         <v>44</v>
@@ -3762,7 +3762,7 @@
         <v>34</v>
       </c>
       <c r="F36" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G36">
         <v>1</v>
@@ -3854,7 +3854,7 @@
         <v>37</v>
       </c>
       <c r="F37" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G37">
         <v>2</v>
@@ -3943,10 +3943,10 @@
         <v>45172.5</v>
       </c>
       <c r="E38" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F38" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G38">
         <v>1</v>
@@ -4403,7 +4403,7 @@
         <v>45178.47916666666</v>
       </c>
       <c r="E43" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F43" t="s">
         <v>38</v>
@@ -4498,7 +4498,7 @@
         <v>41</v>
       </c>
       <c r="F44" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G44">
         <v>4</v>
@@ -4587,7 +4587,7 @@
         <v>45178.47916666666</v>
       </c>
       <c r="E45" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F45" t="s">
         <v>33</v>
@@ -4679,7 +4679,7 @@
         <v>45179.47916666666</v>
       </c>
       <c r="E46" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F46" t="s">
         <v>34</v>
@@ -4771,7 +4771,7 @@
         <v>45179.47916666666</v>
       </c>
       <c r="E47" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F47" t="s">
         <v>45</v>
@@ -4958,7 +4958,7 @@
         <v>44</v>
       </c>
       <c r="F49" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G49">
         <v>2</v>
@@ -5142,7 +5142,7 @@
         <v>37</v>
       </c>
       <c r="F51" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G51">
         <v>2</v>
@@ -5323,7 +5323,7 @@
         <v>45186.45833333334</v>
       </c>
       <c r="E53" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F53" t="s">
         <v>41</v>
@@ -5418,7 +5418,7 @@
         <v>43</v>
       </c>
       <c r="F54" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G54">
         <v>1</v>
@@ -5602,7 +5602,7 @@
         <v>33</v>
       </c>
       <c r="F56" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G56">
         <v>0</v>
@@ -5691,10 +5691,10 @@
         <v>45187.45833333334</v>
       </c>
       <c r="E57" t="s">
+        <v>31</v>
+      </c>
+      <c r="F57" t="s">
         <v>30</v>
-      </c>
-      <c r="F57" t="s">
-        <v>31</v>
       </c>
       <c r="G57">
         <v>0</v>
@@ -5783,7 +5783,7 @@
         <v>45191.45833333334</v>
       </c>
       <c r="E58" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F58" t="s">
         <v>42</v>
@@ -6151,10 +6151,10 @@
         <v>45192.45833333334</v>
       </c>
       <c r="E62" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F62" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G62">
         <v>2</v>
@@ -6243,7 +6243,7 @@
         <v>45192.45833333334</v>
       </c>
       <c r="E63" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F63" t="s">
         <v>38</v>
@@ -6335,10 +6335,10 @@
         <v>45192.45833333334</v>
       </c>
       <c r="E64" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F64" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G64">
         <v>3</v>
@@ -6522,7 +6522,7 @@
         <v>37</v>
       </c>
       <c r="F66" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G66">
         <v>1</v>
@@ -6611,7 +6611,7 @@
         <v>45200.41666666666</v>
       </c>
       <c r="E67" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F67" t="s">
         <v>43</v>
@@ -6706,7 +6706,7 @@
         <v>32</v>
       </c>
       <c r="F68" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G68">
         <v>0</v>
@@ -6795,10 +6795,10 @@
         <v>45200.41666666666</v>
       </c>
       <c r="E69" t="s">
+        <v>40</v>
+      </c>
+      <c r="F69" t="s">
         <v>39</v>
-      </c>
-      <c r="F69" t="s">
-        <v>40</v>
       </c>
       <c r="G69">
         <v>1</v>
@@ -7071,7 +7071,7 @@
         <v>45201.41666666666</v>
       </c>
       <c r="E72" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F72" t="s">
         <v>45</v>
@@ -7255,7 +7255,7 @@
         <v>45206.41666666666</v>
       </c>
       <c r="E74" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F74" t="s">
         <v>34</v>
@@ -7350,7 +7350,7 @@
         <v>33</v>
       </c>
       <c r="F75" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G75">
         <v>0</v>
@@ -7531,7 +7531,7 @@
         <v>45207.41666666666</v>
       </c>
       <c r="E77" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F77" t="s">
         <v>44</v>
@@ -7623,7 +7623,7 @@
         <v>45207.41666666666</v>
       </c>
       <c r="E78" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F78" t="s">
         <v>37</v>
@@ -7810,7 +7810,7 @@
         <v>38</v>
       </c>
       <c r="F80" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G80">
         <v>1</v>
@@ -7902,7 +7902,7 @@
         <v>43</v>
       </c>
       <c r="F81" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G81">
         <v>3</v>
@@ -7994,7 +7994,7 @@
         <v>34</v>
       </c>
       <c r="F82" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G82">
         <v>3</v>
@@ -8083,7 +8083,7 @@
         <v>45213.41666666666</v>
       </c>
       <c r="E83" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F83" t="s">
         <v>44</v>
@@ -8175,7 +8175,7 @@
         <v>45214.41666666666</v>
       </c>
       <c r="E84" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F84" t="s">
         <v>42</v>
@@ -8362,7 +8362,7 @@
         <v>33</v>
       </c>
       <c r="F86" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G86">
         <v>0</v>
@@ -8546,7 +8546,7 @@
         <v>41</v>
       </c>
       <c r="F88" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G88">
         <v>1</v>
@@ -8635,7 +8635,7 @@
         <v>45215.41666666666</v>
       </c>
       <c r="E89" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F89" t="s">
         <v>38</v>
@@ -8727,7 +8727,7 @@
         <v>45220.375</v>
       </c>
       <c r="E90" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F90" t="s">
         <v>33</v>
@@ -8822,7 +8822,7 @@
         <v>42</v>
       </c>
       <c r="F91" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G91">
         <v>2</v>
@@ -8911,10 +8911,10 @@
         <v>45220.375</v>
       </c>
       <c r="E92" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F92" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G92">
         <v>1</v>
@@ -9371,10 +9371,10 @@
         <v>45222.375</v>
       </c>
       <c r="E97" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F97" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G97">
         <v>1</v>
@@ -9647,7 +9647,7 @@
         <v>45227.375</v>
       </c>
       <c r="E100" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F100" t="s">
         <v>44</v>
@@ -9739,10 +9739,10 @@
         <v>45227.375</v>
       </c>
       <c r="E101" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F101" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G101">
         <v>0</v>
@@ -9831,7 +9831,7 @@
         <v>45227.375</v>
       </c>
       <c r="E102" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F102" t="s">
         <v>41</v>
@@ -9923,10 +9923,10 @@
         <v>45227.375</v>
       </c>
       <c r="E103" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F103" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G103">
         <v>2</v>
@@ -10291,7 +10291,7 @@
         <v>45235.375</v>
       </c>
       <c r="E107" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F107" t="s">
         <v>32</v>
@@ -10478,7 +10478,7 @@
         <v>45</v>
       </c>
       <c r="F109" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G109">
         <v>1</v>
@@ -10570,7 +10570,7 @@
         <v>44</v>
       </c>
       <c r="F110" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G110">
         <v>0</v>
@@ -10659,10 +10659,10 @@
         <v>45236.375</v>
       </c>
       <c r="E111" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F111" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G111">
         <v>1</v>
@@ -10846,7 +10846,7 @@
         <v>41</v>
       </c>
       <c r="F113" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G113">
         <v>0</v>
@@ -10935,7 +10935,7 @@
         <v>45241.375</v>
       </c>
       <c r="E114" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F114" t="s">
         <v>37</v>
@@ -11030,7 +11030,7 @@
         <v>41</v>
       </c>
       <c r="F115" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G115">
         <v>0</v>
@@ -11119,10 +11119,10 @@
         <v>45241.375</v>
       </c>
       <c r="E116" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F116" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G116">
         <v>1</v>
@@ -11214,7 +11214,7 @@
         <v>43</v>
       </c>
       <c r="F117" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G117">
         <v>0</v>
@@ -11579,7 +11579,7 @@
         <v>45247.375</v>
       </c>
       <c r="E121" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F121" t="s">
         <v>43</v>
@@ -11674,7 +11674,7 @@
         <v>34</v>
       </c>
       <c r="F122" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G122">
         <v>0</v>
@@ -11947,7 +11947,7 @@
         <v>45248.375</v>
       </c>
       <c r="E125" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F125" t="s">
         <v>38</v>
@@ -12131,10 +12131,10 @@
         <v>45251.375</v>
       </c>
       <c r="E127" t="s">
+        <v>35</v>
+      </c>
+      <c r="F127" t="s">
         <v>36</v>
-      </c>
-      <c r="F127" t="s">
-        <v>35</v>
       </c>
       <c r="G127">
         <v>2</v>
@@ -12226,7 +12226,7 @@
         <v>45</v>
       </c>
       <c r="F128" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G128">
         <v>2</v>
@@ -12318,7 +12318,7 @@
         <v>34</v>
       </c>
       <c r="F129" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G129">
         <v>0</v>
@@ -12410,7 +12410,7 @@
         <v>42</v>
       </c>
       <c r="F130" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G130">
         <v>2</v>
@@ -12490,7 +12490,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>7497670</v>
+        <v>7497902</v>
       </c>
       <c r="C131" t="s">
         <v>29</v>
@@ -12499,19 +12499,19 @@
         <v>45252.375</v>
       </c>
       <c r="E131" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="F131" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="G131">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H131">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I131">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J131">
         <v>0</v>
@@ -12520,61 +12520,61 @@
         <v>48</v>
       </c>
       <c r="L131">
-        <v>3.2</v>
+        <v>1.909</v>
       </c>
       <c r="M131">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="N131">
-        <v>2.2</v>
+        <v>4</v>
       </c>
       <c r="O131">
-        <v>3.3</v>
+        <v>1.75</v>
       </c>
       <c r="P131">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="Q131">
-        <v>2.15</v>
+        <v>4.75</v>
       </c>
       <c r="R131">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="S131">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="T131">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="U131">
         <v>2</v>
       </c>
       <c r="V131">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W131">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="X131">
         <v>-1</v>
       </c>
       <c r="Y131">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="Z131">
         <v>-1</v>
       </c>
       <c r="AA131">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AB131">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AC131">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="AD131">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:30">
@@ -12582,7 +12582,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>7497374</v>
+        <v>7497670</v>
       </c>
       <c r="C132" t="s">
         <v>29</v>
@@ -12591,55 +12591,55 @@
         <v>45252.375</v>
       </c>
       <c r="E132" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="F132" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G132">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H132">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I132">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J132">
         <v>0</v>
       </c>
       <c r="K132" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="L132">
-        <v>2.5</v>
+        <v>3.2</v>
       </c>
       <c r="M132">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="N132">
-        <v>2.625</v>
+        <v>2.2</v>
       </c>
       <c r="O132">
-        <v>2</v>
+        <v>3.3</v>
       </c>
       <c r="P132">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="Q132">
-        <v>3.6</v>
+        <v>2.15</v>
       </c>
       <c r="R132">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="S132">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="T132">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="U132">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="V132">
         <v>1.95</v>
@@ -12648,25 +12648,25 @@
         <v>1.85</v>
       </c>
       <c r="X132">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Y132">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Z132">
         <v>-1</v>
       </c>
       <c r="AA132">
-        <v>1.025</v>
+        <v>0.4375</v>
       </c>
       <c r="AB132">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC132">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AD132">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="133" spans="1:30">
@@ -12674,7 +12674,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>7497902</v>
+        <v>7497374</v>
       </c>
       <c r="C133" t="s">
         <v>29</v>
@@ -12683,16 +12683,16 @@
         <v>45252.375</v>
       </c>
       <c r="E133" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="F133" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="G133">
         <v>1</v>
       </c>
       <c r="H133">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I133">
         <v>0</v>
@@ -12701,64 +12701,64 @@
         <v>0</v>
       </c>
       <c r="K133" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="L133">
-        <v>1.909</v>
+        <v>2.5</v>
       </c>
       <c r="M133">
         <v>3</v>
       </c>
       <c r="N133">
-        <v>4</v>
+        <v>2.625</v>
       </c>
       <c r="O133">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="P133">
         <v>3.1</v>
       </c>
       <c r="Q133">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="R133">
         <v>-0.5</v>
       </c>
       <c r="S133">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="T133">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="U133">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="V133">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W133">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="X133">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Y133">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z133">
         <v>-1</v>
       </c>
       <c r="AA133">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB133">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC133">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AD133">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="134" spans="1:30">
@@ -12867,7 +12867,7 @@
         <v>45256.375</v>
       </c>
       <c r="E135" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F135" t="s">
         <v>33</v>
@@ -12959,7 +12959,7 @@
         <v>45256.375</v>
       </c>
       <c r="E136" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F136" t="s">
         <v>32</v>
@@ -13054,7 +13054,7 @@
         <v>42</v>
       </c>
       <c r="F137" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G137">
         <v>3</v>
@@ -13146,7 +13146,7 @@
         <v>38</v>
       </c>
       <c r="F138" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G138">
         <v>4</v>
@@ -13235,10 +13235,10 @@
         <v>45256.375</v>
       </c>
       <c r="E139" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F139" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G139">
         <v>2</v>
@@ -13606,7 +13606,7 @@
         <v>43</v>
       </c>
       <c r="F143" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G143">
         <v>0</v>
@@ -13879,7 +13879,7 @@
         <v>45262.375</v>
       </c>
       <c r="E146" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F146" t="s">
         <v>42</v>
@@ -13971,10 +13971,10 @@
         <v>45262.375</v>
       </c>
       <c r="E147" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F147" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G147">
         <v>1</v>
@@ -14066,7 +14066,7 @@
         <v>37</v>
       </c>
       <c r="F148" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G148">
         <v>2</v>
@@ -14250,7 +14250,7 @@
         <v>32</v>
       </c>
       <c r="F150" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G150">
         <v>2</v>
@@ -14342,7 +14342,7 @@
         <v>45</v>
       </c>
       <c r="F151" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G151">
         <v>1</v>
@@ -14434,7 +14434,7 @@
         <v>44</v>
       </c>
       <c r="F152" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G152">
         <v>1</v>
@@ -14523,7 +14523,7 @@
         <v>45270.375</v>
       </c>
       <c r="E153" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F153" t="s">
         <v>32</v>
@@ -14615,7 +14615,7 @@
         <v>45270.375</v>
       </c>
       <c r="E154" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F154" t="s">
         <v>37</v>
@@ -14799,7 +14799,7 @@
         <v>45270.375</v>
       </c>
       <c r="E156" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F156" t="s">
         <v>34</v>
@@ -15075,10 +15075,10 @@
         <v>45271.375</v>
       </c>
       <c r="E159" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F159" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G159">
         <v>5</v>
@@ -15167,10 +15167,10 @@
         <v>45274.375</v>
       </c>
       <c r="E160" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F160" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G160">
         <v>1</v>
@@ -15262,7 +15262,7 @@
         <v>45</v>
       </c>
       <c r="F161" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G161">
         <v>2</v>
@@ -15351,7 +15351,7 @@
         <v>45346.375</v>
       </c>
       <c r="E162" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F162" t="s">
         <v>44</v>
@@ -15446,7 +15446,7 @@
         <v>33</v>
       </c>
       <c r="F163" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G163">
         <v>0</v>
@@ -15535,7 +15535,7 @@
         <v>45346.375</v>
       </c>
       <c r="E164" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F164" t="s">
         <v>41</v>
@@ -15630,7 +15630,7 @@
         <v>45</v>
       </c>
       <c r="F165" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G165">
         <v>0</v>
@@ -15814,7 +15814,7 @@
         <v>38</v>
       </c>
       <c r="F167" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G167">
         <v>1</v>
@@ -15998,7 +15998,7 @@
         <v>34</v>
       </c>
       <c r="F169" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G169">
         <v>0</v>
@@ -16087,7 +16087,7 @@
         <v>45352.375</v>
       </c>
       <c r="E170" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F170" t="s">
         <v>43</v>
@@ -16274,7 +16274,7 @@
         <v>41</v>
       </c>
       <c r="F172" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G172">
         <v>1</v>
@@ -16363,7 +16363,7 @@
         <v>45353.375</v>
       </c>
       <c r="E173" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F173" t="s">
         <v>33</v>
@@ -16455,10 +16455,10 @@
         <v>45353.375</v>
       </c>
       <c r="E174" t="s">
+        <v>30</v>
+      </c>
+      <c r="F174" t="s">
         <v>31</v>
-      </c>
-      <c r="F174" t="s">
-        <v>30</v>
       </c>
       <c r="G174">
         <v>0</v>
@@ -16547,7 +16547,7 @@
         <v>45353.375</v>
       </c>
       <c r="E175" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F175" t="s">
         <v>37</v>
@@ -16826,7 +16826,7 @@
         <v>42</v>
       </c>
       <c r="F178" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G178">
         <v>0</v>
@@ -17010,7 +17010,7 @@
         <v>38</v>
       </c>
       <c r="F180" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G180">
         <v>2</v>
@@ -17090,7 +17090,7 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>6989711</v>
+        <v>6989334</v>
       </c>
       <c r="C181" t="s">
         <v>29</v>
@@ -17099,13 +17099,13 @@
         <v>45357.54166666666</v>
       </c>
       <c r="E181" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="F181" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G181">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H181">
         <v>0</v>
@@ -17117,64 +17117,64 @@
         <v>0</v>
       </c>
       <c r="K181" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="L181">
-        <v>2.25</v>
+        <v>1.8</v>
       </c>
       <c r="M181">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="N181">
-        <v>3.1</v>
+        <v>4.2</v>
       </c>
       <c r="O181">
-        <v>2.25</v>
+        <v>2.05</v>
       </c>
       <c r="P181">
-        <v>2.7</v>
+        <v>3</v>
       </c>
       <c r="Q181">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="R181">
         <v>-0.25</v>
       </c>
       <c r="S181">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T181">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="U181">
-        <v>1.75</v>
+        <v>1.5</v>
       </c>
       <c r="V181">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W181">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="X181">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="Y181">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z181">
         <v>-1</v>
       </c>
       <c r="AA181">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AB181">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="AC181">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AD181">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="182" spans="1:30">
@@ -17274,7 +17274,7 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>6989334</v>
+        <v>6989711</v>
       </c>
       <c r="C183" t="s">
         <v>29</v>
@@ -17283,13 +17283,13 @@
         <v>45357.54166666666</v>
       </c>
       <c r="E183" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="F183" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G183">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H183">
         <v>0</v>
@@ -17301,64 +17301,64 @@
         <v>0</v>
       </c>
       <c r="K183" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="L183">
-        <v>1.8</v>
+        <v>2.25</v>
       </c>
       <c r="M183">
+        <v>2.9</v>
+      </c>
+      <c r="N183">
         <v>3.1</v>
       </c>
-      <c r="N183">
-        <v>4.2</v>
-      </c>
       <c r="O183">
-        <v>2.05</v>
+        <v>2.25</v>
       </c>
       <c r="P183">
-        <v>3</v>
+        <v>2.7</v>
       </c>
       <c r="Q183">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="R183">
         <v>-0.25</v>
       </c>
       <c r="S183">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T183">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="U183">
-        <v>1.5</v>
+        <v>1.75</v>
       </c>
       <c r="V183">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W183">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="X183">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="Y183">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z183">
         <v>-1</v>
       </c>
       <c r="AA183">
+        <v>0.95</v>
+      </c>
+      <c r="AB183">
+        <v>-1</v>
+      </c>
+      <c r="AC183">
+        <v>0.475</v>
+      </c>
+      <c r="AD183">
         <v>-0.5</v>
-      </c>
-      <c r="AB183">
-        <v>0.5</v>
-      </c>
-      <c r="AC183">
-        <v>-1</v>
-      </c>
-      <c r="AD183">
-        <v>1</v>
       </c>
     </row>
     <row r="184" spans="1:30">
@@ -17375,10 +17375,10 @@
         <v>45358.41666666666</v>
       </c>
       <c r="E184" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F184" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G184">
         <v>1</v>
@@ -17458,7 +17458,7 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>6989712</v>
+        <v>6989714</v>
       </c>
       <c r="C185" t="s">
         <v>29</v>
@@ -17470,16 +17470,16 @@
         <v>39</v>
       </c>
       <c r="F185" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="G185">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H185">
         <v>0</v>
       </c>
       <c r="I185">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J185">
         <v>0</v>
@@ -17488,43 +17488,43 @@
         <v>46</v>
       </c>
       <c r="L185">
-        <v>1.533</v>
+        <v>2.6</v>
       </c>
       <c r="M185">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="N185">
-        <v>6</v>
+        <v>2.4</v>
       </c>
       <c r="O185">
-        <v>1.533</v>
+        <v>2.6</v>
       </c>
       <c r="P185">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="Q185">
-        <v>6</v>
+        <v>2.5</v>
       </c>
       <c r="R185">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="S185">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T185">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="U185">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="V185">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W185">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="X185">
-        <v>0.5329999999999999</v>
+        <v>1.6</v>
       </c>
       <c r="Y185">
         <v>-1</v>
@@ -17533,16 +17533,16 @@
         <v>-1</v>
       </c>
       <c r="AA185">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AB185">
         <v>-1</v>
       </c>
       <c r="AC185">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AD185">
-        <v>0</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="186" spans="1:30">
@@ -17559,7 +17559,7 @@
         <v>45361.41666666666</v>
       </c>
       <c r="E186" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F186" t="s">
         <v>45</v>
@@ -17642,7 +17642,7 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>6989714</v>
+        <v>6989712</v>
       </c>
       <c r="C187" t="s">
         <v>29</v>
@@ -17654,16 +17654,16 @@
         <v>40</v>
       </c>
       <c r="F187" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="G187">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H187">
         <v>0</v>
       </c>
       <c r="I187">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J187">
         <v>0</v>
@@ -17672,43 +17672,43 @@
         <v>46</v>
       </c>
       <c r="L187">
-        <v>2.6</v>
+        <v>1.533</v>
       </c>
       <c r="M187">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="N187">
-        <v>2.4</v>
+        <v>6</v>
       </c>
       <c r="O187">
-        <v>2.6</v>
+        <v>1.533</v>
       </c>
       <c r="P187">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="Q187">
-        <v>2.5</v>
+        <v>6</v>
       </c>
       <c r="R187">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="S187">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T187">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="U187">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="V187">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W187">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="X187">
-        <v>1.6</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="Y187">
         <v>-1</v>
@@ -17717,16 +17717,16 @@
         <v>-1</v>
       </c>
       <c r="AA187">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB187">
         <v>-1</v>
       </c>
       <c r="AC187">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AD187">
-        <v>0.95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188" spans="1:30">
@@ -17835,10 +17835,10 @@
         <v>45362.41666666666</v>
       </c>
       <c r="E189" t="s">
+        <v>36</v>
+      </c>
+      <c r="F189" t="s">
         <v>35</v>
-      </c>
-      <c r="F189" t="s">
-        <v>36</v>
       </c>
       <c r="G189">
         <v>0</v>
@@ -18022,7 +18022,7 @@
         <v>32</v>
       </c>
       <c r="F191" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G191">
         <v>1</v>
@@ -18298,7 +18298,7 @@
         <v>45</v>
       </c>
       <c r="F194" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G194">
         <v>1</v>
@@ -18390,7 +18390,7 @@
         <v>43</v>
       </c>
       <c r="F195" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G195">
         <v>0</v>
@@ -18479,7 +18479,7 @@
         <v>45368.41666666666</v>
       </c>
       <c r="E196" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F196" t="s">
         <v>37</v>
@@ -18571,7 +18571,7 @@
         <v>45368.41666666666</v>
       </c>
       <c r="E197" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F197" t="s">
         <v>32</v>
@@ -18939,7 +18939,7 @@
         <v>45374.45833333334</v>
       </c>
       <c r="E201" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F201" t="s">
         <v>33</v>
@@ -19034,7 +19034,7 @@
         <v>34</v>
       </c>
       <c r="F202" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G202">
         <v>1</v>
@@ -19126,7 +19126,7 @@
         <v>37</v>
       </c>
       <c r="F203" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G203">
         <v>3</v>
@@ -19215,7 +19215,7 @@
         <v>45375.45833333334</v>
       </c>
       <c r="E204" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F204" t="s">
         <v>43</v>
@@ -19310,7 +19310,7 @@
         <v>44</v>
       </c>
       <c r="F205" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G205">
         <v>1</v>
@@ -19399,7 +19399,7 @@
         <v>45377.45833333334</v>
       </c>
       <c r="E206" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F206" t="s">
         <v>38</v>
@@ -19583,7 +19583,7 @@
         <v>45380.45833333334</v>
       </c>
       <c r="E208" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F208" t="s">
         <v>33</v>
@@ -19675,7 +19675,7 @@
         <v>45380.45833333334</v>
       </c>
       <c r="E209" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F209" t="s">
         <v>34</v>
@@ -19954,7 +19954,7 @@
         <v>42</v>
       </c>
       <c r="F212" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G212">
         <v>1</v>
@@ -20046,7 +20046,7 @@
         <v>38</v>
       </c>
       <c r="F213" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G213">
         <v>2</v>
@@ -20135,7 +20135,7 @@
         <v>45381.45833333334</v>
       </c>
       <c r="E214" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F214" t="s">
         <v>41</v>
@@ -20230,7 +20230,7 @@
         <v>44</v>
       </c>
       <c r="F215" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G215">
         <v>0</v>
@@ -20414,7 +20414,7 @@
         <v>33</v>
       </c>
       <c r="F217" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G217">
         <v>2</v>
@@ -20595,10 +20595,10 @@
         <v>45385.45833333334</v>
       </c>
       <c r="E219" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F219" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G219">
         <v>0</v>
@@ -20678,7 +20678,7 @@
         <v>218</v>
       </c>
       <c r="B220">
-        <v>6989722</v>
+        <v>6989652</v>
       </c>
       <c r="C220" t="s">
         <v>29</v>
@@ -20687,82 +20687,82 @@
         <v>45385.45833333334</v>
       </c>
       <c r="E220" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F220" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G220">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H220">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I220">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J220">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K220" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L220">
-        <v>2.375</v>
+        <v>2.1</v>
       </c>
       <c r="M220">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="N220">
+        <v>3.3</v>
+      </c>
+      <c r="O220">
+        <v>1.95</v>
+      </c>
+      <c r="P220">
+        <v>2.875</v>
+      </c>
+      <c r="Q220">
+        <v>4</v>
+      </c>
+      <c r="R220">
+        <v>-0.5</v>
+      </c>
+      <c r="S220">
+        <v>2.025</v>
+      </c>
+      <c r="T220">
+        <v>1.775</v>
+      </c>
+      <c r="U220">
+        <v>2</v>
+      </c>
+      <c r="V220">
+        <v>2.05</v>
+      </c>
+      <c r="W220">
+        <v>1.75</v>
+      </c>
+      <c r="X220">
+        <v>-1</v>
+      </c>
+      <c r="Y220">
+        <v>-1</v>
+      </c>
+      <c r="Z220">
         <v>3</v>
       </c>
-      <c r="O220">
-        <v>2.4</v>
-      </c>
-      <c r="P220">
-        <v>2.625</v>
-      </c>
-      <c r="Q220">
-        <v>3.2</v>
-      </c>
-      <c r="R220">
-        <v>-0.25</v>
-      </c>
-      <c r="S220">
-        <v>2.05</v>
-      </c>
-      <c r="T220">
-        <v>1.75</v>
-      </c>
-      <c r="U220">
-        <v>1.75</v>
-      </c>
-      <c r="V220">
-        <v>1.95</v>
-      </c>
-      <c r="W220">
-        <v>1.85</v>
-      </c>
-      <c r="X220">
-        <v>-1</v>
-      </c>
-      <c r="Y220">
-        <v>1.625</v>
-      </c>
-      <c r="Z220">
-        <v>-1</v>
-      </c>
       <c r="AA220">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB220">
-        <v>0.375</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC220">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AD220">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="221" spans="1:30">
@@ -20770,7 +20770,7 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>6989652</v>
+        <v>6989722</v>
       </c>
       <c r="C221" t="s">
         <v>29</v>
@@ -20779,82 +20779,82 @@
         <v>45385.45833333334</v>
       </c>
       <c r="E221" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F221" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G221">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H221">
+        <v>0</v>
+      </c>
+      <c r="I221">
+        <v>0</v>
+      </c>
+      <c r="J221">
+        <v>0</v>
+      </c>
+      <c r="K221" t="s">
+        <v>48</v>
+      </c>
+      <c r="L221">
+        <v>2.375</v>
+      </c>
+      <c r="M221">
+        <v>2.8</v>
+      </c>
+      <c r="N221">
         <v>3</v>
       </c>
-      <c r="I221">
-        <v>1</v>
-      </c>
-      <c r="J221">
-        <v>2</v>
-      </c>
-      <c r="K221" t="s">
-        <v>47</v>
-      </c>
-      <c r="L221">
-        <v>2.1</v>
-      </c>
-      <c r="M221">
-        <v>3</v>
-      </c>
-      <c r="N221">
-        <v>3.3</v>
-      </c>
       <c r="O221">
+        <v>2.4</v>
+      </c>
+      <c r="P221">
+        <v>2.625</v>
+      </c>
+      <c r="Q221">
+        <v>3.2</v>
+      </c>
+      <c r="R221">
+        <v>-0.25</v>
+      </c>
+      <c r="S221">
+        <v>2.05</v>
+      </c>
+      <c r="T221">
+        <v>1.75</v>
+      </c>
+      <c r="U221">
+        <v>1.75</v>
+      </c>
+      <c r="V221">
         <v>1.95</v>
       </c>
-      <c r="P221">
-        <v>2.875</v>
-      </c>
-      <c r="Q221">
-        <v>4</v>
-      </c>
-      <c r="R221">
+      <c r="W221">
+        <v>1.85</v>
+      </c>
+      <c r="X221">
+        <v>-1</v>
+      </c>
+      <c r="Y221">
+        <v>1.625</v>
+      </c>
+      <c r="Z221">
+        <v>-1</v>
+      </c>
+      <c r="AA221">
         <v>-0.5</v>
       </c>
-      <c r="S221">
-        <v>2.025</v>
-      </c>
-      <c r="T221">
-        <v>1.775</v>
-      </c>
-      <c r="U221">
-        <v>2</v>
-      </c>
-      <c r="V221">
-        <v>2.05</v>
-      </c>
-      <c r="W221">
-        <v>1.75</v>
-      </c>
-      <c r="X221">
-        <v>-1</v>
-      </c>
-      <c r="Y221">
-        <v>-1</v>
-      </c>
-      <c r="Z221">
-        <v>3</v>
-      </c>
-      <c r="AA221">
-        <v>-1</v>
-      </c>
       <c r="AB221">
-        <v>0.7749999999999999</v>
+        <v>0.375</v>
       </c>
       <c r="AC221">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AD221">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="222" spans="1:30">
@@ -21242,7 +21242,7 @@
         <v>44</v>
       </c>
       <c r="F226" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G226">
         <v>2</v>
@@ -21334,7 +21334,7 @@
         <v>41</v>
       </c>
       <c r="F227" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G227">
         <v>1</v>
@@ -21607,7 +21607,7 @@
         <v>45395.45833333334</v>
       </c>
       <c r="E230" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F230" t="s">
         <v>45</v>
@@ -21699,10 +21699,10 @@
         <v>45396.45833333334</v>
       </c>
       <c r="E231" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F231" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G231">
         <v>4</v>
@@ -21791,7 +21791,7 @@
         <v>45396.45833333334</v>
       </c>
       <c r="E232" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F232" t="s">
         <v>44</v>
@@ -21978,7 +21978,7 @@
         <v>32</v>
       </c>
       <c r="F234" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G234">
         <v>2</v>
@@ -22067,7 +22067,7 @@
         <v>45402.45833333334</v>
       </c>
       <c r="E235" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F235" t="s">
         <v>41</v>
@@ -22159,10 +22159,10 @@
         <v>45402.45833333334</v>
       </c>
       <c r="E236" t="s">
+        <v>40</v>
+      </c>
+      <c r="F236" t="s">
         <v>39</v>
-      </c>
-      <c r="F236" t="s">
-        <v>40</v>
       </c>
       <c r="G236">
         <v>0</v>
@@ -22254,7 +22254,7 @@
         <v>42</v>
       </c>
       <c r="F237" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G237">
         <v>2</v>
@@ -22530,7 +22530,7 @@
         <v>33</v>
       </c>
       <c r="F240" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G240">
         <v>3</v>
@@ -22806,7 +22806,7 @@
         <v>38</v>
       </c>
       <c r="F243" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G243">
         <v>2</v>
@@ -22895,10 +22895,10 @@
         <v>45409.45833333334</v>
       </c>
       <c r="E244" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F244" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G244">
         <v>1</v>
@@ -22987,7 +22987,7 @@
         <v>45410.45833333334</v>
       </c>
       <c r="E245" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F245" t="s">
         <v>44</v>
@@ -23263,7 +23263,7 @@
         <v>45413.45833333334</v>
       </c>
       <c r="E248" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F248" t="s">
         <v>37</v>
@@ -23355,10 +23355,10 @@
         <v>45413.45833333334</v>
       </c>
       <c r="E249" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F249" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G249">
         <v>2</v>
@@ -23631,10 +23631,10 @@
         <v>45419.5</v>
       </c>
       <c r="E252" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F252" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G252">
         <v>3</v>
@@ -23723,7 +23723,7 @@
         <v>45419.5</v>
       </c>
       <c r="E253" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F253" t="s">
         <v>41</v>
@@ -23818,7 +23818,7 @@
         <v>38</v>
       </c>
       <c r="F254" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G254">
         <v>2</v>
@@ -24091,7 +24091,7 @@
         <v>45425.5</v>
       </c>
       <c r="E257" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F257" t="s">
         <v>34</v>
@@ -24275,10 +24275,10 @@
         <v>45430.5</v>
       </c>
       <c r="E259" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F259" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G259">
         <v>1</v>
@@ -24462,7 +24462,7 @@
         <v>33</v>
       </c>
       <c r="F261" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G261">
         <v>0</v>

--- a/Serbia Prva Liga/Serbia Prva Liga.xlsx
+++ b/Serbia Prva Liga/Serbia Prva Liga.xlsx
@@ -115,10 +115,10 @@
     <t>OFK Vrsac</t>
   </si>
   <si>
-    <t>Metalac Gornji</t>
+    <t>Sloboda Uzice</t>
   </si>
   <si>
-    <t>Sloboda Uzice</t>
+    <t>Metalac Gornji</t>
   </si>
   <si>
     <t>FK Mladost Gat Novi Sad</t>
@@ -898,7 +898,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6989595</v>
+        <v>6989660</v>
       </c>
       <c r="C5" t="s">
         <v>29</v>
@@ -910,16 +910,16 @@
         <v>33</v>
       </c>
       <c r="F5" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="G5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J5">
         <v>1</v>
@@ -928,40 +928,40 @@
         <v>47</v>
       </c>
       <c r="L5">
-        <v>2.45</v>
+        <v>1.8</v>
       </c>
       <c r="M5">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="N5">
-        <v>2.55</v>
+        <v>4</v>
       </c>
       <c r="O5">
-        <v>2.15</v>
+        <v>1.8</v>
       </c>
       <c r="P5">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="Q5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R5">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="S5">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T5">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="U5">
         <v>2.25</v>
       </c>
       <c r="V5">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="W5">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="X5">
         <v>-1</v>
@@ -970,19 +970,19 @@
         <v>-1</v>
       </c>
       <c r="Z5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AA5">
         <v>-1</v>
       </c>
       <c r="AB5">
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
       <c r="AC5">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AD5">
-        <v>-1</v>
+        <v>0.3875</v>
       </c>
     </row>
     <row r="6" spans="1:30">
@@ -990,7 +990,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6989660</v>
+        <v>6989595</v>
       </c>
       <c r="C6" t="s">
         <v>29</v>
@@ -1002,16 +1002,16 @@
         <v>34</v>
       </c>
       <c r="F6" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6">
         <v>1</v>
@@ -1020,40 +1020,40 @@
         <v>47</v>
       </c>
       <c r="L6">
-        <v>1.8</v>
+        <v>2.45</v>
       </c>
       <c r="M6">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="N6">
-        <v>4</v>
+        <v>2.55</v>
       </c>
       <c r="O6">
-        <v>1.8</v>
+        <v>2.15</v>
       </c>
       <c r="P6">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="Q6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R6">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="S6">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T6">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="U6">
         <v>2.25</v>
       </c>
       <c r="V6">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="W6">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="X6">
         <v>-1</v>
@@ -1062,19 +1062,19 @@
         <v>-1</v>
       </c>
       <c r="Z6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AA6">
         <v>-1</v>
       </c>
       <c r="AB6">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
       <c r="AC6">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AD6">
-        <v>0.3875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="7" spans="1:30">
@@ -1450,7 +1450,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6989663</v>
+        <v>6989315</v>
       </c>
       <c r="C11" t="s">
         <v>29</v>
@@ -1459,82 +1459,82 @@
         <v>45150.52083333334</v>
       </c>
       <c r="E11" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="F11" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="G11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K11" t="s">
         <v>48</v>
       </c>
       <c r="L11">
+        <v>1.909</v>
+      </c>
+      <c r="M11">
+        <v>3.2</v>
+      </c>
+      <c r="N11">
+        <v>3.6</v>
+      </c>
+      <c r="O11">
+        <v>1.909</v>
+      </c>
+      <c r="P11">
+        <v>3.2</v>
+      </c>
+      <c r="Q11">
+        <v>3.6</v>
+      </c>
+      <c r="R11">
+        <v>-0.5</v>
+      </c>
+      <c r="S11">
+        <v>1.975</v>
+      </c>
+      <c r="T11">
+        <v>1.825</v>
+      </c>
+      <c r="U11">
         <v>2.25</v>
       </c>
-      <c r="M11">
-        <v>3</v>
-      </c>
-      <c r="N11">
-        <v>3</v>
-      </c>
-      <c r="O11">
-        <v>2.4</v>
-      </c>
-      <c r="P11">
-        <v>2.875</v>
-      </c>
-      <c r="Q11">
-        <v>2.9</v>
-      </c>
-      <c r="R11">
-        <v>-0.25</v>
-      </c>
-      <c r="S11">
-        <v>2</v>
-      </c>
-      <c r="T11">
-        <v>1.7</v>
-      </c>
-      <c r="U11">
-        <v>2</v>
-      </c>
       <c r="V11">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W11">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="X11">
         <v>-1</v>
       </c>
       <c r="Y11">
-        <v>1.875</v>
+        <v>2.2</v>
       </c>
       <c r="Z11">
         <v>-1</v>
       </c>
       <c r="AA11">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB11">
-        <v>0.35</v>
+        <v>0.825</v>
       </c>
       <c r="AC11">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AD11">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="12" spans="1:30">
@@ -1542,7 +1542,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6989315</v>
+        <v>6989662</v>
       </c>
       <c r="C12" t="s">
         <v>29</v>
@@ -1551,79 +1551,79 @@
         <v>45150.52083333334</v>
       </c>
       <c r="E12" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F12" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="G12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K12" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="L12">
-        <v>1.909</v>
+        <v>2.5</v>
       </c>
       <c r="M12">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="N12">
-        <v>3.6</v>
+        <v>2.625</v>
       </c>
       <c r="O12">
-        <v>1.909</v>
+        <v>2</v>
       </c>
       <c r="P12">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="Q12">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="R12">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="S12">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="T12">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="U12">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="V12">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W12">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="X12">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Y12">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Z12">
         <v>-1</v>
       </c>
       <c r="AA12">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB12">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC12">
-        <v>0.825</v>
+        <v>0.8</v>
       </c>
       <c r="AD12">
         <v>-1</v>
@@ -1634,7 +1634,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6989662</v>
+        <v>6989598</v>
       </c>
       <c r="C13" t="s">
         <v>29</v>
@@ -1643,82 +1643,82 @@
         <v>45150.52083333334</v>
       </c>
       <c r="E13" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F13" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G13">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="L13">
-        <v>2.5</v>
+        <v>1.909</v>
       </c>
       <c r="M13">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="N13">
-        <v>2.625</v>
+        <v>3.6</v>
       </c>
       <c r="O13">
-        <v>2</v>
+        <v>1.909</v>
       </c>
       <c r="P13">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="Q13">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="R13">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="S13">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="T13">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="U13">
         <v>2</v>
       </c>
       <c r="V13">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="W13">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="X13">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Y13">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Z13">
         <v>-1</v>
       </c>
       <c r="AA13">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB13">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC13">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AD13">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="14" spans="1:30">
@@ -1726,7 +1726,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6989598</v>
+        <v>6989663</v>
       </c>
       <c r="C14" t="s">
         <v>29</v>
@@ -1735,19 +1735,19 @@
         <v>45150.52083333334</v>
       </c>
       <c r="E14" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="F14" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1756,61 +1756,61 @@
         <v>48</v>
       </c>
       <c r="L14">
-        <v>1.909</v>
+        <v>2.25</v>
       </c>
       <c r="M14">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="N14">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="O14">
-        <v>1.909</v>
+        <v>2.4</v>
       </c>
       <c r="P14">
-        <v>3.25</v>
+        <v>2.875</v>
       </c>
       <c r="Q14">
-        <v>3.6</v>
+        <v>2.9</v>
       </c>
       <c r="R14">
+        <v>-0.25</v>
+      </c>
+      <c r="S14">
+        <v>2</v>
+      </c>
+      <c r="T14">
+        <v>1.7</v>
+      </c>
+      <c r="U14">
+        <v>2</v>
+      </c>
+      <c r="V14">
+        <v>1.95</v>
+      </c>
+      <c r="W14">
+        <v>1.85</v>
+      </c>
+      <c r="X14">
+        <v>-1</v>
+      </c>
+      <c r="Y14">
+        <v>1.875</v>
+      </c>
+      <c r="Z14">
+        <v>-1</v>
+      </c>
+      <c r="AA14">
         <v>-0.5</v>
       </c>
-      <c r="S14">
-        <v>1.975</v>
-      </c>
-      <c r="T14">
-        <v>1.825</v>
-      </c>
-      <c r="U14">
-        <v>2</v>
-      </c>
-      <c r="V14">
-        <v>1.775</v>
-      </c>
-      <c r="W14">
-        <v>2.025</v>
-      </c>
-      <c r="X14">
-        <v>-1</v>
-      </c>
-      <c r="Y14">
-        <v>2.25</v>
-      </c>
-      <c r="Z14">
-        <v>-1</v>
-      </c>
-      <c r="AA14">
-        <v>-1</v>
-      </c>
       <c r="AB14">
-        <v>0.825</v>
+        <v>0.35</v>
       </c>
       <c r="AC14">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AD14">
-        <v>1.025</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:30">
@@ -1922,7 +1922,7 @@
         <v>43</v>
       </c>
       <c r="F16" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G16">
         <v>4</v>
@@ -2195,7 +2195,7 @@
         <v>45157.58333333334</v>
       </c>
       <c r="E19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F19" t="s">
         <v>44</v>
@@ -2287,7 +2287,7 @@
         <v>45157.58333333334</v>
       </c>
       <c r="E20" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F20" t="s">
         <v>40</v>
@@ -2830,7 +2830,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>7121255</v>
+        <v>7121257</v>
       </c>
       <c r="C26" t="s">
         <v>29</v>
@@ -2839,16 +2839,16 @@
         <v>45164.5</v>
       </c>
       <c r="E26" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="F26" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G26">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I26">
         <v>0</v>
@@ -2857,49 +2857,49 @@
         <v>0</v>
       </c>
       <c r="K26" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="L26">
-        <v>1.45</v>
+        <v>1.833</v>
       </c>
       <c r="M26">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="N26">
-        <v>6</v>
+        <v>3.75</v>
       </c>
       <c r="O26">
-        <v>1.4</v>
+        <v>2.15</v>
       </c>
       <c r="P26">
-        <v>4.2</v>
+        <v>3.1</v>
       </c>
       <c r="Q26">
-        <v>6.5</v>
+        <v>3.1</v>
       </c>
       <c r="R26">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="S26">
+        <v>1.925</v>
+      </c>
+      <c r="T26">
         <v>1.875</v>
       </c>
-      <c r="T26">
-        <v>1.925</v>
-      </c>
       <c r="U26">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="V26">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W26">
-        <v>1.95</v>
+        <v>1.725</v>
       </c>
       <c r="X26">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Y26">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z26">
         <v>-1</v>
@@ -2908,13 +2908,13 @@
         <v>-0.5</v>
       </c>
       <c r="AB26">
-        <v>0.4625</v>
+        <v>0.4375</v>
       </c>
       <c r="AC26">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AD26">
-        <v>-1</v>
+        <v>0.7250000000000001</v>
       </c>
     </row>
     <row r="27" spans="1:30">
@@ -2922,7 +2922,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>7121256</v>
+        <v>7121255</v>
       </c>
       <c r="C27" t="s">
         <v>29</v>
@@ -2931,13 +2931,13 @@
         <v>45164.5</v>
       </c>
       <c r="E27" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F27" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="G27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H27">
         <v>1</v>
@@ -2949,37 +2949,37 @@
         <v>0</v>
       </c>
       <c r="K27" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="L27">
-        <v>1.833</v>
+        <v>1.45</v>
       </c>
       <c r="M27">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="N27">
+        <v>6</v>
+      </c>
+      <c r="O27">
+        <v>1.4</v>
+      </c>
+      <c r="P27">
         <v>4.2</v>
       </c>
-      <c r="O27">
-        <v>1.833</v>
-      </c>
-      <c r="P27">
-        <v>3.1</v>
-      </c>
       <c r="Q27">
-        <v>4.333</v>
+        <v>6.5</v>
       </c>
       <c r="R27">
-        <v>-0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="S27">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T27">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="U27">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="V27">
         <v>1.85</v>
@@ -2988,25 +2988,25 @@
         <v>1.95</v>
       </c>
       <c r="X27">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="Y27">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z27">
         <v>-1</v>
       </c>
       <c r="AA27">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB27">
-        <v>0.95</v>
+        <v>0.4625</v>
       </c>
       <c r="AC27">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AD27">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="28" spans="1:30">
@@ -3014,7 +3014,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>7121257</v>
+        <v>7121256</v>
       </c>
       <c r="C28" t="s">
         <v>29</v>
@@ -3023,16 +3023,16 @@
         <v>45164.5</v>
       </c>
       <c r="E28" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="F28" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I28">
         <v>0</v>
@@ -3047,37 +3047,37 @@
         <v>1.833</v>
       </c>
       <c r="M28">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="N28">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="O28">
-        <v>2.15</v>
+        <v>1.833</v>
       </c>
       <c r="P28">
         <v>3.1</v>
       </c>
       <c r="Q28">
-        <v>3.1</v>
+        <v>4.333</v>
       </c>
       <c r="R28">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="S28">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T28">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="U28">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="V28">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W28">
-        <v>1.725</v>
+        <v>1.95</v>
       </c>
       <c r="X28">
         <v>-1</v>
@@ -3089,16 +3089,16 @@
         <v>-1</v>
       </c>
       <c r="AA28">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB28">
-        <v>0.4375</v>
+        <v>0.95</v>
       </c>
       <c r="AC28">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AD28">
-        <v>0.7250000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:30">
@@ -3486,7 +3486,7 @@
         <v>44</v>
       </c>
       <c r="F33" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G33">
         <v>1</v>
@@ -3750,7 +3750,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>6989669</v>
+        <v>6989668</v>
       </c>
       <c r="C36" t="s">
         <v>29</v>
@@ -3759,82 +3759,82 @@
         <v>45171.58333333334</v>
       </c>
       <c r="E36" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="F36" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I36">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K36" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="L36">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="M36">
         <v>3.2</v>
       </c>
       <c r="N36">
-        <v>2.875</v>
+        <v>2.75</v>
       </c>
       <c r="O36">
-        <v>2.2</v>
+        <v>1.95</v>
       </c>
       <c r="P36">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="Q36">
-        <v>2.9</v>
+        <v>3.5</v>
       </c>
       <c r="R36">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="S36">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T36">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="U36">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="V36">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="W36">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="X36">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Y36">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Z36">
         <v>-1</v>
       </c>
       <c r="AA36">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AB36">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AC36">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AD36">
-        <v>0.3875</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:30">
@@ -3842,7 +3842,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>6989668</v>
+        <v>6989669</v>
       </c>
       <c r="C37" t="s">
         <v>29</v>
@@ -3851,82 +3851,82 @@
         <v>45171.58333333334</v>
       </c>
       <c r="E37" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F37" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I37">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K37" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="L37">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="M37">
         <v>3.2</v>
       </c>
       <c r="N37">
-        <v>2.75</v>
+        <v>2.875</v>
       </c>
       <c r="O37">
-        <v>1.95</v>
+        <v>2.2</v>
       </c>
       <c r="P37">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="Q37">
-        <v>3.5</v>
+        <v>2.9</v>
       </c>
       <c r="R37">
+        <v>-0.25</v>
+      </c>
+      <c r="S37">
+        <v>1.975</v>
+      </c>
+      <c r="T37">
+        <v>1.825</v>
+      </c>
+      <c r="U37">
+        <v>2.25</v>
+      </c>
+      <c r="V37">
+        <v>2.025</v>
+      </c>
+      <c r="W37">
+        <v>1.775</v>
+      </c>
+      <c r="X37">
+        <v>-1</v>
+      </c>
+      <c r="Y37">
+        <v>2.2</v>
+      </c>
+      <c r="Z37">
+        <v>-1</v>
+      </c>
+      <c r="AA37">
         <v>-0.5</v>
       </c>
-      <c r="S37">
-        <v>2</v>
-      </c>
-      <c r="T37">
-        <v>1.8</v>
-      </c>
-      <c r="U37">
-        <v>2</v>
-      </c>
-      <c r="V37">
-        <v>1.95</v>
-      </c>
-      <c r="W37">
-        <v>1.85</v>
-      </c>
-      <c r="X37">
-        <v>0.95</v>
-      </c>
-      <c r="Y37">
-        <v>-1</v>
-      </c>
-      <c r="Z37">
-        <v>-1</v>
-      </c>
-      <c r="AA37">
-        <v>1</v>
-      </c>
       <c r="AB37">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AC37">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AD37">
-        <v>0</v>
+        <v>0.3875</v>
       </c>
     </row>
     <row r="38" spans="1:30">
@@ -3934,7 +3934,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>6989504</v>
+        <v>6989503</v>
       </c>
       <c r="C38" t="s">
         <v>29</v>
@@ -3943,79 +3943,79 @@
         <v>45172.5</v>
       </c>
       <c r="E38" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="F38" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G38">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H38">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I38">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J38">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K38" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L38">
+        <v>1.85</v>
+      </c>
+      <c r="M38">
+        <v>2.8</v>
+      </c>
+      <c r="N38">
+        <v>4.75</v>
+      </c>
+      <c r="O38">
+        <v>2.3</v>
+      </c>
+      <c r="P38">
+        <v>2.75</v>
+      </c>
+      <c r="Q38">
         <v>3.4</v>
       </c>
-      <c r="M38">
-        <v>3.4</v>
-      </c>
-      <c r="N38">
-        <v>1.909</v>
-      </c>
-      <c r="O38">
-        <v>6</v>
-      </c>
-      <c r="P38">
-        <v>3.6</v>
-      </c>
-      <c r="Q38">
-        <v>1.5</v>
-      </c>
       <c r="R38">
-        <v>1</v>
+        <v>-0.25</v>
       </c>
       <c r="S38">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T38">
+        <v>1.85</v>
+      </c>
+      <c r="U38">
+        <v>2</v>
+      </c>
+      <c r="V38">
+        <v>2</v>
+      </c>
+      <c r="W38">
         <v>1.8</v>
       </c>
-      <c r="U38">
-        <v>2.5</v>
-      </c>
-      <c r="V38">
-        <v>1.975</v>
-      </c>
-      <c r="W38">
-        <v>1.825</v>
-      </c>
       <c r="X38">
         <v>-1</v>
       </c>
       <c r="Y38">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Z38">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="AA38">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB38">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC38">
-        <v>0.9750000000000001</v>
+        <v>1</v>
       </c>
       <c r="AD38">
         <v>-1</v>
@@ -4026,7 +4026,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>6989503</v>
+        <v>6989504</v>
       </c>
       <c r="C39" t="s">
         <v>29</v>
@@ -4035,79 +4035,79 @@
         <v>45172.5</v>
       </c>
       <c r="E39" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="F39" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G39">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H39">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I39">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J39">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K39" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L39">
-        <v>1.85</v>
+        <v>3.4</v>
       </c>
       <c r="M39">
-        <v>2.8</v>
+        <v>3.4</v>
       </c>
       <c r="N39">
-        <v>4.75</v>
+        <v>1.909</v>
       </c>
       <c r="O39">
-        <v>2.3</v>
+        <v>6</v>
       </c>
       <c r="P39">
-        <v>2.75</v>
+        <v>3.6</v>
       </c>
       <c r="Q39">
-        <v>3.4</v>
+        <v>1.5</v>
       </c>
       <c r="R39">
-        <v>-0.25</v>
+        <v>1</v>
       </c>
       <c r="S39">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T39">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="U39">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="V39">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W39">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="X39">
         <v>-1</v>
       </c>
       <c r="Y39">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Z39">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="AA39">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB39">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC39">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AD39">
         <v>-1</v>
@@ -4118,7 +4118,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>6989318</v>
+        <v>6989670</v>
       </c>
       <c r="C40" t="s">
         <v>29</v>
@@ -4127,82 +4127,82 @@
         <v>45172.58333333334</v>
       </c>
       <c r="E40" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="F40" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G40">
+        <v>1</v>
+      </c>
+      <c r="H40">
+        <v>0</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <v>0</v>
+      </c>
+      <c r="K40" t="s">
+        <v>46</v>
+      </c>
+      <c r="L40">
+        <v>2.1</v>
+      </c>
+      <c r="M40">
         <v>3</v>
       </c>
-      <c r="H40">
-        <v>5</v>
-      </c>
-      <c r="I40">
-        <v>1</v>
-      </c>
-      <c r="J40">
-        <v>2</v>
-      </c>
-      <c r="K40" t="s">
-        <v>47</v>
-      </c>
-      <c r="L40">
-        <v>2.55</v>
-      </c>
-      <c r="M40">
-        <v>3.25</v>
-      </c>
       <c r="N40">
-        <v>2.45</v>
+        <v>3.3</v>
       </c>
       <c r="O40">
-        <v>3.1</v>
+        <v>2.05</v>
       </c>
       <c r="P40">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="Q40">
-        <v>2.15</v>
+        <v>3.4</v>
       </c>
       <c r="R40">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="S40">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T40">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="U40">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="V40">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W40">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="X40">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Y40">
         <v>-1</v>
       </c>
       <c r="Z40">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="AA40">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB40">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC40">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AD40">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="41" spans="1:30">
@@ -4210,7 +4210,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>6989670</v>
+        <v>6989318</v>
       </c>
       <c r="C41" t="s">
         <v>29</v>
@@ -4219,82 +4219,82 @@
         <v>45172.58333333334</v>
       </c>
       <c r="E41" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="F41" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G41">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J41">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L41">
-        <v>2.1</v>
+        <v>2.55</v>
       </c>
       <c r="M41">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="N41">
-        <v>3.3</v>
+        <v>2.45</v>
       </c>
       <c r="O41">
-        <v>2.05</v>
+        <v>3.1</v>
       </c>
       <c r="P41">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="Q41">
-        <v>3.4</v>
+        <v>2.15</v>
       </c>
       <c r="R41">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="S41">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T41">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="U41">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="V41">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W41">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="X41">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Y41">
         <v>-1</v>
       </c>
       <c r="Z41">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="AA41">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB41">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC41">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AD41">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="42" spans="1:30">
@@ -4406,7 +4406,7 @@
         <v>30</v>
       </c>
       <c r="F43" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G43">
         <v>2</v>
@@ -4486,7 +4486,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>6989605</v>
+        <v>6989604</v>
       </c>
       <c r="C44" t="s">
         <v>29</v>
@@ -4495,43 +4495,43 @@
         <v>45178.47916666666</v>
       </c>
       <c r="E44" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F44" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G44">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I44">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J44">
         <v>0</v>
       </c>
       <c r="K44" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="L44">
-        <v>2.15</v>
+        <v>2.05</v>
       </c>
       <c r="M44">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="N44">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="O44">
         <v>2.1</v>
       </c>
       <c r="P44">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="Q44">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="R44">
         <v>-0.25</v>
@@ -4543,34 +4543,34 @@
         <v>1.975</v>
       </c>
       <c r="U44">
+        <v>2.5</v>
+      </c>
+      <c r="V44">
+        <v>1.925</v>
+      </c>
+      <c r="W44">
+        <v>1.875</v>
+      </c>
+      <c r="X44">
+        <v>-1</v>
+      </c>
+      <c r="Y44">
         <v>2.25</v>
       </c>
-      <c r="V44">
-        <v>2</v>
-      </c>
-      <c r="W44">
-        <v>1.8</v>
-      </c>
-      <c r="X44">
-        <v>1.1</v>
-      </c>
-      <c r="Y44">
-        <v>-1</v>
-      </c>
       <c r="Z44">
         <v>-1</v>
       </c>
       <c r="AA44">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AB44">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AC44">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AD44">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="45" spans="1:30">
@@ -4578,7 +4578,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>6989604</v>
+        <v>6989605</v>
       </c>
       <c r="C45" t="s">
         <v>29</v>
@@ -4587,43 +4587,43 @@
         <v>45178.47916666666</v>
       </c>
       <c r="E45" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F45" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G45">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I45">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J45">
         <v>0</v>
       </c>
       <c r="K45" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="L45">
-        <v>2.05</v>
+        <v>2.15</v>
       </c>
       <c r="M45">
+        <v>3.1</v>
+      </c>
+      <c r="N45">
         <v>3.25</v>
-      </c>
-      <c r="N45">
-        <v>3.3</v>
       </c>
       <c r="O45">
         <v>2.1</v>
       </c>
       <c r="P45">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="Q45">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="R45">
         <v>-0.25</v>
@@ -4635,34 +4635,34 @@
         <v>1.975</v>
       </c>
       <c r="U45">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="V45">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W45">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="X45">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Y45">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Z45">
         <v>-1</v>
       </c>
       <c r="AA45">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AB45">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AC45">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AD45">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="46" spans="1:30">
@@ -4866,7 +4866,7 @@
         <v>35</v>
       </c>
       <c r="F48" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G48">
         <v>0</v>
@@ -5139,7 +5139,7 @@
         <v>45185.58333333334</v>
       </c>
       <c r="E51" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F51" t="s">
         <v>32</v>
@@ -5314,7 +5314,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>6989506</v>
+        <v>6989507</v>
       </c>
       <c r="C53" t="s">
         <v>29</v>
@@ -5323,82 +5323,82 @@
         <v>45186.45833333334</v>
       </c>
       <c r="E53" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="F53" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K53" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L53">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="M53">
         <v>3</v>
       </c>
       <c r="N53">
-        <v>2.625</v>
+        <v>2.25</v>
       </c>
       <c r="O53">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="P53">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="Q53">
-        <v>2.625</v>
+        <v>1.8</v>
       </c>
       <c r="R53">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="S53">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T53">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="U53">
         <v>2.25</v>
       </c>
       <c r="V53">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W53">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="X53">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y53">
         <v>-1</v>
       </c>
       <c r="Z53">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="AA53">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB53">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC53">
         <v>-1</v>
       </c>
       <c r="AD53">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="54" spans="1:30">
@@ -5406,7 +5406,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>6989507</v>
+        <v>6989609</v>
       </c>
       <c r="C54" t="s">
         <v>29</v>
@@ -5415,82 +5415,82 @@
         <v>45186.45833333334</v>
       </c>
       <c r="E54" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="F54" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J54">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K54" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L54">
-        <v>3</v>
+        <v>2.3</v>
       </c>
       <c r="M54">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="N54">
-        <v>2.25</v>
+        <v>2.55</v>
       </c>
       <c r="O54">
-        <v>4</v>
+        <v>2.9</v>
       </c>
       <c r="P54">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="Q54">
-        <v>1.8</v>
+        <v>2.15</v>
       </c>
       <c r="R54">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="S54">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T54">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="U54">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="V54">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W54">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="X54">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y54">
         <v>-1</v>
       </c>
       <c r="Z54">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="AA54">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB54">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC54">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AD54">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="55" spans="1:30">
@@ -5498,7 +5498,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>6989609</v>
+        <v>6989506</v>
       </c>
       <c r="C55" t="s">
         <v>29</v>
@@ -5507,46 +5507,46 @@
         <v>45186.45833333334</v>
       </c>
       <c r="E55" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F55" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G55">
         <v>0</v>
       </c>
       <c r="H55">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I55">
         <v>0</v>
       </c>
       <c r="J55">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K55" t="s">
         <v>47</v>
       </c>
       <c r="L55">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="M55">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="N55">
-        <v>2.55</v>
+        <v>2.625</v>
       </c>
       <c r="O55">
-        <v>2.9</v>
+        <v>2.5</v>
       </c>
       <c r="P55">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="Q55">
-        <v>2.15</v>
+        <v>2.625</v>
       </c>
       <c r="R55">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="S55">
         <v>1.85</v>
@@ -5555,13 +5555,13 @@
         <v>1.95</v>
       </c>
       <c r="U55">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="V55">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W55">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="X55">
         <v>-1</v>
@@ -5570,7 +5570,7 @@
         <v>-1</v>
       </c>
       <c r="Z55">
-        <v>1.15</v>
+        <v>1.625</v>
       </c>
       <c r="AA55">
         <v>-1</v>
@@ -5579,10 +5579,10 @@
         <v>0.95</v>
       </c>
       <c r="AC55">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AD55">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="56" spans="1:30">
@@ -5599,7 +5599,7 @@
         <v>45186.58333333334</v>
       </c>
       <c r="E56" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F56" t="s">
         <v>35</v>
@@ -5970,7 +5970,7 @@
         <v>37</v>
       </c>
       <c r="F60" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G60">
         <v>0</v>
@@ -6338,7 +6338,7 @@
         <v>32</v>
       </c>
       <c r="F64" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G64">
         <v>1</v>
@@ -6979,10 +6979,10 @@
         <v>45200.58333333334</v>
       </c>
       <c r="E71" t="s">
+        <v>33</v>
+      </c>
+      <c r="F71" t="s">
         <v>34</v>
-      </c>
-      <c r="F71" t="s">
-        <v>33</v>
       </c>
       <c r="G71">
         <v>0</v>
@@ -7258,7 +7258,7 @@
         <v>31</v>
       </c>
       <c r="F74" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G74">
         <v>1</v>
@@ -7347,7 +7347,7 @@
         <v>45206.54166666666</v>
       </c>
       <c r="E75" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F75" t="s">
         <v>39</v>
@@ -7991,7 +7991,7 @@
         <v>45213.41666666666</v>
       </c>
       <c r="E82" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F82" t="s">
         <v>36</v>
@@ -8267,7 +8267,7 @@
         <v>45214.54166666666</v>
       </c>
       <c r="E85" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F85" t="s">
         <v>31</v>
@@ -8914,7 +8914,7 @@
         <v>36</v>
       </c>
       <c r="F92" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G92">
         <v>2</v>
@@ -9006,7 +9006,7 @@
         <v>45</v>
       </c>
       <c r="F93" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G93">
         <v>1</v>
@@ -9555,7 +9555,7 @@
         <v>45226.5</v>
       </c>
       <c r="E99" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F99" t="s">
         <v>45</v>
@@ -9831,7 +9831,7 @@
         <v>45227.375</v>
       </c>
       <c r="E102" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F102" t="s">
         <v>42</v>
@@ -10294,7 +10294,7 @@
         <v>38</v>
       </c>
       <c r="F107" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G107">
         <v>5</v>
@@ -10846,7 +10846,7 @@
         <v>42</v>
       </c>
       <c r="F113" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G113">
         <v>0</v>
@@ -11214,7 +11214,7 @@
         <v>38</v>
       </c>
       <c r="F117" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G117">
         <v>1</v>
@@ -11306,7 +11306,7 @@
         <v>43</v>
       </c>
       <c r="F118" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G118">
         <v>1</v>
@@ -11763,7 +11763,7 @@
         <v>45248.375</v>
       </c>
       <c r="E123" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F123" t="s">
         <v>40</v>
@@ -11855,7 +11855,7 @@
         <v>45248.375</v>
       </c>
       <c r="E124" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F124" t="s">
         <v>43</v>
@@ -12683,7 +12683,7 @@
         <v>45252.375</v>
       </c>
       <c r="E133" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F133" t="s">
         <v>39</v>
@@ -12775,7 +12775,7 @@
         <v>45253.45833333334</v>
       </c>
       <c r="E134" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F134" t="s">
         <v>37</v>
@@ -13146,7 +13146,7 @@
         <v>40</v>
       </c>
       <c r="F138" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G138">
         <v>1</v>
@@ -13514,7 +13514,7 @@
         <v>44</v>
       </c>
       <c r="F142" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G142">
         <v>0</v>
@@ -13695,7 +13695,7 @@
         <v>45262.375</v>
       </c>
       <c r="E144" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F144" t="s">
         <v>44</v>
@@ -13787,7 +13787,7 @@
         <v>45262.375</v>
       </c>
       <c r="E145" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F145" t="s">
         <v>41</v>
@@ -13870,7 +13870,7 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>6989529</v>
+        <v>6989631</v>
       </c>
       <c r="C146" t="s">
         <v>29</v>
@@ -13879,82 +13879,82 @@
         <v>45262.375</v>
       </c>
       <c r="E146" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="F146" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G146">
         <v>1</v>
       </c>
       <c r="H146">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I146">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J146">
         <v>0</v>
       </c>
       <c r="K146" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L146">
-        <v>4.75</v>
+        <v>2.25</v>
       </c>
       <c r="M146">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="N146">
-        <v>1.571</v>
+        <v>3</v>
       </c>
       <c r="O146">
-        <v>4.75</v>
+        <v>2.25</v>
       </c>
       <c r="P146">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="Q146">
-        <v>1.571</v>
+        <v>3</v>
       </c>
       <c r="R146">
-        <v>1</v>
+        <v>-0.25</v>
       </c>
       <c r="S146">
+        <v>2</v>
+      </c>
+      <c r="T146">
         <v>1.8</v>
       </c>
-      <c r="T146">
-        <v>2</v>
-      </c>
       <c r="U146">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="V146">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W146">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="X146">
         <v>-1</v>
       </c>
       <c r="Y146">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z146">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="AA146">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AB146">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="AC146">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AD146">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="147" spans="1:30">
@@ -13962,7 +13962,7 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>6989631</v>
+        <v>6989529</v>
       </c>
       <c r="C147" t="s">
         <v>29</v>
@@ -13971,82 +13971,82 @@
         <v>45262.375</v>
       </c>
       <c r="E147" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="F147" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G147">
         <v>1</v>
       </c>
       <c r="H147">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I147">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J147">
         <v>0</v>
       </c>
       <c r="K147" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L147">
-        <v>2.25</v>
+        <v>4.75</v>
       </c>
       <c r="M147">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="N147">
-        <v>3</v>
+        <v>1.571</v>
       </c>
       <c r="O147">
-        <v>2.25</v>
+        <v>4.75</v>
       </c>
       <c r="P147">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="Q147">
-        <v>3</v>
+        <v>1.571</v>
       </c>
       <c r="R147">
-        <v>-0.25</v>
+        <v>1</v>
       </c>
       <c r="S147">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="T147">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="U147">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="V147">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W147">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="X147">
         <v>-1</v>
       </c>
       <c r="Y147">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z147">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="AA147">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AB147">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="AC147">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AD147">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="148" spans="1:30">
@@ -14526,7 +14526,7 @@
         <v>41</v>
       </c>
       <c r="F153" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G153">
         <v>0</v>
@@ -14618,7 +14618,7 @@
         <v>30</v>
       </c>
       <c r="F154" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G154">
         <v>0</v>
@@ -14698,7 +14698,7 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>6989332</v>
+        <v>6989633</v>
       </c>
       <c r="C155" t="s">
         <v>29</v>
@@ -14707,16 +14707,16 @@
         <v>45270.375</v>
       </c>
       <c r="E155" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="F155" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="G155">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H155">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I155">
         <v>1</v>
@@ -14728,43 +14728,43 @@
         <v>46</v>
       </c>
       <c r="L155">
-        <v>1.4</v>
+        <v>1.8</v>
       </c>
       <c r="M155">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="N155">
-        <v>7</v>
+        <v>4.2</v>
       </c>
       <c r="O155">
-        <v>1.285</v>
+        <v>1.75</v>
       </c>
       <c r="P155">
-        <v>4.333</v>
+        <v>3.2</v>
       </c>
       <c r="Q155">
-        <v>11</v>
+        <v>4.75</v>
       </c>
       <c r="R155">
-        <v>-1.5</v>
+        <v>-0.75</v>
       </c>
       <c r="S155">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="T155">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="U155">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="V155">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W155">
-        <v>1.85</v>
+        <v>1.725</v>
       </c>
       <c r="X155">
-        <v>0.2849999999999999</v>
+        <v>0.75</v>
       </c>
       <c r="Y155">
         <v>-1</v>
@@ -14773,16 +14773,16 @@
         <v>-1</v>
       </c>
       <c r="AA155">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AB155">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AC155">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AD155">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="156" spans="1:30">
@@ -14790,7 +14790,7 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>6989633</v>
+        <v>6989702</v>
       </c>
       <c r="C156" t="s">
         <v>29</v>
@@ -14799,16 +14799,16 @@
         <v>45270.375</v>
       </c>
       <c r="E156" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F156" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G156">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H156">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I156">
         <v>1</v>
@@ -14820,43 +14820,43 @@
         <v>46</v>
       </c>
       <c r="L156">
-        <v>1.8</v>
+        <v>2.875</v>
       </c>
       <c r="M156">
-        <v>3.1</v>
+        <v>2.875</v>
       </c>
       <c r="N156">
-        <v>4.2</v>
+        <v>2.4</v>
       </c>
       <c r="O156">
-        <v>1.75</v>
+        <v>2.2</v>
       </c>
       <c r="P156">
-        <v>3.2</v>
+        <v>2.8</v>
       </c>
       <c r="Q156">
-        <v>4.75</v>
+        <v>3.4</v>
       </c>
       <c r="R156">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="S156">
         <v>1.95</v>
       </c>
       <c r="T156">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="U156">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="V156">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="W156">
-        <v>1.725</v>
+        <v>1.925</v>
       </c>
       <c r="X156">
-        <v>0.75</v>
+        <v>1.2</v>
       </c>
       <c r="Y156">
         <v>-1</v>
@@ -14865,16 +14865,16 @@
         <v>-1</v>
       </c>
       <c r="AA156">
-        <v>0.475</v>
+        <v>0.95</v>
       </c>
       <c r="AB156">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC156">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AD156">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="157" spans="1:30">
@@ -14882,7 +14882,7 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>6989702</v>
+        <v>6989332</v>
       </c>
       <c r="C157" t="s">
         <v>29</v>
@@ -14891,10 +14891,10 @@
         <v>45270.375</v>
       </c>
       <c r="E157" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="F157" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="G157">
         <v>1</v>
@@ -14912,43 +14912,43 @@
         <v>46</v>
       </c>
       <c r="L157">
-        <v>2.875</v>
+        <v>1.4</v>
       </c>
       <c r="M157">
-        <v>2.875</v>
+        <v>4</v>
       </c>
       <c r="N157">
-        <v>2.4</v>
+        <v>7</v>
       </c>
       <c r="O157">
-        <v>2.2</v>
+        <v>1.285</v>
       </c>
       <c r="P157">
-        <v>2.8</v>
+        <v>4.333</v>
       </c>
       <c r="Q157">
-        <v>3.4</v>
+        <v>11</v>
       </c>
       <c r="R157">
-        <v>-0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="S157">
+        <v>1.85</v>
+      </c>
+      <c r="T157">
         <v>1.95</v>
       </c>
-      <c r="T157">
+      <c r="U157">
+        <v>2.5</v>
+      </c>
+      <c r="V157">
+        <v>1.95</v>
+      </c>
+      <c r="W157">
         <v>1.85</v>
       </c>
-      <c r="U157">
-        <v>1.5</v>
-      </c>
-      <c r="V157">
-        <v>1.875</v>
-      </c>
-      <c r="W157">
-        <v>1.925</v>
-      </c>
       <c r="X157">
-        <v>1.2</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="Y157">
         <v>-1</v>
@@ -14957,16 +14957,16 @@
         <v>-1</v>
       </c>
       <c r="AA157">
+        <v>-1</v>
+      </c>
+      <c r="AB157">
         <v>0.95</v>
       </c>
-      <c r="AB157">
-        <v>-1</v>
-      </c>
       <c r="AC157">
         <v>-1</v>
       </c>
       <c r="AD157">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="158" spans="1:30">
@@ -15342,7 +15342,7 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>6989705</v>
+        <v>6989635</v>
       </c>
       <c r="C162" t="s">
         <v>29</v>
@@ -15351,13 +15351,13 @@
         <v>45346.375</v>
       </c>
       <c r="E162" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F162" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="G162">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H162">
         <v>0</v>
@@ -15369,64 +15369,64 @@
         <v>0</v>
       </c>
       <c r="K162" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="L162">
-        <v>2.25</v>
+        <v>1.909</v>
       </c>
       <c r="M162">
-        <v>2.875</v>
+        <v>3.1</v>
       </c>
       <c r="N162">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="O162">
-        <v>2.05</v>
+        <v>1.909</v>
       </c>
       <c r="P162">
-        <v>2.875</v>
+        <v>3.2</v>
       </c>
       <c r="Q162">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="R162">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="S162">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="T162">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="U162">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="V162">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W162">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="X162">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="Y162">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Z162">
         <v>-1</v>
       </c>
       <c r="AA162">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB162">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC162">
         <v>-1</v>
       </c>
       <c r="AD162">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="163" spans="1:30">
@@ -15434,7 +15434,7 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>7018979</v>
+        <v>6989705</v>
       </c>
       <c r="C163" t="s">
         <v>29</v>
@@ -15443,46 +15443,46 @@
         <v>45346.375</v>
       </c>
       <c r="E163" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F163" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="G163">
         <v>0</v>
       </c>
       <c r="H163">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I163">
         <v>0</v>
       </c>
       <c r="J163">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K163" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L163">
-        <v>2.4</v>
+        <v>2.25</v>
       </c>
       <c r="M163">
-        <v>3</v>
+        <v>2.875</v>
       </c>
       <c r="N163">
-        <v>2.75</v>
+        <v>3.1</v>
       </c>
       <c r="O163">
-        <v>2.5</v>
+        <v>2.05</v>
       </c>
       <c r="P163">
-        <v>3</v>
+        <v>2.875</v>
       </c>
       <c r="Q163">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="R163">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="S163">
         <v>1.8</v>
@@ -15491,34 +15491,34 @@
         <v>2</v>
       </c>
       <c r="U163">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
       <c r="V163">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W163">
-        <v>1.725</v>
+        <v>1.85</v>
       </c>
       <c r="X163">
         <v>-1</v>
       </c>
       <c r="Y163">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Z163">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="AA163">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB163">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AC163">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AD163">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="164" spans="1:30">
@@ -15526,7 +15526,7 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>6989635</v>
+        <v>7018979</v>
       </c>
       <c r="C164" t="s">
         <v>29</v>
@@ -15535,82 +15535,82 @@
         <v>45346.375</v>
       </c>
       <c r="E164" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="F164" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G164">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H164">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I164">
         <v>0</v>
       </c>
       <c r="J164">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K164" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L164">
-        <v>1.909</v>
+        <v>2.4</v>
       </c>
       <c r="M164">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="N164">
-        <v>3.75</v>
+        <v>2.75</v>
       </c>
       <c r="O164">
-        <v>1.909</v>
+        <v>2.5</v>
       </c>
       <c r="P164">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="Q164">
-        <v>3.6</v>
+        <v>2.75</v>
       </c>
       <c r="R164">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="S164">
+        <v>1.8</v>
+      </c>
+      <c r="T164">
+        <v>2</v>
+      </c>
+      <c r="U164">
+        <v>2.25</v>
+      </c>
+      <c r="V164">
         <v>1.975</v>
       </c>
-      <c r="T164">
-        <v>1.825</v>
-      </c>
-      <c r="U164">
-        <v>2</v>
-      </c>
-      <c r="V164">
-        <v>1.9</v>
-      </c>
       <c r="W164">
-        <v>1.9</v>
+        <v>1.725</v>
       </c>
       <c r="X164">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="Y164">
         <v>-1</v>
       </c>
       <c r="Z164">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="AA164">
+        <v>-1</v>
+      </c>
+      <c r="AB164">
+        <v>1</v>
+      </c>
+      <c r="AC164">
         <v>0.9750000000000001</v>
       </c>
-      <c r="AB164">
-        <v>-1</v>
-      </c>
-      <c r="AC164">
-        <v>-1</v>
-      </c>
       <c r="AD164">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="165" spans="1:30">
@@ -15995,7 +15995,7 @@
         <v>45347.54166666666</v>
       </c>
       <c r="E169" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F169" t="s">
         <v>35</v>
@@ -16366,7 +16366,7 @@
         <v>35</v>
       </c>
       <c r="F173" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G173">
         <v>1</v>
@@ -16458,7 +16458,7 @@
         <v>32</v>
       </c>
       <c r="F174" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G174">
         <v>2</v>
@@ -16906,7 +16906,7 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>6989710</v>
+        <v>7018981</v>
       </c>
       <c r="C179" t="s">
         <v>29</v>
@@ -16915,46 +16915,46 @@
         <v>45357.41666666666</v>
       </c>
       <c r="E179" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F179" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="G179">
         <v>0</v>
       </c>
       <c r="H179">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I179">
         <v>0</v>
       </c>
       <c r="J179">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K179" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L179">
-        <v>1.571</v>
+        <v>3</v>
       </c>
       <c r="M179">
-        <v>3.25</v>
+        <v>2.8</v>
       </c>
       <c r="N179">
-        <v>6</v>
+        <v>2.375</v>
       </c>
       <c r="O179">
-        <v>1.75</v>
+        <v>2.5</v>
       </c>
       <c r="P179">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="Q179">
-        <v>4.75</v>
+        <v>2.75</v>
       </c>
       <c r="R179">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="S179">
         <v>1.8</v>
@@ -16963,22 +16963,22 @@
         <v>2</v>
       </c>
       <c r="U179">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="V179">
+        <v>1.95</v>
+      </c>
+      <c r="W179">
         <v>1.85</v>
       </c>
-      <c r="W179">
-        <v>1.95</v>
-      </c>
       <c r="X179">
         <v>-1</v>
       </c>
       <c r="Y179">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z179">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="AA179">
         <v>-1</v>
@@ -16987,10 +16987,10 @@
         <v>1</v>
       </c>
       <c r="AC179">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AD179">
-        <v>0.95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180" spans="1:30">
@@ -16998,7 +16998,7 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>7018981</v>
+        <v>6989710</v>
       </c>
       <c r="C180" t="s">
         <v>29</v>
@@ -17007,46 +17007,46 @@
         <v>45357.41666666666</v>
       </c>
       <c r="E180" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F180" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="G180">
         <v>0</v>
       </c>
       <c r="H180">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I180">
         <v>0</v>
       </c>
       <c r="J180">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K180" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L180">
+        <v>1.571</v>
+      </c>
+      <c r="M180">
+        <v>3.25</v>
+      </c>
+      <c r="N180">
+        <v>6</v>
+      </c>
+      <c r="O180">
+        <v>1.75</v>
+      </c>
+      <c r="P180">
         <v>3</v>
       </c>
-      <c r="M180">
-        <v>2.8</v>
-      </c>
-      <c r="N180">
-        <v>2.375</v>
-      </c>
-      <c r="O180">
-        <v>2.5</v>
-      </c>
-      <c r="P180">
-        <v>2.8</v>
-      </c>
       <c r="Q180">
-        <v>2.75</v>
+        <v>4.75</v>
       </c>
       <c r="R180">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="S180">
         <v>1.8</v>
@@ -17055,22 +17055,22 @@
         <v>2</v>
       </c>
       <c r="U180">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="V180">
+        <v>1.85</v>
+      </c>
+      <c r="W180">
         <v>1.95</v>
       </c>
-      <c r="W180">
-        <v>1.85</v>
-      </c>
       <c r="X180">
         <v>-1</v>
       </c>
       <c r="Y180">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z180">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="AA180">
         <v>-1</v>
@@ -17079,10 +17079,10 @@
         <v>1</v>
       </c>
       <c r="AC180">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AD180">
-        <v>0</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="181" spans="1:30">
@@ -17090,7 +17090,7 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>6989334</v>
+        <v>6989642</v>
       </c>
       <c r="C181" t="s">
         <v>29</v>
@@ -17099,82 +17099,82 @@
         <v>45357.54166666666</v>
       </c>
       <c r="E181" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="F181" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="G181">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H181">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I181">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J181">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K181" t="s">
         <v>48</v>
       </c>
       <c r="L181">
-        <v>1.8</v>
+        <v>1.909</v>
       </c>
       <c r="M181">
         <v>3.1</v>
       </c>
       <c r="N181">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="O181">
-        <v>2.05</v>
+        <v>1.909</v>
       </c>
       <c r="P181">
-        <v>3</v>
+        <v>2.625</v>
       </c>
       <c r="Q181">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="R181">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="S181">
+        <v>1.975</v>
+      </c>
+      <c r="T181">
+        <v>1.825</v>
+      </c>
+      <c r="U181">
+        <v>1.75</v>
+      </c>
+      <c r="V181">
+        <v>2</v>
+      </c>
+      <c r="W181">
         <v>1.8</v>
       </c>
-      <c r="T181">
-        <v>2</v>
-      </c>
-      <c r="U181">
-        <v>1.5</v>
-      </c>
-      <c r="V181">
-        <v>1.8</v>
-      </c>
-      <c r="W181">
-        <v>2</v>
-      </c>
       <c r="X181">
         <v>-1</v>
       </c>
       <c r="Y181">
-        <v>2</v>
+        <v>1.625</v>
       </c>
       <c r="Z181">
         <v>-1</v>
       </c>
       <c r="AA181">
+        <v>-1</v>
+      </c>
+      <c r="AB181">
+        <v>0.825</v>
+      </c>
+      <c r="AC181">
+        <v>0.5</v>
+      </c>
+      <c r="AD181">
         <v>-0.5</v>
-      </c>
-      <c r="AB181">
-        <v>0.5</v>
-      </c>
-      <c r="AC181">
-        <v>-1</v>
-      </c>
-      <c r="AD181">
-        <v>1</v>
       </c>
     </row>
     <row r="182" spans="1:30">
@@ -17191,7 +17191,7 @@
         <v>45357.54166666666</v>
       </c>
       <c r="E182" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F182" t="s">
         <v>37</v>
@@ -17274,7 +17274,7 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>6989642</v>
+        <v>6989334</v>
       </c>
       <c r="C183" t="s">
         <v>29</v>
@@ -17283,82 +17283,82 @@
         <v>45357.54166666666</v>
       </c>
       <c r="E183" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="F183" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="G183">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H183">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I183">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J183">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K183" t="s">
         <v>48</v>
       </c>
       <c r="L183">
-        <v>1.909</v>
+        <v>1.8</v>
       </c>
       <c r="M183">
         <v>3.1</v>
       </c>
       <c r="N183">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="O183">
-        <v>1.909</v>
+        <v>2.05</v>
       </c>
       <c r="P183">
-        <v>2.625</v>
+        <v>3</v>
       </c>
       <c r="Q183">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="R183">
+        <v>-0.25</v>
+      </c>
+      <c r="S183">
+        <v>1.8</v>
+      </c>
+      <c r="T183">
+        <v>2</v>
+      </c>
+      <c r="U183">
+        <v>1.5</v>
+      </c>
+      <c r="V183">
+        <v>1.8</v>
+      </c>
+      <c r="W183">
+        <v>2</v>
+      </c>
+      <c r="X183">
+        <v>-1</v>
+      </c>
+      <c r="Y183">
+        <v>2</v>
+      </c>
+      <c r="Z183">
+        <v>-1</v>
+      </c>
+      <c r="AA183">
         <v>-0.5</v>
       </c>
-      <c r="S183">
-        <v>1.975</v>
-      </c>
-      <c r="T183">
-        <v>1.825</v>
-      </c>
-      <c r="U183">
-        <v>1.75</v>
-      </c>
-      <c r="V183">
-        <v>2</v>
-      </c>
-      <c r="W183">
-        <v>1.8</v>
-      </c>
-      <c r="X183">
-        <v>-1</v>
-      </c>
-      <c r="Y183">
-        <v>1.625</v>
-      </c>
-      <c r="Z183">
-        <v>-1</v>
-      </c>
-      <c r="AA183">
-        <v>-1</v>
-      </c>
       <c r="AB183">
-        <v>0.825</v>
+        <v>0.5</v>
       </c>
       <c r="AC183">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AD183">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="184" spans="1:30">
@@ -17562,7 +17562,7 @@
         <v>39</v>
       </c>
       <c r="F186" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G186">
         <v>2</v>
@@ -17746,7 +17746,7 @@
         <v>37</v>
       </c>
       <c r="F188" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G188">
         <v>2</v>
@@ -18755,10 +18755,10 @@
         <v>45368.41666666666</v>
       </c>
       <c r="E199" t="s">
+        <v>34</v>
+      </c>
+      <c r="F199" t="s">
         <v>33</v>
-      </c>
-      <c r="F199" t="s">
-        <v>34</v>
       </c>
       <c r="G199">
         <v>2</v>
@@ -18850,7 +18850,7 @@
         <v>39</v>
       </c>
       <c r="F200" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G200">
         <v>0</v>
@@ -19031,7 +19031,7 @@
         <v>45374.54166666666</v>
       </c>
       <c r="E202" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F202" t="s">
         <v>31</v>
@@ -19586,7 +19586,7 @@
         <v>31</v>
       </c>
       <c r="F208" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G208">
         <v>2</v>
@@ -19678,7 +19678,7 @@
         <v>36</v>
       </c>
       <c r="F209" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G209">
         <v>0</v>
@@ -20319,7 +20319,7 @@
         <v>45384.54166666666</v>
       </c>
       <c r="E216" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F216" t="s">
         <v>36</v>
@@ -20411,7 +20411,7 @@
         <v>45384.54166666666</v>
       </c>
       <c r="E217" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F217" t="s">
         <v>45</v>
@@ -20678,7 +20678,7 @@
         <v>218</v>
       </c>
       <c r="B220">
-        <v>7018986</v>
+        <v>6989722</v>
       </c>
       <c r="C220" t="s">
         <v>29</v>
@@ -20687,82 +20687,82 @@
         <v>45385.45833333334</v>
       </c>
       <c r="E220" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="F220" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="G220">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H220">
         <v>0</v>
       </c>
       <c r="I220">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J220">
         <v>0</v>
       </c>
       <c r="K220" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="L220">
-        <v>2.2</v>
+        <v>2.375</v>
       </c>
       <c r="M220">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="N220">
+        <v>3</v>
+      </c>
+      <c r="O220">
+        <v>2.4</v>
+      </c>
+      <c r="P220">
+        <v>2.625</v>
+      </c>
+      <c r="Q220">
         <v>3.2</v>
       </c>
-      <c r="O220">
+      <c r="R220">
+        <v>-0.25</v>
+      </c>
+      <c r="S220">
+        <v>2.05</v>
+      </c>
+      <c r="T220">
+        <v>1.75</v>
+      </c>
+      <c r="U220">
+        <v>1.75</v>
+      </c>
+      <c r="V220">
         <v>1.95</v>
       </c>
-      <c r="P220">
-        <v>2.875</v>
-      </c>
-      <c r="Q220">
-        <v>4</v>
-      </c>
-      <c r="R220">
+      <c r="W220">
+        <v>1.85</v>
+      </c>
+      <c r="X220">
+        <v>-1</v>
+      </c>
+      <c r="Y220">
+        <v>1.625</v>
+      </c>
+      <c r="Z220">
+        <v>-1</v>
+      </c>
+      <c r="AA220">
         <v>-0.5</v>
       </c>
-      <c r="S220">
-        <v>2.025</v>
-      </c>
-      <c r="T220">
-        <v>1.775</v>
-      </c>
-      <c r="U220">
-        <v>2</v>
-      </c>
-      <c r="V220">
-        <v>2.025</v>
-      </c>
-      <c r="W220">
-        <v>1.775</v>
-      </c>
-      <c r="X220">
-        <v>0.95</v>
-      </c>
-      <c r="Y220">
-        <v>-1</v>
-      </c>
-      <c r="Z220">
-        <v>-1</v>
-      </c>
-      <c r="AA220">
-        <v>1.025</v>
-      </c>
       <c r="AB220">
-        <v>-1</v>
+        <v>0.375</v>
       </c>
       <c r="AC220">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AD220">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="221" spans="1:30">
@@ -20770,7 +20770,7 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>6989722</v>
+        <v>7018986</v>
       </c>
       <c r="C221" t="s">
         <v>29</v>
@@ -20779,82 +20779,82 @@
         <v>45385.45833333334</v>
       </c>
       <c r="E221" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="F221" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G221">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H221">
         <v>0</v>
       </c>
       <c r="I221">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J221">
         <v>0</v>
       </c>
       <c r="K221" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="L221">
-        <v>2.375</v>
+        <v>2.2</v>
       </c>
       <c r="M221">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="N221">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="O221">
-        <v>2.4</v>
+        <v>1.95</v>
       </c>
       <c r="P221">
-        <v>2.625</v>
+        <v>2.875</v>
       </c>
       <c r="Q221">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="R221">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="S221">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="T221">
-        <v>1.75</v>
+        <v>1.775</v>
       </c>
       <c r="U221">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="V221">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="W221">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="X221">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Y221">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="Z221">
         <v>-1</v>
       </c>
       <c r="AA221">
-        <v>-0.5</v>
+        <v>1.025</v>
       </c>
       <c r="AB221">
-        <v>0.375</v>
+        <v>-1</v>
       </c>
       <c r="AC221">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AD221">
-        <v>0.8500000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="222" spans="1:30">
@@ -21058,7 +21058,7 @@
         <v>42</v>
       </c>
       <c r="F224" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G224">
         <v>0</v>
@@ -21426,7 +21426,7 @@
         <v>45</v>
       </c>
       <c r="F228" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G228">
         <v>1</v>
@@ -21607,7 +21607,7 @@
         <v>45395.45833333334</v>
       </c>
       <c r="E230" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F230" t="s">
         <v>38</v>
@@ -21883,7 +21883,7 @@
         <v>45396.54166666666</v>
       </c>
       <c r="E233" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F233" t="s">
         <v>42</v>
@@ -22346,7 +22346,7 @@
         <v>45</v>
       </c>
       <c r="F238" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G238">
         <v>1</v>
@@ -22527,7 +22527,7 @@
         <v>45403.54166666666</v>
       </c>
       <c r="E240" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F240" t="s">
         <v>36</v>
@@ -22990,7 +22990,7 @@
         <v>42</v>
       </c>
       <c r="F245" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G245">
         <v>1</v>
@@ -23171,7 +23171,7 @@
         <v>45410.54166666666</v>
       </c>
       <c r="E247" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F247" t="s">
         <v>32</v>
@@ -23539,10 +23539,10 @@
         <v>45414.54166666666</v>
       </c>
       <c r="E251" t="s">
+        <v>34</v>
+      </c>
+      <c r="F251" t="s">
         <v>33</v>
-      </c>
-      <c r="F251" t="s">
-        <v>34</v>
       </c>
       <c r="G251">
         <v>1</v>
@@ -23910,7 +23910,7 @@
         <v>32</v>
       </c>
       <c r="F255" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G255">
         <v>1</v>
@@ -24094,7 +24094,7 @@
         <v>35</v>
       </c>
       <c r="F257" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G257">
         <v>1</v>
@@ -24183,7 +24183,7 @@
         <v>45425.58333333334</v>
       </c>
       <c r="E258" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F258" t="s">
         <v>44</v>
@@ -24367,7 +24367,7 @@
         <v>45431.5</v>
       </c>
       <c r="E260" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F260" t="s">
         <v>35</v>
@@ -24462,7 +24462,7 @@
         <v>44</v>
       </c>
       <c r="F261" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G261">
         <v>0</v>

--- a/Serbia Prva Liga/Serbia Prva Liga.xlsx
+++ b/Serbia Prva Liga/Serbia Prva Liga.xlsx
@@ -106,10 +106,10 @@
     <t>Serbia Prva Liga</t>
   </si>
   <si>
-    <t>Smederevo</t>
+    <t>OFK Vrsac</t>
   </si>
   <si>
-    <t>OFK Vrsac</t>
+    <t>Smederevo</t>
   </si>
   <si>
     <t>Jedinstvo UB</t>
@@ -121,10 +121,10 @@
     <t>Sloboda Uzice</t>
   </si>
   <si>
-    <t>FK Radnicki Beograd</t>
+    <t>FK Mladost Gat Novi Sad</t>
   </si>
   <si>
-    <t>FK Mladost Gat Novi Sad</t>
+    <t>FK Radnicki Beograd</t>
   </si>
   <si>
     <t>FK Macva Sabac</t>
@@ -133,19 +133,19 @@
     <t>FK Graficar Beograd</t>
   </si>
   <si>
-    <t>FK Tekstilac Odzaci</t>
-  </si>
-  <si>
     <t>Radnicki Sremska Mitrovica</t>
   </si>
   <si>
     <t>FK Indija</t>
   </si>
   <si>
-    <t>RFK Novi Sad 1921</t>
+    <t>FK Tekstilac Odzaci</t>
   </si>
   <si>
     <t>OFK Belgrade</t>
+  </si>
+  <si>
+    <t>RFK Novi Sad 1921</t>
   </si>
   <si>
     <t>FK Kolubara</t>
@@ -622,7 +622,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>6989497</v>
+        <v>7018401</v>
       </c>
       <c r="C2" t="s">
         <v>29</v>
@@ -634,16 +634,16 @@
         <v>30</v>
       </c>
       <c r="F2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -652,19 +652,19 @@
         <v>46</v>
       </c>
       <c r="L2">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="M2">
-        <v>2.8</v>
+        <v>2.875</v>
       </c>
       <c r="N2">
         <v>2.55</v>
       </c>
       <c r="O2">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="P2">
-        <v>2.8</v>
+        <v>2.875</v>
       </c>
       <c r="Q2">
         <v>2.55</v>
@@ -682,13 +682,13 @@
         <v>2</v>
       </c>
       <c r="V2">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="W2">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="X2">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="Y2">
         <v>-1</v>
@@ -703,10 +703,10 @@
         <v>-1</v>
       </c>
       <c r="AC2">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AD2">
-        <v>0</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="3" spans="1:30">
@@ -714,7 +714,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>7018401</v>
+        <v>6989497</v>
       </c>
       <c r="C3" t="s">
         <v>29</v>
@@ -726,16 +726,16 @@
         <v>31</v>
       </c>
       <c r="F3" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="G3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -744,19 +744,19 @@
         <v>46</v>
       </c>
       <c r="L3">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="M3">
-        <v>2.875</v>
+        <v>2.8</v>
       </c>
       <c r="N3">
         <v>2.55</v>
       </c>
       <c r="O3">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="P3">
-        <v>2.875</v>
+        <v>2.8</v>
       </c>
       <c r="Q3">
         <v>2.55</v>
@@ -774,13 +774,13 @@
         <v>2</v>
       </c>
       <c r="V3">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="W3">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="X3">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="Y3">
         <v>-1</v>
@@ -795,10 +795,10 @@
         <v>-1</v>
       </c>
       <c r="AC3">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AD3">
-        <v>1.025</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:30">
@@ -818,7 +818,7 @@
         <v>32</v>
       </c>
       <c r="F4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G4">
         <v>4</v>
@@ -1002,7 +1002,7 @@
         <v>34</v>
       </c>
       <c r="F6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -1082,7 +1082,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6989313</v>
+        <v>6989658</v>
       </c>
       <c r="C7" t="s">
         <v>29</v>
@@ -1094,79 +1094,79 @@
         <v>35</v>
       </c>
       <c r="F7" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="G7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="L7">
-        <v>1.85</v>
+        <v>1.727</v>
       </c>
       <c r="M7">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="N7">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="O7">
-        <v>2.05</v>
+        <v>1.65</v>
       </c>
       <c r="P7">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="Q7">
-        <v>3.2</v>
+        <v>4.75</v>
       </c>
       <c r="R7">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="S7">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="T7">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="U7">
         <v>2.25</v>
       </c>
       <c r="V7">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="W7">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="X7">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Y7">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Z7">
         <v>-1</v>
       </c>
       <c r="AA7">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB7">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC7">
         <v>-0.5</v>
       </c>
       <c r="AD7">
-        <v>0.425</v>
+        <v>0.3875</v>
       </c>
     </row>
     <row r="8" spans="1:30">
@@ -1174,7 +1174,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6989658</v>
+        <v>6989313</v>
       </c>
       <c r="C8" t="s">
         <v>29</v>
@@ -1186,79 +1186,79 @@
         <v>36</v>
       </c>
       <c r="F8" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="G8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="L8">
-        <v>1.727</v>
+        <v>1.85</v>
       </c>
       <c r="M8">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="N8">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="O8">
-        <v>1.65</v>
+        <v>2.05</v>
       </c>
       <c r="P8">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="Q8">
-        <v>4.75</v>
+        <v>3.2</v>
       </c>
       <c r="R8">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="S8">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T8">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="U8">
         <v>2.25</v>
       </c>
       <c r="V8">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="W8">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="X8">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Y8">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Z8">
         <v>-1</v>
       </c>
       <c r="AA8">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB8">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC8">
         <v>-0.5</v>
       </c>
       <c r="AD8">
-        <v>0.3875</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="9" spans="1:30">
@@ -1278,7 +1278,7 @@
         <v>37</v>
       </c>
       <c r="F9" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -1459,10 +1459,10 @@
         <v>45150.52083333334</v>
       </c>
       <c r="E11" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -1542,7 +1542,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6989662</v>
+        <v>6989598</v>
       </c>
       <c r="C12" t="s">
         <v>29</v>
@@ -1554,79 +1554,79 @@
         <v>39</v>
       </c>
       <c r="F12" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G12">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="L12">
-        <v>2.5</v>
+        <v>1.909</v>
       </c>
       <c r="M12">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="N12">
-        <v>2.625</v>
+        <v>3.6</v>
       </c>
       <c r="O12">
-        <v>2</v>
+        <v>1.909</v>
       </c>
       <c r="P12">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="Q12">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="R12">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="S12">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="T12">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="U12">
         <v>2</v>
       </c>
       <c r="V12">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="W12">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="X12">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Y12">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Z12">
         <v>-1</v>
       </c>
       <c r="AA12">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB12">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC12">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AD12">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="13" spans="1:30">
@@ -1634,7 +1634,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6989598</v>
+        <v>6989315</v>
       </c>
       <c r="C13" t="s">
         <v>29</v>
@@ -1646,19 +1646,19 @@
         <v>40</v>
       </c>
       <c r="F13" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K13" t="s">
         <v>48</v>
@@ -1676,7 +1676,7 @@
         <v>1.909</v>
       </c>
       <c r="P13">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="Q13">
         <v>3.6</v>
@@ -1691,19 +1691,19 @@
         <v>1.825</v>
       </c>
       <c r="U13">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="V13">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="W13">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="X13">
         <v>-1</v>
       </c>
       <c r="Y13">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="Z13">
         <v>-1</v>
@@ -1715,10 +1715,10 @@
         <v>0.825</v>
       </c>
       <c r="AC13">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AD13">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="14" spans="1:30">
@@ -1726,7 +1726,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6989315</v>
+        <v>6989662</v>
       </c>
       <c r="C14" t="s">
         <v>29</v>
@@ -1738,76 +1738,76 @@
         <v>41</v>
       </c>
       <c r="F14" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="G14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K14" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="L14">
-        <v>1.909</v>
+        <v>2.5</v>
       </c>
       <c r="M14">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="N14">
-        <v>3.6</v>
+        <v>2.625</v>
       </c>
       <c r="O14">
-        <v>1.909</v>
+        <v>2</v>
       </c>
       <c r="P14">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="Q14">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="R14">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="S14">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="T14">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="U14">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="V